--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.479692</v>
+        <v>0.357779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.566643</v>
+        <v>0.652603</v>
       </c>
       <c r="D2" t="n">
-        <v>0.367818</v>
+        <v>0.346201</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.480689</v>
+        <v>0.360245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5891420000000001</v>
+        <v>0.641465</v>
       </c>
       <c r="D3" t="n">
-        <v>0.371032</v>
+        <v>0.347897</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.480804</v>
+        <v>0.352306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.591266</v>
+        <v>0.644533</v>
       </c>
       <c r="D4" t="n">
-        <v>0.370345</v>
+        <v>0.351946</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.484462</v>
+        <v>0.369787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.59892</v>
+        <v>0.651374</v>
       </c>
       <c r="D5" t="n">
-        <v>0.357519</v>
+        <v>0.350075</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.49396</v>
+        <v>0.363329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.614818</v>
+        <v>0.6579390000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.389694</v>
+        <v>0.360511</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.505966</v>
+        <v>0.372932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6178</v>
+        <v>0.642427</v>
       </c>
       <c r="D7" t="n">
-        <v>0.404927</v>
+        <v>0.331205</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.504138</v>
+        <v>0.381571</v>
       </c>
       <c r="C8" t="n">
-        <v>0.62906</v>
+        <v>0.668381</v>
       </c>
       <c r="D8" t="n">
-        <v>0.407033</v>
+        <v>0.335143</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.527755</v>
+        <v>0.387751</v>
       </c>
       <c r="C9" t="n">
-        <v>0.627946</v>
+        <v>0.675244</v>
       </c>
       <c r="D9" t="n">
-        <v>0.404512</v>
+        <v>0.3419</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.525545</v>
+        <v>0.385629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.620073</v>
+        <v>0.677101</v>
       </c>
       <c r="D10" t="n">
-        <v>0.424327</v>
+        <v>0.343732</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5197000000000001</v>
+        <v>0.399953</v>
       </c>
       <c r="C11" t="n">
-        <v>0.642675</v>
+        <v>0.688011</v>
       </c>
       <c r="D11" t="n">
-        <v>0.409714</v>
+        <v>0.347537</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.531088</v>
+        <v>0.397976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.648208</v>
+        <v>0.682151</v>
       </c>
       <c r="D12" t="n">
-        <v>0.431656</v>
+        <v>0.351512</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5410970000000001</v>
+        <v>0.392388</v>
       </c>
       <c r="C13" t="n">
-        <v>0.651855</v>
+        <v>0.6910500000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.423391</v>
+        <v>0.354638</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.542499</v>
+        <v>0.401633</v>
       </c>
       <c r="C14" t="n">
-        <v>0.655886</v>
+        <v>0.706318</v>
       </c>
       <c r="D14" t="n">
-        <v>0.430506</v>
+        <v>0.363943</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.541838</v>
+        <v>0.406082</v>
       </c>
       <c r="C15" t="n">
-        <v>0.67457</v>
+        <v>0.715394</v>
       </c>
       <c r="D15" t="n">
-        <v>0.431802</v>
+        <v>0.365898</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5410239999999999</v>
+        <v>0.41151</v>
       </c>
       <c r="C16" t="n">
-        <v>0.672311</v>
+        <v>0.72141</v>
       </c>
       <c r="D16" t="n">
-        <v>0.441587</v>
+        <v>0.369895</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.548163</v>
+        <v>0.42354</v>
       </c>
       <c r="C17" t="n">
-        <v>0.674143</v>
+        <v>0.73011</v>
       </c>
       <c r="D17" t="n">
-        <v>0.445919</v>
+        <v>0.379091</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.552902</v>
+        <v>0.425992</v>
       </c>
       <c r="C18" t="n">
-        <v>0.680914</v>
+        <v>0.7306550000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.440808</v>
+        <v>0.387971</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5481239999999999</v>
+        <v>0.435138</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6753130000000001</v>
+        <v>0.733638</v>
       </c>
       <c r="D19" t="n">
-        <v>0.448616</v>
+        <v>0.394215</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.552088</v>
+        <v>0.444024</v>
       </c>
       <c r="C20" t="n">
-        <v>0.699332</v>
+        <v>0.753869</v>
       </c>
       <c r="D20" t="n">
-        <v>0.450956</v>
+        <v>0.401611</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.55047</v>
+        <v>0.439284</v>
       </c>
       <c r="C21" t="n">
-        <v>0.690908</v>
+        <v>0.746913</v>
       </c>
       <c r="D21" t="n">
-        <v>0.456248</v>
+        <v>0.408042</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.557805</v>
+        <v>0.458166</v>
       </c>
       <c r="C22" t="n">
-        <v>0.707601</v>
+        <v>0.7588819999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.461053</v>
+        <v>0.413581</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5627</v>
+        <v>0.465693</v>
       </c>
       <c r="C23" t="n">
-        <v>0.712938</v>
+        <v>0.763841</v>
       </c>
       <c r="D23" t="n">
-        <v>0.465187</v>
+        <v>0.416204</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.568561</v>
+        <v>0.475245</v>
       </c>
       <c r="C24" t="n">
-        <v>0.711384</v>
+        <v>0.769347</v>
       </c>
       <c r="D24" t="n">
-        <v>0.467414</v>
+        <v>0.431443</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.570207</v>
+        <v>0.474616</v>
       </c>
       <c r="C25" t="n">
-        <v>0.721866</v>
+        <v>0.753595</v>
       </c>
       <c r="D25" t="n">
-        <v>0.455647</v>
+        <v>0.437893</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.581576</v>
+        <v>0.487502</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7138060000000001</v>
+        <v>0.770883</v>
       </c>
       <c r="D26" t="n">
-        <v>0.468915</v>
+        <v>0.445665</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.568641</v>
+        <v>0.477426</v>
       </c>
       <c r="C27" t="n">
-        <v>0.708086</v>
+        <v>0.781149</v>
       </c>
       <c r="D27" t="n">
-        <v>0.47443</v>
+        <v>0.454021</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5708029999999999</v>
+        <v>0.481511</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7235</v>
+        <v>0.7715340000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.462854</v>
+        <v>0.461654</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.569668</v>
+        <v>0.49975</v>
       </c>
       <c r="C29" t="n">
-        <v>0.726886</v>
+        <v>0.789316</v>
       </c>
       <c r="D29" t="n">
-        <v>0.465702</v>
+        <v>0.46879</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.573354</v>
+        <v>0.499213</v>
       </c>
       <c r="C30" t="n">
-        <v>0.731203</v>
+        <v>0.7965410000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.479145</v>
+        <v>0.468711</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.577138</v>
+        <v>0.498233</v>
       </c>
       <c r="C31" t="n">
-        <v>0.73363</v>
+        <v>0.7776729999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.478733</v>
+        <v>0.482449</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.58125</v>
+        <v>0.503372</v>
       </c>
       <c r="C32" t="n">
-        <v>0.743231</v>
+        <v>0.807226</v>
       </c>
       <c r="D32" t="n">
-        <v>0.476199</v>
+        <v>0.489858</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.561312</v>
+        <v>0.491368</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7510250000000001</v>
+        <v>0.815793</v>
       </c>
       <c r="D33" t="n">
-        <v>0.488362</v>
+        <v>0.497807</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.587659</v>
+        <v>0.659548</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7512760000000001</v>
+        <v>0.822406</v>
       </c>
       <c r="D34" t="n">
-        <v>0.489176</v>
+        <v>0.501125</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.609903</v>
+        <v>0.522375</v>
       </c>
       <c r="C35" t="n">
-        <v>0.759373</v>
+        <v>0.8414779999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.492803</v>
+        <v>0.486454</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.607892</v>
+        <v>0.528769</v>
       </c>
       <c r="C36" t="n">
-        <v>0.760096</v>
+        <v>0.839502</v>
       </c>
       <c r="D36" t="n">
-        <v>0.497569</v>
+        <v>0.5044110000000001</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.629506</v>
+        <v>0.527011</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7794450000000001</v>
+        <v>0.839123</v>
       </c>
       <c r="D37" t="n">
-        <v>0.500082</v>
+        <v>0.50381</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.634283</v>
+        <v>0.521224</v>
       </c>
       <c r="C38" t="n">
-        <v>0.790284</v>
+        <v>0.842164</v>
       </c>
       <c r="D38" t="n">
-        <v>0.511131</v>
+        <v>0.512655</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.649699</v>
+        <v>0.526766</v>
       </c>
       <c r="C39" t="n">
-        <v>0.806331</v>
+        <v>0.853638</v>
       </c>
       <c r="D39" t="n">
-        <v>0.518842</v>
+        <v>0.5141790000000001</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.658998</v>
+        <v>0.54642</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8180269999999999</v>
+        <v>0.843265</v>
       </c>
       <c r="D40" t="n">
-        <v>0.521618</v>
+        <v>0.523953</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.790135</v>
+        <v>0.528851</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8112470000000001</v>
+        <v>0.855434</v>
       </c>
       <c r="D41" t="n">
-        <v>0.53365</v>
+        <v>0.522632</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.814043</v>
+        <v>0.511764</v>
       </c>
       <c r="C42" t="n">
-        <v>0.850164</v>
+        <v>0.84091</v>
       </c>
       <c r="D42" t="n">
-        <v>0.538641</v>
+        <v>0.522414</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.86108</v>
+        <v>0.544803</v>
       </c>
       <c r="C43" t="n">
-        <v>0.882946</v>
+        <v>0.864102</v>
       </c>
       <c r="D43" t="n">
-        <v>0.56052</v>
+        <v>0.542144</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.872234</v>
+        <v>0.550199</v>
       </c>
       <c r="C44" t="n">
-        <v>0.898167</v>
+        <v>0.885943</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5870610000000001</v>
+        <v>0.5464560000000001</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.91894</v>
+        <v>0.562165</v>
       </c>
       <c r="C45" t="n">
-        <v>0.959806</v>
+        <v>0.8939550000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.612021</v>
+        <v>0.555692</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.947583</v>
+        <v>0.579352</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9727170000000001</v>
+        <v>0.915369</v>
       </c>
       <c r="D46" t="n">
-        <v>0.618271</v>
+        <v>0.559039</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.972036</v>
+        <v>0.5731039999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.984347</v>
+        <v>0.908695</v>
       </c>
       <c r="D47" t="n">
-        <v>0.642418</v>
+        <v>0.562051</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.998204</v>
+        <v>0.5759300000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>1.04318</v>
+        <v>0.956743</v>
       </c>
       <c r="D48" t="n">
-        <v>0.667502</v>
+        <v>0.573596</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.0298</v>
+        <v>0.612981</v>
       </c>
       <c r="C49" t="n">
-        <v>1.084</v>
+        <v>0.94654</v>
       </c>
       <c r="D49" t="n">
-        <v>0.697265</v>
+        <v>0.5768760000000001</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.06605</v>
+        <v>0.63687</v>
       </c>
       <c r="C50" t="n">
-        <v>1.30261</v>
+        <v>0.966221</v>
       </c>
       <c r="D50" t="n">
-        <v>0.847644</v>
+        <v>0.5757409999999999</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.08998</v>
+        <v>0.623503</v>
       </c>
       <c r="C51" t="n">
-        <v>1.36925</v>
+        <v>0.983598</v>
       </c>
       <c r="D51" t="n">
-        <v>0.882687</v>
+        <v>0.578524</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.11737</v>
+        <v>0.62847</v>
       </c>
       <c r="C52" t="n">
-        <v>1.41033</v>
+        <v>0.995983</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9108270000000001</v>
+        <v>0.5892810000000001</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.14843</v>
+        <v>0.637724</v>
       </c>
       <c r="C53" t="n">
-        <v>1.46243</v>
+        <v>1.05029</v>
       </c>
       <c r="D53" t="n">
-        <v>0.939882</v>
+        <v>0.607897</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.18166</v>
+        <v>0.679198</v>
       </c>
       <c r="C54" t="n">
-        <v>1.51608</v>
+        <v>1.03358</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9754890000000001</v>
+        <v>0.622099</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.20927</v>
+        <v>0.6876679999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>1.57204</v>
+        <v>1.12283</v>
       </c>
       <c r="D55" t="n">
-        <v>1.01249</v>
+        <v>0.617792</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.41646</v>
+        <v>0.8235749999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1.61927</v>
+        <v>1.19757</v>
       </c>
       <c r="D56" t="n">
-        <v>1.05057</v>
+        <v>0.664849</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.4403</v>
+        <v>0.884504</v>
       </c>
       <c r="C57" t="n">
-        <v>1.67092</v>
+        <v>1.12468</v>
       </c>
       <c r="D57" t="n">
-        <v>1.08571</v>
+        <v>0.67522</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.46756</v>
+        <v>0.863846</v>
       </c>
       <c r="C58" t="n">
-        <v>1.72458</v>
+        <v>1.16172</v>
       </c>
       <c r="D58" t="n">
-        <v>1.11671</v>
+        <v>0.727742</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.49049</v>
+        <v>0.849819</v>
       </c>
       <c r="C59" t="n">
-        <v>1.7816</v>
+        <v>1.22293</v>
       </c>
       <c r="D59" t="n">
-        <v>1.1528</v>
+        <v>0.759537</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.51488</v>
+        <v>0.9711959999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>1.83682</v>
+        <v>1.30118</v>
       </c>
       <c r="D60" t="n">
-        <v>1.1834</v>
+        <v>0.744602</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.52618</v>
+        <v>0.959481</v>
       </c>
       <c r="C61" t="n">
-        <v>1.89137</v>
+        <v>1.19299</v>
       </c>
       <c r="D61" t="n">
-        <v>1.21904</v>
+        <v>0.7851860000000001</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.54205</v>
+        <v>0.856792</v>
       </c>
       <c r="C62" t="n">
-        <v>1.94435</v>
+        <v>1.19374</v>
       </c>
       <c r="D62" t="n">
-        <v>1.2439</v>
+        <v>0.796416</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.56899</v>
+        <v>0.956423</v>
       </c>
       <c r="C63" t="n">
-        <v>1.99585</v>
+        <v>1.34412</v>
       </c>
       <c r="D63" t="n">
-        <v>1.27401</v>
+        <v>0.890956</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.58606</v>
+        <v>0.9775430000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>2.27308</v>
+        <v>1.6232</v>
       </c>
       <c r="D64" t="n">
-        <v>1.4264</v>
+        <v>1.18824</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.60207</v>
+        <v>1.0063</v>
       </c>
       <c r="C65" t="n">
-        <v>2.31387</v>
+        <v>1.56051</v>
       </c>
       <c r="D65" t="n">
-        <v>1.44701</v>
+        <v>1.15255</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.62043</v>
+        <v>1.04052</v>
       </c>
       <c r="C66" t="n">
-        <v>2.3505</v>
+        <v>1.79598</v>
       </c>
       <c r="D66" t="n">
-        <v>1.46457</v>
+        <v>1.34731</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.63699</v>
+        <v>1.06911</v>
       </c>
       <c r="C67" t="n">
-        <v>2.38092</v>
+        <v>1.5581</v>
       </c>
       <c r="D67" t="n">
-        <v>1.48548</v>
+        <v>1.24113</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.65597</v>
+        <v>1.08844</v>
       </c>
       <c r="C68" t="n">
-        <v>2.40989</v>
+        <v>1.71804</v>
       </c>
       <c r="D68" t="n">
-        <v>1.51189</v>
+        <v>1.32797</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.67525</v>
+        <v>1.13438</v>
       </c>
       <c r="C69" t="n">
-        <v>2.45488</v>
+        <v>1.72525</v>
       </c>
       <c r="D69" t="n">
-        <v>1.51954</v>
+        <v>1.42711</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>1.80064</v>
+        <v>1.31801</v>
       </c>
       <c r="C70" t="n">
-        <v>2.48351</v>
+        <v>1.90396</v>
       </c>
       <c r="D70" t="n">
-        <v>1.54288</v>
+        <v>1.56523</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>1.80921</v>
+        <v>1.67572</v>
       </c>
       <c r="C71" t="n">
-        <v>2.52919</v>
+        <v>2.08935</v>
       </c>
       <c r="D71" t="n">
-        <v>1.56311</v>
+        <v>1.59373</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>1.82765</v>
+        <v>1.44869</v>
       </c>
       <c r="C72" t="n">
-        <v>2.56493</v>
+        <v>1.86568</v>
       </c>
       <c r="D72" t="n">
-        <v>1.57793</v>
+        <v>1.5999</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>1.83891</v>
+        <v>1.58991</v>
       </c>
       <c r="C73" t="n">
-        <v>2.59507</v>
+        <v>1.94939</v>
       </c>
       <c r="D73" t="n">
-        <v>1.59894</v>
+        <v>1.63707</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>1.85255</v>
+        <v>1.50284</v>
       </c>
       <c r="C74" t="n">
-        <v>2.63508</v>
+        <v>2.03501</v>
       </c>
       <c r="D74" t="n">
-        <v>1.61641</v>
+        <v>1.76902</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>1.87036</v>
+        <v>1.71063</v>
       </c>
       <c r="C75" t="n">
-        <v>2.66381</v>
+        <v>2.04208</v>
       </c>
       <c r="D75" t="n">
-        <v>1.63461</v>
+        <v>1.879</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>1.87426</v>
+        <v>1.726</v>
       </c>
       <c r="C76" t="n">
-        <v>2.70523</v>
+        <v>2.12105</v>
       </c>
       <c r="D76" t="n">
-        <v>1.64857</v>
+        <v>1.84847</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.88702</v>
+        <v>1.73171</v>
       </c>
       <c r="C77" t="n">
-        <v>2.74324</v>
+        <v>2.13387</v>
       </c>
       <c r="D77" t="n">
-        <v>1.67279</v>
+        <v>1.85301</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.90264</v>
+        <v>1.7719</v>
       </c>
       <c r="C78" t="n">
-        <v>2.94542</v>
+        <v>2.36523</v>
       </c>
       <c r="D78" t="n">
-        <v>1.76545</v>
+        <v>2.57396</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.91383</v>
+        <v>1.79198</v>
       </c>
       <c r="C79" t="n">
-        <v>2.97172</v>
+        <v>2.42487</v>
       </c>
       <c r="D79" t="n">
-        <v>1.7792</v>
+        <v>2.56623</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.92342</v>
+        <v>1.99222</v>
       </c>
       <c r="C80" t="n">
-        <v>2.98507</v>
+        <v>2.4085</v>
       </c>
       <c r="D80" t="n">
-        <v>1.78639</v>
+        <v>2.63203</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.93017</v>
+        <v>2.08953</v>
       </c>
       <c r="C81" t="n">
-        <v>3.00481</v>
+        <v>2.51626</v>
       </c>
       <c r="D81" t="n">
-        <v>1.80085</v>
+        <v>2.682</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.94219</v>
+        <v>2.0611</v>
       </c>
       <c r="C82" t="n">
-        <v>3.03645</v>
+        <v>2.48721</v>
       </c>
       <c r="D82" t="n">
-        <v>1.80875</v>
+        <v>2.83949</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.9552</v>
+        <v>2.13554</v>
       </c>
       <c r="C83" t="n">
-        <v>3.04849</v>
+        <v>2.56466</v>
       </c>
       <c r="D83" t="n">
-        <v>1.8216</v>
+        <v>2.79139</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.02829</v>
+        <v>2.37103</v>
       </c>
       <c r="C84" t="n">
-        <v>3.07114</v>
+        <v>2.71026</v>
       </c>
       <c r="D84" t="n">
-        <v>1.8281</v>
+        <v>2.93264</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.03679</v>
+        <v>2.51674</v>
       </c>
       <c r="C85" t="n">
-        <v>3.0951</v>
+        <v>2.6176</v>
       </c>
       <c r="D85" t="n">
-        <v>1.83873</v>
+        <v>2.94404</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.04693</v>
+        <v>2.48444</v>
       </c>
       <c r="C86" t="n">
-        <v>3.11263</v>
+        <v>2.66671</v>
       </c>
       <c r="D86" t="n">
-        <v>1.84984</v>
+        <v>2.96926</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.05955</v>
+        <v>2.68114</v>
       </c>
       <c r="C87" t="n">
-        <v>3.14027</v>
+        <v>2.78769</v>
       </c>
       <c r="D87" t="n">
-        <v>1.8611</v>
+        <v>3.04242</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.06376</v>
+        <v>2.74204</v>
       </c>
       <c r="C88" t="n">
-        <v>3.15694</v>
+        <v>2.76786</v>
       </c>
       <c r="D88" t="n">
-        <v>1.8722</v>
+        <v>3.09748</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.07387</v>
+        <v>2.69778</v>
       </c>
       <c r="C89" t="n">
-        <v>3.19169</v>
+        <v>2.91103</v>
       </c>
       <c r="D89" t="n">
-        <v>1.88047</v>
+        <v>3.14018</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.08183</v>
+        <v>2.78004</v>
       </c>
       <c r="C90" t="n">
-        <v>3.21138</v>
+        <v>2.85596</v>
       </c>
       <c r="D90" t="n">
-        <v>1.89184</v>
+        <v>3.06907</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.08875</v>
+        <v>2.84634</v>
       </c>
       <c r="C91" t="n">
-        <v>3.24181</v>
+        <v>2.86239</v>
       </c>
       <c r="D91" t="n">
-        <v>1.90007</v>
+        <v>3.19812</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.1008</v>
+        <v>2.78694</v>
       </c>
       <c r="C92" t="n">
-        <v>3.37347</v>
+        <v>3.05444</v>
       </c>
       <c r="D92" t="n">
-        <v>1.96943</v>
+        <v>3.75681</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.10699</v>
+        <v>2.99403</v>
       </c>
       <c r="C93" t="n">
-        <v>3.37919</v>
+        <v>3.1772</v>
       </c>
       <c r="D93" t="n">
-        <v>1.97686</v>
+        <v>3.79084</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.10782</v>
+        <v>2.95207</v>
       </c>
       <c r="C94" t="n">
-        <v>3.38624</v>
+        <v>3.12392</v>
       </c>
       <c r="D94" t="n">
-        <v>1.98293</v>
+        <v>3.86265</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.12106</v>
+        <v>2.97017</v>
       </c>
       <c r="C95" t="n">
-        <v>3.40314</v>
+        <v>3.19767</v>
       </c>
       <c r="D95" t="n">
-        <v>1.99576</v>
+        <v>3.88737</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.12739</v>
+        <v>3.09675</v>
       </c>
       <c r="C96" t="n">
-        <v>3.41939</v>
+        <v>3.2621</v>
       </c>
       <c r="D96" t="n">
-        <v>2.00891</v>
+        <v>3.94781</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.13326</v>
+        <v>3.16963</v>
       </c>
       <c r="C97" t="n">
-        <v>3.42804</v>
+        <v>3.29367</v>
       </c>
       <c r="D97" t="n">
-        <v>2.01465</v>
+        <v>3.90432</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.18239</v>
+        <v>3.50695</v>
       </c>
       <c r="C98" t="n">
-        <v>3.44539</v>
+        <v>3.35715</v>
       </c>
       <c r="D98" t="n">
-        <v>2.02236</v>
+        <v>3.9082</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.19511</v>
+        <v>3.51455</v>
       </c>
       <c r="C99" t="n">
-        <v>3.4533</v>
+        <v>3.38722</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02625</v>
+        <v>3.95468</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.19456</v>
+        <v>3.59222</v>
       </c>
       <c r="C100" t="n">
-        <v>3.47259</v>
+        <v>3.39409</v>
       </c>
       <c r="D100" t="n">
-        <v>2.03374</v>
+        <v>3.95972</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.20674</v>
+        <v>3.61173</v>
       </c>
       <c r="C101" t="n">
-        <v>3.48904</v>
+        <v>3.43811</v>
       </c>
       <c r="D101" t="n">
-        <v>2.04409</v>
+        <v>3.98544</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.21407</v>
+        <v>3.65372</v>
       </c>
       <c r="C102" t="n">
-        <v>3.51798</v>
+        <v>3.45036</v>
       </c>
       <c r="D102" t="n">
-        <v>2.05398</v>
+        <v>4.01356</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.22677</v>
+        <v>3.69505</v>
       </c>
       <c r="C103" t="n">
-        <v>3.5375</v>
+        <v>3.41212</v>
       </c>
       <c r="D103" t="n">
-        <v>2.07307</v>
+        <v>3.99954</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.24027</v>
+        <v>3.74305</v>
       </c>
       <c r="C104" t="n">
-        <v>3.56241</v>
+        <v>3.52927</v>
       </c>
       <c r="D104" t="n">
-        <v>2.10559</v>
+        <v>4.10029</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.24967</v>
+        <v>3.7395</v>
       </c>
       <c r="C105" t="n">
-        <v>3.59032</v>
+        <v>3.60467</v>
       </c>
       <c r="D105" t="n">
-        <v>2.1214</v>
+        <v>4.00888</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.25417</v>
+        <v>3.77952</v>
       </c>
       <c r="C106" t="n">
-        <v>3.61709</v>
+        <v>3.61613</v>
       </c>
       <c r="D106" t="n">
-        <v>2.13201</v>
+        <v>4.11217</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.26226</v>
+        <v>3.83731</v>
       </c>
       <c r="C107" t="n">
-        <v>3.69488</v>
+        <v>3.75705</v>
       </c>
       <c r="D107" t="n">
-        <v>2.20459</v>
+        <v>4.34502</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.27601</v>
+        <v>3.88566</v>
       </c>
       <c r="C108" t="n">
-        <v>3.69538</v>
+        <v>3.87565</v>
       </c>
       <c r="D108" t="n">
-        <v>2.20374</v>
+        <v>4.46153</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.27876</v>
+        <v>3.91362</v>
       </c>
       <c r="C109" t="n">
-        <v>3.70768</v>
+        <v>3.90488</v>
       </c>
       <c r="D109" t="n">
-        <v>2.20993</v>
+        <v>4.49927</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.29008</v>
+        <v>3.92284</v>
       </c>
       <c r="C110" t="n">
-        <v>3.72007</v>
+        <v>3.82487</v>
       </c>
       <c r="D110" t="n">
-        <v>2.22715</v>
+        <v>4.5211</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.29515</v>
+        <v>3.91003</v>
       </c>
       <c r="C111" t="n">
-        <v>3.73867</v>
+        <v>3.99622</v>
       </c>
       <c r="D111" t="n">
-        <v>2.23105</v>
+        <v>4.55837</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.35957</v>
+        <v>4.32047</v>
       </c>
       <c r="C112" t="n">
-        <v>3.75105</v>
+        <v>3.91576</v>
       </c>
       <c r="D112" t="n">
-        <v>2.24619</v>
+        <v>4.56039</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.3666</v>
+        <v>4.3981</v>
       </c>
       <c r="C113" t="n">
-        <v>3.76738</v>
+        <v>4.01214</v>
       </c>
       <c r="D113" t="n">
-        <v>2.25257</v>
+        <v>4.5989</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.37266</v>
+        <v>4.43158</v>
       </c>
       <c r="C114" t="n">
-        <v>3.7823</v>
+        <v>4.05097</v>
       </c>
       <c r="D114" t="n">
-        <v>2.25974</v>
+        <v>4.64789</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.37826</v>
+        <v>4.45413</v>
       </c>
       <c r="C115" t="n">
-        <v>3.80302</v>
+        <v>4.15554</v>
       </c>
       <c r="D115" t="n">
-        <v>2.28647</v>
+        <v>4.62824</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.39819</v>
+        <v>4.45464</v>
       </c>
       <c r="C116" t="n">
-        <v>3.83149</v>
+        <v>4.08563</v>
       </c>
       <c r="D116" t="n">
-        <v>2.3062</v>
+        <v>4.68163</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.41268</v>
+        <v>4.52002</v>
       </c>
       <c r="C117" t="n">
-        <v>3.85917</v>
+        <v>4.15283</v>
       </c>
       <c r="D117" t="n">
-        <v>2.33004</v>
+        <v>4.70541</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.42746</v>
+        <v>4.59354</v>
       </c>
       <c r="C118" t="n">
-        <v>3.88264</v>
+        <v>4.22403</v>
       </c>
       <c r="D118" t="n">
-        <v>2.33514</v>
+        <v>4.80313</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.43199</v>
+        <v>4.66267</v>
       </c>
       <c r="C119" t="n">
-        <v>3.90978</v>
+        <v>4.37943</v>
       </c>
       <c r="D119" t="n">
-        <v>2.35477</v>
+        <v>4.83852</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.431215</v>
+        <v>0.427667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.794288</v>
+        <v>0.793216</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49395</v>
+        <v>0.493638</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.433428</v>
+        <v>0.433192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.804162</v>
+        <v>0.770188</v>
       </c>
       <c r="D3" t="n">
-        <v>0.476471</v>
+        <v>0.495359</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.404846</v>
+        <v>0.42781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.750178</v>
+        <v>0.786732</v>
       </c>
       <c r="D4" t="n">
-        <v>0.483997</v>
+        <v>0.49388</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.405193</v>
+        <v>0.414894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.762828</v>
+        <v>0.811752</v>
       </c>
       <c r="D5" t="n">
-        <v>0.479598</v>
+        <v>0.499853</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.416455</v>
+        <v>0.408963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.765691</v>
+        <v>0.8071970000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.479844</v>
+        <v>0.489031</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425802</v>
+        <v>0.423311</v>
       </c>
       <c r="C7" t="n">
-        <v>0.79326</v>
+        <v>0.844181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.52394</v>
+        <v>0.504123</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.427819</v>
+        <v>0.421634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.895851</v>
+        <v>0.8109150000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.526937</v>
+        <v>0.5084610000000001</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.443057</v>
+        <v>0.423343</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7977649999999999</v>
+        <v>0.829595</v>
       </c>
       <c r="D9" t="n">
-        <v>0.485964</v>
+        <v>0.510732</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.437925</v>
+        <v>0.420036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8540219999999999</v>
+        <v>0.849104</v>
       </c>
       <c r="D10" t="n">
-        <v>0.521119</v>
+        <v>0.498623</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.408739</v>
+        <v>0.422291</v>
       </c>
       <c r="C11" t="n">
-        <v>0.826215</v>
+        <v>0.850526</v>
       </c>
       <c r="D11" t="n">
-        <v>0.499854</v>
+        <v>0.502573</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.40687</v>
+        <v>0.432754</v>
       </c>
       <c r="C12" t="n">
-        <v>0.836678</v>
+        <v>0.86832</v>
       </c>
       <c r="D12" t="n">
-        <v>0.516199</v>
+        <v>0.518168</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.423264</v>
+        <v>0.440631</v>
       </c>
       <c r="C13" t="n">
-        <v>0.825976</v>
+        <v>0.891421</v>
       </c>
       <c r="D13" t="n">
-        <v>0.503657</v>
+        <v>0.523108</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.452751</v>
+        <v>0.444126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.892891</v>
+        <v>0.9049430000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.53351</v>
+        <v>0.5231980000000001</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.453152</v>
+        <v>0.451666</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9028040000000001</v>
+        <v>0.874621</v>
       </c>
       <c r="D15" t="n">
-        <v>0.538474</v>
+        <v>0.526612</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.466038</v>
+        <v>0.445161</v>
       </c>
       <c r="C16" t="n">
-        <v>0.925019</v>
+        <v>0.895479</v>
       </c>
       <c r="D16" t="n">
-        <v>0.533453</v>
+        <v>0.52629</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.458043</v>
+        <v>0.449007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.925874</v>
+        <v>0.89494</v>
       </c>
       <c r="D17" t="n">
-        <v>0.544463</v>
+        <v>0.5342209999999999</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.464233</v>
+        <v>0.453994</v>
       </c>
       <c r="C18" t="n">
-        <v>0.931976</v>
+        <v>0.912613</v>
       </c>
       <c r="D18" t="n">
-        <v>0.516373</v>
+        <v>0.536456</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.439226</v>
+        <v>0.449891</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9024759999999999</v>
+        <v>0.931619</v>
       </c>
       <c r="D19" t="n">
-        <v>0.523237</v>
+        <v>0.542743</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.442646</v>
+        <v>0.470125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.969792</v>
+        <v>0.974983</v>
       </c>
       <c r="D20" t="n">
-        <v>0.584538</v>
+        <v>0.545106</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.475438</v>
+        <v>0.482134</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9489919999999999</v>
+        <v>1.00326</v>
       </c>
       <c r="D21" t="n">
-        <v>0.54136</v>
+        <v>0.580834</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.466654</v>
+        <v>0.473906</v>
       </c>
       <c r="C22" t="n">
-        <v>1.00133</v>
+        <v>0.997765</v>
       </c>
       <c r="D22" t="n">
-        <v>0.559352</v>
+        <v>0.573021</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.455612</v>
+        <v>0.48189</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9498220000000001</v>
+        <v>1.01773</v>
       </c>
       <c r="D23" t="n">
-        <v>0.567366</v>
+        <v>0.594122</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.464683</v>
+        <v>0.482358</v>
       </c>
       <c r="C24" t="n">
-        <v>0.996198</v>
+        <v>1.01775</v>
       </c>
       <c r="D24" t="n">
-        <v>0.585055</v>
+        <v>0.590286</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.461347</v>
+        <v>0.49805</v>
       </c>
       <c r="C25" t="n">
-        <v>0.97295</v>
+        <v>1.02918</v>
       </c>
       <c r="D25" t="n">
-        <v>0.585488</v>
+        <v>0.62869</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.531076</v>
+        <v>0.495984</v>
       </c>
       <c r="C26" t="n">
-        <v>0.994081</v>
+        <v>1.04259</v>
       </c>
       <c r="D26" t="n">
-        <v>0.584132</v>
+        <v>0.615769</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.526871</v>
+        <v>0.525221</v>
       </c>
       <c r="C27" t="n">
-        <v>0.982795</v>
+        <v>1.04094</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5869529999999999</v>
+        <v>0.623312</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.496561</v>
+        <v>0.544519</v>
       </c>
       <c r="C28" t="n">
-        <v>1.03541</v>
+        <v>1.07884</v>
       </c>
       <c r="D28" t="n">
-        <v>0.655466</v>
+        <v>0.624911</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.535379</v>
+        <v>0.519903</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0958</v>
+        <v>1.04228</v>
       </c>
       <c r="D29" t="n">
-        <v>0.662696</v>
+        <v>0.625799</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.534103</v>
+        <v>0.53822</v>
       </c>
       <c r="C30" t="n">
-        <v>1.01973</v>
+        <v>1.08739</v>
       </c>
       <c r="D30" t="n">
-        <v>0.636085</v>
+        <v>0.6505649999999999</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.546561</v>
+        <v>0.544624</v>
       </c>
       <c r="C31" t="n">
-        <v>1.02605</v>
+        <v>1.0623</v>
       </c>
       <c r="D31" t="n">
-        <v>0.628514</v>
+        <v>0.6517770000000001</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.53699</v>
+        <v>0.536601</v>
       </c>
       <c r="C32" t="n">
-        <v>1.14434</v>
+        <v>1.11393</v>
       </c>
       <c r="D32" t="n">
-        <v>0.629201</v>
+        <v>0.668551</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.532074</v>
+        <v>0.54072</v>
       </c>
       <c r="C33" t="n">
-        <v>1.04373</v>
+        <v>1.13588</v>
       </c>
       <c r="D33" t="n">
-        <v>0.668789</v>
+        <v>0.67104</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.50947</v>
+        <v>0.540502</v>
       </c>
       <c r="C34" t="n">
-        <v>1.10769</v>
+        <v>1.13676</v>
       </c>
       <c r="D34" t="n">
-        <v>0.641283</v>
+        <v>0.690617</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.506942</v>
+        <v>0.54447</v>
       </c>
       <c r="C35" t="n">
-        <v>1.09533</v>
+        <v>1.1487</v>
       </c>
       <c r="D35" t="n">
-        <v>0.695014</v>
+        <v>0.7106789999999999</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.541973</v>
+        <v>0.553437</v>
       </c>
       <c r="C36" t="n">
-        <v>1.17071</v>
+        <v>1.16367</v>
       </c>
       <c r="D36" t="n">
-        <v>0.686404</v>
+        <v>0.698124</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.559069</v>
+        <v>0.557317</v>
       </c>
       <c r="C37" t="n">
-        <v>1.1033</v>
+        <v>1.15634</v>
       </c>
       <c r="D37" t="n">
-        <v>0.657403</v>
+        <v>0.709952</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.520568</v>
+        <v>0.562433</v>
       </c>
       <c r="C38" t="n">
-        <v>1.11397</v>
+        <v>1.2215</v>
       </c>
       <c r="D38" t="n">
-        <v>0.666504</v>
+        <v>0.720264</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.522312</v>
+        <v>0.553136</v>
       </c>
       <c r="C39" t="n">
-        <v>1.12484</v>
+        <v>1.19283</v>
       </c>
       <c r="D39" t="n">
-        <v>0.675602</v>
+        <v>0.719554</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.550889</v>
+        <v>0.563141</v>
       </c>
       <c r="C40" t="n">
-        <v>1.1718</v>
+        <v>1.19648</v>
       </c>
       <c r="D40" t="n">
-        <v>0.719373</v>
+        <v>0.738545</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.572404</v>
+        <v>0.601567</v>
       </c>
       <c r="C41" t="n">
-        <v>1.18403</v>
+        <v>1.23978</v>
       </c>
       <c r="D41" t="n">
-        <v>0.705415</v>
+        <v>0.74466</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.561023</v>
+        <v>0.606138</v>
       </c>
       <c r="C42" t="n">
-        <v>1.19717</v>
+        <v>1.21884</v>
       </c>
       <c r="D42" t="n">
-        <v>0.704767</v>
+        <v>0.729183</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.535869</v>
+        <v>0.59376</v>
       </c>
       <c r="C43" t="n">
-        <v>1.13978</v>
+        <v>1.3246</v>
       </c>
       <c r="D43" t="n">
-        <v>0.680539</v>
+        <v>0.781288</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.548305</v>
+        <v>0.644321</v>
       </c>
       <c r="C44" t="n">
-        <v>1.20305</v>
+        <v>1.31106</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7188</v>
+        <v>0.790336</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.568711</v>
+        <v>0.62708</v>
       </c>
       <c r="C45" t="n">
-        <v>1.18695</v>
+        <v>1.32791</v>
       </c>
       <c r="D45" t="n">
-        <v>0.688727</v>
+        <v>0.777292</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.543355</v>
+        <v>0.6415459999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>1.16862</v>
+        <v>1.33753</v>
       </c>
       <c r="D46" t="n">
-        <v>0.702092</v>
+        <v>0.771061</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.54435</v>
+        <v>0.631331</v>
       </c>
       <c r="C47" t="n">
-        <v>1.1755</v>
+        <v>1.36076</v>
       </c>
       <c r="D47" t="n">
-        <v>0.703159</v>
+        <v>0.768966</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.563626</v>
+        <v>0.613239</v>
       </c>
       <c r="C48" t="n">
-        <v>1.23161</v>
+        <v>1.37105</v>
       </c>
       <c r="D48" t="n">
-        <v>0.764776</v>
+        <v>0.797808</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.587742</v>
+        <v>0.621292</v>
       </c>
       <c r="C49" t="n">
-        <v>1.24233</v>
+        <v>1.41034</v>
       </c>
       <c r="D49" t="n">
-        <v>0.730429</v>
+        <v>0.771737</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.575469</v>
+        <v>0.636504</v>
       </c>
       <c r="C50" t="n">
-        <v>1.28167</v>
+        <v>1.58879</v>
       </c>
       <c r="D50" t="n">
-        <v>0.736056</v>
+        <v>0.827935</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.586084</v>
+        <v>0.638725</v>
       </c>
       <c r="C51" t="n">
-        <v>1.27805</v>
+        <v>1.44015</v>
       </c>
       <c r="D51" t="n">
-        <v>0.74524</v>
+        <v>0.8314550000000001</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.573132</v>
+        <v>0.630244</v>
       </c>
       <c r="C52" t="n">
-        <v>1.28449</v>
+        <v>1.48166</v>
       </c>
       <c r="D52" t="n">
-        <v>0.744774</v>
+        <v>0.821899</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.574746</v>
+        <v>0.681244</v>
       </c>
       <c r="C53" t="n">
-        <v>1.28181</v>
+        <v>1.52299</v>
       </c>
       <c r="D53" t="n">
-        <v>0.747999</v>
+        <v>0.841406</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.576506</v>
+        <v>0.690809</v>
       </c>
       <c r="C54" t="n">
-        <v>1.51132</v>
+        <v>1.66752</v>
       </c>
       <c r="D54" t="n">
-        <v>0.849491</v>
+        <v>0.837452</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.705314</v>
+        <v>0.702828</v>
       </c>
       <c r="C55" t="n">
-        <v>1.48159</v>
+        <v>1.6277</v>
       </c>
       <c r="D55" t="n">
-        <v>0.83229</v>
+        <v>0.860894</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.728317</v>
+        <v>0.809927</v>
       </c>
       <c r="C56" t="n">
-        <v>1.46653</v>
+        <v>1.87056</v>
       </c>
       <c r="D56" t="n">
-        <v>0.854718</v>
+        <v>0.899489</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.733205</v>
+        <v>0.808772</v>
       </c>
       <c r="C57" t="n">
-        <v>1.42957</v>
+        <v>1.77146</v>
       </c>
       <c r="D57" t="n">
-        <v>0.79993</v>
+        <v>0.901569</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.723576</v>
+        <v>0.8512690000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>1.44256</v>
+        <v>1.69147</v>
       </c>
       <c r="D58" t="n">
-        <v>0.817249</v>
+        <v>0.92593</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.75991</v>
+        <v>0.845731</v>
       </c>
       <c r="C59" t="n">
-        <v>1.59729</v>
+        <v>2.24159</v>
       </c>
       <c r="D59" t="n">
-        <v>0.834095</v>
+        <v>1.06108</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.723344</v>
+        <v>0.945237</v>
       </c>
       <c r="C60" t="n">
-        <v>1.49354</v>
+        <v>2.19317</v>
       </c>
       <c r="D60" t="n">
-        <v>0.962939</v>
+        <v>0.98038</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.723678</v>
+        <v>0.987825</v>
       </c>
       <c r="C61" t="n">
-        <v>1.45957</v>
+        <v>2.26024</v>
       </c>
       <c r="D61" t="n">
-        <v>0.841977</v>
+        <v>1.03318</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.740241</v>
+        <v>0.89719</v>
       </c>
       <c r="C62" t="n">
-        <v>1.5576</v>
+        <v>2.10668</v>
       </c>
       <c r="D62" t="n">
-        <v>0.914895</v>
+        <v>1.07282</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.743708</v>
+        <v>0.994304</v>
       </c>
       <c r="C63" t="n">
-        <v>1.58857</v>
+        <v>2.40263</v>
       </c>
       <c r="D63" t="n">
-        <v>0.965382</v>
+        <v>1.13455</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.762307</v>
+        <v>1.03905</v>
       </c>
       <c r="C64" t="n">
-        <v>1.79586</v>
+        <v>2.61359</v>
       </c>
       <c r="D64" t="n">
-        <v>1.0801</v>
+        <v>1.27596</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.853304</v>
+        <v>1.05309</v>
       </c>
       <c r="C65" t="n">
-        <v>1.85664</v>
+        <v>2.61387</v>
       </c>
       <c r="D65" t="n">
-        <v>1.09076</v>
+        <v>1.35453</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.879188</v>
+        <v>1.10977</v>
       </c>
       <c r="C66" t="n">
-        <v>1.86668</v>
+        <v>2.66254</v>
       </c>
       <c r="D66" t="n">
-        <v>1.07761</v>
+        <v>1.34302</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.790744</v>
+        <v>1.08728</v>
       </c>
       <c r="C67" t="n">
-        <v>1.82379</v>
+        <v>2.94736</v>
       </c>
       <c r="D67" t="n">
-        <v>1.04295</v>
+        <v>1.6576</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.00766</v>
+        <v>1.26116</v>
       </c>
       <c r="C68" t="n">
-        <v>2.65639</v>
+        <v>2.79822</v>
       </c>
       <c r="D68" t="n">
-        <v>1.52213</v>
+        <v>1.49882</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.02227</v>
+        <v>1.23516</v>
       </c>
       <c r="C69" t="n">
-        <v>2.94233</v>
+        <v>3.08213</v>
       </c>
       <c r="D69" t="n">
-        <v>1.36465</v>
+        <v>1.64444</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.26049</v>
+        <v>1.32406</v>
       </c>
       <c r="C70" t="n">
-        <v>3.16182</v>
+        <v>2.84769</v>
       </c>
       <c r="D70" t="n">
-        <v>1.59592</v>
+        <v>1.49493</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.47632</v>
+        <v>1.22093</v>
       </c>
       <c r="C71" t="n">
-        <v>3.33551</v>
+        <v>2.98936</v>
       </c>
       <c r="D71" t="n">
-        <v>1.70023</v>
+        <v>1.58158</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.28671</v>
+        <v>1.40413</v>
       </c>
       <c r="C72" t="n">
-        <v>3.28646</v>
+        <v>3.02553</v>
       </c>
       <c r="D72" t="n">
-        <v>1.69974</v>
+        <v>1.5622</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.47814</v>
+        <v>1.27583</v>
       </c>
       <c r="C73" t="n">
-        <v>3.11386</v>
+        <v>3.03259</v>
       </c>
       <c r="D73" t="n">
-        <v>1.65133</v>
+        <v>1.60873</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.54358</v>
+        <v>1.40242</v>
       </c>
       <c r="C74" t="n">
-        <v>3.66758</v>
+        <v>3.32427</v>
       </c>
       <c r="D74" t="n">
-        <v>1.92295</v>
+        <v>1.81512</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.32795</v>
+        <v>1.39839</v>
       </c>
       <c r="C75" t="n">
-        <v>2.95609</v>
+        <v>3.24172</v>
       </c>
       <c r="D75" t="n">
-        <v>2.30134</v>
+        <v>2.05424</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.51942</v>
+        <v>1.57727</v>
       </c>
       <c r="C76" t="n">
-        <v>3.24795</v>
+        <v>3.39597</v>
       </c>
       <c r="D76" t="n">
-        <v>2.20418</v>
+        <v>2.06525</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.55272</v>
+        <v>1.58912</v>
       </c>
       <c r="C77" t="n">
-        <v>3.00193</v>
+        <v>3.52818</v>
       </c>
       <c r="D77" t="n">
-        <v>1.83209</v>
+        <v>2.22849</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.49967</v>
+        <v>1.64648</v>
       </c>
       <c r="C78" t="n">
-        <v>4.07748</v>
+        <v>3.7104</v>
       </c>
       <c r="D78" t="n">
-        <v>2.16629</v>
+        <v>2.19541</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.39944</v>
+        <v>1.55619</v>
       </c>
       <c r="C79" t="n">
-        <v>3.16268</v>
+        <v>3.61392</v>
       </c>
       <c r="D79" t="n">
-        <v>1.75648</v>
+        <v>2.41694</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.51755</v>
+        <v>1.66933</v>
       </c>
       <c r="C80" t="n">
-        <v>4.01883</v>
+        <v>3.71962</v>
       </c>
       <c r="D80" t="n">
-        <v>2.21628</v>
+        <v>2.2519</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.31077</v>
+        <v>1.74352</v>
       </c>
       <c r="C81" t="n">
-        <v>2.99145</v>
+        <v>3.82355</v>
       </c>
       <c r="D81" t="n">
-        <v>1.92206</v>
+        <v>2.38207</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.4937</v>
+        <v>1.7386</v>
       </c>
       <c r="C82" t="n">
-        <v>3.26603</v>
+        <v>3.77815</v>
       </c>
       <c r="D82" t="n">
-        <v>2.32365</v>
+        <v>2.60142</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.85436</v>
+        <v>1.81288</v>
       </c>
       <c r="C83" t="n">
-        <v>3.88788</v>
+        <v>4.23509</v>
       </c>
       <c r="D83" t="n">
-        <v>2.20297</v>
+        <v>2.86526</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.62797</v>
+        <v>1.97024</v>
       </c>
       <c r="C84" t="n">
-        <v>3.52511</v>
+        <v>4.10895</v>
       </c>
       <c r="D84" t="n">
-        <v>2.27245</v>
+        <v>2.75421</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.82522</v>
+        <v>2.16113</v>
       </c>
       <c r="C85" t="n">
-        <v>3.70611</v>
+        <v>4.24689</v>
       </c>
       <c r="D85" t="n">
-        <v>2.68249</v>
+        <v>2.89807</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.88138</v>
+        <v>2.19274</v>
       </c>
       <c r="C86" t="n">
-        <v>3.71512</v>
+        <v>4.46806</v>
       </c>
       <c r="D86" t="n">
-        <v>2.43355</v>
+        <v>3.00939</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.6935</v>
+        <v>2.14819</v>
       </c>
       <c r="C87" t="n">
-        <v>3.62179</v>
+        <v>4.07031</v>
       </c>
       <c r="D87" t="n">
-        <v>2.37156</v>
+        <v>3.10765</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.80804</v>
+        <v>2.24039</v>
       </c>
       <c r="C88" t="n">
-        <v>3.4986</v>
+        <v>4.37812</v>
       </c>
       <c r="D88" t="n">
-        <v>2.65447</v>
+        <v>3.25252</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.89359</v>
+        <v>2.30919</v>
       </c>
       <c r="C89" t="n">
-        <v>3.78325</v>
+        <v>4.46901</v>
       </c>
       <c r="D89" t="n">
-        <v>2.2659</v>
+        <v>3.31508</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.87015</v>
+        <v>2.38728</v>
       </c>
       <c r="C90" t="n">
-        <v>3.55124</v>
+        <v>4.45758</v>
       </c>
       <c r="D90" t="n">
-        <v>2.68745</v>
+        <v>3.39562</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.95589</v>
+        <v>2.45708</v>
       </c>
       <c r="C91" t="n">
-        <v>3.78771</v>
+        <v>4.65483</v>
       </c>
       <c r="D91" t="n">
-        <v>2.59333</v>
+        <v>3.48773</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.00663</v>
+        <v>2.51873</v>
       </c>
       <c r="C92" t="n">
-        <v>3.94674</v>
+        <v>4.67016</v>
       </c>
       <c r="D92" t="n">
-        <v>2.76856</v>
+        <v>3.541</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.06215</v>
+        <v>2.49129</v>
       </c>
       <c r="C93" t="n">
-        <v>3.98547</v>
+        <v>4.75045</v>
       </c>
       <c r="D93" t="n">
-        <v>2.70349</v>
+        <v>3.50741</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.12605</v>
+        <v>2.47259</v>
       </c>
       <c r="C94" t="n">
-        <v>3.97406</v>
+        <v>4.68752</v>
       </c>
       <c r="D94" t="n">
-        <v>2.80824</v>
+        <v>3.59449</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.2203</v>
+        <v>2.49386</v>
       </c>
       <c r="C95" t="n">
-        <v>4.43125</v>
+        <v>4.65932</v>
       </c>
       <c r="D95" t="n">
-        <v>2.98266</v>
+        <v>3.64727</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.21978</v>
+        <v>2.62742</v>
       </c>
       <c r="C96" t="n">
-        <v>4.2348</v>
+        <v>4.86494</v>
       </c>
       <c r="D96" t="n">
-        <v>3.14467</v>
+        <v>3.73188</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.27046</v>
+        <v>2.62946</v>
       </c>
       <c r="C97" t="n">
-        <v>4.15245</v>
+        <v>4.84353</v>
       </c>
       <c r="D97" t="n">
-        <v>3.16107</v>
+        <v>3.84767</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.48324</v>
+        <v>2.83595</v>
       </c>
       <c r="C98" t="n">
-        <v>4.47367</v>
+        <v>4.98986</v>
       </c>
       <c r="D98" t="n">
-        <v>3.37625</v>
+        <v>3.92603</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.60187</v>
+        <v>2.87464</v>
       </c>
       <c r="C99" t="n">
-        <v>4.53059</v>
+        <v>4.94356</v>
       </c>
       <c r="D99" t="n">
-        <v>3.58078</v>
+        <v>3.94506</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.61095</v>
+        <v>2.93842</v>
       </c>
       <c r="C100" t="n">
-        <v>4.94255</v>
+        <v>5.05847</v>
       </c>
       <c r="D100" t="n">
-        <v>3.73339</v>
+        <v>4.02735</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.74358</v>
+        <v>3.0059</v>
       </c>
       <c r="C101" t="n">
-        <v>4.47649</v>
+        <v>5.21224</v>
       </c>
       <c r="D101" t="n">
-        <v>3.64605</v>
+        <v>4.11439</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.73864</v>
+        <v>3.07146</v>
       </c>
       <c r="C102" t="n">
-        <v>4.69385</v>
+        <v>5.18538</v>
       </c>
       <c r="D102" t="n">
-        <v>3.77817</v>
+        <v>4.10938</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.85325</v>
+        <v>3.0178</v>
       </c>
       <c r="C103" t="n">
-        <v>4.58261</v>
+        <v>5.26838</v>
       </c>
       <c r="D103" t="n">
-        <v>3.71786</v>
+        <v>4.20162</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.79674</v>
+        <v>3.12445</v>
       </c>
       <c r="C104" t="n">
-        <v>4.72496</v>
+        <v>5.31198</v>
       </c>
       <c r="D104" t="n">
-        <v>3.71227</v>
+        <v>4.22622</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.84829</v>
+        <v>3.16523</v>
       </c>
       <c r="C105" t="n">
-        <v>4.7586</v>
+        <v>5.4541</v>
       </c>
       <c r="D105" t="n">
-        <v>3.78853</v>
+        <v>4.33021</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.85881</v>
+        <v>3.26511</v>
       </c>
       <c r="C106" t="n">
-        <v>4.71308</v>
+        <v>5.44468</v>
       </c>
       <c r="D106" t="n">
-        <v>3.69938</v>
+        <v>4.32115</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.87246</v>
+        <v>3.29391</v>
       </c>
       <c r="C107" t="n">
-        <v>4.80621</v>
+        <v>5.72784</v>
       </c>
       <c r="D107" t="n">
-        <v>3.88839</v>
+        <v>4.53414</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.8847</v>
+        <v>3.28846</v>
       </c>
       <c r="C108" t="n">
-        <v>4.91174</v>
+        <v>5.61176</v>
       </c>
       <c r="D108" t="n">
-        <v>3.84868</v>
+        <v>4.46381</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.0867</v>
+        <v>3.39396</v>
       </c>
       <c r="C109" t="n">
-        <v>5.07756</v>
+        <v>5.80944</v>
       </c>
       <c r="D109" t="n">
-        <v>4.05946</v>
+        <v>4.5635</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.84086</v>
+        <v>3.34747</v>
       </c>
       <c r="C110" t="n">
-        <v>4.74845</v>
+        <v>5.65056</v>
       </c>
       <c r="D110" t="n">
-        <v>3.87724</v>
+        <v>4.53689</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.96423</v>
+        <v>3.4274</v>
       </c>
       <c r="C111" t="n">
-        <v>5.09817</v>
+        <v>5.75833</v>
       </c>
       <c r="D111" t="n">
-        <v>4.16175</v>
+        <v>4.55459</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.13394</v>
+        <v>3.57926</v>
       </c>
       <c r="C112" t="n">
-        <v>5.07047</v>
+        <v>5.69155</v>
       </c>
       <c r="D112" t="n">
-        <v>4.24035</v>
+        <v>4.57009</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.30631</v>
+        <v>3.63374</v>
       </c>
       <c r="C113" t="n">
-        <v>5.23255</v>
+        <v>5.87407</v>
       </c>
       <c r="D113" t="n">
-        <v>4.29889</v>
+        <v>4.7238</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.32649</v>
+        <v>3.68331</v>
       </c>
       <c r="C114" t="n">
-        <v>5.2704</v>
+        <v>5.9775</v>
       </c>
       <c r="D114" t="n">
-        <v>4.30371</v>
+        <v>4.72366</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.3977</v>
+        <v>3.70188</v>
       </c>
       <c r="C115" t="n">
-        <v>5.31326</v>
+        <v>5.89984</v>
       </c>
       <c r="D115" t="n">
-        <v>4.31762</v>
+        <v>4.73206</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.41333</v>
+        <v>3.69892</v>
       </c>
       <c r="C116" t="n">
-        <v>5.26802</v>
+        <v>6.13499</v>
       </c>
       <c r="D116" t="n">
-        <v>4.33068</v>
+        <v>4.83041</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.37322</v>
+        <v>3.81975</v>
       </c>
       <c r="C117" t="n">
-        <v>5.2433</v>
+        <v>6.01249</v>
       </c>
       <c r="D117" t="n">
-        <v>4.36949</v>
+        <v>4.82174</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.37304</v>
+        <v>3.88294</v>
       </c>
       <c r="C118" t="n">
-        <v>5.37524</v>
+        <v>6.15468</v>
       </c>
       <c r="D118" t="n">
-        <v>4.43381</v>
+        <v>5.05976</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.47887</v>
+        <v>3.85921</v>
       </c>
       <c r="C119" t="n">
-        <v>5.36689</v>
+        <v>6.23384</v>
       </c>
       <c r="D119" t="n">
-        <v>4.46389</v>
+        <v>4.99602</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.358125</v>
+        <v>0.362038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.775716</v>
+        <v>0.83556</v>
       </c>
       <c r="D2" t="n">
-        <v>0.485825</v>
+        <v>0.5214220000000001</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.380776</v>
+        <v>0.407874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.773133</v>
+        <v>0.847428</v>
       </c>
       <c r="D3" t="n">
-        <v>0.484389</v>
+        <v>0.527802</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.376186</v>
+        <v>0.41065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.782123</v>
+        <v>0.844324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.489012</v>
+        <v>0.52527</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.374963</v>
+        <v>0.411341</v>
       </c>
       <c r="C5" t="n">
-        <v>0.798948</v>
+        <v>0.84834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.495686</v>
+        <v>0.5333869999999999</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.382609</v>
+        <v>0.409248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.795067</v>
+        <v>0.850757</v>
       </c>
       <c r="D6" t="n">
-        <v>0.490777</v>
+        <v>0.530631</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.377255</v>
+        <v>0.406542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.785799</v>
+        <v>0.853456</v>
       </c>
       <c r="D7" t="n">
-        <v>0.500412</v>
+        <v>0.535155</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.38444</v>
+        <v>0.409142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7814950000000001</v>
+        <v>0.867537</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4925</v>
+        <v>0.537152</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.371649</v>
+        <v>0.409344</v>
       </c>
       <c r="C9" t="n">
-        <v>0.794264</v>
+        <v>0.882962</v>
       </c>
       <c r="D9" t="n">
-        <v>0.492293</v>
+        <v>0.540636</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.374484</v>
+        <v>0.408546</v>
       </c>
       <c r="C10" t="n">
-        <v>0.804515</v>
+        <v>0.888744</v>
       </c>
       <c r="D10" t="n">
-        <v>0.506876</v>
+        <v>0.5412130000000001</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.377882</v>
+        <v>0.408277</v>
       </c>
       <c r="C11" t="n">
-        <v>0.815168</v>
+        <v>0.881612</v>
       </c>
       <c r="D11" t="n">
-        <v>0.49187</v>
+        <v>0.537835</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.374971</v>
+        <v>0.408298</v>
       </c>
       <c r="C12" t="n">
-        <v>0.799627</v>
+        <v>0.8663380000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.502961</v>
+        <v>0.54372</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.378841</v>
+        <v>0.410596</v>
       </c>
       <c r="C13" t="n">
-        <v>0.820777</v>
+        <v>0.902639</v>
       </c>
       <c r="D13" t="n">
-        <v>0.537797</v>
+        <v>0.530429</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.40702</v>
+        <v>0.383252</v>
       </c>
       <c r="C14" t="n">
-        <v>0.904186</v>
+        <v>0.876936</v>
       </c>
       <c r="D14" t="n">
-        <v>0.541639</v>
+        <v>0.545866</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.407834</v>
+        <v>0.408953</v>
       </c>
       <c r="C15" t="n">
-        <v>0.914775</v>
+        <v>0.905237</v>
       </c>
       <c r="D15" t="n">
-        <v>0.543138</v>
+        <v>0.516176</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.409896</v>
+        <v>0.401817</v>
       </c>
       <c r="C16" t="n">
-        <v>0.92188</v>
+        <v>0.920385</v>
       </c>
       <c r="D16" t="n">
-        <v>0.532514</v>
+        <v>0.5294990000000001</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.406166</v>
+        <v>0.431085</v>
       </c>
       <c r="C17" t="n">
-        <v>0.889595</v>
+        <v>0.93153</v>
       </c>
       <c r="D17" t="n">
-        <v>0.51837</v>
+        <v>0.5375450000000001</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.405291</v>
+        <v>0.428205</v>
       </c>
       <c r="C18" t="n">
-        <v>0.893992</v>
+        <v>0.977501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.516604</v>
+        <v>0.560862</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.417393</v>
+        <v>0.440251</v>
       </c>
       <c r="C19" t="n">
-        <v>0.908224</v>
+        <v>0.968817</v>
       </c>
       <c r="D19" t="n">
-        <v>0.524683</v>
+        <v>0.537463</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.416747</v>
+        <v>0.447722</v>
       </c>
       <c r="C20" t="n">
-        <v>0.889272</v>
+        <v>0.97346</v>
       </c>
       <c r="D20" t="n">
-        <v>0.553724</v>
+        <v>0.560175</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.396281</v>
+        <v>0.43585</v>
       </c>
       <c r="C21" t="n">
-        <v>0.94182</v>
+        <v>0.9734390000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5065190000000001</v>
+        <v>0.550441</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.400264</v>
+        <v>0.450067</v>
       </c>
       <c r="C22" t="n">
-        <v>0.913043</v>
+        <v>1.01717</v>
       </c>
       <c r="D22" t="n">
-        <v>0.506112</v>
+        <v>0.577917</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.408793</v>
+        <v>0.442727</v>
       </c>
       <c r="C23" t="n">
-        <v>0.902647</v>
+        <v>1.03903</v>
       </c>
       <c r="D23" t="n">
-        <v>0.530715</v>
+        <v>0.5748220000000001</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.419436</v>
+        <v>0.440118</v>
       </c>
       <c r="C24" t="n">
-        <v>0.962896</v>
+        <v>1.05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.567014</v>
+        <v>0.571001</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.456772</v>
+        <v>0.45175</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0669</v>
+        <v>1.03325</v>
       </c>
       <c r="D25" t="n">
-        <v>0.601661</v>
+        <v>0.598599</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.461992</v>
+        <v>0.448126</v>
       </c>
       <c r="C26" t="n">
-        <v>1.03159</v>
+        <v>1.03921</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5721889999999999</v>
+        <v>0.5987130000000001</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.435324</v>
+        <v>0.443457</v>
       </c>
       <c r="C27" t="n">
-        <v>0.95253</v>
+        <v>1.03602</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6044850000000001</v>
+        <v>0.622514</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.434272</v>
+        <v>0.451205</v>
       </c>
       <c r="C28" t="n">
-        <v>0.970365</v>
+        <v>0.998131</v>
       </c>
       <c r="D28" t="n">
-        <v>0.579076</v>
+        <v>0.636088</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.444415</v>
+        <v>0.474016</v>
       </c>
       <c r="C29" t="n">
-        <v>0.98715</v>
+        <v>1.0518</v>
       </c>
       <c r="D29" t="n">
-        <v>0.581269</v>
+        <v>0.635949</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.441512</v>
+        <v>0.477759</v>
       </c>
       <c r="C30" t="n">
-        <v>0.99015</v>
+        <v>1.04724</v>
       </c>
       <c r="D30" t="n">
-        <v>0.594693</v>
+        <v>0.632015</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.445399</v>
+        <v>0.465518</v>
       </c>
       <c r="C31" t="n">
-        <v>0.989841</v>
+        <v>1.07901</v>
       </c>
       <c r="D31" t="n">
-        <v>0.585952</v>
+        <v>0.647209</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.466922</v>
+        <v>0.501346</v>
       </c>
       <c r="C32" t="n">
-        <v>0.973418</v>
+        <v>1.0691</v>
       </c>
       <c r="D32" t="n">
-        <v>0.600916</v>
+        <v>0.653375</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.462622</v>
+        <v>0.518386</v>
       </c>
       <c r="C33" t="n">
-        <v>0.990897</v>
+        <v>1.10336</v>
       </c>
       <c r="D33" t="n">
-        <v>0.607019</v>
+        <v>0.673657</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.464565</v>
+        <v>0.506808</v>
       </c>
       <c r="C34" t="n">
-        <v>1.00731</v>
+        <v>1.11287</v>
       </c>
       <c r="D34" t="n">
-        <v>0.618277</v>
+        <v>0.663462</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.486626</v>
+        <v>0.518935</v>
       </c>
       <c r="C35" t="n">
-        <v>1.05941</v>
+        <v>1.15247</v>
       </c>
       <c r="D35" t="n">
-        <v>0.638864</v>
+        <v>0.683186</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.468961</v>
+        <v>0.514003</v>
       </c>
       <c r="C36" t="n">
-        <v>1.04578</v>
+        <v>1.15578</v>
       </c>
       <c r="D36" t="n">
-        <v>0.630541</v>
+        <v>0.680113</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.465038</v>
+        <v>0.514866</v>
       </c>
       <c r="C37" t="n">
-        <v>1.05974</v>
+        <v>1.16995</v>
       </c>
       <c r="D37" t="n">
-        <v>0.672752</v>
+        <v>0.681037</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.529928</v>
+        <v>0.519064</v>
       </c>
       <c r="C38" t="n">
-        <v>1.10655</v>
+        <v>1.18813</v>
       </c>
       <c r="D38" t="n">
-        <v>0.688539</v>
+        <v>0.685468</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5169589999999999</v>
+        <v>0.524998</v>
       </c>
       <c r="C39" t="n">
-        <v>1.19425</v>
+        <v>1.23135</v>
       </c>
       <c r="D39" t="n">
-        <v>0.698353</v>
+        <v>0.7243270000000001</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.489145</v>
+        <v>0.529162</v>
       </c>
       <c r="C40" t="n">
-        <v>1.13576</v>
+        <v>1.20245</v>
       </c>
       <c r="D40" t="n">
-        <v>0.68532</v>
+        <v>0.721962</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.515556</v>
+        <v>0.5273369999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>1.13367</v>
+        <v>1.23623</v>
       </c>
       <c r="D41" t="n">
-        <v>0.723042</v>
+        <v>0.741402</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.496528</v>
+        <v>0.532866</v>
       </c>
       <c r="C42" t="n">
-        <v>1.1439</v>
+        <v>1.32471</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6827029999999999</v>
+        <v>0.797008</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.513198</v>
+        <v>0.565268</v>
       </c>
       <c r="C43" t="n">
-        <v>1.16416</v>
+        <v>1.32889</v>
       </c>
       <c r="D43" t="n">
-        <v>0.681864</v>
+        <v>0.770698</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.500835</v>
+        <v>0.538295</v>
       </c>
       <c r="C44" t="n">
-        <v>1.15763</v>
+        <v>1.29755</v>
       </c>
       <c r="D44" t="n">
-        <v>0.693273</v>
+        <v>0.783952</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.492514</v>
+        <v>0.54603</v>
       </c>
       <c r="C45" t="n">
-        <v>1.16413</v>
+        <v>1.29056</v>
       </c>
       <c r="D45" t="n">
-        <v>0.686545</v>
+        <v>0.765513</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.51756</v>
+        <v>0.562259</v>
       </c>
       <c r="C46" t="n">
-        <v>1.21562</v>
+        <v>1.30967</v>
       </c>
       <c r="D46" t="n">
-        <v>0.698564</v>
+        <v>0.792855</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.526601</v>
+        <v>0.586296</v>
       </c>
       <c r="C47" t="n">
-        <v>1.19622</v>
+        <v>1.40173</v>
       </c>
       <c r="D47" t="n">
-        <v>0.711348</v>
+        <v>0.787443</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.527004</v>
+        <v>0.604556</v>
       </c>
       <c r="C48" t="n">
-        <v>1.23352</v>
+        <v>1.59679</v>
       </c>
       <c r="D48" t="n">
-        <v>0.711338</v>
+        <v>0.854748</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.527672</v>
+        <v>0.619912</v>
       </c>
       <c r="C49" t="n">
-        <v>1.24383</v>
+        <v>1.42039</v>
       </c>
       <c r="D49" t="n">
-        <v>0.708665</v>
+        <v>0.785699</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.535685</v>
+        <v>0.60103</v>
       </c>
       <c r="C50" t="n">
-        <v>1.313</v>
+        <v>1.51299</v>
       </c>
       <c r="D50" t="n">
-        <v>0.753041</v>
+        <v>0.817412</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.559324</v>
+        <v>0.595925</v>
       </c>
       <c r="C51" t="n">
-        <v>1.31888</v>
+        <v>1.55485</v>
       </c>
       <c r="D51" t="n">
-        <v>0.737887</v>
+        <v>0.807714</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.530563</v>
+        <v>0.594758</v>
       </c>
       <c r="C52" t="n">
-        <v>1.28668</v>
+        <v>1.59203</v>
       </c>
       <c r="D52" t="n">
-        <v>0.720065</v>
+        <v>0.851715</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.531941</v>
+        <v>0.593563</v>
       </c>
       <c r="C53" t="n">
-        <v>1.3209</v>
+        <v>1.48519</v>
       </c>
       <c r="D53" t="n">
-        <v>0.739811</v>
+        <v>0.811007</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.53509</v>
+        <v>0.613598</v>
       </c>
       <c r="C54" t="n">
-        <v>1.28266</v>
+        <v>1.48605</v>
       </c>
       <c r="D54" t="n">
-        <v>0.767572</v>
+        <v>0.873927</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.568989</v>
+        <v>0.640306</v>
       </c>
       <c r="C55" t="n">
-        <v>1.34989</v>
+        <v>1.66248</v>
       </c>
       <c r="D55" t="n">
-        <v>0.80306</v>
+        <v>0.8715580000000001</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.552702</v>
+        <v>0.614254</v>
       </c>
       <c r="C56" t="n">
-        <v>1.30186</v>
+        <v>1.7258</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7670670000000001</v>
+        <v>0.866224</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.546596</v>
+        <v>0.63755</v>
       </c>
       <c r="C57" t="n">
-        <v>1.35201</v>
+        <v>1.75237</v>
       </c>
       <c r="D57" t="n">
-        <v>0.780048</v>
+        <v>0.840658</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.553538</v>
+        <v>0.649721</v>
       </c>
       <c r="C58" t="n">
-        <v>1.37477</v>
+        <v>1.7174</v>
       </c>
       <c r="D58" t="n">
-        <v>0.794946</v>
+        <v>0.88348</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.581391</v>
+        <v>0.626146</v>
       </c>
       <c r="C59" t="n">
-        <v>1.46078</v>
+        <v>1.75261</v>
       </c>
       <c r="D59" t="n">
-        <v>0.81616</v>
+        <v>0.918232</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.630993</v>
+        <v>0.745109</v>
       </c>
       <c r="C60" t="n">
-        <v>1.44512</v>
+        <v>2.15733</v>
       </c>
       <c r="D60" t="n">
-        <v>0.824808</v>
+        <v>0.975251</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6417890000000001</v>
+        <v>0.71909</v>
       </c>
       <c r="C61" t="n">
-        <v>1.44094</v>
+        <v>1.8843</v>
       </c>
       <c r="D61" t="n">
-        <v>0.825846</v>
+        <v>0.957754</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.634395</v>
+        <v>0.770174</v>
       </c>
       <c r="C62" t="n">
-        <v>1.54438</v>
+        <v>2.09503</v>
       </c>
       <c r="D62" t="n">
-        <v>0.864072</v>
+        <v>1.01792</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.663209</v>
+        <v>0.902863</v>
       </c>
       <c r="C63" t="n">
-        <v>1.66833</v>
+        <v>2.28301</v>
       </c>
       <c r="D63" t="n">
-        <v>0.928158</v>
+        <v>1.08504</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.713175</v>
+        <v>0.87636</v>
       </c>
       <c r="C64" t="n">
-        <v>1.67336</v>
+        <v>2.12024</v>
       </c>
       <c r="D64" t="n">
-        <v>0.899528</v>
+        <v>1.03498</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.661673</v>
+        <v>0.87408</v>
       </c>
       <c r="C65" t="n">
-        <v>1.61636</v>
+        <v>2.19463</v>
       </c>
       <c r="D65" t="n">
-        <v>0.938618</v>
+        <v>1.13797</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.685959</v>
+        <v>0.898648</v>
       </c>
       <c r="C66" t="n">
-        <v>1.72014</v>
+        <v>2.41101</v>
       </c>
       <c r="D66" t="n">
-        <v>0.931302</v>
+        <v>1.18736</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.688257</v>
+        <v>0.8633729999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>1.66332</v>
+        <v>2.38214</v>
       </c>
       <c r="D67" t="n">
-        <v>0.938104</v>
+        <v>1.20152</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.687304</v>
+        <v>0.989171</v>
       </c>
       <c r="C68" t="n">
-        <v>1.57363</v>
+        <v>2.49977</v>
       </c>
       <c r="D68" t="n">
-        <v>0.999441</v>
+        <v>1.35329</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.725452</v>
+        <v>1.08008</v>
       </c>
       <c r="C69" t="n">
-        <v>1.74704</v>
+        <v>2.73398</v>
       </c>
       <c r="D69" t="n">
-        <v>0.998112</v>
+        <v>1.46395</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.705156</v>
+        <v>1.06367</v>
       </c>
       <c r="C70" t="n">
-        <v>1.72223</v>
+        <v>2.79161</v>
       </c>
       <c r="D70" t="n">
-        <v>1.02829</v>
+        <v>1.41272</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.713315</v>
+        <v>1.08678</v>
       </c>
       <c r="C71" t="n">
-        <v>1.83113</v>
+        <v>2.85465</v>
       </c>
       <c r="D71" t="n">
-        <v>1.10654</v>
+        <v>1.60372</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.77703</v>
+        <v>1.14586</v>
       </c>
       <c r="C72" t="n">
-        <v>1.79488</v>
+        <v>2.89352</v>
       </c>
       <c r="D72" t="n">
-        <v>1.07357</v>
+        <v>1.55469</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.780823</v>
+        <v>1.19049</v>
       </c>
       <c r="C73" t="n">
-        <v>1.97544</v>
+        <v>3.19593</v>
       </c>
       <c r="D73" t="n">
-        <v>1.12544</v>
+        <v>1.78846</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.875887</v>
+        <v>1.34585</v>
       </c>
       <c r="C74" t="n">
-        <v>2.71948</v>
+        <v>3.19938</v>
       </c>
       <c r="D74" t="n">
-        <v>1.31975</v>
+        <v>1.85903</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.894086</v>
+        <v>1.37454</v>
       </c>
       <c r="C75" t="n">
-        <v>2.09764</v>
+        <v>3.43946</v>
       </c>
       <c r="D75" t="n">
-        <v>1.25219</v>
+        <v>1.9904</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.08818</v>
+        <v>1.46005</v>
       </c>
       <c r="C76" t="n">
-        <v>2.58084</v>
+        <v>3.70507</v>
       </c>
       <c r="D76" t="n">
-        <v>1.35075</v>
+        <v>2.14868</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.14351</v>
+        <v>1.5173</v>
       </c>
       <c r="C77" t="n">
-        <v>2.7159</v>
+        <v>3.66337</v>
       </c>
       <c r="D77" t="n">
-        <v>1.39938</v>
+        <v>2.05235</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.08518</v>
+        <v>1.59009</v>
       </c>
       <c r="C78" t="n">
-        <v>2.84792</v>
+        <v>3.79576</v>
       </c>
       <c r="D78" t="n">
-        <v>1.57417</v>
+        <v>2.32543</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.24459</v>
+        <v>1.63217</v>
       </c>
       <c r="C79" t="n">
-        <v>2.92214</v>
+        <v>3.92662</v>
       </c>
       <c r="D79" t="n">
-        <v>1.56152</v>
+        <v>2.40091</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.28896</v>
+        <v>1.72352</v>
       </c>
       <c r="C80" t="n">
-        <v>3.06222</v>
+        <v>3.84381</v>
       </c>
       <c r="D80" t="n">
-        <v>1.48889</v>
+        <v>2.20606</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.20827</v>
+        <v>1.60428</v>
       </c>
       <c r="C81" t="n">
-        <v>3.25335</v>
+        <v>3.80309</v>
       </c>
       <c r="D81" t="n">
-        <v>1.82473</v>
+        <v>2.37947</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.35273</v>
+        <v>1.71713</v>
       </c>
       <c r="C82" t="n">
-        <v>3.2608</v>
+        <v>4.29552</v>
       </c>
       <c r="D82" t="n">
-        <v>1.91696</v>
+        <v>2.64974</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.42007</v>
+        <v>1.79426</v>
       </c>
       <c r="C83" t="n">
-        <v>3.40357</v>
+        <v>4.15647</v>
       </c>
       <c r="D83" t="n">
-        <v>2.24014</v>
+        <v>2.58764</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.53236</v>
+        <v>1.78478</v>
       </c>
       <c r="C84" t="n">
-        <v>3.81562</v>
+        <v>4.17441</v>
       </c>
       <c r="D84" t="n">
-        <v>2.19592</v>
+        <v>2.78311</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.51783</v>
+        <v>1.82492</v>
       </c>
       <c r="C85" t="n">
-        <v>3.25153</v>
+        <v>4.12539</v>
       </c>
       <c r="D85" t="n">
-        <v>2.15071</v>
+        <v>2.68069</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.49751</v>
+        <v>1.83075</v>
       </c>
       <c r="C86" t="n">
-        <v>3.41214</v>
+        <v>4.09084</v>
       </c>
       <c r="D86" t="n">
-        <v>2.09893</v>
+        <v>2.68083</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.47232</v>
+        <v>1.90777</v>
       </c>
       <c r="C87" t="n">
-        <v>3.63558</v>
+        <v>4.31406</v>
       </c>
       <c r="D87" t="n">
-        <v>2.19078</v>
+        <v>2.90708</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.66828</v>
+        <v>2.06162</v>
       </c>
       <c r="C88" t="n">
-        <v>3.58245</v>
+        <v>4.61105</v>
       </c>
       <c r="D88" t="n">
-        <v>2.26897</v>
+        <v>3.19403</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.9277</v>
+        <v>2.23422</v>
       </c>
       <c r="C89" t="n">
-        <v>3.94844</v>
+        <v>4.49917</v>
       </c>
       <c r="D89" t="n">
-        <v>2.58311</v>
+        <v>3.05912</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.83393</v>
+        <v>2.13943</v>
       </c>
       <c r="C90" t="n">
-        <v>4.11733</v>
+        <v>4.45263</v>
       </c>
       <c r="D90" t="n">
-        <v>2.73161</v>
+        <v>3.05852</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.01001</v>
+        <v>2.21252</v>
       </c>
       <c r="C91" t="n">
-        <v>4.08318</v>
+        <v>4.75278</v>
       </c>
       <c r="D91" t="n">
-        <v>2.53513</v>
+        <v>3.1817</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.03967</v>
+        <v>2.21308</v>
       </c>
       <c r="C92" t="n">
-        <v>4.23221</v>
+        <v>4.81661</v>
       </c>
       <c r="D92" t="n">
-        <v>2.77564</v>
+        <v>3.30255</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.18333</v>
+        <v>2.36703</v>
       </c>
       <c r="C93" t="n">
-        <v>4.67199</v>
+        <v>4.63784</v>
       </c>
       <c r="D93" t="n">
-        <v>2.7815</v>
+        <v>3.24916</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.24301</v>
+        <v>2.50264</v>
       </c>
       <c r="C94" t="n">
-        <v>4.23832</v>
+        <v>5.1197</v>
       </c>
       <c r="D94" t="n">
-        <v>2.70475</v>
+        <v>3.39074</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.20975</v>
+        <v>2.53069</v>
       </c>
       <c r="C95" t="n">
-        <v>4.4023</v>
+        <v>5.45418</v>
       </c>
       <c r="D95" t="n">
-        <v>2.82802</v>
+        <v>3.52955</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.16559</v>
+        <v>2.66296</v>
       </c>
       <c r="C96" t="n">
-        <v>4.57153</v>
+        <v>5.2829</v>
       </c>
       <c r="D96" t="n">
-        <v>2.89254</v>
+        <v>3.65236</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.21609</v>
+        <v>2.6439</v>
       </c>
       <c r="C97" t="n">
-        <v>4.23051</v>
+        <v>4.94569</v>
       </c>
       <c r="D97" t="n">
-        <v>2.97111</v>
+        <v>3.77415</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.23729</v>
+        <v>2.65313</v>
       </c>
       <c r="C98" t="n">
-        <v>4.16426</v>
+        <v>5.14357</v>
       </c>
       <c r="D98" t="n">
-        <v>3.10611</v>
+        <v>3.92171</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.16918</v>
+        <v>2.85524</v>
       </c>
       <c r="C99" t="n">
-        <v>4.26086</v>
+        <v>5.26924</v>
       </c>
       <c r="D99" t="n">
-        <v>3.21998</v>
+        <v>4.06516</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.27483</v>
+        <v>2.81051</v>
       </c>
       <c r="C100" t="n">
-        <v>4.21785</v>
+        <v>5.45552</v>
       </c>
       <c r="D100" t="n">
-        <v>3.14267</v>
+        <v>4.07724</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.38721</v>
+        <v>2.79124</v>
       </c>
       <c r="C101" t="n">
-        <v>4.572</v>
+        <v>5.34899</v>
       </c>
       <c r="D101" t="n">
-        <v>3.57273</v>
+        <v>4.04143</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.54193</v>
+        <v>2.87592</v>
       </c>
       <c r="C102" t="n">
-        <v>4.55318</v>
+        <v>5.33606</v>
       </c>
       <c r="D102" t="n">
-        <v>3.41075</v>
+        <v>4.03038</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.61744</v>
+        <v>2.99019</v>
       </c>
       <c r="C103" t="n">
-        <v>4.56831</v>
+        <v>5.50194</v>
       </c>
       <c r="D103" t="n">
-        <v>3.43577</v>
+        <v>4.07124</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.5313</v>
+        <v>2.98924</v>
       </c>
       <c r="C104" t="n">
-        <v>4.60164</v>
+        <v>5.50453</v>
       </c>
       <c r="D104" t="n">
-        <v>3.47489</v>
+        <v>4.13544</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.63581</v>
+        <v>3.06997</v>
       </c>
       <c r="C105" t="n">
-        <v>4.7634</v>
+        <v>5.60613</v>
       </c>
       <c r="D105" t="n">
-        <v>3.52835</v>
+        <v>4.20538</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.7638</v>
+        <v>3.1293</v>
       </c>
       <c r="C106" t="n">
-        <v>4.9673</v>
+        <v>5.62323</v>
       </c>
       <c r="D106" t="n">
-        <v>3.74652</v>
+        <v>4.14819</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.89277</v>
+        <v>3.17203</v>
       </c>
       <c r="C107" t="n">
-        <v>4.99989</v>
+        <v>5.83812</v>
       </c>
       <c r="D107" t="n">
-        <v>3.69153</v>
+        <v>4.28154</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.77654</v>
+        <v>3.21003</v>
       </c>
       <c r="C108" t="n">
-        <v>5.05134</v>
+        <v>5.83096</v>
       </c>
       <c r="D108" t="n">
-        <v>3.67147</v>
+        <v>4.20595</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.97213</v>
+        <v>3.17064</v>
       </c>
       <c r="C109" t="n">
-        <v>5.36086</v>
+        <v>5.97093</v>
       </c>
       <c r="D109" t="n">
-        <v>3.83324</v>
+        <v>4.27932</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.90475</v>
+        <v>3.24651</v>
       </c>
       <c r="C110" t="n">
-        <v>5.56358</v>
+        <v>5.991</v>
       </c>
       <c r="D110" t="n">
-        <v>3.93946</v>
+        <v>4.34045</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.08277</v>
+        <v>3.28615</v>
       </c>
       <c r="C111" t="n">
-        <v>5.19406</v>
+        <v>5.74206</v>
       </c>
       <c r="D111" t="n">
-        <v>4.18272</v>
+        <v>4.5316</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.08428</v>
+        <v>3.32456</v>
       </c>
       <c r="C112" t="n">
-        <v>5.2672</v>
+        <v>5.8356</v>
       </c>
       <c r="D112" t="n">
-        <v>4.18417</v>
+        <v>4.55013</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.12335</v>
+        <v>3.37557</v>
       </c>
       <c r="C113" t="n">
-        <v>5.33621</v>
+        <v>5.92944</v>
       </c>
       <c r="D113" t="n">
-        <v>4.20147</v>
+        <v>4.58986</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.2868</v>
+        <v>3.391</v>
       </c>
       <c r="C114" t="n">
-        <v>5.68455</v>
+        <v>6.04538</v>
       </c>
       <c r="D114" t="n">
-        <v>4.41953</v>
+        <v>4.68092</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.1872</v>
+        <v>3.41883</v>
       </c>
       <c r="C115" t="n">
-        <v>5.64702</v>
+        <v>6.05181</v>
       </c>
       <c r="D115" t="n">
-        <v>4.34749</v>
+        <v>4.63234</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.29377</v>
+        <v>3.61342</v>
       </c>
       <c r="C116" t="n">
-        <v>5.67344</v>
+        <v>6.16826</v>
       </c>
       <c r="D116" t="n">
-        <v>4.54464</v>
+        <v>4.70649</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.42422</v>
+        <v>3.68077</v>
       </c>
       <c r="C117" t="n">
-        <v>5.87398</v>
+        <v>6.357</v>
       </c>
       <c r="D117" t="n">
-        <v>4.5257</v>
+        <v>4.73422</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.33681</v>
+        <v>3.73532</v>
       </c>
       <c r="C118" t="n">
-        <v>5.72215</v>
+        <v>6.59935</v>
       </c>
       <c r="D118" t="n">
-        <v>4.29379</v>
+        <v>4.88568</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.35585</v>
+        <v>3.80169</v>
       </c>
       <c r="C119" t="n">
-        <v>6.00494</v>
+        <v>6.66529</v>
       </c>
       <c r="D119" t="n">
-        <v>4.40405</v>
+        <v>4.87804</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.357779</v>
+        <v>0.461118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.652603</v>
+        <v>0.588147</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346201</v>
+        <v>0.375609</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.360245</v>
+        <v>0.399385</v>
       </c>
       <c r="C3" t="n">
-        <v>0.641465</v>
+        <v>0.584562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.347897</v>
+        <v>0.371371</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.352306</v>
+        <v>0.396401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.644533</v>
+        <v>0.583766</v>
       </c>
       <c r="D4" t="n">
-        <v>0.351946</v>
+        <v>0.383409</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.369787</v>
+        <v>0.400673</v>
       </c>
       <c r="C5" t="n">
-        <v>0.651374</v>
+        <v>0.607753</v>
       </c>
       <c r="D5" t="n">
-        <v>0.350075</v>
+        <v>0.37829</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.363329</v>
+        <v>0.400889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6579390000000001</v>
+        <v>0.582203</v>
       </c>
       <c r="D6" t="n">
-        <v>0.360511</v>
+        <v>0.386352</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.372932</v>
+        <v>0.401697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.642427</v>
+        <v>0.593178</v>
       </c>
       <c r="D7" t="n">
-        <v>0.331205</v>
+        <v>0.378419</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.381571</v>
+        <v>0.437833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.668381</v>
+        <v>0.60376</v>
       </c>
       <c r="D8" t="n">
-        <v>0.335143</v>
+        <v>0.378801</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.387751</v>
+        <v>0.411623</v>
       </c>
       <c r="C9" t="n">
-        <v>0.675244</v>
+        <v>0.597118</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3419</v>
+        <v>0.388358</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.385629</v>
+        <v>0.418644</v>
       </c>
       <c r="C10" t="n">
-        <v>0.677101</v>
+        <v>0.604994</v>
       </c>
       <c r="D10" t="n">
-        <v>0.343732</v>
+        <v>0.397044</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.399953</v>
+        <v>0.428069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.688011</v>
+        <v>0.603751</v>
       </c>
       <c r="D11" t="n">
-        <v>0.347537</v>
+        <v>0.389097</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.397976</v>
+        <v>0.434446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.682151</v>
+        <v>0.645712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.351512</v>
+        <v>0.389868</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.392388</v>
+        <v>0.413519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6910500000000001</v>
+        <v>0.607538</v>
       </c>
       <c r="D13" t="n">
-        <v>0.354638</v>
+        <v>0.393846</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.401633</v>
+        <v>0.420645</v>
       </c>
       <c r="C14" t="n">
-        <v>0.706318</v>
+        <v>0.607989</v>
       </c>
       <c r="D14" t="n">
-        <v>0.363943</v>
+        <v>0.406709</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.406082</v>
+        <v>0.408306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.715394</v>
+        <v>0.604025</v>
       </c>
       <c r="D15" t="n">
-        <v>0.365898</v>
+        <v>0.397806</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.41151</v>
+        <v>0.420617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.72141</v>
+        <v>0.620201</v>
       </c>
       <c r="D16" t="n">
-        <v>0.369895</v>
+        <v>0.403928</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.42354</v>
+        <v>0.423605</v>
       </c>
       <c r="C17" t="n">
-        <v>0.73011</v>
+        <v>0.609587</v>
       </c>
       <c r="D17" t="n">
-        <v>0.379091</v>
+        <v>0.408189</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.425992</v>
+        <v>0.434507</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7306550000000001</v>
+        <v>0.609055</v>
       </c>
       <c r="D18" t="n">
-        <v>0.387971</v>
+        <v>0.423249</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.435138</v>
+        <v>0.428084</v>
       </c>
       <c r="C19" t="n">
-        <v>0.733638</v>
+        <v>0.613445</v>
       </c>
       <c r="D19" t="n">
-        <v>0.394215</v>
+        <v>0.416578</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.444024</v>
+        <v>0.436974</v>
       </c>
       <c r="C20" t="n">
-        <v>0.753869</v>
+        <v>0.621418</v>
       </c>
       <c r="D20" t="n">
-        <v>0.401611</v>
+        <v>0.419044</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.439284</v>
+        <v>0.4392</v>
       </c>
       <c r="C21" t="n">
-        <v>0.746913</v>
+        <v>0.638313</v>
       </c>
       <c r="D21" t="n">
-        <v>0.408042</v>
+        <v>0.410858</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.458166</v>
+        <v>0.452427</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7588819999999999</v>
+        <v>0.673948</v>
       </c>
       <c r="D22" t="n">
-        <v>0.413581</v>
+        <v>0.414099</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.465693</v>
+        <v>0.468402</v>
       </c>
       <c r="C23" t="n">
-        <v>0.763841</v>
+        <v>0.663533</v>
       </c>
       <c r="D23" t="n">
-        <v>0.416204</v>
+        <v>0.42121</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.475245</v>
+        <v>0.458277</v>
       </c>
       <c r="C24" t="n">
-        <v>0.769347</v>
+        <v>0.6500939999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.431443</v>
+        <v>0.426565</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.474616</v>
+        <v>0.473722</v>
       </c>
       <c r="C25" t="n">
-        <v>0.753595</v>
+        <v>0.64672</v>
       </c>
       <c r="D25" t="n">
-        <v>0.437893</v>
+        <v>0.440611</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.487502</v>
+        <v>0.459586</v>
       </c>
       <c r="C26" t="n">
-        <v>0.770883</v>
+        <v>0.648922</v>
       </c>
       <c r="D26" t="n">
-        <v>0.445665</v>
+        <v>0.429578</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.477426</v>
+        <v>0.549056</v>
       </c>
       <c r="C27" t="n">
-        <v>0.781149</v>
+        <v>0.671634</v>
       </c>
       <c r="D27" t="n">
-        <v>0.454021</v>
+        <v>0.440167</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.481511</v>
+        <v>0.52563</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7715340000000001</v>
+        <v>0.673301</v>
       </c>
       <c r="D28" t="n">
-        <v>0.461654</v>
+        <v>0.447725</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.49975</v>
+        <v>0.54443</v>
       </c>
       <c r="C29" t="n">
-        <v>0.789316</v>
+        <v>0.675304</v>
       </c>
       <c r="D29" t="n">
-        <v>0.46879</v>
+        <v>0.486771</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.499213</v>
+        <v>0.561999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7965410000000001</v>
+        <v>0.672936</v>
       </c>
       <c r="D30" t="n">
-        <v>0.468711</v>
+        <v>0.473206</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.498233</v>
+        <v>0.612156</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7776729999999999</v>
+        <v>0.6716529999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.482449</v>
+        <v>0.47012</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.503372</v>
+        <v>0.601041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.807226</v>
+        <v>0.692818</v>
       </c>
       <c r="D32" t="n">
-        <v>0.489858</v>
+        <v>0.487047</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.491368</v>
+        <v>0.599869</v>
       </c>
       <c r="C33" t="n">
-        <v>0.815793</v>
+        <v>0.728658</v>
       </c>
       <c r="D33" t="n">
-        <v>0.497807</v>
+        <v>0.504365</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.659548</v>
+        <v>0.628846</v>
       </c>
       <c r="C34" t="n">
-        <v>0.822406</v>
+        <v>0.7214390000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.501125</v>
+        <v>0.522232</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.522375</v>
+        <v>0.631489</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8414779999999999</v>
+        <v>0.772848</v>
       </c>
       <c r="D35" t="n">
-        <v>0.486454</v>
+        <v>0.593619</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.528769</v>
+        <v>0.652297</v>
       </c>
       <c r="C36" t="n">
-        <v>0.839502</v>
+        <v>0.7815029999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5044110000000001</v>
+        <v>0.624926</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.527011</v>
+        <v>0.6903589999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.839123</v>
+        <v>0.796551</v>
       </c>
       <c r="D37" t="n">
-        <v>0.50381</v>
+        <v>0.6479470000000001</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.521224</v>
+        <v>0.720081</v>
       </c>
       <c r="C38" t="n">
-        <v>0.842164</v>
+        <v>0.861739</v>
       </c>
       <c r="D38" t="n">
-        <v>0.512655</v>
+        <v>0.6584</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.526766</v>
+        <v>0.704873</v>
       </c>
       <c r="C39" t="n">
-        <v>0.853638</v>
+        <v>0.909559</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5141790000000001</v>
+        <v>0.685111</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.54642</v>
+        <v>0.727281</v>
       </c>
       <c r="C40" t="n">
-        <v>0.843265</v>
+        <v>0.849896</v>
       </c>
       <c r="D40" t="n">
-        <v>0.523953</v>
+        <v>0.693634</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.528851</v>
+        <v>0.852588</v>
       </c>
       <c r="C41" t="n">
-        <v>0.855434</v>
+        <v>0.889672</v>
       </c>
       <c r="D41" t="n">
-        <v>0.522632</v>
+        <v>0.703948</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.511764</v>
+        <v>0.904146</v>
       </c>
       <c r="C42" t="n">
-        <v>0.84091</v>
+        <v>0.884861</v>
       </c>
       <c r="D42" t="n">
-        <v>0.522414</v>
+        <v>0.724287</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.544803</v>
+        <v>0.907481</v>
       </c>
       <c r="C43" t="n">
-        <v>0.864102</v>
+        <v>0.979622</v>
       </c>
       <c r="D43" t="n">
-        <v>0.542144</v>
+        <v>0.760112</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.550199</v>
+        <v>0.956672</v>
       </c>
       <c r="C44" t="n">
-        <v>0.885943</v>
+        <v>0.920189</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5464560000000001</v>
+        <v>0.832768</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.562165</v>
+        <v>0.975452</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8939550000000001</v>
+        <v>0.937837</v>
       </c>
       <c r="D45" t="n">
-        <v>0.555692</v>
+        <v>0.787774</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.579352</v>
+        <v>1.025</v>
       </c>
       <c r="C46" t="n">
-        <v>0.915369</v>
+        <v>1.00811</v>
       </c>
       <c r="D46" t="n">
-        <v>0.559039</v>
+        <v>0.830086</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5731039999999999</v>
+        <v>1.06498</v>
       </c>
       <c r="C47" t="n">
-        <v>0.908695</v>
+        <v>1.06224</v>
       </c>
       <c r="D47" t="n">
-        <v>0.562051</v>
+        <v>0.856266</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5759300000000001</v>
+        <v>1.07213</v>
       </c>
       <c r="C48" t="n">
-        <v>0.956743</v>
+        <v>1.0978</v>
       </c>
       <c r="D48" t="n">
-        <v>0.573596</v>
+        <v>0.870152</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.612981</v>
+        <v>1.09988</v>
       </c>
       <c r="C49" t="n">
-        <v>0.94654</v>
+        <v>1.15588</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5768760000000001</v>
+        <v>0.917526</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.63687</v>
+        <v>1.16459</v>
       </c>
       <c r="C50" t="n">
-        <v>0.966221</v>
+        <v>1.38884</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5757409999999999</v>
+        <v>1.16704</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.623503</v>
+        <v>1.18996</v>
       </c>
       <c r="C51" t="n">
-        <v>0.983598</v>
+        <v>1.38295</v>
       </c>
       <c r="D51" t="n">
-        <v>0.578524</v>
+        <v>1.16801</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.62847</v>
+        <v>1.22702</v>
       </c>
       <c r="C52" t="n">
-        <v>0.995983</v>
+        <v>1.42681</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5892810000000001</v>
+        <v>1.24383</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.637724</v>
+        <v>1.29502</v>
       </c>
       <c r="C53" t="n">
-        <v>1.05029</v>
+        <v>1.43336</v>
       </c>
       <c r="D53" t="n">
-        <v>0.607897</v>
+        <v>1.26633</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.679198</v>
+        <v>1.25235</v>
       </c>
       <c r="C54" t="n">
-        <v>1.03358</v>
+        <v>1.46393</v>
       </c>
       <c r="D54" t="n">
-        <v>0.622099</v>
+        <v>1.28107</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6876679999999999</v>
+        <v>1.40828</v>
       </c>
       <c r="C55" t="n">
-        <v>1.12283</v>
+        <v>1.49295</v>
       </c>
       <c r="D55" t="n">
-        <v>0.617792</v>
+        <v>1.38632</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8235749999999999</v>
+        <v>1.54084</v>
       </c>
       <c r="C56" t="n">
-        <v>1.19757</v>
+        <v>1.5684</v>
       </c>
       <c r="D56" t="n">
-        <v>0.664849</v>
+        <v>1.38267</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.884504</v>
+        <v>1.53189</v>
       </c>
       <c r="C57" t="n">
-        <v>1.12468</v>
+        <v>1.5074</v>
       </c>
       <c r="D57" t="n">
-        <v>0.67522</v>
+        <v>1.37607</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.863846</v>
+        <v>1.60649</v>
       </c>
       <c r="C58" t="n">
-        <v>1.16172</v>
+        <v>1.54989</v>
       </c>
       <c r="D58" t="n">
-        <v>0.727742</v>
+        <v>1.43961</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.849819</v>
+        <v>1.60368</v>
       </c>
       <c r="C59" t="n">
-        <v>1.22293</v>
+        <v>1.57671</v>
       </c>
       <c r="D59" t="n">
-        <v>0.759537</v>
+        <v>1.52176</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9711959999999999</v>
+        <v>1.62502</v>
       </c>
       <c r="C60" t="n">
-        <v>1.30118</v>
+        <v>1.71994</v>
       </c>
       <c r="D60" t="n">
-        <v>0.744602</v>
+        <v>1.52436</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.959481</v>
+        <v>1.7532</v>
       </c>
       <c r="C61" t="n">
-        <v>1.19299</v>
+        <v>1.74442</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7851860000000001</v>
+        <v>1.56231</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.856792</v>
+        <v>1.69621</v>
       </c>
       <c r="C62" t="n">
-        <v>1.19374</v>
+        <v>1.75062</v>
       </c>
       <c r="D62" t="n">
-        <v>0.796416</v>
+        <v>1.57959</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.956423</v>
+        <v>1.69563</v>
       </c>
       <c r="C63" t="n">
-        <v>1.34412</v>
+        <v>1.68498</v>
       </c>
       <c r="D63" t="n">
-        <v>0.890956</v>
+        <v>1.60243</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9775430000000001</v>
+        <v>1.70569</v>
       </c>
       <c r="C64" t="n">
-        <v>1.6232</v>
+        <v>1.9044</v>
       </c>
       <c r="D64" t="n">
-        <v>1.18824</v>
+        <v>1.94576</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.0063</v>
+        <v>1.75263</v>
       </c>
       <c r="C65" t="n">
-        <v>1.56051</v>
+        <v>1.87151</v>
       </c>
       <c r="D65" t="n">
-        <v>1.15255</v>
+        <v>1.95002</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.04052</v>
+        <v>1.78449</v>
       </c>
       <c r="C66" t="n">
-        <v>1.79598</v>
+        <v>1.86918</v>
       </c>
       <c r="D66" t="n">
-        <v>1.34731</v>
+        <v>1.95002</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.06911</v>
+        <v>1.92352</v>
       </c>
       <c r="C67" t="n">
-        <v>1.5581</v>
+        <v>1.98738</v>
       </c>
       <c r="D67" t="n">
-        <v>1.24113</v>
+        <v>2.11037</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.08844</v>
+        <v>1.95898</v>
       </c>
       <c r="C68" t="n">
-        <v>1.71804</v>
+        <v>1.94435</v>
       </c>
       <c r="D68" t="n">
-        <v>1.32797</v>
+        <v>2.04573</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.13438</v>
+        <v>1.9694</v>
       </c>
       <c r="C69" t="n">
-        <v>1.72525</v>
+        <v>1.99728</v>
       </c>
       <c r="D69" t="n">
-        <v>1.42711</v>
+        <v>2.20085</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>1.31801</v>
+        <v>2.06731</v>
       </c>
       <c r="C70" t="n">
-        <v>1.90396</v>
+        <v>1.98348</v>
       </c>
       <c r="D70" t="n">
-        <v>1.56523</v>
+        <v>2.24307</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>1.67572</v>
+        <v>2.09598</v>
       </c>
       <c r="C71" t="n">
-        <v>2.08935</v>
+        <v>2.0408</v>
       </c>
       <c r="D71" t="n">
-        <v>1.59373</v>
+        <v>2.12373</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>1.44869</v>
+        <v>2.07708</v>
       </c>
       <c r="C72" t="n">
-        <v>1.86568</v>
+        <v>2.13698</v>
       </c>
       <c r="D72" t="n">
-        <v>1.5999</v>
+        <v>2.30152</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>1.58991</v>
+        <v>2.1891</v>
       </c>
       <c r="C73" t="n">
-        <v>1.94939</v>
+        <v>2.15782</v>
       </c>
       <c r="D73" t="n">
-        <v>1.63707</v>
+        <v>2.25175</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>1.50284</v>
+        <v>2.09826</v>
       </c>
       <c r="C74" t="n">
-        <v>2.03501</v>
+        <v>2.05021</v>
       </c>
       <c r="D74" t="n">
-        <v>1.76902</v>
+        <v>2.26424</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>1.71063</v>
+        <v>2.04542</v>
       </c>
       <c r="C75" t="n">
-        <v>2.04208</v>
+        <v>2.10234</v>
       </c>
       <c r="D75" t="n">
-        <v>1.879</v>
+        <v>2.32092</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>1.726</v>
+        <v>2.17973</v>
       </c>
       <c r="C76" t="n">
-        <v>2.12105</v>
+        <v>2.1678</v>
       </c>
       <c r="D76" t="n">
-        <v>1.84847</v>
+        <v>2.48598</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.73171</v>
+        <v>2.23425</v>
       </c>
       <c r="C77" t="n">
-        <v>2.13387</v>
+        <v>2.16816</v>
       </c>
       <c r="D77" t="n">
-        <v>1.85301</v>
+        <v>2.35028</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.7719</v>
+        <v>2.23753</v>
       </c>
       <c r="C78" t="n">
-        <v>2.36523</v>
+        <v>2.29103</v>
       </c>
       <c r="D78" t="n">
-        <v>2.57396</v>
+        <v>2.63968</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.79198</v>
+        <v>2.17209</v>
       </c>
       <c r="C79" t="n">
-        <v>2.42487</v>
+        <v>2.37162</v>
       </c>
       <c r="D79" t="n">
-        <v>2.56623</v>
+        <v>2.6392</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.99222</v>
+        <v>2.24875</v>
       </c>
       <c r="C80" t="n">
-        <v>2.4085</v>
+        <v>2.38527</v>
       </c>
       <c r="D80" t="n">
-        <v>2.63203</v>
+        <v>2.68048</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.08953</v>
+        <v>2.19456</v>
       </c>
       <c r="C81" t="n">
-        <v>2.51626</v>
+        <v>2.27561</v>
       </c>
       <c r="D81" t="n">
-        <v>2.682</v>
+        <v>2.68897</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.0611</v>
+        <v>2.22861</v>
       </c>
       <c r="C82" t="n">
-        <v>2.48721</v>
+        <v>2.30662</v>
       </c>
       <c r="D82" t="n">
-        <v>2.83949</v>
+        <v>2.64904</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.13554</v>
+        <v>2.25535</v>
       </c>
       <c r="C83" t="n">
-        <v>2.56466</v>
+        <v>2.31761</v>
       </c>
       <c r="D83" t="n">
-        <v>2.79139</v>
+        <v>2.77152</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.37103</v>
+        <v>2.33608</v>
       </c>
       <c r="C84" t="n">
-        <v>2.71026</v>
+        <v>2.34425</v>
       </c>
       <c r="D84" t="n">
-        <v>2.93264</v>
+        <v>2.72055</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.51674</v>
+        <v>2.33084</v>
       </c>
       <c r="C85" t="n">
-        <v>2.6176</v>
+        <v>2.38855</v>
       </c>
       <c r="D85" t="n">
-        <v>2.94404</v>
+        <v>2.75111</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.48444</v>
+        <v>2.40408</v>
       </c>
       <c r="C86" t="n">
-        <v>2.66671</v>
+        <v>2.35965</v>
       </c>
       <c r="D86" t="n">
-        <v>2.96926</v>
+        <v>2.78174</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.68114</v>
+        <v>2.38674</v>
       </c>
       <c r="C87" t="n">
-        <v>2.78769</v>
+        <v>2.37733</v>
       </c>
       <c r="D87" t="n">
-        <v>3.04242</v>
+        <v>2.81081</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.74204</v>
+        <v>2.351</v>
       </c>
       <c r="C88" t="n">
-        <v>2.76786</v>
+        <v>2.44386</v>
       </c>
       <c r="D88" t="n">
-        <v>3.09748</v>
+        <v>2.85474</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.69778</v>
+        <v>2.43653</v>
       </c>
       <c r="C89" t="n">
-        <v>2.91103</v>
+        <v>2.4232</v>
       </c>
       <c r="D89" t="n">
-        <v>3.14018</v>
+        <v>2.87249</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.78004</v>
+        <v>2.45522</v>
       </c>
       <c r="C90" t="n">
-        <v>2.85596</v>
+        <v>2.46545</v>
       </c>
       <c r="D90" t="n">
-        <v>3.06907</v>
+        <v>2.90929</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.84634</v>
+        <v>2.445</v>
       </c>
       <c r="C91" t="n">
-        <v>2.86239</v>
+        <v>2.48667</v>
       </c>
       <c r="D91" t="n">
-        <v>3.19812</v>
+        <v>2.94144</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.78694</v>
+        <v>2.45846</v>
       </c>
       <c r="C92" t="n">
-        <v>3.05444</v>
+        <v>2.7021</v>
       </c>
       <c r="D92" t="n">
-        <v>3.75681</v>
+        <v>3.06302</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.99403</v>
+        <v>2.42983</v>
       </c>
       <c r="C93" t="n">
-        <v>3.1772</v>
+        <v>2.69888</v>
       </c>
       <c r="D93" t="n">
-        <v>3.79084</v>
+        <v>3.17977</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.95207</v>
+        <v>2.50765</v>
       </c>
       <c r="C94" t="n">
-        <v>3.12392</v>
+        <v>2.77881</v>
       </c>
       <c r="D94" t="n">
-        <v>3.86265</v>
+        <v>3.15252</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.97017</v>
+        <v>2.50339</v>
       </c>
       <c r="C95" t="n">
-        <v>3.19767</v>
+        <v>2.7179</v>
       </c>
       <c r="D95" t="n">
-        <v>3.88737</v>
+        <v>3.2479</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>3.09675</v>
+        <v>2.53852</v>
       </c>
       <c r="C96" t="n">
-        <v>3.2621</v>
+        <v>2.77448</v>
       </c>
       <c r="D96" t="n">
-        <v>3.94781</v>
+        <v>3.23348</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>3.16963</v>
+        <v>2.72049</v>
       </c>
       <c r="C97" t="n">
-        <v>3.29367</v>
+        <v>2.73309</v>
       </c>
       <c r="D97" t="n">
-        <v>3.90432</v>
+        <v>3.26302</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>3.50695</v>
+        <v>2.76951</v>
       </c>
       <c r="C98" t="n">
-        <v>3.35715</v>
+        <v>2.81297</v>
       </c>
       <c r="D98" t="n">
-        <v>3.9082</v>
+        <v>3.23418</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>3.51455</v>
+        <v>2.73121</v>
       </c>
       <c r="C99" t="n">
-        <v>3.38722</v>
+        <v>2.77924</v>
       </c>
       <c r="D99" t="n">
-        <v>3.95468</v>
+        <v>3.24662</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>3.59222</v>
+        <v>2.79382</v>
       </c>
       <c r="C100" t="n">
-        <v>3.39409</v>
+        <v>2.87258</v>
       </c>
       <c r="D100" t="n">
-        <v>3.95972</v>
+        <v>3.26974</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>3.61173</v>
+        <v>2.74891</v>
       </c>
       <c r="C101" t="n">
-        <v>3.43811</v>
+        <v>2.87341</v>
       </c>
       <c r="D101" t="n">
-        <v>3.98544</v>
+        <v>3.34075</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>3.65372</v>
+        <v>2.88965</v>
       </c>
       <c r="C102" t="n">
-        <v>3.45036</v>
+        <v>2.85974</v>
       </c>
       <c r="D102" t="n">
-        <v>4.01356</v>
+        <v>3.31586</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>3.69505</v>
+        <v>2.78272</v>
       </c>
       <c r="C103" t="n">
-        <v>3.41212</v>
+        <v>2.89135</v>
       </c>
       <c r="D103" t="n">
-        <v>3.99954</v>
+        <v>3.34528</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>3.74305</v>
+        <v>2.74063</v>
       </c>
       <c r="C104" t="n">
-        <v>3.52927</v>
+        <v>2.9181</v>
       </c>
       <c r="D104" t="n">
-        <v>4.10029</v>
+        <v>3.36098</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>3.7395</v>
+        <v>2.76618</v>
       </c>
       <c r="C105" t="n">
-        <v>3.60467</v>
+        <v>2.89564</v>
       </c>
       <c r="D105" t="n">
-        <v>4.00888</v>
+        <v>3.32837</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>3.77952</v>
+        <v>2.81289</v>
       </c>
       <c r="C106" t="n">
-        <v>3.61613</v>
+        <v>3.012</v>
       </c>
       <c r="D106" t="n">
-        <v>4.11217</v>
+        <v>3.37418</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>3.83731</v>
+        <v>2.8324</v>
       </c>
       <c r="C107" t="n">
-        <v>3.75705</v>
+        <v>3.30638</v>
       </c>
       <c r="D107" t="n">
-        <v>4.34502</v>
+        <v>3.67398</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>3.88566</v>
+        <v>2.84368</v>
       </c>
       <c r="C108" t="n">
-        <v>3.87565</v>
+        <v>3.30946</v>
       </c>
       <c r="D108" t="n">
-        <v>4.46153</v>
+        <v>3.71179</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.91362</v>
+        <v>2.82274</v>
       </c>
       <c r="C109" t="n">
-        <v>3.90488</v>
+        <v>3.31129</v>
       </c>
       <c r="D109" t="n">
-        <v>4.49927</v>
+        <v>3.61623</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.92284</v>
+        <v>2.88558</v>
       </c>
       <c r="C110" t="n">
-        <v>3.82487</v>
+        <v>3.3531</v>
       </c>
       <c r="D110" t="n">
-        <v>4.5211</v>
+        <v>3.68586</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.91003</v>
+        <v>2.88984</v>
       </c>
       <c r="C111" t="n">
-        <v>3.99622</v>
+        <v>3.42114</v>
       </c>
       <c r="D111" t="n">
-        <v>4.55837</v>
+        <v>3.78424</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>4.32047</v>
+        <v>3.07952</v>
       </c>
       <c r="C112" t="n">
-        <v>3.91576</v>
+        <v>3.39354</v>
       </c>
       <c r="D112" t="n">
-        <v>4.56039</v>
+        <v>3.71094</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>4.3981</v>
+        <v>3.08649</v>
       </c>
       <c r="C113" t="n">
-        <v>4.01214</v>
+        <v>3.35556</v>
       </c>
       <c r="D113" t="n">
-        <v>4.5989</v>
+        <v>3.7514</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>4.43158</v>
+        <v>3.04801</v>
       </c>
       <c r="C114" t="n">
-        <v>4.05097</v>
+        <v>3.42203</v>
       </c>
       <c r="D114" t="n">
-        <v>4.64789</v>
+        <v>3.78018</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>4.45413</v>
+        <v>3.09379</v>
       </c>
       <c r="C115" t="n">
-        <v>4.15554</v>
+        <v>3.46947</v>
       </c>
       <c r="D115" t="n">
-        <v>4.62824</v>
+        <v>3.76822</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>4.45464</v>
+        <v>3.17818</v>
       </c>
       <c r="C116" t="n">
-        <v>4.08563</v>
+        <v>3.4416</v>
       </c>
       <c r="D116" t="n">
-        <v>4.68163</v>
+        <v>3.8487</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>4.52002</v>
+        <v>3.17953</v>
       </c>
       <c r="C117" t="n">
-        <v>4.15283</v>
+        <v>3.5691</v>
       </c>
       <c r="D117" t="n">
-        <v>4.70541</v>
+        <v>3.88828</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>4.59354</v>
+        <v>3.25139</v>
       </c>
       <c r="C118" t="n">
-        <v>4.22403</v>
+        <v>3.51899</v>
       </c>
       <c r="D118" t="n">
-        <v>4.80313</v>
+        <v>4.0146</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>4.66267</v>
+        <v>3.33581</v>
       </c>
       <c r="C119" t="n">
-        <v>4.37943</v>
+        <v>3.69652</v>
       </c>
       <c r="D119" t="n">
-        <v>4.83852</v>
+        <v>4.0078</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.427667</v>
+        <v>0.459082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.793216</v>
+        <v>0.802022</v>
       </c>
       <c r="D2" t="n">
-        <v>0.493638</v>
+        <v>0.517849</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.433192</v>
+        <v>0.456978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.770188</v>
+        <v>0.75017</v>
       </c>
       <c r="D3" t="n">
-        <v>0.495359</v>
+        <v>0.5184260000000001</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.42781</v>
+        <v>0.454832</v>
       </c>
       <c r="C4" t="n">
-        <v>0.786732</v>
+        <v>0.761825</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49388</v>
+        <v>0.539205</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.414894</v>
+        <v>0.446246</v>
       </c>
       <c r="C5" t="n">
-        <v>0.811752</v>
+        <v>0.7751710000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.499853</v>
+        <v>0.555682</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.408963</v>
+        <v>0.449094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8071970000000001</v>
+        <v>0.756092</v>
       </c>
       <c r="D6" t="n">
-        <v>0.489031</v>
+        <v>0.531546</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.423311</v>
+        <v>0.439775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.844181</v>
+        <v>0.794667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.504123</v>
+        <v>0.536059</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.421634</v>
+        <v>0.450892</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8109150000000001</v>
+        <v>0.78096</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5084610000000001</v>
+        <v>0.537611</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.423343</v>
+        <v>0.444233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.829595</v>
+        <v>0.792551</v>
       </c>
       <c r="D9" t="n">
-        <v>0.510732</v>
+        <v>0.546416</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.420036</v>
+        <v>0.482418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.849104</v>
+        <v>0.80874</v>
       </c>
       <c r="D10" t="n">
-        <v>0.498623</v>
+        <v>0.549491</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.422291</v>
+        <v>0.457106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.850526</v>
+        <v>0.820927</v>
       </c>
       <c r="D11" t="n">
-        <v>0.502573</v>
+        <v>0.559051</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.432754</v>
+        <v>0.45701</v>
       </c>
       <c r="C12" t="n">
-        <v>0.86832</v>
+        <v>0.798769</v>
       </c>
       <c r="D12" t="n">
-        <v>0.518168</v>
+        <v>0.552495</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.440631</v>
+        <v>0.465512</v>
       </c>
       <c r="C13" t="n">
-        <v>0.891421</v>
+        <v>0.808878</v>
       </c>
       <c r="D13" t="n">
-        <v>0.523108</v>
+        <v>0.569226</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.444126</v>
+        <v>0.470427</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9049430000000001</v>
+        <v>0.81012</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5231980000000001</v>
+        <v>0.557983</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.451666</v>
+        <v>0.483259</v>
       </c>
       <c r="C15" t="n">
-        <v>0.874621</v>
+        <v>0.808497</v>
       </c>
       <c r="D15" t="n">
-        <v>0.526612</v>
+        <v>0.574132</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.445161</v>
+        <v>0.47617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.895479</v>
+        <v>0.812001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.52629</v>
+        <v>0.567648</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.449007</v>
+        <v>0.474618</v>
       </c>
       <c r="C17" t="n">
-        <v>0.89494</v>
+        <v>0.81531</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5342209999999999</v>
+        <v>0.570085</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.453994</v>
+        <v>0.482357</v>
       </c>
       <c r="C18" t="n">
-        <v>0.912613</v>
+        <v>0.818953</v>
       </c>
       <c r="D18" t="n">
-        <v>0.536456</v>
+        <v>0.594178</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.449891</v>
+        <v>0.488332</v>
       </c>
       <c r="C19" t="n">
-        <v>0.931619</v>
+        <v>0.827277</v>
       </c>
       <c r="D19" t="n">
-        <v>0.542743</v>
+        <v>0.575434</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.470125</v>
+        <v>0.480123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.974983</v>
+        <v>0.854522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.545106</v>
+        <v>0.591444</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.482134</v>
+        <v>0.477792</v>
       </c>
       <c r="C21" t="n">
-        <v>1.00326</v>
+        <v>0.857773</v>
       </c>
       <c r="D21" t="n">
-        <v>0.580834</v>
+        <v>0.586184</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.473906</v>
+        <v>0.487769</v>
       </c>
       <c r="C22" t="n">
-        <v>0.997765</v>
+        <v>0.855557</v>
       </c>
       <c r="D22" t="n">
-        <v>0.573021</v>
+        <v>0.5928369999999999</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.48189</v>
+        <v>0.492074</v>
       </c>
       <c r="C23" t="n">
-        <v>1.01773</v>
+        <v>0.869034</v>
       </c>
       <c r="D23" t="n">
-        <v>0.594122</v>
+        <v>0.60764</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.482358</v>
+        <v>0.481024</v>
       </c>
       <c r="C24" t="n">
-        <v>1.01775</v>
+        <v>0.864849</v>
       </c>
       <c r="D24" t="n">
-        <v>0.590286</v>
+        <v>0.640979</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.49805</v>
+        <v>0.506528</v>
       </c>
       <c r="C25" t="n">
-        <v>1.02918</v>
+        <v>0.8663459999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.62869</v>
+        <v>0.600839</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.495984</v>
+        <v>0.506982</v>
       </c>
       <c r="C26" t="n">
-        <v>1.04259</v>
+        <v>0.863502</v>
       </c>
       <c r="D26" t="n">
-        <v>0.615769</v>
+        <v>0.604365</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.525221</v>
+        <v>0.57583</v>
       </c>
       <c r="C27" t="n">
-        <v>1.04094</v>
+        <v>0.8761949999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.623312</v>
+        <v>0.623825</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.544519</v>
+        <v>0.588239</v>
       </c>
       <c r="C28" t="n">
-        <v>1.07884</v>
+        <v>0.889389</v>
       </c>
       <c r="D28" t="n">
-        <v>0.624911</v>
+        <v>0.615992</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.519903</v>
+        <v>0.5941419999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>1.04228</v>
+        <v>0.897349</v>
       </c>
       <c r="D29" t="n">
-        <v>0.625799</v>
+        <v>0.631467</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.53822</v>
+        <v>0.597015</v>
       </c>
       <c r="C30" t="n">
-        <v>1.08739</v>
+        <v>0.958094</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6505649999999999</v>
+        <v>0.672496</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.544624</v>
+        <v>0.6329669999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0623</v>
+        <v>0.910328</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6517770000000001</v>
+        <v>0.644177</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.536601</v>
+        <v>0.636294</v>
       </c>
       <c r="C32" t="n">
-        <v>1.11393</v>
+        <v>0.965184</v>
       </c>
       <c r="D32" t="n">
-        <v>0.668551</v>
+        <v>0.685221</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.54072</v>
+        <v>0.689381</v>
       </c>
       <c r="C33" t="n">
-        <v>1.13588</v>
+        <v>0.976328</v>
       </c>
       <c r="D33" t="n">
-        <v>0.67104</v>
+        <v>0.675272</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.540502</v>
+        <v>0.666404</v>
       </c>
       <c r="C34" t="n">
-        <v>1.13676</v>
+        <v>0.980535</v>
       </c>
       <c r="D34" t="n">
-        <v>0.690617</v>
+        <v>0.689061</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.54447</v>
+        <v>0.668563</v>
       </c>
       <c r="C35" t="n">
-        <v>1.1487</v>
+        <v>1.11217</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7106789999999999</v>
+        <v>0.822063</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.553437</v>
+        <v>0.680823</v>
       </c>
       <c r="C36" t="n">
-        <v>1.16367</v>
+        <v>1.11417</v>
       </c>
       <c r="D36" t="n">
-        <v>0.698124</v>
+        <v>0.850972</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.557317</v>
+        <v>0.687302</v>
       </c>
       <c r="C37" t="n">
-        <v>1.15634</v>
+        <v>1.0802</v>
       </c>
       <c r="D37" t="n">
-        <v>0.709952</v>
+        <v>0.862724</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.562433</v>
+        <v>0.737619</v>
       </c>
       <c r="C38" t="n">
-        <v>1.2215</v>
+        <v>1.14687</v>
       </c>
       <c r="D38" t="n">
-        <v>0.720264</v>
+        <v>0.8769</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.553136</v>
+        <v>0.7490790000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>1.19283</v>
+        <v>1.21424</v>
       </c>
       <c r="D39" t="n">
-        <v>0.719554</v>
+        <v>0.932284</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.563141</v>
+        <v>0.752615</v>
       </c>
       <c r="C40" t="n">
-        <v>1.19648</v>
+        <v>1.23032</v>
       </c>
       <c r="D40" t="n">
-        <v>0.738545</v>
+        <v>0.927503</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.601567</v>
+        <v>0.90296</v>
       </c>
       <c r="C41" t="n">
-        <v>1.23978</v>
+        <v>1.27904</v>
       </c>
       <c r="D41" t="n">
-        <v>0.74466</v>
+        <v>0.951155</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.606138</v>
+        <v>0.9185950000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>1.21884</v>
+        <v>1.31054</v>
       </c>
       <c r="D42" t="n">
-        <v>0.729183</v>
+        <v>0.949699</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.59376</v>
+        <v>0.923421</v>
       </c>
       <c r="C43" t="n">
-        <v>1.3246</v>
+        <v>1.34071</v>
       </c>
       <c r="D43" t="n">
-        <v>0.781288</v>
+        <v>1.04559</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.644321</v>
+        <v>0.962113</v>
       </c>
       <c r="C44" t="n">
-        <v>1.31106</v>
+        <v>1.49219</v>
       </c>
       <c r="D44" t="n">
-        <v>0.790336</v>
+        <v>1.0573</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.62708</v>
+        <v>0.990028</v>
       </c>
       <c r="C45" t="n">
-        <v>1.32791</v>
+        <v>1.46529</v>
       </c>
       <c r="D45" t="n">
-        <v>0.777292</v>
+        <v>1.05935</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6415459999999999</v>
+        <v>0.9963920000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>1.33753</v>
+        <v>1.48714</v>
       </c>
       <c r="D46" t="n">
-        <v>0.771061</v>
+        <v>1.13658</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.631331</v>
+        <v>1.05074</v>
       </c>
       <c r="C47" t="n">
-        <v>1.36076</v>
+        <v>1.56126</v>
       </c>
       <c r="D47" t="n">
-        <v>0.768966</v>
+        <v>1.18093</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.613239</v>
+        <v>1.07246</v>
       </c>
       <c r="C48" t="n">
-        <v>1.37105</v>
+        <v>1.65459</v>
       </c>
       <c r="D48" t="n">
-        <v>0.797808</v>
+        <v>1.15258</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.621292</v>
+        <v>1.07711</v>
       </c>
       <c r="C49" t="n">
-        <v>1.41034</v>
+        <v>1.60881</v>
       </c>
       <c r="D49" t="n">
-        <v>0.771737</v>
+        <v>1.26163</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.636504</v>
+        <v>1.1354</v>
       </c>
       <c r="C50" t="n">
-        <v>1.58879</v>
+        <v>1.99023</v>
       </c>
       <c r="D50" t="n">
-        <v>0.827935</v>
+        <v>1.41543</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.638725</v>
+        <v>1.16653</v>
       </c>
       <c r="C51" t="n">
-        <v>1.44015</v>
+        <v>1.9968</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8314550000000001</v>
+        <v>1.433</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.630244</v>
+        <v>1.17519</v>
       </c>
       <c r="C52" t="n">
-        <v>1.48166</v>
+        <v>2.00755</v>
       </c>
       <c r="D52" t="n">
-        <v>0.821899</v>
+        <v>1.46853</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.681244</v>
+        <v>1.25408</v>
       </c>
       <c r="C53" t="n">
-        <v>1.52299</v>
+        <v>2.11481</v>
       </c>
       <c r="D53" t="n">
-        <v>0.841406</v>
+        <v>1.54165</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.690809</v>
+        <v>1.27683</v>
       </c>
       <c r="C54" t="n">
-        <v>1.66752</v>
+        <v>2.19499</v>
       </c>
       <c r="D54" t="n">
-        <v>0.837452</v>
+        <v>1.70918</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.702828</v>
+        <v>1.3084</v>
       </c>
       <c r="C55" t="n">
-        <v>1.6277</v>
+        <v>2.36907</v>
       </c>
       <c r="D55" t="n">
-        <v>0.860894</v>
+        <v>1.71148</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.809927</v>
+        <v>1.47496</v>
       </c>
       <c r="C56" t="n">
-        <v>1.87056</v>
+        <v>2.28897</v>
       </c>
       <c r="D56" t="n">
-        <v>0.899489</v>
+        <v>1.69481</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.808772</v>
+        <v>1.46062</v>
       </c>
       <c r="C57" t="n">
-        <v>1.77146</v>
+        <v>2.37884</v>
       </c>
       <c r="D57" t="n">
-        <v>0.901569</v>
+        <v>1.84038</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8512690000000001</v>
+        <v>1.60154</v>
       </c>
       <c r="C58" t="n">
-        <v>1.69147</v>
+        <v>2.69468</v>
       </c>
       <c r="D58" t="n">
-        <v>0.92593</v>
+        <v>1.89534</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.845731</v>
+        <v>1.6076</v>
       </c>
       <c r="C59" t="n">
-        <v>2.24159</v>
+        <v>2.87127</v>
       </c>
       <c r="D59" t="n">
-        <v>1.06108</v>
+        <v>1.97435</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.945237</v>
+        <v>1.68994</v>
       </c>
       <c r="C60" t="n">
-        <v>2.19317</v>
+        <v>2.76366</v>
       </c>
       <c r="D60" t="n">
-        <v>0.98038</v>
+        <v>1.96468</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.987825</v>
+        <v>1.69379</v>
       </c>
       <c r="C61" t="n">
-        <v>2.26024</v>
+        <v>2.84789</v>
       </c>
       <c r="D61" t="n">
-        <v>1.03318</v>
+        <v>2.04797</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.89719</v>
+        <v>1.68513</v>
       </c>
       <c r="C62" t="n">
-        <v>2.10668</v>
+        <v>2.81298</v>
       </c>
       <c r="D62" t="n">
-        <v>1.07282</v>
+        <v>2.19794</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.994304</v>
+        <v>1.73169</v>
       </c>
       <c r="C63" t="n">
-        <v>2.40263</v>
+        <v>2.68413</v>
       </c>
       <c r="D63" t="n">
-        <v>1.13455</v>
+        <v>2.12568</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.03905</v>
+        <v>1.75998</v>
       </c>
       <c r="C64" t="n">
-        <v>2.61359</v>
+        <v>2.90254</v>
       </c>
       <c r="D64" t="n">
-        <v>1.27596</v>
+        <v>2.21863</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.05309</v>
+        <v>1.77112</v>
       </c>
       <c r="C65" t="n">
-        <v>2.61387</v>
+        <v>2.84777</v>
       </c>
       <c r="D65" t="n">
-        <v>1.35453</v>
+        <v>2.38493</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.10977</v>
+        <v>1.81817</v>
       </c>
       <c r="C66" t="n">
-        <v>2.66254</v>
+        <v>2.9572</v>
       </c>
       <c r="D66" t="n">
-        <v>1.34302</v>
+        <v>2.50146</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.08728</v>
+        <v>1.87414</v>
       </c>
       <c r="C67" t="n">
-        <v>2.94736</v>
+        <v>3.05323</v>
       </c>
       <c r="D67" t="n">
-        <v>1.6576</v>
+        <v>2.4529</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.26116</v>
+        <v>1.89195</v>
       </c>
       <c r="C68" t="n">
-        <v>2.79822</v>
+        <v>2.98638</v>
       </c>
       <c r="D68" t="n">
-        <v>1.49882</v>
+        <v>2.52878</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.23516</v>
+        <v>1.95434</v>
       </c>
       <c r="C69" t="n">
-        <v>3.08213</v>
+        <v>3.10416</v>
       </c>
       <c r="D69" t="n">
-        <v>1.64444</v>
+        <v>2.63768</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.32406</v>
+        <v>2.03073</v>
       </c>
       <c r="C70" t="n">
-        <v>2.84769</v>
+        <v>3.16907</v>
       </c>
       <c r="D70" t="n">
-        <v>1.49493</v>
+        <v>2.61984</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.22093</v>
+        <v>2.07241</v>
       </c>
       <c r="C71" t="n">
-        <v>2.98936</v>
+        <v>3.15273</v>
       </c>
       <c r="D71" t="n">
-        <v>1.58158</v>
+        <v>2.84814</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.40413</v>
+        <v>2.08785</v>
       </c>
       <c r="C72" t="n">
-        <v>3.02553</v>
+        <v>3.24756</v>
       </c>
       <c r="D72" t="n">
-        <v>1.5622</v>
+        <v>2.79361</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.27583</v>
+        <v>2.15068</v>
       </c>
       <c r="C73" t="n">
-        <v>3.03259</v>
+        <v>3.32063</v>
       </c>
       <c r="D73" t="n">
-        <v>1.60873</v>
+        <v>2.89515</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.40242</v>
+        <v>2.11899</v>
       </c>
       <c r="C74" t="n">
-        <v>3.32427</v>
+        <v>3.32931</v>
       </c>
       <c r="D74" t="n">
-        <v>1.81512</v>
+        <v>2.9079</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.39839</v>
+        <v>2.17237</v>
       </c>
       <c r="C75" t="n">
-        <v>3.24172</v>
+        <v>3.40299</v>
       </c>
       <c r="D75" t="n">
-        <v>2.05424</v>
+        <v>2.98493</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.57727</v>
+        <v>2.19223</v>
       </c>
       <c r="C76" t="n">
-        <v>3.39597</v>
+        <v>3.34673</v>
       </c>
       <c r="D76" t="n">
-        <v>2.06525</v>
+        <v>2.95485</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.58912</v>
+        <v>2.25249</v>
       </c>
       <c r="C77" t="n">
-        <v>3.52818</v>
+        <v>3.46864</v>
       </c>
       <c r="D77" t="n">
-        <v>2.22849</v>
+        <v>3.18991</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.64648</v>
+        <v>2.34619</v>
       </c>
       <c r="C78" t="n">
-        <v>3.7104</v>
+        <v>3.72248</v>
       </c>
       <c r="D78" t="n">
-        <v>2.19541</v>
+        <v>3.18632</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55619</v>
+        <v>2.34047</v>
       </c>
       <c r="C79" t="n">
-        <v>3.61392</v>
+        <v>3.8911</v>
       </c>
       <c r="D79" t="n">
-        <v>2.41694</v>
+        <v>3.46419</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.66933</v>
+        <v>2.44639</v>
       </c>
       <c r="C80" t="n">
-        <v>3.71962</v>
+        <v>3.87661</v>
       </c>
       <c r="D80" t="n">
-        <v>2.2519</v>
+        <v>3.32794</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.74352</v>
+        <v>2.33043</v>
       </c>
       <c r="C81" t="n">
-        <v>3.82355</v>
+        <v>3.81421</v>
       </c>
       <c r="D81" t="n">
-        <v>2.38207</v>
+        <v>3.48916</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.7386</v>
+        <v>2.39896</v>
       </c>
       <c r="C82" t="n">
-        <v>3.77815</v>
+        <v>3.82332</v>
       </c>
       <c r="D82" t="n">
-        <v>2.60142</v>
+        <v>3.37188</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.81288</v>
+        <v>2.40739</v>
       </c>
       <c r="C83" t="n">
-        <v>4.23509</v>
+        <v>3.90669</v>
       </c>
       <c r="D83" t="n">
-        <v>2.86526</v>
+        <v>3.64716</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.97024</v>
+        <v>2.50844</v>
       </c>
       <c r="C84" t="n">
-        <v>4.10895</v>
+        <v>4.01706</v>
       </c>
       <c r="D84" t="n">
-        <v>2.75421</v>
+        <v>3.53158</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.16113</v>
+        <v>2.58449</v>
       </c>
       <c r="C85" t="n">
-        <v>4.24689</v>
+        <v>4.10046</v>
       </c>
       <c r="D85" t="n">
-        <v>2.89807</v>
+        <v>3.60742</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.19274</v>
+        <v>2.60507</v>
       </c>
       <c r="C86" t="n">
-        <v>4.46806</v>
+        <v>4.02908</v>
       </c>
       <c r="D86" t="n">
-        <v>3.00939</v>
+        <v>3.66102</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.14819</v>
+        <v>2.67255</v>
       </c>
       <c r="C87" t="n">
-        <v>4.07031</v>
+        <v>4.15413</v>
       </c>
       <c r="D87" t="n">
-        <v>3.10765</v>
+        <v>3.6548</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.24039</v>
+        <v>2.65098</v>
       </c>
       <c r="C88" t="n">
-        <v>4.37812</v>
+        <v>4.01946</v>
       </c>
       <c r="D88" t="n">
-        <v>3.25252</v>
+        <v>3.72564</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.30919</v>
+        <v>2.66495</v>
       </c>
       <c r="C89" t="n">
-        <v>4.46901</v>
+        <v>4.13993</v>
       </c>
       <c r="D89" t="n">
-        <v>3.31508</v>
+        <v>3.85336</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.38728</v>
+        <v>2.73983</v>
       </c>
       <c r="C90" t="n">
-        <v>4.45758</v>
+        <v>4.2064</v>
       </c>
       <c r="D90" t="n">
-        <v>3.39562</v>
+        <v>3.83119</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.45708</v>
+        <v>2.75315</v>
       </c>
       <c r="C91" t="n">
-        <v>4.65483</v>
+        <v>4.21804</v>
       </c>
       <c r="D91" t="n">
-        <v>3.48773</v>
+        <v>3.88522</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.51873</v>
+        <v>2.79355</v>
       </c>
       <c r="C92" t="n">
-        <v>4.67016</v>
+        <v>4.40053</v>
       </c>
       <c r="D92" t="n">
-        <v>3.541</v>
+        <v>4.0369</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.49129</v>
+        <v>2.79781</v>
       </c>
       <c r="C93" t="n">
-        <v>4.75045</v>
+        <v>4.44506</v>
       </c>
       <c r="D93" t="n">
-        <v>3.50741</v>
+        <v>4.03992</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.47259</v>
+        <v>2.80668</v>
       </c>
       <c r="C94" t="n">
-        <v>4.68752</v>
+        <v>4.49949</v>
       </c>
       <c r="D94" t="n">
-        <v>3.59449</v>
+        <v>4.07882</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.49386</v>
+        <v>2.91657</v>
       </c>
       <c r="C95" t="n">
-        <v>4.65932</v>
+        <v>4.54892</v>
       </c>
       <c r="D95" t="n">
-        <v>3.64727</v>
+        <v>4.19881</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.62742</v>
+        <v>2.88083</v>
       </c>
       <c r="C96" t="n">
-        <v>4.86494</v>
+        <v>4.51943</v>
       </c>
       <c r="D96" t="n">
-        <v>3.73188</v>
+        <v>4.09054</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.62946</v>
+        <v>2.91554</v>
       </c>
       <c r="C97" t="n">
-        <v>4.84353</v>
+        <v>4.54197</v>
       </c>
       <c r="D97" t="n">
-        <v>3.84767</v>
+        <v>4.1884</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.83595</v>
+        <v>3.0872</v>
       </c>
       <c r="C98" t="n">
-        <v>4.98986</v>
+        <v>4.57939</v>
       </c>
       <c r="D98" t="n">
-        <v>3.92603</v>
+        <v>4.17562</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.87464</v>
+        <v>3.06819</v>
       </c>
       <c r="C99" t="n">
-        <v>4.94356</v>
+        <v>4.70129</v>
       </c>
       <c r="D99" t="n">
-        <v>3.94506</v>
+        <v>4.21641</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.93842</v>
+        <v>3.08459</v>
       </c>
       <c r="C100" t="n">
-        <v>5.05847</v>
+        <v>4.75586</v>
       </c>
       <c r="D100" t="n">
-        <v>4.02735</v>
+        <v>4.30899</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.0059</v>
+        <v>3.1448</v>
       </c>
       <c r="C101" t="n">
-        <v>5.21224</v>
+        <v>4.60436</v>
       </c>
       <c r="D101" t="n">
-        <v>4.11439</v>
+        <v>4.30367</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.07146</v>
+        <v>3.14745</v>
       </c>
       <c r="C102" t="n">
-        <v>5.18538</v>
+        <v>4.7258</v>
       </c>
       <c r="D102" t="n">
-        <v>4.10938</v>
+        <v>4.3396</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.0178</v>
+        <v>3.18512</v>
       </c>
       <c r="C103" t="n">
-        <v>5.26838</v>
+        <v>4.77185</v>
       </c>
       <c r="D103" t="n">
-        <v>4.20162</v>
+        <v>4.3422</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.12445</v>
+        <v>3.15656</v>
       </c>
       <c r="C104" t="n">
-        <v>5.31198</v>
+        <v>4.91858</v>
       </c>
       <c r="D104" t="n">
-        <v>4.22622</v>
+        <v>4.39995</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.16523</v>
+        <v>3.1743</v>
       </c>
       <c r="C105" t="n">
-        <v>5.4541</v>
+        <v>4.8441</v>
       </c>
       <c r="D105" t="n">
-        <v>4.33021</v>
+        <v>4.38779</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.26511</v>
+        <v>3.14763</v>
       </c>
       <c r="C106" t="n">
-        <v>5.44468</v>
+        <v>4.86236</v>
       </c>
       <c r="D106" t="n">
-        <v>4.32115</v>
+        <v>4.45643</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.29391</v>
+        <v>3.19035</v>
       </c>
       <c r="C107" t="n">
-        <v>5.72784</v>
+        <v>5.13698</v>
       </c>
       <c r="D107" t="n">
-        <v>4.53414</v>
+        <v>4.59952</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.28846</v>
+        <v>3.21931</v>
       </c>
       <c r="C108" t="n">
-        <v>5.61176</v>
+        <v>5.15694</v>
       </c>
       <c r="D108" t="n">
-        <v>4.46381</v>
+        <v>4.58181</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.39396</v>
+        <v>3.26536</v>
       </c>
       <c r="C109" t="n">
-        <v>5.80944</v>
+        <v>5.14939</v>
       </c>
       <c r="D109" t="n">
-        <v>4.5635</v>
+        <v>4.66822</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.34747</v>
+        <v>3.31712</v>
       </c>
       <c r="C110" t="n">
-        <v>5.65056</v>
+        <v>5.15615</v>
       </c>
       <c r="D110" t="n">
-        <v>4.53689</v>
+        <v>4.69713</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.4274</v>
+        <v>3.33977</v>
       </c>
       <c r="C111" t="n">
-        <v>5.75833</v>
+        <v>5.24474</v>
       </c>
       <c r="D111" t="n">
-        <v>4.55459</v>
+        <v>4.74686</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.57926</v>
+        <v>3.49763</v>
       </c>
       <c r="C112" t="n">
-        <v>5.69155</v>
+        <v>5.24329</v>
       </c>
       <c r="D112" t="n">
-        <v>4.57009</v>
+        <v>4.74465</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.63374</v>
+        <v>3.57982</v>
       </c>
       <c r="C113" t="n">
-        <v>5.87407</v>
+        <v>5.30629</v>
       </c>
       <c r="D113" t="n">
-        <v>4.7238</v>
+        <v>4.79095</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.68331</v>
+        <v>3.61678</v>
       </c>
       <c r="C114" t="n">
-        <v>5.9775</v>
+        <v>5.39328</v>
       </c>
       <c r="D114" t="n">
-        <v>4.72366</v>
+        <v>4.8831</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.70188</v>
+        <v>3.65629</v>
       </c>
       <c r="C115" t="n">
-        <v>5.89984</v>
+        <v>5.43573</v>
       </c>
       <c r="D115" t="n">
-        <v>4.73206</v>
+        <v>4.88545</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.69892</v>
+        <v>3.672</v>
       </c>
       <c r="C116" t="n">
-        <v>6.13499</v>
+        <v>5.47682</v>
       </c>
       <c r="D116" t="n">
-        <v>4.83041</v>
+        <v>5.01242</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.81975</v>
+        <v>3.665</v>
       </c>
       <c r="C117" t="n">
-        <v>6.01249</v>
+        <v>5.59026</v>
       </c>
       <c r="D117" t="n">
-        <v>4.82174</v>
+        <v>5.08802</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.88294</v>
+        <v>3.68302</v>
       </c>
       <c r="C118" t="n">
-        <v>6.15468</v>
+        <v>5.65859</v>
       </c>
       <c r="D118" t="n">
-        <v>5.05976</v>
+        <v>5.14723</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.85921</v>
+        <v>3.81451</v>
       </c>
       <c r="C119" t="n">
-        <v>6.23384</v>
+        <v>5.73982</v>
       </c>
       <c r="D119" t="n">
-        <v>4.99602</v>
+        <v>5.19632</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.362038</v>
+        <v>0.407914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.83556</v>
+        <v>0.7988960000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5214220000000001</v>
+        <v>0.508311</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.407874</v>
+        <v>0.427041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.847428</v>
+        <v>0.7775919999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.527802</v>
+        <v>0.508915</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.41065</v>
+        <v>0.413783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.844324</v>
+        <v>0.7647969999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.52527</v>
+        <v>0.520791</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.411341</v>
+        <v>0.411983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.84834</v>
+        <v>0.783281</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5333869999999999</v>
+        <v>0.532493</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.409248</v>
+        <v>0.428985</v>
       </c>
       <c r="C6" t="n">
-        <v>0.850757</v>
+        <v>0.776062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530631</v>
+        <v>0.524097</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.406542</v>
+        <v>0.416137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.853456</v>
+        <v>0.777993</v>
       </c>
       <c r="D7" t="n">
-        <v>0.535155</v>
+        <v>0.528169</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.409142</v>
+        <v>0.42158</v>
       </c>
       <c r="C8" t="n">
-        <v>0.867537</v>
+        <v>0.791345</v>
       </c>
       <c r="D8" t="n">
-        <v>0.537152</v>
+        <v>0.531694</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.409344</v>
+        <v>0.426692</v>
       </c>
       <c r="C9" t="n">
-        <v>0.882962</v>
+        <v>0.827526</v>
       </c>
       <c r="D9" t="n">
-        <v>0.540636</v>
+        <v>0.553899</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.408546</v>
+        <v>0.42081</v>
       </c>
       <c r="C10" t="n">
-        <v>0.888744</v>
+        <v>0.822175</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5412130000000001</v>
+        <v>0.5451319999999999</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.408277</v>
+        <v>0.426023</v>
       </c>
       <c r="C11" t="n">
-        <v>0.881612</v>
+        <v>0.801601</v>
       </c>
       <c r="D11" t="n">
-        <v>0.537835</v>
+        <v>0.553639</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.408298</v>
+        <v>0.4311</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8663380000000001</v>
+        <v>0.804665</v>
       </c>
       <c r="D12" t="n">
-        <v>0.54372</v>
+        <v>0.55597</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.410596</v>
+        <v>0.424927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.902639</v>
+        <v>0.807141</v>
       </c>
       <c r="D13" t="n">
-        <v>0.530429</v>
+        <v>0.564913</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.383252</v>
+        <v>0.428398</v>
       </c>
       <c r="C14" t="n">
-        <v>0.876936</v>
+        <v>0.830259</v>
       </c>
       <c r="D14" t="n">
-        <v>0.545866</v>
+        <v>0.558837</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.408953</v>
+        <v>0.423786</v>
       </c>
       <c r="C15" t="n">
-        <v>0.905237</v>
+        <v>0.822488</v>
       </c>
       <c r="D15" t="n">
-        <v>0.516176</v>
+        <v>0.560473</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.401817</v>
+        <v>0.42843</v>
       </c>
       <c r="C16" t="n">
-        <v>0.920385</v>
+        <v>0.820848</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5294990000000001</v>
+        <v>0.583172</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.431085</v>
+        <v>0.454545</v>
       </c>
       <c r="C17" t="n">
-        <v>0.93153</v>
+        <v>0.851801</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5375450000000001</v>
+        <v>0.589202</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.428205</v>
+        <v>0.469414</v>
       </c>
       <c r="C18" t="n">
-        <v>0.977501</v>
+        <v>0.847556</v>
       </c>
       <c r="D18" t="n">
-        <v>0.560862</v>
+        <v>0.578195</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.440251</v>
+        <v>0.470732</v>
       </c>
       <c r="C19" t="n">
-        <v>0.968817</v>
+        <v>0.874903</v>
       </c>
       <c r="D19" t="n">
-        <v>0.537463</v>
+        <v>0.590489</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.447722</v>
+        <v>0.472499</v>
       </c>
       <c r="C20" t="n">
-        <v>0.97346</v>
+        <v>0.895609</v>
       </c>
       <c r="D20" t="n">
-        <v>0.560175</v>
+        <v>0.5971610000000001</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.43585</v>
+        <v>0.47101</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9734390000000001</v>
+        <v>0.86813</v>
       </c>
       <c r="D21" t="n">
-        <v>0.550441</v>
+        <v>0.595766</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.450067</v>
+        <v>0.462483</v>
       </c>
       <c r="C22" t="n">
-        <v>1.01717</v>
+        <v>0.89277</v>
       </c>
       <c r="D22" t="n">
-        <v>0.577917</v>
+        <v>0.618606</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.442727</v>
+        <v>0.521486</v>
       </c>
       <c r="C23" t="n">
-        <v>1.03903</v>
+        <v>0.993833</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5748220000000001</v>
+        <v>0.643784</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.440118</v>
+        <v>0.483198</v>
       </c>
       <c r="C24" t="n">
-        <v>1.05</v>
+        <v>0.915728</v>
       </c>
       <c r="D24" t="n">
-        <v>0.571001</v>
+        <v>0.6365690000000001</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.45175</v>
+        <v>0.522651</v>
       </c>
       <c r="C25" t="n">
-        <v>1.03325</v>
+        <v>0.9713000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.598599</v>
+        <v>0.634607</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.448126</v>
+        <v>0.496289</v>
       </c>
       <c r="C26" t="n">
-        <v>1.03921</v>
+        <v>0.887032</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5987130000000001</v>
+        <v>0.639467</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.443457</v>
+        <v>0.5015540000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>1.03602</v>
+        <v>0.909234</v>
       </c>
       <c r="D27" t="n">
-        <v>0.622514</v>
+        <v>0.66313</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.451205</v>
+        <v>0.490974</v>
       </c>
       <c r="C28" t="n">
-        <v>0.998131</v>
+        <v>0.914806</v>
       </c>
       <c r="D28" t="n">
-        <v>0.636088</v>
+        <v>0.645972</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.474016</v>
+        <v>0.502939</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0518</v>
+        <v>0.92093</v>
       </c>
       <c r="D29" t="n">
-        <v>0.635949</v>
+        <v>0.693197</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.477759</v>
+        <v>0.499626</v>
       </c>
       <c r="C30" t="n">
-        <v>1.04724</v>
+        <v>0.933788</v>
       </c>
       <c r="D30" t="n">
-        <v>0.632015</v>
+        <v>0.70292</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.465518</v>
+        <v>0.508474</v>
       </c>
       <c r="C31" t="n">
-        <v>1.07901</v>
+        <v>0.930272</v>
       </c>
       <c r="D31" t="n">
-        <v>0.647209</v>
+        <v>0.684439</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.501346</v>
+        <v>0.537929</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0691</v>
+        <v>0.938347</v>
       </c>
       <c r="D32" t="n">
-        <v>0.653375</v>
+        <v>0.666784</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.518386</v>
+        <v>0.549222</v>
       </c>
       <c r="C33" t="n">
-        <v>1.10336</v>
+        <v>0.979027</v>
       </c>
       <c r="D33" t="n">
-        <v>0.673657</v>
+        <v>0.703002</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.506808</v>
+        <v>0.568334</v>
       </c>
       <c r="C34" t="n">
-        <v>1.11287</v>
+        <v>1.00566</v>
       </c>
       <c r="D34" t="n">
-        <v>0.663462</v>
+        <v>0.700529</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.518935</v>
+        <v>0.56309</v>
       </c>
       <c r="C35" t="n">
-        <v>1.15247</v>
+        <v>1.0135</v>
       </c>
       <c r="D35" t="n">
-        <v>0.683186</v>
+        <v>0.709172</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.514003</v>
+        <v>0.565089</v>
       </c>
       <c r="C36" t="n">
-        <v>1.15578</v>
+        <v>1.10975</v>
       </c>
       <c r="D36" t="n">
-        <v>0.680113</v>
+        <v>0.7350640000000001</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.514866</v>
+        <v>0.576141</v>
       </c>
       <c r="C37" t="n">
-        <v>1.16995</v>
+        <v>1.06498</v>
       </c>
       <c r="D37" t="n">
-        <v>0.681037</v>
+        <v>0.765216</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.519064</v>
+        <v>0.580797</v>
       </c>
       <c r="C38" t="n">
-        <v>1.18813</v>
+        <v>1.08527</v>
       </c>
       <c r="D38" t="n">
-        <v>0.685468</v>
+        <v>0.772909</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.524998</v>
+        <v>0.63934</v>
       </c>
       <c r="C39" t="n">
-        <v>1.23135</v>
+        <v>1.14202</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7243270000000001</v>
+        <v>0.798383</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.529162</v>
+        <v>0.624409</v>
       </c>
       <c r="C40" t="n">
-        <v>1.20245</v>
+        <v>1.11773</v>
       </c>
       <c r="D40" t="n">
-        <v>0.721962</v>
+        <v>0.839288</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5273369999999999</v>
+        <v>0.627839</v>
       </c>
       <c r="C41" t="n">
-        <v>1.23623</v>
+        <v>1.21754</v>
       </c>
       <c r="D41" t="n">
-        <v>0.741402</v>
+        <v>0.8911480000000001</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.532866</v>
+        <v>0.628787</v>
       </c>
       <c r="C42" t="n">
-        <v>1.32471</v>
+        <v>1.20815</v>
       </c>
       <c r="D42" t="n">
-        <v>0.797008</v>
+        <v>0.8853259999999999</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.565268</v>
+        <v>0.654057</v>
       </c>
       <c r="C43" t="n">
-        <v>1.32889</v>
+        <v>1.20174</v>
       </c>
       <c r="D43" t="n">
-        <v>0.770698</v>
+        <v>0.905961</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.538295</v>
+        <v>0.665237</v>
       </c>
       <c r="C44" t="n">
-        <v>1.29755</v>
+        <v>1.30386</v>
       </c>
       <c r="D44" t="n">
-        <v>0.783952</v>
+        <v>0.928765</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.54603</v>
+        <v>0.6775910000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>1.29056</v>
+        <v>1.35403</v>
       </c>
       <c r="D45" t="n">
-        <v>0.765513</v>
+        <v>0.981569</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.562259</v>
+        <v>0.779185</v>
       </c>
       <c r="C46" t="n">
-        <v>1.30967</v>
+        <v>1.33801</v>
       </c>
       <c r="D46" t="n">
-        <v>0.792855</v>
+        <v>1.01971</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.586296</v>
+        <v>0.8257640000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>1.40173</v>
+        <v>1.4416</v>
       </c>
       <c r="D47" t="n">
-        <v>0.787443</v>
+        <v>1.03302</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.604556</v>
+        <v>0.8315399999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>1.59679</v>
+        <v>1.47586</v>
       </c>
       <c r="D48" t="n">
-        <v>0.854748</v>
+        <v>1.07043</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.619912</v>
+        <v>0.881393</v>
       </c>
       <c r="C49" t="n">
-        <v>1.42039</v>
+        <v>1.58643</v>
       </c>
       <c r="D49" t="n">
-        <v>0.785699</v>
+        <v>1.09211</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.60103</v>
+        <v>0.869545</v>
       </c>
       <c r="C50" t="n">
-        <v>1.51299</v>
+        <v>1.656</v>
       </c>
       <c r="D50" t="n">
-        <v>0.817412</v>
+        <v>1.16629</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.595925</v>
+        <v>0.947658</v>
       </c>
       <c r="C51" t="n">
-        <v>1.55485</v>
+        <v>1.78315</v>
       </c>
       <c r="D51" t="n">
-        <v>0.807714</v>
+        <v>1.22554</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.594758</v>
+        <v>0.99375</v>
       </c>
       <c r="C52" t="n">
-        <v>1.59203</v>
+        <v>1.82317</v>
       </c>
       <c r="D52" t="n">
-        <v>0.851715</v>
+        <v>1.27384</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.593563</v>
+        <v>0.993202</v>
       </c>
       <c r="C53" t="n">
-        <v>1.48519</v>
+        <v>1.81958</v>
       </c>
       <c r="D53" t="n">
-        <v>0.811007</v>
+        <v>1.29249</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.613598</v>
+        <v>0.99214</v>
       </c>
       <c r="C54" t="n">
-        <v>1.48605</v>
+        <v>2.14641</v>
       </c>
       <c r="D54" t="n">
-        <v>0.873927</v>
+        <v>1.40785</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.640306</v>
+        <v>1.06703</v>
       </c>
       <c r="C55" t="n">
-        <v>1.66248</v>
+        <v>2.15972</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8715580000000001</v>
+        <v>1.5214</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.614254</v>
+        <v>1.11959</v>
       </c>
       <c r="C56" t="n">
-        <v>1.7258</v>
+        <v>2.16054</v>
       </c>
       <c r="D56" t="n">
-        <v>0.866224</v>
+        <v>1.55877</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.63755</v>
+        <v>1.12094</v>
       </c>
       <c r="C57" t="n">
-        <v>1.75237</v>
+        <v>2.28863</v>
       </c>
       <c r="D57" t="n">
-        <v>0.840658</v>
+        <v>1.68468</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.649721</v>
+        <v>1.21097</v>
       </c>
       <c r="C58" t="n">
-        <v>1.7174</v>
+        <v>2.47435</v>
       </c>
       <c r="D58" t="n">
-        <v>0.88348</v>
+        <v>1.73405</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.626146</v>
+        <v>1.27414</v>
       </c>
       <c r="C59" t="n">
-        <v>1.75261</v>
+        <v>2.56963</v>
       </c>
       <c r="D59" t="n">
-        <v>0.918232</v>
+        <v>1.75619</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.745109</v>
+        <v>1.44285</v>
       </c>
       <c r="C60" t="n">
-        <v>2.15733</v>
+        <v>2.50312</v>
       </c>
       <c r="D60" t="n">
-        <v>0.975251</v>
+        <v>1.78682</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.71909</v>
+        <v>1.43939</v>
       </c>
       <c r="C61" t="n">
-        <v>1.8843</v>
+        <v>2.42858</v>
       </c>
       <c r="D61" t="n">
-        <v>0.957754</v>
+        <v>1.90248</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.770174</v>
+        <v>1.58152</v>
       </c>
       <c r="C62" t="n">
-        <v>2.09503</v>
+        <v>2.63146</v>
       </c>
       <c r="D62" t="n">
-        <v>1.01792</v>
+        <v>2.02008</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.902863</v>
+        <v>1.51279</v>
       </c>
       <c r="C63" t="n">
-        <v>2.28301</v>
+        <v>2.88194</v>
       </c>
       <c r="D63" t="n">
-        <v>1.08504</v>
+        <v>2.06355</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.87636</v>
+        <v>1.54732</v>
       </c>
       <c r="C64" t="n">
-        <v>2.12024</v>
+        <v>2.95749</v>
       </c>
       <c r="D64" t="n">
-        <v>1.03498</v>
+        <v>2.18672</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.87408</v>
+        <v>1.59923</v>
       </c>
       <c r="C65" t="n">
-        <v>2.19463</v>
+        <v>3.00091</v>
       </c>
       <c r="D65" t="n">
-        <v>1.13797</v>
+        <v>2.25842</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.898648</v>
+        <v>1.59409</v>
       </c>
       <c r="C66" t="n">
-        <v>2.41101</v>
+        <v>2.97874</v>
       </c>
       <c r="D66" t="n">
-        <v>1.18736</v>
+        <v>2.19385</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8633729999999999</v>
+        <v>1.68652</v>
       </c>
       <c r="C67" t="n">
-        <v>2.38214</v>
+        <v>3.03085</v>
       </c>
       <c r="D67" t="n">
-        <v>1.20152</v>
+        <v>2.28832</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.989171</v>
+        <v>1.71023</v>
       </c>
       <c r="C68" t="n">
-        <v>2.49977</v>
+        <v>2.93797</v>
       </c>
       <c r="D68" t="n">
-        <v>1.35329</v>
+        <v>2.45964</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.08008</v>
+        <v>1.66815</v>
       </c>
       <c r="C69" t="n">
-        <v>2.73398</v>
+        <v>2.91325</v>
       </c>
       <c r="D69" t="n">
-        <v>1.46395</v>
+        <v>2.49611</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.06367</v>
+        <v>1.74145</v>
       </c>
       <c r="C70" t="n">
-        <v>2.79161</v>
+        <v>3.1495</v>
       </c>
       <c r="D70" t="n">
-        <v>1.41272</v>
+        <v>2.65004</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.08678</v>
+        <v>1.77797</v>
       </c>
       <c r="C71" t="n">
-        <v>2.85465</v>
+        <v>3.17856</v>
       </c>
       <c r="D71" t="n">
-        <v>1.60372</v>
+        <v>2.61558</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.14586</v>
+        <v>1.75556</v>
       </c>
       <c r="C72" t="n">
-        <v>2.89352</v>
+        <v>3.13623</v>
       </c>
       <c r="D72" t="n">
-        <v>1.55469</v>
+        <v>2.77259</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.19049</v>
+        <v>1.82173</v>
       </c>
       <c r="C73" t="n">
-        <v>3.19593</v>
+        <v>3.28108</v>
       </c>
       <c r="D73" t="n">
-        <v>1.78846</v>
+        <v>2.79775</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.34585</v>
+        <v>2.0496</v>
       </c>
       <c r="C74" t="n">
-        <v>3.19938</v>
+        <v>3.1888</v>
       </c>
       <c r="D74" t="n">
-        <v>1.85903</v>
+        <v>2.78817</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.37454</v>
+        <v>2.05962</v>
       </c>
       <c r="C75" t="n">
-        <v>3.43946</v>
+        <v>3.47078</v>
       </c>
       <c r="D75" t="n">
-        <v>1.9904</v>
+        <v>2.84565</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.46005</v>
+        <v>2.12396</v>
       </c>
       <c r="C76" t="n">
-        <v>3.70507</v>
+        <v>3.5039</v>
       </c>
       <c r="D76" t="n">
-        <v>2.14868</v>
+        <v>2.91414</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.5173</v>
+        <v>2.22585</v>
       </c>
       <c r="C77" t="n">
-        <v>3.66337</v>
+        <v>3.55441</v>
       </c>
       <c r="D77" t="n">
-        <v>2.05235</v>
+        <v>2.96324</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.59009</v>
+        <v>2.19866</v>
       </c>
       <c r="C78" t="n">
-        <v>3.79576</v>
+        <v>3.64889</v>
       </c>
       <c r="D78" t="n">
-        <v>2.32543</v>
+        <v>3.04981</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.63217</v>
+        <v>2.18721</v>
       </c>
       <c r="C79" t="n">
-        <v>3.92662</v>
+        <v>3.72602</v>
       </c>
       <c r="D79" t="n">
-        <v>2.40091</v>
+        <v>3.06128</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.72352</v>
+        <v>2.22859</v>
       </c>
       <c r="C80" t="n">
-        <v>3.84381</v>
+        <v>3.98282</v>
       </c>
       <c r="D80" t="n">
-        <v>2.20606</v>
+        <v>3.10818</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.60428</v>
+        <v>2.22393</v>
       </c>
       <c r="C81" t="n">
-        <v>3.80309</v>
+        <v>3.90934</v>
       </c>
       <c r="D81" t="n">
-        <v>2.37947</v>
+        <v>3.20603</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.71713</v>
+        <v>2.23947</v>
       </c>
       <c r="C82" t="n">
-        <v>4.29552</v>
+        <v>4.06638</v>
       </c>
       <c r="D82" t="n">
-        <v>2.64974</v>
+        <v>3.32002</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.79426</v>
+        <v>2.31135</v>
       </c>
       <c r="C83" t="n">
-        <v>4.15647</v>
+        <v>4.01747</v>
       </c>
       <c r="D83" t="n">
-        <v>2.58764</v>
+        <v>3.43155</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.78478</v>
+        <v>2.31788</v>
       </c>
       <c r="C84" t="n">
-        <v>4.17441</v>
+        <v>3.90816</v>
       </c>
       <c r="D84" t="n">
-        <v>2.78311</v>
+        <v>3.45423</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.82492</v>
+        <v>2.38403</v>
       </c>
       <c r="C85" t="n">
-        <v>4.12539</v>
+        <v>4.06748</v>
       </c>
       <c r="D85" t="n">
-        <v>2.68069</v>
+        <v>3.56699</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.83075</v>
+        <v>2.35427</v>
       </c>
       <c r="C86" t="n">
-        <v>4.09084</v>
+        <v>4.00882</v>
       </c>
       <c r="D86" t="n">
-        <v>2.68083</v>
+        <v>3.54693</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.90777</v>
+        <v>2.35433</v>
       </c>
       <c r="C87" t="n">
-        <v>4.31406</v>
+        <v>4.29005</v>
       </c>
       <c r="D87" t="n">
-        <v>2.90708</v>
+        <v>3.68919</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.06162</v>
+        <v>2.48385</v>
       </c>
       <c r="C88" t="n">
-        <v>4.61105</v>
+        <v>4.29672</v>
       </c>
       <c r="D88" t="n">
-        <v>3.19403</v>
+        <v>3.56143</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.23422</v>
+        <v>2.5932</v>
       </c>
       <c r="C89" t="n">
-        <v>4.49917</v>
+        <v>4.41829</v>
       </c>
       <c r="D89" t="n">
-        <v>3.05912</v>
+        <v>3.77026</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.13943</v>
+        <v>2.7092</v>
       </c>
       <c r="C90" t="n">
-        <v>4.45263</v>
+        <v>4.44468</v>
       </c>
       <c r="D90" t="n">
-        <v>3.05852</v>
+        <v>3.74712</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.21252</v>
+        <v>2.64227</v>
       </c>
       <c r="C91" t="n">
-        <v>4.75278</v>
+        <v>4.50823</v>
       </c>
       <c r="D91" t="n">
-        <v>3.1817</v>
+        <v>3.86465</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.21308</v>
+        <v>2.66369</v>
       </c>
       <c r="C92" t="n">
-        <v>4.81661</v>
+        <v>4.63207</v>
       </c>
       <c r="D92" t="n">
-        <v>3.30255</v>
+        <v>3.93403</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.36703</v>
+        <v>2.72346</v>
       </c>
       <c r="C93" t="n">
-        <v>4.63784</v>
+        <v>4.65124</v>
       </c>
       <c r="D93" t="n">
-        <v>3.24916</v>
+        <v>3.92403</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.50264</v>
+        <v>2.73923</v>
       </c>
       <c r="C94" t="n">
-        <v>5.1197</v>
+        <v>4.8006</v>
       </c>
       <c r="D94" t="n">
-        <v>3.39074</v>
+        <v>3.89278</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.53069</v>
+        <v>2.71546</v>
       </c>
       <c r="C95" t="n">
-        <v>5.45418</v>
+        <v>4.77426</v>
       </c>
       <c r="D95" t="n">
-        <v>3.52955</v>
+        <v>3.9734</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.66296</v>
+        <v>2.75808</v>
       </c>
       <c r="C96" t="n">
-        <v>5.2829</v>
+        <v>4.94998</v>
       </c>
       <c r="D96" t="n">
-        <v>3.65236</v>
+        <v>3.92596</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.6439</v>
+        <v>2.76368</v>
       </c>
       <c r="C97" t="n">
-        <v>4.94569</v>
+        <v>4.58193</v>
       </c>
       <c r="D97" t="n">
-        <v>3.77415</v>
+        <v>4.11798</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.65313</v>
+        <v>2.81689</v>
       </c>
       <c r="C98" t="n">
-        <v>5.14357</v>
+        <v>4.61259</v>
       </c>
       <c r="D98" t="n">
-        <v>3.92171</v>
+        <v>4.13862</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.85524</v>
+        <v>2.86164</v>
       </c>
       <c r="C99" t="n">
-        <v>5.26924</v>
+        <v>4.71615</v>
       </c>
       <c r="D99" t="n">
-        <v>4.06516</v>
+        <v>4.14388</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.81051</v>
+        <v>2.80901</v>
       </c>
       <c r="C100" t="n">
-        <v>5.45552</v>
+        <v>4.7331</v>
       </c>
       <c r="D100" t="n">
-        <v>4.07724</v>
+        <v>4.13879</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.79124</v>
+        <v>2.86937</v>
       </c>
       <c r="C101" t="n">
-        <v>5.34899</v>
+        <v>4.82366</v>
       </c>
       <c r="D101" t="n">
-        <v>4.04143</v>
+        <v>4.27685</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.87592</v>
+        <v>2.88573</v>
       </c>
       <c r="C102" t="n">
-        <v>5.33606</v>
+        <v>4.86523</v>
       </c>
       <c r="D102" t="n">
-        <v>4.03038</v>
+        <v>4.21554</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.99019</v>
+        <v>2.97544</v>
       </c>
       <c r="C103" t="n">
-        <v>5.50194</v>
+        <v>4.95553</v>
       </c>
       <c r="D103" t="n">
-        <v>4.07124</v>
+        <v>4.28869</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.98924</v>
+        <v>3.02901</v>
       </c>
       <c r="C104" t="n">
-        <v>5.50453</v>
+        <v>5.13358</v>
       </c>
       <c r="D104" t="n">
-        <v>4.13544</v>
+        <v>4.26509</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.06997</v>
+        <v>3.10651</v>
       </c>
       <c r="C105" t="n">
-        <v>5.60613</v>
+        <v>5.13947</v>
       </c>
       <c r="D105" t="n">
-        <v>4.20538</v>
+        <v>4.3283</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.1293</v>
+        <v>3.06822</v>
       </c>
       <c r="C106" t="n">
-        <v>5.62323</v>
+        <v>5.26403</v>
       </c>
       <c r="D106" t="n">
-        <v>4.14819</v>
+        <v>4.37066</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.17203</v>
+        <v>3.10098</v>
       </c>
       <c r="C107" t="n">
-        <v>5.83812</v>
+        <v>5.2579</v>
       </c>
       <c r="D107" t="n">
-        <v>4.28154</v>
+        <v>4.38751</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.21003</v>
+        <v>3.13649</v>
       </c>
       <c r="C108" t="n">
-        <v>5.83096</v>
+        <v>5.45337</v>
       </c>
       <c r="D108" t="n">
-        <v>4.20595</v>
+        <v>4.41489</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.17064</v>
+        <v>3.16757</v>
       </c>
       <c r="C109" t="n">
-        <v>5.97093</v>
+        <v>5.53822</v>
       </c>
       <c r="D109" t="n">
-        <v>4.27932</v>
+        <v>4.43193</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.24651</v>
+        <v>3.16308</v>
       </c>
       <c r="C110" t="n">
-        <v>5.991</v>
+        <v>5.58937</v>
       </c>
       <c r="D110" t="n">
-        <v>4.34045</v>
+        <v>4.58182</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.28615</v>
+        <v>3.17466</v>
       </c>
       <c r="C111" t="n">
-        <v>5.74206</v>
+        <v>5.25275</v>
       </c>
       <c r="D111" t="n">
-        <v>4.5316</v>
+        <v>4.67396</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.32456</v>
+        <v>3.259</v>
       </c>
       <c r="C112" t="n">
-        <v>5.8356</v>
+        <v>5.24468</v>
       </c>
       <c r="D112" t="n">
-        <v>4.55013</v>
+        <v>4.73009</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.37557</v>
+        <v>3.20486</v>
       </c>
       <c r="C113" t="n">
-        <v>5.92944</v>
+        <v>5.3319</v>
       </c>
       <c r="D113" t="n">
-        <v>4.58986</v>
+        <v>4.74058</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.391</v>
+        <v>3.29511</v>
       </c>
       <c r="C114" t="n">
-        <v>6.04538</v>
+        <v>5.42241</v>
       </c>
       <c r="D114" t="n">
-        <v>4.68092</v>
+        <v>4.67474</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.41883</v>
+        <v>3.25775</v>
       </c>
       <c r="C115" t="n">
-        <v>6.05181</v>
+        <v>5.52925</v>
       </c>
       <c r="D115" t="n">
-        <v>4.63234</v>
+        <v>4.84847</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.61342</v>
+        <v>3.29797</v>
       </c>
       <c r="C116" t="n">
-        <v>6.16826</v>
+        <v>5.60247</v>
       </c>
       <c r="D116" t="n">
-        <v>4.70649</v>
+        <v>4.8337</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.68077</v>
+        <v>3.38517</v>
       </c>
       <c r="C117" t="n">
-        <v>6.357</v>
+        <v>5.6947</v>
       </c>
       <c r="D117" t="n">
-        <v>4.73422</v>
+        <v>4.79669</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.73532</v>
+        <v>3.48085</v>
       </c>
       <c r="C118" t="n">
-        <v>6.59935</v>
+        <v>5.77165</v>
       </c>
       <c r="D118" t="n">
-        <v>4.88568</v>
+        <v>4.93582</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.80169</v>
+        <v>3.5149</v>
       </c>
       <c r="C119" t="n">
-        <v>6.66529</v>
+        <v>5.99787</v>
       </c>
       <c r="D119" t="n">
-        <v>4.87804</v>
+        <v>4.92553</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.461118</v>
+        <v>0.46053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.588147</v>
+        <v>0.6503</v>
       </c>
       <c r="D2" t="n">
-        <v>0.375609</v>
+        <v>0.414033</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.399385</v>
+        <v>0.442778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584562</v>
+        <v>0.63518</v>
       </c>
       <c r="D3" t="n">
-        <v>0.371371</v>
+        <v>0.386932</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.396401</v>
+        <v>0.441633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.583766</v>
+        <v>0.634665</v>
       </c>
       <c r="D4" t="n">
-        <v>0.383409</v>
+        <v>0.388981</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.400673</v>
+        <v>0.426705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.607753</v>
+        <v>0.630482</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37829</v>
+        <v>0.394633</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.400889</v>
+        <v>0.427084</v>
       </c>
       <c r="C6" t="n">
-        <v>0.582203</v>
+        <v>0.624679</v>
       </c>
       <c r="D6" t="n">
-        <v>0.386352</v>
+        <v>0.396821</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.401697</v>
+        <v>0.439475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.593178</v>
+        <v>0.649898</v>
       </c>
       <c r="D7" t="n">
-        <v>0.378419</v>
+        <v>0.393059</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.437833</v>
+        <v>0.437768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.60376</v>
+        <v>0.651157</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378801</v>
+        <v>0.400844</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.411623</v>
+        <v>0.439661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.597118</v>
+        <v>0.650154</v>
       </c>
       <c r="D9" t="n">
-        <v>0.388358</v>
+        <v>0.395999</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.418644</v>
+        <v>0.449154</v>
       </c>
       <c r="C10" t="n">
-        <v>0.604994</v>
+        <v>0.646103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.397044</v>
+        <v>0.403916</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.428069</v>
+        <v>0.446262</v>
       </c>
       <c r="C11" t="n">
-        <v>0.603751</v>
+        <v>0.658436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.389097</v>
+        <v>0.402787</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.434446</v>
+        <v>0.456585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.645712</v>
+        <v>0.655098</v>
       </c>
       <c r="D12" t="n">
-        <v>0.389868</v>
+        <v>0.411433</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.413519</v>
+        <v>0.426477</v>
       </c>
       <c r="C13" t="n">
-        <v>0.607538</v>
+        <v>0.658597</v>
       </c>
       <c r="D13" t="n">
-        <v>0.393846</v>
+        <v>0.406733</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.420645</v>
+        <v>0.431224</v>
       </c>
       <c r="C14" t="n">
-        <v>0.607989</v>
+        <v>0.6675680000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.406709</v>
+        <v>0.420143</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.408306</v>
+        <v>0.444008</v>
       </c>
       <c r="C15" t="n">
-        <v>0.604025</v>
+        <v>0.646107</v>
       </c>
       <c r="D15" t="n">
-        <v>0.397806</v>
+        <v>0.421195</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.420617</v>
+        <v>0.451662</v>
       </c>
       <c r="C16" t="n">
-        <v>0.620201</v>
+        <v>0.661341</v>
       </c>
       <c r="D16" t="n">
-        <v>0.403928</v>
+        <v>0.41312</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.423605</v>
+        <v>0.460301</v>
       </c>
       <c r="C17" t="n">
-        <v>0.609587</v>
+        <v>0.6732089999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.408189</v>
+        <v>0.429084</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.434507</v>
+        <v>0.45735</v>
       </c>
       <c r="C18" t="n">
-        <v>0.609055</v>
+        <v>0.659188</v>
       </c>
       <c r="D18" t="n">
-        <v>0.423249</v>
+        <v>0.429435</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.428084</v>
+        <v>0.457413</v>
       </c>
       <c r="C19" t="n">
-        <v>0.613445</v>
+        <v>0.671559</v>
       </c>
       <c r="D19" t="n">
-        <v>0.416578</v>
+        <v>0.437959</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.436974</v>
+        <v>0.464264</v>
       </c>
       <c r="C20" t="n">
-        <v>0.621418</v>
+        <v>0.665396</v>
       </c>
       <c r="D20" t="n">
-        <v>0.419044</v>
+        <v>0.44333</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4392</v>
+        <v>0.468675</v>
       </c>
       <c r="C21" t="n">
-        <v>0.638313</v>
+        <v>0.686856</v>
       </c>
       <c r="D21" t="n">
-        <v>0.410858</v>
+        <v>0.423895</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.452427</v>
+        <v>0.480687</v>
       </c>
       <c r="C22" t="n">
-        <v>0.673948</v>
+        <v>0.695341</v>
       </c>
       <c r="D22" t="n">
-        <v>0.414099</v>
+        <v>0.427738</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.468402</v>
+        <v>0.47466</v>
       </c>
       <c r="C23" t="n">
-        <v>0.663533</v>
+        <v>0.698805</v>
       </c>
       <c r="D23" t="n">
-        <v>0.42121</v>
+        <v>0.438776</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.458277</v>
+        <v>0.496383</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6500939999999999</v>
+        <v>0.698636</v>
       </c>
       <c r="D24" t="n">
-        <v>0.426565</v>
+        <v>0.44324</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.473722</v>
+        <v>0.500314</v>
       </c>
       <c r="C25" t="n">
-        <v>0.64672</v>
+        <v>0.700708</v>
       </c>
       <c r="D25" t="n">
-        <v>0.440611</v>
+        <v>0.4545</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459586</v>
+        <v>0.520135</v>
       </c>
       <c r="C26" t="n">
-        <v>0.648922</v>
+        <v>0.70533</v>
       </c>
       <c r="D26" t="n">
-        <v>0.429578</v>
+        <v>0.468408</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.549056</v>
+        <v>0.577978</v>
       </c>
       <c r="C27" t="n">
-        <v>0.671634</v>
+        <v>0.707496</v>
       </c>
       <c r="D27" t="n">
-        <v>0.440167</v>
+        <v>0.463167</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.52563</v>
+        <v>0.595052</v>
       </c>
       <c r="C28" t="n">
-        <v>0.673301</v>
+        <v>0.731568</v>
       </c>
       <c r="D28" t="n">
-        <v>0.447725</v>
+        <v>0.456182</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.54443</v>
+        <v>0.5949950000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.675304</v>
+        <v>0.733872</v>
       </c>
       <c r="D29" t="n">
-        <v>0.486771</v>
+        <v>0.471438</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.561999</v>
+        <v>0.609735</v>
       </c>
       <c r="C30" t="n">
-        <v>0.672936</v>
+        <v>0.730476</v>
       </c>
       <c r="D30" t="n">
-        <v>0.473206</v>
+        <v>0.489075</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.612156</v>
+        <v>0.62097</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6716529999999999</v>
+        <v>0.739432</v>
       </c>
       <c r="D31" t="n">
-        <v>0.47012</v>
+        <v>0.510188</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.601041</v>
+        <v>0.638182</v>
       </c>
       <c r="C32" t="n">
-        <v>0.692818</v>
+        <v>0.764199</v>
       </c>
       <c r="D32" t="n">
-        <v>0.487047</v>
+        <v>0.517839</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.599869</v>
+        <v>0.654356</v>
       </c>
       <c r="C33" t="n">
-        <v>0.728658</v>
+        <v>0.784964</v>
       </c>
       <c r="D33" t="n">
-        <v>0.504365</v>
+        <v>0.510646</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.628846</v>
+        <v>0.663857</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7214390000000001</v>
+        <v>0.782897</v>
       </c>
       <c r="D34" t="n">
-        <v>0.522232</v>
+        <v>0.534053</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.631489</v>
+        <v>0.686809</v>
       </c>
       <c r="C35" t="n">
-        <v>0.772848</v>
+        <v>0.90907</v>
       </c>
       <c r="D35" t="n">
-        <v>0.593619</v>
+        <v>0.6407119999999999</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.652297</v>
+        <v>0.730168</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7815029999999999</v>
+        <v>0.910403</v>
       </c>
       <c r="D36" t="n">
-        <v>0.624926</v>
+        <v>0.6695950000000001</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6903589999999999</v>
+        <v>0.727204</v>
       </c>
       <c r="C37" t="n">
-        <v>0.796551</v>
+        <v>0.901553</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6479470000000001</v>
+        <v>0.6695489999999999</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.720081</v>
+        <v>0.737167</v>
       </c>
       <c r="C38" t="n">
-        <v>0.861739</v>
+        <v>0.920901</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6584</v>
+        <v>0.708308</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.704873</v>
+        <v>0.7669010000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.909559</v>
+        <v>0.953145</v>
       </c>
       <c r="D39" t="n">
-        <v>0.685111</v>
+        <v>0.727935</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.727281</v>
+        <v>0.781492</v>
       </c>
       <c r="C40" t="n">
-        <v>0.849896</v>
+        <v>0.9625089999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.693634</v>
+        <v>0.744079</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.852588</v>
+        <v>0.941457</v>
       </c>
       <c r="C41" t="n">
-        <v>0.889672</v>
+        <v>0.992753</v>
       </c>
       <c r="D41" t="n">
-        <v>0.703948</v>
+        <v>0.763082</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.904146</v>
+        <v>0.9567059999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.884861</v>
+        <v>1.03753</v>
       </c>
       <c r="D42" t="n">
-        <v>0.724287</v>
+        <v>0.787818</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.907481</v>
+        <v>1.02534</v>
       </c>
       <c r="C43" t="n">
-        <v>0.979622</v>
+        <v>1.02855</v>
       </c>
       <c r="D43" t="n">
-        <v>0.760112</v>
+        <v>0.815246</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.956672</v>
+        <v>1.03133</v>
       </c>
       <c r="C44" t="n">
-        <v>0.920189</v>
+        <v>1.09515</v>
       </c>
       <c r="D44" t="n">
-        <v>0.832768</v>
+        <v>0.846485</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.975452</v>
+        <v>1.05661</v>
       </c>
       <c r="C45" t="n">
-        <v>0.937837</v>
+        <v>1.13071</v>
       </c>
       <c r="D45" t="n">
-        <v>0.787774</v>
+        <v>0.875111</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>1.025</v>
+        <v>1.10957</v>
       </c>
       <c r="C46" t="n">
-        <v>1.00811</v>
+        <v>1.14114</v>
       </c>
       <c r="D46" t="n">
-        <v>0.830086</v>
+        <v>0.877376</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>1.06498</v>
+        <v>1.11603</v>
       </c>
       <c r="C47" t="n">
-        <v>1.06224</v>
+        <v>1.1814</v>
       </c>
       <c r="D47" t="n">
-        <v>0.856266</v>
+        <v>0.893713</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07213</v>
+        <v>1.13438</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0978</v>
+        <v>1.19676</v>
       </c>
       <c r="D48" t="n">
-        <v>0.870152</v>
+        <v>0.949364</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.09988</v>
+        <v>1.17945</v>
       </c>
       <c r="C49" t="n">
-        <v>1.15588</v>
+        <v>1.24875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.917526</v>
+        <v>0.955573</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.16459</v>
+        <v>1.22128</v>
       </c>
       <c r="C50" t="n">
-        <v>1.38884</v>
+        <v>1.48777</v>
       </c>
       <c r="D50" t="n">
-        <v>1.16704</v>
+        <v>1.21151</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.18996</v>
+        <v>1.25412</v>
       </c>
       <c r="C51" t="n">
-        <v>1.38295</v>
+        <v>1.55665</v>
       </c>
       <c r="D51" t="n">
-        <v>1.16801</v>
+        <v>1.24597</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.22702</v>
+        <v>1.29265</v>
       </c>
       <c r="C52" t="n">
-        <v>1.42681</v>
+        <v>1.57014</v>
       </c>
       <c r="D52" t="n">
-        <v>1.24383</v>
+        <v>1.27114</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.29502</v>
+        <v>1.35383</v>
       </c>
       <c r="C53" t="n">
-        <v>1.43336</v>
+        <v>1.54769</v>
       </c>
       <c r="D53" t="n">
-        <v>1.26633</v>
+        <v>1.27312</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.25235</v>
+        <v>1.33433</v>
       </c>
       <c r="C54" t="n">
-        <v>1.46393</v>
+        <v>1.52184</v>
       </c>
       <c r="D54" t="n">
-        <v>1.28107</v>
+        <v>1.29852</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.40828</v>
+        <v>1.3859</v>
       </c>
       <c r="C55" t="n">
-        <v>1.49295</v>
+        <v>1.55997</v>
       </c>
       <c r="D55" t="n">
-        <v>1.38632</v>
+        <v>1.36201</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.54084</v>
+        <v>1.59373</v>
       </c>
       <c r="C56" t="n">
-        <v>1.5684</v>
+        <v>1.57055</v>
       </c>
       <c r="D56" t="n">
-        <v>1.38267</v>
+        <v>1.3803</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.53189</v>
+        <v>1.65157</v>
       </c>
       <c r="C57" t="n">
-        <v>1.5074</v>
+        <v>1.59992</v>
       </c>
       <c r="D57" t="n">
-        <v>1.37607</v>
+        <v>1.4206</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.60649</v>
+        <v>1.71023</v>
       </c>
       <c r="C58" t="n">
-        <v>1.54989</v>
+        <v>1.64714</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43961</v>
+        <v>1.46192</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.60368</v>
+        <v>1.70204</v>
       </c>
       <c r="C59" t="n">
-        <v>1.57671</v>
+        <v>1.69201</v>
       </c>
       <c r="D59" t="n">
-        <v>1.52176</v>
+        <v>1.50814</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.62502</v>
+        <v>1.73301</v>
       </c>
       <c r="C60" t="n">
-        <v>1.71994</v>
+        <v>1.74004</v>
       </c>
       <c r="D60" t="n">
-        <v>1.52436</v>
+        <v>1.52702</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.7532</v>
+        <v>1.77059</v>
       </c>
       <c r="C61" t="n">
-        <v>1.74442</v>
+        <v>1.81764</v>
       </c>
       <c r="D61" t="n">
-        <v>1.56231</v>
+        <v>1.65326</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.69621</v>
+        <v>1.85151</v>
       </c>
       <c r="C62" t="n">
-        <v>1.75062</v>
+        <v>1.71462</v>
       </c>
       <c r="D62" t="n">
-        <v>1.57959</v>
+        <v>1.61475</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.69563</v>
+        <v>1.77035</v>
       </c>
       <c r="C63" t="n">
-        <v>1.68498</v>
+        <v>1.71726</v>
       </c>
       <c r="D63" t="n">
-        <v>1.60243</v>
+        <v>1.69547</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.70569</v>
+        <v>1.91614</v>
       </c>
       <c r="C64" t="n">
-        <v>1.9044</v>
+        <v>1.87076</v>
       </c>
       <c r="D64" t="n">
-        <v>1.94576</v>
+        <v>1.91329</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.75263</v>
+        <v>1.83956</v>
       </c>
       <c r="C65" t="n">
-        <v>1.87151</v>
+        <v>1.92798</v>
       </c>
       <c r="D65" t="n">
-        <v>1.95002</v>
+        <v>1.94685</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.78449</v>
+        <v>1.86258</v>
       </c>
       <c r="C66" t="n">
-        <v>1.86918</v>
+        <v>1.93719</v>
       </c>
       <c r="D66" t="n">
-        <v>1.95002</v>
+        <v>1.96769</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.92352</v>
+        <v>1.90547</v>
       </c>
       <c r="C67" t="n">
-        <v>1.98738</v>
+        <v>1.99151</v>
       </c>
       <c r="D67" t="n">
-        <v>2.11037</v>
+        <v>2.0363</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.95898</v>
+        <v>1.94799</v>
       </c>
       <c r="C68" t="n">
-        <v>1.94435</v>
+        <v>1.95284</v>
       </c>
       <c r="D68" t="n">
-        <v>2.04573</v>
+        <v>2.05952</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.9694</v>
+        <v>2.00331</v>
       </c>
       <c r="C69" t="n">
-        <v>1.99728</v>
+        <v>2.08446</v>
       </c>
       <c r="D69" t="n">
-        <v>2.20085</v>
+        <v>2.10531</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.06731</v>
+        <v>2.14628</v>
       </c>
       <c r="C70" t="n">
-        <v>1.98348</v>
+        <v>2.01193</v>
       </c>
       <c r="D70" t="n">
-        <v>2.24307</v>
+        <v>2.13543</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.09598</v>
+        <v>2.17923</v>
       </c>
       <c r="C71" t="n">
-        <v>2.0408</v>
+        <v>1.96664</v>
       </c>
       <c r="D71" t="n">
-        <v>2.12373</v>
+        <v>2.13062</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.07708</v>
+        <v>2.09745</v>
       </c>
       <c r="C72" t="n">
-        <v>2.13698</v>
+        <v>2.00551</v>
       </c>
       <c r="D72" t="n">
-        <v>2.30152</v>
+        <v>2.21724</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.1891</v>
+        <v>2.15515</v>
       </c>
       <c r="C73" t="n">
-        <v>2.15782</v>
+        <v>2.04804</v>
       </c>
       <c r="D73" t="n">
-        <v>2.25175</v>
+        <v>2.26596</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.09826</v>
+        <v>2.21688</v>
       </c>
       <c r="C74" t="n">
-        <v>2.05021</v>
+        <v>2.0669</v>
       </c>
       <c r="D74" t="n">
-        <v>2.26424</v>
+        <v>2.25872</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.04542</v>
+        <v>2.15382</v>
       </c>
       <c r="C75" t="n">
-        <v>2.10234</v>
+        <v>2.07742</v>
       </c>
       <c r="D75" t="n">
-        <v>2.32092</v>
+        <v>2.28789</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.17973</v>
+        <v>2.24782</v>
       </c>
       <c r="C76" t="n">
-        <v>2.1678</v>
+        <v>2.08122</v>
       </c>
       <c r="D76" t="n">
-        <v>2.48598</v>
+        <v>2.31919</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.23425</v>
+        <v>2.29176</v>
       </c>
       <c r="C77" t="n">
-        <v>2.16816</v>
+        <v>2.14928</v>
       </c>
       <c r="D77" t="n">
-        <v>2.35028</v>
+        <v>2.36209</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.23753</v>
+        <v>2.26696</v>
       </c>
       <c r="C78" t="n">
-        <v>2.29103</v>
+        <v>2.26368</v>
       </c>
       <c r="D78" t="n">
-        <v>2.63968</v>
+        <v>2.63684</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.17209</v>
+        <v>2.23456</v>
       </c>
       <c r="C79" t="n">
-        <v>2.37162</v>
+        <v>2.31063</v>
       </c>
       <c r="D79" t="n">
-        <v>2.6392</v>
+        <v>2.60073</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.24875</v>
+        <v>2.34559</v>
       </c>
       <c r="C80" t="n">
-        <v>2.38527</v>
+        <v>2.31653</v>
       </c>
       <c r="D80" t="n">
-        <v>2.68048</v>
+        <v>2.64696</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.19456</v>
+        <v>2.34493</v>
       </c>
       <c r="C81" t="n">
-        <v>2.27561</v>
+        <v>2.33134</v>
       </c>
       <c r="D81" t="n">
-        <v>2.68897</v>
+        <v>2.69942</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.22861</v>
+        <v>2.3968</v>
       </c>
       <c r="C82" t="n">
-        <v>2.30662</v>
+        <v>2.31838</v>
       </c>
       <c r="D82" t="n">
-        <v>2.64904</v>
+        <v>2.82015</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.25535</v>
+        <v>2.33557</v>
       </c>
       <c r="C83" t="n">
-        <v>2.31761</v>
+        <v>2.36151</v>
       </c>
       <c r="D83" t="n">
-        <v>2.77152</v>
+        <v>2.76331</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.33608</v>
+        <v>2.4681</v>
       </c>
       <c r="C84" t="n">
-        <v>2.34425</v>
+        <v>2.34696</v>
       </c>
       <c r="D84" t="n">
-        <v>2.72055</v>
+        <v>2.82126</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.33084</v>
+        <v>2.48877</v>
       </c>
       <c r="C85" t="n">
-        <v>2.38855</v>
+        <v>2.39496</v>
       </c>
       <c r="D85" t="n">
-        <v>2.75111</v>
+        <v>2.82358</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.40408</v>
+        <v>2.49064</v>
       </c>
       <c r="C86" t="n">
-        <v>2.35965</v>
+        <v>2.39869</v>
       </c>
       <c r="D86" t="n">
-        <v>2.78174</v>
+        <v>2.84006</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.38674</v>
+        <v>2.49134</v>
       </c>
       <c r="C87" t="n">
-        <v>2.37733</v>
+        <v>2.42423</v>
       </c>
       <c r="D87" t="n">
-        <v>2.81081</v>
+        <v>2.88749</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.351</v>
+        <v>2.57135</v>
       </c>
       <c r="C88" t="n">
-        <v>2.44386</v>
+        <v>2.43626</v>
       </c>
       <c r="D88" t="n">
-        <v>2.85474</v>
+        <v>2.86635</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.43653</v>
+        <v>2.56046</v>
       </c>
       <c r="C89" t="n">
-        <v>2.4232</v>
+        <v>2.47662</v>
       </c>
       <c r="D89" t="n">
-        <v>2.87249</v>
+        <v>2.89774</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.45522</v>
+        <v>2.57976</v>
       </c>
       <c r="C90" t="n">
-        <v>2.46545</v>
+        <v>2.4718</v>
       </c>
       <c r="D90" t="n">
-        <v>2.90929</v>
+        <v>2.93857</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.445</v>
+        <v>2.58031</v>
       </c>
       <c r="C91" t="n">
-        <v>2.48667</v>
+        <v>2.48051</v>
       </c>
       <c r="D91" t="n">
-        <v>2.94144</v>
+        <v>2.98178</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.45846</v>
+        <v>2.57196</v>
       </c>
       <c r="C92" t="n">
-        <v>2.7021</v>
+        <v>2.63905</v>
       </c>
       <c r="D92" t="n">
-        <v>3.06302</v>
+        <v>3.14526</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.42983</v>
+        <v>2.66291</v>
       </c>
       <c r="C93" t="n">
-        <v>2.69888</v>
+        <v>2.64432</v>
       </c>
       <c r="D93" t="n">
-        <v>3.17977</v>
+        <v>3.21814</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.50765</v>
+        <v>2.6239</v>
       </c>
       <c r="C94" t="n">
-        <v>2.77881</v>
+        <v>2.74779</v>
       </c>
       <c r="D94" t="n">
-        <v>3.15252</v>
+        <v>3.2063</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.50339</v>
+        <v>2.65235</v>
       </c>
       <c r="C95" t="n">
-        <v>2.7179</v>
+        <v>2.69909</v>
       </c>
       <c r="D95" t="n">
-        <v>3.2479</v>
+        <v>3.269</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.53852</v>
+        <v>2.65347</v>
       </c>
       <c r="C96" t="n">
-        <v>2.77448</v>
+        <v>2.75991</v>
       </c>
       <c r="D96" t="n">
-        <v>3.23348</v>
+        <v>3.394</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.72049</v>
+        <v>2.70915</v>
       </c>
       <c r="C97" t="n">
-        <v>2.73309</v>
+        <v>2.76308</v>
       </c>
       <c r="D97" t="n">
-        <v>3.26302</v>
+        <v>3.30577</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.76951</v>
+        <v>2.87688</v>
       </c>
       <c r="C98" t="n">
-        <v>2.81297</v>
+        <v>2.86274</v>
       </c>
       <c r="D98" t="n">
-        <v>3.23418</v>
+        <v>3.31236</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.73121</v>
+        <v>2.85676</v>
       </c>
       <c r="C99" t="n">
-        <v>2.77924</v>
+        <v>2.92875</v>
       </c>
       <c r="D99" t="n">
-        <v>3.24662</v>
+        <v>3.33045</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.79382</v>
+        <v>2.8779</v>
       </c>
       <c r="C100" t="n">
-        <v>2.87258</v>
+        <v>2.87133</v>
       </c>
       <c r="D100" t="n">
-        <v>3.26974</v>
+        <v>3.29059</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.74891</v>
+        <v>2.92841</v>
       </c>
       <c r="C101" t="n">
-        <v>2.87341</v>
+        <v>2.84492</v>
       </c>
       <c r="D101" t="n">
-        <v>3.34075</v>
+        <v>3.34227</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.88965</v>
+        <v>2.94447</v>
       </c>
       <c r="C102" t="n">
-        <v>2.85974</v>
+        <v>2.92687</v>
       </c>
       <c r="D102" t="n">
-        <v>3.31586</v>
+        <v>3.38212</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.78272</v>
+        <v>2.92572</v>
       </c>
       <c r="C103" t="n">
-        <v>2.89135</v>
+        <v>2.90909</v>
       </c>
       <c r="D103" t="n">
-        <v>3.34528</v>
+        <v>3.38716</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.74063</v>
+        <v>2.98402</v>
       </c>
       <c r="C104" t="n">
-        <v>2.9181</v>
+        <v>2.97433</v>
       </c>
       <c r="D104" t="n">
-        <v>3.36098</v>
+        <v>3.42572</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.76618</v>
+        <v>3.03221</v>
       </c>
       <c r="C105" t="n">
-        <v>2.89564</v>
+        <v>3.01721</v>
       </c>
       <c r="D105" t="n">
-        <v>3.32837</v>
+        <v>3.46208</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.81289</v>
+        <v>3.08618</v>
       </c>
       <c r="C106" t="n">
-        <v>3.012</v>
+        <v>2.93639</v>
       </c>
       <c r="D106" t="n">
-        <v>3.37418</v>
+        <v>3.40266</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.8324</v>
+        <v>3.08185</v>
       </c>
       <c r="C107" t="n">
-        <v>3.30638</v>
+        <v>3.29637</v>
       </c>
       <c r="D107" t="n">
-        <v>3.67398</v>
+        <v>3.80354</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.84368</v>
+        <v>3.1339</v>
       </c>
       <c r="C108" t="n">
-        <v>3.30946</v>
+        <v>3.37185</v>
       </c>
       <c r="D108" t="n">
-        <v>3.71179</v>
+        <v>3.8497</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.82274</v>
+        <v>3.14125</v>
       </c>
       <c r="C109" t="n">
-        <v>3.31129</v>
+        <v>3.38045</v>
       </c>
       <c r="D109" t="n">
-        <v>3.61623</v>
+        <v>3.86697</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.88558</v>
+        <v>3.19008</v>
       </c>
       <c r="C110" t="n">
-        <v>3.3531</v>
+        <v>3.38088</v>
       </c>
       <c r="D110" t="n">
-        <v>3.68586</v>
+        <v>3.88293</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.88984</v>
+        <v>3.22594</v>
       </c>
       <c r="C111" t="n">
-        <v>3.42114</v>
+        <v>3.42601</v>
       </c>
       <c r="D111" t="n">
-        <v>3.78424</v>
+        <v>3.88528</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.07952</v>
+        <v>3.40235</v>
       </c>
       <c r="C112" t="n">
-        <v>3.39354</v>
+        <v>3.4958</v>
       </c>
       <c r="D112" t="n">
-        <v>3.71094</v>
+        <v>3.97814</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.08649</v>
+        <v>3.47509</v>
       </c>
       <c r="C113" t="n">
-        <v>3.35556</v>
+        <v>3.49015</v>
       </c>
       <c r="D113" t="n">
-        <v>3.7514</v>
+        <v>4.02388</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.04801</v>
+        <v>3.48805</v>
       </c>
       <c r="C114" t="n">
-        <v>3.42203</v>
+        <v>3.47523</v>
       </c>
       <c r="D114" t="n">
-        <v>3.78018</v>
+        <v>4.06052</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.09379</v>
+        <v>3.51744</v>
       </c>
       <c r="C115" t="n">
-        <v>3.46947</v>
+        <v>3.54998</v>
       </c>
       <c r="D115" t="n">
-        <v>3.76822</v>
+        <v>4.05868</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.17818</v>
+        <v>3.5479</v>
       </c>
       <c r="C116" t="n">
-        <v>3.4416</v>
+        <v>3.60097</v>
       </c>
       <c r="D116" t="n">
-        <v>3.8487</v>
+        <v>4.15476</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.17953</v>
+        <v>3.46045</v>
       </c>
       <c r="C117" t="n">
-        <v>3.5691</v>
+        <v>3.59078</v>
       </c>
       <c r="D117" t="n">
-        <v>3.88828</v>
+        <v>4.10579</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.25139</v>
+        <v>3.57074</v>
       </c>
       <c r="C118" t="n">
-        <v>3.51899</v>
+        <v>3.68459</v>
       </c>
       <c r="D118" t="n">
-        <v>4.0146</v>
+        <v>4.21286</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.33581</v>
+        <v>3.70039</v>
       </c>
       <c r="C119" t="n">
-        <v>3.69652</v>
+        <v>3.75271</v>
       </c>
       <c r="D119" t="n">
-        <v>4.0078</v>
+        <v>4.25169</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.459082</v>
+        <v>0.5044729999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.802022</v>
+        <v>0.813904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.517849</v>
+        <v>0.530258</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.456978</v>
+        <v>0.47323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75017</v>
+        <v>0.8041509999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5184260000000001</v>
+        <v>0.537604</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.454832</v>
+        <v>0.458253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761825</v>
+        <v>0.796126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.539205</v>
+        <v>0.5311399999999999</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.446246</v>
+        <v>0.480753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7751710000000001</v>
+        <v>0.803607</v>
       </c>
       <c r="D5" t="n">
-        <v>0.555682</v>
+        <v>0.53501</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.449094</v>
+        <v>0.468031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.756092</v>
+        <v>0.811967</v>
       </c>
       <c r="D6" t="n">
-        <v>0.531546</v>
+        <v>0.533058</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439775</v>
+        <v>0.472675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.794667</v>
+        <v>0.816254</v>
       </c>
       <c r="D7" t="n">
-        <v>0.536059</v>
+        <v>0.557289</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.450892</v>
+        <v>0.46917</v>
       </c>
       <c r="C8" t="n">
-        <v>0.78096</v>
+        <v>0.830369</v>
       </c>
       <c r="D8" t="n">
-        <v>0.537611</v>
+        <v>0.555028</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.444233</v>
+        <v>0.474303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.792551</v>
+        <v>0.824475</v>
       </c>
       <c r="D9" t="n">
-        <v>0.546416</v>
+        <v>0.554357</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.482418</v>
+        <v>0.472761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.80874</v>
+        <v>0.839542</v>
       </c>
       <c r="D10" t="n">
-        <v>0.549491</v>
+        <v>0.589207</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.457106</v>
+        <v>0.481754</v>
       </c>
       <c r="C11" t="n">
-        <v>0.820927</v>
+        <v>0.8423310000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.559051</v>
+        <v>0.5665249999999999</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.45701</v>
+        <v>0.476279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.798769</v>
+        <v>0.8432809999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.552495</v>
+        <v>0.576067</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.465512</v>
+        <v>0.512506</v>
       </c>
       <c r="C13" t="n">
-        <v>0.808878</v>
+        <v>0.848653</v>
       </c>
       <c r="D13" t="n">
-        <v>0.569226</v>
+        <v>0.595964</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.470427</v>
+        <v>0.5001640000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.81012</v>
+        <v>0.847879</v>
       </c>
       <c r="D14" t="n">
-        <v>0.557983</v>
+        <v>0.573367</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.483259</v>
+        <v>0.495465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.808497</v>
+        <v>0.853857</v>
       </c>
       <c r="D15" t="n">
-        <v>0.574132</v>
+        <v>0.581249</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47617</v>
+        <v>0.511628</v>
       </c>
       <c r="C16" t="n">
-        <v>0.812001</v>
+        <v>0.840834</v>
       </c>
       <c r="D16" t="n">
-        <v>0.567648</v>
+        <v>0.586221</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.474618</v>
+        <v>0.501058</v>
       </c>
       <c r="C17" t="n">
-        <v>0.81531</v>
+        <v>0.858636</v>
       </c>
       <c r="D17" t="n">
-        <v>0.570085</v>
+        <v>0.582722</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.482357</v>
+        <v>0.506463</v>
       </c>
       <c r="C18" t="n">
-        <v>0.818953</v>
+        <v>0.909545</v>
       </c>
       <c r="D18" t="n">
-        <v>0.594178</v>
+        <v>0.684446</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.488332</v>
+        <v>0.602994</v>
       </c>
       <c r="C19" t="n">
-        <v>0.827277</v>
+        <v>1.11777</v>
       </c>
       <c r="D19" t="n">
-        <v>0.575434</v>
+        <v>0.66965</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.480123</v>
+        <v>0.573809</v>
       </c>
       <c r="C20" t="n">
-        <v>0.854522</v>
+        <v>0.897806</v>
       </c>
       <c r="D20" t="n">
-        <v>0.591444</v>
+        <v>0.607975</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.477792</v>
+        <v>0.543565</v>
       </c>
       <c r="C21" t="n">
-        <v>0.857773</v>
+        <v>0.943163</v>
       </c>
       <c r="D21" t="n">
-        <v>0.586184</v>
+        <v>0.62197</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.487769</v>
+        <v>0.529236</v>
       </c>
       <c r="C22" t="n">
-        <v>0.855557</v>
+        <v>0.975423</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5928369999999999</v>
+        <v>0.641916</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.492074</v>
+        <v>0.5476</v>
       </c>
       <c r="C23" t="n">
-        <v>0.869034</v>
+        <v>0.960523</v>
       </c>
       <c r="D23" t="n">
-        <v>0.60764</v>
+        <v>0.659201</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481024</v>
+        <v>0.522386</v>
       </c>
       <c r="C24" t="n">
-        <v>0.864849</v>
+        <v>0.929854</v>
       </c>
       <c r="D24" t="n">
-        <v>0.640979</v>
+        <v>0.6160949999999999</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.506528</v>
+        <v>0.525015</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8663459999999999</v>
+        <v>0.941791</v>
       </c>
       <c r="D25" t="n">
-        <v>0.600839</v>
+        <v>0.624512</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.506982</v>
+        <v>0.527731</v>
       </c>
       <c r="C26" t="n">
-        <v>0.863502</v>
+        <v>0.955028</v>
       </c>
       <c r="D26" t="n">
-        <v>0.604365</v>
+        <v>0.630008</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.57583</v>
+        <v>0.652524</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8761949999999999</v>
+        <v>0.958539</v>
       </c>
       <c r="D27" t="n">
-        <v>0.623825</v>
+        <v>0.62304</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.588239</v>
+        <v>0.6307739999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.889389</v>
+        <v>1.01135</v>
       </c>
       <c r="D28" t="n">
-        <v>0.615992</v>
+        <v>0.6337159999999999</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5941419999999999</v>
+        <v>0.6524529999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.897349</v>
+        <v>1.0242</v>
       </c>
       <c r="D29" t="n">
-        <v>0.631467</v>
+        <v>0.6551129999999999</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.597015</v>
+        <v>0.652931</v>
       </c>
       <c r="C30" t="n">
-        <v>0.958094</v>
+        <v>1.01539</v>
       </c>
       <c r="D30" t="n">
-        <v>0.672496</v>
+        <v>0.665677</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6329669999999999</v>
+        <v>0.698882</v>
       </c>
       <c r="C31" t="n">
-        <v>0.910328</v>
+        <v>1.06654</v>
       </c>
       <c r="D31" t="n">
-        <v>0.644177</v>
+        <v>0.722155</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.636294</v>
+        <v>0.669974</v>
       </c>
       <c r="C32" t="n">
-        <v>0.965184</v>
+        <v>1.15062</v>
       </c>
       <c r="D32" t="n">
-        <v>0.685221</v>
+        <v>0.723613</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.689381</v>
+        <v>0.723603</v>
       </c>
       <c r="C33" t="n">
-        <v>0.976328</v>
+        <v>1.12561</v>
       </c>
       <c r="D33" t="n">
-        <v>0.675272</v>
+        <v>0.739796</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.666404</v>
+        <v>0.738011</v>
       </c>
       <c r="C34" t="n">
-        <v>0.980535</v>
+        <v>1.17037</v>
       </c>
       <c r="D34" t="n">
-        <v>0.689061</v>
+        <v>0.7588510000000001</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.668563</v>
+        <v>0.779457</v>
       </c>
       <c r="C35" t="n">
-        <v>1.11217</v>
+        <v>1.41605</v>
       </c>
       <c r="D35" t="n">
-        <v>0.822063</v>
+        <v>0.923615</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.680823</v>
+        <v>0.809341</v>
       </c>
       <c r="C36" t="n">
-        <v>1.11417</v>
+        <v>1.32709</v>
       </c>
       <c r="D36" t="n">
-        <v>0.850972</v>
+        <v>0.884678</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.687302</v>
+        <v>0.816504</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0802</v>
+        <v>1.56288</v>
       </c>
       <c r="D37" t="n">
-        <v>0.862724</v>
+        <v>0.999656</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.737619</v>
+        <v>0.839226</v>
       </c>
       <c r="C38" t="n">
-        <v>1.14687</v>
+        <v>1.65351</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8769</v>
+        <v>0.950105</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7490790000000001</v>
+        <v>0.837928</v>
       </c>
       <c r="C39" t="n">
-        <v>1.21424</v>
+        <v>1.55211</v>
       </c>
       <c r="D39" t="n">
-        <v>0.932284</v>
+        <v>1.01638</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.752615</v>
+        <v>0.871735</v>
       </c>
       <c r="C40" t="n">
-        <v>1.23032</v>
+        <v>1.53073</v>
       </c>
       <c r="D40" t="n">
-        <v>0.927503</v>
+        <v>1.00844</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.90296</v>
+        <v>1.06832</v>
       </c>
       <c r="C41" t="n">
-        <v>1.27904</v>
+        <v>1.5796</v>
       </c>
       <c r="D41" t="n">
-        <v>0.951155</v>
+        <v>1.1277</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9185950000000001</v>
+        <v>1.11528</v>
       </c>
       <c r="C42" t="n">
-        <v>1.31054</v>
+        <v>1.87555</v>
       </c>
       <c r="D42" t="n">
-        <v>0.949699</v>
+        <v>1.20862</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.923421</v>
+        <v>1.17378</v>
       </c>
       <c r="C43" t="n">
-        <v>1.34071</v>
+        <v>1.99382</v>
       </c>
       <c r="D43" t="n">
-        <v>1.04559</v>
+        <v>1.16491</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.962113</v>
+        <v>1.22884</v>
       </c>
       <c r="C44" t="n">
-        <v>1.49219</v>
+        <v>2.10852</v>
       </c>
       <c r="D44" t="n">
-        <v>1.0573</v>
+        <v>1.23587</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.990028</v>
+        <v>1.21255</v>
       </c>
       <c r="C45" t="n">
-        <v>1.46529</v>
+        <v>2.19818</v>
       </c>
       <c r="D45" t="n">
-        <v>1.05935</v>
+        <v>1.20529</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9963920000000001</v>
+        <v>1.24732</v>
       </c>
       <c r="C46" t="n">
-        <v>1.48714</v>
+        <v>2.17015</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13658</v>
+        <v>1.32738</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.05074</v>
+        <v>1.31355</v>
       </c>
       <c r="C47" t="n">
-        <v>1.56126</v>
+        <v>2.25054</v>
       </c>
       <c r="D47" t="n">
-        <v>1.18093</v>
+        <v>1.41115</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07246</v>
+        <v>1.28696</v>
       </c>
       <c r="C48" t="n">
-        <v>1.65459</v>
+        <v>2.40578</v>
       </c>
       <c r="D48" t="n">
-        <v>1.15258</v>
+        <v>1.43307</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.07711</v>
+        <v>1.33437</v>
       </c>
       <c r="C49" t="n">
-        <v>1.60881</v>
+        <v>2.43307</v>
       </c>
       <c r="D49" t="n">
-        <v>1.26163</v>
+        <v>1.44065</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.1354</v>
+        <v>1.39989</v>
       </c>
       <c r="C50" t="n">
-        <v>1.99023</v>
+        <v>2.86971</v>
       </c>
       <c r="D50" t="n">
-        <v>1.41543</v>
+        <v>1.77397</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.16653</v>
+        <v>1.46344</v>
       </c>
       <c r="C51" t="n">
-        <v>1.9968</v>
+        <v>2.64278</v>
       </c>
       <c r="D51" t="n">
-        <v>1.433</v>
+        <v>1.7822</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.17519</v>
+        <v>1.56575</v>
       </c>
       <c r="C52" t="n">
-        <v>2.00755</v>
+        <v>2.9773</v>
       </c>
       <c r="D52" t="n">
-        <v>1.46853</v>
+        <v>1.84696</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.25408</v>
+        <v>1.52942</v>
       </c>
       <c r="C53" t="n">
-        <v>2.11481</v>
+        <v>2.90118</v>
       </c>
       <c r="D53" t="n">
-        <v>1.54165</v>
+        <v>1.89732</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.27683</v>
+        <v>1.56295</v>
       </c>
       <c r="C54" t="n">
-        <v>2.19499</v>
+        <v>3.06318</v>
       </c>
       <c r="D54" t="n">
-        <v>1.70918</v>
+        <v>2.01676</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.3084</v>
+        <v>1.67439</v>
       </c>
       <c r="C55" t="n">
-        <v>2.36907</v>
+        <v>3.13345</v>
       </c>
       <c r="D55" t="n">
-        <v>1.71148</v>
+        <v>2.102</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.47496</v>
+        <v>1.89159</v>
       </c>
       <c r="C56" t="n">
-        <v>2.28897</v>
+        <v>3.12901</v>
       </c>
       <c r="D56" t="n">
-        <v>1.69481</v>
+        <v>2.30172</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.46062</v>
+        <v>1.92824</v>
       </c>
       <c r="C57" t="n">
-        <v>2.37884</v>
+        <v>3.25716</v>
       </c>
       <c r="D57" t="n">
-        <v>1.84038</v>
+        <v>2.2685</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.60154</v>
+        <v>2.00714</v>
       </c>
       <c r="C58" t="n">
-        <v>2.69468</v>
+        <v>3.38398</v>
       </c>
       <c r="D58" t="n">
-        <v>1.89534</v>
+        <v>2.3032</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.6076</v>
+        <v>1.92911</v>
       </c>
       <c r="C59" t="n">
-        <v>2.87127</v>
+        <v>3.31247</v>
       </c>
       <c r="D59" t="n">
-        <v>1.97435</v>
+        <v>2.48399</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.68994</v>
+        <v>1.98598</v>
       </c>
       <c r="C60" t="n">
-        <v>2.76366</v>
+        <v>3.28656</v>
       </c>
       <c r="D60" t="n">
-        <v>1.96468</v>
+        <v>2.48253</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.69379</v>
+        <v>2.03671</v>
       </c>
       <c r="C61" t="n">
-        <v>2.84789</v>
+        <v>3.4572</v>
       </c>
       <c r="D61" t="n">
-        <v>2.04797</v>
+        <v>2.58241</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.68513</v>
+        <v>1.98928</v>
       </c>
       <c r="C62" t="n">
-        <v>2.81298</v>
+        <v>3.53002</v>
       </c>
       <c r="D62" t="n">
-        <v>2.19794</v>
+        <v>2.70146</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.73169</v>
+        <v>2.04444</v>
       </c>
       <c r="C63" t="n">
-        <v>2.68413</v>
+        <v>3.60742</v>
       </c>
       <c r="D63" t="n">
-        <v>2.12568</v>
+        <v>2.65599</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.75998</v>
+        <v>2.08584</v>
       </c>
       <c r="C64" t="n">
-        <v>2.90254</v>
+        <v>3.51809</v>
       </c>
       <c r="D64" t="n">
-        <v>2.21863</v>
+        <v>2.79947</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.77112</v>
+        <v>2.0654</v>
       </c>
       <c r="C65" t="n">
-        <v>2.84777</v>
+        <v>3.65889</v>
       </c>
       <c r="D65" t="n">
-        <v>2.38493</v>
+        <v>2.95534</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.81817</v>
+        <v>2.10457</v>
       </c>
       <c r="C66" t="n">
-        <v>2.9572</v>
+        <v>3.59449</v>
       </c>
       <c r="D66" t="n">
-        <v>2.50146</v>
+        <v>2.94159</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.87414</v>
+        <v>2.2192</v>
       </c>
       <c r="C67" t="n">
-        <v>3.05323</v>
+        <v>3.72771</v>
       </c>
       <c r="D67" t="n">
-        <v>2.4529</v>
+        <v>2.97695</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.89195</v>
+        <v>2.14645</v>
       </c>
       <c r="C68" t="n">
-        <v>2.98638</v>
+        <v>3.59286</v>
       </c>
       <c r="D68" t="n">
-        <v>2.52878</v>
+        <v>2.97142</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.95434</v>
+        <v>2.12324</v>
       </c>
       <c r="C69" t="n">
-        <v>3.10416</v>
+        <v>3.65903</v>
       </c>
       <c r="D69" t="n">
-        <v>2.63768</v>
+        <v>3.0663</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.03073</v>
+        <v>2.24129</v>
       </c>
       <c r="C70" t="n">
-        <v>3.16907</v>
+        <v>3.84521</v>
       </c>
       <c r="D70" t="n">
-        <v>2.61984</v>
+        <v>3.1249</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.07241</v>
+        <v>2.3722</v>
       </c>
       <c r="C71" t="n">
-        <v>3.15273</v>
+        <v>3.7652</v>
       </c>
       <c r="D71" t="n">
-        <v>2.84814</v>
+        <v>3.45064</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.08785</v>
+        <v>2.46851</v>
       </c>
       <c r="C72" t="n">
-        <v>3.24756</v>
+        <v>3.84491</v>
       </c>
       <c r="D72" t="n">
-        <v>2.79361</v>
+        <v>3.40097</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.15068</v>
+        <v>2.46126</v>
       </c>
       <c r="C73" t="n">
-        <v>3.32063</v>
+        <v>4.15945</v>
       </c>
       <c r="D73" t="n">
-        <v>2.89515</v>
+        <v>3.39679</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.11899</v>
+        <v>2.35674</v>
       </c>
       <c r="C74" t="n">
-        <v>3.32931</v>
+        <v>4.06914</v>
       </c>
       <c r="D74" t="n">
-        <v>2.9079</v>
+        <v>3.48316</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.17237</v>
+        <v>2.48289</v>
       </c>
       <c r="C75" t="n">
-        <v>3.40299</v>
+        <v>4.06089</v>
       </c>
       <c r="D75" t="n">
-        <v>2.98493</v>
+        <v>3.46914</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.19223</v>
+        <v>2.49943</v>
       </c>
       <c r="C76" t="n">
-        <v>3.34673</v>
+        <v>4.04968</v>
       </c>
       <c r="D76" t="n">
-        <v>2.95485</v>
+        <v>3.5046</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.25249</v>
+        <v>2.50509</v>
       </c>
       <c r="C77" t="n">
-        <v>3.46864</v>
+        <v>4.19972</v>
       </c>
       <c r="D77" t="n">
-        <v>3.18991</v>
+        <v>3.58982</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.34619</v>
+        <v>2.47903</v>
       </c>
       <c r="C78" t="n">
-        <v>3.72248</v>
+        <v>4.28138</v>
       </c>
       <c r="D78" t="n">
-        <v>3.18632</v>
+        <v>3.66353</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.34047</v>
+        <v>2.51675</v>
       </c>
       <c r="C79" t="n">
-        <v>3.8911</v>
+        <v>4.33013</v>
       </c>
       <c r="D79" t="n">
-        <v>3.46419</v>
+        <v>3.70292</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.44639</v>
+        <v>2.47552</v>
       </c>
       <c r="C80" t="n">
-        <v>3.87661</v>
+        <v>4.30862</v>
       </c>
       <c r="D80" t="n">
-        <v>3.32794</v>
+        <v>3.76979</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.33043</v>
+        <v>2.52539</v>
       </c>
       <c r="C81" t="n">
-        <v>3.81421</v>
+        <v>4.35327</v>
       </c>
       <c r="D81" t="n">
-        <v>3.48916</v>
+        <v>3.83425</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.39896</v>
+        <v>2.57533</v>
       </c>
       <c r="C82" t="n">
-        <v>3.82332</v>
+        <v>4.37127</v>
       </c>
       <c r="D82" t="n">
-        <v>3.37188</v>
+        <v>3.90667</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.40739</v>
+        <v>2.60006</v>
       </c>
       <c r="C83" t="n">
-        <v>3.90669</v>
+        <v>4.4494</v>
       </c>
       <c r="D83" t="n">
-        <v>3.64716</v>
+        <v>3.94838</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.50844</v>
+        <v>2.70818</v>
       </c>
       <c r="C84" t="n">
-        <v>4.01706</v>
+        <v>4.45925</v>
       </c>
       <c r="D84" t="n">
-        <v>3.53158</v>
+        <v>3.89194</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.58449</v>
+        <v>2.71319</v>
       </c>
       <c r="C85" t="n">
-        <v>4.10046</v>
+        <v>4.50554</v>
       </c>
       <c r="D85" t="n">
-        <v>3.60742</v>
+        <v>3.92998</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.60507</v>
+        <v>2.74974</v>
       </c>
       <c r="C86" t="n">
-        <v>4.02908</v>
+        <v>4.48079</v>
       </c>
       <c r="D86" t="n">
-        <v>3.66102</v>
+        <v>3.953</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.67255</v>
+        <v>2.72511</v>
       </c>
       <c r="C87" t="n">
-        <v>4.15413</v>
+        <v>4.5426</v>
       </c>
       <c r="D87" t="n">
-        <v>3.6548</v>
+        <v>4.07055</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.65098</v>
+        <v>2.70126</v>
       </c>
       <c r="C88" t="n">
-        <v>4.01946</v>
+        <v>4.58804</v>
       </c>
       <c r="D88" t="n">
-        <v>3.72564</v>
+        <v>4.15913</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.66495</v>
+        <v>2.77228</v>
       </c>
       <c r="C89" t="n">
-        <v>4.13993</v>
+        <v>4.49547</v>
       </c>
       <c r="D89" t="n">
-        <v>3.85336</v>
+        <v>4.02647</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.73983</v>
+        <v>2.74095</v>
       </c>
       <c r="C90" t="n">
-        <v>4.2064</v>
+        <v>4.63021</v>
       </c>
       <c r="D90" t="n">
-        <v>3.83119</v>
+        <v>4.04854</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.75315</v>
+        <v>2.97542</v>
       </c>
       <c r="C91" t="n">
-        <v>4.21804</v>
+        <v>4.85022</v>
       </c>
       <c r="D91" t="n">
-        <v>3.88522</v>
+        <v>4.05046</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.79355</v>
+        <v>2.7951</v>
       </c>
       <c r="C92" t="n">
-        <v>4.40053</v>
+        <v>4.67246</v>
       </c>
       <c r="D92" t="n">
-        <v>4.0369</v>
+        <v>4.22365</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.79781</v>
+        <v>2.92194</v>
       </c>
       <c r="C93" t="n">
-        <v>4.44506</v>
+        <v>5.04183</v>
       </c>
       <c r="D93" t="n">
-        <v>4.03992</v>
+        <v>4.37773</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.80668</v>
+        <v>2.81516</v>
       </c>
       <c r="C94" t="n">
-        <v>4.49949</v>
+        <v>4.93661</v>
       </c>
       <c r="D94" t="n">
-        <v>4.07882</v>
+        <v>4.29483</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.91657</v>
+        <v>3.2205</v>
       </c>
       <c r="C95" t="n">
-        <v>4.54892</v>
+        <v>5.0323</v>
       </c>
       <c r="D95" t="n">
-        <v>4.19881</v>
+        <v>4.39911</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.88083</v>
+        <v>2.87137</v>
       </c>
       <c r="C96" t="n">
-        <v>4.51943</v>
+        <v>4.95605</v>
       </c>
       <c r="D96" t="n">
-        <v>4.09054</v>
+        <v>4.44453</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.91554</v>
+        <v>2.97328</v>
       </c>
       <c r="C97" t="n">
-        <v>4.54197</v>
+        <v>4.97785</v>
       </c>
       <c r="D97" t="n">
-        <v>4.1884</v>
+        <v>4.49043</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.0872</v>
+        <v>3.16524</v>
       </c>
       <c r="C98" t="n">
-        <v>4.57939</v>
+        <v>5.02294</v>
       </c>
       <c r="D98" t="n">
-        <v>4.17562</v>
+        <v>4.385</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.06819</v>
+        <v>3.14</v>
       </c>
       <c r="C99" t="n">
-        <v>4.70129</v>
+        <v>5.09729</v>
       </c>
       <c r="D99" t="n">
-        <v>4.21641</v>
+        <v>4.41704</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.08459</v>
+        <v>3.19732</v>
       </c>
       <c r="C100" t="n">
-        <v>4.75586</v>
+        <v>5.0998</v>
       </c>
       <c r="D100" t="n">
-        <v>4.30899</v>
+        <v>4.58807</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.1448</v>
+        <v>3.28848</v>
       </c>
       <c r="C101" t="n">
-        <v>4.60436</v>
+        <v>5.2332</v>
       </c>
       <c r="D101" t="n">
-        <v>4.30367</v>
+        <v>4.87749</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.14745</v>
+        <v>3.43908</v>
       </c>
       <c r="C102" t="n">
-        <v>4.7258</v>
+        <v>5.36492</v>
       </c>
       <c r="D102" t="n">
-        <v>4.3396</v>
+        <v>4.71184</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.18512</v>
+        <v>3.53261</v>
       </c>
       <c r="C103" t="n">
-        <v>4.77185</v>
+        <v>5.50165</v>
       </c>
       <c r="D103" t="n">
-        <v>4.3422</v>
+        <v>4.78531</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.15656</v>
+        <v>3.29698</v>
       </c>
       <c r="C104" t="n">
-        <v>4.91858</v>
+        <v>5.34682</v>
       </c>
       <c r="D104" t="n">
-        <v>4.39995</v>
+        <v>4.67338</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.1743</v>
+        <v>3.46881</v>
       </c>
       <c r="C105" t="n">
-        <v>4.8441</v>
+        <v>5.42251</v>
       </c>
       <c r="D105" t="n">
-        <v>4.38779</v>
+        <v>4.76619</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.14763</v>
+        <v>3.35293</v>
       </c>
       <c r="C106" t="n">
-        <v>4.86236</v>
+        <v>5.3981</v>
       </c>
       <c r="D106" t="n">
-        <v>4.45643</v>
+        <v>4.71723</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.19035</v>
+        <v>3.39977</v>
       </c>
       <c r="C107" t="n">
-        <v>5.13698</v>
+        <v>5.81144</v>
       </c>
       <c r="D107" t="n">
-        <v>4.59952</v>
+        <v>5.05543</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.21931</v>
+        <v>3.53025</v>
       </c>
       <c r="C108" t="n">
-        <v>5.15694</v>
+        <v>6.21045</v>
       </c>
       <c r="D108" t="n">
-        <v>4.58181</v>
+        <v>5.15127</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.26536</v>
+        <v>3.518</v>
       </c>
       <c r="C109" t="n">
-        <v>5.14939</v>
+        <v>6.06021</v>
       </c>
       <c r="D109" t="n">
-        <v>4.66822</v>
+        <v>5.15575</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.31712</v>
+        <v>3.4698</v>
       </c>
       <c r="C110" t="n">
-        <v>5.15615</v>
+        <v>5.7679</v>
       </c>
       <c r="D110" t="n">
-        <v>4.69713</v>
+        <v>4.88106</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.33977</v>
+        <v>3.34811</v>
       </c>
       <c r="C111" t="n">
-        <v>5.24474</v>
+        <v>5.41017</v>
       </c>
       <c r="D111" t="n">
-        <v>4.74686</v>
+        <v>4.87646</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.49763</v>
+        <v>3.54373</v>
       </c>
       <c r="C112" t="n">
-        <v>5.24329</v>
+        <v>5.45423</v>
       </c>
       <c r="D112" t="n">
-        <v>4.74465</v>
+        <v>4.86393</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.57982</v>
+        <v>3.58663</v>
       </c>
       <c r="C113" t="n">
-        <v>5.30629</v>
+        <v>5.53563</v>
       </c>
       <c r="D113" t="n">
-        <v>4.79095</v>
+        <v>4.90558</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.61678</v>
+        <v>3.5986</v>
       </c>
       <c r="C114" t="n">
-        <v>5.39328</v>
+        <v>5.5576</v>
       </c>
       <c r="D114" t="n">
-        <v>4.8831</v>
+        <v>4.961</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.65629</v>
+        <v>3.65544</v>
       </c>
       <c r="C115" t="n">
-        <v>5.43573</v>
+        <v>5.56331</v>
       </c>
       <c r="D115" t="n">
-        <v>4.88545</v>
+        <v>5.01914</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.672</v>
+        <v>3.66229</v>
       </c>
       <c r="C116" t="n">
-        <v>5.47682</v>
+        <v>5.67698</v>
       </c>
       <c r="D116" t="n">
-        <v>5.01242</v>
+        <v>5.11235</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.665</v>
+        <v>3.80531</v>
       </c>
       <c r="C117" t="n">
-        <v>5.59026</v>
+        <v>5.64397</v>
       </c>
       <c r="D117" t="n">
-        <v>5.08802</v>
+        <v>5.18314</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.68302</v>
+        <v>3.74736</v>
       </c>
       <c r="C118" t="n">
-        <v>5.65859</v>
+        <v>5.74352</v>
       </c>
       <c r="D118" t="n">
-        <v>5.14723</v>
+        <v>5.22015</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.81451</v>
+        <v>3.79523</v>
       </c>
       <c r="C119" t="n">
-        <v>5.73982</v>
+        <v>5.81295</v>
       </c>
       <c r="D119" t="n">
-        <v>5.19632</v>
+        <v>5.242</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.407914</v>
+        <v>0.392612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7988960000000001</v>
+        <v>0.792335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.508311</v>
+        <v>0.518828</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.427041</v>
+        <v>0.424834</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7775919999999999</v>
+        <v>0.791122</v>
       </c>
       <c r="D3" t="n">
-        <v>0.508915</v>
+        <v>0.519606</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.413783</v>
+        <v>0.425766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7647969999999999</v>
+        <v>0.797939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.520791</v>
+        <v>0.528435</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.411983</v>
+        <v>0.430098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.783281</v>
+        <v>0.789813</v>
       </c>
       <c r="D5" t="n">
-        <v>0.532493</v>
+        <v>0.53179</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.428985</v>
+        <v>0.423986</v>
       </c>
       <c r="C6" t="n">
-        <v>0.776062</v>
+        <v>0.801876</v>
       </c>
       <c r="D6" t="n">
-        <v>0.524097</v>
+        <v>0.532577</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.416137</v>
+        <v>0.420365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.777993</v>
+        <v>0.791233</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528169</v>
+        <v>0.538483</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.42158</v>
+        <v>0.428944</v>
       </c>
       <c r="C8" t="n">
-        <v>0.791345</v>
+        <v>0.81808</v>
       </c>
       <c r="D8" t="n">
-        <v>0.531694</v>
+        <v>0.533241</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.426692</v>
+        <v>0.426925</v>
       </c>
       <c r="C9" t="n">
-        <v>0.827526</v>
+        <v>0.819011</v>
       </c>
       <c r="D9" t="n">
-        <v>0.553899</v>
+        <v>0.549759</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.42081</v>
+        <v>0.43015</v>
       </c>
       <c r="C10" t="n">
-        <v>0.822175</v>
+        <v>0.838957</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5451319999999999</v>
+        <v>0.550255</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.426023</v>
+        <v>0.431159</v>
       </c>
       <c r="C11" t="n">
-        <v>0.801601</v>
+        <v>0.820977</v>
       </c>
       <c r="D11" t="n">
-        <v>0.553639</v>
+        <v>0.552656</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4311</v>
+        <v>0.428216</v>
       </c>
       <c r="C12" t="n">
-        <v>0.804665</v>
+        <v>0.829739</v>
       </c>
       <c r="D12" t="n">
-        <v>0.55597</v>
+        <v>0.553431</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.424927</v>
+        <v>0.438413</v>
       </c>
       <c r="C13" t="n">
-        <v>0.807141</v>
+        <v>0.832349</v>
       </c>
       <c r="D13" t="n">
-        <v>0.564913</v>
+        <v>0.563319</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.428398</v>
+        <v>0.430403</v>
       </c>
       <c r="C14" t="n">
-        <v>0.830259</v>
+        <v>0.848312</v>
       </c>
       <c r="D14" t="n">
-        <v>0.558837</v>
+        <v>0.562022</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.423786</v>
+        <v>0.430703</v>
       </c>
       <c r="C15" t="n">
-        <v>0.822488</v>
+        <v>0.839912</v>
       </c>
       <c r="D15" t="n">
-        <v>0.560473</v>
+        <v>0.574426</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.42843</v>
+        <v>0.437162</v>
       </c>
       <c r="C16" t="n">
-        <v>0.820848</v>
+        <v>0.846306</v>
       </c>
       <c r="D16" t="n">
-        <v>0.583172</v>
+        <v>0.568607</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.454545</v>
+        <v>0.461267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.851801</v>
+        <v>0.871169</v>
       </c>
       <c r="D17" t="n">
-        <v>0.589202</v>
+        <v>0.577091</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.469414</v>
+        <v>0.465531</v>
       </c>
       <c r="C18" t="n">
-        <v>0.847556</v>
+        <v>0.861027</v>
       </c>
       <c r="D18" t="n">
-        <v>0.578195</v>
+        <v>0.575255</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.470732</v>
+        <v>0.469281</v>
       </c>
       <c r="C19" t="n">
-        <v>0.874903</v>
+        <v>0.8798550000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.590489</v>
+        <v>0.592742</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.472499</v>
+        <v>0.459337</v>
       </c>
       <c r="C20" t="n">
-        <v>0.895609</v>
+        <v>0.88613</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5971610000000001</v>
+        <v>0.592069</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.47101</v>
+        <v>0.468679</v>
       </c>
       <c r="C21" t="n">
-        <v>0.86813</v>
+        <v>0.885451</v>
       </c>
       <c r="D21" t="n">
-        <v>0.595766</v>
+        <v>0.606166</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.462483</v>
+        <v>0.468038</v>
       </c>
       <c r="C22" t="n">
-        <v>0.89277</v>
+        <v>0.8972290000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.618606</v>
+        <v>0.595993</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.521486</v>
+        <v>0.468366</v>
       </c>
       <c r="C23" t="n">
-        <v>0.993833</v>
+        <v>0.896649</v>
       </c>
       <c r="D23" t="n">
-        <v>0.643784</v>
+        <v>0.59804</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.483198</v>
+        <v>0.462242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.915728</v>
+        <v>0.91159</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6365690000000001</v>
+        <v>0.608635</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.522651</v>
+        <v>0.481019</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9713000000000001</v>
+        <v>0.927663</v>
       </c>
       <c r="D25" t="n">
-        <v>0.634607</v>
+        <v>0.611436</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.496289</v>
+        <v>0.474774</v>
       </c>
       <c r="C26" t="n">
-        <v>0.887032</v>
+        <v>0.904405</v>
       </c>
       <c r="D26" t="n">
-        <v>0.639467</v>
+        <v>0.622934</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5015540000000001</v>
+        <v>0.470844</v>
       </c>
       <c r="C27" t="n">
-        <v>0.909234</v>
+        <v>0.887892</v>
       </c>
       <c r="D27" t="n">
-        <v>0.66313</v>
+        <v>0.6496459999999999</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.490974</v>
+        <v>0.479816</v>
       </c>
       <c r="C28" t="n">
-        <v>0.914806</v>
+        <v>0.898662</v>
       </c>
       <c r="D28" t="n">
-        <v>0.645972</v>
+        <v>0.649333</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.502939</v>
+        <v>0.486152</v>
       </c>
       <c r="C29" t="n">
-        <v>0.92093</v>
+        <v>0.912761</v>
       </c>
       <c r="D29" t="n">
-        <v>0.693197</v>
+        <v>0.644819</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.499626</v>
+        <v>0.497762</v>
       </c>
       <c r="C30" t="n">
-        <v>0.933788</v>
+        <v>0.933518</v>
       </c>
       <c r="D30" t="n">
-        <v>0.70292</v>
+        <v>0.664469</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.508474</v>
+        <v>0.534423</v>
       </c>
       <c r="C31" t="n">
-        <v>0.930272</v>
+        <v>0.940647</v>
       </c>
       <c r="D31" t="n">
-        <v>0.684439</v>
+        <v>0.669373</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.537929</v>
+        <v>0.524099</v>
       </c>
       <c r="C32" t="n">
-        <v>0.938347</v>
+        <v>1.0031</v>
       </c>
       <c r="D32" t="n">
-        <v>0.666784</v>
+        <v>0.671552</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.549222</v>
+        <v>0.535026</v>
       </c>
       <c r="C33" t="n">
-        <v>0.979027</v>
+        <v>0.994328</v>
       </c>
       <c r="D33" t="n">
-        <v>0.703002</v>
+        <v>0.6986250000000001</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.568334</v>
+        <v>0.550863</v>
       </c>
       <c r="C34" t="n">
-        <v>1.00566</v>
+        <v>1.02002</v>
       </c>
       <c r="D34" t="n">
-        <v>0.700529</v>
+        <v>0.721257</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.56309</v>
+        <v>0.5764629999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0135</v>
+        <v>1.03711</v>
       </c>
       <c r="D35" t="n">
-        <v>0.709172</v>
+        <v>0.720426</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.565089</v>
+        <v>0.580585</v>
       </c>
       <c r="C36" t="n">
-        <v>1.10975</v>
+        <v>1.03593</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7350640000000001</v>
+        <v>0.7307439999999999</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.576141</v>
+        <v>0.582122</v>
       </c>
       <c r="C37" t="n">
-        <v>1.06498</v>
+        <v>1.05833</v>
       </c>
       <c r="D37" t="n">
-        <v>0.765216</v>
+        <v>0.774829</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.580797</v>
+        <v>0.591258</v>
       </c>
       <c r="C38" t="n">
-        <v>1.08527</v>
+        <v>1.09528</v>
       </c>
       <c r="D38" t="n">
-        <v>0.772909</v>
+        <v>0.7917650000000001</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.63934</v>
+        <v>0.613747</v>
       </c>
       <c r="C39" t="n">
-        <v>1.14202</v>
+        <v>1.15254</v>
       </c>
       <c r="D39" t="n">
-        <v>0.798383</v>
+        <v>0.790316</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.624409</v>
+        <v>0.629279</v>
       </c>
       <c r="C40" t="n">
-        <v>1.11773</v>
+        <v>1.10081</v>
       </c>
       <c r="D40" t="n">
-        <v>0.839288</v>
+        <v>0.839765</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.627839</v>
+        <v>0.672455</v>
       </c>
       <c r="C41" t="n">
-        <v>1.21754</v>
+        <v>1.14194</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8911480000000001</v>
+        <v>0.874688</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.628787</v>
+        <v>0.653267</v>
       </c>
       <c r="C42" t="n">
-        <v>1.20815</v>
+        <v>1.1681</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8853259999999999</v>
+        <v>0.897674</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.654057</v>
+        <v>0.687665</v>
       </c>
       <c r="C43" t="n">
-        <v>1.20174</v>
+        <v>1.23473</v>
       </c>
       <c r="D43" t="n">
-        <v>0.905961</v>
+        <v>0.920492</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.665237</v>
+        <v>0.704537</v>
       </c>
       <c r="C44" t="n">
-        <v>1.30386</v>
+        <v>1.25139</v>
       </c>
       <c r="D44" t="n">
-        <v>0.928765</v>
+        <v>0.953159</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6775910000000001</v>
+        <v>0.694381</v>
       </c>
       <c r="C45" t="n">
-        <v>1.35403</v>
+        <v>1.32118</v>
       </c>
       <c r="D45" t="n">
-        <v>0.981569</v>
+        <v>0.988456</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.779185</v>
+        <v>0.820918</v>
       </c>
       <c r="C46" t="n">
-        <v>1.33801</v>
+        <v>1.33911</v>
       </c>
       <c r="D46" t="n">
-        <v>1.01971</v>
+        <v>0.997092</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8257640000000001</v>
+        <v>0.839942</v>
       </c>
       <c r="C47" t="n">
-        <v>1.4416</v>
+        <v>1.40709</v>
       </c>
       <c r="D47" t="n">
-        <v>1.03302</v>
+        <v>1.03465</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8315399999999999</v>
+        <v>0.854122</v>
       </c>
       <c r="C48" t="n">
-        <v>1.47586</v>
+        <v>1.45966</v>
       </c>
       <c r="D48" t="n">
-        <v>1.07043</v>
+        <v>1.0726</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.881393</v>
+        <v>0.883711</v>
       </c>
       <c r="C49" t="n">
-        <v>1.58643</v>
+        <v>1.54214</v>
       </c>
       <c r="D49" t="n">
-        <v>1.09211</v>
+        <v>1.10509</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.869545</v>
+        <v>0.912673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.656</v>
+        <v>1.60343</v>
       </c>
       <c r="D50" t="n">
-        <v>1.16629</v>
+        <v>1.1169</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.947658</v>
+        <v>0.909063</v>
       </c>
       <c r="C51" t="n">
-        <v>1.78315</v>
+        <v>1.63229</v>
       </c>
       <c r="D51" t="n">
-        <v>1.22554</v>
+        <v>1.19128</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.99375</v>
+        <v>0.940088</v>
       </c>
       <c r="C52" t="n">
-        <v>1.82317</v>
+        <v>1.75695</v>
       </c>
       <c r="D52" t="n">
-        <v>1.27384</v>
+        <v>1.24675</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.993202</v>
+        <v>0.951828</v>
       </c>
       <c r="C53" t="n">
-        <v>1.81958</v>
+        <v>1.80812</v>
       </c>
       <c r="D53" t="n">
-        <v>1.29249</v>
+        <v>1.28102</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.99214</v>
+        <v>1.0059</v>
       </c>
       <c r="C54" t="n">
-        <v>2.14641</v>
+        <v>1.77106</v>
       </c>
       <c r="D54" t="n">
-        <v>1.40785</v>
+        <v>1.35233</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.06703</v>
+        <v>1.02035</v>
       </c>
       <c r="C55" t="n">
-        <v>2.15972</v>
+        <v>1.88578</v>
       </c>
       <c r="D55" t="n">
-        <v>1.5214</v>
+        <v>1.39879</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.11959</v>
+        <v>1.05604</v>
       </c>
       <c r="C56" t="n">
-        <v>2.16054</v>
+        <v>1.92681</v>
       </c>
       <c r="D56" t="n">
-        <v>1.55877</v>
+        <v>1.43931</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.12094</v>
+        <v>1.09903</v>
       </c>
       <c r="C57" t="n">
-        <v>2.28863</v>
+        <v>2.00821</v>
       </c>
       <c r="D57" t="n">
-        <v>1.68468</v>
+        <v>1.54849</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.21097</v>
+        <v>1.12933</v>
       </c>
       <c r="C58" t="n">
-        <v>2.47435</v>
+        <v>2.00959</v>
       </c>
       <c r="D58" t="n">
-        <v>1.73405</v>
+        <v>1.50937</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.27414</v>
+        <v>1.14391</v>
       </c>
       <c r="C59" t="n">
-        <v>2.56963</v>
+        <v>2.14258</v>
       </c>
       <c r="D59" t="n">
-        <v>1.75619</v>
+        <v>1.56789</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.44285</v>
+        <v>1.33703</v>
       </c>
       <c r="C60" t="n">
-        <v>2.50312</v>
+        <v>2.19694</v>
       </c>
       <c r="D60" t="n">
-        <v>1.78682</v>
+        <v>1.71399</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.43939</v>
+        <v>1.42333</v>
       </c>
       <c r="C61" t="n">
-        <v>2.42858</v>
+        <v>2.26282</v>
       </c>
       <c r="D61" t="n">
-        <v>1.90248</v>
+        <v>1.72433</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.58152</v>
+        <v>1.38453</v>
       </c>
       <c r="C62" t="n">
-        <v>2.63146</v>
+        <v>2.26188</v>
       </c>
       <c r="D62" t="n">
-        <v>2.02008</v>
+        <v>1.75905</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.51279</v>
+        <v>1.42223</v>
       </c>
       <c r="C63" t="n">
-        <v>2.88194</v>
+        <v>2.51915</v>
       </c>
       <c r="D63" t="n">
-        <v>2.06355</v>
+        <v>1.89376</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.54732</v>
+        <v>1.55543</v>
       </c>
       <c r="C64" t="n">
-        <v>2.95749</v>
+        <v>2.56663</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18672</v>
+        <v>1.91191</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.59923</v>
+        <v>1.58229</v>
       </c>
       <c r="C65" t="n">
-        <v>3.00091</v>
+        <v>2.65795</v>
       </c>
       <c r="D65" t="n">
-        <v>2.25842</v>
+        <v>1.95664</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.59409</v>
+        <v>1.52849</v>
       </c>
       <c r="C66" t="n">
-        <v>2.97874</v>
+        <v>2.91255</v>
       </c>
       <c r="D66" t="n">
-        <v>2.19385</v>
+        <v>2.01432</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.68652</v>
+        <v>1.58653</v>
       </c>
       <c r="C67" t="n">
-        <v>3.03085</v>
+        <v>2.65912</v>
       </c>
       <c r="D67" t="n">
-        <v>2.28832</v>
+        <v>2.18363</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.71023</v>
+        <v>1.68942</v>
       </c>
       <c r="C68" t="n">
-        <v>2.93797</v>
+        <v>2.6272</v>
       </c>
       <c r="D68" t="n">
-        <v>2.45964</v>
+        <v>2.24509</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.66815</v>
+        <v>1.65054</v>
       </c>
       <c r="C69" t="n">
-        <v>2.91325</v>
+        <v>2.73987</v>
       </c>
       <c r="D69" t="n">
-        <v>2.49611</v>
+        <v>2.3305</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.74145</v>
+        <v>1.69273</v>
       </c>
       <c r="C70" t="n">
-        <v>3.1495</v>
+        <v>2.80353</v>
       </c>
       <c r="D70" t="n">
-        <v>2.65004</v>
+        <v>2.37806</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.77797</v>
+        <v>1.71384</v>
       </c>
       <c r="C71" t="n">
-        <v>3.17856</v>
+        <v>2.83644</v>
       </c>
       <c r="D71" t="n">
-        <v>2.61558</v>
+        <v>2.45867</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.75556</v>
+        <v>1.76694</v>
       </c>
       <c r="C72" t="n">
-        <v>3.13623</v>
+        <v>2.88737</v>
       </c>
       <c r="D72" t="n">
-        <v>2.77259</v>
+        <v>2.475</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.82173</v>
+        <v>1.7911</v>
       </c>
       <c r="C73" t="n">
-        <v>3.28108</v>
+        <v>3.03405</v>
       </c>
       <c r="D73" t="n">
-        <v>2.79775</v>
+        <v>2.69379</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.0496</v>
+        <v>1.97859</v>
       </c>
       <c r="C74" t="n">
-        <v>3.1888</v>
+        <v>3.18653</v>
       </c>
       <c r="D74" t="n">
-        <v>2.78817</v>
+        <v>2.64429</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.05962</v>
+        <v>1.98824</v>
       </c>
       <c r="C75" t="n">
-        <v>3.47078</v>
+        <v>3.13649</v>
       </c>
       <c r="D75" t="n">
-        <v>2.84565</v>
+        <v>2.79593</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.12396</v>
+        <v>2.03579</v>
       </c>
       <c r="C76" t="n">
-        <v>3.5039</v>
+        <v>3.34512</v>
       </c>
       <c r="D76" t="n">
-        <v>2.91414</v>
+        <v>2.90058</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.22585</v>
+        <v>2.07943</v>
       </c>
       <c r="C77" t="n">
-        <v>3.55441</v>
+        <v>3.47393</v>
       </c>
       <c r="D77" t="n">
-        <v>2.96324</v>
+        <v>2.83603</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.19866</v>
+        <v>2.108</v>
       </c>
       <c r="C78" t="n">
-        <v>3.64889</v>
+        <v>3.46459</v>
       </c>
       <c r="D78" t="n">
-        <v>3.04981</v>
+        <v>3.01497</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.18721</v>
+        <v>2.11934</v>
       </c>
       <c r="C79" t="n">
-        <v>3.72602</v>
+        <v>3.54718</v>
       </c>
       <c r="D79" t="n">
-        <v>3.06128</v>
+        <v>2.95953</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.22859</v>
+        <v>2.21195</v>
       </c>
       <c r="C80" t="n">
-        <v>3.98282</v>
+        <v>3.60904</v>
       </c>
       <c r="D80" t="n">
-        <v>3.10818</v>
+        <v>3.0796</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.22393</v>
+        <v>2.23002</v>
       </c>
       <c r="C81" t="n">
-        <v>3.90934</v>
+        <v>3.71237</v>
       </c>
       <c r="D81" t="n">
-        <v>3.20603</v>
+        <v>3.0103</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.23947</v>
+        <v>2.25465</v>
       </c>
       <c r="C82" t="n">
-        <v>4.06638</v>
+        <v>3.86528</v>
       </c>
       <c r="D82" t="n">
-        <v>3.32002</v>
+        <v>3.16298</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.31135</v>
+        <v>2.20546</v>
       </c>
       <c r="C83" t="n">
-        <v>4.01747</v>
+        <v>3.76329</v>
       </c>
       <c r="D83" t="n">
-        <v>3.43155</v>
+        <v>3.26703</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.31788</v>
+        <v>2.25166</v>
       </c>
       <c r="C84" t="n">
-        <v>3.90816</v>
+        <v>3.80311</v>
       </c>
       <c r="D84" t="n">
-        <v>3.45423</v>
+        <v>3.39019</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.38403</v>
+        <v>2.26663</v>
       </c>
       <c r="C85" t="n">
-        <v>4.06748</v>
+        <v>3.9891</v>
       </c>
       <c r="D85" t="n">
-        <v>3.56699</v>
+        <v>3.51519</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.35427</v>
+        <v>2.35997</v>
       </c>
       <c r="C86" t="n">
-        <v>4.00882</v>
+        <v>4.01747</v>
       </c>
       <c r="D86" t="n">
-        <v>3.54693</v>
+        <v>3.52213</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.35433</v>
+        <v>2.33473</v>
       </c>
       <c r="C87" t="n">
-        <v>4.29005</v>
+        <v>4.02455</v>
       </c>
       <c r="D87" t="n">
-        <v>3.68919</v>
+        <v>3.44754</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48385</v>
+        <v>2.37964</v>
       </c>
       <c r="C88" t="n">
-        <v>4.29672</v>
+        <v>4.25302</v>
       </c>
       <c r="D88" t="n">
-        <v>3.56143</v>
+        <v>3.51762</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.5932</v>
+        <v>2.48915</v>
       </c>
       <c r="C89" t="n">
-        <v>4.41829</v>
+        <v>4.09719</v>
       </c>
       <c r="D89" t="n">
-        <v>3.77026</v>
+        <v>3.59922</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.7092</v>
+        <v>2.57131</v>
       </c>
       <c r="C90" t="n">
-        <v>4.44468</v>
+        <v>4.24885</v>
       </c>
       <c r="D90" t="n">
-        <v>3.74712</v>
+        <v>3.63757</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.64227</v>
+        <v>2.56611</v>
       </c>
       <c r="C91" t="n">
-        <v>4.50823</v>
+        <v>4.31775</v>
       </c>
       <c r="D91" t="n">
-        <v>3.86465</v>
+        <v>3.64201</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.66369</v>
+        <v>2.58162</v>
       </c>
       <c r="C92" t="n">
-        <v>4.63207</v>
+        <v>4.43474</v>
       </c>
       <c r="D92" t="n">
-        <v>3.93403</v>
+        <v>3.74095</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.72346</v>
+        <v>2.62997</v>
       </c>
       <c r="C93" t="n">
-        <v>4.65124</v>
+        <v>4.58541</v>
       </c>
       <c r="D93" t="n">
-        <v>3.92403</v>
+        <v>3.8624</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.73923</v>
+        <v>2.64784</v>
       </c>
       <c r="C94" t="n">
-        <v>4.8006</v>
+        <v>4.75091</v>
       </c>
       <c r="D94" t="n">
-        <v>3.89278</v>
+        <v>3.89822</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.71546</v>
+        <v>2.6623</v>
       </c>
       <c r="C95" t="n">
-        <v>4.77426</v>
+        <v>4.76573</v>
       </c>
       <c r="D95" t="n">
-        <v>3.9734</v>
+        <v>3.86786</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.75808</v>
+        <v>2.72226</v>
       </c>
       <c r="C96" t="n">
-        <v>4.94998</v>
+        <v>4.75401</v>
       </c>
       <c r="D96" t="n">
-        <v>3.92596</v>
+        <v>3.75886</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.76368</v>
+        <v>2.58829</v>
       </c>
       <c r="C97" t="n">
-        <v>4.58193</v>
+        <v>4.24131</v>
       </c>
       <c r="D97" t="n">
-        <v>4.11798</v>
+        <v>4.02728</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.81689</v>
+        <v>2.68035</v>
       </c>
       <c r="C98" t="n">
-        <v>4.61259</v>
+        <v>4.48339</v>
       </c>
       <c r="D98" t="n">
-        <v>4.13862</v>
+        <v>3.97526</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.86164</v>
+        <v>2.75653</v>
       </c>
       <c r="C99" t="n">
-        <v>4.71615</v>
+        <v>4.5189</v>
       </c>
       <c r="D99" t="n">
-        <v>4.14388</v>
+        <v>3.94308</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.80901</v>
+        <v>2.73241</v>
       </c>
       <c r="C100" t="n">
-        <v>4.7331</v>
+        <v>4.58978</v>
       </c>
       <c r="D100" t="n">
-        <v>4.13879</v>
+        <v>4.07652</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.86937</v>
+        <v>2.7059</v>
       </c>
       <c r="C101" t="n">
-        <v>4.82366</v>
+        <v>4.69419</v>
       </c>
       <c r="D101" t="n">
-        <v>4.27685</v>
+        <v>4.04423</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.88573</v>
+        <v>2.78219</v>
       </c>
       <c r="C102" t="n">
-        <v>4.86523</v>
+        <v>4.74628</v>
       </c>
       <c r="D102" t="n">
-        <v>4.21554</v>
+        <v>4.10822</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.97544</v>
+        <v>2.92152</v>
       </c>
       <c r="C103" t="n">
-        <v>4.95553</v>
+        <v>4.84632</v>
       </c>
       <c r="D103" t="n">
-        <v>4.28869</v>
+        <v>4.12525</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.02901</v>
+        <v>2.95542</v>
       </c>
       <c r="C104" t="n">
-        <v>5.13358</v>
+        <v>4.94746</v>
       </c>
       <c r="D104" t="n">
-        <v>4.26509</v>
+        <v>4.12452</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.10651</v>
+        <v>2.9274</v>
       </c>
       <c r="C105" t="n">
-        <v>5.13947</v>
+        <v>5.03896</v>
       </c>
       <c r="D105" t="n">
-        <v>4.3283</v>
+        <v>4.19928</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.06822</v>
+        <v>2.91552</v>
       </c>
       <c r="C106" t="n">
-        <v>5.26403</v>
+        <v>5.06146</v>
       </c>
       <c r="D106" t="n">
-        <v>4.37066</v>
+        <v>4.1926</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.10098</v>
+        <v>2.93083</v>
       </c>
       <c r="C107" t="n">
-        <v>5.2579</v>
+        <v>5.15341</v>
       </c>
       <c r="D107" t="n">
-        <v>4.38751</v>
+        <v>4.23954</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.13649</v>
+        <v>2.97723</v>
       </c>
       <c r="C108" t="n">
-        <v>5.45337</v>
+        <v>5.24607</v>
       </c>
       <c r="D108" t="n">
-        <v>4.41489</v>
+        <v>4.26183</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.16757</v>
+        <v>3.04158</v>
       </c>
       <c r="C109" t="n">
-        <v>5.53822</v>
+        <v>5.28155</v>
       </c>
       <c r="D109" t="n">
-        <v>4.43193</v>
+        <v>4.32206</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.16308</v>
+        <v>3.02002</v>
       </c>
       <c r="C110" t="n">
-        <v>5.58937</v>
+        <v>5.4511</v>
       </c>
       <c r="D110" t="n">
-        <v>4.58182</v>
+        <v>4.27518</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.17466</v>
+        <v>3.04717</v>
       </c>
       <c r="C111" t="n">
-        <v>5.25275</v>
+        <v>5.0039</v>
       </c>
       <c r="D111" t="n">
-        <v>4.67396</v>
+        <v>4.55291</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.259</v>
+        <v>3.04108</v>
       </c>
       <c r="C112" t="n">
-        <v>5.24468</v>
+        <v>5.11037</v>
       </c>
       <c r="D112" t="n">
-        <v>4.73009</v>
+        <v>4.54082</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.20486</v>
+        <v>3.08814</v>
       </c>
       <c r="C113" t="n">
-        <v>5.3319</v>
+        <v>5.16238</v>
       </c>
       <c r="D113" t="n">
-        <v>4.74058</v>
+        <v>4.59267</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.29511</v>
+        <v>3.10226</v>
       </c>
       <c r="C114" t="n">
-        <v>5.42241</v>
+        <v>5.26609</v>
       </c>
       <c r="D114" t="n">
-        <v>4.67474</v>
+        <v>4.63956</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.25775</v>
+        <v>3.1292</v>
       </c>
       <c r="C115" t="n">
-        <v>5.52925</v>
+        <v>5.3444</v>
       </c>
       <c r="D115" t="n">
-        <v>4.84847</v>
+        <v>4.65595</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.29797</v>
+        <v>3.18822</v>
       </c>
       <c r="C116" t="n">
-        <v>5.60247</v>
+        <v>5.42386</v>
       </c>
       <c r="D116" t="n">
-        <v>4.8337</v>
+        <v>4.6618</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.38517</v>
+        <v>3.26767</v>
       </c>
       <c r="C117" t="n">
-        <v>5.6947</v>
+        <v>5.48066</v>
       </c>
       <c r="D117" t="n">
-        <v>4.79669</v>
+        <v>4.69474</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.48085</v>
+        <v>3.32021</v>
       </c>
       <c r="C118" t="n">
-        <v>5.77165</v>
+        <v>5.62599</v>
       </c>
       <c r="D118" t="n">
-        <v>4.93582</v>
+        <v>4.75337</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.5149</v>
+        <v>3.31033</v>
       </c>
       <c r="C119" t="n">
-        <v>5.99787</v>
+        <v>5.63789</v>
       </c>
       <c r="D119" t="n">
-        <v>4.92553</v>
+        <v>4.75854</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.46053</v>
+        <v>0.444831</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6503</v>
+        <v>0.624769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.414033</v>
+        <v>0.395465</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.442778</v>
+        <v>0.414155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.63518</v>
+        <v>0.588894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.386932</v>
+        <v>0.405763</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.441633</v>
+        <v>0.43473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.634665</v>
+        <v>0.62874</v>
       </c>
       <c r="D4" t="n">
-        <v>0.388981</v>
+        <v>0.409589</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.426705</v>
+        <v>0.41741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.630482</v>
+        <v>0.602348</v>
       </c>
       <c r="D5" t="n">
-        <v>0.394633</v>
+        <v>0.386469</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427084</v>
+        <v>0.419322</v>
       </c>
       <c r="C6" t="n">
-        <v>0.624679</v>
+        <v>0.592823</v>
       </c>
       <c r="D6" t="n">
-        <v>0.396821</v>
+        <v>0.397695</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439475</v>
+        <v>0.42914</v>
       </c>
       <c r="C7" t="n">
-        <v>0.649898</v>
+        <v>0.626509</v>
       </c>
       <c r="D7" t="n">
-        <v>0.393059</v>
+        <v>0.386523</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.437768</v>
+        <v>0.429902</v>
       </c>
       <c r="C8" t="n">
-        <v>0.651157</v>
+        <v>0.614005</v>
       </c>
       <c r="D8" t="n">
-        <v>0.400844</v>
+        <v>0.389883</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.439661</v>
+        <v>0.439723</v>
       </c>
       <c r="C9" t="n">
-        <v>0.650154</v>
+        <v>0.61146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.395999</v>
+        <v>0.393342</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.449154</v>
+        <v>0.431575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.646103</v>
+        <v>0.62161</v>
       </c>
       <c r="D10" t="n">
-        <v>0.403916</v>
+        <v>0.393686</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.446262</v>
+        <v>0.444323</v>
       </c>
       <c r="C11" t="n">
-        <v>0.658436</v>
+        <v>0.6181449999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.402787</v>
+        <v>0.399564</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.456585</v>
+        <v>0.447407</v>
       </c>
       <c r="C12" t="n">
-        <v>0.655098</v>
+        <v>0.633215</v>
       </c>
       <c r="D12" t="n">
-        <v>0.411433</v>
+        <v>0.402421</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.426477</v>
+        <v>0.415665</v>
       </c>
       <c r="C13" t="n">
-        <v>0.658597</v>
+        <v>0.628199</v>
       </c>
       <c r="D13" t="n">
-        <v>0.406733</v>
+        <v>0.405871</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.431224</v>
+        <v>0.429066</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6675680000000001</v>
+        <v>0.622931</v>
       </c>
       <c r="D14" t="n">
-        <v>0.420143</v>
+        <v>0.411495</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.444008</v>
+        <v>0.422208</v>
       </c>
       <c r="C15" t="n">
-        <v>0.646107</v>
+        <v>0.635084</v>
       </c>
       <c r="D15" t="n">
-        <v>0.421195</v>
+        <v>0.419969</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.451662</v>
+        <v>0.440051</v>
       </c>
       <c r="C16" t="n">
-        <v>0.661341</v>
+        <v>0.633196</v>
       </c>
       <c r="D16" t="n">
-        <v>0.41312</v>
+        <v>0.418976</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.460301</v>
+        <v>0.437589</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6732089999999999</v>
+        <v>0.635861</v>
       </c>
       <c r="D17" t="n">
-        <v>0.429084</v>
+        <v>0.42317</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.45735</v>
+        <v>0.447497</v>
       </c>
       <c r="C18" t="n">
-        <v>0.659188</v>
+        <v>0.627731</v>
       </c>
       <c r="D18" t="n">
-        <v>0.429435</v>
+        <v>0.43379</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.457413</v>
+        <v>0.452093</v>
       </c>
       <c r="C19" t="n">
-        <v>0.671559</v>
+        <v>0.6471</v>
       </c>
       <c r="D19" t="n">
-        <v>0.437959</v>
+        <v>0.436197</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.464264</v>
+        <v>0.455846</v>
       </c>
       <c r="C20" t="n">
-        <v>0.665396</v>
+        <v>0.651248</v>
       </c>
       <c r="D20" t="n">
-        <v>0.44333</v>
+        <v>0.436299</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.468675</v>
+        <v>0.457071</v>
       </c>
       <c r="C21" t="n">
-        <v>0.686856</v>
+        <v>0.672772</v>
       </c>
       <c r="D21" t="n">
-        <v>0.423895</v>
+        <v>0.426033</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.480687</v>
+        <v>0.462006</v>
       </c>
       <c r="C22" t="n">
-        <v>0.695341</v>
+        <v>0.678575</v>
       </c>
       <c r="D22" t="n">
-        <v>0.427738</v>
+        <v>0.422977</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.47466</v>
+        <v>0.471774</v>
       </c>
       <c r="C23" t="n">
-        <v>0.698805</v>
+        <v>0.6786450000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.438776</v>
+        <v>0.43376</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.496383</v>
+        <v>0.489785</v>
       </c>
       <c r="C24" t="n">
-        <v>0.698636</v>
+        <v>0.682884</v>
       </c>
       <c r="D24" t="n">
-        <v>0.44324</v>
+        <v>0.436179</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.500314</v>
+        <v>0.48914</v>
       </c>
       <c r="C25" t="n">
-        <v>0.700708</v>
+        <v>0.6778380000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4545</v>
+        <v>0.442758</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.520135</v>
+        <v>0.494449</v>
       </c>
       <c r="C26" t="n">
-        <v>0.70533</v>
+        <v>0.681002</v>
       </c>
       <c r="D26" t="n">
-        <v>0.468408</v>
+        <v>0.451847</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.577978</v>
+        <v>0.528745</v>
       </c>
       <c r="C27" t="n">
-        <v>0.707496</v>
+        <v>0.695723</v>
       </c>
       <c r="D27" t="n">
-        <v>0.463167</v>
+        <v>0.462141</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.595052</v>
+        <v>0.5454059999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.731568</v>
+        <v>0.692735</v>
       </c>
       <c r="D28" t="n">
-        <v>0.456182</v>
+        <v>0.471783</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5949950000000001</v>
+        <v>0.564945</v>
       </c>
       <c r="C29" t="n">
-        <v>0.733872</v>
+        <v>0.696404</v>
       </c>
       <c r="D29" t="n">
-        <v>0.471438</v>
+        <v>0.47133</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.609735</v>
+        <v>0.562125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.730476</v>
+        <v>0.6870309999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.489075</v>
+        <v>0.490754</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.62097</v>
+        <v>0.577102</v>
       </c>
       <c r="C31" t="n">
-        <v>0.739432</v>
+        <v>0.711479</v>
       </c>
       <c r="D31" t="n">
-        <v>0.510188</v>
+        <v>0.514868</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.638182</v>
+        <v>0.602131</v>
       </c>
       <c r="C32" t="n">
-        <v>0.764199</v>
+        <v>0.709331</v>
       </c>
       <c r="D32" t="n">
-        <v>0.517839</v>
+        <v>0.497988</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.654356</v>
+        <v>0.610163</v>
       </c>
       <c r="C33" t="n">
-        <v>0.784964</v>
+        <v>0.729212</v>
       </c>
       <c r="D33" t="n">
-        <v>0.510646</v>
+        <v>0.514302</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.663857</v>
+        <v>0.625614</v>
       </c>
       <c r="C34" t="n">
-        <v>0.782897</v>
+        <v>0.7335</v>
       </c>
       <c r="D34" t="n">
-        <v>0.534053</v>
+        <v>0.5187659999999999</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.686809</v>
+        <v>0.640061</v>
       </c>
       <c r="C35" t="n">
-        <v>0.90907</v>
+        <v>0.819154</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6407119999999999</v>
+        <v>0.61658</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.730168</v>
+        <v>0.667719</v>
       </c>
       <c r="C36" t="n">
-        <v>0.910403</v>
+        <v>0.819703</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6695950000000001</v>
+        <v>0.629522</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.727204</v>
+        <v>0.67945</v>
       </c>
       <c r="C37" t="n">
-        <v>0.901553</v>
+        <v>0.817973</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6695489999999999</v>
+        <v>0.65489</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.737167</v>
+        <v>0.693396</v>
       </c>
       <c r="C38" t="n">
-        <v>0.920901</v>
+        <v>0.826386</v>
       </c>
       <c r="D38" t="n">
-        <v>0.708308</v>
+        <v>0.677731</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7669010000000001</v>
+        <v>0.718569</v>
       </c>
       <c r="C39" t="n">
-        <v>0.953145</v>
+        <v>0.885789</v>
       </c>
       <c r="D39" t="n">
-        <v>0.727935</v>
+        <v>0.70434</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.781492</v>
+        <v>0.733104</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9625089999999999</v>
+        <v>0.867591</v>
       </c>
       <c r="D40" t="n">
-        <v>0.744079</v>
+        <v>0.723384</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.941457</v>
+        <v>0.855714</v>
       </c>
       <c r="C41" t="n">
-        <v>0.992753</v>
+        <v>0.878735</v>
       </c>
       <c r="D41" t="n">
-        <v>0.763082</v>
+        <v>0.739362</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9567059999999999</v>
+        <v>0.873761</v>
       </c>
       <c r="C42" t="n">
-        <v>1.03753</v>
+        <v>0.927387</v>
       </c>
       <c r="D42" t="n">
-        <v>0.787818</v>
+        <v>0.741522</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>1.02534</v>
+        <v>0.891297</v>
       </c>
       <c r="C43" t="n">
-        <v>1.02855</v>
+        <v>0.930623</v>
       </c>
       <c r="D43" t="n">
-        <v>0.815246</v>
+        <v>0.764743</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>1.03133</v>
+        <v>0.911077</v>
       </c>
       <c r="C44" t="n">
-        <v>1.09515</v>
+        <v>0.937735</v>
       </c>
       <c r="D44" t="n">
-        <v>0.846485</v>
+        <v>0.815545</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>1.05661</v>
+        <v>0.943922</v>
       </c>
       <c r="C45" t="n">
-        <v>1.13071</v>
+        <v>0.97818</v>
       </c>
       <c r="D45" t="n">
-        <v>0.875111</v>
+        <v>0.820156</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>1.10957</v>
+        <v>0.962378</v>
       </c>
       <c r="C46" t="n">
-        <v>1.14114</v>
+        <v>1.03335</v>
       </c>
       <c r="D46" t="n">
-        <v>0.877376</v>
+        <v>0.839404</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>1.11603</v>
+        <v>0.9791800000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>1.1814</v>
+        <v>1.0557</v>
       </c>
       <c r="D47" t="n">
-        <v>0.893713</v>
+        <v>0.874586</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.13438</v>
+        <v>1.00527</v>
       </c>
       <c r="C48" t="n">
-        <v>1.19676</v>
+        <v>1.07628</v>
       </c>
       <c r="D48" t="n">
-        <v>0.949364</v>
+        <v>0.920361</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.17945</v>
+        <v>1.04827</v>
       </c>
       <c r="C49" t="n">
-        <v>1.24875</v>
+        <v>1.10572</v>
       </c>
       <c r="D49" t="n">
-        <v>0.955573</v>
+        <v>0.910496</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.22128</v>
+        <v>1.04628</v>
       </c>
       <c r="C50" t="n">
-        <v>1.48777</v>
+        <v>1.32462</v>
       </c>
       <c r="D50" t="n">
-        <v>1.21151</v>
+        <v>1.1318</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.25412</v>
+        <v>1.0909</v>
       </c>
       <c r="C51" t="n">
-        <v>1.55665</v>
+        <v>1.3593</v>
       </c>
       <c r="D51" t="n">
-        <v>1.24597</v>
+        <v>1.13615</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.29265</v>
+        <v>1.12857</v>
       </c>
       <c r="C52" t="n">
-        <v>1.57014</v>
+        <v>1.42762</v>
       </c>
       <c r="D52" t="n">
-        <v>1.27114</v>
+        <v>1.17273</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.35383</v>
+        <v>1.17419</v>
       </c>
       <c r="C53" t="n">
-        <v>1.54769</v>
+        <v>1.4351</v>
       </c>
       <c r="D53" t="n">
-        <v>1.27312</v>
+        <v>1.18639</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.33433</v>
+        <v>1.18504</v>
       </c>
       <c r="C54" t="n">
-        <v>1.52184</v>
+        <v>1.47451</v>
       </c>
       <c r="D54" t="n">
-        <v>1.29852</v>
+        <v>1.23531</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.3859</v>
+        <v>1.21205</v>
       </c>
       <c r="C55" t="n">
-        <v>1.55997</v>
+        <v>1.51588</v>
       </c>
       <c r="D55" t="n">
-        <v>1.36201</v>
+        <v>1.28297</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.59373</v>
+        <v>1.46229</v>
       </c>
       <c r="C56" t="n">
-        <v>1.57055</v>
+        <v>1.54534</v>
       </c>
       <c r="D56" t="n">
-        <v>1.3803</v>
+        <v>1.29377</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.65157</v>
+        <v>1.48388</v>
       </c>
       <c r="C57" t="n">
-        <v>1.59992</v>
+        <v>1.58195</v>
       </c>
       <c r="D57" t="n">
-        <v>1.4206</v>
+        <v>1.34567</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.71023</v>
+        <v>1.50438</v>
       </c>
       <c r="C58" t="n">
-        <v>1.64714</v>
+        <v>1.59054</v>
       </c>
       <c r="D58" t="n">
-        <v>1.46192</v>
+        <v>1.36125</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.70204</v>
+        <v>1.57714</v>
       </c>
       <c r="C59" t="n">
-        <v>1.69201</v>
+        <v>1.66279</v>
       </c>
       <c r="D59" t="n">
-        <v>1.50814</v>
+        <v>1.42866</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.73301</v>
+        <v>1.59354</v>
       </c>
       <c r="C60" t="n">
-        <v>1.74004</v>
+        <v>1.71533</v>
       </c>
       <c r="D60" t="n">
-        <v>1.52702</v>
+        <v>1.45631</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.77059</v>
+        <v>1.64851</v>
       </c>
       <c r="C61" t="n">
-        <v>1.81764</v>
+        <v>1.72287</v>
       </c>
       <c r="D61" t="n">
-        <v>1.65326</v>
+        <v>1.57658</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.85151</v>
+        <v>1.68404</v>
       </c>
       <c r="C62" t="n">
-        <v>1.71462</v>
+        <v>1.78164</v>
       </c>
       <c r="D62" t="n">
-        <v>1.61475</v>
+        <v>1.58251</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.77035</v>
+        <v>1.7079</v>
       </c>
       <c r="C63" t="n">
-        <v>1.71726</v>
+        <v>1.85955</v>
       </c>
       <c r="D63" t="n">
-        <v>1.69547</v>
+        <v>1.68232</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.91614</v>
+        <v>1.75235</v>
       </c>
       <c r="C64" t="n">
-        <v>1.87076</v>
+        <v>1.9824</v>
       </c>
       <c r="D64" t="n">
-        <v>1.91329</v>
+        <v>1.87753</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.83956</v>
+        <v>1.83085</v>
       </c>
       <c r="C65" t="n">
-        <v>1.92798</v>
+        <v>2.0535</v>
       </c>
       <c r="D65" t="n">
-        <v>1.94685</v>
+        <v>1.92952</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.86258</v>
+        <v>1.78278</v>
       </c>
       <c r="C66" t="n">
-        <v>1.93719</v>
+        <v>2.03297</v>
       </c>
       <c r="D66" t="n">
-        <v>1.96769</v>
+        <v>1.97111</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.90547</v>
+        <v>1.81577</v>
       </c>
       <c r="C67" t="n">
-        <v>1.99151</v>
+        <v>2.05785</v>
       </c>
       <c r="D67" t="n">
-        <v>2.0363</v>
+        <v>1.99869</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.94799</v>
+        <v>1.82907</v>
       </c>
       <c r="C68" t="n">
-        <v>1.95284</v>
+        <v>2.05563</v>
       </c>
       <c r="D68" t="n">
-        <v>2.05952</v>
+        <v>2.05005</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>2.00331</v>
+        <v>1.87399</v>
       </c>
       <c r="C69" t="n">
-        <v>2.08446</v>
+        <v>2.08188</v>
       </c>
       <c r="D69" t="n">
-        <v>2.10531</v>
+        <v>2.14115</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.14628</v>
+        <v>2.0519</v>
       </c>
       <c r="C70" t="n">
-        <v>2.01193</v>
+        <v>2.21091</v>
       </c>
       <c r="D70" t="n">
-        <v>2.13543</v>
+        <v>2.12206</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.17923</v>
+        <v>2.0279</v>
       </c>
       <c r="C71" t="n">
-        <v>1.96664</v>
+        <v>2.09186</v>
       </c>
       <c r="D71" t="n">
-        <v>2.13062</v>
+        <v>2.17055</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.09745</v>
+        <v>2.0436</v>
       </c>
       <c r="C72" t="n">
-        <v>2.00551</v>
+        <v>2.19034</v>
       </c>
       <c r="D72" t="n">
-        <v>2.21724</v>
+        <v>2.18958</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.15515</v>
+        <v>2.07666</v>
       </c>
       <c r="C73" t="n">
-        <v>2.04804</v>
+        <v>2.15806</v>
       </c>
       <c r="D73" t="n">
-        <v>2.26596</v>
+        <v>2.20632</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.21688</v>
+        <v>2.15069</v>
       </c>
       <c r="C74" t="n">
-        <v>2.0669</v>
+        <v>2.17622</v>
       </c>
       <c r="D74" t="n">
-        <v>2.25872</v>
+        <v>2.27512</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.15382</v>
+        <v>2.12838</v>
       </c>
       <c r="C75" t="n">
-        <v>2.07742</v>
+        <v>2.32346</v>
       </c>
       <c r="D75" t="n">
-        <v>2.28789</v>
+        <v>2.3976</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.24782</v>
+        <v>2.19601</v>
       </c>
       <c r="C76" t="n">
-        <v>2.08122</v>
+        <v>2.22173</v>
       </c>
       <c r="D76" t="n">
-        <v>2.31919</v>
+        <v>2.33497</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.29176</v>
+        <v>2.18214</v>
       </c>
       <c r="C77" t="n">
-        <v>2.14928</v>
+        <v>2.30235</v>
       </c>
       <c r="D77" t="n">
-        <v>2.36209</v>
+        <v>2.36404</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.26696</v>
+        <v>2.22746</v>
       </c>
       <c r="C78" t="n">
-        <v>2.26368</v>
+        <v>2.50822</v>
       </c>
       <c r="D78" t="n">
-        <v>2.63684</v>
+        <v>2.71248</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.23456</v>
+        <v>2.29655</v>
       </c>
       <c r="C79" t="n">
-        <v>2.31063</v>
+        <v>2.47031</v>
       </c>
       <c r="D79" t="n">
-        <v>2.60073</v>
+        <v>2.79171</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.34559</v>
+        <v>2.35624</v>
       </c>
       <c r="C80" t="n">
-        <v>2.31653</v>
+        <v>2.51738</v>
       </c>
       <c r="D80" t="n">
-        <v>2.64696</v>
+        <v>2.71426</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.34493</v>
+        <v>2.3351</v>
       </c>
       <c r="C81" t="n">
-        <v>2.33134</v>
+        <v>2.54476</v>
       </c>
       <c r="D81" t="n">
-        <v>2.69942</v>
+        <v>2.82087</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.3968</v>
+        <v>2.34999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.31838</v>
+        <v>2.53365</v>
       </c>
       <c r="D82" t="n">
-        <v>2.82015</v>
+        <v>2.80658</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.33557</v>
+        <v>2.32064</v>
       </c>
       <c r="C83" t="n">
-        <v>2.36151</v>
+        <v>2.49479</v>
       </c>
       <c r="D83" t="n">
-        <v>2.76331</v>
+        <v>2.76489</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.4681</v>
+        <v>2.41534</v>
       </c>
       <c r="C84" t="n">
-        <v>2.34696</v>
+        <v>2.51067</v>
       </c>
       <c r="D84" t="n">
-        <v>2.82126</v>
+        <v>2.82913</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.48877</v>
+        <v>2.47005</v>
       </c>
       <c r="C85" t="n">
-        <v>2.39496</v>
+        <v>2.55881</v>
       </c>
       <c r="D85" t="n">
-        <v>2.82358</v>
+        <v>2.85247</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.49064</v>
+        <v>2.41213</v>
       </c>
       <c r="C86" t="n">
-        <v>2.39869</v>
+        <v>2.57048</v>
       </c>
       <c r="D86" t="n">
-        <v>2.84006</v>
+        <v>2.86259</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.49134</v>
+        <v>2.48199</v>
       </c>
       <c r="C87" t="n">
-        <v>2.42423</v>
+        <v>2.58175</v>
       </c>
       <c r="D87" t="n">
-        <v>2.88749</v>
+        <v>2.89447</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.57135</v>
+        <v>2.51109</v>
       </c>
       <c r="C88" t="n">
-        <v>2.43626</v>
+        <v>2.64601</v>
       </c>
       <c r="D88" t="n">
-        <v>2.86635</v>
+        <v>2.9552</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.56046</v>
+        <v>2.51425</v>
       </c>
       <c r="C89" t="n">
-        <v>2.47662</v>
+        <v>2.63543</v>
       </c>
       <c r="D89" t="n">
-        <v>2.89774</v>
+        <v>2.9655</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.57976</v>
+        <v>2.53712</v>
       </c>
       <c r="C90" t="n">
-        <v>2.4718</v>
+        <v>2.72141</v>
       </c>
       <c r="D90" t="n">
-        <v>2.93857</v>
+        <v>2.99784</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.58031</v>
+        <v>2.55971</v>
       </c>
       <c r="C91" t="n">
-        <v>2.48051</v>
+        <v>2.73515</v>
       </c>
       <c r="D91" t="n">
-        <v>2.98178</v>
+        <v>3.03706</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.57196</v>
+        <v>2.57789</v>
       </c>
       <c r="C92" t="n">
-        <v>2.63905</v>
+        <v>2.9708</v>
       </c>
       <c r="D92" t="n">
-        <v>3.14526</v>
+        <v>3.19886</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.66291</v>
+        <v>2.56238</v>
       </c>
       <c r="C93" t="n">
-        <v>2.64432</v>
+        <v>2.90059</v>
       </c>
       <c r="D93" t="n">
-        <v>3.21814</v>
+        <v>3.20036</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.6239</v>
+        <v>2.60194</v>
       </c>
       <c r="C94" t="n">
-        <v>2.74779</v>
+        <v>2.99918</v>
       </c>
       <c r="D94" t="n">
-        <v>3.2063</v>
+        <v>3.18524</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.65235</v>
+        <v>2.62555</v>
       </c>
       <c r="C95" t="n">
-        <v>2.69909</v>
+        <v>2.87704</v>
       </c>
       <c r="D95" t="n">
-        <v>3.269</v>
+        <v>3.30697</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.65347</v>
+        <v>2.72089</v>
       </c>
       <c r="C96" t="n">
-        <v>2.75991</v>
+        <v>2.91151</v>
       </c>
       <c r="D96" t="n">
-        <v>3.394</v>
+        <v>3.28004</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.70915</v>
+        <v>2.68555</v>
       </c>
       <c r="C97" t="n">
-        <v>2.76308</v>
+        <v>2.91898</v>
       </c>
       <c r="D97" t="n">
-        <v>3.30577</v>
+        <v>3.33833</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.87688</v>
+        <v>2.85416</v>
       </c>
       <c r="C98" t="n">
-        <v>2.86274</v>
+        <v>2.99614</v>
       </c>
       <c r="D98" t="n">
-        <v>3.31236</v>
+        <v>3.28435</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.85676</v>
+        <v>2.83038</v>
       </c>
       <c r="C99" t="n">
-        <v>2.92875</v>
+        <v>2.97072</v>
       </c>
       <c r="D99" t="n">
-        <v>3.33045</v>
+        <v>3.28252</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.8779</v>
+        <v>2.83527</v>
       </c>
       <c r="C100" t="n">
-        <v>2.87133</v>
+        <v>3.03539</v>
       </c>
       <c r="D100" t="n">
-        <v>3.29059</v>
+        <v>3.3218</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.92841</v>
+        <v>2.80173</v>
       </c>
       <c r="C101" t="n">
-        <v>2.84492</v>
+        <v>3.05522</v>
       </c>
       <c r="D101" t="n">
-        <v>3.34227</v>
+        <v>3.42829</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.94447</v>
+        <v>2.85106</v>
       </c>
       <c r="C102" t="n">
-        <v>2.92687</v>
+        <v>3.06603</v>
       </c>
       <c r="D102" t="n">
-        <v>3.38212</v>
+        <v>3.35943</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.92572</v>
+        <v>2.96192</v>
       </c>
       <c r="C103" t="n">
-        <v>2.90909</v>
+        <v>3.10296</v>
       </c>
       <c r="D103" t="n">
-        <v>3.38716</v>
+        <v>3.35836</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.98402</v>
+        <v>2.91096</v>
       </c>
       <c r="C104" t="n">
-        <v>2.97433</v>
+        <v>3.08103</v>
       </c>
       <c r="D104" t="n">
-        <v>3.42572</v>
+        <v>3.47164</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>3.03221</v>
+        <v>2.96579</v>
       </c>
       <c r="C105" t="n">
-        <v>3.01721</v>
+        <v>3.09751</v>
       </c>
       <c r="D105" t="n">
-        <v>3.46208</v>
+        <v>3.51859</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>3.08618</v>
+        <v>2.94542</v>
       </c>
       <c r="C106" t="n">
-        <v>2.93639</v>
+        <v>3.15046</v>
       </c>
       <c r="D106" t="n">
-        <v>3.40266</v>
+        <v>3.46712</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>3.08185</v>
+        <v>2.93926</v>
       </c>
       <c r="C107" t="n">
-        <v>3.29637</v>
+        <v>3.39761</v>
       </c>
       <c r="D107" t="n">
-        <v>3.80354</v>
+        <v>3.75658</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>3.1339</v>
+        <v>2.97218</v>
       </c>
       <c r="C108" t="n">
-        <v>3.37185</v>
+        <v>3.4094</v>
       </c>
       <c r="D108" t="n">
-        <v>3.8497</v>
+        <v>3.76296</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.14125</v>
+        <v>3.03263</v>
       </c>
       <c r="C109" t="n">
-        <v>3.38045</v>
+        <v>3.51063</v>
       </c>
       <c r="D109" t="n">
-        <v>3.86697</v>
+        <v>3.77893</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.19008</v>
+        <v>3.02007</v>
       </c>
       <c r="C110" t="n">
-        <v>3.38088</v>
+        <v>3.44009</v>
       </c>
       <c r="D110" t="n">
-        <v>3.88293</v>
+        <v>3.79526</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.22594</v>
+        <v>3.06125</v>
       </c>
       <c r="C111" t="n">
-        <v>3.42601</v>
+        <v>3.51494</v>
       </c>
       <c r="D111" t="n">
-        <v>3.88528</v>
+        <v>3.82817</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.40235</v>
+        <v>3.19153</v>
       </c>
       <c r="C112" t="n">
-        <v>3.4958</v>
+        <v>3.47876</v>
       </c>
       <c r="D112" t="n">
-        <v>3.97814</v>
+        <v>3.91327</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.47509</v>
+        <v>3.27937</v>
       </c>
       <c r="C113" t="n">
-        <v>3.49015</v>
+        <v>3.54601</v>
       </c>
       <c r="D113" t="n">
-        <v>4.02388</v>
+        <v>3.95861</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.48805</v>
+        <v>3.35924</v>
       </c>
       <c r="C114" t="n">
-        <v>3.47523</v>
+        <v>3.57997</v>
       </c>
       <c r="D114" t="n">
-        <v>4.06052</v>
+        <v>3.94267</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.51744</v>
+        <v>3.32701</v>
       </c>
       <c r="C115" t="n">
-        <v>3.54998</v>
+        <v>3.5893</v>
       </c>
       <c r="D115" t="n">
-        <v>4.05868</v>
+        <v>4.07875</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.5479</v>
+        <v>3.34174</v>
       </c>
       <c r="C116" t="n">
-        <v>3.60097</v>
+        <v>3.62874</v>
       </c>
       <c r="D116" t="n">
-        <v>4.15476</v>
+        <v>3.98418</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.46045</v>
+        <v>3.33322</v>
       </c>
       <c r="C117" t="n">
-        <v>3.59078</v>
+        <v>3.71107</v>
       </c>
       <c r="D117" t="n">
-        <v>4.10579</v>
+        <v>4.11081</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.57074</v>
+        <v>3.42447</v>
       </c>
       <c r="C118" t="n">
-        <v>3.68459</v>
+        <v>3.7241</v>
       </c>
       <c r="D118" t="n">
-        <v>4.21286</v>
+        <v>4.11155</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.70039</v>
+        <v>3.50537</v>
       </c>
       <c r="C119" t="n">
-        <v>3.75271</v>
+        <v>3.75317</v>
       </c>
       <c r="D119" t="n">
-        <v>4.25169</v>
+        <v>4.29486</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5044729999999999</v>
+        <v>0.467227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.813904</v>
+        <v>0.769006</v>
       </c>
       <c r="D2" t="n">
-        <v>0.530258</v>
+        <v>0.533789</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.47323</v>
+        <v>0.470428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8041509999999999</v>
+        <v>0.7899620000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.537604</v>
+        <v>0.5399890000000001</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.458253</v>
+        <v>0.451902</v>
       </c>
       <c r="C4" t="n">
-        <v>0.796126</v>
+        <v>0.820892</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5311399999999999</v>
+        <v>0.547378</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.480753</v>
+        <v>0.468813</v>
       </c>
       <c r="C5" t="n">
-        <v>0.803607</v>
+        <v>0.809213</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53501</v>
+        <v>0.544147</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.468031</v>
+        <v>0.453798</v>
       </c>
       <c r="C6" t="n">
-        <v>0.811967</v>
+        <v>0.768433</v>
       </c>
       <c r="D6" t="n">
-        <v>0.533058</v>
+        <v>0.526531</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.472675</v>
+        <v>0.45712</v>
       </c>
       <c r="C7" t="n">
-        <v>0.816254</v>
+        <v>0.8072589999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.557289</v>
+        <v>0.542643</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.46917</v>
+        <v>0.453908</v>
       </c>
       <c r="C8" t="n">
-        <v>0.830369</v>
+        <v>0.805449</v>
       </c>
       <c r="D8" t="n">
-        <v>0.555028</v>
+        <v>0.541699</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.474303</v>
+        <v>0.458309</v>
       </c>
       <c r="C9" t="n">
-        <v>0.824475</v>
+        <v>0.7895529999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.554357</v>
+        <v>0.540856</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.472761</v>
+        <v>0.467345</v>
       </c>
       <c r="C10" t="n">
-        <v>0.839542</v>
+        <v>0.806248</v>
       </c>
       <c r="D10" t="n">
-        <v>0.589207</v>
+        <v>0.560326</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.481754</v>
+        <v>0.471184</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8423310000000001</v>
+        <v>0.79867</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5665249999999999</v>
+        <v>0.558709</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.476279</v>
+        <v>0.467119</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8432809999999999</v>
+        <v>0.81435</v>
       </c>
       <c r="D12" t="n">
-        <v>0.576067</v>
+        <v>0.567825</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.512506</v>
+        <v>0.487456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.848653</v>
+        <v>0.810553</v>
       </c>
       <c r="D13" t="n">
-        <v>0.595964</v>
+        <v>0.571893</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5001640000000001</v>
+        <v>0.484631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.847879</v>
+        <v>0.830794</v>
       </c>
       <c r="D14" t="n">
-        <v>0.573367</v>
+        <v>0.56203</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.495465</v>
+        <v>0.480804</v>
       </c>
       <c r="C15" t="n">
-        <v>0.853857</v>
+        <v>0.811527</v>
       </c>
       <c r="D15" t="n">
-        <v>0.581249</v>
+        <v>0.57394</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.511628</v>
+        <v>0.484243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.840834</v>
+        <v>0.824191</v>
       </c>
       <c r="D16" t="n">
-        <v>0.586221</v>
+        <v>0.577554</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.501058</v>
+        <v>0.486753</v>
       </c>
       <c r="C17" t="n">
-        <v>0.858636</v>
+        <v>0.829662</v>
       </c>
       <c r="D17" t="n">
-        <v>0.582722</v>
+        <v>0.58963</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.506463</v>
+        <v>0.486296</v>
       </c>
       <c r="C18" t="n">
-        <v>0.909545</v>
+        <v>0.835862</v>
       </c>
       <c r="D18" t="n">
-        <v>0.684446</v>
+        <v>0.580995</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.602994</v>
+        <v>0.481081</v>
       </c>
       <c r="C19" t="n">
-        <v>1.11777</v>
+        <v>0.81828</v>
       </c>
       <c r="D19" t="n">
-        <v>0.66965</v>
+        <v>0.589775</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.573809</v>
+        <v>0.489452</v>
       </c>
       <c r="C20" t="n">
-        <v>0.897806</v>
+        <v>0.833265</v>
       </c>
       <c r="D20" t="n">
-        <v>0.607975</v>
+        <v>0.595438</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.543565</v>
+        <v>0.492275</v>
       </c>
       <c r="C21" t="n">
-        <v>0.943163</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.62197</v>
+        <v>0.597367</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.529236</v>
+        <v>0.509692</v>
       </c>
       <c r="C22" t="n">
-        <v>0.975423</v>
+        <v>0.922795</v>
       </c>
       <c r="D22" t="n">
-        <v>0.641916</v>
+        <v>0.617997</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5476</v>
+        <v>0.494556</v>
       </c>
       <c r="C23" t="n">
-        <v>0.960523</v>
+        <v>0.909806</v>
       </c>
       <c r="D23" t="n">
-        <v>0.659201</v>
+        <v>0.620577</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.522386</v>
+        <v>0.523782</v>
       </c>
       <c r="C24" t="n">
-        <v>0.929854</v>
+        <v>0.884647</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6160949999999999</v>
+        <v>0.642388</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.525015</v>
+        <v>0.518415</v>
       </c>
       <c r="C25" t="n">
-        <v>0.941791</v>
+        <v>0.9044180000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.624512</v>
+        <v>0.649085</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.527731</v>
+        <v>0.542785</v>
       </c>
       <c r="C26" t="n">
-        <v>0.955028</v>
+        <v>0.909906</v>
       </c>
       <c r="D26" t="n">
-        <v>0.630008</v>
+        <v>0.618472</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.652524</v>
+        <v>0.581126</v>
       </c>
       <c r="C27" t="n">
-        <v>0.958539</v>
+        <v>0.9160509999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.62304</v>
+        <v>0.687276</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6307739999999999</v>
+        <v>0.610196</v>
       </c>
       <c r="C28" t="n">
-        <v>1.01135</v>
+        <v>0.917283</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6337159999999999</v>
+        <v>0.645568</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6524529999999999</v>
+        <v>0.596738</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0242</v>
+        <v>0.940699</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6551129999999999</v>
+        <v>0.650135</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.652931</v>
+        <v>0.609464</v>
       </c>
       <c r="C30" t="n">
-        <v>1.01539</v>
+        <v>0.929351</v>
       </c>
       <c r="D30" t="n">
-        <v>0.665677</v>
+        <v>0.667344</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.698882</v>
+        <v>0.613089</v>
       </c>
       <c r="C31" t="n">
-        <v>1.06654</v>
+        <v>0.919212</v>
       </c>
       <c r="D31" t="n">
-        <v>0.722155</v>
+        <v>0.665089</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.669974</v>
+        <v>0.64049</v>
       </c>
       <c r="C32" t="n">
-        <v>1.15062</v>
+        <v>0.924308</v>
       </c>
       <c r="D32" t="n">
-        <v>0.723613</v>
+        <v>0.6681550000000001</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.723603</v>
+        <v>0.640381</v>
       </c>
       <c r="C33" t="n">
-        <v>1.12561</v>
+        <v>0.946819</v>
       </c>
       <c r="D33" t="n">
-        <v>0.739796</v>
+        <v>0.69847</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.738011</v>
+        <v>0.65744</v>
       </c>
       <c r="C34" t="n">
-        <v>1.17037</v>
+        <v>0.964156</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7588510000000001</v>
+        <v>0.691782</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.779457</v>
+        <v>0.66464</v>
       </c>
       <c r="C35" t="n">
-        <v>1.41605</v>
+        <v>1.06566</v>
       </c>
       <c r="D35" t="n">
-        <v>0.923615</v>
+        <v>0.810145</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.809341</v>
+        <v>0.698428</v>
       </c>
       <c r="C36" t="n">
-        <v>1.32709</v>
+        <v>1.08283</v>
       </c>
       <c r="D36" t="n">
-        <v>0.884678</v>
+        <v>0.824108</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.816504</v>
+        <v>0.713971</v>
       </c>
       <c r="C37" t="n">
-        <v>1.56288</v>
+        <v>1.0908</v>
       </c>
       <c r="D37" t="n">
-        <v>0.999656</v>
+        <v>0.839618</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.839226</v>
+        <v>0.724871</v>
       </c>
       <c r="C38" t="n">
-        <v>1.65351</v>
+        <v>1.12178</v>
       </c>
       <c r="D38" t="n">
-        <v>0.950105</v>
+        <v>0.858221</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.837928</v>
+        <v>0.7446700000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>1.55211</v>
+        <v>1.13309</v>
       </c>
       <c r="D39" t="n">
-        <v>1.01638</v>
+        <v>0.877341</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.871735</v>
+        <v>0.751819</v>
       </c>
       <c r="C40" t="n">
-        <v>1.53073</v>
+        <v>1.13721</v>
       </c>
       <c r="D40" t="n">
-        <v>1.00844</v>
+        <v>0.89642</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.06832</v>
+        <v>0.867021</v>
       </c>
       <c r="C41" t="n">
-        <v>1.5796</v>
+        <v>1.18562</v>
       </c>
       <c r="D41" t="n">
-        <v>1.1277</v>
+        <v>0.931577</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.11528</v>
+        <v>0.889989</v>
       </c>
       <c r="C42" t="n">
-        <v>1.87555</v>
+        <v>1.2238</v>
       </c>
       <c r="D42" t="n">
-        <v>1.20862</v>
+        <v>0.959297</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.17378</v>
+        <v>0.89833</v>
       </c>
       <c r="C43" t="n">
-        <v>1.99382</v>
+        <v>1.22123</v>
       </c>
       <c r="D43" t="n">
-        <v>1.16491</v>
+        <v>0.9782690000000001</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.22884</v>
+        <v>0.913641</v>
       </c>
       <c r="C44" t="n">
-        <v>2.10852</v>
+        <v>1.24126</v>
       </c>
       <c r="D44" t="n">
-        <v>1.23587</v>
+        <v>1.01443</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.21255</v>
+        <v>0.960225</v>
       </c>
       <c r="C45" t="n">
-        <v>2.19818</v>
+        <v>1.32969</v>
       </c>
       <c r="D45" t="n">
-        <v>1.20529</v>
+        <v>1.04485</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.24732</v>
+        <v>0.985113</v>
       </c>
       <c r="C46" t="n">
-        <v>2.17015</v>
+        <v>1.3124</v>
       </c>
       <c r="D46" t="n">
-        <v>1.32738</v>
+        <v>1.09099</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.31355</v>
+        <v>0.982392</v>
       </c>
       <c r="C47" t="n">
-        <v>2.25054</v>
+        <v>1.3575</v>
       </c>
       <c r="D47" t="n">
-        <v>1.41115</v>
+        <v>1.12264</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.28696</v>
+        <v>1.00888</v>
       </c>
       <c r="C48" t="n">
-        <v>2.40578</v>
+        <v>1.39067</v>
       </c>
       <c r="D48" t="n">
-        <v>1.43307</v>
+        <v>1.13238</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.33437</v>
+        <v>1.03013</v>
       </c>
       <c r="C49" t="n">
-        <v>2.43307</v>
+        <v>1.46081</v>
       </c>
       <c r="D49" t="n">
-        <v>1.44065</v>
+        <v>1.18642</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.39989</v>
+        <v>1.07213</v>
       </c>
       <c r="C50" t="n">
-        <v>2.86971</v>
+        <v>1.63516</v>
       </c>
       <c r="D50" t="n">
-        <v>1.77397</v>
+        <v>1.30517</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.46344</v>
+        <v>1.069</v>
       </c>
       <c r="C51" t="n">
-        <v>2.64278</v>
+        <v>1.7187</v>
       </c>
       <c r="D51" t="n">
-        <v>1.7822</v>
+        <v>1.33211</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.56575</v>
+        <v>1.09136</v>
       </c>
       <c r="C52" t="n">
-        <v>2.9773</v>
+        <v>1.83018</v>
       </c>
       <c r="D52" t="n">
-        <v>1.84696</v>
+        <v>1.39468</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.52942</v>
+        <v>1.13942</v>
       </c>
       <c r="C53" t="n">
-        <v>2.90118</v>
+        <v>1.83384</v>
       </c>
       <c r="D53" t="n">
-        <v>1.89732</v>
+        <v>1.42576</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.56295</v>
+        <v>1.14252</v>
       </c>
       <c r="C54" t="n">
-        <v>3.06318</v>
+        <v>1.98703</v>
       </c>
       <c r="D54" t="n">
-        <v>2.01676</v>
+        <v>1.49382</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.67439</v>
+        <v>1.19504</v>
       </c>
       <c r="C55" t="n">
-        <v>3.13345</v>
+        <v>2.00673</v>
       </c>
       <c r="D55" t="n">
-        <v>2.102</v>
+        <v>1.49586</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.89159</v>
+        <v>1.37574</v>
       </c>
       <c r="C56" t="n">
-        <v>3.12901</v>
+        <v>1.91616</v>
       </c>
       <c r="D56" t="n">
-        <v>2.30172</v>
+        <v>1.55301</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.92824</v>
+        <v>1.34529</v>
       </c>
       <c r="C57" t="n">
-        <v>3.25716</v>
+        <v>1.9605</v>
       </c>
       <c r="D57" t="n">
-        <v>2.2685</v>
+        <v>1.61933</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>2.00714</v>
+        <v>1.38453</v>
       </c>
       <c r="C58" t="n">
-        <v>3.38398</v>
+        <v>2.07236</v>
       </c>
       <c r="D58" t="n">
-        <v>2.3032</v>
+        <v>1.63507</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.92911</v>
+        <v>1.40689</v>
       </c>
       <c r="C59" t="n">
-        <v>3.31247</v>
+        <v>2.11079</v>
       </c>
       <c r="D59" t="n">
-        <v>2.48399</v>
+        <v>1.69063</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.98598</v>
+        <v>1.44873</v>
       </c>
       <c r="C60" t="n">
-        <v>3.28656</v>
+        <v>2.19697</v>
       </c>
       <c r="D60" t="n">
-        <v>2.48253</v>
+        <v>1.74369</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>2.03671</v>
+        <v>1.50264</v>
       </c>
       <c r="C61" t="n">
-        <v>3.4572</v>
+        <v>2.25437</v>
       </c>
       <c r="D61" t="n">
-        <v>2.58241</v>
+        <v>1.85749</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.98928</v>
+        <v>1.52014</v>
       </c>
       <c r="C62" t="n">
-        <v>3.53002</v>
+        <v>2.42658</v>
       </c>
       <c r="D62" t="n">
-        <v>2.70146</v>
+        <v>1.82846</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>2.04444</v>
+        <v>1.57141</v>
       </c>
       <c r="C63" t="n">
-        <v>3.60742</v>
+        <v>2.35918</v>
       </c>
       <c r="D63" t="n">
-        <v>2.65599</v>
+        <v>1.90901</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>2.08584</v>
+        <v>1.6148</v>
       </c>
       <c r="C64" t="n">
-        <v>3.51809</v>
+        <v>2.54097</v>
       </c>
       <c r="D64" t="n">
-        <v>2.79947</v>
+        <v>2.06816</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>2.0654</v>
+        <v>1.63079</v>
       </c>
       <c r="C65" t="n">
-        <v>3.65889</v>
+        <v>2.5646</v>
       </c>
       <c r="D65" t="n">
-        <v>2.95534</v>
+        <v>2.0968</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>2.10457</v>
+        <v>1.72343</v>
       </c>
       <c r="C66" t="n">
-        <v>3.59449</v>
+        <v>2.6451</v>
       </c>
       <c r="D66" t="n">
-        <v>2.94159</v>
+        <v>2.29351</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>2.2192</v>
+        <v>1.7305</v>
       </c>
       <c r="C67" t="n">
-        <v>3.72771</v>
+        <v>2.7422</v>
       </c>
       <c r="D67" t="n">
-        <v>2.97695</v>
+        <v>2.24254</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.14645</v>
+        <v>1.78991</v>
       </c>
       <c r="C68" t="n">
-        <v>3.59286</v>
+        <v>2.72806</v>
       </c>
       <c r="D68" t="n">
-        <v>2.97142</v>
+        <v>2.32148</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.12324</v>
+        <v>1.75528</v>
       </c>
       <c r="C69" t="n">
-        <v>3.65903</v>
+        <v>2.76532</v>
       </c>
       <c r="D69" t="n">
-        <v>3.0663</v>
+        <v>2.38746</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.24129</v>
+        <v>1.88589</v>
       </c>
       <c r="C70" t="n">
-        <v>3.84521</v>
+        <v>2.80694</v>
       </c>
       <c r="D70" t="n">
-        <v>3.1249</v>
+        <v>2.4268</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.3722</v>
+        <v>1.92619</v>
       </c>
       <c r="C71" t="n">
-        <v>3.7652</v>
+        <v>2.87093</v>
       </c>
       <c r="D71" t="n">
-        <v>3.45064</v>
+        <v>2.53253</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.46851</v>
+        <v>1.96192</v>
       </c>
       <c r="C72" t="n">
-        <v>3.84491</v>
+        <v>2.91103</v>
       </c>
       <c r="D72" t="n">
-        <v>3.40097</v>
+        <v>2.61766</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.46126</v>
+        <v>1.9871</v>
       </c>
       <c r="C73" t="n">
-        <v>4.15945</v>
+        <v>2.98011</v>
       </c>
       <c r="D73" t="n">
-        <v>3.39679</v>
+        <v>2.59596</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.35674</v>
+        <v>2.00247</v>
       </c>
       <c r="C74" t="n">
-        <v>4.06914</v>
+        <v>2.9999</v>
       </c>
       <c r="D74" t="n">
-        <v>3.48316</v>
+        <v>2.70463</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.48289</v>
+        <v>2.02312</v>
       </c>
       <c r="C75" t="n">
-        <v>4.06089</v>
+        <v>3.02729</v>
       </c>
       <c r="D75" t="n">
-        <v>3.46914</v>
+        <v>2.70023</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.49943</v>
+        <v>2.07726</v>
       </c>
       <c r="C76" t="n">
-        <v>4.04968</v>
+        <v>3.18202</v>
       </c>
       <c r="D76" t="n">
-        <v>3.5046</v>
+        <v>2.84832</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.50509</v>
+        <v>2.13553</v>
       </c>
       <c r="C77" t="n">
-        <v>4.19972</v>
+        <v>3.18946</v>
       </c>
       <c r="D77" t="n">
-        <v>3.58982</v>
+        <v>2.88664</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.47903</v>
+        <v>2.15135</v>
       </c>
       <c r="C78" t="n">
-        <v>4.28138</v>
+        <v>3.33076</v>
       </c>
       <c r="D78" t="n">
-        <v>3.66353</v>
+        <v>3.01774</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.51675</v>
+        <v>2.17058</v>
       </c>
       <c r="C79" t="n">
-        <v>4.33013</v>
+        <v>3.36546</v>
       </c>
       <c r="D79" t="n">
-        <v>3.70292</v>
+        <v>2.98734</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.47552</v>
+        <v>2.21171</v>
       </c>
       <c r="C80" t="n">
-        <v>4.30862</v>
+        <v>3.46553</v>
       </c>
       <c r="D80" t="n">
-        <v>3.76979</v>
+        <v>3.09052</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.52539</v>
+        <v>2.18184</v>
       </c>
       <c r="C81" t="n">
-        <v>4.35327</v>
+        <v>3.43769</v>
       </c>
       <c r="D81" t="n">
-        <v>3.83425</v>
+        <v>3.14468</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.57533</v>
+        <v>2.26476</v>
       </c>
       <c r="C82" t="n">
-        <v>4.37127</v>
+        <v>3.51211</v>
       </c>
       <c r="D82" t="n">
-        <v>3.90667</v>
+        <v>3.14468</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.60006</v>
+        <v>2.29759</v>
       </c>
       <c r="C83" t="n">
-        <v>4.4494</v>
+        <v>3.54941</v>
       </c>
       <c r="D83" t="n">
-        <v>3.94838</v>
+        <v>3.25564</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.70818</v>
+        <v>2.41766</v>
       </c>
       <c r="C84" t="n">
-        <v>4.45925</v>
+        <v>3.65557</v>
       </c>
       <c r="D84" t="n">
-        <v>3.89194</v>
+        <v>3.27289</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.71319</v>
+        <v>2.41801</v>
       </c>
       <c r="C85" t="n">
-        <v>4.50554</v>
+        <v>3.64983</v>
       </c>
       <c r="D85" t="n">
-        <v>3.92998</v>
+        <v>3.33233</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.74974</v>
+        <v>2.45559</v>
       </c>
       <c r="C86" t="n">
-        <v>4.48079</v>
+        <v>3.63087</v>
       </c>
       <c r="D86" t="n">
-        <v>3.953</v>
+        <v>3.47857</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.72511</v>
+        <v>2.40144</v>
       </c>
       <c r="C87" t="n">
-        <v>4.5426</v>
+        <v>3.6217</v>
       </c>
       <c r="D87" t="n">
-        <v>4.07055</v>
+        <v>3.44685</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.70126</v>
+        <v>2.4793</v>
       </c>
       <c r="C88" t="n">
-        <v>4.58804</v>
+        <v>3.73113</v>
       </c>
       <c r="D88" t="n">
-        <v>4.15913</v>
+        <v>3.45311</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.77228</v>
+        <v>2.51274</v>
       </c>
       <c r="C89" t="n">
-        <v>4.49547</v>
+        <v>3.76305</v>
       </c>
       <c r="D89" t="n">
-        <v>4.02647</v>
+        <v>3.53374</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.74095</v>
+        <v>2.56736</v>
       </c>
       <c r="C90" t="n">
-        <v>4.63021</v>
+        <v>3.87123</v>
       </c>
       <c r="D90" t="n">
-        <v>4.04854</v>
+        <v>3.52854</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.97542</v>
+        <v>2.61088</v>
       </c>
       <c r="C91" t="n">
-        <v>4.85022</v>
+        <v>3.96966</v>
       </c>
       <c r="D91" t="n">
-        <v>4.05046</v>
+        <v>3.64248</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.7951</v>
+        <v>2.59097</v>
       </c>
       <c r="C92" t="n">
-        <v>4.67246</v>
+        <v>4.04854</v>
       </c>
       <c r="D92" t="n">
-        <v>4.22365</v>
+        <v>3.68798</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.92194</v>
+        <v>2.61268</v>
       </c>
       <c r="C93" t="n">
-        <v>5.04183</v>
+        <v>4.07894</v>
       </c>
       <c r="D93" t="n">
-        <v>4.37773</v>
+        <v>3.66697</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.81516</v>
+        <v>2.58803</v>
       </c>
       <c r="C94" t="n">
-        <v>4.93661</v>
+        <v>4.07372</v>
       </c>
       <c r="D94" t="n">
-        <v>4.29483</v>
+        <v>3.80905</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.2205</v>
+        <v>2.63096</v>
       </c>
       <c r="C95" t="n">
-        <v>5.0323</v>
+        <v>4.15354</v>
       </c>
       <c r="D95" t="n">
-        <v>4.39911</v>
+        <v>3.91258</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.87137</v>
+        <v>2.69693</v>
       </c>
       <c r="C96" t="n">
-        <v>4.95605</v>
+        <v>4.15247</v>
       </c>
       <c r="D96" t="n">
-        <v>4.44453</v>
+        <v>3.87517</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.97328</v>
+        <v>2.71492</v>
       </c>
       <c r="C97" t="n">
-        <v>4.97785</v>
+        <v>4.1484</v>
       </c>
       <c r="D97" t="n">
-        <v>4.49043</v>
+        <v>3.94729</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.16524</v>
+        <v>2.7884</v>
       </c>
       <c r="C98" t="n">
-        <v>5.02294</v>
+        <v>4.25519</v>
       </c>
       <c r="D98" t="n">
-        <v>4.385</v>
+        <v>4.02334</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.14</v>
+        <v>2.84532</v>
       </c>
       <c r="C99" t="n">
-        <v>5.09729</v>
+        <v>4.29821</v>
       </c>
       <c r="D99" t="n">
-        <v>4.41704</v>
+        <v>3.98538</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.19732</v>
+        <v>2.91264</v>
       </c>
       <c r="C100" t="n">
-        <v>5.0998</v>
+        <v>4.36316</v>
       </c>
       <c r="D100" t="n">
-        <v>4.58807</v>
+        <v>3.99347</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.28848</v>
+        <v>2.93154</v>
       </c>
       <c r="C101" t="n">
-        <v>5.2332</v>
+        <v>4.32094</v>
       </c>
       <c r="D101" t="n">
-        <v>4.87749</v>
+        <v>4.19009</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.43908</v>
+        <v>2.94473</v>
       </c>
       <c r="C102" t="n">
-        <v>5.36492</v>
+        <v>4.51768</v>
       </c>
       <c r="D102" t="n">
-        <v>4.71184</v>
+        <v>4.06226</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.53261</v>
+        <v>2.96763</v>
       </c>
       <c r="C103" t="n">
-        <v>5.50165</v>
+        <v>4.41493</v>
       </c>
       <c r="D103" t="n">
-        <v>4.78531</v>
+        <v>4.16734</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.29698</v>
+        <v>2.96904</v>
       </c>
       <c r="C104" t="n">
-        <v>5.34682</v>
+        <v>4.52034</v>
       </c>
       <c r="D104" t="n">
-        <v>4.67338</v>
+        <v>4.2066</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.46881</v>
+        <v>3.01672</v>
       </c>
       <c r="C105" t="n">
-        <v>5.42251</v>
+        <v>4.52426</v>
       </c>
       <c r="D105" t="n">
-        <v>4.76619</v>
+        <v>4.23146</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.35293</v>
+        <v>3.05369</v>
       </c>
       <c r="C106" t="n">
-        <v>5.3981</v>
+        <v>4.54768</v>
       </c>
       <c r="D106" t="n">
-        <v>4.71723</v>
+        <v>4.24192</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.39977</v>
+        <v>3.07499</v>
       </c>
       <c r="C107" t="n">
-        <v>5.81144</v>
+        <v>4.77977</v>
       </c>
       <c r="D107" t="n">
-        <v>5.05543</v>
+        <v>4.49574</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.53025</v>
+        <v>3.11155</v>
       </c>
       <c r="C108" t="n">
-        <v>6.21045</v>
+        <v>4.82517</v>
       </c>
       <c r="D108" t="n">
-        <v>5.15127</v>
+        <v>4.51601</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.518</v>
+        <v>3.09642</v>
       </c>
       <c r="C109" t="n">
-        <v>6.06021</v>
+        <v>4.83296</v>
       </c>
       <c r="D109" t="n">
-        <v>5.15575</v>
+        <v>4.55281</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.4698</v>
+        <v>3.12952</v>
       </c>
       <c r="C110" t="n">
-        <v>5.7679</v>
+        <v>4.87783</v>
       </c>
       <c r="D110" t="n">
-        <v>4.88106</v>
+        <v>4.6122</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.34811</v>
+        <v>3.208</v>
       </c>
       <c r="C111" t="n">
-        <v>5.41017</v>
+        <v>4.92649</v>
       </c>
       <c r="D111" t="n">
-        <v>4.87646</v>
+        <v>4.64482</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.54373</v>
+        <v>3.40361</v>
       </c>
       <c r="C112" t="n">
-        <v>5.45423</v>
+        <v>5.04448</v>
       </c>
       <c r="D112" t="n">
-        <v>4.86393</v>
+        <v>4.67626</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.58663</v>
+        <v>3.40355</v>
       </c>
       <c r="C113" t="n">
-        <v>5.53563</v>
+        <v>5.05902</v>
       </c>
       <c r="D113" t="n">
-        <v>4.90558</v>
+        <v>4.67316</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.5986</v>
+        <v>3.46942</v>
       </c>
       <c r="C114" t="n">
-        <v>5.5576</v>
+        <v>5.09595</v>
       </c>
       <c r="D114" t="n">
-        <v>4.961</v>
+        <v>4.85136</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.65544</v>
+        <v>3.56868</v>
       </c>
       <c r="C115" t="n">
-        <v>5.56331</v>
+        <v>5.16552</v>
       </c>
       <c r="D115" t="n">
-        <v>5.01914</v>
+        <v>4.99539</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.66229</v>
+        <v>3.64271</v>
       </c>
       <c r="C116" t="n">
-        <v>5.67698</v>
+        <v>5.17288</v>
       </c>
       <c r="D116" t="n">
-        <v>5.11235</v>
+        <v>4.80752</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.80531</v>
+        <v>3.4986</v>
       </c>
       <c r="C117" t="n">
-        <v>5.64397</v>
+        <v>5.32545</v>
       </c>
       <c r="D117" t="n">
-        <v>5.18314</v>
+        <v>5.03962</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.74736</v>
+        <v>3.62855</v>
       </c>
       <c r="C118" t="n">
-        <v>5.74352</v>
+        <v>5.31898</v>
       </c>
       <c r="D118" t="n">
-        <v>5.22015</v>
+        <v>5.10559</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.79523</v>
+        <v>3.69888</v>
       </c>
       <c r="C119" t="n">
-        <v>5.81295</v>
+        <v>5.43427</v>
       </c>
       <c r="D119" t="n">
-        <v>5.242</v>
+        <v>5.01534</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.392612</v>
+        <v>0.387605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.792335</v>
+        <v>0.77179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.518828</v>
+        <v>0.502966</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.424834</v>
+        <v>0.409018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.791122</v>
+        <v>0.769769</v>
       </c>
       <c r="D3" t="n">
-        <v>0.519606</v>
+        <v>0.503934</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.425766</v>
+        <v>0.41473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.797939</v>
+        <v>0.761062</v>
       </c>
       <c r="D4" t="n">
-        <v>0.528435</v>
+        <v>0.5159820000000001</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.430098</v>
+        <v>0.415319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.789813</v>
+        <v>0.769804</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53179</v>
+        <v>0.520555</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.423986</v>
+        <v>0.417603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.801876</v>
+        <v>0.793663</v>
       </c>
       <c r="D6" t="n">
-        <v>0.532577</v>
+        <v>0.508896</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.420365</v>
+        <v>0.415954</v>
       </c>
       <c r="C7" t="n">
-        <v>0.791233</v>
+        <v>0.785014</v>
       </c>
       <c r="D7" t="n">
-        <v>0.538483</v>
+        <v>0.518106</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.428944</v>
+        <v>0.416297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.81808</v>
+        <v>0.796233</v>
       </c>
       <c r="D8" t="n">
-        <v>0.533241</v>
+        <v>0.535232</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.426925</v>
+        <v>0.416783</v>
       </c>
       <c r="C9" t="n">
-        <v>0.819011</v>
+        <v>0.7916800000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.549759</v>
+        <v>0.544753</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.43015</v>
+        <v>0.422645</v>
       </c>
       <c r="C10" t="n">
-        <v>0.838957</v>
+        <v>0.8263</v>
       </c>
       <c r="D10" t="n">
-        <v>0.550255</v>
+        <v>0.538819</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.431159</v>
+        <v>0.421132</v>
       </c>
       <c r="C11" t="n">
-        <v>0.820977</v>
+        <v>0.814037</v>
       </c>
       <c r="D11" t="n">
-        <v>0.552656</v>
+        <v>0.540609</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.428216</v>
+        <v>0.423856</v>
       </c>
       <c r="C12" t="n">
-        <v>0.829739</v>
+        <v>0.798085</v>
       </c>
       <c r="D12" t="n">
-        <v>0.553431</v>
+        <v>0.542413</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.438413</v>
+        <v>0.421328</v>
       </c>
       <c r="C13" t="n">
-        <v>0.832349</v>
+        <v>0.818134</v>
       </c>
       <c r="D13" t="n">
-        <v>0.563319</v>
+        <v>0.555375</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.430403</v>
+        <v>0.419369</v>
       </c>
       <c r="C14" t="n">
-        <v>0.848312</v>
+        <v>0.830228</v>
       </c>
       <c r="D14" t="n">
-        <v>0.562022</v>
+        <v>0.5626989999999999</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.430703</v>
+        <v>0.424659</v>
       </c>
       <c r="C15" t="n">
-        <v>0.839912</v>
+        <v>0.824835</v>
       </c>
       <c r="D15" t="n">
-        <v>0.574426</v>
+        <v>0.560473</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.437162</v>
+        <v>0.423057</v>
       </c>
       <c r="C16" t="n">
-        <v>0.846306</v>
+        <v>0.826417</v>
       </c>
       <c r="D16" t="n">
-        <v>0.568607</v>
+        <v>0.563949</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.461267</v>
+        <v>0.446034</v>
       </c>
       <c r="C17" t="n">
-        <v>0.871169</v>
+        <v>0.843405</v>
       </c>
       <c r="D17" t="n">
-        <v>0.577091</v>
+        <v>0.563577</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.465531</v>
+        <v>0.463195</v>
       </c>
       <c r="C18" t="n">
-        <v>0.861027</v>
+        <v>0.835856</v>
       </c>
       <c r="D18" t="n">
-        <v>0.575255</v>
+        <v>0.571105</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.469281</v>
+        <v>0.466826</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8798550000000001</v>
+        <v>0.861998</v>
       </c>
       <c r="D19" t="n">
-        <v>0.592742</v>
+        <v>0.576964</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.459337</v>
+        <v>0.466006</v>
       </c>
       <c r="C20" t="n">
-        <v>0.88613</v>
+        <v>0.868826</v>
       </c>
       <c r="D20" t="n">
-        <v>0.592069</v>
+        <v>0.592969</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.468679</v>
+        <v>0.458966</v>
       </c>
       <c r="C21" t="n">
-        <v>0.885451</v>
+        <v>0.876974</v>
       </c>
       <c r="D21" t="n">
-        <v>0.606166</v>
+        <v>0.588368</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.468038</v>
+        <v>0.464471</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8972290000000001</v>
+        <v>0.897332</v>
       </c>
       <c r="D22" t="n">
-        <v>0.595993</v>
+        <v>0.590284</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.468366</v>
+        <v>0.475484</v>
       </c>
       <c r="C23" t="n">
-        <v>0.896649</v>
+        <v>0.9018040000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.59804</v>
+        <v>0.597287</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.462242</v>
+        <v>0.469008</v>
       </c>
       <c r="C24" t="n">
-        <v>0.91159</v>
+        <v>0.9151860000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.608635</v>
+        <v>0.610989</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.481019</v>
+        <v>0.472385</v>
       </c>
       <c r="C25" t="n">
-        <v>0.927663</v>
+        <v>0.915801</v>
       </c>
       <c r="D25" t="n">
-        <v>0.611436</v>
+        <v>0.607496</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.474774</v>
+        <v>0.465493</v>
       </c>
       <c r="C26" t="n">
-        <v>0.904405</v>
+        <v>0.868467</v>
       </c>
       <c r="D26" t="n">
-        <v>0.622934</v>
+        <v>0.606475</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.470844</v>
+        <v>0.467645</v>
       </c>
       <c r="C27" t="n">
-        <v>0.887892</v>
+        <v>0.902867</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6496459999999999</v>
+        <v>0.605345</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.479816</v>
+        <v>0.470117</v>
       </c>
       <c r="C28" t="n">
-        <v>0.898662</v>
+        <v>0.891489</v>
       </c>
       <c r="D28" t="n">
-        <v>0.649333</v>
+        <v>0.622734</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.486152</v>
+        <v>0.493862</v>
       </c>
       <c r="C29" t="n">
-        <v>0.912761</v>
+        <v>0.882528</v>
       </c>
       <c r="D29" t="n">
-        <v>0.644819</v>
+        <v>0.617886</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.497762</v>
+        <v>0.477246</v>
       </c>
       <c r="C30" t="n">
-        <v>0.933518</v>
+        <v>0.903169</v>
       </c>
       <c r="D30" t="n">
-        <v>0.664469</v>
+        <v>0.636285</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.534423</v>
+        <v>0.485091</v>
       </c>
       <c r="C31" t="n">
-        <v>0.940647</v>
+        <v>0.924818</v>
       </c>
       <c r="D31" t="n">
-        <v>0.669373</v>
+        <v>0.630521</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.524099</v>
+        <v>0.521246</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0031</v>
+        <v>0.926733</v>
       </c>
       <c r="D32" t="n">
-        <v>0.671552</v>
+        <v>0.669937</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.535026</v>
+        <v>0.534173</v>
       </c>
       <c r="C33" t="n">
-        <v>0.994328</v>
+        <v>0.945864</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6986250000000001</v>
+        <v>0.666333</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.550863</v>
+        <v>0.544554</v>
       </c>
       <c r="C34" t="n">
-        <v>1.02002</v>
+        <v>0.945278</v>
       </c>
       <c r="D34" t="n">
-        <v>0.721257</v>
+        <v>0.685819</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5764629999999999</v>
+        <v>0.547868</v>
       </c>
       <c r="C35" t="n">
-        <v>1.03711</v>
+        <v>0.99233</v>
       </c>
       <c r="D35" t="n">
-        <v>0.720426</v>
+        <v>0.729699</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.580585</v>
+        <v>0.581067</v>
       </c>
       <c r="C36" t="n">
-        <v>1.03593</v>
+        <v>1.00318</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7307439999999999</v>
+        <v>0.70499</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.582122</v>
+        <v>0.581295</v>
       </c>
       <c r="C37" t="n">
-        <v>1.05833</v>
+        <v>1.04678</v>
       </c>
       <c r="D37" t="n">
-        <v>0.774829</v>
+        <v>0.7206050000000001</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.591258</v>
+        <v>0.596699</v>
       </c>
       <c r="C38" t="n">
-        <v>1.09528</v>
+        <v>1.05906</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7917650000000001</v>
+        <v>0.7560789999999999</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.613747</v>
+        <v>0.61563</v>
       </c>
       <c r="C39" t="n">
-        <v>1.15254</v>
+        <v>1.11646</v>
       </c>
       <c r="D39" t="n">
-        <v>0.790316</v>
+        <v>0.790583</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.629279</v>
+        <v>0.637642</v>
       </c>
       <c r="C40" t="n">
-        <v>1.10081</v>
+        <v>1.09852</v>
       </c>
       <c r="D40" t="n">
-        <v>0.839765</v>
+        <v>0.839293</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.672455</v>
+        <v>0.628942</v>
       </c>
       <c r="C41" t="n">
-        <v>1.14194</v>
+        <v>1.12797</v>
       </c>
       <c r="D41" t="n">
-        <v>0.874688</v>
+        <v>0.823066</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.653267</v>
+        <v>0.648427</v>
       </c>
       <c r="C42" t="n">
-        <v>1.1681</v>
+        <v>1.13724</v>
       </c>
       <c r="D42" t="n">
-        <v>0.897674</v>
+        <v>0.87198</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.687665</v>
+        <v>0.678406</v>
       </c>
       <c r="C43" t="n">
-        <v>1.23473</v>
+        <v>1.20937</v>
       </c>
       <c r="D43" t="n">
-        <v>0.920492</v>
+        <v>0.903883</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.704537</v>
+        <v>0.683095</v>
       </c>
       <c r="C44" t="n">
-        <v>1.25139</v>
+        <v>1.19726</v>
       </c>
       <c r="D44" t="n">
-        <v>0.953159</v>
+        <v>0.9271160000000001</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.694381</v>
+        <v>0.705439</v>
       </c>
       <c r="C45" t="n">
-        <v>1.32118</v>
+        <v>1.20527</v>
       </c>
       <c r="D45" t="n">
-        <v>0.988456</v>
+        <v>0.95873</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.820918</v>
+        <v>0.798638</v>
       </c>
       <c r="C46" t="n">
-        <v>1.33911</v>
+        <v>1.32031</v>
       </c>
       <c r="D46" t="n">
-        <v>0.997092</v>
+        <v>0.998819</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.839942</v>
+        <v>0.824606</v>
       </c>
       <c r="C47" t="n">
-        <v>1.40709</v>
+        <v>1.33695</v>
       </c>
       <c r="D47" t="n">
-        <v>1.03465</v>
+        <v>1.03014</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.854122</v>
+        <v>0.852283</v>
       </c>
       <c r="C48" t="n">
-        <v>1.45966</v>
+        <v>1.37117</v>
       </c>
       <c r="D48" t="n">
-        <v>1.0726</v>
+        <v>1.07305</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.883711</v>
+        <v>0.844869</v>
       </c>
       <c r="C49" t="n">
-        <v>1.54214</v>
+        <v>1.43393</v>
       </c>
       <c r="D49" t="n">
-        <v>1.10509</v>
+        <v>1.09337</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.912673</v>
+        <v>0.87448</v>
       </c>
       <c r="C50" t="n">
-        <v>1.60343</v>
+        <v>1.48136</v>
       </c>
       <c r="D50" t="n">
-        <v>1.1169</v>
+        <v>1.1158</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.909063</v>
+        <v>0.885946</v>
       </c>
       <c r="C51" t="n">
-        <v>1.63229</v>
+        <v>1.55151</v>
       </c>
       <c r="D51" t="n">
-        <v>1.19128</v>
+        <v>1.1595</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.940088</v>
+        <v>0.919071</v>
       </c>
       <c r="C52" t="n">
-        <v>1.75695</v>
+        <v>1.56559</v>
       </c>
       <c r="D52" t="n">
-        <v>1.24675</v>
+        <v>1.19792</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.951828</v>
+        <v>0.951384</v>
       </c>
       <c r="C53" t="n">
-        <v>1.80812</v>
+        <v>1.63417</v>
       </c>
       <c r="D53" t="n">
-        <v>1.28102</v>
+        <v>1.23746</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.0059</v>
+        <v>0.991859</v>
       </c>
       <c r="C54" t="n">
-        <v>1.77106</v>
+        <v>1.76517</v>
       </c>
       <c r="D54" t="n">
-        <v>1.35233</v>
+        <v>1.32255</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.02035</v>
+        <v>1.00455</v>
       </c>
       <c r="C55" t="n">
-        <v>1.88578</v>
+        <v>1.79767</v>
       </c>
       <c r="D55" t="n">
-        <v>1.39879</v>
+        <v>1.37006</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.05604</v>
+        <v>1.02953</v>
       </c>
       <c r="C56" t="n">
-        <v>1.92681</v>
+        <v>1.80963</v>
       </c>
       <c r="D56" t="n">
-        <v>1.43931</v>
+        <v>1.44029</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.09903</v>
+        <v>1.06183</v>
       </c>
       <c r="C57" t="n">
-        <v>2.00821</v>
+        <v>1.91337</v>
       </c>
       <c r="D57" t="n">
-        <v>1.54849</v>
+        <v>1.44621</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.12933</v>
+        <v>1.09806</v>
       </c>
       <c r="C58" t="n">
-        <v>2.00959</v>
+        <v>1.90315</v>
       </c>
       <c r="D58" t="n">
-        <v>1.50937</v>
+        <v>1.52977</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.14391</v>
+        <v>1.12331</v>
       </c>
       <c r="C59" t="n">
-        <v>2.14258</v>
+        <v>2.16041</v>
       </c>
       <c r="D59" t="n">
-        <v>1.56789</v>
+        <v>1.56248</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.33703</v>
+        <v>1.32548</v>
       </c>
       <c r="C60" t="n">
-        <v>2.19694</v>
+        <v>2.26746</v>
       </c>
       <c r="D60" t="n">
-        <v>1.71399</v>
+        <v>1.65649</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.42333</v>
+        <v>1.38225</v>
       </c>
       <c r="C61" t="n">
-        <v>2.26282</v>
+        <v>2.2548</v>
       </c>
       <c r="D61" t="n">
-        <v>1.72433</v>
+        <v>1.71342</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.38453</v>
+        <v>1.44464</v>
       </c>
       <c r="C62" t="n">
-        <v>2.26188</v>
+        <v>2.49498</v>
       </c>
       <c r="D62" t="n">
-        <v>1.75905</v>
+        <v>1.79102</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.42223</v>
+        <v>1.49489</v>
       </c>
       <c r="C63" t="n">
-        <v>2.51915</v>
+        <v>2.56952</v>
       </c>
       <c r="D63" t="n">
-        <v>1.89376</v>
+        <v>1.85512</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.55543</v>
+        <v>1.50319</v>
       </c>
       <c r="C64" t="n">
-        <v>2.56663</v>
+        <v>2.62511</v>
       </c>
       <c r="D64" t="n">
-        <v>1.91191</v>
+        <v>1.92039</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.58229</v>
+        <v>1.54952</v>
       </c>
       <c r="C65" t="n">
-        <v>2.65795</v>
+        <v>2.66677</v>
       </c>
       <c r="D65" t="n">
-        <v>1.95664</v>
+        <v>2.02745</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.52849</v>
+        <v>1.562</v>
       </c>
       <c r="C66" t="n">
-        <v>2.91255</v>
+        <v>2.8485</v>
       </c>
       <c r="D66" t="n">
-        <v>2.01432</v>
+        <v>2.15028</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.58653</v>
+        <v>1.61797</v>
       </c>
       <c r="C67" t="n">
-        <v>2.65912</v>
+        <v>2.86268</v>
       </c>
       <c r="D67" t="n">
-        <v>2.18363</v>
+        <v>2.14517</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.68942</v>
+        <v>1.64668</v>
       </c>
       <c r="C68" t="n">
-        <v>2.6272</v>
+        <v>2.85211</v>
       </c>
       <c r="D68" t="n">
-        <v>2.24509</v>
+        <v>2.34604</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.65054</v>
+        <v>1.71368</v>
       </c>
       <c r="C69" t="n">
-        <v>2.73987</v>
+        <v>2.91714</v>
       </c>
       <c r="D69" t="n">
-        <v>2.3305</v>
+        <v>2.37738</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.69273</v>
+        <v>1.6616</v>
       </c>
       <c r="C70" t="n">
-        <v>2.80353</v>
+        <v>2.789</v>
       </c>
       <c r="D70" t="n">
-        <v>2.37806</v>
+        <v>2.50903</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.71384</v>
+        <v>1.74265</v>
       </c>
       <c r="C71" t="n">
-        <v>2.83644</v>
+        <v>3.11247</v>
       </c>
       <c r="D71" t="n">
-        <v>2.45867</v>
+        <v>2.49758</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.76694</v>
+        <v>1.78493</v>
       </c>
       <c r="C72" t="n">
-        <v>2.88737</v>
+        <v>3.2512</v>
       </c>
       <c r="D72" t="n">
-        <v>2.475</v>
+        <v>2.63202</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.7911</v>
+        <v>1.85927</v>
       </c>
       <c r="C73" t="n">
-        <v>3.03405</v>
+        <v>2.9936</v>
       </c>
       <c r="D73" t="n">
-        <v>2.69379</v>
+        <v>2.59166</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.97859</v>
+        <v>1.9801</v>
       </c>
       <c r="C74" t="n">
-        <v>3.18653</v>
+        <v>3.04797</v>
       </c>
       <c r="D74" t="n">
-        <v>2.64429</v>
+        <v>2.67205</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.98824</v>
+        <v>1.96111</v>
       </c>
       <c r="C75" t="n">
-        <v>3.13649</v>
+        <v>3.08785</v>
       </c>
       <c r="D75" t="n">
-        <v>2.79593</v>
+        <v>2.69899</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.03579</v>
+        <v>1.99705</v>
       </c>
       <c r="C76" t="n">
-        <v>3.34512</v>
+        <v>3.22694</v>
       </c>
       <c r="D76" t="n">
-        <v>2.90058</v>
+        <v>2.74322</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.07943</v>
+        <v>2.05542</v>
       </c>
       <c r="C77" t="n">
-        <v>3.47393</v>
+        <v>3.34969</v>
       </c>
       <c r="D77" t="n">
-        <v>2.83603</v>
+        <v>2.96019</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.108</v>
+        <v>2.17438</v>
       </c>
       <c r="C78" t="n">
-        <v>3.46459</v>
+        <v>3.45031</v>
       </c>
       <c r="D78" t="n">
-        <v>3.01497</v>
+        <v>2.94616</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.11934</v>
+        <v>2.11922</v>
       </c>
       <c r="C79" t="n">
-        <v>3.54718</v>
+        <v>3.52038</v>
       </c>
       <c r="D79" t="n">
-        <v>2.95953</v>
+        <v>3.01343</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.21195</v>
+        <v>2.15467</v>
       </c>
       <c r="C80" t="n">
-        <v>3.60904</v>
+        <v>3.55662</v>
       </c>
       <c r="D80" t="n">
-        <v>3.0796</v>
+        <v>3.13501</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.23002</v>
+        <v>2.18821</v>
       </c>
       <c r="C81" t="n">
-        <v>3.71237</v>
+        <v>3.73707</v>
       </c>
       <c r="D81" t="n">
-        <v>3.0103</v>
+        <v>3.20285</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.25465</v>
+        <v>2.29864</v>
       </c>
       <c r="C82" t="n">
-        <v>3.86528</v>
+        <v>3.93558</v>
       </c>
       <c r="D82" t="n">
-        <v>3.16298</v>
+        <v>3.27048</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.20546</v>
+        <v>2.28585</v>
       </c>
       <c r="C83" t="n">
-        <v>3.76329</v>
+        <v>3.9827</v>
       </c>
       <c r="D83" t="n">
-        <v>3.26703</v>
+        <v>3.23665</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.25166</v>
+        <v>2.29085</v>
       </c>
       <c r="C84" t="n">
-        <v>3.80311</v>
+        <v>3.93082</v>
       </c>
       <c r="D84" t="n">
-        <v>3.39019</v>
+        <v>3.33729</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.26663</v>
+        <v>2.25488</v>
       </c>
       <c r="C85" t="n">
-        <v>3.9891</v>
+        <v>3.84165</v>
       </c>
       <c r="D85" t="n">
-        <v>3.51519</v>
+        <v>3.36384</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.35997</v>
+        <v>2.34039</v>
       </c>
       <c r="C86" t="n">
-        <v>4.01747</v>
+        <v>3.91284</v>
       </c>
       <c r="D86" t="n">
-        <v>3.52213</v>
+        <v>3.49566</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.33473</v>
+        <v>2.36509</v>
       </c>
       <c r="C87" t="n">
-        <v>4.02455</v>
+        <v>4.09981</v>
       </c>
       <c r="D87" t="n">
-        <v>3.44754</v>
+        <v>3.56955</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.37964</v>
+        <v>2.36685</v>
       </c>
       <c r="C88" t="n">
-        <v>4.25302</v>
+        <v>4.11774</v>
       </c>
       <c r="D88" t="n">
-        <v>3.51762</v>
+        <v>3.63676</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.48915</v>
+        <v>2.5509</v>
       </c>
       <c r="C89" t="n">
-        <v>4.09719</v>
+        <v>4.20175</v>
       </c>
       <c r="D89" t="n">
-        <v>3.59922</v>
+        <v>3.63978</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.57131</v>
+        <v>2.55556</v>
       </c>
       <c r="C90" t="n">
-        <v>4.24885</v>
+        <v>4.27282</v>
       </c>
       <c r="D90" t="n">
-        <v>3.63757</v>
+        <v>3.69959</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.56611</v>
+        <v>2.55524</v>
       </c>
       <c r="C91" t="n">
-        <v>4.31775</v>
+        <v>4.31444</v>
       </c>
       <c r="D91" t="n">
-        <v>3.64201</v>
+        <v>3.68765</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.58162</v>
+        <v>2.61552</v>
       </c>
       <c r="C92" t="n">
-        <v>4.43474</v>
+        <v>4.37257</v>
       </c>
       <c r="D92" t="n">
-        <v>3.74095</v>
+        <v>3.65445</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.62997</v>
+        <v>2.62618</v>
       </c>
       <c r="C93" t="n">
-        <v>4.58541</v>
+        <v>4.42682</v>
       </c>
       <c r="D93" t="n">
-        <v>3.8624</v>
+        <v>3.75694</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.64784</v>
+        <v>2.70995</v>
       </c>
       <c r="C94" t="n">
-        <v>4.75091</v>
+        <v>4.56771</v>
       </c>
       <c r="D94" t="n">
-        <v>3.89822</v>
+        <v>3.79161</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.6623</v>
+        <v>2.62119</v>
       </c>
       <c r="C95" t="n">
-        <v>4.76573</v>
+        <v>4.58479</v>
       </c>
       <c r="D95" t="n">
-        <v>3.86786</v>
+        <v>3.82528</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.72226</v>
+        <v>2.68475</v>
       </c>
       <c r="C96" t="n">
-        <v>4.75401</v>
+        <v>4.76058</v>
       </c>
       <c r="D96" t="n">
-        <v>3.75886</v>
+        <v>3.9073</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.58829</v>
+        <v>2.65598</v>
       </c>
       <c r="C97" t="n">
-        <v>4.24131</v>
+        <v>4.34549</v>
       </c>
       <c r="D97" t="n">
-        <v>4.02728</v>
+        <v>3.97942</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.68035</v>
+        <v>2.73167</v>
       </c>
       <c r="C98" t="n">
-        <v>4.48339</v>
+        <v>4.41417</v>
       </c>
       <c r="D98" t="n">
-        <v>3.97526</v>
+        <v>3.979</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.75653</v>
+        <v>2.66612</v>
       </c>
       <c r="C99" t="n">
-        <v>4.5189</v>
+        <v>4.46749</v>
       </c>
       <c r="D99" t="n">
-        <v>3.94308</v>
+        <v>3.96906</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.73241</v>
+        <v>2.72617</v>
       </c>
       <c r="C100" t="n">
-        <v>4.58978</v>
+        <v>4.6562</v>
       </c>
       <c r="D100" t="n">
-        <v>4.07652</v>
+        <v>4.05762</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.7059</v>
+        <v>2.7387</v>
       </c>
       <c r="C101" t="n">
-        <v>4.69419</v>
+        <v>4.63568</v>
       </c>
       <c r="D101" t="n">
-        <v>4.04423</v>
+        <v>4.03714</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.78219</v>
+        <v>2.73908</v>
       </c>
       <c r="C102" t="n">
-        <v>4.74628</v>
+        <v>4.75591</v>
       </c>
       <c r="D102" t="n">
-        <v>4.10822</v>
+        <v>4.09082</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.92152</v>
+        <v>2.85904</v>
       </c>
       <c r="C103" t="n">
-        <v>4.84632</v>
+        <v>4.74349</v>
       </c>
       <c r="D103" t="n">
-        <v>4.12525</v>
+        <v>4.0867</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.95542</v>
+        <v>2.88756</v>
       </c>
       <c r="C104" t="n">
-        <v>4.94746</v>
+        <v>4.79475</v>
       </c>
       <c r="D104" t="n">
-        <v>4.12452</v>
+        <v>4.14459</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.9274</v>
+        <v>2.9307</v>
       </c>
       <c r="C105" t="n">
-        <v>5.03896</v>
+        <v>4.93279</v>
       </c>
       <c r="D105" t="n">
-        <v>4.19928</v>
+        <v>4.19806</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.91552</v>
+        <v>2.94279</v>
       </c>
       <c r="C106" t="n">
-        <v>5.06146</v>
+        <v>4.97657</v>
       </c>
       <c r="D106" t="n">
-        <v>4.1926</v>
+        <v>4.2148</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.93083</v>
+        <v>2.89561</v>
       </c>
       <c r="C107" t="n">
-        <v>5.15341</v>
+        <v>5.02833</v>
       </c>
       <c r="D107" t="n">
-        <v>4.23954</v>
+        <v>4.27243</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.97723</v>
+        <v>2.9176</v>
       </c>
       <c r="C108" t="n">
-        <v>5.24607</v>
+        <v>5.09388</v>
       </c>
       <c r="D108" t="n">
-        <v>4.26183</v>
+        <v>4.2847</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.04158</v>
+        <v>2.95145</v>
       </c>
       <c r="C109" t="n">
-        <v>5.28155</v>
+        <v>5.27688</v>
       </c>
       <c r="D109" t="n">
-        <v>4.32206</v>
+        <v>4.36075</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.02002</v>
+        <v>2.99904</v>
       </c>
       <c r="C110" t="n">
-        <v>5.4511</v>
+        <v>5.31094</v>
       </c>
       <c r="D110" t="n">
-        <v>4.27518</v>
+        <v>4.37262</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.04717</v>
+        <v>3.05451</v>
       </c>
       <c r="C111" t="n">
-        <v>5.0039</v>
+        <v>5.055</v>
       </c>
       <c r="D111" t="n">
-        <v>4.55291</v>
+        <v>4.56187</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.04108</v>
+        <v>3.05042</v>
       </c>
       <c r="C112" t="n">
-        <v>5.11037</v>
+        <v>5.04686</v>
       </c>
       <c r="D112" t="n">
-        <v>4.54082</v>
+        <v>4.53363</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.08814</v>
+        <v>3.10475</v>
       </c>
       <c r="C113" t="n">
-        <v>5.16238</v>
+        <v>5.15999</v>
       </c>
       <c r="D113" t="n">
-        <v>4.59267</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.10226</v>
+        <v>3.08457</v>
       </c>
       <c r="C114" t="n">
-        <v>5.26609</v>
+        <v>5.25618</v>
       </c>
       <c r="D114" t="n">
-        <v>4.63956</v>
+        <v>4.58511</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.1292</v>
+        <v>3.08372</v>
       </c>
       <c r="C115" t="n">
-        <v>5.3444</v>
+        <v>5.27685</v>
       </c>
       <c r="D115" t="n">
-        <v>4.65595</v>
+        <v>4.61468</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.18822</v>
+        <v>3.13429</v>
       </c>
       <c r="C116" t="n">
-        <v>5.42386</v>
+        <v>5.39656</v>
       </c>
       <c r="D116" t="n">
-        <v>4.6618</v>
+        <v>4.7664</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.26767</v>
+        <v>3.29324</v>
       </c>
       <c r="C117" t="n">
-        <v>5.48066</v>
+        <v>5.55412</v>
       </c>
       <c r="D117" t="n">
-        <v>4.69474</v>
+        <v>4.83758</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.32021</v>
+        <v>3.41994</v>
       </c>
       <c r="C118" t="n">
-        <v>5.62599</v>
+        <v>5.58609</v>
       </c>
       <c r="D118" t="n">
-        <v>4.75337</v>
+        <v>4.88885</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.31033</v>
+        <v>3.4018</v>
       </c>
       <c r="C119" t="n">
-        <v>5.63789</v>
+        <v>5.74671</v>
       </c>
       <c r="D119" t="n">
-        <v>4.75854</v>
+        <v>4.91784</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.461118</v>
+        <v>0.424235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.588147</v>
+        <v>0.625068</v>
       </c>
       <c r="D2" t="n">
-        <v>0.375609</v>
+        <v>0.396617</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.399385</v>
+        <v>0.426417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584562</v>
+        <v>0.613299</v>
       </c>
       <c r="D3" t="n">
-        <v>0.371371</v>
+        <v>0.386135</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.396401</v>
+        <v>0.435592</v>
       </c>
       <c r="C4" t="n">
-        <v>0.583766</v>
+        <v>0.619584</v>
       </c>
       <c r="D4" t="n">
-        <v>0.383409</v>
+        <v>0.393707</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.400673</v>
+        <v>0.413718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.607753</v>
+        <v>0.613224</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37829</v>
+        <v>0.400516</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.400889</v>
+        <v>0.420868</v>
       </c>
       <c r="C6" t="n">
-        <v>0.582203</v>
+        <v>0.597016</v>
       </c>
       <c r="D6" t="n">
-        <v>0.386352</v>
+        <v>0.404481</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.401697</v>
+        <v>0.420448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.593178</v>
+        <v>0.613926</v>
       </c>
       <c r="D7" t="n">
-        <v>0.378419</v>
+        <v>0.389086</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.437833</v>
+        <v>0.422169</v>
       </c>
       <c r="C8" t="n">
-        <v>0.60376</v>
+        <v>0.618923</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378801</v>
+        <v>0.405625</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.411623</v>
+        <v>0.428231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.597118</v>
+        <v>0.617182</v>
       </c>
       <c r="D9" t="n">
-        <v>0.388358</v>
+        <v>0.4086</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.418644</v>
+        <v>0.439119</v>
       </c>
       <c r="C10" t="n">
-        <v>0.604994</v>
+        <v>0.621468</v>
       </c>
       <c r="D10" t="n">
-        <v>0.397044</v>
+        <v>0.403045</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.428069</v>
+        <v>0.440732</v>
       </c>
       <c r="C11" t="n">
-        <v>0.603751</v>
+        <v>0.624605</v>
       </c>
       <c r="D11" t="n">
-        <v>0.389097</v>
+        <v>0.399271</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.434446</v>
+        <v>0.45365</v>
       </c>
       <c r="C12" t="n">
-        <v>0.645712</v>
+        <v>0.628051</v>
       </c>
       <c r="D12" t="n">
-        <v>0.389868</v>
+        <v>0.417218</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.413519</v>
+        <v>0.425018</v>
       </c>
       <c r="C13" t="n">
-        <v>0.607538</v>
+        <v>0.638216</v>
       </c>
       <c r="D13" t="n">
-        <v>0.393846</v>
+        <v>0.41329</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.420645</v>
+        <v>0.433527</v>
       </c>
       <c r="C14" t="n">
-        <v>0.607989</v>
+        <v>0.636208</v>
       </c>
       <c r="D14" t="n">
-        <v>0.406709</v>
+        <v>0.419548</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.408306</v>
+        <v>0.428729</v>
       </c>
       <c r="C15" t="n">
-        <v>0.604025</v>
+        <v>0.62951</v>
       </c>
       <c r="D15" t="n">
-        <v>0.397806</v>
+        <v>0.427157</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.420617</v>
+        <v>0.43998</v>
       </c>
       <c r="C16" t="n">
-        <v>0.620201</v>
+        <v>0.63559</v>
       </c>
       <c r="D16" t="n">
-        <v>0.403928</v>
+        <v>0.428839</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.423605</v>
+        <v>0.437827</v>
       </c>
       <c r="C17" t="n">
-        <v>0.609587</v>
+        <v>0.640574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.408189</v>
+        <v>0.425881</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.434507</v>
+        <v>0.452325</v>
       </c>
       <c r="C18" t="n">
-        <v>0.609055</v>
+        <v>0.64496</v>
       </c>
       <c r="D18" t="n">
-        <v>0.423249</v>
+        <v>0.437702</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.428084</v>
+        <v>0.452108</v>
       </c>
       <c r="C19" t="n">
-        <v>0.613445</v>
+        <v>0.649152</v>
       </c>
       <c r="D19" t="n">
-        <v>0.416578</v>
+        <v>0.431593</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.436974</v>
+        <v>0.448081</v>
       </c>
       <c r="C20" t="n">
-        <v>0.621418</v>
+        <v>0.64295</v>
       </c>
       <c r="D20" t="n">
-        <v>0.419044</v>
+        <v>0.443221</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4392</v>
+        <v>0.460406</v>
       </c>
       <c r="C21" t="n">
-        <v>0.638313</v>
+        <v>0.667036</v>
       </c>
       <c r="D21" t="n">
-        <v>0.410858</v>
+        <v>0.432751</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.452427</v>
+        <v>0.461758</v>
       </c>
       <c r="C22" t="n">
-        <v>0.673948</v>
+        <v>0.657139</v>
       </c>
       <c r="D22" t="n">
-        <v>0.414099</v>
+        <v>0.42872</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.468402</v>
+        <v>0.469516</v>
       </c>
       <c r="C23" t="n">
-        <v>0.663533</v>
+        <v>0.664978</v>
       </c>
       <c r="D23" t="n">
-        <v>0.42121</v>
+        <v>0.437863</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.458277</v>
+        <v>0.469907</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6500939999999999</v>
+        <v>0.661276</v>
       </c>
       <c r="D24" t="n">
-        <v>0.426565</v>
+        <v>0.451741</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.473722</v>
+        <v>0.487652</v>
       </c>
       <c r="C25" t="n">
-        <v>0.64672</v>
+        <v>0.675112</v>
       </c>
       <c r="D25" t="n">
-        <v>0.440611</v>
+        <v>0.444158</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459586</v>
+        <v>0.495155</v>
       </c>
       <c r="C26" t="n">
-        <v>0.648922</v>
+        <v>0.680112</v>
       </c>
       <c r="D26" t="n">
-        <v>0.429578</v>
+        <v>0.463458</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.549056</v>
+        <v>0.538458</v>
       </c>
       <c r="C27" t="n">
-        <v>0.671634</v>
+        <v>0.678118</v>
       </c>
       <c r="D27" t="n">
-        <v>0.440167</v>
+        <v>0.460694</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.52563</v>
+        <v>0.553121</v>
       </c>
       <c r="C28" t="n">
-        <v>0.673301</v>
+        <v>0.699906</v>
       </c>
       <c r="D28" t="n">
-        <v>0.447725</v>
+        <v>0.47877</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.54443</v>
+        <v>0.569304</v>
       </c>
       <c r="C29" t="n">
-        <v>0.675304</v>
+        <v>0.707676</v>
       </c>
       <c r="D29" t="n">
-        <v>0.486771</v>
+        <v>0.482674</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.561999</v>
+        <v>0.584196</v>
       </c>
       <c r="C30" t="n">
-        <v>0.672936</v>
+        <v>0.719997</v>
       </c>
       <c r="D30" t="n">
-        <v>0.473206</v>
+        <v>0.509246</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.612156</v>
+        <v>0.616449</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6716529999999999</v>
+        <v>0.705591</v>
       </c>
       <c r="D31" t="n">
-        <v>0.47012</v>
+        <v>0.493886</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.601041</v>
+        <v>0.611608</v>
       </c>
       <c r="C32" t="n">
-        <v>0.692818</v>
+        <v>0.716934</v>
       </c>
       <c r="D32" t="n">
-        <v>0.487047</v>
+        <v>0.505978</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.599869</v>
+        <v>0.628418</v>
       </c>
       <c r="C33" t="n">
-        <v>0.728658</v>
+        <v>0.724908</v>
       </c>
       <c r="D33" t="n">
-        <v>0.504365</v>
+        <v>0.503809</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.628846</v>
+        <v>0.639369</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7214390000000001</v>
+        <v>0.747922</v>
       </c>
       <c r="D34" t="n">
-        <v>0.522232</v>
+        <v>0.525928</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.631489</v>
+        <v>0.674367</v>
       </c>
       <c r="C35" t="n">
-        <v>0.772848</v>
+        <v>0.845391</v>
       </c>
       <c r="D35" t="n">
-        <v>0.593619</v>
+        <v>0.624933</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.652297</v>
+        <v>0.676248</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7815029999999999</v>
+        <v>0.829943</v>
       </c>
       <c r="D36" t="n">
-        <v>0.624926</v>
+        <v>0.6564489999999999</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6903589999999999</v>
+        <v>0.701783</v>
       </c>
       <c r="C37" t="n">
-        <v>0.796551</v>
+        <v>0.849127</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6479470000000001</v>
+        <v>0.669368</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.720081</v>
+        <v>0.712746</v>
       </c>
       <c r="C38" t="n">
-        <v>0.861739</v>
+        <v>0.861406</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6584</v>
+        <v>0.690204</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.704873</v>
+        <v>0.746667</v>
       </c>
       <c r="C39" t="n">
-        <v>0.909559</v>
+        <v>0.880649</v>
       </c>
       <c r="D39" t="n">
-        <v>0.685111</v>
+        <v>0.719193</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.727281</v>
+        <v>0.775138</v>
       </c>
       <c r="C40" t="n">
-        <v>0.849896</v>
+        <v>0.900803</v>
       </c>
       <c r="D40" t="n">
-        <v>0.693634</v>
+        <v>0.728704</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.852588</v>
+        <v>0.895994</v>
       </c>
       <c r="C41" t="n">
-        <v>0.889672</v>
+        <v>0.893625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.703948</v>
+        <v>0.74874</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.904146</v>
+        <v>0.922832</v>
       </c>
       <c r="C42" t="n">
-        <v>0.884861</v>
+        <v>0.924714</v>
       </c>
       <c r="D42" t="n">
-        <v>0.724287</v>
+        <v>0.778607</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.907481</v>
+        <v>0.943219</v>
       </c>
       <c r="C43" t="n">
-        <v>0.979622</v>
+        <v>0.977756</v>
       </c>
       <c r="D43" t="n">
-        <v>0.760112</v>
+        <v>0.800026</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.956672</v>
+        <v>0.974128</v>
       </c>
       <c r="C44" t="n">
-        <v>0.920189</v>
+        <v>0.961623</v>
       </c>
       <c r="D44" t="n">
-        <v>0.832768</v>
+        <v>0.8403890000000001</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.975452</v>
+        <v>1.00435</v>
       </c>
       <c r="C45" t="n">
-        <v>0.937837</v>
+        <v>1.02689</v>
       </c>
       <c r="D45" t="n">
-        <v>0.787774</v>
+        <v>0.8609830000000001</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>1.025</v>
+        <v>1.04759</v>
       </c>
       <c r="C46" t="n">
-        <v>1.00811</v>
+        <v>1.07168</v>
       </c>
       <c r="D46" t="n">
-        <v>0.830086</v>
+        <v>0.851765</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>1.06498</v>
+        <v>1.08431</v>
       </c>
       <c r="C47" t="n">
-        <v>1.06224</v>
+        <v>1.07489</v>
       </c>
       <c r="D47" t="n">
-        <v>0.856266</v>
+        <v>0.883271</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07213</v>
+        <v>1.08999</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0978</v>
+        <v>1.09441</v>
       </c>
       <c r="D48" t="n">
-        <v>0.870152</v>
+        <v>0.938025</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.09988</v>
+        <v>1.11564</v>
       </c>
       <c r="C49" t="n">
-        <v>1.15588</v>
+        <v>1.12962</v>
       </c>
       <c r="D49" t="n">
-        <v>0.917526</v>
+        <v>0.949823</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.16459</v>
+        <v>1.12658</v>
       </c>
       <c r="C50" t="n">
-        <v>1.38884</v>
+        <v>1.33808</v>
       </c>
       <c r="D50" t="n">
-        <v>1.16704</v>
+        <v>1.17611</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.18996</v>
+        <v>1.14448</v>
       </c>
       <c r="C51" t="n">
-        <v>1.38295</v>
+        <v>1.35331</v>
       </c>
       <c r="D51" t="n">
-        <v>1.16801</v>
+        <v>1.19373</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.22702</v>
+        <v>1.19263</v>
       </c>
       <c r="C52" t="n">
-        <v>1.42681</v>
+        <v>1.40531</v>
       </c>
       <c r="D52" t="n">
-        <v>1.24383</v>
+        <v>1.24343</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.29502</v>
+        <v>1.26255</v>
       </c>
       <c r="C53" t="n">
-        <v>1.43336</v>
+        <v>1.4338</v>
       </c>
       <c r="D53" t="n">
-        <v>1.26633</v>
+        <v>1.27878</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.25235</v>
+        <v>1.28467</v>
       </c>
       <c r="C54" t="n">
-        <v>1.46393</v>
+        <v>1.46187</v>
       </c>
       <c r="D54" t="n">
-        <v>1.28107</v>
+        <v>1.28249</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.40828</v>
+        <v>1.33527</v>
       </c>
       <c r="C55" t="n">
-        <v>1.49295</v>
+        <v>1.45395</v>
       </c>
       <c r="D55" t="n">
-        <v>1.38632</v>
+        <v>1.33012</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.54084</v>
+        <v>1.5043</v>
       </c>
       <c r="C56" t="n">
-        <v>1.5684</v>
+        <v>1.51602</v>
       </c>
       <c r="D56" t="n">
-        <v>1.38267</v>
+        <v>1.33253</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.53189</v>
+        <v>1.50661</v>
       </c>
       <c r="C57" t="n">
-        <v>1.5074</v>
+        <v>1.51839</v>
       </c>
       <c r="D57" t="n">
-        <v>1.37607</v>
+        <v>1.40877</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.60649</v>
+        <v>1.58742</v>
       </c>
       <c r="C58" t="n">
-        <v>1.54989</v>
+        <v>1.55051</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43961</v>
+        <v>1.4454</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.60368</v>
+        <v>1.58519</v>
       </c>
       <c r="C59" t="n">
-        <v>1.57671</v>
+        <v>1.57238</v>
       </c>
       <c r="D59" t="n">
-        <v>1.52176</v>
+        <v>1.45733</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.62502</v>
+        <v>1.62467</v>
       </c>
       <c r="C60" t="n">
-        <v>1.71994</v>
+        <v>1.61649</v>
       </c>
       <c r="D60" t="n">
-        <v>1.52436</v>
+        <v>1.47393</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.7532</v>
+        <v>1.67278</v>
       </c>
       <c r="C61" t="n">
-        <v>1.74442</v>
+        <v>1.74635</v>
       </c>
       <c r="D61" t="n">
-        <v>1.56231</v>
+        <v>1.54355</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.69621</v>
+        <v>1.68539</v>
       </c>
       <c r="C62" t="n">
-        <v>1.75062</v>
+        <v>1.66381</v>
       </c>
       <c r="D62" t="n">
-        <v>1.57959</v>
+        <v>1.55576</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.69563</v>
+        <v>1.69863</v>
       </c>
       <c r="C63" t="n">
-        <v>1.68498</v>
+        <v>1.70117</v>
       </c>
       <c r="D63" t="n">
-        <v>1.60243</v>
+        <v>1.60981</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.70569</v>
+        <v>1.71157</v>
       </c>
       <c r="C64" t="n">
-        <v>1.9044</v>
+        <v>1.87027</v>
       </c>
       <c r="D64" t="n">
-        <v>1.94576</v>
+        <v>1.88545</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.75263</v>
+        <v>1.77571</v>
       </c>
       <c r="C65" t="n">
-        <v>1.87151</v>
+        <v>1.85908</v>
       </c>
       <c r="D65" t="n">
-        <v>1.95002</v>
+        <v>1.96383</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.78449</v>
+        <v>1.77025</v>
       </c>
       <c r="C66" t="n">
-        <v>1.86918</v>
+        <v>1.91416</v>
       </c>
       <c r="D66" t="n">
-        <v>1.95002</v>
+        <v>1.95282</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.92352</v>
+        <v>1.83165</v>
       </c>
       <c r="C67" t="n">
-        <v>1.98738</v>
+        <v>1.9186</v>
       </c>
       <c r="D67" t="n">
-        <v>2.11037</v>
+        <v>2.00216</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.95898</v>
+        <v>1.86085</v>
       </c>
       <c r="C68" t="n">
-        <v>1.94435</v>
+        <v>1.87324</v>
       </c>
       <c r="D68" t="n">
-        <v>2.04573</v>
+        <v>2.03667</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.9694</v>
+        <v>1.86952</v>
       </c>
       <c r="C69" t="n">
-        <v>1.99728</v>
+        <v>1.93883</v>
       </c>
       <c r="D69" t="n">
-        <v>2.20085</v>
+        <v>2.05706</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.06731</v>
+        <v>1.98177</v>
       </c>
       <c r="C70" t="n">
-        <v>1.98348</v>
+        <v>1.93559</v>
       </c>
       <c r="D70" t="n">
-        <v>2.24307</v>
+        <v>2.06915</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.09598</v>
+        <v>2.00543</v>
       </c>
       <c r="C71" t="n">
-        <v>2.0408</v>
+        <v>1.98435</v>
       </c>
       <c r="D71" t="n">
-        <v>2.12373</v>
+        <v>2.13808</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.07708</v>
+        <v>2.0221</v>
       </c>
       <c r="C72" t="n">
-        <v>2.13698</v>
+        <v>1.99893</v>
       </c>
       <c r="D72" t="n">
-        <v>2.30152</v>
+        <v>2.20857</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.1891</v>
+        <v>2.07859</v>
       </c>
       <c r="C73" t="n">
-        <v>2.15782</v>
+        <v>2.03545</v>
       </c>
       <c r="D73" t="n">
-        <v>2.25175</v>
+        <v>2.25911</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.09826</v>
+        <v>2.09625</v>
       </c>
       <c r="C74" t="n">
-        <v>2.05021</v>
+        <v>2.07491</v>
       </c>
       <c r="D74" t="n">
-        <v>2.26424</v>
+        <v>2.25311</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.04542</v>
+        <v>2.09305</v>
       </c>
       <c r="C75" t="n">
-        <v>2.10234</v>
+        <v>2.08485</v>
       </c>
       <c r="D75" t="n">
-        <v>2.32092</v>
+        <v>2.27889</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.17973</v>
+        <v>2.13646</v>
       </c>
       <c r="C76" t="n">
-        <v>2.1678</v>
+        <v>2.09902</v>
       </c>
       <c r="D76" t="n">
-        <v>2.48598</v>
+        <v>2.32319</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.23425</v>
+        <v>2.17739</v>
       </c>
       <c r="C77" t="n">
-        <v>2.16816</v>
+        <v>2.15974</v>
       </c>
       <c r="D77" t="n">
-        <v>2.35028</v>
+        <v>2.37351</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.23753</v>
+        <v>2.19544</v>
       </c>
       <c r="C78" t="n">
-        <v>2.29103</v>
+        <v>2.31852</v>
       </c>
       <c r="D78" t="n">
-        <v>2.63968</v>
+        <v>2.54322</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.17209</v>
+        <v>2.20158</v>
       </c>
       <c r="C79" t="n">
-        <v>2.37162</v>
+        <v>2.27865</v>
       </c>
       <c r="D79" t="n">
-        <v>2.6392</v>
+        <v>2.61569</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.24875</v>
+        <v>2.19653</v>
       </c>
       <c r="C80" t="n">
-        <v>2.38527</v>
+        <v>2.3295</v>
       </c>
       <c r="D80" t="n">
-        <v>2.68048</v>
+        <v>2.70101</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.19456</v>
+        <v>2.24505</v>
       </c>
       <c r="C81" t="n">
-        <v>2.27561</v>
+        <v>2.35026</v>
       </c>
       <c r="D81" t="n">
-        <v>2.68897</v>
+        <v>2.66108</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.22861</v>
+        <v>2.25768</v>
       </c>
       <c r="C82" t="n">
-        <v>2.30662</v>
+        <v>2.33901</v>
       </c>
       <c r="D82" t="n">
-        <v>2.64904</v>
+        <v>2.74357</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.25535</v>
+        <v>2.26633</v>
       </c>
       <c r="C83" t="n">
-        <v>2.31761</v>
+        <v>2.39784</v>
       </c>
       <c r="D83" t="n">
-        <v>2.77152</v>
+        <v>2.74372</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.33608</v>
+        <v>2.41106</v>
       </c>
       <c r="C84" t="n">
-        <v>2.34425</v>
+        <v>2.39239</v>
       </c>
       <c r="D84" t="n">
-        <v>2.72055</v>
+        <v>2.7288</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.33084</v>
+        <v>2.37548</v>
       </c>
       <c r="C85" t="n">
-        <v>2.38855</v>
+        <v>2.46475</v>
       </c>
       <c r="D85" t="n">
-        <v>2.75111</v>
+        <v>2.78242</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.40408</v>
+        <v>2.38723</v>
       </c>
       <c r="C86" t="n">
-        <v>2.35965</v>
+        <v>2.47025</v>
       </c>
       <c r="D86" t="n">
-        <v>2.78174</v>
+        <v>2.80432</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.38674</v>
+        <v>2.44703</v>
       </c>
       <c r="C87" t="n">
-        <v>2.37733</v>
+        <v>2.48734</v>
       </c>
       <c r="D87" t="n">
-        <v>2.81081</v>
+        <v>2.88732</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.351</v>
+        <v>2.49208</v>
       </c>
       <c r="C88" t="n">
-        <v>2.44386</v>
+        <v>2.45452</v>
       </c>
       <c r="D88" t="n">
-        <v>2.85474</v>
+        <v>2.85742</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.43653</v>
+        <v>2.4374</v>
       </c>
       <c r="C89" t="n">
-        <v>2.4232</v>
+        <v>2.53602</v>
       </c>
       <c r="D89" t="n">
-        <v>2.87249</v>
+        <v>2.91534</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.45522</v>
+        <v>2.46741</v>
       </c>
       <c r="C90" t="n">
-        <v>2.46545</v>
+        <v>2.55098</v>
       </c>
       <c r="D90" t="n">
-        <v>2.90929</v>
+        <v>2.90771</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.445</v>
+        <v>2.57773</v>
       </c>
       <c r="C91" t="n">
-        <v>2.48667</v>
+        <v>2.57369</v>
       </c>
       <c r="D91" t="n">
-        <v>2.94144</v>
+        <v>2.93415</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.45846</v>
+        <v>2.5424</v>
       </c>
       <c r="C92" t="n">
-        <v>2.7021</v>
+        <v>2.72483</v>
       </c>
       <c r="D92" t="n">
-        <v>3.06302</v>
+        <v>3.22076</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.42983</v>
+        <v>2.53659</v>
       </c>
       <c r="C93" t="n">
-        <v>2.69888</v>
+        <v>2.74376</v>
       </c>
       <c r="D93" t="n">
-        <v>3.17977</v>
+        <v>3.28647</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.50765</v>
+        <v>2.5887</v>
       </c>
       <c r="C94" t="n">
-        <v>2.77881</v>
+        <v>2.80106</v>
       </c>
       <c r="D94" t="n">
-        <v>3.15252</v>
+        <v>3.25002</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.50339</v>
+        <v>2.68211</v>
       </c>
       <c r="C95" t="n">
-        <v>2.7179</v>
+        <v>2.79429</v>
       </c>
       <c r="D95" t="n">
-        <v>3.2479</v>
+        <v>3.27862</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.53852</v>
+        <v>2.66863</v>
       </c>
       <c r="C96" t="n">
-        <v>2.77448</v>
+        <v>2.88336</v>
       </c>
       <c r="D96" t="n">
-        <v>3.23348</v>
+        <v>3.35899</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.72049</v>
+        <v>2.63388</v>
       </c>
       <c r="C97" t="n">
-        <v>2.73309</v>
+        <v>2.8565</v>
       </c>
       <c r="D97" t="n">
-        <v>3.26302</v>
+        <v>3.31599</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.76951</v>
+        <v>2.76468</v>
       </c>
       <c r="C98" t="n">
-        <v>2.81297</v>
+        <v>2.93219</v>
       </c>
       <c r="D98" t="n">
-        <v>3.23418</v>
+        <v>3.29858</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.73121</v>
+        <v>2.75389</v>
       </c>
       <c r="C99" t="n">
-        <v>2.77924</v>
+        <v>2.93662</v>
       </c>
       <c r="D99" t="n">
-        <v>3.24662</v>
+        <v>3.28642</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.79382</v>
+        <v>2.82111</v>
       </c>
       <c r="C100" t="n">
-        <v>2.87258</v>
+        <v>2.96286</v>
       </c>
       <c r="D100" t="n">
-        <v>3.26974</v>
+        <v>3.36641</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.74891</v>
+        <v>2.86898</v>
       </c>
       <c r="C101" t="n">
-        <v>2.87341</v>
+        <v>2.95917</v>
       </c>
       <c r="D101" t="n">
-        <v>3.34075</v>
+        <v>3.36913</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.88965</v>
+        <v>2.93004</v>
       </c>
       <c r="C102" t="n">
-        <v>2.85974</v>
+        <v>3.02982</v>
       </c>
       <c r="D102" t="n">
-        <v>3.31586</v>
+        <v>3.35219</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.78272</v>
+        <v>2.89841</v>
       </c>
       <c r="C103" t="n">
-        <v>2.89135</v>
+        <v>3.04056</v>
       </c>
       <c r="D103" t="n">
-        <v>3.34528</v>
+        <v>3.40836</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.74063</v>
+        <v>2.90713</v>
       </c>
       <c r="C104" t="n">
-        <v>2.9181</v>
+        <v>3.04663</v>
       </c>
       <c r="D104" t="n">
-        <v>3.36098</v>
+        <v>3.39835</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.76618</v>
+        <v>2.96897</v>
       </c>
       <c r="C105" t="n">
-        <v>2.89564</v>
+        <v>3.06755</v>
       </c>
       <c r="D105" t="n">
-        <v>3.32837</v>
+        <v>3.52437</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.81289</v>
+        <v>3.0294</v>
       </c>
       <c r="C106" t="n">
-        <v>3.012</v>
+        <v>3.14396</v>
       </c>
       <c r="D106" t="n">
-        <v>3.37418</v>
+        <v>3.49443</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.8324</v>
+        <v>2.97468</v>
       </c>
       <c r="C107" t="n">
-        <v>3.30638</v>
+        <v>3.42147</v>
       </c>
       <c r="D107" t="n">
-        <v>3.67398</v>
+        <v>3.78742</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.84368</v>
+        <v>3.00701</v>
       </c>
       <c r="C108" t="n">
-        <v>3.30946</v>
+        <v>3.3896</v>
       </c>
       <c r="D108" t="n">
-        <v>3.71179</v>
+        <v>3.76344</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.82274</v>
+        <v>3.04548</v>
       </c>
       <c r="C109" t="n">
-        <v>3.31129</v>
+        <v>3.40911</v>
       </c>
       <c r="D109" t="n">
-        <v>3.61623</v>
+        <v>3.85026</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.88558</v>
+        <v>3.12981</v>
       </c>
       <c r="C110" t="n">
-        <v>3.3531</v>
+        <v>3.41801</v>
       </c>
       <c r="D110" t="n">
-        <v>3.68586</v>
+        <v>3.87359</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.88984</v>
+        <v>3.14245</v>
       </c>
       <c r="C111" t="n">
-        <v>3.42114</v>
+        <v>3.46459</v>
       </c>
       <c r="D111" t="n">
-        <v>3.78424</v>
+        <v>3.93238</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.07952</v>
+        <v>3.30821</v>
       </c>
       <c r="C112" t="n">
-        <v>3.39354</v>
+        <v>3.45125</v>
       </c>
       <c r="D112" t="n">
-        <v>3.71094</v>
+        <v>3.92731</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.08649</v>
+        <v>3.37126</v>
       </c>
       <c r="C113" t="n">
-        <v>3.35556</v>
+        <v>3.57743</v>
       </c>
       <c r="D113" t="n">
-        <v>3.7514</v>
+        <v>4.01684</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.04801</v>
+        <v>3.4661</v>
       </c>
       <c r="C114" t="n">
-        <v>3.42203</v>
+        <v>3.59207</v>
       </c>
       <c r="D114" t="n">
-        <v>3.78018</v>
+        <v>4.08165</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.09379</v>
+        <v>3.46584</v>
       </c>
       <c r="C115" t="n">
-        <v>3.46947</v>
+        <v>3.59626</v>
       </c>
       <c r="D115" t="n">
-        <v>3.76822</v>
+        <v>4.0691</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.17818</v>
+        <v>3.37344</v>
       </c>
       <c r="C116" t="n">
-        <v>3.4416</v>
+        <v>3.64884</v>
       </c>
       <c r="D116" t="n">
-        <v>3.8487</v>
+        <v>4.15171</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.17953</v>
+        <v>3.51118</v>
       </c>
       <c r="C117" t="n">
-        <v>3.5691</v>
+        <v>3.68228</v>
       </c>
       <c r="D117" t="n">
-        <v>3.88828</v>
+        <v>4.11391</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.25139</v>
+        <v>3.43173</v>
       </c>
       <c r="C118" t="n">
-        <v>3.51899</v>
+        <v>3.73375</v>
       </c>
       <c r="D118" t="n">
-        <v>4.0146</v>
+        <v>4.09783</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.33581</v>
+        <v>3.59895</v>
       </c>
       <c r="C119" t="n">
-        <v>3.69652</v>
+        <v>3.87766</v>
       </c>
       <c r="D119" t="n">
-        <v>4.0078</v>
+        <v>4.22574</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.459082</v>
+        <v>0.447281</v>
       </c>
       <c r="C2" t="n">
-        <v>0.802022</v>
+        <v>0.780623</v>
       </c>
       <c r="D2" t="n">
-        <v>0.517849</v>
+        <v>0.533959</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.456978</v>
+        <v>0.484286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75017</v>
+        <v>0.84838</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5184260000000001</v>
+        <v>0.570278</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.454832</v>
+        <v>0.481465</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761825</v>
+        <v>0.819546</v>
       </c>
       <c r="D4" t="n">
-        <v>0.539205</v>
+        <v>0.5532820000000001</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.446246</v>
+        <v>0.479501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7751710000000001</v>
+        <v>0.814438</v>
       </c>
       <c r="D5" t="n">
-        <v>0.555682</v>
+        <v>0.5373599999999999</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.449094</v>
+        <v>0.460801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.756092</v>
+        <v>0.812034</v>
       </c>
       <c r="D6" t="n">
-        <v>0.531546</v>
+        <v>0.54004</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439775</v>
+        <v>0.457956</v>
       </c>
       <c r="C7" t="n">
-        <v>0.794667</v>
+        <v>0.832296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.536059</v>
+        <v>0.545597</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.450892</v>
+        <v>0.452783</v>
       </c>
       <c r="C8" t="n">
-        <v>0.78096</v>
+        <v>0.823779</v>
       </c>
       <c r="D8" t="n">
-        <v>0.537611</v>
+        <v>0.553189</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.444233</v>
+        <v>0.458952</v>
       </c>
       <c r="C9" t="n">
-        <v>0.792551</v>
+        <v>0.832129</v>
       </c>
       <c r="D9" t="n">
-        <v>0.546416</v>
+        <v>0.55504</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.482418</v>
+        <v>0.460149</v>
       </c>
       <c r="C10" t="n">
-        <v>0.80874</v>
+        <v>0.8501880000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.549491</v>
+        <v>0.557194</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.457106</v>
+        <v>0.466559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.820927</v>
+        <v>0.830179</v>
       </c>
       <c r="D11" t="n">
-        <v>0.559051</v>
+        <v>0.5627180000000001</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.45701</v>
+        <v>0.476601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.798769</v>
+        <v>0.870309</v>
       </c>
       <c r="D12" t="n">
-        <v>0.552495</v>
+        <v>0.563275</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.465512</v>
+        <v>0.483969</v>
       </c>
       <c r="C13" t="n">
-        <v>0.808878</v>
+        <v>0.851518</v>
       </c>
       <c r="D13" t="n">
-        <v>0.569226</v>
+        <v>0.571415</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.470427</v>
+        <v>0.481588</v>
       </c>
       <c r="C14" t="n">
-        <v>0.81012</v>
+        <v>0.840714</v>
       </c>
       <c r="D14" t="n">
-        <v>0.557983</v>
+        <v>0.582109</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.483259</v>
+        <v>0.488397</v>
       </c>
       <c r="C15" t="n">
-        <v>0.808497</v>
+        <v>0.846261</v>
       </c>
       <c r="D15" t="n">
-        <v>0.574132</v>
+        <v>0.570549</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47617</v>
+        <v>0.486617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.812001</v>
+        <v>0.864818</v>
       </c>
       <c r="D16" t="n">
-        <v>0.567648</v>
+        <v>0.582317</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.474618</v>
+        <v>0.479827</v>
       </c>
       <c r="C17" t="n">
-        <v>0.81531</v>
+        <v>0.8614810000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.570085</v>
+        <v>0.585134</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.482357</v>
+        <v>0.489054</v>
       </c>
       <c r="C18" t="n">
-        <v>0.818953</v>
+        <v>0.858483</v>
       </c>
       <c r="D18" t="n">
-        <v>0.594178</v>
+        <v>0.585676</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.488332</v>
+        <v>0.494808</v>
       </c>
       <c r="C19" t="n">
-        <v>0.827277</v>
+        <v>0.878128</v>
       </c>
       <c r="D19" t="n">
-        <v>0.575434</v>
+        <v>0.588882</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.480123</v>
+        <v>0.491674</v>
       </c>
       <c r="C20" t="n">
-        <v>0.854522</v>
+        <v>0.876787</v>
       </c>
       <c r="D20" t="n">
-        <v>0.591444</v>
+        <v>0.601396</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.477792</v>
+        <v>0.507211</v>
       </c>
       <c r="C21" t="n">
-        <v>0.857773</v>
+        <v>0.891744</v>
       </c>
       <c r="D21" t="n">
-        <v>0.586184</v>
+        <v>0.592024</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.487769</v>
+        <v>0.502745</v>
       </c>
       <c r="C22" t="n">
-        <v>0.855557</v>
+        <v>0.9219039999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5928369999999999</v>
+        <v>0.613387</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.492074</v>
+        <v>0.505697</v>
       </c>
       <c r="C23" t="n">
-        <v>0.869034</v>
+        <v>0.896509</v>
       </c>
       <c r="D23" t="n">
-        <v>0.60764</v>
+        <v>0.628727</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481024</v>
+        <v>0.500621</v>
       </c>
       <c r="C24" t="n">
-        <v>0.864849</v>
+        <v>0.908317</v>
       </c>
       <c r="D24" t="n">
-        <v>0.640979</v>
+        <v>0.618736</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.506528</v>
+        <v>0.500898</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8663459999999999</v>
+        <v>0.924403</v>
       </c>
       <c r="D25" t="n">
-        <v>0.600839</v>
+        <v>0.612762</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.506982</v>
+        <v>0.516336</v>
       </c>
       <c r="C26" t="n">
-        <v>0.863502</v>
+        <v>0.9276219999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.604365</v>
+        <v>0.617273</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.57583</v>
+        <v>0.5725749999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8761949999999999</v>
+        <v>0.920188</v>
       </c>
       <c r="D27" t="n">
-        <v>0.623825</v>
+        <v>0.628078</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.588239</v>
+        <v>0.580075</v>
       </c>
       <c r="C28" t="n">
-        <v>0.889389</v>
+        <v>0.9313399999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.615992</v>
+        <v>0.632792</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5941419999999999</v>
+        <v>0.587774</v>
       </c>
       <c r="C29" t="n">
-        <v>0.897349</v>
+        <v>0.939767</v>
       </c>
       <c r="D29" t="n">
-        <v>0.631467</v>
+        <v>0.6355769999999999</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.597015</v>
+        <v>0.612414</v>
       </c>
       <c r="C30" t="n">
-        <v>0.958094</v>
+        <v>0.982993</v>
       </c>
       <c r="D30" t="n">
-        <v>0.672496</v>
+        <v>0.670161</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6329669999999999</v>
+        <v>0.6240520000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.910328</v>
+        <v>0.977452</v>
       </c>
       <c r="D31" t="n">
-        <v>0.644177</v>
+        <v>0.648132</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.636294</v>
+        <v>0.643802</v>
       </c>
       <c r="C32" t="n">
-        <v>0.965184</v>
+        <v>0.977685</v>
       </c>
       <c r="D32" t="n">
-        <v>0.685221</v>
+        <v>0.675297</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.689381</v>
+        <v>0.6462290000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.976328</v>
+        <v>1.01613</v>
       </c>
       <c r="D33" t="n">
-        <v>0.675272</v>
+        <v>0.69017</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.666404</v>
+        <v>0.646451</v>
       </c>
       <c r="C34" t="n">
-        <v>0.980535</v>
+        <v>1.01567</v>
       </c>
       <c r="D34" t="n">
-        <v>0.689061</v>
+        <v>0.719953</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.668563</v>
+        <v>0.669841</v>
       </c>
       <c r="C35" t="n">
-        <v>1.11217</v>
+        <v>1.12709</v>
       </c>
       <c r="D35" t="n">
-        <v>0.822063</v>
+        <v>0.822076</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.680823</v>
+        <v>0.683654</v>
       </c>
       <c r="C36" t="n">
-        <v>1.11417</v>
+        <v>1.15207</v>
       </c>
       <c r="D36" t="n">
-        <v>0.850972</v>
+        <v>0.846043</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.687302</v>
+        <v>0.700556</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0802</v>
+        <v>1.15655</v>
       </c>
       <c r="D37" t="n">
-        <v>0.862724</v>
+        <v>0.849001</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.737619</v>
+        <v>0.718799</v>
       </c>
       <c r="C38" t="n">
-        <v>1.14687</v>
+        <v>1.18633</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8769</v>
+        <v>0.890631</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7490790000000001</v>
+        <v>0.7429249999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>1.21424</v>
+        <v>1.21081</v>
       </c>
       <c r="D39" t="n">
-        <v>0.932284</v>
+        <v>0.893194</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.752615</v>
+        <v>0.756814</v>
       </c>
       <c r="C40" t="n">
-        <v>1.23032</v>
+        <v>1.19172</v>
       </c>
       <c r="D40" t="n">
-        <v>0.927503</v>
+        <v>0.929285</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.90296</v>
+        <v>0.860244</v>
       </c>
       <c r="C41" t="n">
-        <v>1.27904</v>
+        <v>1.23603</v>
       </c>
       <c r="D41" t="n">
-        <v>0.951155</v>
+        <v>0.92198</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9185950000000001</v>
+        <v>0.883361</v>
       </c>
       <c r="C42" t="n">
-        <v>1.31054</v>
+        <v>1.29053</v>
       </c>
       <c r="D42" t="n">
-        <v>0.949699</v>
+        <v>0.977823</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.923421</v>
+        <v>0.917137</v>
       </c>
       <c r="C43" t="n">
-        <v>1.34071</v>
+        <v>1.29132</v>
       </c>
       <c r="D43" t="n">
-        <v>1.04559</v>
+        <v>0.996772</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.962113</v>
+        <v>0.91704</v>
       </c>
       <c r="C44" t="n">
-        <v>1.49219</v>
+        <v>1.37276</v>
       </c>
       <c r="D44" t="n">
-        <v>1.0573</v>
+        <v>1.02007</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.990028</v>
+        <v>0.955978</v>
       </c>
       <c r="C45" t="n">
-        <v>1.46529</v>
+        <v>1.37407</v>
       </c>
       <c r="D45" t="n">
-        <v>1.05935</v>
+        <v>1.06158</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9963920000000001</v>
+        <v>0.963073</v>
       </c>
       <c r="C46" t="n">
-        <v>1.48714</v>
+        <v>1.40027</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13658</v>
+        <v>1.08354</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.05074</v>
+        <v>0.993038</v>
       </c>
       <c r="C47" t="n">
-        <v>1.56126</v>
+        <v>1.44832</v>
       </c>
       <c r="D47" t="n">
-        <v>1.18093</v>
+        <v>1.10431</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07246</v>
+        <v>0.991401</v>
       </c>
       <c r="C48" t="n">
-        <v>1.65459</v>
+        <v>1.46792</v>
       </c>
       <c r="D48" t="n">
-        <v>1.15258</v>
+        <v>1.12286</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.07711</v>
+        <v>1.03467</v>
       </c>
       <c r="C49" t="n">
-        <v>1.60881</v>
+        <v>1.49753</v>
       </c>
       <c r="D49" t="n">
-        <v>1.26163</v>
+        <v>1.17299</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.1354</v>
+        <v>1.05033</v>
       </c>
       <c r="C50" t="n">
-        <v>1.99023</v>
+        <v>1.7066</v>
       </c>
       <c r="D50" t="n">
-        <v>1.41543</v>
+        <v>1.29763</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.16653</v>
+        <v>1.06394</v>
       </c>
       <c r="C51" t="n">
-        <v>1.9968</v>
+        <v>1.798</v>
       </c>
       <c r="D51" t="n">
-        <v>1.433</v>
+        <v>1.33478</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.17519</v>
+        <v>1.11041</v>
       </c>
       <c r="C52" t="n">
-        <v>2.00755</v>
+        <v>1.88089</v>
       </c>
       <c r="D52" t="n">
-        <v>1.46853</v>
+        <v>1.42434</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.25408</v>
+        <v>1.13191</v>
       </c>
       <c r="C53" t="n">
-        <v>2.11481</v>
+        <v>2.06101</v>
       </c>
       <c r="D53" t="n">
-        <v>1.54165</v>
+        <v>1.43848</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.27683</v>
+        <v>1.14576</v>
       </c>
       <c r="C54" t="n">
-        <v>2.19499</v>
+        <v>1.95166</v>
       </c>
       <c r="D54" t="n">
-        <v>1.70918</v>
+        <v>1.50611</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.3084</v>
+        <v>1.20196</v>
       </c>
       <c r="C55" t="n">
-        <v>2.36907</v>
+        <v>1.94766</v>
       </c>
       <c r="D55" t="n">
-        <v>1.71148</v>
+        <v>1.51179</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.47496</v>
+        <v>1.3109</v>
       </c>
       <c r="C56" t="n">
-        <v>2.28897</v>
+        <v>2.03538</v>
       </c>
       <c r="D56" t="n">
-        <v>1.69481</v>
+        <v>1.60492</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.46062</v>
+        <v>1.35967</v>
       </c>
       <c r="C57" t="n">
-        <v>2.37884</v>
+        <v>2.12145</v>
       </c>
       <c r="D57" t="n">
-        <v>1.84038</v>
+        <v>1.61842</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.60154</v>
+        <v>1.39039</v>
       </c>
       <c r="C58" t="n">
-        <v>2.69468</v>
+        <v>2.15007</v>
       </c>
       <c r="D58" t="n">
-        <v>1.89534</v>
+        <v>1.67344</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.6076</v>
+        <v>1.41047</v>
       </c>
       <c r="C59" t="n">
-        <v>2.87127</v>
+        <v>2.2288</v>
       </c>
       <c r="D59" t="n">
-        <v>1.97435</v>
+        <v>1.74309</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.68994</v>
+        <v>1.45008</v>
       </c>
       <c r="C60" t="n">
-        <v>2.76366</v>
+        <v>2.28283</v>
       </c>
       <c r="D60" t="n">
-        <v>1.96468</v>
+        <v>1.76361</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.69379</v>
+        <v>1.50974</v>
       </c>
       <c r="C61" t="n">
-        <v>2.84789</v>
+        <v>2.30778</v>
       </c>
       <c r="D61" t="n">
-        <v>2.04797</v>
+        <v>1.85693</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.68513</v>
+        <v>1.51787</v>
       </c>
       <c r="C62" t="n">
-        <v>2.81298</v>
+        <v>2.40413</v>
       </c>
       <c r="D62" t="n">
-        <v>2.19794</v>
+        <v>1.88565</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.73169</v>
+        <v>1.54472</v>
       </c>
       <c r="C63" t="n">
-        <v>2.68413</v>
+        <v>2.51366</v>
       </c>
       <c r="D63" t="n">
-        <v>2.12568</v>
+        <v>1.96585</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.75998</v>
+        <v>1.60407</v>
       </c>
       <c r="C64" t="n">
-        <v>2.90254</v>
+        <v>2.7391</v>
       </c>
       <c r="D64" t="n">
-        <v>2.21863</v>
+        <v>2.12491</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.77112</v>
+        <v>1.6544</v>
       </c>
       <c r="C65" t="n">
-        <v>2.84777</v>
+        <v>2.74975</v>
       </c>
       <c r="D65" t="n">
-        <v>2.38493</v>
+        <v>2.15835</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.81817</v>
+        <v>1.68507</v>
       </c>
       <c r="C66" t="n">
-        <v>2.9572</v>
+        <v>2.81294</v>
       </c>
       <c r="D66" t="n">
-        <v>2.50146</v>
+        <v>2.21068</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.87414</v>
+        <v>1.75869</v>
       </c>
       <c r="C67" t="n">
-        <v>3.05323</v>
+        <v>2.91291</v>
       </c>
       <c r="D67" t="n">
-        <v>2.4529</v>
+        <v>2.273</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.89195</v>
+        <v>1.75163</v>
       </c>
       <c r="C68" t="n">
-        <v>2.98638</v>
+        <v>2.94211</v>
       </c>
       <c r="D68" t="n">
-        <v>2.52878</v>
+        <v>2.35261</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.95434</v>
+        <v>1.78508</v>
       </c>
       <c r="C69" t="n">
-        <v>3.10416</v>
+        <v>2.9262</v>
       </c>
       <c r="D69" t="n">
-        <v>2.63768</v>
+        <v>2.39412</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.03073</v>
+        <v>1.92714</v>
       </c>
       <c r="C70" t="n">
-        <v>3.16907</v>
+        <v>3.04535</v>
       </c>
       <c r="D70" t="n">
-        <v>2.61984</v>
+        <v>2.52771</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.07241</v>
+        <v>1.91473</v>
       </c>
       <c r="C71" t="n">
-        <v>3.15273</v>
+        <v>3.08947</v>
       </c>
       <c r="D71" t="n">
-        <v>2.84814</v>
+        <v>2.55241</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.08785</v>
+        <v>1.96975</v>
       </c>
       <c r="C72" t="n">
-        <v>3.24756</v>
+        <v>3.12679</v>
       </c>
       <c r="D72" t="n">
-        <v>2.79361</v>
+        <v>2.57547</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.15068</v>
+        <v>2.00642</v>
       </c>
       <c r="C73" t="n">
-        <v>3.32063</v>
+        <v>3.25919</v>
       </c>
       <c r="D73" t="n">
-        <v>2.89515</v>
+        <v>2.69216</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.11899</v>
+        <v>2.01353</v>
       </c>
       <c r="C74" t="n">
-        <v>3.32931</v>
+        <v>3.25842</v>
       </c>
       <c r="D74" t="n">
-        <v>2.9079</v>
+        <v>2.70529</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.17237</v>
+        <v>2.04953</v>
       </c>
       <c r="C75" t="n">
-        <v>3.40299</v>
+        <v>3.38741</v>
       </c>
       <c r="D75" t="n">
-        <v>2.98493</v>
+        <v>2.81977</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.19223</v>
+        <v>2.07951</v>
       </c>
       <c r="C76" t="n">
-        <v>3.34673</v>
+        <v>3.4054</v>
       </c>
       <c r="D76" t="n">
-        <v>2.95485</v>
+        <v>2.83291</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.25249</v>
+        <v>2.11173</v>
       </c>
       <c r="C77" t="n">
-        <v>3.46864</v>
+        <v>3.40603</v>
       </c>
       <c r="D77" t="n">
-        <v>3.18991</v>
+        <v>2.99351</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.34619</v>
+        <v>2.13284</v>
       </c>
       <c r="C78" t="n">
-        <v>3.72248</v>
+        <v>3.72281</v>
       </c>
       <c r="D78" t="n">
-        <v>3.18632</v>
+        <v>3.06377</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.34047</v>
+        <v>2.20973</v>
       </c>
       <c r="C79" t="n">
-        <v>3.8911</v>
+        <v>3.74681</v>
       </c>
       <c r="D79" t="n">
-        <v>3.46419</v>
+        <v>3.11238</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.44639</v>
+        <v>2.16864</v>
       </c>
       <c r="C80" t="n">
-        <v>3.87661</v>
+        <v>3.75031</v>
       </c>
       <c r="D80" t="n">
-        <v>3.32794</v>
+        <v>3.09838</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.33043</v>
+        <v>2.22941</v>
       </c>
       <c r="C81" t="n">
-        <v>3.81421</v>
+        <v>3.78358</v>
       </c>
       <c r="D81" t="n">
-        <v>3.48916</v>
+        <v>3.19481</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.39896</v>
+        <v>2.24136</v>
       </c>
       <c r="C82" t="n">
-        <v>3.82332</v>
+        <v>3.79413</v>
       </c>
       <c r="D82" t="n">
-        <v>3.37188</v>
+        <v>3.2691</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.40739</v>
+        <v>2.26823</v>
       </c>
       <c r="C83" t="n">
-        <v>3.90669</v>
+        <v>3.89691</v>
       </c>
       <c r="D83" t="n">
-        <v>3.64716</v>
+        <v>3.27194</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.50844</v>
+        <v>2.34463</v>
       </c>
       <c r="C84" t="n">
-        <v>4.01706</v>
+        <v>3.92483</v>
       </c>
       <c r="D84" t="n">
-        <v>3.53158</v>
+        <v>3.32856</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.58449</v>
+        <v>2.41528</v>
       </c>
       <c r="C85" t="n">
-        <v>4.10046</v>
+        <v>3.88791</v>
       </c>
       <c r="D85" t="n">
-        <v>3.60742</v>
+        <v>3.41065</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.60507</v>
+        <v>2.41701</v>
       </c>
       <c r="C86" t="n">
-        <v>4.02908</v>
+        <v>4.03651</v>
       </c>
       <c r="D86" t="n">
-        <v>3.66102</v>
+        <v>3.53258</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.67255</v>
+        <v>2.44302</v>
       </c>
       <c r="C87" t="n">
-        <v>4.15413</v>
+        <v>4.03522</v>
       </c>
       <c r="D87" t="n">
-        <v>3.6548</v>
+        <v>3.47443</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.65098</v>
+        <v>2.50702</v>
       </c>
       <c r="C88" t="n">
-        <v>4.01946</v>
+        <v>4.04636</v>
       </c>
       <c r="D88" t="n">
-        <v>3.72564</v>
+        <v>3.55741</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.66495</v>
+        <v>2.43721</v>
       </c>
       <c r="C89" t="n">
-        <v>4.13993</v>
+        <v>4.12673</v>
       </c>
       <c r="D89" t="n">
-        <v>3.85336</v>
+        <v>3.59312</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.73983</v>
+        <v>2.49944</v>
       </c>
       <c r="C90" t="n">
-        <v>4.2064</v>
+        <v>4.17964</v>
       </c>
       <c r="D90" t="n">
-        <v>3.83119</v>
+        <v>3.53592</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.75315</v>
+        <v>2.50195</v>
       </c>
       <c r="C91" t="n">
-        <v>4.21804</v>
+        <v>4.28751</v>
       </c>
       <c r="D91" t="n">
-        <v>3.88522</v>
+        <v>3.59534</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.79355</v>
+        <v>2.53898</v>
       </c>
       <c r="C92" t="n">
-        <v>4.40053</v>
+        <v>4.37897</v>
       </c>
       <c r="D92" t="n">
-        <v>4.0369</v>
+        <v>3.72031</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.79781</v>
+        <v>2.58165</v>
       </c>
       <c r="C93" t="n">
-        <v>4.44506</v>
+        <v>4.44672</v>
       </c>
       <c r="D93" t="n">
-        <v>4.03992</v>
+        <v>3.80641</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.80668</v>
+        <v>2.55619</v>
       </c>
       <c r="C94" t="n">
-        <v>4.49949</v>
+        <v>4.42573</v>
       </c>
       <c r="D94" t="n">
-        <v>4.07882</v>
+        <v>3.84982</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.91657</v>
+        <v>2.54373</v>
       </c>
       <c r="C95" t="n">
-        <v>4.54892</v>
+        <v>4.48469</v>
       </c>
       <c r="D95" t="n">
-        <v>4.19881</v>
+        <v>3.97519</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.88083</v>
+        <v>2.63474</v>
       </c>
       <c r="C96" t="n">
-        <v>4.51943</v>
+        <v>4.55242</v>
       </c>
       <c r="D96" t="n">
-        <v>4.09054</v>
+        <v>3.95527</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.91554</v>
+        <v>2.64066</v>
       </c>
       <c r="C97" t="n">
-        <v>4.54197</v>
+        <v>4.54003</v>
       </c>
       <c r="D97" t="n">
-        <v>4.1884</v>
+        <v>3.94811</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.0872</v>
+        <v>2.80644</v>
       </c>
       <c r="C98" t="n">
-        <v>4.57939</v>
+        <v>4.59597</v>
       </c>
       <c r="D98" t="n">
-        <v>4.17562</v>
+        <v>3.99452</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.06819</v>
+        <v>2.89838</v>
       </c>
       <c r="C99" t="n">
-        <v>4.70129</v>
+        <v>4.68825</v>
       </c>
       <c r="D99" t="n">
-        <v>4.21641</v>
+        <v>4.04926</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.08459</v>
+        <v>2.90045</v>
       </c>
       <c r="C100" t="n">
-        <v>4.75586</v>
+        <v>4.64549</v>
       </c>
       <c r="D100" t="n">
-        <v>4.30899</v>
+        <v>4.03226</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.1448</v>
+        <v>2.94409</v>
       </c>
       <c r="C101" t="n">
-        <v>4.60436</v>
+        <v>4.73885</v>
       </c>
       <c r="D101" t="n">
-        <v>4.30367</v>
+        <v>4.1897</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.14745</v>
+        <v>2.96312</v>
       </c>
       <c r="C102" t="n">
-        <v>4.7258</v>
+        <v>4.77573</v>
       </c>
       <c r="D102" t="n">
-        <v>4.3396</v>
+        <v>4.18962</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.18512</v>
+        <v>3.00743</v>
       </c>
       <c r="C103" t="n">
-        <v>4.77185</v>
+        <v>4.85609</v>
       </c>
       <c r="D103" t="n">
-        <v>4.3422</v>
+        <v>4.22716</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.15656</v>
+        <v>3.00745</v>
       </c>
       <c r="C104" t="n">
-        <v>4.91858</v>
+        <v>4.85148</v>
       </c>
       <c r="D104" t="n">
-        <v>4.39995</v>
+        <v>4.17659</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.1743</v>
+        <v>3.08139</v>
       </c>
       <c r="C105" t="n">
-        <v>4.8441</v>
+        <v>4.99291</v>
       </c>
       <c r="D105" t="n">
-        <v>4.38779</v>
+        <v>4.27034</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.14763</v>
+        <v>3.01397</v>
       </c>
       <c r="C106" t="n">
-        <v>4.86236</v>
+        <v>4.96126</v>
       </c>
       <c r="D106" t="n">
-        <v>4.45643</v>
+        <v>4.34555</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.19035</v>
+        <v>3.04127</v>
       </c>
       <c r="C107" t="n">
-        <v>5.13698</v>
+        <v>5.23286</v>
       </c>
       <c r="D107" t="n">
-        <v>4.59952</v>
+        <v>4.50525</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.21931</v>
+        <v>3.04643</v>
       </c>
       <c r="C108" t="n">
-        <v>5.15694</v>
+        <v>5.24517</v>
       </c>
       <c r="D108" t="n">
-        <v>4.58181</v>
+        <v>4.54485</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.26536</v>
+        <v>3.1522</v>
       </c>
       <c r="C109" t="n">
-        <v>5.14939</v>
+        <v>5.2865</v>
       </c>
       <c r="D109" t="n">
-        <v>4.66822</v>
+        <v>4.63131</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.31712</v>
+        <v>3.13239</v>
       </c>
       <c r="C110" t="n">
-        <v>5.15615</v>
+        <v>5.27637</v>
       </c>
       <c r="D110" t="n">
-        <v>4.69713</v>
+        <v>4.59144</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.33977</v>
+        <v>3.14031</v>
       </c>
       <c r="C111" t="n">
-        <v>5.24474</v>
+        <v>5.33788</v>
       </c>
       <c r="D111" t="n">
-        <v>4.74686</v>
+        <v>4.63153</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.49763</v>
+        <v>3.29961</v>
       </c>
       <c r="C112" t="n">
-        <v>5.24329</v>
+        <v>5.4204</v>
       </c>
       <c r="D112" t="n">
-        <v>4.74465</v>
+        <v>4.7312</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.57982</v>
+        <v>3.32452</v>
       </c>
       <c r="C113" t="n">
-        <v>5.30629</v>
+        <v>5.48486</v>
       </c>
       <c r="D113" t="n">
-        <v>4.79095</v>
+        <v>4.77679</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.61678</v>
+        <v>3.38766</v>
       </c>
       <c r="C114" t="n">
-        <v>5.39328</v>
+        <v>5.44161</v>
       </c>
       <c r="D114" t="n">
-        <v>4.8831</v>
+        <v>4.87509</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.65629</v>
+        <v>3.52888</v>
       </c>
       <c r="C115" t="n">
-        <v>5.43573</v>
+        <v>5.6199</v>
       </c>
       <c r="D115" t="n">
-        <v>4.88545</v>
+        <v>4.93046</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.672</v>
+        <v>3.51861</v>
       </c>
       <c r="C116" t="n">
-        <v>5.47682</v>
+        <v>5.75542</v>
       </c>
       <c r="D116" t="n">
-        <v>5.01242</v>
+        <v>4.82009</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.665</v>
+        <v>3.46039</v>
       </c>
       <c r="C117" t="n">
-        <v>5.59026</v>
+        <v>5.71287</v>
       </c>
       <c r="D117" t="n">
-        <v>5.08802</v>
+        <v>4.9094</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.68302</v>
+        <v>3.53483</v>
       </c>
       <c r="C118" t="n">
-        <v>5.65859</v>
+        <v>5.6831</v>
       </c>
       <c r="D118" t="n">
-        <v>5.14723</v>
+        <v>4.94373</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.81451</v>
+        <v>3.6098</v>
       </c>
       <c r="C119" t="n">
-        <v>5.73982</v>
+        <v>5.79225</v>
       </c>
       <c r="D119" t="n">
-        <v>5.19632</v>
+        <v>5.09091</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.407914</v>
+        <v>0.389665</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7988960000000001</v>
+        <v>0.802554</v>
       </c>
       <c r="D2" t="n">
-        <v>0.508311</v>
+        <v>0.509755</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.427041</v>
+        <v>0.410355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7775919999999999</v>
+        <v>0.818384</v>
       </c>
       <c r="D3" t="n">
-        <v>0.508915</v>
+        <v>0.517612</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.413783</v>
+        <v>0.424816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7647969999999999</v>
+        <v>0.812025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.520791</v>
+        <v>0.518254</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.411983</v>
+        <v>0.421376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.783281</v>
+        <v>0.813858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.532493</v>
+        <v>0.541276</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.428985</v>
+        <v>0.428008</v>
       </c>
       <c r="C6" t="n">
-        <v>0.776062</v>
+        <v>0.828137</v>
       </c>
       <c r="D6" t="n">
-        <v>0.524097</v>
+        <v>0.535197</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.416137</v>
+        <v>0.419331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.777993</v>
+        <v>0.830331</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528169</v>
+        <v>0.542988</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.42158</v>
+        <v>0.426101</v>
       </c>
       <c r="C8" t="n">
-        <v>0.791345</v>
+        <v>0.846889</v>
       </c>
       <c r="D8" t="n">
-        <v>0.531694</v>
+        <v>0.545121</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.426692</v>
+        <v>0.426264</v>
       </c>
       <c r="C9" t="n">
-        <v>0.827526</v>
+        <v>0.8387559999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.553899</v>
+        <v>0.553608</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.42081</v>
+        <v>0.426537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.822175</v>
+        <v>0.867897</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5451319999999999</v>
+        <v>0.554684</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.426023</v>
+        <v>0.4316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.801601</v>
+        <v>0.864334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.553639</v>
+        <v>0.563436</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4311</v>
+        <v>0.425237</v>
       </c>
       <c r="C12" t="n">
-        <v>0.804665</v>
+        <v>0.8838009999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.55597</v>
+        <v>0.5735209999999999</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.424927</v>
+        <v>0.437927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.807141</v>
+        <v>0.864518</v>
       </c>
       <c r="D13" t="n">
-        <v>0.564913</v>
+        <v>0.576433</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.428398</v>
+        <v>0.432696</v>
       </c>
       <c r="C14" t="n">
-        <v>0.830259</v>
+        <v>0.87307</v>
       </c>
       <c r="D14" t="n">
-        <v>0.558837</v>
+        <v>0.5711349999999999</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.423786</v>
+        <v>0.431325</v>
       </c>
       <c r="C15" t="n">
-        <v>0.822488</v>
+        <v>0.87366</v>
       </c>
       <c r="D15" t="n">
-        <v>0.560473</v>
+        <v>0.59263</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.42843</v>
+        <v>0.433293</v>
       </c>
       <c r="C16" t="n">
-        <v>0.820848</v>
+        <v>0.891916</v>
       </c>
       <c r="D16" t="n">
-        <v>0.583172</v>
+        <v>0.578664</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.454545</v>
+        <v>0.470179</v>
       </c>
       <c r="C17" t="n">
-        <v>0.851801</v>
+        <v>0.896413</v>
       </c>
       <c r="D17" t="n">
-        <v>0.589202</v>
+        <v>0.587415</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.469414</v>
+        <v>0.46553</v>
       </c>
       <c r="C18" t="n">
-        <v>0.847556</v>
+        <v>0.902467</v>
       </c>
       <c r="D18" t="n">
-        <v>0.578195</v>
+        <v>0.6027749999999999</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.470732</v>
+        <v>0.479142</v>
       </c>
       <c r="C19" t="n">
-        <v>0.874903</v>
+        <v>0.910869</v>
       </c>
       <c r="D19" t="n">
-        <v>0.590489</v>
+        <v>0.598446</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.472499</v>
+        <v>0.470713</v>
       </c>
       <c r="C20" t="n">
-        <v>0.895609</v>
+        <v>0.918222</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5971610000000001</v>
+        <v>0.611135</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.47101</v>
+        <v>0.470123</v>
       </c>
       <c r="C21" t="n">
-        <v>0.86813</v>
+        <v>0.931594</v>
       </c>
       <c r="D21" t="n">
-        <v>0.595766</v>
+        <v>0.609112</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.462483</v>
+        <v>0.465775</v>
       </c>
       <c r="C22" t="n">
-        <v>0.89277</v>
+        <v>0.925025</v>
       </c>
       <c r="D22" t="n">
-        <v>0.618606</v>
+        <v>0.619004</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.521486</v>
+        <v>0.481249</v>
       </c>
       <c r="C23" t="n">
-        <v>0.993833</v>
+        <v>0.974848</v>
       </c>
       <c r="D23" t="n">
-        <v>0.643784</v>
+        <v>0.619373</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.483198</v>
+        <v>0.489145</v>
       </c>
       <c r="C24" t="n">
-        <v>0.915728</v>
+        <v>0.959444</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6365690000000001</v>
+        <v>0.62224</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.522651</v>
+        <v>0.488223</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9713000000000001</v>
+        <v>0.985128</v>
       </c>
       <c r="D25" t="n">
-        <v>0.634607</v>
+        <v>0.638413</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.496289</v>
+        <v>0.485589</v>
       </c>
       <c r="C26" t="n">
-        <v>0.887032</v>
+        <v>0.959322</v>
       </c>
       <c r="D26" t="n">
-        <v>0.639467</v>
+        <v>0.6568040000000001</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5015540000000001</v>
+        <v>0.473053</v>
       </c>
       <c r="C27" t="n">
-        <v>0.909234</v>
+        <v>0.976346</v>
       </c>
       <c r="D27" t="n">
-        <v>0.66313</v>
+        <v>0.682092</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.490974</v>
+        <v>0.477757</v>
       </c>
       <c r="C28" t="n">
-        <v>0.914806</v>
+        <v>0.984387</v>
       </c>
       <c r="D28" t="n">
-        <v>0.645972</v>
+        <v>0.677853</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.502939</v>
+        <v>0.491236</v>
       </c>
       <c r="C29" t="n">
-        <v>0.92093</v>
+        <v>0.979731</v>
       </c>
       <c r="D29" t="n">
-        <v>0.693197</v>
+        <v>0.707008</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.499626</v>
+        <v>0.489555</v>
       </c>
       <c r="C30" t="n">
-        <v>0.933788</v>
+        <v>0.9998</v>
       </c>
       <c r="D30" t="n">
-        <v>0.70292</v>
+        <v>0.713013</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.508474</v>
+        <v>0.504912</v>
       </c>
       <c r="C31" t="n">
-        <v>0.930272</v>
+        <v>1.03547</v>
       </c>
       <c r="D31" t="n">
-        <v>0.684439</v>
+        <v>0.709056</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.537929</v>
+        <v>0.573155</v>
       </c>
       <c r="C32" t="n">
-        <v>0.938347</v>
+        <v>1.05889</v>
       </c>
       <c r="D32" t="n">
-        <v>0.666784</v>
+        <v>0.713182</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.549222</v>
+        <v>0.577103</v>
       </c>
       <c r="C33" t="n">
-        <v>0.979027</v>
+        <v>1.08655</v>
       </c>
       <c r="D33" t="n">
-        <v>0.703002</v>
+        <v>0.732179</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.568334</v>
+        <v>0.579708</v>
       </c>
       <c r="C34" t="n">
-        <v>1.00566</v>
+        <v>1.06367</v>
       </c>
       <c r="D34" t="n">
-        <v>0.700529</v>
+        <v>0.730299</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.56309</v>
+        <v>0.59529</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0135</v>
+        <v>1.08952</v>
       </c>
       <c r="D35" t="n">
-        <v>0.709172</v>
+        <v>0.737119</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.565089</v>
+        <v>0.601279</v>
       </c>
       <c r="C36" t="n">
-        <v>1.10975</v>
+        <v>1.09846</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7350640000000001</v>
+        <v>0.771786</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.576141</v>
+        <v>0.58663</v>
       </c>
       <c r="C37" t="n">
-        <v>1.06498</v>
+        <v>1.10053</v>
       </c>
       <c r="D37" t="n">
-        <v>0.765216</v>
+        <v>0.767498</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.580797</v>
+        <v>0.608069</v>
       </c>
       <c r="C38" t="n">
-        <v>1.08527</v>
+        <v>1.15382</v>
       </c>
       <c r="D38" t="n">
-        <v>0.772909</v>
+        <v>0.7969540000000001</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.63934</v>
+        <v>0.629182</v>
       </c>
       <c r="C39" t="n">
-        <v>1.14202</v>
+        <v>1.20303</v>
       </c>
       <c r="D39" t="n">
-        <v>0.798383</v>
+        <v>0.781002</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.624409</v>
+        <v>0.62778</v>
       </c>
       <c r="C40" t="n">
-        <v>1.11773</v>
+        <v>1.21081</v>
       </c>
       <c r="D40" t="n">
-        <v>0.839288</v>
+        <v>0.877833</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.627839</v>
+        <v>0.65699</v>
       </c>
       <c r="C41" t="n">
-        <v>1.21754</v>
+        <v>1.19994</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8911480000000001</v>
+        <v>0.8927079999999999</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.628787</v>
+        <v>0.671086</v>
       </c>
       <c r="C42" t="n">
-        <v>1.20815</v>
+        <v>1.22489</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8853259999999999</v>
+        <v>0.927741</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.654057</v>
+        <v>0.686633</v>
       </c>
       <c r="C43" t="n">
-        <v>1.20174</v>
+        <v>1.29327</v>
       </c>
       <c r="D43" t="n">
-        <v>0.905961</v>
+        <v>0.953097</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.665237</v>
+        <v>0.702878</v>
       </c>
       <c r="C44" t="n">
-        <v>1.30386</v>
+        <v>1.31017</v>
       </c>
       <c r="D44" t="n">
-        <v>0.928765</v>
+        <v>0.976858</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6775910000000001</v>
+        <v>0.708655</v>
       </c>
       <c r="C45" t="n">
-        <v>1.35403</v>
+        <v>1.31963</v>
       </c>
       <c r="D45" t="n">
-        <v>0.981569</v>
+        <v>1.00091</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.779185</v>
+        <v>0.803947</v>
       </c>
       <c r="C46" t="n">
-        <v>1.33801</v>
+        <v>1.40472</v>
       </c>
       <c r="D46" t="n">
-        <v>1.01971</v>
+        <v>1.04837</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8257640000000001</v>
+        <v>0.826287</v>
       </c>
       <c r="C47" t="n">
-        <v>1.4416</v>
+        <v>1.44194</v>
       </c>
       <c r="D47" t="n">
-        <v>1.03302</v>
+        <v>1.08962</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8315399999999999</v>
+        <v>0.851336</v>
       </c>
       <c r="C48" t="n">
-        <v>1.47586</v>
+        <v>1.49839</v>
       </c>
       <c r="D48" t="n">
-        <v>1.07043</v>
+        <v>1.10394</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.881393</v>
+        <v>0.879573</v>
       </c>
       <c r="C49" t="n">
-        <v>1.58643</v>
+        <v>1.55348</v>
       </c>
       <c r="D49" t="n">
-        <v>1.09211</v>
+        <v>1.09603</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.869545</v>
+        <v>0.908823</v>
       </c>
       <c r="C50" t="n">
-        <v>1.656</v>
+        <v>1.61114</v>
       </c>
       <c r="D50" t="n">
-        <v>1.16629</v>
+        <v>1.15687</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.947658</v>
+        <v>0.9281239999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>1.78315</v>
+        <v>1.71881</v>
       </c>
       <c r="D51" t="n">
-        <v>1.22554</v>
+        <v>1.20517</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.99375</v>
+        <v>0.962136</v>
       </c>
       <c r="C52" t="n">
-        <v>1.82317</v>
+        <v>1.72974</v>
       </c>
       <c r="D52" t="n">
-        <v>1.27384</v>
+        <v>1.24937</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.993202</v>
+        <v>0.964883</v>
       </c>
       <c r="C53" t="n">
-        <v>1.81958</v>
+        <v>1.84864</v>
       </c>
       <c r="D53" t="n">
-        <v>1.29249</v>
+        <v>1.27748</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.99214</v>
+        <v>1.00578</v>
       </c>
       <c r="C54" t="n">
-        <v>2.14641</v>
+        <v>1.88867</v>
       </c>
       <c r="D54" t="n">
-        <v>1.40785</v>
+        <v>1.35849</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.06703</v>
+        <v>1.02748</v>
       </c>
       <c r="C55" t="n">
-        <v>2.15972</v>
+        <v>1.88671</v>
       </c>
       <c r="D55" t="n">
-        <v>1.5214</v>
+        <v>1.40835</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.11959</v>
+        <v>1.05671</v>
       </c>
       <c r="C56" t="n">
-        <v>2.16054</v>
+        <v>2.04222</v>
       </c>
       <c r="D56" t="n">
-        <v>1.55877</v>
+        <v>1.48484</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.12094</v>
+        <v>1.08839</v>
       </c>
       <c r="C57" t="n">
-        <v>2.28863</v>
+        <v>2.04085</v>
       </c>
       <c r="D57" t="n">
-        <v>1.68468</v>
+        <v>1.55862</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.21097</v>
+        <v>1.13009</v>
       </c>
       <c r="C58" t="n">
-        <v>2.47435</v>
+        <v>2.13326</v>
       </c>
       <c r="D58" t="n">
-        <v>1.73405</v>
+        <v>1.58452</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.27414</v>
+        <v>1.15929</v>
       </c>
       <c r="C59" t="n">
-        <v>2.56963</v>
+        <v>2.20673</v>
       </c>
       <c r="D59" t="n">
-        <v>1.75619</v>
+        <v>1.66357</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.44285</v>
+        <v>1.31073</v>
       </c>
       <c r="C60" t="n">
-        <v>2.50312</v>
+        <v>2.21046</v>
       </c>
       <c r="D60" t="n">
-        <v>1.78682</v>
+        <v>1.66868</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.43939</v>
+        <v>1.36656</v>
       </c>
       <c r="C61" t="n">
-        <v>2.42858</v>
+        <v>2.30106</v>
       </c>
       <c r="D61" t="n">
-        <v>1.90248</v>
+        <v>1.71922</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.58152</v>
+        <v>1.41242</v>
       </c>
       <c r="C62" t="n">
-        <v>2.63146</v>
+        <v>2.38161</v>
       </c>
       <c r="D62" t="n">
-        <v>2.02008</v>
+        <v>1.80796</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.51279</v>
+        <v>1.42241</v>
       </c>
       <c r="C63" t="n">
-        <v>2.88194</v>
+        <v>2.46638</v>
       </c>
       <c r="D63" t="n">
-        <v>2.06355</v>
+        <v>1.89813</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.54732</v>
+        <v>1.45125</v>
       </c>
       <c r="C64" t="n">
-        <v>2.95749</v>
+        <v>2.51239</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18672</v>
+        <v>1.92186</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.59923</v>
+        <v>1.51809</v>
       </c>
       <c r="C65" t="n">
-        <v>3.00091</v>
+        <v>2.66185</v>
       </c>
       <c r="D65" t="n">
-        <v>2.25842</v>
+        <v>1.95566</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.59409</v>
+        <v>1.58685</v>
       </c>
       <c r="C66" t="n">
-        <v>2.97874</v>
+        <v>2.72516</v>
       </c>
       <c r="D66" t="n">
-        <v>2.19385</v>
+        <v>2.01979</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.68652</v>
+        <v>1.57035</v>
       </c>
       <c r="C67" t="n">
-        <v>3.03085</v>
+        <v>2.86344</v>
       </c>
       <c r="D67" t="n">
-        <v>2.28832</v>
+        <v>2.14225</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.71023</v>
+        <v>1.62626</v>
       </c>
       <c r="C68" t="n">
-        <v>2.93797</v>
+        <v>2.86152</v>
       </c>
       <c r="D68" t="n">
-        <v>2.45964</v>
+        <v>2.24241</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.66815</v>
+        <v>1.63723</v>
       </c>
       <c r="C69" t="n">
-        <v>2.91325</v>
+        <v>2.86381</v>
       </c>
       <c r="D69" t="n">
-        <v>2.49611</v>
+        <v>2.35665</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.74145</v>
+        <v>1.67795</v>
       </c>
       <c r="C70" t="n">
-        <v>3.1495</v>
+        <v>2.98454</v>
       </c>
       <c r="D70" t="n">
-        <v>2.65004</v>
+        <v>2.4818</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.77797</v>
+        <v>1.73434</v>
       </c>
       <c r="C71" t="n">
-        <v>3.17856</v>
+        <v>3.05655</v>
       </c>
       <c r="D71" t="n">
-        <v>2.61558</v>
+        <v>2.52172</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.75556</v>
+        <v>1.73443</v>
       </c>
       <c r="C72" t="n">
-        <v>3.13623</v>
+        <v>3.08358</v>
       </c>
       <c r="D72" t="n">
-        <v>2.77259</v>
+        <v>2.57373</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.82173</v>
+        <v>1.77736</v>
       </c>
       <c r="C73" t="n">
-        <v>3.28108</v>
+        <v>3.52447</v>
       </c>
       <c r="D73" t="n">
-        <v>2.79775</v>
+        <v>2.62979</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.0496</v>
+        <v>1.99127</v>
       </c>
       <c r="C74" t="n">
-        <v>3.1888</v>
+        <v>3.41464</v>
       </c>
       <c r="D74" t="n">
-        <v>2.78817</v>
+        <v>2.8354</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.05962</v>
+        <v>2.10985</v>
       </c>
       <c r="C75" t="n">
-        <v>3.47078</v>
+        <v>3.65979</v>
       </c>
       <c r="D75" t="n">
-        <v>2.84565</v>
+        <v>2.96313</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.12396</v>
+        <v>2.11251</v>
       </c>
       <c r="C76" t="n">
-        <v>3.5039</v>
+        <v>3.59732</v>
       </c>
       <c r="D76" t="n">
-        <v>2.91414</v>
+        <v>2.96827</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.22585</v>
+        <v>2.13769</v>
       </c>
       <c r="C77" t="n">
-        <v>3.55441</v>
+        <v>3.84092</v>
       </c>
       <c r="D77" t="n">
-        <v>2.96324</v>
+        <v>3.06706</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.19866</v>
+        <v>2.12271</v>
       </c>
       <c r="C78" t="n">
-        <v>3.64889</v>
+        <v>3.67009</v>
       </c>
       <c r="D78" t="n">
-        <v>3.04981</v>
+        <v>3.02255</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.18721</v>
+        <v>2.18142</v>
       </c>
       <c r="C79" t="n">
-        <v>3.72602</v>
+        <v>3.81107</v>
       </c>
       <c r="D79" t="n">
-        <v>3.06128</v>
+        <v>3.01865</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.22859</v>
+        <v>2.13693</v>
       </c>
       <c r="C80" t="n">
-        <v>3.98282</v>
+        <v>4.01404</v>
       </c>
       <c r="D80" t="n">
-        <v>3.10818</v>
+        <v>3.20044</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.22393</v>
+        <v>2.22871</v>
       </c>
       <c r="C81" t="n">
-        <v>3.90934</v>
+        <v>3.97891</v>
       </c>
       <c r="D81" t="n">
-        <v>3.20603</v>
+        <v>3.15431</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.23947</v>
+        <v>2.16397</v>
       </c>
       <c r="C82" t="n">
-        <v>4.06638</v>
+        <v>4.09839</v>
       </c>
       <c r="D82" t="n">
-        <v>3.32002</v>
+        <v>3.09316</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.31135</v>
+        <v>2.22022</v>
       </c>
       <c r="C83" t="n">
-        <v>4.01747</v>
+        <v>3.9894</v>
       </c>
       <c r="D83" t="n">
-        <v>3.43155</v>
+        <v>3.27946</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.31788</v>
+        <v>2.24095</v>
       </c>
       <c r="C84" t="n">
-        <v>3.90816</v>
+        <v>4.03752</v>
       </c>
       <c r="D84" t="n">
-        <v>3.45423</v>
+        <v>3.33489</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.38403</v>
+        <v>2.23042</v>
       </c>
       <c r="C85" t="n">
-        <v>4.06748</v>
+        <v>4.07792</v>
       </c>
       <c r="D85" t="n">
-        <v>3.56699</v>
+        <v>3.37506</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.35427</v>
+        <v>2.25816</v>
       </c>
       <c r="C86" t="n">
-        <v>4.00882</v>
+        <v>4.19233</v>
       </c>
       <c r="D86" t="n">
-        <v>3.54693</v>
+        <v>3.49529</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.35433</v>
+        <v>2.34359</v>
       </c>
       <c r="C87" t="n">
-        <v>4.29005</v>
+        <v>4.27471</v>
       </c>
       <c r="D87" t="n">
-        <v>3.68919</v>
+        <v>3.54728</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48385</v>
+        <v>2.2988</v>
       </c>
       <c r="C88" t="n">
-        <v>4.29672</v>
+        <v>4.37407</v>
       </c>
       <c r="D88" t="n">
-        <v>3.56143</v>
+        <v>3.58051</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.5932</v>
+        <v>2.55162</v>
       </c>
       <c r="C89" t="n">
-        <v>4.41829</v>
+        <v>4.44481</v>
       </c>
       <c r="D89" t="n">
-        <v>3.77026</v>
+        <v>3.60181</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.7092</v>
+        <v>2.59648</v>
       </c>
       <c r="C90" t="n">
-        <v>4.44468</v>
+        <v>4.5298</v>
       </c>
       <c r="D90" t="n">
-        <v>3.74712</v>
+        <v>3.68062</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.64227</v>
+        <v>2.58767</v>
       </c>
       <c r="C91" t="n">
-        <v>4.50823</v>
+        <v>4.57006</v>
       </c>
       <c r="D91" t="n">
-        <v>3.86465</v>
+        <v>3.86612</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.66369</v>
+        <v>2.54855</v>
       </c>
       <c r="C92" t="n">
-        <v>4.63207</v>
+        <v>4.67158</v>
       </c>
       <c r="D92" t="n">
-        <v>3.93403</v>
+        <v>3.72363</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.72346</v>
+        <v>2.55676</v>
       </c>
       <c r="C93" t="n">
-        <v>4.65124</v>
+        <v>4.75705</v>
       </c>
       <c r="D93" t="n">
-        <v>3.92403</v>
+        <v>3.79754</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.73923</v>
+        <v>2.64774</v>
       </c>
       <c r="C94" t="n">
-        <v>4.8006</v>
+        <v>5.05007</v>
       </c>
       <c r="D94" t="n">
-        <v>3.89278</v>
+        <v>3.77111</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.71546</v>
+        <v>2.59888</v>
       </c>
       <c r="C95" t="n">
-        <v>4.77426</v>
+        <v>4.99455</v>
       </c>
       <c r="D95" t="n">
-        <v>3.9734</v>
+        <v>3.76989</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.75808</v>
+        <v>2.70482</v>
       </c>
       <c r="C96" t="n">
-        <v>4.94998</v>
+        <v>5.12719</v>
       </c>
       <c r="D96" t="n">
-        <v>3.92596</v>
+        <v>3.84787</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.76368</v>
+        <v>2.68128</v>
       </c>
       <c r="C97" t="n">
-        <v>4.58193</v>
+        <v>4.80748</v>
       </c>
       <c r="D97" t="n">
-        <v>4.11798</v>
+        <v>4.04116</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.81689</v>
+        <v>2.75518</v>
       </c>
       <c r="C98" t="n">
-        <v>4.61259</v>
+        <v>4.91447</v>
       </c>
       <c r="D98" t="n">
-        <v>4.13862</v>
+        <v>4.00736</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.86164</v>
+        <v>2.70824</v>
       </c>
       <c r="C99" t="n">
-        <v>4.71615</v>
+        <v>4.88493</v>
       </c>
       <c r="D99" t="n">
-        <v>4.14388</v>
+        <v>4.09592</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.80901</v>
+        <v>2.7554</v>
       </c>
       <c r="C100" t="n">
-        <v>4.7331</v>
+        <v>4.97846</v>
       </c>
       <c r="D100" t="n">
-        <v>4.13879</v>
+        <v>4.07464</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.86937</v>
+        <v>2.68935</v>
       </c>
       <c r="C101" t="n">
-        <v>4.82366</v>
+        <v>5.00099</v>
       </c>
       <c r="D101" t="n">
-        <v>4.27685</v>
+        <v>4.03123</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.88573</v>
+        <v>2.71025</v>
       </c>
       <c r="C102" t="n">
-        <v>4.86523</v>
+        <v>5.00733</v>
       </c>
       <c r="D102" t="n">
-        <v>4.21554</v>
+        <v>4.1953</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.97544</v>
+        <v>2.84972</v>
       </c>
       <c r="C103" t="n">
-        <v>4.95553</v>
+        <v>5.07783</v>
       </c>
       <c r="D103" t="n">
-        <v>4.28869</v>
+        <v>4.14972</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.02901</v>
+        <v>2.88024</v>
       </c>
       <c r="C104" t="n">
-        <v>5.13358</v>
+        <v>5.1711</v>
       </c>
       <c r="D104" t="n">
-        <v>4.26509</v>
+        <v>4.15707</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.10651</v>
+        <v>2.86616</v>
       </c>
       <c r="C105" t="n">
-        <v>5.13947</v>
+        <v>5.31786</v>
       </c>
       <c r="D105" t="n">
-        <v>4.3283</v>
+        <v>4.16952</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.06822</v>
+        <v>2.8925</v>
       </c>
       <c r="C106" t="n">
-        <v>5.26403</v>
+        <v>5.39822</v>
       </c>
       <c r="D106" t="n">
-        <v>4.37066</v>
+        <v>4.20662</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.10098</v>
+        <v>2.93981</v>
       </c>
       <c r="C107" t="n">
-        <v>5.2579</v>
+        <v>5.45543</v>
       </c>
       <c r="D107" t="n">
-        <v>4.38751</v>
+        <v>4.23793</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.13649</v>
+        <v>2.9075</v>
       </c>
       <c r="C108" t="n">
-        <v>5.45337</v>
+        <v>5.56036</v>
       </c>
       <c r="D108" t="n">
-        <v>4.41489</v>
+        <v>4.36154</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.16757</v>
+        <v>3.01625</v>
       </c>
       <c r="C109" t="n">
-        <v>5.53822</v>
+        <v>5.71591</v>
       </c>
       <c r="D109" t="n">
-        <v>4.43193</v>
+        <v>4.34005</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.16308</v>
+        <v>2.98182</v>
       </c>
       <c r="C110" t="n">
-        <v>5.58937</v>
+        <v>5.75603</v>
       </c>
       <c r="D110" t="n">
-        <v>4.58182</v>
+        <v>4.33283</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.17466</v>
+        <v>2.99605</v>
       </c>
       <c r="C111" t="n">
-        <v>5.25275</v>
+        <v>5.37111</v>
       </c>
       <c r="D111" t="n">
-        <v>4.67396</v>
+        <v>4.48631</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.259</v>
+        <v>3.01716</v>
       </c>
       <c r="C112" t="n">
-        <v>5.24468</v>
+        <v>5.45561</v>
       </c>
       <c r="D112" t="n">
-        <v>4.73009</v>
+        <v>4.53197</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.20486</v>
+        <v>3.08384</v>
       </c>
       <c r="C113" t="n">
-        <v>5.3319</v>
+        <v>5.51665</v>
       </c>
       <c r="D113" t="n">
-        <v>4.74058</v>
+        <v>4.55598</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.29511</v>
+        <v>3.15344</v>
       </c>
       <c r="C114" t="n">
-        <v>5.42241</v>
+        <v>5.63607</v>
       </c>
       <c r="D114" t="n">
-        <v>4.67474</v>
+        <v>4.61505</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.25775</v>
+        <v>3.11242</v>
       </c>
       <c r="C115" t="n">
-        <v>5.52925</v>
+        <v>5.70935</v>
       </c>
       <c r="D115" t="n">
-        <v>4.84847</v>
+        <v>4.69975</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.29797</v>
+        <v>3.18795</v>
       </c>
       <c r="C116" t="n">
-        <v>5.60247</v>
+        <v>5.74875</v>
       </c>
       <c r="D116" t="n">
-        <v>4.8337</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.38517</v>
+        <v>3.19824</v>
       </c>
       <c r="C117" t="n">
-        <v>5.6947</v>
+        <v>5.78775</v>
       </c>
       <c r="D117" t="n">
-        <v>4.79669</v>
+        <v>4.67056</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.48085</v>
+        <v>3.2614</v>
       </c>
       <c r="C118" t="n">
-        <v>5.77165</v>
+        <v>6.09008</v>
       </c>
       <c r="D118" t="n">
-        <v>4.93582</v>
+        <v>4.81753</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.5149</v>
+        <v>3.29767</v>
       </c>
       <c r="C119" t="n">
-        <v>5.99787</v>
+        <v>6.04997</v>
       </c>
       <c r="D119" t="n">
-        <v>4.92553</v>
+        <v>4.85227</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.424235</v>
+        <v>0.430508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.625068</v>
+        <v>0.629408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.396617</v>
+        <v>0.404924</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.426417</v>
+        <v>0.419802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.613299</v>
+        <v>0.614579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.386135</v>
+        <v>0.381338</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.435592</v>
+        <v>0.431772</v>
       </c>
       <c r="C4" t="n">
-        <v>0.619584</v>
+        <v>0.626196</v>
       </c>
       <c r="D4" t="n">
-        <v>0.393707</v>
+        <v>0.399904</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.413718</v>
+        <v>0.422599</v>
       </c>
       <c r="C5" t="n">
-        <v>0.613224</v>
+        <v>0.595546</v>
       </c>
       <c r="D5" t="n">
-        <v>0.400516</v>
+        <v>0.389822</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.420868</v>
+        <v>0.417739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.597016</v>
+        <v>0.592573</v>
       </c>
       <c r="D6" t="n">
-        <v>0.404481</v>
+        <v>0.396915</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.420448</v>
+        <v>0.420974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.613926</v>
+        <v>0.613927</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389086</v>
+        <v>0.389558</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.422169</v>
+        <v>0.433309</v>
       </c>
       <c r="C8" t="n">
-        <v>0.618923</v>
+        <v>0.61158</v>
       </c>
       <c r="D8" t="n">
-        <v>0.405625</v>
+        <v>0.389495</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.428231</v>
+        <v>0.430065</v>
       </c>
       <c r="C9" t="n">
-        <v>0.617182</v>
+        <v>0.615896</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4086</v>
+        <v>0.402242</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.439119</v>
+        <v>0.436575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.621468</v>
+        <v>0.615502</v>
       </c>
       <c r="D10" t="n">
-        <v>0.403045</v>
+        <v>0.399114</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.440732</v>
+        <v>0.439529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.624605</v>
+        <v>0.627474</v>
       </c>
       <c r="D11" t="n">
-        <v>0.399271</v>
+        <v>0.405142</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.45365</v>
+        <v>0.444277</v>
       </c>
       <c r="C12" t="n">
-        <v>0.628051</v>
+        <v>0.618572</v>
       </c>
       <c r="D12" t="n">
-        <v>0.417218</v>
+        <v>0.409655</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.425018</v>
+        <v>0.426695</v>
       </c>
       <c r="C13" t="n">
-        <v>0.638216</v>
+        <v>0.62756</v>
       </c>
       <c r="D13" t="n">
-        <v>0.41329</v>
+        <v>0.407547</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.433527</v>
+        <v>0.422954</v>
       </c>
       <c r="C14" t="n">
-        <v>0.636208</v>
+        <v>0.616691</v>
       </c>
       <c r="D14" t="n">
-        <v>0.419548</v>
+        <v>0.418625</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.428729</v>
+        <v>0.422474</v>
       </c>
       <c r="C15" t="n">
-        <v>0.62951</v>
+        <v>0.629964</v>
       </c>
       <c r="D15" t="n">
-        <v>0.427157</v>
+        <v>0.417003</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.43998</v>
+        <v>0.439548</v>
       </c>
       <c r="C16" t="n">
-        <v>0.63559</v>
+        <v>0.626551</v>
       </c>
       <c r="D16" t="n">
-        <v>0.428839</v>
+        <v>0.422637</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.437827</v>
+        <v>0.43401</v>
       </c>
       <c r="C17" t="n">
-        <v>0.640574</v>
+        <v>0.633715</v>
       </c>
       <c r="D17" t="n">
-        <v>0.425881</v>
+        <v>0.42405</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.452325</v>
+        <v>0.445623</v>
       </c>
       <c r="C18" t="n">
-        <v>0.64496</v>
+        <v>0.636782</v>
       </c>
       <c r="D18" t="n">
-        <v>0.437702</v>
+        <v>0.421767</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.452108</v>
+        <v>0.441779</v>
       </c>
       <c r="C19" t="n">
-        <v>0.649152</v>
+        <v>0.637667</v>
       </c>
       <c r="D19" t="n">
-        <v>0.431593</v>
+        <v>0.43722</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.448081</v>
+        <v>0.46152</v>
       </c>
       <c r="C20" t="n">
-        <v>0.64295</v>
+        <v>0.64154</v>
       </c>
       <c r="D20" t="n">
-        <v>0.443221</v>
+        <v>0.432759</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.460406</v>
+        <v>0.454579</v>
       </c>
       <c r="C21" t="n">
-        <v>0.667036</v>
+        <v>0.6579120000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.432751</v>
+        <v>0.421429</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.461758</v>
+        <v>0.456028</v>
       </c>
       <c r="C22" t="n">
-        <v>0.657139</v>
+        <v>0.650108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.42872</v>
+        <v>0.422826</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.469516</v>
+        <v>0.459975</v>
       </c>
       <c r="C23" t="n">
-        <v>0.664978</v>
+        <v>0.653627</v>
       </c>
       <c r="D23" t="n">
-        <v>0.437863</v>
+        <v>0.429674</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.469907</v>
+        <v>0.460577</v>
       </c>
       <c r="C24" t="n">
-        <v>0.661276</v>
+        <v>0.660278</v>
       </c>
       <c r="D24" t="n">
-        <v>0.451741</v>
+        <v>0.439393</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.487652</v>
+        <v>0.486084</v>
       </c>
       <c r="C25" t="n">
-        <v>0.675112</v>
+        <v>0.673972</v>
       </c>
       <c r="D25" t="n">
-        <v>0.444158</v>
+        <v>0.442822</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.495155</v>
+        <v>0.479255</v>
       </c>
       <c r="C26" t="n">
-        <v>0.680112</v>
+        <v>0.667295</v>
       </c>
       <c r="D26" t="n">
-        <v>0.463458</v>
+        <v>0.45311</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.538458</v>
+        <v>0.522692</v>
       </c>
       <c r="C27" t="n">
-        <v>0.678118</v>
+        <v>0.679057</v>
       </c>
       <c r="D27" t="n">
-        <v>0.460694</v>
+        <v>0.445695</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.553121</v>
+        <v>0.523389</v>
       </c>
       <c r="C28" t="n">
-        <v>0.699906</v>
+        <v>0.682936</v>
       </c>
       <c r="D28" t="n">
-        <v>0.47877</v>
+        <v>0.472715</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.569304</v>
+        <v>0.569678</v>
       </c>
       <c r="C29" t="n">
-        <v>0.707676</v>
+        <v>0.716533</v>
       </c>
       <c r="D29" t="n">
-        <v>0.482674</v>
+        <v>0.473082</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.584196</v>
+        <v>0.56159</v>
       </c>
       <c r="C30" t="n">
-        <v>0.719997</v>
+        <v>0.700865</v>
       </c>
       <c r="D30" t="n">
-        <v>0.509246</v>
+        <v>0.470745</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.616449</v>
+        <v>0.580967</v>
       </c>
       <c r="C31" t="n">
-        <v>0.705591</v>
+        <v>0.6890309999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.493886</v>
+        <v>0.477813</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.611608</v>
+        <v>0.593967</v>
       </c>
       <c r="C32" t="n">
-        <v>0.716934</v>
+        <v>0.694951</v>
       </c>
       <c r="D32" t="n">
-        <v>0.505978</v>
+        <v>0.493231</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.628418</v>
+        <v>0.614927</v>
       </c>
       <c r="C33" t="n">
-        <v>0.724908</v>
+        <v>0.713768</v>
       </c>
       <c r="D33" t="n">
-        <v>0.503809</v>
+        <v>0.514616</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.639369</v>
+        <v>0.614264</v>
       </c>
       <c r="C34" t="n">
-        <v>0.747922</v>
+        <v>0.719947</v>
       </c>
       <c r="D34" t="n">
-        <v>0.525928</v>
+        <v>0.518616</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.674367</v>
+        <v>0.632314</v>
       </c>
       <c r="C35" t="n">
-        <v>0.845391</v>
+        <v>0.790124</v>
       </c>
       <c r="D35" t="n">
-        <v>0.624933</v>
+        <v>0.606526</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.676248</v>
+        <v>0.66522</v>
       </c>
       <c r="C36" t="n">
-        <v>0.829943</v>
+        <v>0.7958150000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6564489999999999</v>
+        <v>0.638649</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.701783</v>
+        <v>0.674268</v>
       </c>
       <c r="C37" t="n">
-        <v>0.849127</v>
+        <v>0.81668</v>
       </c>
       <c r="D37" t="n">
-        <v>0.669368</v>
+        <v>0.667113</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.712746</v>
+        <v>0.690523</v>
       </c>
       <c r="C38" t="n">
-        <v>0.861406</v>
+        <v>0.827725</v>
       </c>
       <c r="D38" t="n">
-        <v>0.690204</v>
+        <v>0.67515</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.746667</v>
+        <v>0.722567</v>
       </c>
       <c r="C39" t="n">
-        <v>0.880649</v>
+        <v>0.846465</v>
       </c>
       <c r="D39" t="n">
-        <v>0.719193</v>
+        <v>0.685983</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.775138</v>
+        <v>0.726843</v>
       </c>
       <c r="C40" t="n">
-        <v>0.900803</v>
+        <v>0.849214</v>
       </c>
       <c r="D40" t="n">
-        <v>0.728704</v>
+        <v>0.72429</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.895994</v>
+        <v>0.86291</v>
       </c>
       <c r="C41" t="n">
-        <v>0.893625</v>
+        <v>0.878396</v>
       </c>
       <c r="D41" t="n">
-        <v>0.74874</v>
+        <v>0.742143</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.922832</v>
+        <v>0.8901790000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.924714</v>
+        <v>0.904292</v>
       </c>
       <c r="D42" t="n">
-        <v>0.778607</v>
+        <v>0.755847</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.943219</v>
+        <v>0.8815730000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.977756</v>
+        <v>0.887069</v>
       </c>
       <c r="D43" t="n">
-        <v>0.800026</v>
+        <v>0.777068</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.974128</v>
+        <v>0.917033</v>
       </c>
       <c r="C44" t="n">
-        <v>0.961623</v>
+        <v>0.924661</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8403890000000001</v>
+        <v>0.79941</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>1.00435</v>
+        <v>0.948802</v>
       </c>
       <c r="C45" t="n">
-        <v>1.02689</v>
+        <v>0.945352</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8609830000000001</v>
+        <v>0.808723</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>1.04759</v>
+        <v>0.9514860000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>1.07168</v>
+        <v>0.948686</v>
       </c>
       <c r="D46" t="n">
-        <v>0.851765</v>
+        <v>0.836958</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>1.08431</v>
+        <v>0.990357</v>
       </c>
       <c r="C47" t="n">
-        <v>1.07489</v>
+        <v>0.995164</v>
       </c>
       <c r="D47" t="n">
-        <v>0.883271</v>
+        <v>0.865331</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.08999</v>
+        <v>1.01326</v>
       </c>
       <c r="C48" t="n">
-        <v>1.09441</v>
+        <v>1.0494</v>
       </c>
       <c r="D48" t="n">
-        <v>0.938025</v>
+        <v>0.910303</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.11564</v>
+        <v>1.05025</v>
       </c>
       <c r="C49" t="n">
-        <v>1.12962</v>
+        <v>1.06386</v>
       </c>
       <c r="D49" t="n">
-        <v>0.949823</v>
+        <v>0.8953449999999999</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.12658</v>
+        <v>1.07143</v>
       </c>
       <c r="C50" t="n">
-        <v>1.33808</v>
+        <v>1.24538</v>
       </c>
       <c r="D50" t="n">
-        <v>1.17611</v>
+        <v>1.11006</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.14448</v>
+        <v>1.11346</v>
       </c>
       <c r="C51" t="n">
-        <v>1.35331</v>
+        <v>1.26095</v>
       </c>
       <c r="D51" t="n">
-        <v>1.19373</v>
+        <v>1.14527</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.19263</v>
+        <v>1.13665</v>
       </c>
       <c r="C52" t="n">
-        <v>1.40531</v>
+        <v>1.3365</v>
       </c>
       <c r="D52" t="n">
-        <v>1.24343</v>
+        <v>1.17723</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.26255</v>
+        <v>1.17627</v>
       </c>
       <c r="C53" t="n">
-        <v>1.4338</v>
+        <v>1.33673</v>
       </c>
       <c r="D53" t="n">
-        <v>1.27878</v>
+        <v>1.19506</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.28467</v>
+        <v>1.21334</v>
       </c>
       <c r="C54" t="n">
-        <v>1.46187</v>
+        <v>1.35849</v>
       </c>
       <c r="D54" t="n">
-        <v>1.28249</v>
+        <v>1.21733</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.33527</v>
+        <v>1.24186</v>
       </c>
       <c r="C55" t="n">
-        <v>1.45395</v>
+        <v>1.44648</v>
       </c>
       <c r="D55" t="n">
-        <v>1.33012</v>
+        <v>1.24909</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.5043</v>
+        <v>1.44036</v>
       </c>
       <c r="C56" t="n">
-        <v>1.51602</v>
+        <v>1.43539</v>
       </c>
       <c r="D56" t="n">
-        <v>1.33253</v>
+        <v>1.31145</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.50661</v>
+        <v>1.4801</v>
       </c>
       <c r="C57" t="n">
-        <v>1.51839</v>
+        <v>1.47344</v>
       </c>
       <c r="D57" t="n">
-        <v>1.40877</v>
+        <v>1.34738</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.58742</v>
+        <v>1.50915</v>
       </c>
       <c r="C58" t="n">
-        <v>1.55051</v>
+        <v>1.49503</v>
       </c>
       <c r="D58" t="n">
-        <v>1.4454</v>
+        <v>1.35664</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.58519</v>
+        <v>1.56351</v>
       </c>
       <c r="C59" t="n">
-        <v>1.57238</v>
+        <v>1.50822</v>
       </c>
       <c r="D59" t="n">
-        <v>1.45733</v>
+        <v>1.38453</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.62467</v>
+        <v>1.6138</v>
       </c>
       <c r="C60" t="n">
-        <v>1.61649</v>
+        <v>1.57755</v>
       </c>
       <c r="D60" t="n">
-        <v>1.47393</v>
+        <v>1.47708</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.67278</v>
+        <v>1.61503</v>
       </c>
       <c r="C61" t="n">
-        <v>1.74635</v>
+        <v>1.60012</v>
       </c>
       <c r="D61" t="n">
-        <v>1.54355</v>
+        <v>1.5318</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.68539</v>
+        <v>1.63563</v>
       </c>
       <c r="C62" t="n">
-        <v>1.66381</v>
+        <v>1.63763</v>
       </c>
       <c r="D62" t="n">
-        <v>1.55576</v>
+        <v>1.55684</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.69863</v>
+        <v>1.66803</v>
       </c>
       <c r="C63" t="n">
-        <v>1.70117</v>
+        <v>1.69189</v>
       </c>
       <c r="D63" t="n">
-        <v>1.60981</v>
+        <v>1.58484</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.71157</v>
+        <v>1.72714</v>
       </c>
       <c r="C64" t="n">
-        <v>1.87027</v>
+        <v>1.8791</v>
       </c>
       <c r="D64" t="n">
-        <v>1.88545</v>
+        <v>1.89548</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.77571</v>
+        <v>1.75899</v>
       </c>
       <c r="C65" t="n">
-        <v>1.85908</v>
+        <v>1.84448</v>
       </c>
       <c r="D65" t="n">
-        <v>1.96383</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.77025</v>
+        <v>1.80666</v>
       </c>
       <c r="C66" t="n">
-        <v>1.91416</v>
+        <v>1.86756</v>
       </c>
       <c r="D66" t="n">
-        <v>1.95282</v>
+        <v>1.96115</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.83165</v>
+        <v>1.8361</v>
       </c>
       <c r="C67" t="n">
-        <v>1.9186</v>
+        <v>1.88938</v>
       </c>
       <c r="D67" t="n">
-        <v>2.00216</v>
+        <v>2.04154</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.86085</v>
+        <v>1.86823</v>
       </c>
       <c r="C68" t="n">
-        <v>1.87324</v>
+        <v>1.91637</v>
       </c>
       <c r="D68" t="n">
-        <v>2.03667</v>
+        <v>2.09203</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.86952</v>
+        <v>1.99179</v>
       </c>
       <c r="C69" t="n">
-        <v>1.93883</v>
+        <v>1.96885</v>
       </c>
       <c r="D69" t="n">
-        <v>2.05706</v>
+        <v>2.08299</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>1.98177</v>
+        <v>2.05388</v>
       </c>
       <c r="C70" t="n">
-        <v>1.93559</v>
+        <v>1.95317</v>
       </c>
       <c r="D70" t="n">
-        <v>2.06915</v>
+        <v>2.13882</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.00543</v>
+        <v>2.02018</v>
       </c>
       <c r="C71" t="n">
-        <v>1.98435</v>
+        <v>1.97823</v>
       </c>
       <c r="D71" t="n">
-        <v>2.13808</v>
+        <v>2.15969</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.0221</v>
+        <v>2.05197</v>
       </c>
       <c r="C72" t="n">
-        <v>1.99893</v>
+        <v>2.01585</v>
       </c>
       <c r="D72" t="n">
-        <v>2.20857</v>
+        <v>2.21496</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.07859</v>
+        <v>2.07543</v>
       </c>
       <c r="C73" t="n">
-        <v>2.03545</v>
+        <v>2.03718</v>
       </c>
       <c r="D73" t="n">
-        <v>2.25911</v>
+        <v>2.19866</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.09625</v>
+        <v>2.10716</v>
       </c>
       <c r="C74" t="n">
-        <v>2.07491</v>
+        <v>2.0714</v>
       </c>
       <c r="D74" t="n">
-        <v>2.25311</v>
+        <v>2.29197</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.09305</v>
+        <v>2.11972</v>
       </c>
       <c r="C75" t="n">
-        <v>2.08485</v>
+        <v>2.08383</v>
       </c>
       <c r="D75" t="n">
-        <v>2.27889</v>
+        <v>2.2969</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.13646</v>
+        <v>2.13041</v>
       </c>
       <c r="C76" t="n">
-        <v>2.09902</v>
+        <v>2.11759</v>
       </c>
       <c r="D76" t="n">
-        <v>2.32319</v>
+        <v>2.36887</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.17739</v>
+        <v>2.21988</v>
       </c>
       <c r="C77" t="n">
-        <v>2.15974</v>
+        <v>2.15194</v>
       </c>
       <c r="D77" t="n">
-        <v>2.37351</v>
+        <v>2.40024</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.19544</v>
+        <v>2.1893</v>
       </c>
       <c r="C78" t="n">
-        <v>2.31852</v>
+        <v>2.24515</v>
       </c>
       <c r="D78" t="n">
-        <v>2.54322</v>
+        <v>2.58595</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.20158</v>
+        <v>2.23852</v>
       </c>
       <c r="C79" t="n">
-        <v>2.27865</v>
+        <v>2.31128</v>
       </c>
       <c r="D79" t="n">
-        <v>2.61569</v>
+        <v>2.65861</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.19653</v>
+        <v>2.23517</v>
       </c>
       <c r="C80" t="n">
-        <v>2.3295</v>
+        <v>2.35523</v>
       </c>
       <c r="D80" t="n">
-        <v>2.70101</v>
+        <v>2.66656</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.24505</v>
+        <v>2.2424</v>
       </c>
       <c r="C81" t="n">
-        <v>2.35026</v>
+        <v>2.35437</v>
       </c>
       <c r="D81" t="n">
-        <v>2.66108</v>
+        <v>2.68867</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.25768</v>
+        <v>2.32726</v>
       </c>
       <c r="C82" t="n">
-        <v>2.33901</v>
+        <v>2.38656</v>
       </c>
       <c r="D82" t="n">
-        <v>2.74357</v>
+        <v>2.7321</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.26633</v>
+        <v>2.28779</v>
       </c>
       <c r="C83" t="n">
-        <v>2.39784</v>
+        <v>2.36093</v>
       </c>
       <c r="D83" t="n">
-        <v>2.74372</v>
+        <v>2.73817</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.41106</v>
+        <v>2.37162</v>
       </c>
       <c r="C84" t="n">
-        <v>2.39239</v>
+        <v>2.40625</v>
       </c>
       <c r="D84" t="n">
-        <v>2.7288</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.37548</v>
+        <v>2.39428</v>
       </c>
       <c r="C85" t="n">
-        <v>2.46475</v>
+        <v>2.45318</v>
       </c>
       <c r="D85" t="n">
-        <v>2.78242</v>
+        <v>2.86264</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.38723</v>
+        <v>2.39162</v>
       </c>
       <c r="C86" t="n">
-        <v>2.47025</v>
+        <v>2.42921</v>
       </c>
       <c r="D86" t="n">
-        <v>2.80432</v>
+        <v>2.86376</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.44703</v>
+        <v>2.46771</v>
       </c>
       <c r="C87" t="n">
-        <v>2.48734</v>
+        <v>2.47573</v>
       </c>
       <c r="D87" t="n">
-        <v>2.88732</v>
+        <v>2.93028</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.49208</v>
+        <v>2.44473</v>
       </c>
       <c r="C88" t="n">
-        <v>2.45452</v>
+        <v>2.47899</v>
       </c>
       <c r="D88" t="n">
-        <v>2.85742</v>
+        <v>2.91954</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.4374</v>
+        <v>2.44706</v>
       </c>
       <c r="C89" t="n">
-        <v>2.53602</v>
+        <v>2.51239</v>
       </c>
       <c r="D89" t="n">
-        <v>2.91534</v>
+        <v>2.97294</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.46741</v>
+        <v>2.50649</v>
       </c>
       <c r="C90" t="n">
-        <v>2.55098</v>
+        <v>2.53502</v>
       </c>
       <c r="D90" t="n">
-        <v>2.90771</v>
+        <v>2.98551</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.57773</v>
+        <v>2.50008</v>
       </c>
       <c r="C91" t="n">
-        <v>2.57369</v>
+        <v>2.58983</v>
       </c>
       <c r="D91" t="n">
-        <v>2.93415</v>
+        <v>2.9857</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.5424</v>
+        <v>2.55908</v>
       </c>
       <c r="C92" t="n">
-        <v>2.72483</v>
+        <v>2.79445</v>
       </c>
       <c r="D92" t="n">
-        <v>3.22076</v>
+        <v>3.24952</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.53659</v>
+        <v>2.57515</v>
       </c>
       <c r="C93" t="n">
-        <v>2.74376</v>
+        <v>2.7438</v>
       </c>
       <c r="D93" t="n">
-        <v>3.28647</v>
+        <v>3.24257</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.5887</v>
+        <v>2.59108</v>
       </c>
       <c r="C94" t="n">
-        <v>2.80106</v>
+        <v>2.76743</v>
       </c>
       <c r="D94" t="n">
-        <v>3.25002</v>
+        <v>3.24511</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.68211</v>
+        <v>2.59698</v>
       </c>
       <c r="C95" t="n">
-        <v>2.79429</v>
+        <v>2.78963</v>
       </c>
       <c r="D95" t="n">
-        <v>3.27862</v>
+        <v>3.19804</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.66863</v>
+        <v>2.70116</v>
       </c>
       <c r="C96" t="n">
-        <v>2.88336</v>
+        <v>2.87942</v>
       </c>
       <c r="D96" t="n">
-        <v>3.35899</v>
+        <v>3.29925</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.63388</v>
+        <v>2.64994</v>
       </c>
       <c r="C97" t="n">
-        <v>2.8565</v>
+        <v>2.87606</v>
       </c>
       <c r="D97" t="n">
-        <v>3.31599</v>
+        <v>3.36205</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.76468</v>
+        <v>2.75197</v>
       </c>
       <c r="C98" t="n">
-        <v>2.93219</v>
+        <v>2.92666</v>
       </c>
       <c r="D98" t="n">
-        <v>3.29858</v>
+        <v>3.29196</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.75389</v>
+        <v>2.82148</v>
       </c>
       <c r="C99" t="n">
-        <v>2.93662</v>
+        <v>2.91806</v>
       </c>
       <c r="D99" t="n">
-        <v>3.28642</v>
+        <v>3.32718</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.82111</v>
+        <v>2.80005</v>
       </c>
       <c r="C100" t="n">
-        <v>2.96286</v>
+        <v>2.9917</v>
       </c>
       <c r="D100" t="n">
-        <v>3.36641</v>
+        <v>3.29277</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.86898</v>
+        <v>2.82465</v>
       </c>
       <c r="C101" t="n">
-        <v>2.95917</v>
+        <v>2.98813</v>
       </c>
       <c r="D101" t="n">
-        <v>3.36913</v>
+        <v>3.38671</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.93004</v>
+        <v>2.81415</v>
       </c>
       <c r="C102" t="n">
-        <v>3.02982</v>
+        <v>3.03804</v>
       </c>
       <c r="D102" t="n">
-        <v>3.35219</v>
+        <v>3.38474</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.89841</v>
+        <v>2.84518</v>
       </c>
       <c r="C103" t="n">
-        <v>3.04056</v>
+        <v>3.06389</v>
       </c>
       <c r="D103" t="n">
-        <v>3.40836</v>
+        <v>3.44716</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.90713</v>
+        <v>2.94245</v>
       </c>
       <c r="C104" t="n">
-        <v>3.04663</v>
+        <v>3.11011</v>
       </c>
       <c r="D104" t="n">
-        <v>3.39835</v>
+        <v>3.48604</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.96897</v>
+        <v>2.92052</v>
       </c>
       <c r="C105" t="n">
-        <v>3.06755</v>
+        <v>3.10447</v>
       </c>
       <c r="D105" t="n">
-        <v>3.52437</v>
+        <v>3.49561</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>3.0294</v>
+        <v>2.94191</v>
       </c>
       <c r="C106" t="n">
-        <v>3.14396</v>
+        <v>3.10257</v>
       </c>
       <c r="D106" t="n">
-        <v>3.49443</v>
+        <v>3.54072</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.97468</v>
+        <v>2.97735</v>
       </c>
       <c r="C107" t="n">
-        <v>3.42147</v>
+        <v>3.35441</v>
       </c>
       <c r="D107" t="n">
-        <v>3.78742</v>
+        <v>3.73748</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>3.00701</v>
+        <v>2.95258</v>
       </c>
       <c r="C108" t="n">
-        <v>3.3896</v>
+        <v>3.35088</v>
       </c>
       <c r="D108" t="n">
-        <v>3.76344</v>
+        <v>3.776</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.04548</v>
+        <v>3.02353</v>
       </c>
       <c r="C109" t="n">
-        <v>3.40911</v>
+        <v>3.436</v>
       </c>
       <c r="D109" t="n">
-        <v>3.85026</v>
+        <v>3.83769</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.12981</v>
+        <v>3.04855</v>
       </c>
       <c r="C110" t="n">
-        <v>3.41801</v>
+        <v>3.43318</v>
       </c>
       <c r="D110" t="n">
-        <v>3.87359</v>
+        <v>3.87612</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.14245</v>
+        <v>3.09173</v>
       </c>
       <c r="C111" t="n">
-        <v>3.46459</v>
+        <v>3.40749</v>
       </c>
       <c r="D111" t="n">
-        <v>3.93238</v>
+        <v>3.82716</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.30821</v>
+        <v>3.21269</v>
       </c>
       <c r="C112" t="n">
-        <v>3.45125</v>
+        <v>3.59427</v>
       </c>
       <c r="D112" t="n">
-        <v>3.92731</v>
+        <v>3.94707</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.37126</v>
+        <v>3.3046</v>
       </c>
       <c r="C113" t="n">
-        <v>3.57743</v>
+        <v>3.636</v>
       </c>
       <c r="D113" t="n">
-        <v>4.01684</v>
+        <v>3.94091</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.4661</v>
+        <v>3.30786</v>
       </c>
       <c r="C114" t="n">
-        <v>3.59207</v>
+        <v>3.61917</v>
       </c>
       <c r="D114" t="n">
-        <v>4.08165</v>
+        <v>4.06728</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.46584</v>
+        <v>3.29434</v>
       </c>
       <c r="C115" t="n">
-        <v>3.59626</v>
+        <v>3.56962</v>
       </c>
       <c r="D115" t="n">
-        <v>4.0691</v>
+        <v>4.02158</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.37344</v>
+        <v>3.31715</v>
       </c>
       <c r="C116" t="n">
-        <v>3.64884</v>
+        <v>3.61675</v>
       </c>
       <c r="D116" t="n">
-        <v>4.15171</v>
+        <v>4.10821</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.51118</v>
+        <v>3.43785</v>
       </c>
       <c r="C117" t="n">
-        <v>3.68228</v>
+        <v>3.76537</v>
       </c>
       <c r="D117" t="n">
-        <v>4.11391</v>
+        <v>4.08665</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.43173</v>
+        <v>3.41941</v>
       </c>
       <c r="C118" t="n">
-        <v>3.73375</v>
+        <v>3.71035</v>
       </c>
       <c r="D118" t="n">
-        <v>4.09783</v>
+        <v>4.16657</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.59895</v>
+        <v>3.50909</v>
       </c>
       <c r="C119" t="n">
-        <v>3.87766</v>
+        <v>3.78698</v>
       </c>
       <c r="D119" t="n">
-        <v>4.22574</v>
+        <v>4.221</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.447281</v>
+        <v>0.464998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.780623</v>
+        <v>0.796526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.533959</v>
+        <v>0.547943</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.484286</v>
+        <v>0.466707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.84838</v>
+        <v>0.814149</v>
       </c>
       <c r="D3" t="n">
-        <v>0.570278</v>
+        <v>0.540463</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.481465</v>
+        <v>0.471706</v>
       </c>
       <c r="C4" t="n">
-        <v>0.819546</v>
+        <v>0.793272</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5532820000000001</v>
+        <v>0.532216</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.479501</v>
+        <v>0.485043</v>
       </c>
       <c r="C5" t="n">
-        <v>0.814438</v>
+        <v>0.812091</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5373599999999999</v>
+        <v>0.558514</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.460801</v>
+        <v>0.462783</v>
       </c>
       <c r="C6" t="n">
-        <v>0.812034</v>
+        <v>0.794811</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54004</v>
+        <v>0.542871</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.457956</v>
+        <v>0.457695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.832296</v>
+        <v>0.805002</v>
       </c>
       <c r="D7" t="n">
-        <v>0.545597</v>
+        <v>0.55311</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.452783</v>
+        <v>0.452512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.823779</v>
+        <v>0.814307</v>
       </c>
       <c r="D8" t="n">
-        <v>0.553189</v>
+        <v>0.553076</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.458952</v>
+        <v>0.459671</v>
       </c>
       <c r="C9" t="n">
-        <v>0.832129</v>
+        <v>0.815384</v>
       </c>
       <c r="D9" t="n">
-        <v>0.55504</v>
+        <v>0.563833</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.460149</v>
+        <v>0.465679</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8501880000000001</v>
+        <v>0.839132</v>
       </c>
       <c r="D10" t="n">
-        <v>0.557194</v>
+        <v>0.560739</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.466559</v>
+        <v>0.465836</v>
       </c>
       <c r="C11" t="n">
-        <v>0.830179</v>
+        <v>0.8308449999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5627180000000001</v>
+        <v>0.560701</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.476601</v>
+        <v>0.470301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.870309</v>
+        <v>0.838298</v>
       </c>
       <c r="D12" t="n">
-        <v>0.563275</v>
+        <v>0.569238</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.483969</v>
+        <v>0.480174</v>
       </c>
       <c r="C13" t="n">
-        <v>0.851518</v>
+        <v>0.821314</v>
       </c>
       <c r="D13" t="n">
-        <v>0.571415</v>
+        <v>0.567074</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.481588</v>
+        <v>0.483432</v>
       </c>
       <c r="C14" t="n">
-        <v>0.840714</v>
+        <v>0.840996</v>
       </c>
       <c r="D14" t="n">
-        <v>0.582109</v>
+        <v>0.57767</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.488397</v>
+        <v>0.476822</v>
       </c>
       <c r="C15" t="n">
-        <v>0.846261</v>
+        <v>0.847229</v>
       </c>
       <c r="D15" t="n">
-        <v>0.570549</v>
+        <v>0.580346</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.486617</v>
+        <v>0.482124</v>
       </c>
       <c r="C16" t="n">
-        <v>0.864818</v>
+        <v>0.833667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.582317</v>
+        <v>0.585035</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.479827</v>
+        <v>0.485927</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8614810000000001</v>
+        <v>0.840593</v>
       </c>
       <c r="D17" t="n">
-        <v>0.585134</v>
+        <v>0.575411</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.489054</v>
+        <v>0.491092</v>
       </c>
       <c r="C18" t="n">
-        <v>0.858483</v>
+        <v>0.852506</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585676</v>
+        <v>0.595079</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.494808</v>
+        <v>0.489899</v>
       </c>
       <c r="C19" t="n">
-        <v>0.878128</v>
+        <v>0.868008</v>
       </c>
       <c r="D19" t="n">
-        <v>0.588882</v>
+        <v>0.58531</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.491674</v>
+        <v>0.497747</v>
       </c>
       <c r="C20" t="n">
-        <v>0.876787</v>
+        <v>0.869192</v>
       </c>
       <c r="D20" t="n">
-        <v>0.601396</v>
+        <v>0.600653</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.507211</v>
+        <v>0.498927</v>
       </c>
       <c r="C21" t="n">
-        <v>0.891744</v>
+        <v>0.9068349999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.592024</v>
+        <v>0.613661</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.502745</v>
+        <v>0.521574</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9219039999999999</v>
+        <v>0.917531</v>
       </c>
       <c r="D22" t="n">
-        <v>0.613387</v>
+        <v>0.611995</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.505697</v>
+        <v>0.529865</v>
       </c>
       <c r="C23" t="n">
-        <v>0.896509</v>
+        <v>0.918615</v>
       </c>
       <c r="D23" t="n">
-        <v>0.628727</v>
+        <v>0.634761</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.500621</v>
+        <v>0.527089</v>
       </c>
       <c r="C24" t="n">
-        <v>0.908317</v>
+        <v>0.907666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.618736</v>
+        <v>0.639801</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.500898</v>
+        <v>0.521342</v>
       </c>
       <c r="C25" t="n">
-        <v>0.924403</v>
+        <v>0.930549</v>
       </c>
       <c r="D25" t="n">
-        <v>0.612762</v>
+        <v>0.661913</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.516336</v>
+        <v>0.528208</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9276219999999999</v>
+        <v>0.931277</v>
       </c>
       <c r="D26" t="n">
-        <v>0.617273</v>
+        <v>0.624989</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5725749999999999</v>
+        <v>0.585216</v>
       </c>
       <c r="C27" t="n">
-        <v>0.920188</v>
+        <v>0.931594</v>
       </c>
       <c r="D27" t="n">
-        <v>0.628078</v>
+        <v>0.6393990000000001</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.580075</v>
+        <v>0.59019</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9313399999999999</v>
+        <v>0.933605</v>
       </c>
       <c r="D28" t="n">
-        <v>0.632792</v>
+        <v>0.658281</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.587774</v>
+        <v>0.5984390000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.939767</v>
+        <v>0.961662</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6355769999999999</v>
+        <v>0.702385</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.612414</v>
+        <v>0.608369</v>
       </c>
       <c r="C30" t="n">
-        <v>0.982993</v>
+        <v>0.962596</v>
       </c>
       <c r="D30" t="n">
-        <v>0.670161</v>
+        <v>0.666589</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6240520000000001</v>
+        <v>0.620092</v>
       </c>
       <c r="C31" t="n">
-        <v>0.977452</v>
+        <v>0.975222</v>
       </c>
       <c r="D31" t="n">
-        <v>0.648132</v>
+        <v>0.700568</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.643802</v>
+        <v>0.642254</v>
       </c>
       <c r="C32" t="n">
-        <v>0.977685</v>
+        <v>0.993151</v>
       </c>
       <c r="D32" t="n">
-        <v>0.675297</v>
+        <v>0.718522</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6462290000000001</v>
+        <v>0.650263</v>
       </c>
       <c r="C33" t="n">
-        <v>1.01613</v>
+        <v>1.0018</v>
       </c>
       <c r="D33" t="n">
-        <v>0.69017</v>
+        <v>0.7254080000000001</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.646451</v>
+        <v>0.656576</v>
       </c>
       <c r="C34" t="n">
-        <v>1.01567</v>
+        <v>0.993615</v>
       </c>
       <c r="D34" t="n">
-        <v>0.719953</v>
+        <v>0.733314</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.669841</v>
+        <v>0.683707</v>
       </c>
       <c r="C35" t="n">
-        <v>1.12709</v>
+        <v>1.09663</v>
       </c>
       <c r="D35" t="n">
-        <v>0.822076</v>
+        <v>0.83716</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.683654</v>
+        <v>0.682565</v>
       </c>
       <c r="C36" t="n">
-        <v>1.15207</v>
+        <v>1.13271</v>
       </c>
       <c r="D36" t="n">
-        <v>0.846043</v>
+        <v>0.8718050000000001</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.700556</v>
+        <v>0.7015169999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>1.15655</v>
+        <v>1.16126</v>
       </c>
       <c r="D37" t="n">
-        <v>0.849001</v>
+        <v>0.860459</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.718799</v>
+        <v>0.706925</v>
       </c>
       <c r="C38" t="n">
-        <v>1.18633</v>
+        <v>1.16075</v>
       </c>
       <c r="D38" t="n">
-        <v>0.890631</v>
+        <v>0.884119</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7429249999999999</v>
+        <v>0.736739</v>
       </c>
       <c r="C39" t="n">
-        <v>1.21081</v>
+        <v>1.18064</v>
       </c>
       <c r="D39" t="n">
-        <v>0.893194</v>
+        <v>0.918107</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.756814</v>
+        <v>0.752171</v>
       </c>
       <c r="C40" t="n">
-        <v>1.19172</v>
+        <v>1.19191</v>
       </c>
       <c r="D40" t="n">
-        <v>0.929285</v>
+        <v>0.95438</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.860244</v>
+        <v>0.865527</v>
       </c>
       <c r="C41" t="n">
-        <v>1.23603</v>
+        <v>1.2397</v>
       </c>
       <c r="D41" t="n">
-        <v>0.92198</v>
+        <v>0.975568</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.883361</v>
+        <v>0.890522</v>
       </c>
       <c r="C42" t="n">
-        <v>1.29053</v>
+        <v>1.25842</v>
       </c>
       <c r="D42" t="n">
-        <v>0.977823</v>
+        <v>0.990031</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.917137</v>
+        <v>0.907978</v>
       </c>
       <c r="C43" t="n">
-        <v>1.29132</v>
+        <v>1.27538</v>
       </c>
       <c r="D43" t="n">
-        <v>0.996772</v>
+        <v>1.02935</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.91704</v>
+        <v>0.911653</v>
       </c>
       <c r="C44" t="n">
-        <v>1.37276</v>
+        <v>1.29703</v>
       </c>
       <c r="D44" t="n">
-        <v>1.02007</v>
+        <v>1.05011</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.955978</v>
+        <v>0.9545979999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>1.37407</v>
+        <v>1.35324</v>
       </c>
       <c r="D45" t="n">
-        <v>1.06158</v>
+        <v>1.07571</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.963073</v>
+        <v>0.966004</v>
       </c>
       <c r="C46" t="n">
-        <v>1.40027</v>
+        <v>1.35858</v>
       </c>
       <c r="D46" t="n">
-        <v>1.08354</v>
+        <v>1.12126</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.993038</v>
+        <v>0.983083</v>
       </c>
       <c r="C47" t="n">
-        <v>1.44832</v>
+        <v>1.42636</v>
       </c>
       <c r="D47" t="n">
-        <v>1.10431</v>
+        <v>1.13619</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.991401</v>
+        <v>0.995559</v>
       </c>
       <c r="C48" t="n">
-        <v>1.46792</v>
+        <v>1.47266</v>
       </c>
       <c r="D48" t="n">
-        <v>1.12286</v>
+        <v>1.15109</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.03467</v>
+        <v>1.01161</v>
       </c>
       <c r="C49" t="n">
-        <v>1.49753</v>
+        <v>1.48981</v>
       </c>
       <c r="D49" t="n">
-        <v>1.17299</v>
+        <v>1.19026</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.05033</v>
+        <v>1.05213</v>
       </c>
       <c r="C50" t="n">
-        <v>1.7066</v>
+        <v>1.6949</v>
       </c>
       <c r="D50" t="n">
-        <v>1.29763</v>
+        <v>1.31144</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.06394</v>
+        <v>1.09391</v>
       </c>
       <c r="C51" t="n">
-        <v>1.798</v>
+        <v>1.7746</v>
       </c>
       <c r="D51" t="n">
-        <v>1.33478</v>
+        <v>1.40648</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.11041</v>
+        <v>1.07801</v>
       </c>
       <c r="C52" t="n">
-        <v>1.88089</v>
+        <v>1.81784</v>
       </c>
       <c r="D52" t="n">
-        <v>1.42434</v>
+        <v>1.4103</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.13191</v>
+        <v>1.12948</v>
       </c>
       <c r="C53" t="n">
-        <v>2.06101</v>
+        <v>1.84318</v>
       </c>
       <c r="D53" t="n">
-        <v>1.43848</v>
+        <v>1.53566</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.14576</v>
+        <v>1.16315</v>
       </c>
       <c r="C54" t="n">
-        <v>1.95166</v>
+        <v>1.91961</v>
       </c>
       <c r="D54" t="n">
-        <v>1.50611</v>
+        <v>1.53915</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.20196</v>
+        <v>1.2108</v>
       </c>
       <c r="C55" t="n">
-        <v>1.94766</v>
+        <v>1.96255</v>
       </c>
       <c r="D55" t="n">
-        <v>1.51179</v>
+        <v>1.55989</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.3109</v>
+        <v>1.34326</v>
       </c>
       <c r="C56" t="n">
-        <v>2.03538</v>
+        <v>1.99453</v>
       </c>
       <c r="D56" t="n">
-        <v>1.60492</v>
+        <v>1.63546</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.35967</v>
+        <v>1.38668</v>
       </c>
       <c r="C57" t="n">
-        <v>2.12145</v>
+        <v>2.08233</v>
       </c>
       <c r="D57" t="n">
-        <v>1.61842</v>
+        <v>1.64296</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.39039</v>
+        <v>1.40359</v>
       </c>
       <c r="C58" t="n">
-        <v>2.15007</v>
+        <v>2.12275</v>
       </c>
       <c r="D58" t="n">
-        <v>1.67344</v>
+        <v>1.72671</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.41047</v>
+        <v>1.42665</v>
       </c>
       <c r="C59" t="n">
-        <v>2.2288</v>
+        <v>2.15763</v>
       </c>
       <c r="D59" t="n">
-        <v>1.74309</v>
+        <v>1.79454</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.45008</v>
+        <v>1.45152</v>
       </c>
       <c r="C60" t="n">
-        <v>2.28283</v>
+        <v>2.27606</v>
       </c>
       <c r="D60" t="n">
-        <v>1.76361</v>
+        <v>1.8875</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.50974</v>
+        <v>1.48417</v>
       </c>
       <c r="C61" t="n">
-        <v>2.30778</v>
+        <v>2.31803</v>
       </c>
       <c r="D61" t="n">
-        <v>1.85693</v>
+        <v>1.90861</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.51787</v>
+        <v>1.60451</v>
       </c>
       <c r="C62" t="n">
-        <v>2.40413</v>
+        <v>2.43606</v>
       </c>
       <c r="D62" t="n">
-        <v>1.88565</v>
+        <v>1.99935</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.54472</v>
+        <v>1.55092</v>
       </c>
       <c r="C63" t="n">
-        <v>2.51366</v>
+        <v>2.42066</v>
       </c>
       <c r="D63" t="n">
-        <v>1.96585</v>
+        <v>1.97776</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.60407</v>
+        <v>1.60551</v>
       </c>
       <c r="C64" t="n">
-        <v>2.7391</v>
+        <v>2.72022</v>
       </c>
       <c r="D64" t="n">
-        <v>2.12491</v>
+        <v>2.18192</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.6544</v>
+        <v>1.66186</v>
       </c>
       <c r="C65" t="n">
-        <v>2.74975</v>
+        <v>2.83543</v>
       </c>
       <c r="D65" t="n">
-        <v>2.15835</v>
+        <v>2.37686</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.68507</v>
+        <v>1.7939</v>
       </c>
       <c r="C66" t="n">
-        <v>2.81294</v>
+        <v>2.75763</v>
       </c>
       <c r="D66" t="n">
-        <v>2.21068</v>
+        <v>2.35745</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.75869</v>
+        <v>1.75953</v>
       </c>
       <c r="C67" t="n">
-        <v>2.91291</v>
+        <v>2.95119</v>
       </c>
       <c r="D67" t="n">
-        <v>2.273</v>
+        <v>2.48536</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.75163</v>
+        <v>1.80921</v>
       </c>
       <c r="C68" t="n">
-        <v>2.94211</v>
+        <v>2.95431</v>
       </c>
       <c r="D68" t="n">
-        <v>2.35261</v>
+        <v>2.38732</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.78508</v>
+        <v>1.73936</v>
       </c>
       <c r="C69" t="n">
-        <v>2.9262</v>
+        <v>2.96226</v>
       </c>
       <c r="D69" t="n">
-        <v>2.39412</v>
+        <v>2.50649</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.92714</v>
+        <v>1.88386</v>
       </c>
       <c r="C70" t="n">
-        <v>3.04535</v>
+        <v>3.04522</v>
       </c>
       <c r="D70" t="n">
-        <v>2.52771</v>
+        <v>2.5245</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.91473</v>
+        <v>1.96312</v>
       </c>
       <c r="C71" t="n">
-        <v>3.08947</v>
+        <v>3.10904</v>
       </c>
       <c r="D71" t="n">
-        <v>2.55241</v>
+        <v>2.5789</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.96975</v>
+        <v>1.96569</v>
       </c>
       <c r="C72" t="n">
-        <v>3.12679</v>
+        <v>3.14859</v>
       </c>
       <c r="D72" t="n">
-        <v>2.57547</v>
+        <v>2.63397</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.00642</v>
+        <v>2.00264</v>
       </c>
       <c r="C73" t="n">
-        <v>3.25919</v>
+        <v>3.21369</v>
       </c>
       <c r="D73" t="n">
-        <v>2.69216</v>
+        <v>2.70986</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.01353</v>
+        <v>2.01776</v>
       </c>
       <c r="C74" t="n">
-        <v>3.25842</v>
+        <v>3.39385</v>
       </c>
       <c r="D74" t="n">
-        <v>2.70529</v>
+        <v>2.91435</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.04953</v>
+        <v>2.10501</v>
       </c>
       <c r="C75" t="n">
-        <v>3.38741</v>
+        <v>3.32572</v>
       </c>
       <c r="D75" t="n">
-        <v>2.81977</v>
+        <v>2.84443</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.07951</v>
+        <v>2.09664</v>
       </c>
       <c r="C76" t="n">
-        <v>3.4054</v>
+        <v>3.35175</v>
       </c>
       <c r="D76" t="n">
-        <v>2.83291</v>
+        <v>2.92821</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.11173</v>
+        <v>2.10379</v>
       </c>
       <c r="C77" t="n">
-        <v>3.40603</v>
+        <v>3.4947</v>
       </c>
       <c r="D77" t="n">
-        <v>2.99351</v>
+        <v>2.94407</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.13284</v>
+        <v>2.10796</v>
       </c>
       <c r="C78" t="n">
-        <v>3.72281</v>
+        <v>3.60053</v>
       </c>
       <c r="D78" t="n">
-        <v>3.06377</v>
+        <v>3.08618</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.20973</v>
+        <v>2.12672</v>
       </c>
       <c r="C79" t="n">
-        <v>3.74681</v>
+        <v>3.6544</v>
       </c>
       <c r="D79" t="n">
-        <v>3.11238</v>
+        <v>3.10165</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.16864</v>
+        <v>2.17258</v>
       </c>
       <c r="C80" t="n">
-        <v>3.75031</v>
+        <v>3.69378</v>
       </c>
       <c r="D80" t="n">
-        <v>3.09838</v>
+        <v>3.15349</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.22941</v>
+        <v>2.23035</v>
       </c>
       <c r="C81" t="n">
-        <v>3.78358</v>
+        <v>3.73448</v>
       </c>
       <c r="D81" t="n">
-        <v>3.19481</v>
+        <v>3.24013</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.24136</v>
+        <v>2.25236</v>
       </c>
       <c r="C82" t="n">
-        <v>3.79413</v>
+        <v>3.83279</v>
       </c>
       <c r="D82" t="n">
-        <v>3.2691</v>
+        <v>3.2969</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.26823</v>
+        <v>2.25184</v>
       </c>
       <c r="C83" t="n">
-        <v>3.89691</v>
+        <v>3.93994</v>
       </c>
       <c r="D83" t="n">
-        <v>3.27194</v>
+        <v>3.37286</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.34463</v>
+        <v>2.36168</v>
       </c>
       <c r="C84" t="n">
-        <v>3.92483</v>
+        <v>3.90777</v>
       </c>
       <c r="D84" t="n">
-        <v>3.32856</v>
+        <v>3.43006</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.41528</v>
+        <v>2.3635</v>
       </c>
       <c r="C85" t="n">
-        <v>3.88791</v>
+        <v>4.01575</v>
       </c>
       <c r="D85" t="n">
-        <v>3.41065</v>
+        <v>3.46687</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.41701</v>
+        <v>2.39845</v>
       </c>
       <c r="C86" t="n">
-        <v>4.03651</v>
+        <v>4.00663</v>
       </c>
       <c r="D86" t="n">
-        <v>3.53258</v>
+        <v>3.48131</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.44302</v>
+        <v>2.43113</v>
       </c>
       <c r="C87" t="n">
-        <v>4.03522</v>
+        <v>3.95374</v>
       </c>
       <c r="D87" t="n">
-        <v>3.47443</v>
+        <v>3.56429</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.50702</v>
+        <v>2.43655</v>
       </c>
       <c r="C88" t="n">
-        <v>4.04636</v>
+        <v>4.05116</v>
       </c>
       <c r="D88" t="n">
-        <v>3.55741</v>
+        <v>3.56876</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.43721</v>
+        <v>2.44408</v>
       </c>
       <c r="C89" t="n">
-        <v>4.12673</v>
+        <v>4.05815</v>
       </c>
       <c r="D89" t="n">
-        <v>3.59312</v>
+        <v>3.62847</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.49944</v>
+        <v>2.49047</v>
       </c>
       <c r="C90" t="n">
-        <v>4.17964</v>
+        <v>4.13044</v>
       </c>
       <c r="D90" t="n">
-        <v>3.53592</v>
+        <v>3.66191</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.50195</v>
+        <v>2.4946</v>
       </c>
       <c r="C91" t="n">
-        <v>4.28751</v>
+        <v>4.14496</v>
       </c>
       <c r="D91" t="n">
-        <v>3.59534</v>
+        <v>3.71277</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.53898</v>
+        <v>2.57328</v>
       </c>
       <c r="C92" t="n">
-        <v>4.37897</v>
+        <v>4.32917</v>
       </c>
       <c r="D92" t="n">
-        <v>3.72031</v>
+        <v>3.84611</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.58165</v>
+        <v>2.58458</v>
       </c>
       <c r="C93" t="n">
-        <v>4.44672</v>
+        <v>4.42573</v>
       </c>
       <c r="D93" t="n">
-        <v>3.80641</v>
+        <v>3.75826</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.55619</v>
+        <v>2.56031</v>
       </c>
       <c r="C94" t="n">
-        <v>4.42573</v>
+        <v>4.4129</v>
       </c>
       <c r="D94" t="n">
-        <v>3.84982</v>
+        <v>3.91035</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.54373</v>
+        <v>2.56367</v>
       </c>
       <c r="C95" t="n">
-        <v>4.48469</v>
+        <v>4.38864</v>
       </c>
       <c r="D95" t="n">
-        <v>3.97519</v>
+        <v>3.92378</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.63474</v>
+        <v>2.62426</v>
       </c>
       <c r="C96" t="n">
-        <v>4.55242</v>
+        <v>4.52278</v>
       </c>
       <c r="D96" t="n">
-        <v>3.95527</v>
+        <v>4.04334</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.64066</v>
+        <v>2.6693</v>
       </c>
       <c r="C97" t="n">
-        <v>4.54003</v>
+        <v>4.51712</v>
       </c>
       <c r="D97" t="n">
-        <v>3.94811</v>
+        <v>4.01353</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.80644</v>
+        <v>2.91561</v>
       </c>
       <c r="C98" t="n">
-        <v>4.59597</v>
+        <v>4.60359</v>
       </c>
       <c r="D98" t="n">
-        <v>3.99452</v>
+        <v>4.05222</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.89838</v>
+        <v>2.83821</v>
       </c>
       <c r="C99" t="n">
-        <v>4.68825</v>
+        <v>4.7052</v>
       </c>
       <c r="D99" t="n">
-        <v>4.04926</v>
+        <v>4.16568</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.90045</v>
+        <v>2.87799</v>
       </c>
       <c r="C100" t="n">
-        <v>4.64549</v>
+        <v>4.72898</v>
       </c>
       <c r="D100" t="n">
-        <v>4.03226</v>
+        <v>4.3147</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.94409</v>
+        <v>2.95261</v>
       </c>
       <c r="C101" t="n">
-        <v>4.73885</v>
+        <v>4.80488</v>
       </c>
       <c r="D101" t="n">
-        <v>4.1897</v>
+        <v>4.15887</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.96312</v>
+        <v>2.91199</v>
       </c>
       <c r="C102" t="n">
-        <v>4.77573</v>
+        <v>4.86333</v>
       </c>
       <c r="D102" t="n">
-        <v>4.18962</v>
+        <v>4.27511</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.00743</v>
+        <v>3.00696</v>
       </c>
       <c r="C103" t="n">
-        <v>4.85609</v>
+        <v>4.79589</v>
       </c>
       <c r="D103" t="n">
-        <v>4.22716</v>
+        <v>4.25581</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.00745</v>
+        <v>2.95598</v>
       </c>
       <c r="C104" t="n">
-        <v>4.85148</v>
+        <v>4.96739</v>
       </c>
       <c r="D104" t="n">
-        <v>4.17659</v>
+        <v>4.37145</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.08139</v>
+        <v>2.98043</v>
       </c>
       <c r="C105" t="n">
-        <v>4.99291</v>
+        <v>4.9076</v>
       </c>
       <c r="D105" t="n">
-        <v>4.27034</v>
+        <v>4.3739</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.01397</v>
+        <v>2.96161</v>
       </c>
       <c r="C106" t="n">
-        <v>4.96126</v>
+        <v>4.89941</v>
       </c>
       <c r="D106" t="n">
-        <v>4.34555</v>
+        <v>4.33808</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.04127</v>
+        <v>2.98016</v>
       </c>
       <c r="C107" t="n">
-        <v>5.23286</v>
+        <v>5.15589</v>
       </c>
       <c r="D107" t="n">
-        <v>4.50525</v>
+        <v>4.50771</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.04643</v>
+        <v>3.03294</v>
       </c>
       <c r="C108" t="n">
-        <v>5.24517</v>
+        <v>5.17315</v>
       </c>
       <c r="D108" t="n">
-        <v>4.54485</v>
+        <v>4.51503</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.1522</v>
+        <v>3.07357</v>
       </c>
       <c r="C109" t="n">
-        <v>5.2865</v>
+        <v>5.25147</v>
       </c>
       <c r="D109" t="n">
-        <v>4.63131</v>
+        <v>4.61624</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.13239</v>
+        <v>3.04526</v>
       </c>
       <c r="C110" t="n">
-        <v>5.27637</v>
+        <v>5.22105</v>
       </c>
       <c r="D110" t="n">
-        <v>4.59144</v>
+        <v>4.675</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.14031</v>
+        <v>3.14085</v>
       </c>
       <c r="C111" t="n">
-        <v>5.33788</v>
+        <v>5.23566</v>
       </c>
       <c r="D111" t="n">
-        <v>4.63153</v>
+        <v>4.75903</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.29961</v>
+        <v>3.27162</v>
       </c>
       <c r="C112" t="n">
-        <v>5.4204</v>
+        <v>5.34599</v>
       </c>
       <c r="D112" t="n">
-        <v>4.7312</v>
+        <v>4.75501</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.32452</v>
+        <v>3.32444</v>
       </c>
       <c r="C113" t="n">
-        <v>5.48486</v>
+        <v>5.41575</v>
       </c>
       <c r="D113" t="n">
-        <v>4.77679</v>
+        <v>4.94032</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.38766</v>
+        <v>3.44863</v>
       </c>
       <c r="C114" t="n">
-        <v>5.44161</v>
+        <v>5.55328</v>
       </c>
       <c r="D114" t="n">
-        <v>4.87509</v>
+        <v>5.05122</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.52888</v>
+        <v>3.47771</v>
       </c>
       <c r="C115" t="n">
-        <v>5.6199</v>
+        <v>5.49555</v>
       </c>
       <c r="D115" t="n">
-        <v>4.93046</v>
+        <v>5.02975</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.51861</v>
+        <v>3.42313</v>
       </c>
       <c r="C116" t="n">
-        <v>5.75542</v>
+        <v>5.60581</v>
       </c>
       <c r="D116" t="n">
-        <v>4.82009</v>
+        <v>4.99757</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.46039</v>
+        <v>3.49313</v>
       </c>
       <c r="C117" t="n">
-        <v>5.71287</v>
+        <v>5.54442</v>
       </c>
       <c r="D117" t="n">
-        <v>4.9094</v>
+        <v>5.00676</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.53483</v>
+        <v>3.55495</v>
       </c>
       <c r="C118" t="n">
-        <v>5.6831</v>
+        <v>5.68091</v>
       </c>
       <c r="D118" t="n">
-        <v>4.94373</v>
+        <v>5.06306</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.6098</v>
+        <v>3.6998</v>
       </c>
       <c r="C119" t="n">
-        <v>5.79225</v>
+        <v>5.80243</v>
       </c>
       <c r="D119" t="n">
-        <v>5.09091</v>
+        <v>5.41172</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.389665</v>
+        <v>0.387729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.802554</v>
+        <v>0.787877</v>
       </c>
       <c r="D2" t="n">
-        <v>0.509755</v>
+        <v>0.512617</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.410355</v>
+        <v>0.408599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.818384</v>
+        <v>0.792998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.517612</v>
+        <v>0.520269</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.424816</v>
+        <v>0.418811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.812025</v>
+        <v>0.814361</v>
       </c>
       <c r="D4" t="n">
-        <v>0.518254</v>
+        <v>0.517883</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.421376</v>
+        <v>0.420623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.813858</v>
+        <v>0.813401</v>
       </c>
       <c r="D5" t="n">
-        <v>0.541276</v>
+        <v>0.526905</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.428008</v>
+        <v>0.418046</v>
       </c>
       <c r="C6" t="n">
-        <v>0.828137</v>
+        <v>0.810523</v>
       </c>
       <c r="D6" t="n">
-        <v>0.535197</v>
+        <v>0.537224</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.419331</v>
+        <v>0.418825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.830331</v>
+        <v>0.827112</v>
       </c>
       <c r="D7" t="n">
-        <v>0.542988</v>
+        <v>0.531734</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.426101</v>
+        <v>0.432059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.846889</v>
+        <v>0.835596</v>
       </c>
       <c r="D8" t="n">
-        <v>0.545121</v>
+        <v>0.5482</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.426264</v>
+        <v>0.426092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8387559999999999</v>
+        <v>0.836298</v>
       </c>
       <c r="D9" t="n">
-        <v>0.553608</v>
+        <v>0.5570889999999999</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.426537</v>
+        <v>0.423821</v>
       </c>
       <c r="C10" t="n">
-        <v>0.867897</v>
+        <v>0.845094</v>
       </c>
       <c r="D10" t="n">
-        <v>0.554684</v>
+        <v>0.555739</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4316</v>
+        <v>0.424097</v>
       </c>
       <c r="C11" t="n">
-        <v>0.864334</v>
+        <v>0.8354470000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.563436</v>
+        <v>0.549939</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.425237</v>
+        <v>0.425548</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8838009999999999</v>
+        <v>0.846031</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5735209999999999</v>
+        <v>0.564461</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.437927</v>
+        <v>0.427671</v>
       </c>
       <c r="C13" t="n">
-        <v>0.864518</v>
+        <v>0.8664500000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.576433</v>
+        <v>0.5690190000000001</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.432696</v>
+        <v>0.429281</v>
       </c>
       <c r="C14" t="n">
-        <v>0.87307</v>
+        <v>0.870081</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5711349999999999</v>
+        <v>0.568258</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.431325</v>
+        <v>0.433067</v>
       </c>
       <c r="C15" t="n">
-        <v>0.87366</v>
+        <v>0.871568</v>
       </c>
       <c r="D15" t="n">
-        <v>0.59263</v>
+        <v>0.575252</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.433293</v>
+        <v>0.436134</v>
       </c>
       <c r="C16" t="n">
-        <v>0.891916</v>
+        <v>0.875825</v>
       </c>
       <c r="D16" t="n">
-        <v>0.578664</v>
+        <v>0.581206</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.470179</v>
+        <v>0.464111</v>
       </c>
       <c r="C17" t="n">
-        <v>0.896413</v>
+        <v>0.89114</v>
       </c>
       <c r="D17" t="n">
-        <v>0.587415</v>
+        <v>0.588352</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.46553</v>
+        <v>0.474142</v>
       </c>
       <c r="C18" t="n">
-        <v>0.902467</v>
+        <v>0.8958469999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6027749999999999</v>
+        <v>0.587093</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.479142</v>
+        <v>0.473683</v>
       </c>
       <c r="C19" t="n">
-        <v>0.910869</v>
+        <v>0.906149</v>
       </c>
       <c r="D19" t="n">
-        <v>0.598446</v>
+        <v>0.592979</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.470713</v>
+        <v>0.469174</v>
       </c>
       <c r="C20" t="n">
-        <v>0.918222</v>
+        <v>0.91088</v>
       </c>
       <c r="D20" t="n">
-        <v>0.611135</v>
+        <v>0.603309</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.470123</v>
+        <v>0.473046</v>
       </c>
       <c r="C21" t="n">
-        <v>0.931594</v>
+        <v>0.903888</v>
       </c>
       <c r="D21" t="n">
-        <v>0.609112</v>
+        <v>0.599787</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.465775</v>
+        <v>0.470464</v>
       </c>
       <c r="C22" t="n">
-        <v>0.925025</v>
+        <v>0.932103</v>
       </c>
       <c r="D22" t="n">
-        <v>0.619004</v>
+        <v>0.624322</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.481249</v>
+        <v>0.486034</v>
       </c>
       <c r="C23" t="n">
-        <v>0.974848</v>
+        <v>0.93068</v>
       </c>
       <c r="D23" t="n">
-        <v>0.619373</v>
+        <v>0.6145350000000001</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.489145</v>
+        <v>0.478045</v>
       </c>
       <c r="C24" t="n">
-        <v>0.959444</v>
+        <v>0.952667</v>
       </c>
       <c r="D24" t="n">
-        <v>0.62224</v>
+        <v>0.613937</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.488223</v>
+        <v>0.483302</v>
       </c>
       <c r="C25" t="n">
-        <v>0.985128</v>
+        <v>0.953145</v>
       </c>
       <c r="D25" t="n">
-        <v>0.638413</v>
+        <v>0.645856</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.485589</v>
+        <v>0.517852</v>
       </c>
       <c r="C26" t="n">
-        <v>0.959322</v>
+        <v>0.9536019999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6568040000000001</v>
+        <v>0.625701</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.473053</v>
+        <v>0.512047</v>
       </c>
       <c r="C27" t="n">
-        <v>0.976346</v>
+        <v>0.953088</v>
       </c>
       <c r="D27" t="n">
-        <v>0.682092</v>
+        <v>0.635097</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.477757</v>
+        <v>0.499565</v>
       </c>
       <c r="C28" t="n">
-        <v>0.984387</v>
+        <v>0.952469</v>
       </c>
       <c r="D28" t="n">
-        <v>0.677853</v>
+        <v>0.649129</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.491236</v>
+        <v>0.492295</v>
       </c>
       <c r="C29" t="n">
-        <v>0.979731</v>
+        <v>0.971527</v>
       </c>
       <c r="D29" t="n">
-        <v>0.707008</v>
+        <v>0.677764</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.489555</v>
+        <v>0.499869</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9998</v>
+        <v>0.964678</v>
       </c>
       <c r="D30" t="n">
-        <v>0.713013</v>
+        <v>0.707978</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.504912</v>
+        <v>0.530547</v>
       </c>
       <c r="C31" t="n">
-        <v>1.03547</v>
+        <v>1.03054</v>
       </c>
       <c r="D31" t="n">
-        <v>0.709056</v>
+        <v>0.702609</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.573155</v>
+        <v>0.556486</v>
       </c>
       <c r="C32" t="n">
-        <v>1.05889</v>
+        <v>1.01509</v>
       </c>
       <c r="D32" t="n">
-        <v>0.713182</v>
+        <v>0.722681</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.577103</v>
+        <v>0.551204</v>
       </c>
       <c r="C33" t="n">
-        <v>1.08655</v>
+        <v>1.03007</v>
       </c>
       <c r="D33" t="n">
-        <v>0.732179</v>
+        <v>0.706886</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.579708</v>
+        <v>0.558748</v>
       </c>
       <c r="C34" t="n">
-        <v>1.06367</v>
+        <v>1.02895</v>
       </c>
       <c r="D34" t="n">
-        <v>0.730299</v>
+        <v>0.737863</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.59529</v>
+        <v>0.572177</v>
       </c>
       <c r="C35" t="n">
-        <v>1.08952</v>
+        <v>1.09333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.737119</v>
+        <v>0.79473</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.601279</v>
+        <v>0.592518</v>
       </c>
       <c r="C36" t="n">
-        <v>1.09846</v>
+        <v>1.10463</v>
       </c>
       <c r="D36" t="n">
-        <v>0.771786</v>
+        <v>0.778235</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.58663</v>
+        <v>0.5742930000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>1.10053</v>
+        <v>1.14199</v>
       </c>
       <c r="D37" t="n">
-        <v>0.767498</v>
+        <v>0.781044</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.608069</v>
+        <v>0.6027169999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>1.15382</v>
+        <v>1.17221</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7969540000000001</v>
+        <v>0.847994</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.629182</v>
+        <v>0.6159559999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>1.20303</v>
+        <v>1.20746</v>
       </c>
       <c r="D39" t="n">
-        <v>0.781002</v>
+        <v>0.847919</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.62778</v>
+        <v>0.611899</v>
       </c>
       <c r="C40" t="n">
-        <v>1.21081</v>
+        <v>1.17086</v>
       </c>
       <c r="D40" t="n">
-        <v>0.877833</v>
+        <v>0.938477</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.65699</v>
+        <v>0.6463410000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>1.19994</v>
+        <v>1.21059</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8927079999999999</v>
+        <v>0.925838</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.671086</v>
+        <v>0.656676</v>
       </c>
       <c r="C42" t="n">
-        <v>1.22489</v>
+        <v>1.25595</v>
       </c>
       <c r="D42" t="n">
-        <v>0.927741</v>
+        <v>0.958064</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.686633</v>
+        <v>0.677022</v>
       </c>
       <c r="C43" t="n">
-        <v>1.29327</v>
+        <v>1.30486</v>
       </c>
       <c r="D43" t="n">
-        <v>0.953097</v>
+        <v>1.02912</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.702878</v>
+        <v>0.678938</v>
       </c>
       <c r="C44" t="n">
-        <v>1.31017</v>
+        <v>1.32008</v>
       </c>
       <c r="D44" t="n">
-        <v>0.976858</v>
+        <v>1.04828</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.708655</v>
+        <v>0.693061</v>
       </c>
       <c r="C45" t="n">
-        <v>1.31963</v>
+        <v>1.34581</v>
       </c>
       <c r="D45" t="n">
-        <v>1.00091</v>
+        <v>1.04413</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.803947</v>
+        <v>0.813798</v>
       </c>
       <c r="C46" t="n">
-        <v>1.40472</v>
+        <v>1.38193</v>
       </c>
       <c r="D46" t="n">
-        <v>1.04837</v>
+        <v>1.03326</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.826287</v>
+        <v>0.8315669999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>1.44194</v>
+        <v>1.41698</v>
       </c>
       <c r="D47" t="n">
-        <v>1.08962</v>
+        <v>1.09588</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.851336</v>
+        <v>0.849898</v>
       </c>
       <c r="C48" t="n">
-        <v>1.49839</v>
+        <v>1.49049</v>
       </c>
       <c r="D48" t="n">
-        <v>1.10394</v>
+        <v>1.10987</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.879573</v>
+        <v>0.852035</v>
       </c>
       <c r="C49" t="n">
-        <v>1.55348</v>
+        <v>1.52683</v>
       </c>
       <c r="D49" t="n">
-        <v>1.09603</v>
+        <v>1.13579</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.908823</v>
+        <v>0.910714</v>
       </c>
       <c r="C50" t="n">
-        <v>1.61114</v>
+        <v>1.59125</v>
       </c>
       <c r="D50" t="n">
-        <v>1.15687</v>
+        <v>1.1737</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9281239999999999</v>
+        <v>0.91142</v>
       </c>
       <c r="C51" t="n">
-        <v>1.71881</v>
+        <v>1.67919</v>
       </c>
       <c r="D51" t="n">
-        <v>1.20517</v>
+        <v>1.24579</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.962136</v>
+        <v>0.9595630000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>1.72974</v>
+        <v>1.75202</v>
       </c>
       <c r="D52" t="n">
-        <v>1.24937</v>
+        <v>1.28884</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.964883</v>
+        <v>0.968125</v>
       </c>
       <c r="C53" t="n">
-        <v>1.84864</v>
+        <v>1.85197</v>
       </c>
       <c r="D53" t="n">
-        <v>1.27748</v>
+        <v>1.31474</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.00578</v>
+        <v>1.01678</v>
       </c>
       <c r="C54" t="n">
-        <v>1.88867</v>
+        <v>1.79544</v>
       </c>
       <c r="D54" t="n">
-        <v>1.35849</v>
+        <v>1.42202</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.02748</v>
+        <v>1.0227</v>
       </c>
       <c r="C55" t="n">
-        <v>1.88671</v>
+        <v>1.93076</v>
       </c>
       <c r="D55" t="n">
-        <v>1.40835</v>
+        <v>1.46772</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.05671</v>
+        <v>1.04184</v>
       </c>
       <c r="C56" t="n">
-        <v>2.04222</v>
+        <v>1.90831</v>
       </c>
       <c r="D56" t="n">
-        <v>1.48484</v>
+        <v>1.51316</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.08839</v>
+        <v>1.07369</v>
       </c>
       <c r="C57" t="n">
-        <v>2.04085</v>
+        <v>1.99257</v>
       </c>
       <c r="D57" t="n">
-        <v>1.55862</v>
+        <v>1.57623</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.13009</v>
+        <v>1.10917</v>
       </c>
       <c r="C58" t="n">
-        <v>2.13326</v>
+        <v>2.07579</v>
       </c>
       <c r="D58" t="n">
-        <v>1.58452</v>
+        <v>1.62068</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.15929</v>
+        <v>1.14818</v>
       </c>
       <c r="C59" t="n">
-        <v>2.20673</v>
+        <v>2.12877</v>
       </c>
       <c r="D59" t="n">
-        <v>1.66357</v>
+        <v>1.69999</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.31073</v>
+        <v>1.2926</v>
       </c>
       <c r="C60" t="n">
-        <v>2.21046</v>
+        <v>2.24018</v>
       </c>
       <c r="D60" t="n">
-        <v>1.66868</v>
+        <v>1.74602</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.36656</v>
+        <v>1.35148</v>
       </c>
       <c r="C61" t="n">
-        <v>2.30106</v>
+        <v>2.33021</v>
       </c>
       <c r="D61" t="n">
-        <v>1.71922</v>
+        <v>1.81069</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.41242</v>
+        <v>1.45178</v>
       </c>
       <c r="C62" t="n">
-        <v>2.38161</v>
+        <v>2.56764</v>
       </c>
       <c r="D62" t="n">
-        <v>1.80796</v>
+        <v>1.92568</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.42241</v>
+        <v>1.45416</v>
       </c>
       <c r="C63" t="n">
-        <v>2.46638</v>
+        <v>2.5266</v>
       </c>
       <c r="D63" t="n">
-        <v>1.89813</v>
+        <v>2.02866</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.45125</v>
+        <v>1.51122</v>
       </c>
       <c r="C64" t="n">
-        <v>2.51239</v>
+        <v>2.48952</v>
       </c>
       <c r="D64" t="n">
-        <v>1.92186</v>
+        <v>2.00877</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.51809</v>
+        <v>1.55972</v>
       </c>
       <c r="C65" t="n">
-        <v>2.66185</v>
+        <v>2.63665</v>
       </c>
       <c r="D65" t="n">
-        <v>1.95566</v>
+        <v>2.0544</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.58685</v>
+        <v>1.53735</v>
       </c>
       <c r="C66" t="n">
-        <v>2.72516</v>
+        <v>2.73543</v>
       </c>
       <c r="D66" t="n">
-        <v>2.01979</v>
+        <v>2.1244</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.57035</v>
+        <v>1.56775</v>
       </c>
       <c r="C67" t="n">
-        <v>2.86344</v>
+        <v>2.85235</v>
       </c>
       <c r="D67" t="n">
-        <v>2.14225</v>
+        <v>2.16952</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.62626</v>
+        <v>1.60162</v>
       </c>
       <c r="C68" t="n">
-        <v>2.86152</v>
+        <v>2.79421</v>
       </c>
       <c r="D68" t="n">
-        <v>2.24241</v>
+        <v>2.37204</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.63723</v>
+        <v>1.64206</v>
       </c>
       <c r="C69" t="n">
-        <v>2.86381</v>
+        <v>3.25233</v>
       </c>
       <c r="D69" t="n">
-        <v>2.35665</v>
+        <v>2.48923</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.67795</v>
+        <v>1.68259</v>
       </c>
       <c r="C70" t="n">
-        <v>2.98454</v>
+        <v>3.05508</v>
       </c>
       <c r="D70" t="n">
-        <v>2.4818</v>
+        <v>2.51351</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.73434</v>
+        <v>1.7927</v>
       </c>
       <c r="C71" t="n">
-        <v>3.05655</v>
+        <v>3.38532</v>
       </c>
       <c r="D71" t="n">
-        <v>2.52172</v>
+        <v>2.65558</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.73443</v>
+        <v>1.81067</v>
       </c>
       <c r="C72" t="n">
-        <v>3.08358</v>
+        <v>3.32653</v>
       </c>
       <c r="D72" t="n">
-        <v>2.57373</v>
+        <v>2.66025</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.77736</v>
+        <v>1.77411</v>
       </c>
       <c r="C73" t="n">
-        <v>3.52447</v>
+        <v>3.26633</v>
       </c>
       <c r="D73" t="n">
-        <v>2.62979</v>
+        <v>2.75045</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.99127</v>
+        <v>1.99593</v>
       </c>
       <c r="C74" t="n">
-        <v>3.41464</v>
+        <v>3.26961</v>
       </c>
       <c r="D74" t="n">
-        <v>2.8354</v>
+        <v>2.80234</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.10985</v>
+        <v>2.01038</v>
       </c>
       <c r="C75" t="n">
-        <v>3.65979</v>
+        <v>3.40546</v>
       </c>
       <c r="D75" t="n">
-        <v>2.96313</v>
+        <v>2.93231</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.11251</v>
+        <v>2.0155</v>
       </c>
       <c r="C76" t="n">
-        <v>3.59732</v>
+        <v>3.55978</v>
       </c>
       <c r="D76" t="n">
-        <v>2.96827</v>
+        <v>3.08695</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.13769</v>
+        <v>2.09831</v>
       </c>
       <c r="C77" t="n">
-        <v>3.84092</v>
+        <v>3.57529</v>
       </c>
       <c r="D77" t="n">
-        <v>3.06706</v>
+        <v>3.03646</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.12271</v>
+        <v>2.1152</v>
       </c>
       <c r="C78" t="n">
-        <v>3.67009</v>
+        <v>3.63875</v>
       </c>
       <c r="D78" t="n">
-        <v>3.02255</v>
+        <v>2.99368</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.18142</v>
+        <v>2.08218</v>
       </c>
       <c r="C79" t="n">
-        <v>3.81107</v>
+        <v>3.72695</v>
       </c>
       <c r="D79" t="n">
-        <v>3.01865</v>
+        <v>3.03173</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.13693</v>
+        <v>2.1166</v>
       </c>
       <c r="C80" t="n">
-        <v>4.01404</v>
+        <v>3.859</v>
       </c>
       <c r="D80" t="n">
-        <v>3.20044</v>
+        <v>3.05471</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.22871</v>
+        <v>2.16918</v>
       </c>
       <c r="C81" t="n">
-        <v>3.97891</v>
+        <v>3.94911</v>
       </c>
       <c r="D81" t="n">
-        <v>3.15431</v>
+        <v>3.19671</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.16397</v>
+        <v>2.23307</v>
       </c>
       <c r="C82" t="n">
-        <v>4.09839</v>
+        <v>4.06415</v>
       </c>
       <c r="D82" t="n">
-        <v>3.09316</v>
+        <v>3.17523</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.22022</v>
+        <v>2.25293</v>
       </c>
       <c r="C83" t="n">
-        <v>3.9894</v>
+        <v>3.90699</v>
       </c>
       <c r="D83" t="n">
-        <v>3.27946</v>
+        <v>3.37745</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.24095</v>
+        <v>2.31119</v>
       </c>
       <c r="C84" t="n">
-        <v>4.03752</v>
+        <v>3.99582</v>
       </c>
       <c r="D84" t="n">
-        <v>3.33489</v>
+        <v>3.39558</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.23042</v>
+        <v>2.28989</v>
       </c>
       <c r="C85" t="n">
-        <v>4.07792</v>
+        <v>4.04805</v>
       </c>
       <c r="D85" t="n">
-        <v>3.37506</v>
+        <v>3.52409</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.25816</v>
+        <v>2.29619</v>
       </c>
       <c r="C86" t="n">
-        <v>4.19233</v>
+        <v>4.18436</v>
       </c>
       <c r="D86" t="n">
-        <v>3.49529</v>
+        <v>3.53346</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.34359</v>
+        <v>2.31337</v>
       </c>
       <c r="C87" t="n">
-        <v>4.27471</v>
+        <v>4.42153</v>
       </c>
       <c r="D87" t="n">
-        <v>3.54728</v>
+        <v>3.46714</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.2988</v>
+        <v>2.33001</v>
       </c>
       <c r="C88" t="n">
-        <v>4.37407</v>
+        <v>4.4783</v>
       </c>
       <c r="D88" t="n">
-        <v>3.58051</v>
+        <v>3.66198</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.55162</v>
+        <v>2.56039</v>
       </c>
       <c r="C89" t="n">
-        <v>4.44481</v>
+        <v>4.53331</v>
       </c>
       <c r="D89" t="n">
-        <v>3.60181</v>
+        <v>3.77977</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.59648</v>
+        <v>2.56568</v>
       </c>
       <c r="C90" t="n">
-        <v>4.5298</v>
+        <v>4.71114</v>
       </c>
       <c r="D90" t="n">
-        <v>3.68062</v>
+        <v>3.88334</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.58767</v>
+        <v>2.50623</v>
       </c>
       <c r="C91" t="n">
-        <v>4.57006</v>
+        <v>4.61937</v>
       </c>
       <c r="D91" t="n">
-        <v>3.86612</v>
+        <v>3.87884</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.54855</v>
+        <v>2.57999</v>
       </c>
       <c r="C92" t="n">
-        <v>4.67158</v>
+        <v>4.77627</v>
       </c>
       <c r="D92" t="n">
-        <v>3.72363</v>
+        <v>3.81138</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.55676</v>
+        <v>2.64873</v>
       </c>
       <c r="C93" t="n">
-        <v>4.75705</v>
+        <v>4.68424</v>
       </c>
       <c r="D93" t="n">
-        <v>3.79754</v>
+        <v>3.7615</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.64774</v>
+        <v>2.60237</v>
       </c>
       <c r="C94" t="n">
-        <v>5.05007</v>
+        <v>4.88328</v>
       </c>
       <c r="D94" t="n">
-        <v>3.77111</v>
+        <v>3.81079</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.59888</v>
+        <v>2.67219</v>
       </c>
       <c r="C95" t="n">
-        <v>4.99455</v>
+        <v>4.90563</v>
       </c>
       <c r="D95" t="n">
-        <v>3.76989</v>
+        <v>3.80831</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.70482</v>
+        <v>2.66502</v>
       </c>
       <c r="C96" t="n">
-        <v>5.12719</v>
+        <v>5.01138</v>
       </c>
       <c r="D96" t="n">
-        <v>3.84787</v>
+        <v>3.95852</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.68128</v>
+        <v>2.65794</v>
       </c>
       <c r="C97" t="n">
-        <v>4.80748</v>
+        <v>4.66371</v>
       </c>
       <c r="D97" t="n">
-        <v>4.04116</v>
+        <v>4.11611</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.75518</v>
+        <v>2.67954</v>
       </c>
       <c r="C98" t="n">
-        <v>4.91447</v>
+        <v>4.82401</v>
       </c>
       <c r="D98" t="n">
-        <v>4.00736</v>
+        <v>4.08526</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.70824</v>
+        <v>2.75807</v>
       </c>
       <c r="C99" t="n">
-        <v>4.88493</v>
+        <v>4.80981</v>
       </c>
       <c r="D99" t="n">
-        <v>4.09592</v>
+        <v>4.12328</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.7554</v>
+        <v>2.7081</v>
       </c>
       <c r="C100" t="n">
-        <v>4.97846</v>
+        <v>4.97326</v>
       </c>
       <c r="D100" t="n">
-        <v>4.07464</v>
+        <v>4.19959</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.68935</v>
+        <v>2.72274</v>
       </c>
       <c r="C101" t="n">
-        <v>5.00099</v>
+        <v>4.98885</v>
       </c>
       <c r="D101" t="n">
-        <v>4.03123</v>
+        <v>4.16541</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.71025</v>
+        <v>2.71867</v>
       </c>
       <c r="C102" t="n">
-        <v>5.00733</v>
+        <v>5.10434</v>
       </c>
       <c r="D102" t="n">
-        <v>4.1953</v>
+        <v>4.25987</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.84972</v>
+        <v>2.83963</v>
       </c>
       <c r="C103" t="n">
-        <v>5.07783</v>
+        <v>5.11691</v>
       </c>
       <c r="D103" t="n">
-        <v>4.14972</v>
+        <v>4.3091</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.88024</v>
+        <v>2.90698</v>
       </c>
       <c r="C104" t="n">
-        <v>5.1711</v>
+        <v>5.23345</v>
       </c>
       <c r="D104" t="n">
-        <v>4.15707</v>
+        <v>4.26557</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.86616</v>
+        <v>2.87825</v>
       </c>
       <c r="C105" t="n">
-        <v>5.31786</v>
+        <v>5.2744</v>
       </c>
       <c r="D105" t="n">
-        <v>4.16952</v>
+        <v>4.30484</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.8925</v>
+        <v>2.86471</v>
       </c>
       <c r="C106" t="n">
-        <v>5.39822</v>
+        <v>5.44193</v>
       </c>
       <c r="D106" t="n">
-        <v>4.20662</v>
+        <v>4.37271</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.93981</v>
+        <v>2.91671</v>
       </c>
       <c r="C107" t="n">
-        <v>5.45543</v>
+        <v>5.43596</v>
       </c>
       <c r="D107" t="n">
-        <v>4.23793</v>
+        <v>4.41302</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.9075</v>
+        <v>2.99045</v>
       </c>
       <c r="C108" t="n">
-        <v>5.56036</v>
+        <v>5.56813</v>
       </c>
       <c r="D108" t="n">
-        <v>4.36154</v>
+        <v>4.47024</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.01625</v>
+        <v>2.93421</v>
       </c>
       <c r="C109" t="n">
-        <v>5.71591</v>
+        <v>5.64281</v>
       </c>
       <c r="D109" t="n">
-        <v>4.34005</v>
+        <v>4.46386</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.98182</v>
+        <v>3.01047</v>
       </c>
       <c r="C110" t="n">
-        <v>5.75603</v>
+        <v>5.78034</v>
       </c>
       <c r="D110" t="n">
-        <v>4.33283</v>
+        <v>4.49973</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.99605</v>
+        <v>3.04153</v>
       </c>
       <c r="C111" t="n">
-        <v>5.37111</v>
+        <v>5.39943</v>
       </c>
       <c r="D111" t="n">
-        <v>4.48631</v>
+        <v>4.6203</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.01716</v>
+        <v>3.0748</v>
       </c>
       <c r="C112" t="n">
-        <v>5.45561</v>
+        <v>5.43033</v>
       </c>
       <c r="D112" t="n">
-        <v>4.53197</v>
+        <v>4.77688</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.08384</v>
+        <v>3.05643</v>
       </c>
       <c r="C113" t="n">
-        <v>5.51665</v>
+        <v>5.49498</v>
       </c>
       <c r="D113" t="n">
-        <v>4.55598</v>
+        <v>4.77396</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.15344</v>
+        <v>3.11025</v>
       </c>
       <c r="C114" t="n">
-        <v>5.63607</v>
+        <v>5.565</v>
       </c>
       <c r="D114" t="n">
-        <v>4.61505</v>
+        <v>4.88717</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.11242</v>
+        <v>3.16467</v>
       </c>
       <c r="C115" t="n">
-        <v>5.70935</v>
+        <v>5.68774</v>
       </c>
       <c r="D115" t="n">
-        <v>4.69975</v>
+        <v>4.87412</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.18795</v>
+        <v>3.14973</v>
       </c>
       <c r="C116" t="n">
-        <v>5.74875</v>
+        <v>5.80521</v>
       </c>
       <c r="D116" t="n">
-        <v>4.65</v>
+        <v>4.87039</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.19824</v>
+        <v>3.26178</v>
       </c>
       <c r="C117" t="n">
-        <v>5.78775</v>
+        <v>5.89468</v>
       </c>
       <c r="D117" t="n">
-        <v>4.67056</v>
+        <v>4.97482</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.2614</v>
+        <v>3.2961</v>
       </c>
       <c r="C118" t="n">
-        <v>6.09008</v>
+        <v>5.93975</v>
       </c>
       <c r="D118" t="n">
-        <v>4.81753</v>
+        <v>5.00116</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.29767</v>
+        <v>3.35538</v>
       </c>
       <c r="C119" t="n">
-        <v>6.04997</v>
+        <v>6.03197</v>
       </c>
       <c r="D119" t="n">
-        <v>4.85227</v>
+        <v>4.94267</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.461118</v>
+        <v>0.435235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.588147</v>
+        <v>0.395326</v>
       </c>
       <c r="D2" t="n">
-        <v>0.375609</v>
+        <v>0.412561</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.399385</v>
+        <v>0.439375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584562</v>
+        <v>0.393491</v>
       </c>
       <c r="D3" t="n">
-        <v>0.371371</v>
+        <v>0.404658</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.396401</v>
+        <v>0.443072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.583766</v>
+        <v>0.397019</v>
       </c>
       <c r="D4" t="n">
-        <v>0.383409</v>
+        <v>0.413927</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.400673</v>
+        <v>0.427812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.607753</v>
+        <v>0.382669</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37829</v>
+        <v>0.394519</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.400889</v>
+        <v>0.427641</v>
       </c>
       <c r="C6" t="n">
-        <v>0.582203</v>
+        <v>0.381929</v>
       </c>
       <c r="D6" t="n">
-        <v>0.386352</v>
+        <v>0.399856</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.401697</v>
+        <v>0.423441</v>
       </c>
       <c r="C7" t="n">
-        <v>0.593178</v>
+        <v>0.380507</v>
       </c>
       <c r="D7" t="n">
-        <v>0.378419</v>
+        <v>0.390778</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.437833</v>
+        <v>0.423535</v>
       </c>
       <c r="C8" t="n">
-        <v>0.60376</v>
+        <v>0.378035</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378801</v>
+        <v>0.393013</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.411623</v>
+        <v>0.433921</v>
       </c>
       <c r="C9" t="n">
-        <v>0.597118</v>
+        <v>0.383144</v>
       </c>
       <c r="D9" t="n">
-        <v>0.388358</v>
+        <v>0.402569</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.418644</v>
+        <v>0.438095</v>
       </c>
       <c r="C10" t="n">
-        <v>0.604994</v>
+        <v>0.386983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.397044</v>
+        <v>0.403952</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.428069</v>
+        <v>0.442658</v>
       </c>
       <c r="C11" t="n">
-        <v>0.603751</v>
+        <v>0.380433</v>
       </c>
       <c r="D11" t="n">
-        <v>0.389097</v>
+        <v>0.407877</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.434446</v>
+        <v>0.447723</v>
       </c>
       <c r="C12" t="n">
-        <v>0.645712</v>
+        <v>0.391992</v>
       </c>
       <c r="D12" t="n">
-        <v>0.389868</v>
+        <v>0.410153</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.413519</v>
+        <v>0.430749</v>
       </c>
       <c r="C13" t="n">
-        <v>0.607538</v>
+        <v>0.390892</v>
       </c>
       <c r="D13" t="n">
-        <v>0.393846</v>
+        <v>0.416676</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.420645</v>
+        <v>0.42673</v>
       </c>
       <c r="C14" t="n">
-        <v>0.607989</v>
+        <v>0.393347</v>
       </c>
       <c r="D14" t="n">
-        <v>0.406709</v>
+        <v>0.412307</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.408306</v>
+        <v>0.430689</v>
       </c>
       <c r="C15" t="n">
-        <v>0.604025</v>
+        <v>0.392785</v>
       </c>
       <c r="D15" t="n">
-        <v>0.397806</v>
+        <v>0.42302</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.420617</v>
+        <v>0.432677</v>
       </c>
       <c r="C16" t="n">
-        <v>0.620201</v>
+        <v>0.397917</v>
       </c>
       <c r="D16" t="n">
-        <v>0.403928</v>
+        <v>0.426041</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.423605</v>
+        <v>0.436274</v>
       </c>
       <c r="C17" t="n">
-        <v>0.609587</v>
+        <v>0.39574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.408189</v>
+        <v>0.42648</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.434507</v>
+        <v>0.461297</v>
       </c>
       <c r="C18" t="n">
-        <v>0.609055</v>
+        <v>0.400951</v>
       </c>
       <c r="D18" t="n">
-        <v>0.423249</v>
+        <v>0.435133</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.428084</v>
+        <v>0.44228</v>
       </c>
       <c r="C19" t="n">
-        <v>0.613445</v>
+        <v>0.404489</v>
       </c>
       <c r="D19" t="n">
-        <v>0.416578</v>
+        <v>0.430167</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.436974</v>
+        <v>0.461538</v>
       </c>
       <c r="C20" t="n">
-        <v>0.621418</v>
+        <v>0.403592</v>
       </c>
       <c r="D20" t="n">
-        <v>0.419044</v>
+        <v>0.445159</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4392</v>
+        <v>0.466237</v>
       </c>
       <c r="C21" t="n">
-        <v>0.638313</v>
+        <v>0.401811</v>
       </c>
       <c r="D21" t="n">
-        <v>0.410858</v>
+        <v>0.433734</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.452427</v>
+        <v>0.475676</v>
       </c>
       <c r="C22" t="n">
-        <v>0.673948</v>
+        <v>0.403945</v>
       </c>
       <c r="D22" t="n">
-        <v>0.414099</v>
+        <v>0.429098</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.468402</v>
+        <v>0.461775</v>
       </c>
       <c r="C23" t="n">
-        <v>0.663533</v>
+        <v>0.397268</v>
       </c>
       <c r="D23" t="n">
-        <v>0.42121</v>
+        <v>0.428062</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.458277</v>
+        <v>0.473738</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6500939999999999</v>
+        <v>0.406079</v>
       </c>
       <c r="D24" t="n">
-        <v>0.426565</v>
+        <v>0.436333</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.473722</v>
+        <v>0.47819</v>
       </c>
       <c r="C25" t="n">
-        <v>0.64672</v>
+        <v>0.398073</v>
       </c>
       <c r="D25" t="n">
-        <v>0.440611</v>
+        <v>0.437253</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459586</v>
+        <v>0.484053</v>
       </c>
       <c r="C26" t="n">
-        <v>0.648922</v>
+        <v>0.403798</v>
       </c>
       <c r="D26" t="n">
-        <v>0.429578</v>
+        <v>0.443541</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.549056</v>
+        <v>0.53651</v>
       </c>
       <c r="C27" t="n">
-        <v>0.671634</v>
+        <v>0.406481</v>
       </c>
       <c r="D27" t="n">
-        <v>0.440167</v>
+        <v>0.445294</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.52563</v>
+        <v>0.543666</v>
       </c>
       <c r="C28" t="n">
-        <v>0.673301</v>
+        <v>0.418894</v>
       </c>
       <c r="D28" t="n">
-        <v>0.447725</v>
+        <v>0.467343</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.54443</v>
+        <v>0.557179</v>
       </c>
       <c r="C29" t="n">
-        <v>0.675304</v>
+        <v>0.41852</v>
       </c>
       <c r="D29" t="n">
-        <v>0.486771</v>
+        <v>0.467079</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.561999</v>
+        <v>0.554675</v>
       </c>
       <c r="C30" t="n">
-        <v>0.672936</v>
+        <v>0.423384</v>
       </c>
       <c r="D30" t="n">
-        <v>0.473206</v>
+        <v>0.463176</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.612156</v>
+        <v>0.58433</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6716529999999999</v>
+        <v>0.430854</v>
       </c>
       <c r="D31" t="n">
-        <v>0.47012</v>
+        <v>0.482411</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.601041</v>
+        <v>0.593516</v>
       </c>
       <c r="C32" t="n">
-        <v>0.692818</v>
+        <v>0.439198</v>
       </c>
       <c r="D32" t="n">
-        <v>0.487047</v>
+        <v>0.5015500000000001</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.599869</v>
+        <v>0.61663</v>
       </c>
       <c r="C33" t="n">
-        <v>0.728658</v>
+        <v>0.451</v>
       </c>
       <c r="D33" t="n">
-        <v>0.504365</v>
+        <v>0.508835</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.628846</v>
+        <v>0.636671</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7214390000000001</v>
+        <v>0.480366</v>
       </c>
       <c r="D34" t="n">
-        <v>0.522232</v>
+        <v>0.529166</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.631489</v>
+        <v>0.6436269999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.772848</v>
+        <v>0.521176</v>
       </c>
       <c r="D35" t="n">
-        <v>0.593619</v>
+        <v>0.631919</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.652297</v>
+        <v>0.659998</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7815029999999999</v>
+        <v>0.518698</v>
       </c>
       <c r="D36" t="n">
-        <v>0.624926</v>
+        <v>0.638163</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6903589999999999</v>
+        <v>0.670575</v>
       </c>
       <c r="C37" t="n">
-        <v>0.796551</v>
+        <v>0.532683</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6479470000000001</v>
+        <v>0.672507</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.720081</v>
+        <v>0.69511</v>
       </c>
       <c r="C38" t="n">
-        <v>0.861739</v>
+        <v>0.541</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6584</v>
+        <v>0.673999</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.704873</v>
+        <v>0.717353</v>
       </c>
       <c r="C39" t="n">
-        <v>0.909559</v>
+        <v>0.56477</v>
       </c>
       <c r="D39" t="n">
-        <v>0.685111</v>
+        <v>0.694169</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.727281</v>
+        <v>0.740897</v>
       </c>
       <c r="C40" t="n">
-        <v>0.849896</v>
+        <v>0.582043</v>
       </c>
       <c r="D40" t="n">
-        <v>0.693634</v>
+        <v>0.721633</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.852588</v>
+        <v>0.855172</v>
       </c>
       <c r="C41" t="n">
-        <v>0.889672</v>
+        <v>0.582528</v>
       </c>
       <c r="D41" t="n">
-        <v>0.703948</v>
+        <v>0.74753</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.904146</v>
+        <v>0.877416</v>
       </c>
       <c r="C42" t="n">
-        <v>0.884861</v>
+        <v>0.600473</v>
       </c>
       <c r="D42" t="n">
-        <v>0.724287</v>
+        <v>0.765647</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.907481</v>
+        <v>0.884423</v>
       </c>
       <c r="C43" t="n">
-        <v>0.979622</v>
+        <v>0.6144309999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.760112</v>
+        <v>0.772165</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.956672</v>
+        <v>0.916785</v>
       </c>
       <c r="C44" t="n">
-        <v>0.920189</v>
+        <v>0.648394</v>
       </c>
       <c r="D44" t="n">
-        <v>0.832768</v>
+        <v>0.8063940000000001</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.975452</v>
+        <v>0.947873</v>
       </c>
       <c r="C45" t="n">
-        <v>0.937837</v>
+        <v>0.658153</v>
       </c>
       <c r="D45" t="n">
-        <v>0.787774</v>
+        <v>0.83386</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>1.025</v>
+        <v>0.973442</v>
       </c>
       <c r="C46" t="n">
-        <v>1.00811</v>
+        <v>0.678706</v>
       </c>
       <c r="D46" t="n">
-        <v>0.830086</v>
+        <v>0.869372</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>1.06498</v>
+        <v>0.995505</v>
       </c>
       <c r="C47" t="n">
-        <v>1.06224</v>
+        <v>0.707479</v>
       </c>
       <c r="D47" t="n">
-        <v>0.856266</v>
+        <v>0.88756</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07213</v>
+        <v>1.05053</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0978</v>
+        <v>0.743169</v>
       </c>
       <c r="D48" t="n">
-        <v>0.870152</v>
+        <v>0.885979</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.09988</v>
+        <v>1.07402</v>
       </c>
       <c r="C49" t="n">
-        <v>1.15588</v>
+        <v>0.759581</v>
       </c>
       <c r="D49" t="n">
-        <v>0.917526</v>
+        <v>0.926651</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.16459</v>
+        <v>1.10821</v>
       </c>
       <c r="C50" t="n">
-        <v>1.38884</v>
+        <v>0.931619</v>
       </c>
       <c r="D50" t="n">
-        <v>1.16704</v>
+        <v>1.18083</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.18996</v>
+        <v>1.16969</v>
       </c>
       <c r="C51" t="n">
-        <v>1.38295</v>
+        <v>0.979326</v>
       </c>
       <c r="D51" t="n">
-        <v>1.16801</v>
+        <v>1.18126</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.22702</v>
+        <v>1.16126</v>
       </c>
       <c r="C52" t="n">
-        <v>1.42681</v>
+        <v>0.981884</v>
       </c>
       <c r="D52" t="n">
-        <v>1.24383</v>
+        <v>1.18902</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.29502</v>
+        <v>1.18016</v>
       </c>
       <c r="C53" t="n">
-        <v>1.43336</v>
+        <v>0.960354</v>
       </c>
       <c r="D53" t="n">
-        <v>1.26633</v>
+        <v>1.23253</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.25235</v>
+        <v>1.2194</v>
       </c>
       <c r="C54" t="n">
-        <v>1.46393</v>
+        <v>1.03044</v>
       </c>
       <c r="D54" t="n">
-        <v>1.28107</v>
+        <v>1.28708</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.40828</v>
+        <v>1.29281</v>
       </c>
       <c r="C55" t="n">
-        <v>1.49295</v>
+        <v>1.01392</v>
       </c>
       <c r="D55" t="n">
-        <v>1.38632</v>
+        <v>1.30482</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.54084</v>
+        <v>1.45531</v>
       </c>
       <c r="C56" t="n">
-        <v>1.5684</v>
+        <v>1.05581</v>
       </c>
       <c r="D56" t="n">
-        <v>1.38267</v>
+        <v>1.33034</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.53189</v>
+        <v>1.49518</v>
       </c>
       <c r="C57" t="n">
-        <v>1.5074</v>
+        <v>1.07613</v>
       </c>
       <c r="D57" t="n">
-        <v>1.37607</v>
+        <v>1.32426</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.60649</v>
+        <v>1.52407</v>
       </c>
       <c r="C58" t="n">
-        <v>1.54989</v>
+        <v>1.12996</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43961</v>
+        <v>1.41191</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.60368</v>
+        <v>1.57522</v>
       </c>
       <c r="C59" t="n">
-        <v>1.57671</v>
+        <v>1.14777</v>
       </c>
       <c r="D59" t="n">
-        <v>1.52176</v>
+        <v>1.45047</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.62502</v>
+        <v>1.62243</v>
       </c>
       <c r="C60" t="n">
-        <v>1.71994</v>
+        <v>1.19589</v>
       </c>
       <c r="D60" t="n">
-        <v>1.52436</v>
+        <v>1.48223</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.7532</v>
+        <v>1.64494</v>
       </c>
       <c r="C61" t="n">
-        <v>1.74442</v>
+        <v>1.18431</v>
       </c>
       <c r="D61" t="n">
-        <v>1.56231</v>
+        <v>1.65274</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.69621</v>
+        <v>1.75987</v>
       </c>
       <c r="C62" t="n">
-        <v>1.75062</v>
+        <v>1.29209</v>
       </c>
       <c r="D62" t="n">
-        <v>1.57959</v>
+        <v>1.64513</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.69563</v>
+        <v>1.78763</v>
       </c>
       <c r="C63" t="n">
-        <v>1.68498</v>
+        <v>1.22095</v>
       </c>
       <c r="D63" t="n">
-        <v>1.60243</v>
+        <v>1.72245</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.70569</v>
+        <v>1.83818</v>
       </c>
       <c r="C64" t="n">
-        <v>1.9044</v>
+        <v>1.41123</v>
       </c>
       <c r="D64" t="n">
-        <v>1.94576</v>
+        <v>1.99552</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.75263</v>
+        <v>1.88114</v>
       </c>
       <c r="C65" t="n">
-        <v>1.87151</v>
+        <v>1.49144</v>
       </c>
       <c r="D65" t="n">
-        <v>1.95002</v>
+        <v>2.03966</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.78449</v>
+        <v>1.88853</v>
       </c>
       <c r="C66" t="n">
-        <v>1.86918</v>
+        <v>1.43182</v>
       </c>
       <c r="D66" t="n">
-        <v>1.95002</v>
+        <v>1.9596</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.92352</v>
+        <v>1.85185</v>
       </c>
       <c r="C67" t="n">
-        <v>1.98738</v>
+        <v>1.41523</v>
       </c>
       <c r="D67" t="n">
-        <v>2.11037</v>
+        <v>2.05395</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.95898</v>
+        <v>1.83413</v>
       </c>
       <c r="C68" t="n">
-        <v>1.94435</v>
+        <v>1.46342</v>
       </c>
       <c r="D68" t="n">
-        <v>2.04573</v>
+        <v>2.04095</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.9694</v>
+        <v>1.89195</v>
       </c>
       <c r="C69" t="n">
-        <v>1.99728</v>
+        <v>1.47151</v>
       </c>
       <c r="D69" t="n">
-        <v>2.20085</v>
+        <v>2.081</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.06731</v>
+        <v>2.03872</v>
       </c>
       <c r="C70" t="n">
-        <v>1.98348</v>
+        <v>1.51258</v>
       </c>
       <c r="D70" t="n">
-        <v>2.24307</v>
+        <v>2.1124</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.09598</v>
+        <v>2.08704</v>
       </c>
       <c r="C71" t="n">
-        <v>2.0408</v>
+        <v>1.50436</v>
       </c>
       <c r="D71" t="n">
-        <v>2.12373</v>
+        <v>2.15189</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.07708</v>
+        <v>2.09815</v>
       </c>
       <c r="C72" t="n">
-        <v>2.13698</v>
+        <v>1.51242</v>
       </c>
       <c r="D72" t="n">
-        <v>2.30152</v>
+        <v>2.23881</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.1891</v>
+        <v>2.15362</v>
       </c>
       <c r="C73" t="n">
-        <v>2.15782</v>
+        <v>1.62082</v>
       </c>
       <c r="D73" t="n">
-        <v>2.25175</v>
+        <v>2.21701</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.09826</v>
+        <v>2.16809</v>
       </c>
       <c r="C74" t="n">
-        <v>2.05021</v>
+        <v>1.63941</v>
       </c>
       <c r="D74" t="n">
-        <v>2.26424</v>
+        <v>2.30731</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.04542</v>
+        <v>2.15445</v>
       </c>
       <c r="C75" t="n">
-        <v>2.10234</v>
+        <v>1.57345</v>
       </c>
       <c r="D75" t="n">
-        <v>2.32092</v>
+        <v>2.42394</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.17973</v>
+        <v>2.19188</v>
       </c>
       <c r="C76" t="n">
-        <v>2.1678</v>
+        <v>1.61615</v>
       </c>
       <c r="D76" t="n">
-        <v>2.48598</v>
+        <v>2.35895</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.23425</v>
+        <v>2.15872</v>
       </c>
       <c r="C77" t="n">
-        <v>2.16816</v>
+        <v>1.59782</v>
       </c>
       <c r="D77" t="n">
-        <v>2.35028</v>
+        <v>2.41296</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.23753</v>
+        <v>2.18315</v>
       </c>
       <c r="C78" t="n">
-        <v>2.29103</v>
+        <v>1.74809</v>
       </c>
       <c r="D78" t="n">
-        <v>2.63968</v>
+        <v>2.68318</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.17209</v>
+        <v>2.26673</v>
       </c>
       <c r="C79" t="n">
-        <v>2.37162</v>
+        <v>1.73385</v>
       </c>
       <c r="D79" t="n">
-        <v>2.6392</v>
+        <v>2.68473</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.24875</v>
+        <v>2.27205</v>
       </c>
       <c r="C80" t="n">
-        <v>2.38527</v>
+        <v>1.73632</v>
       </c>
       <c r="D80" t="n">
-        <v>2.68048</v>
+        <v>2.68487</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.19456</v>
+        <v>2.26799</v>
       </c>
       <c r="C81" t="n">
-        <v>2.27561</v>
+        <v>1.81486</v>
       </c>
       <c r="D81" t="n">
-        <v>2.68897</v>
+        <v>2.703</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.22861</v>
+        <v>2.2782</v>
       </c>
       <c r="C82" t="n">
-        <v>2.30662</v>
+        <v>1.77867</v>
       </c>
       <c r="D82" t="n">
-        <v>2.64904</v>
+        <v>2.72787</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.25535</v>
+        <v>2.34232</v>
       </c>
       <c r="C83" t="n">
-        <v>2.31761</v>
+        <v>1.77779</v>
       </c>
       <c r="D83" t="n">
-        <v>2.77152</v>
+        <v>2.72188</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.33608</v>
+        <v>2.3886</v>
       </c>
       <c r="C84" t="n">
-        <v>2.34425</v>
+        <v>1.81939</v>
       </c>
       <c r="D84" t="n">
-        <v>2.72055</v>
+        <v>2.83587</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.33084</v>
+        <v>2.48173</v>
       </c>
       <c r="C85" t="n">
-        <v>2.38855</v>
+        <v>1.8041</v>
       </c>
       <c r="D85" t="n">
-        <v>2.75111</v>
+        <v>2.84244</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.40408</v>
+        <v>2.43418</v>
       </c>
       <c r="C86" t="n">
-        <v>2.35965</v>
+        <v>1.82792</v>
       </c>
       <c r="D86" t="n">
-        <v>2.78174</v>
+        <v>2.87993</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.38674</v>
+        <v>2.5071</v>
       </c>
       <c r="C87" t="n">
-        <v>2.37733</v>
+        <v>1.83112</v>
       </c>
       <c r="D87" t="n">
-        <v>2.81081</v>
+        <v>2.89489</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.351</v>
+        <v>2.45779</v>
       </c>
       <c r="C88" t="n">
-        <v>2.44386</v>
+        <v>1.88365</v>
       </c>
       <c r="D88" t="n">
-        <v>2.85474</v>
+        <v>2.94653</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.43653</v>
+        <v>2.5775</v>
       </c>
       <c r="C89" t="n">
-        <v>2.4232</v>
+        <v>1.90763</v>
       </c>
       <c r="D89" t="n">
-        <v>2.87249</v>
+        <v>2.97292</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.45522</v>
+        <v>2.52608</v>
       </c>
       <c r="C90" t="n">
-        <v>2.46545</v>
+        <v>1.93919</v>
       </c>
       <c r="D90" t="n">
-        <v>2.90929</v>
+        <v>2.97859</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.445</v>
+        <v>2.60521</v>
       </c>
       <c r="C91" t="n">
-        <v>2.48667</v>
+        <v>1.97337</v>
       </c>
       <c r="D91" t="n">
-        <v>2.94144</v>
+        <v>3.00473</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.45846</v>
+        <v>2.51954</v>
       </c>
       <c r="C92" t="n">
-        <v>2.7021</v>
+        <v>2.07433</v>
       </c>
       <c r="D92" t="n">
-        <v>3.06302</v>
+        <v>3.20355</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.42983</v>
+        <v>2.59655</v>
       </c>
       <c r="C93" t="n">
-        <v>2.69888</v>
+        <v>2.05931</v>
       </c>
       <c r="D93" t="n">
-        <v>3.17977</v>
+        <v>3.23332</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.50765</v>
+        <v>2.57717</v>
       </c>
       <c r="C94" t="n">
-        <v>2.77881</v>
+        <v>2.08004</v>
       </c>
       <c r="D94" t="n">
-        <v>3.15252</v>
+        <v>3.2372</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.50339</v>
+        <v>2.66507</v>
       </c>
       <c r="C95" t="n">
-        <v>2.7179</v>
+        <v>2.05158</v>
       </c>
       <c r="D95" t="n">
-        <v>3.2479</v>
+        <v>3.27722</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.53852</v>
+        <v>2.64032</v>
       </c>
       <c r="C96" t="n">
-        <v>2.77448</v>
+        <v>2.11787</v>
       </c>
       <c r="D96" t="n">
-        <v>3.23348</v>
+        <v>3.33095</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.72049</v>
+        <v>2.69785</v>
       </c>
       <c r="C97" t="n">
-        <v>2.73309</v>
+        <v>2.05584</v>
       </c>
       <c r="D97" t="n">
-        <v>3.26302</v>
+        <v>3.32406</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.76951</v>
+        <v>2.84473</v>
       </c>
       <c r="C98" t="n">
-        <v>2.81297</v>
+        <v>2.1316</v>
       </c>
       <c r="D98" t="n">
-        <v>3.23418</v>
+        <v>3.26206</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.73121</v>
+        <v>2.81619</v>
       </c>
       <c r="C99" t="n">
-        <v>2.77924</v>
+        <v>2.11554</v>
       </c>
       <c r="D99" t="n">
-        <v>3.24662</v>
+        <v>3.30168</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.79382</v>
+        <v>2.87263</v>
       </c>
       <c r="C100" t="n">
-        <v>2.87258</v>
+        <v>2.12124</v>
       </c>
       <c r="D100" t="n">
-        <v>3.26974</v>
+        <v>3.26952</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.74891</v>
+        <v>2.86678</v>
       </c>
       <c r="C101" t="n">
-        <v>2.87341</v>
+        <v>2.19489</v>
       </c>
       <c r="D101" t="n">
-        <v>3.34075</v>
+        <v>3.34513</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.88965</v>
+        <v>2.88664</v>
       </c>
       <c r="C102" t="n">
-        <v>2.85974</v>
+        <v>2.2069</v>
       </c>
       <c r="D102" t="n">
-        <v>3.31586</v>
+        <v>3.37961</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.78272</v>
+        <v>2.93358</v>
       </c>
       <c r="C103" t="n">
-        <v>2.89135</v>
+        <v>2.2473</v>
       </c>
       <c r="D103" t="n">
-        <v>3.34528</v>
+        <v>3.48449</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.74063</v>
+        <v>2.92987</v>
       </c>
       <c r="C104" t="n">
-        <v>2.9181</v>
+        <v>2.31873</v>
       </c>
       <c r="D104" t="n">
-        <v>3.36098</v>
+        <v>3.49199</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.76618</v>
+        <v>2.95647</v>
       </c>
       <c r="C105" t="n">
-        <v>2.89564</v>
+        <v>2.31748</v>
       </c>
       <c r="D105" t="n">
-        <v>3.32837</v>
+        <v>3.44314</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.81289</v>
+        <v>2.93961</v>
       </c>
       <c r="C106" t="n">
-        <v>3.012</v>
+        <v>2.2772</v>
       </c>
       <c r="D106" t="n">
-        <v>3.37418</v>
+        <v>3.53374</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.8324</v>
+        <v>2.97675</v>
       </c>
       <c r="C107" t="n">
-        <v>3.30638</v>
+        <v>2.42986</v>
       </c>
       <c r="D107" t="n">
-        <v>3.67398</v>
+        <v>3.75196</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.84368</v>
+        <v>3.03994</v>
       </c>
       <c r="C108" t="n">
-        <v>3.30946</v>
+        <v>2.40918</v>
       </c>
       <c r="D108" t="n">
-        <v>3.71179</v>
+        <v>3.78143</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.82274</v>
+        <v>3.06481</v>
       </c>
       <c r="C109" t="n">
-        <v>3.31129</v>
+        <v>2.43758</v>
       </c>
       <c r="D109" t="n">
-        <v>3.61623</v>
+        <v>3.81272</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.88558</v>
+        <v>3.14844</v>
       </c>
       <c r="C110" t="n">
-        <v>3.3531</v>
+        <v>2.48582</v>
       </c>
       <c r="D110" t="n">
-        <v>3.68586</v>
+        <v>3.75925</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.88984</v>
+        <v>3.08128</v>
       </c>
       <c r="C111" t="n">
-        <v>3.42114</v>
+        <v>2.49673</v>
       </c>
       <c r="D111" t="n">
-        <v>3.78424</v>
+        <v>3.87661</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.07952</v>
+        <v>3.30418</v>
       </c>
       <c r="C112" t="n">
-        <v>3.39354</v>
+        <v>2.49744</v>
       </c>
       <c r="D112" t="n">
-        <v>3.71094</v>
+        <v>3.94142</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.08649</v>
+        <v>3.33847</v>
       </c>
       <c r="C113" t="n">
-        <v>3.35556</v>
+        <v>2.59462</v>
       </c>
       <c r="D113" t="n">
-        <v>3.7514</v>
+        <v>3.90514</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.04801</v>
+        <v>3.3488</v>
       </c>
       <c r="C114" t="n">
-        <v>3.42203</v>
+        <v>2.58996</v>
       </c>
       <c r="D114" t="n">
-        <v>3.78018</v>
+        <v>3.91153</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.09379</v>
+        <v>3.34959</v>
       </c>
       <c r="C115" t="n">
-        <v>3.46947</v>
+        <v>2.63838</v>
       </c>
       <c r="D115" t="n">
-        <v>3.76822</v>
+        <v>3.99665</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.17818</v>
+        <v>3.41659</v>
       </c>
       <c r="C116" t="n">
-        <v>3.4416</v>
+        <v>2.65808</v>
       </c>
       <c r="D116" t="n">
-        <v>3.8487</v>
+        <v>4.05514</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.17953</v>
+        <v>3.45788</v>
       </c>
       <c r="C117" t="n">
-        <v>3.5691</v>
+        <v>2.73517</v>
       </c>
       <c r="D117" t="n">
-        <v>3.88828</v>
+        <v>4.14486</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.25139</v>
+        <v>3.57239</v>
       </c>
       <c r="C118" t="n">
-        <v>3.51899</v>
+        <v>2.77561</v>
       </c>
       <c r="D118" t="n">
-        <v>4.0146</v>
+        <v>4.13038</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.33581</v>
+        <v>3.53837</v>
       </c>
       <c r="C119" t="n">
-        <v>3.69652</v>
+        <v>2.77151</v>
       </c>
       <c r="D119" t="n">
-        <v>4.0078</v>
+        <v>4.1666</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.459082</v>
+        <v>0.463422</v>
       </c>
       <c r="C2" t="n">
-        <v>0.802022</v>
+        <v>0.508584</v>
       </c>
       <c r="D2" t="n">
-        <v>0.517849</v>
+        <v>0.574036</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.456978</v>
+        <v>0.474272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75017</v>
+        <v>0.546374</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5184260000000001</v>
+        <v>0.563375</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.454832</v>
+        <v>0.475455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761825</v>
+        <v>0.544438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.539205</v>
+        <v>0.565423</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.446246</v>
+        <v>0.463984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7751710000000001</v>
+        <v>0.555903</v>
       </c>
       <c r="D5" t="n">
-        <v>0.555682</v>
+        <v>0.540625</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.449094</v>
+        <v>0.454855</v>
       </c>
       <c r="C6" t="n">
-        <v>0.756092</v>
+        <v>0.533062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.531546</v>
+        <v>0.538605</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439775</v>
+        <v>0.457846</v>
       </c>
       <c r="C7" t="n">
-        <v>0.794667</v>
+        <v>0.545602</v>
       </c>
       <c r="D7" t="n">
-        <v>0.536059</v>
+        <v>0.550226</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.450892</v>
+        <v>0.466755</v>
       </c>
       <c r="C8" t="n">
-        <v>0.78096</v>
+        <v>0.547037</v>
       </c>
       <c r="D8" t="n">
-        <v>0.537611</v>
+        <v>0.558621</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.444233</v>
+        <v>0.466092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.792551</v>
+        <v>0.551291</v>
       </c>
       <c r="D9" t="n">
-        <v>0.546416</v>
+        <v>0.554809</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.482418</v>
+        <v>0.462933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.80874</v>
+        <v>0.547898</v>
       </c>
       <c r="D10" t="n">
-        <v>0.549491</v>
+        <v>0.565841</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.457106</v>
+        <v>0.465734</v>
       </c>
       <c r="C11" t="n">
-        <v>0.820927</v>
+        <v>0.544736</v>
       </c>
       <c r="D11" t="n">
-        <v>0.559051</v>
+        <v>0.566833</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.45701</v>
+        <v>0.472183</v>
       </c>
       <c r="C12" t="n">
-        <v>0.798769</v>
+        <v>0.551961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.552495</v>
+        <v>0.561863</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.465512</v>
+        <v>0.476236</v>
       </c>
       <c r="C13" t="n">
-        <v>0.808878</v>
+        <v>0.555105</v>
       </c>
       <c r="D13" t="n">
-        <v>0.569226</v>
+        <v>0.577671</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.470427</v>
+        <v>0.486416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.81012</v>
+        <v>0.554442</v>
       </c>
       <c r="D14" t="n">
-        <v>0.557983</v>
+        <v>0.573088</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.483259</v>
+        <v>0.480953</v>
       </c>
       <c r="C15" t="n">
-        <v>0.808497</v>
+        <v>0.561805</v>
       </c>
       <c r="D15" t="n">
-        <v>0.574132</v>
+        <v>0.572501</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47617</v>
+        <v>0.487403</v>
       </c>
       <c r="C16" t="n">
-        <v>0.812001</v>
+        <v>0.568796</v>
       </c>
       <c r="D16" t="n">
-        <v>0.567648</v>
+        <v>0.576538</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.474618</v>
+        <v>0.487924</v>
       </c>
       <c r="C17" t="n">
-        <v>0.81531</v>
+        <v>0.565961</v>
       </c>
       <c r="D17" t="n">
-        <v>0.570085</v>
+        <v>0.581539</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.482357</v>
+        <v>0.483793</v>
       </c>
       <c r="C18" t="n">
-        <v>0.818953</v>
+        <v>0.560621</v>
       </c>
       <c r="D18" t="n">
-        <v>0.594178</v>
+        <v>0.584476</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.488332</v>
+        <v>0.49351</v>
       </c>
       <c r="C19" t="n">
-        <v>0.827277</v>
+        <v>0.573213</v>
       </c>
       <c r="D19" t="n">
-        <v>0.575434</v>
+        <v>0.5926900000000001</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.480123</v>
+        <v>0.497361</v>
       </c>
       <c r="C20" t="n">
-        <v>0.854522</v>
+        <v>0.586449</v>
       </c>
       <c r="D20" t="n">
-        <v>0.591444</v>
+        <v>0.58725</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.477792</v>
+        <v>0.498098</v>
       </c>
       <c r="C21" t="n">
-        <v>0.857773</v>
+        <v>0.581495</v>
       </c>
       <c r="D21" t="n">
-        <v>0.586184</v>
+        <v>0.604996</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.487769</v>
+        <v>0.502586</v>
       </c>
       <c r="C22" t="n">
-        <v>0.855557</v>
+        <v>0.588624</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5928369999999999</v>
+        <v>0.608816</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.492074</v>
+        <v>0.495454</v>
       </c>
       <c r="C23" t="n">
-        <v>0.869034</v>
+        <v>0.584547</v>
       </c>
       <c r="D23" t="n">
-        <v>0.60764</v>
+        <v>0.620262</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481024</v>
+        <v>0.5038550000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.864849</v>
+        <v>0.5912539999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.640979</v>
+        <v>0.60607</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.506528</v>
+        <v>0.50321</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8663459999999999</v>
+        <v>0.603069</v>
       </c>
       <c r="D25" t="n">
-        <v>0.600839</v>
+        <v>0.620953</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.506982</v>
+        <v>0.517721</v>
       </c>
       <c r="C26" t="n">
-        <v>0.863502</v>
+        <v>0.59709</v>
       </c>
       <c r="D26" t="n">
-        <v>0.604365</v>
+        <v>0.630696</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.57583</v>
+        <v>0.593418</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8761949999999999</v>
+        <v>0.610336</v>
       </c>
       <c r="D27" t="n">
-        <v>0.623825</v>
+        <v>0.640032</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.588239</v>
+        <v>0.594646</v>
       </c>
       <c r="C28" t="n">
-        <v>0.889389</v>
+        <v>0.628533</v>
       </c>
       <c r="D28" t="n">
-        <v>0.615992</v>
+        <v>0.661319</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5941419999999999</v>
+        <v>0.605176</v>
       </c>
       <c r="C29" t="n">
-        <v>0.897349</v>
+        <v>0.615558</v>
       </c>
       <c r="D29" t="n">
-        <v>0.631467</v>
+        <v>0.637529</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.597015</v>
+        <v>0.610567</v>
       </c>
       <c r="C30" t="n">
-        <v>0.958094</v>
+        <v>0.629757</v>
       </c>
       <c r="D30" t="n">
-        <v>0.672496</v>
+        <v>0.645908</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6329669999999999</v>
+        <v>0.625576</v>
       </c>
       <c r="C31" t="n">
-        <v>0.910328</v>
+        <v>0.6561</v>
       </c>
       <c r="D31" t="n">
-        <v>0.644177</v>
+        <v>0.6642980000000001</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.636294</v>
+        <v>0.637535</v>
       </c>
       <c r="C32" t="n">
-        <v>0.965184</v>
+        <v>0.653527</v>
       </c>
       <c r="D32" t="n">
-        <v>0.685221</v>
+        <v>0.686356</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.689381</v>
+        <v>0.649039</v>
       </c>
       <c r="C33" t="n">
-        <v>0.976328</v>
+        <v>0.683546</v>
       </c>
       <c r="D33" t="n">
-        <v>0.675272</v>
+        <v>0.7215</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.666404</v>
+        <v>0.6652940000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.980535</v>
+        <v>0.670912</v>
       </c>
       <c r="D34" t="n">
-        <v>0.689061</v>
+        <v>0.719917</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.668563</v>
+        <v>0.677628</v>
       </c>
       <c r="C35" t="n">
-        <v>1.11217</v>
+        <v>0.751287</v>
       </c>
       <c r="D35" t="n">
-        <v>0.822063</v>
+        <v>0.816993</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.680823</v>
+        <v>0.711744</v>
       </c>
       <c r="C36" t="n">
-        <v>1.11417</v>
+        <v>0.7836959999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.850972</v>
+        <v>0.840125</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.687302</v>
+        <v>0.720589</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0802</v>
+        <v>0.798811</v>
       </c>
       <c r="D37" t="n">
-        <v>0.862724</v>
+        <v>0.866497</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.737619</v>
+        <v>0.721661</v>
       </c>
       <c r="C38" t="n">
-        <v>1.14687</v>
+        <v>0.809989</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8769</v>
+        <v>0.903887</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7490790000000001</v>
+        <v>0.742201</v>
       </c>
       <c r="C39" t="n">
-        <v>1.21424</v>
+        <v>0.840916</v>
       </c>
       <c r="D39" t="n">
-        <v>0.932284</v>
+        <v>0.93097</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.752615</v>
+        <v>0.74325</v>
       </c>
       <c r="C40" t="n">
-        <v>1.23032</v>
+        <v>0.862039</v>
       </c>
       <c r="D40" t="n">
-        <v>0.927503</v>
+        <v>0.940491</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.90296</v>
+        <v>0.88048</v>
       </c>
       <c r="C41" t="n">
-        <v>1.27904</v>
+        <v>0.869113</v>
       </c>
       <c r="D41" t="n">
-        <v>0.951155</v>
+        <v>0.95277</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9185950000000001</v>
+        <v>0.893419</v>
       </c>
       <c r="C42" t="n">
-        <v>1.31054</v>
+        <v>0.887135</v>
       </c>
       <c r="D42" t="n">
-        <v>0.949699</v>
+        <v>0.972174</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.923421</v>
+        <v>0.916981</v>
       </c>
       <c r="C43" t="n">
-        <v>1.34071</v>
+        <v>0.941713</v>
       </c>
       <c r="D43" t="n">
-        <v>1.04559</v>
+        <v>1.00837</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.962113</v>
+        <v>0.912552</v>
       </c>
       <c r="C44" t="n">
-        <v>1.49219</v>
+        <v>0.94799</v>
       </c>
       <c r="D44" t="n">
-        <v>1.0573</v>
+        <v>1.03405</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.990028</v>
+        <v>0.945461</v>
       </c>
       <c r="C45" t="n">
-        <v>1.46529</v>
+        <v>0.9518450000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>1.05935</v>
+        <v>1.0765</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9963920000000001</v>
+        <v>0.9732189999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>1.48714</v>
+        <v>0.983064</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13658</v>
+        <v>1.0991</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.05074</v>
+        <v>1.01171</v>
       </c>
       <c r="C47" t="n">
-        <v>1.56126</v>
+        <v>1.02766</v>
       </c>
       <c r="D47" t="n">
-        <v>1.18093</v>
+        <v>1.12667</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07246</v>
+        <v>1.0252</v>
       </c>
       <c r="C48" t="n">
-        <v>1.65459</v>
+        <v>1.09576</v>
       </c>
       <c r="D48" t="n">
-        <v>1.15258</v>
+        <v>1.17937</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.07711</v>
+        <v>1.04695</v>
       </c>
       <c r="C49" t="n">
-        <v>1.60881</v>
+        <v>1.07583</v>
       </c>
       <c r="D49" t="n">
-        <v>1.26163</v>
+        <v>1.21534</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.1354</v>
+        <v>1.06051</v>
       </c>
       <c r="C50" t="n">
-        <v>1.99023</v>
+        <v>1.24583</v>
       </c>
       <c r="D50" t="n">
-        <v>1.41543</v>
+        <v>1.3671</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.16653</v>
+        <v>1.08608</v>
       </c>
       <c r="C51" t="n">
-        <v>1.9968</v>
+        <v>1.32069</v>
       </c>
       <c r="D51" t="n">
-        <v>1.433</v>
+        <v>1.35557</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.17519</v>
+        <v>1.11176</v>
       </c>
       <c r="C52" t="n">
-        <v>2.00755</v>
+        <v>1.37375</v>
       </c>
       <c r="D52" t="n">
-        <v>1.46853</v>
+        <v>1.42856</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.25408</v>
+        <v>1.18004</v>
       </c>
       <c r="C53" t="n">
-        <v>2.11481</v>
+        <v>1.35826</v>
       </c>
       <c r="D53" t="n">
-        <v>1.54165</v>
+        <v>1.47999</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.27683</v>
+        <v>1.17246</v>
       </c>
       <c r="C54" t="n">
-        <v>2.19499</v>
+        <v>1.41032</v>
       </c>
       <c r="D54" t="n">
-        <v>1.70918</v>
+        <v>1.50601</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.3084</v>
+        <v>1.22343</v>
       </c>
       <c r="C55" t="n">
-        <v>2.36907</v>
+        <v>1.42881</v>
       </c>
       <c r="D55" t="n">
-        <v>1.71148</v>
+        <v>1.54025</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.47496</v>
+        <v>1.35317</v>
       </c>
       <c r="C56" t="n">
-        <v>2.28897</v>
+        <v>1.55167</v>
       </c>
       <c r="D56" t="n">
-        <v>1.69481</v>
+        <v>1.59891</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.46062</v>
+        <v>1.39179</v>
       </c>
       <c r="C57" t="n">
-        <v>2.37884</v>
+        <v>1.47783</v>
       </c>
       <c r="D57" t="n">
-        <v>1.84038</v>
+        <v>1.64536</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.60154</v>
+        <v>1.42999</v>
       </c>
       <c r="C58" t="n">
-        <v>2.69468</v>
+        <v>1.62956</v>
       </c>
       <c r="D58" t="n">
-        <v>1.89534</v>
+        <v>1.73349</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.6076</v>
+        <v>1.42114</v>
       </c>
       <c r="C59" t="n">
-        <v>2.87127</v>
+        <v>1.63311</v>
       </c>
       <c r="D59" t="n">
-        <v>1.97435</v>
+        <v>1.74589</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.68994</v>
+        <v>1.49734</v>
       </c>
       <c r="C60" t="n">
-        <v>2.76366</v>
+        <v>1.7751</v>
       </c>
       <c r="D60" t="n">
-        <v>1.96468</v>
+        <v>1.76307</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.69379</v>
+        <v>1.54328</v>
       </c>
       <c r="C61" t="n">
-        <v>2.84789</v>
+        <v>1.72251</v>
       </c>
       <c r="D61" t="n">
-        <v>2.04797</v>
+        <v>1.80873</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.68513</v>
+        <v>1.55203</v>
       </c>
       <c r="C62" t="n">
-        <v>2.81298</v>
+        <v>1.71287</v>
       </c>
       <c r="D62" t="n">
-        <v>2.19794</v>
+        <v>1.91432</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.73169</v>
+        <v>1.55783</v>
       </c>
       <c r="C63" t="n">
-        <v>2.68413</v>
+        <v>1.76809</v>
       </c>
       <c r="D63" t="n">
-        <v>2.12568</v>
+        <v>1.99552</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.75998</v>
+        <v>1.65484</v>
       </c>
       <c r="C64" t="n">
-        <v>2.90254</v>
+        <v>1.90195</v>
       </c>
       <c r="D64" t="n">
-        <v>2.21863</v>
+        <v>2.18324</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.77112</v>
+        <v>1.67056</v>
       </c>
       <c r="C65" t="n">
-        <v>2.84777</v>
+        <v>1.9355</v>
       </c>
       <c r="D65" t="n">
-        <v>2.38493</v>
+        <v>2.16078</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.81817</v>
+        <v>1.66057</v>
       </c>
       <c r="C66" t="n">
-        <v>2.9572</v>
+        <v>1.98116</v>
       </c>
       <c r="D66" t="n">
-        <v>2.50146</v>
+        <v>2.25671</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.87414</v>
+        <v>1.71739</v>
       </c>
       <c r="C67" t="n">
-        <v>3.05323</v>
+        <v>1.99326</v>
       </c>
       <c r="D67" t="n">
-        <v>2.4529</v>
+        <v>2.30468</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.89195</v>
+        <v>1.75385</v>
       </c>
       <c r="C68" t="n">
-        <v>2.98638</v>
+        <v>2.03542</v>
       </c>
       <c r="D68" t="n">
-        <v>2.52878</v>
+        <v>2.30977</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.95434</v>
+        <v>1.83485</v>
       </c>
       <c r="C69" t="n">
-        <v>3.10416</v>
+        <v>2.13378</v>
       </c>
       <c r="D69" t="n">
-        <v>2.63768</v>
+        <v>2.42314</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.03073</v>
+        <v>1.91501</v>
       </c>
       <c r="C70" t="n">
-        <v>3.16907</v>
+        <v>2.12569</v>
       </c>
       <c r="D70" t="n">
-        <v>2.61984</v>
+        <v>2.50983</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.07241</v>
+        <v>1.928</v>
       </c>
       <c r="C71" t="n">
-        <v>3.15273</v>
+        <v>2.16189</v>
       </c>
       <c r="D71" t="n">
-        <v>2.84814</v>
+        <v>2.55396</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.08785</v>
+        <v>1.98126</v>
       </c>
       <c r="C72" t="n">
-        <v>3.24756</v>
+        <v>2.22155</v>
       </c>
       <c r="D72" t="n">
-        <v>2.79361</v>
+        <v>2.6401</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.15068</v>
+        <v>2.01171</v>
       </c>
       <c r="C73" t="n">
-        <v>3.32063</v>
+        <v>2.21856</v>
       </c>
       <c r="D73" t="n">
-        <v>2.89515</v>
+        <v>2.70308</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.11899</v>
+        <v>2.06026</v>
       </c>
       <c r="C74" t="n">
-        <v>3.32931</v>
+        <v>2.28718</v>
       </c>
       <c r="D74" t="n">
-        <v>2.9079</v>
+        <v>2.71329</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.17237</v>
+        <v>2.04105</v>
       </c>
       <c r="C75" t="n">
-        <v>3.40299</v>
+        <v>2.3661</v>
       </c>
       <c r="D75" t="n">
-        <v>2.98493</v>
+        <v>2.81973</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.19223</v>
+        <v>2.12295</v>
       </c>
       <c r="C76" t="n">
-        <v>3.34673</v>
+        <v>2.39686</v>
       </c>
       <c r="D76" t="n">
-        <v>2.95485</v>
+        <v>2.8233</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.25249</v>
+        <v>2.11388</v>
       </c>
       <c r="C77" t="n">
-        <v>3.46864</v>
+        <v>2.44071</v>
       </c>
       <c r="D77" t="n">
-        <v>3.18991</v>
+        <v>3.0045</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.34619</v>
+        <v>2.12308</v>
       </c>
       <c r="C78" t="n">
-        <v>3.72248</v>
+        <v>2.5621</v>
       </c>
       <c r="D78" t="n">
-        <v>3.18632</v>
+        <v>3.11908</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.34047</v>
+        <v>2.25347</v>
       </c>
       <c r="C79" t="n">
-        <v>3.8911</v>
+        <v>2.5552</v>
       </c>
       <c r="D79" t="n">
-        <v>3.46419</v>
+        <v>3.22521</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.44639</v>
+        <v>2.26586</v>
       </c>
       <c r="C80" t="n">
-        <v>3.87661</v>
+        <v>2.65524</v>
       </c>
       <c r="D80" t="n">
-        <v>3.32794</v>
+        <v>3.24444</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.33043</v>
+        <v>2.19048</v>
       </c>
       <c r="C81" t="n">
-        <v>3.81421</v>
+        <v>2.62782</v>
       </c>
       <c r="D81" t="n">
-        <v>3.48916</v>
+        <v>3.32843</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.39896</v>
+        <v>2.30913</v>
       </c>
       <c r="C82" t="n">
-        <v>3.82332</v>
+        <v>2.71339</v>
       </c>
       <c r="D82" t="n">
-        <v>3.37188</v>
+        <v>3.24213</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.40739</v>
+        <v>2.30448</v>
       </c>
       <c r="C83" t="n">
-        <v>3.90669</v>
+        <v>2.68371</v>
       </c>
       <c r="D83" t="n">
-        <v>3.64716</v>
+        <v>3.29146</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.50844</v>
+        <v>2.32689</v>
       </c>
       <c r="C84" t="n">
-        <v>4.01706</v>
+        <v>2.71816</v>
       </c>
       <c r="D84" t="n">
-        <v>3.53158</v>
+        <v>3.30257</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.58449</v>
+        <v>2.41787</v>
       </c>
       <c r="C85" t="n">
-        <v>4.10046</v>
+        <v>2.74256</v>
       </c>
       <c r="D85" t="n">
-        <v>3.60742</v>
+        <v>3.45876</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.60507</v>
+        <v>2.41115</v>
       </c>
       <c r="C86" t="n">
-        <v>4.02908</v>
+        <v>2.75751</v>
       </c>
       <c r="D86" t="n">
-        <v>3.66102</v>
+        <v>3.45682</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.67255</v>
+        <v>2.39315</v>
       </c>
       <c r="C87" t="n">
-        <v>4.15413</v>
+        <v>2.8221</v>
       </c>
       <c r="D87" t="n">
-        <v>3.6548</v>
+        <v>3.44784</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.65098</v>
+        <v>2.46984</v>
       </c>
       <c r="C88" t="n">
-        <v>4.01946</v>
+        <v>2.81961</v>
       </c>
       <c r="D88" t="n">
-        <v>3.72564</v>
+        <v>3.50358</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.66495</v>
+        <v>2.44461</v>
       </c>
       <c r="C89" t="n">
-        <v>4.13993</v>
+        <v>2.87576</v>
       </c>
       <c r="D89" t="n">
-        <v>3.85336</v>
+        <v>3.53538</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.73983</v>
+        <v>2.49126</v>
       </c>
       <c r="C90" t="n">
-        <v>4.2064</v>
+        <v>2.95769</v>
       </c>
       <c r="D90" t="n">
-        <v>3.83119</v>
+        <v>3.60243</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.75315</v>
+        <v>2.49986</v>
       </c>
       <c r="C91" t="n">
-        <v>4.21804</v>
+        <v>2.93671</v>
       </c>
       <c r="D91" t="n">
-        <v>3.88522</v>
+        <v>3.67136</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.79355</v>
+        <v>2.53389</v>
       </c>
       <c r="C92" t="n">
-        <v>4.40053</v>
+        <v>2.97943</v>
       </c>
       <c r="D92" t="n">
-        <v>4.0369</v>
+        <v>3.84333</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.79781</v>
+        <v>2.55437</v>
       </c>
       <c r="C93" t="n">
-        <v>4.44506</v>
+        <v>3.03471</v>
       </c>
       <c r="D93" t="n">
-        <v>4.03992</v>
+        <v>3.83194</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.80668</v>
+        <v>2.5517</v>
       </c>
       <c r="C94" t="n">
-        <v>4.49949</v>
+        <v>3.0951</v>
       </c>
       <c r="D94" t="n">
-        <v>4.07882</v>
+        <v>3.8806</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.91657</v>
+        <v>2.5669</v>
       </c>
       <c r="C95" t="n">
-        <v>4.54892</v>
+        <v>3.10326</v>
       </c>
       <c r="D95" t="n">
-        <v>4.19881</v>
+        <v>4.03463</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.88083</v>
+        <v>2.63489</v>
       </c>
       <c r="C96" t="n">
-        <v>4.51943</v>
+        <v>3.10595</v>
       </c>
       <c r="D96" t="n">
-        <v>4.09054</v>
+        <v>4.0795</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.91554</v>
+        <v>2.70712</v>
       </c>
       <c r="C97" t="n">
-        <v>4.54197</v>
+        <v>3.13727</v>
       </c>
       <c r="D97" t="n">
-        <v>4.1884</v>
+        <v>4.03245</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.0872</v>
+        <v>2.76506</v>
       </c>
       <c r="C98" t="n">
-        <v>4.57939</v>
+        <v>3.16101</v>
       </c>
       <c r="D98" t="n">
-        <v>4.17562</v>
+        <v>3.94741</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.06819</v>
+        <v>2.84041</v>
       </c>
       <c r="C99" t="n">
-        <v>4.70129</v>
+        <v>3.22323</v>
       </c>
       <c r="D99" t="n">
-        <v>4.21641</v>
+        <v>4.00853</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.08459</v>
+        <v>2.84507</v>
       </c>
       <c r="C100" t="n">
-        <v>4.75586</v>
+        <v>3.27525</v>
       </c>
       <c r="D100" t="n">
-        <v>4.30899</v>
+        <v>4.07392</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.1448</v>
+        <v>2.93372</v>
       </c>
       <c r="C101" t="n">
-        <v>4.60436</v>
+        <v>3.30181</v>
       </c>
       <c r="D101" t="n">
-        <v>4.30367</v>
+        <v>4.14186</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.14745</v>
+        <v>2.8678</v>
       </c>
       <c r="C102" t="n">
-        <v>4.7258</v>
+        <v>3.35659</v>
       </c>
       <c r="D102" t="n">
-        <v>4.3396</v>
+        <v>4.2045</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.18512</v>
+        <v>2.92602</v>
       </c>
       <c r="C103" t="n">
-        <v>4.77185</v>
+        <v>3.42262</v>
       </c>
       <c r="D103" t="n">
-        <v>4.3422</v>
+        <v>4.17993</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.15656</v>
+        <v>2.95638</v>
       </c>
       <c r="C104" t="n">
-        <v>4.91858</v>
+        <v>3.36883</v>
       </c>
       <c r="D104" t="n">
-        <v>4.39995</v>
+        <v>4.19322</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.1743</v>
+        <v>2.9512</v>
       </c>
       <c r="C105" t="n">
-        <v>4.8441</v>
+        <v>3.43442</v>
       </c>
       <c r="D105" t="n">
-        <v>4.38779</v>
+        <v>4.32721</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.14763</v>
+        <v>2.97718</v>
       </c>
       <c r="C106" t="n">
-        <v>4.86236</v>
+        <v>3.46744</v>
       </c>
       <c r="D106" t="n">
-        <v>4.45643</v>
+        <v>4.33259</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.19035</v>
+        <v>3.03589</v>
       </c>
       <c r="C107" t="n">
-        <v>5.13698</v>
+        <v>3.56964</v>
       </c>
       <c r="D107" t="n">
-        <v>4.59952</v>
+        <v>4.47792</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.21931</v>
+        <v>3.01678</v>
       </c>
       <c r="C108" t="n">
-        <v>5.15694</v>
+        <v>3.6181</v>
       </c>
       <c r="D108" t="n">
-        <v>4.58181</v>
+        <v>4.46097</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.26536</v>
+        <v>3.04806</v>
       </c>
       <c r="C109" t="n">
-        <v>5.14939</v>
+        <v>3.61031</v>
       </c>
       <c r="D109" t="n">
-        <v>4.66822</v>
+        <v>4.54097</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.31712</v>
+        <v>3.08483</v>
       </c>
       <c r="C110" t="n">
-        <v>5.15615</v>
+        <v>3.63166</v>
       </c>
       <c r="D110" t="n">
-        <v>4.69713</v>
+        <v>4.51957</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.33977</v>
+        <v>3.12463</v>
       </c>
       <c r="C111" t="n">
-        <v>5.24474</v>
+        <v>3.66464</v>
       </c>
       <c r="D111" t="n">
-        <v>4.74686</v>
+        <v>4.71511</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.49763</v>
+        <v>3.29161</v>
       </c>
       <c r="C112" t="n">
-        <v>5.24329</v>
+        <v>3.72533</v>
       </c>
       <c r="D112" t="n">
-        <v>4.74465</v>
+        <v>4.61818</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.57982</v>
+        <v>3.36227</v>
       </c>
       <c r="C113" t="n">
-        <v>5.30629</v>
+        <v>3.74907</v>
       </c>
       <c r="D113" t="n">
-        <v>4.79095</v>
+        <v>4.73532</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.61678</v>
+        <v>3.33479</v>
       </c>
       <c r="C114" t="n">
-        <v>5.39328</v>
+        <v>3.82014</v>
       </c>
       <c r="D114" t="n">
-        <v>4.8831</v>
+        <v>4.72383</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.65629</v>
+        <v>3.41019</v>
       </c>
       <c r="C115" t="n">
-        <v>5.43573</v>
+        <v>3.7995</v>
       </c>
       <c r="D115" t="n">
-        <v>4.88545</v>
+        <v>4.88304</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.672</v>
+        <v>3.42674</v>
       </c>
       <c r="C116" t="n">
-        <v>5.47682</v>
+        <v>3.9062</v>
       </c>
       <c r="D116" t="n">
-        <v>5.01242</v>
+        <v>4.84856</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.665</v>
+        <v>3.45301</v>
       </c>
       <c r="C117" t="n">
-        <v>5.59026</v>
+        <v>3.89837</v>
       </c>
       <c r="D117" t="n">
-        <v>5.08802</v>
+        <v>4.929</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.68302</v>
+        <v>3.52133</v>
       </c>
       <c r="C118" t="n">
-        <v>5.65859</v>
+        <v>3.98468</v>
       </c>
       <c r="D118" t="n">
-        <v>5.14723</v>
+        <v>5.01189</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.81451</v>
+        <v>3.55981</v>
       </c>
       <c r="C119" t="n">
-        <v>5.73982</v>
+        <v>4.03858</v>
       </c>
       <c r="D119" t="n">
-        <v>5.19632</v>
+        <v>5.05226</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.407914</v>
+        <v>0.389765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7988960000000001</v>
+        <v>0.539653</v>
       </c>
       <c r="D2" t="n">
-        <v>0.508311</v>
+        <v>0.517819</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.427041</v>
+        <v>0.418661</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7775919999999999</v>
+        <v>0.561138</v>
       </c>
       <c r="D3" t="n">
-        <v>0.508915</v>
+        <v>0.51861</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.413783</v>
+        <v>0.414255</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7647969999999999</v>
+        <v>0.563425</v>
       </c>
       <c r="D4" t="n">
-        <v>0.520791</v>
+        <v>0.523599</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.411983</v>
+        <v>0.419642</v>
       </c>
       <c r="C5" t="n">
-        <v>0.783281</v>
+        <v>0.549322</v>
       </c>
       <c r="D5" t="n">
-        <v>0.532493</v>
+        <v>0.529847</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.428985</v>
+        <v>0.427978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.776062</v>
+        <v>0.553741</v>
       </c>
       <c r="D6" t="n">
-        <v>0.524097</v>
+        <v>0.525643</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.416137</v>
+        <v>0.42127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.777993</v>
+        <v>0.562706</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528169</v>
+        <v>0.528457</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.42158</v>
+        <v>0.42629</v>
       </c>
       <c r="C8" t="n">
-        <v>0.791345</v>
+        <v>0.565593</v>
       </c>
       <c r="D8" t="n">
-        <v>0.531694</v>
+        <v>0.5379660000000001</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.426692</v>
+        <v>0.422191</v>
       </c>
       <c r="C9" t="n">
-        <v>0.827526</v>
+        <v>0.580869</v>
       </c>
       <c r="D9" t="n">
-        <v>0.553899</v>
+        <v>0.54805</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.42081</v>
+        <v>0.426035</v>
       </c>
       <c r="C10" t="n">
-        <v>0.822175</v>
+        <v>0.582707</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5451319999999999</v>
+        <v>0.561063</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.426023</v>
+        <v>0.426395</v>
       </c>
       <c r="C11" t="n">
-        <v>0.801601</v>
+        <v>0.56897</v>
       </c>
       <c r="D11" t="n">
-        <v>0.553639</v>
+        <v>0.567414</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4311</v>
+        <v>0.42466</v>
       </c>
       <c r="C12" t="n">
-        <v>0.804665</v>
+        <v>0.5669920000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.55597</v>
+        <v>0.5566990000000001</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.424927</v>
+        <v>0.423855</v>
       </c>
       <c r="C13" t="n">
-        <v>0.807141</v>
+        <v>0.581132</v>
       </c>
       <c r="D13" t="n">
-        <v>0.564913</v>
+        <v>0.552072</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.428398</v>
+        <v>0.42422</v>
       </c>
       <c r="C14" t="n">
-        <v>0.830259</v>
+        <v>0.5901729999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.558837</v>
+        <v>0.580234</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.423786</v>
+        <v>0.429058</v>
       </c>
       <c r="C15" t="n">
-        <v>0.822488</v>
+        <v>0.591419</v>
       </c>
       <c r="D15" t="n">
-        <v>0.560473</v>
+        <v>0.5830959999999999</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.42843</v>
+        <v>0.435256</v>
       </c>
       <c r="C16" t="n">
-        <v>0.820848</v>
+        <v>0.597635</v>
       </c>
       <c r="D16" t="n">
-        <v>0.583172</v>
+        <v>0.588117</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.454545</v>
+        <v>0.461712</v>
       </c>
       <c r="C17" t="n">
-        <v>0.851801</v>
+        <v>0.609662</v>
       </c>
       <c r="D17" t="n">
-        <v>0.589202</v>
+        <v>0.582799</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.469414</v>
+        <v>0.453707</v>
       </c>
       <c r="C18" t="n">
-        <v>0.847556</v>
+        <v>0.60547</v>
       </c>
       <c r="D18" t="n">
-        <v>0.578195</v>
+        <v>0.580709</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.470732</v>
+        <v>0.464119</v>
       </c>
       <c r="C19" t="n">
-        <v>0.874903</v>
+        <v>0.617367</v>
       </c>
       <c r="D19" t="n">
-        <v>0.590489</v>
+        <v>0.589195</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.472499</v>
+        <v>0.462964</v>
       </c>
       <c r="C20" t="n">
-        <v>0.895609</v>
+        <v>0.633715</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5971610000000001</v>
+        <v>0.595933</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.47101</v>
+        <v>0.469782</v>
       </c>
       <c r="C21" t="n">
-        <v>0.86813</v>
+        <v>0.641768</v>
       </c>
       <c r="D21" t="n">
-        <v>0.595766</v>
+        <v>0.60197</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.462483</v>
+        <v>0.485145</v>
       </c>
       <c r="C22" t="n">
-        <v>0.89277</v>
+        <v>0.64007</v>
       </c>
       <c r="D22" t="n">
-        <v>0.618606</v>
+        <v>0.599224</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.521486</v>
+        <v>0.465374</v>
       </c>
       <c r="C23" t="n">
-        <v>0.993833</v>
+        <v>0.6489819999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.643784</v>
+        <v>0.605743</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.483198</v>
+        <v>0.464998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.915728</v>
+        <v>0.671064</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6365690000000001</v>
+        <v>0.605582</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.522651</v>
+        <v>0.471561</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9713000000000001</v>
+        <v>0.677409</v>
       </c>
       <c r="D25" t="n">
-        <v>0.634607</v>
+        <v>0.607081</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.496289</v>
+        <v>0.482629</v>
       </c>
       <c r="C26" t="n">
-        <v>0.887032</v>
+        <v>0.616559</v>
       </c>
       <c r="D26" t="n">
-        <v>0.639467</v>
+        <v>0.6108209999999999</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5015540000000001</v>
+        <v>0.48354</v>
       </c>
       <c r="C27" t="n">
-        <v>0.909234</v>
+        <v>0.624962</v>
       </c>
       <c r="D27" t="n">
-        <v>0.66313</v>
+        <v>0.624573</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.490974</v>
+        <v>0.490615</v>
       </c>
       <c r="C28" t="n">
-        <v>0.914806</v>
+        <v>0.634319</v>
       </c>
       <c r="D28" t="n">
-        <v>0.645972</v>
+        <v>0.6483950000000001</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.502939</v>
+        <v>0.476689</v>
       </c>
       <c r="C29" t="n">
-        <v>0.92093</v>
+        <v>0.645878</v>
       </c>
       <c r="D29" t="n">
-        <v>0.693197</v>
+        <v>0.635012</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.499626</v>
+        <v>0.468996</v>
       </c>
       <c r="C30" t="n">
-        <v>0.933788</v>
+        <v>0.66195</v>
       </c>
       <c r="D30" t="n">
-        <v>0.70292</v>
+        <v>0.65499</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.508474</v>
+        <v>0.48093</v>
       </c>
       <c r="C31" t="n">
-        <v>0.930272</v>
+        <v>0.664797</v>
       </c>
       <c r="D31" t="n">
-        <v>0.684439</v>
+        <v>0.659286</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.537929</v>
+        <v>0.533076</v>
       </c>
       <c r="C32" t="n">
-        <v>0.938347</v>
+        <v>0.663658</v>
       </c>
       <c r="D32" t="n">
-        <v>0.666784</v>
+        <v>0.676048</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.549222</v>
+        <v>0.553696</v>
       </c>
       <c r="C33" t="n">
-        <v>0.979027</v>
+        <v>0.681613</v>
       </c>
       <c r="D33" t="n">
-        <v>0.703002</v>
+        <v>0.680347</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.568334</v>
+        <v>0.5553940000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>1.00566</v>
+        <v>0.708137</v>
       </c>
       <c r="D34" t="n">
-        <v>0.700529</v>
+        <v>0.691923</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.56309</v>
+        <v>0.554808</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0135</v>
+        <v>0.710512</v>
       </c>
       <c r="D35" t="n">
-        <v>0.709172</v>
+        <v>0.719661</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.565089</v>
+        <v>0.581763</v>
       </c>
       <c r="C36" t="n">
-        <v>1.10975</v>
+        <v>0.753935</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7350640000000001</v>
+        <v>0.7184739999999999</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.576141</v>
+        <v>0.572305</v>
       </c>
       <c r="C37" t="n">
-        <v>1.06498</v>
+        <v>0.783641</v>
       </c>
       <c r="D37" t="n">
-        <v>0.765216</v>
+        <v>0.7429249999999999</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.580797</v>
+        <v>0.595756</v>
       </c>
       <c r="C38" t="n">
-        <v>1.08527</v>
+        <v>0.77901</v>
       </c>
       <c r="D38" t="n">
-        <v>0.772909</v>
+        <v>0.751135</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.63934</v>
+        <v>0.595403</v>
       </c>
       <c r="C39" t="n">
-        <v>1.14202</v>
+        <v>0.813581</v>
       </c>
       <c r="D39" t="n">
-        <v>0.798383</v>
+        <v>0.773317</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.624409</v>
+        <v>0.621938</v>
       </c>
       <c r="C40" t="n">
-        <v>1.11773</v>
+        <v>0.79957</v>
       </c>
       <c r="D40" t="n">
-        <v>0.839288</v>
+        <v>0.83785</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.627839</v>
+        <v>0.6265230000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>1.21754</v>
+        <v>0.831371</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8911480000000001</v>
+        <v>0.85888</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.628787</v>
+        <v>0.653245</v>
       </c>
       <c r="C42" t="n">
-        <v>1.20815</v>
+        <v>0.856385</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8853259999999999</v>
+        <v>0.894591</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.654057</v>
+        <v>0.643649</v>
       </c>
       <c r="C43" t="n">
-        <v>1.20174</v>
+        <v>0.8706700000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.905961</v>
+        <v>0.905368</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.665237</v>
+        <v>0.683099</v>
       </c>
       <c r="C44" t="n">
-        <v>1.30386</v>
+        <v>0.906677</v>
       </c>
       <c r="D44" t="n">
-        <v>0.928765</v>
+        <v>0.936577</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6775910000000001</v>
+        <v>0.696221</v>
       </c>
       <c r="C45" t="n">
-        <v>1.35403</v>
+        <v>0.957802</v>
       </c>
       <c r="D45" t="n">
-        <v>0.981569</v>
+        <v>0.947007</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.779185</v>
+        <v>0.785999</v>
       </c>
       <c r="C46" t="n">
-        <v>1.33801</v>
+        <v>0.995032</v>
       </c>
       <c r="D46" t="n">
-        <v>1.01971</v>
+        <v>1.00844</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8257640000000001</v>
+        <v>0.827465</v>
       </c>
       <c r="C47" t="n">
-        <v>1.4416</v>
+        <v>1.00698</v>
       </c>
       <c r="D47" t="n">
-        <v>1.03302</v>
+        <v>1.05723</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8315399999999999</v>
+        <v>0.857984</v>
       </c>
       <c r="C48" t="n">
-        <v>1.47586</v>
+        <v>1.07562</v>
       </c>
       <c r="D48" t="n">
-        <v>1.07043</v>
+        <v>1.0745</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.881393</v>
+        <v>0.86876</v>
       </c>
       <c r="C49" t="n">
-        <v>1.58643</v>
+        <v>1.11213</v>
       </c>
       <c r="D49" t="n">
-        <v>1.09211</v>
+        <v>1.1104</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.869545</v>
+        <v>0.883618</v>
       </c>
       <c r="C50" t="n">
-        <v>1.656</v>
+        <v>1.13764</v>
       </c>
       <c r="D50" t="n">
-        <v>1.16629</v>
+        <v>1.13724</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.947658</v>
+        <v>0.908358</v>
       </c>
       <c r="C51" t="n">
-        <v>1.78315</v>
+        <v>1.247</v>
       </c>
       <c r="D51" t="n">
-        <v>1.22554</v>
+        <v>1.17945</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.99375</v>
+        <v>0.926692</v>
       </c>
       <c r="C52" t="n">
-        <v>1.82317</v>
+        <v>1.24844</v>
       </c>
       <c r="D52" t="n">
-        <v>1.27384</v>
+        <v>1.21003</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.993202</v>
+        <v>0.959257</v>
       </c>
       <c r="C53" t="n">
-        <v>1.81958</v>
+        <v>1.29545</v>
       </c>
       <c r="D53" t="n">
-        <v>1.29249</v>
+        <v>1.25349</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.99214</v>
+        <v>0.9906160000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>2.14641</v>
+        <v>1.32005</v>
       </c>
       <c r="D54" t="n">
-        <v>1.40785</v>
+        <v>1.34223</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.06703</v>
+        <v>1.02126</v>
       </c>
       <c r="C55" t="n">
-        <v>2.15972</v>
+        <v>1.38917</v>
       </c>
       <c r="D55" t="n">
-        <v>1.5214</v>
+        <v>1.39898</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.11959</v>
+        <v>1.03863</v>
       </c>
       <c r="C56" t="n">
-        <v>2.16054</v>
+        <v>1.42069</v>
       </c>
       <c r="D56" t="n">
-        <v>1.55877</v>
+        <v>1.44455</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.12094</v>
+        <v>1.06691</v>
       </c>
       <c r="C57" t="n">
-        <v>2.28863</v>
+        <v>1.51804</v>
       </c>
       <c r="D57" t="n">
-        <v>1.68468</v>
+        <v>1.49286</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.21097</v>
+        <v>1.10355</v>
       </c>
       <c r="C58" t="n">
-        <v>2.47435</v>
+        <v>1.50796</v>
       </c>
       <c r="D58" t="n">
-        <v>1.73405</v>
+        <v>1.52362</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.27414</v>
+        <v>1.11345</v>
       </c>
       <c r="C59" t="n">
-        <v>2.56963</v>
+        <v>1.5905</v>
       </c>
       <c r="D59" t="n">
-        <v>1.75619</v>
+        <v>1.59856</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.44285</v>
+        <v>1.31164</v>
       </c>
       <c r="C60" t="n">
-        <v>2.50312</v>
+        <v>1.77875</v>
       </c>
       <c r="D60" t="n">
-        <v>1.78682</v>
+        <v>1.71787</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.43939</v>
+        <v>1.39078</v>
       </c>
       <c r="C61" t="n">
-        <v>2.42858</v>
+        <v>1.83969</v>
       </c>
       <c r="D61" t="n">
-        <v>1.90248</v>
+        <v>1.79138</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.58152</v>
+        <v>1.42267</v>
       </c>
       <c r="C62" t="n">
-        <v>2.63146</v>
+        <v>1.96067</v>
       </c>
       <c r="D62" t="n">
-        <v>2.02008</v>
+        <v>1.85346</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.51279</v>
+        <v>1.479</v>
       </c>
       <c r="C63" t="n">
-        <v>2.88194</v>
+        <v>1.79586</v>
       </c>
       <c r="D63" t="n">
-        <v>2.06355</v>
+        <v>1.88632</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.54732</v>
+        <v>1.4596</v>
       </c>
       <c r="C64" t="n">
-        <v>2.95749</v>
+        <v>1.88182</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18672</v>
+        <v>1.95073</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.59923</v>
+        <v>1.55709</v>
       </c>
       <c r="C65" t="n">
-        <v>3.00091</v>
+        <v>2.18393</v>
       </c>
       <c r="D65" t="n">
-        <v>2.25842</v>
+        <v>2.02242</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.59409</v>
+        <v>1.5436</v>
       </c>
       <c r="C66" t="n">
-        <v>2.97874</v>
+        <v>1.99152</v>
       </c>
       <c r="D66" t="n">
-        <v>2.19385</v>
+        <v>2.03361</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.68652</v>
+        <v>1.54164</v>
       </c>
       <c r="C67" t="n">
-        <v>3.03085</v>
+        <v>2.09392</v>
       </c>
       <c r="D67" t="n">
-        <v>2.28832</v>
+        <v>2.07266</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.71023</v>
+        <v>1.57147</v>
       </c>
       <c r="C68" t="n">
-        <v>2.93797</v>
+        <v>2.01479</v>
       </c>
       <c r="D68" t="n">
-        <v>2.45964</v>
+        <v>2.30061</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.66815</v>
+        <v>1.63202</v>
       </c>
       <c r="C69" t="n">
-        <v>2.91325</v>
+        <v>2.08832</v>
       </c>
       <c r="D69" t="n">
-        <v>2.49611</v>
+        <v>2.42554</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.74145</v>
+        <v>1.7147</v>
       </c>
       <c r="C70" t="n">
-        <v>3.1495</v>
+        <v>2.15008</v>
       </c>
       <c r="D70" t="n">
-        <v>2.65004</v>
+        <v>2.40846</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.77797</v>
+        <v>1.64719</v>
       </c>
       <c r="C71" t="n">
-        <v>3.17856</v>
+        <v>2.18438</v>
       </c>
       <c r="D71" t="n">
-        <v>2.61558</v>
+        <v>2.46933</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.75556</v>
+        <v>1.73735</v>
       </c>
       <c r="C72" t="n">
-        <v>3.13623</v>
+        <v>2.23474</v>
       </c>
       <c r="D72" t="n">
-        <v>2.77259</v>
+        <v>2.48744</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.82173</v>
+        <v>1.74659</v>
       </c>
       <c r="C73" t="n">
-        <v>3.28108</v>
+        <v>2.30394</v>
       </c>
       <c r="D73" t="n">
-        <v>2.79775</v>
+        <v>2.60171</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.0496</v>
+        <v>1.93291</v>
       </c>
       <c r="C74" t="n">
-        <v>3.1888</v>
+        <v>2.43451</v>
       </c>
       <c r="D74" t="n">
-        <v>2.78817</v>
+        <v>2.65019</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.05962</v>
+        <v>1.98423</v>
       </c>
       <c r="C75" t="n">
-        <v>3.47078</v>
+        <v>2.47242</v>
       </c>
       <c r="D75" t="n">
-        <v>2.84565</v>
+        <v>2.71854</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.12396</v>
+        <v>2.00519</v>
       </c>
       <c r="C76" t="n">
-        <v>3.5039</v>
+        <v>2.55548</v>
       </c>
       <c r="D76" t="n">
-        <v>2.91414</v>
+        <v>2.77555</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.22585</v>
+        <v>2.03921</v>
       </c>
       <c r="C77" t="n">
-        <v>3.55441</v>
+        <v>2.658</v>
       </c>
       <c r="D77" t="n">
-        <v>2.96324</v>
+        <v>2.8746</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.19866</v>
+        <v>2.06013</v>
       </c>
       <c r="C78" t="n">
-        <v>3.64889</v>
+        <v>2.70593</v>
       </c>
       <c r="D78" t="n">
-        <v>3.04981</v>
+        <v>2.93492</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.18721</v>
+        <v>2.10946</v>
       </c>
       <c r="C79" t="n">
-        <v>3.72602</v>
+        <v>2.85271</v>
       </c>
       <c r="D79" t="n">
-        <v>3.06128</v>
+        <v>2.95391</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.22859</v>
+        <v>2.10731</v>
       </c>
       <c r="C80" t="n">
-        <v>3.98282</v>
+        <v>2.9303</v>
       </c>
       <c r="D80" t="n">
-        <v>3.10818</v>
+        <v>3.02913</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.22393</v>
+        <v>2.21844</v>
       </c>
       <c r="C81" t="n">
-        <v>3.90934</v>
+        <v>3.19044</v>
       </c>
       <c r="D81" t="n">
-        <v>3.20603</v>
+        <v>3.18756</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.23947</v>
+        <v>2.29657</v>
       </c>
       <c r="C82" t="n">
-        <v>4.06638</v>
+        <v>3.15902</v>
       </c>
       <c r="D82" t="n">
-        <v>3.32002</v>
+        <v>3.34439</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.31135</v>
+        <v>2.24996</v>
       </c>
       <c r="C83" t="n">
-        <v>4.01747</v>
+        <v>3.04981</v>
       </c>
       <c r="D83" t="n">
-        <v>3.43155</v>
+        <v>3.45521</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.31788</v>
+        <v>2.32229</v>
       </c>
       <c r="C84" t="n">
-        <v>3.90816</v>
+        <v>3.01851</v>
       </c>
       <c r="D84" t="n">
-        <v>3.45423</v>
+        <v>3.55166</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.38403</v>
+        <v>2.35241</v>
       </c>
       <c r="C85" t="n">
-        <v>4.06748</v>
+        <v>3.19925</v>
       </c>
       <c r="D85" t="n">
-        <v>3.56699</v>
+        <v>3.58169</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.35427</v>
+        <v>2.35765</v>
       </c>
       <c r="C86" t="n">
-        <v>4.00882</v>
+        <v>3.19746</v>
       </c>
       <c r="D86" t="n">
-        <v>3.54693</v>
+        <v>3.58394</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.35433</v>
+        <v>2.36405</v>
       </c>
       <c r="C87" t="n">
-        <v>4.29005</v>
+        <v>3.25804</v>
       </c>
       <c r="D87" t="n">
-        <v>3.68919</v>
+        <v>3.72476</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48385</v>
+        <v>2.39302</v>
       </c>
       <c r="C88" t="n">
-        <v>4.29672</v>
+        <v>3.39756</v>
       </c>
       <c r="D88" t="n">
-        <v>3.56143</v>
+        <v>3.6892</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.5932</v>
+        <v>2.53404</v>
       </c>
       <c r="C89" t="n">
-        <v>4.41829</v>
+        <v>3.42842</v>
       </c>
       <c r="D89" t="n">
-        <v>3.77026</v>
+        <v>3.62161</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.7092</v>
+        <v>2.56428</v>
       </c>
       <c r="C90" t="n">
-        <v>4.44468</v>
+        <v>3.42652</v>
       </c>
       <c r="D90" t="n">
-        <v>3.74712</v>
+        <v>3.66807</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.64227</v>
+        <v>2.57999</v>
       </c>
       <c r="C91" t="n">
-        <v>4.50823</v>
+        <v>3.53486</v>
       </c>
       <c r="D91" t="n">
-        <v>3.86465</v>
+        <v>3.70352</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.66369</v>
+        <v>2.56735</v>
       </c>
       <c r="C92" t="n">
-        <v>4.63207</v>
+        <v>3.66565</v>
       </c>
       <c r="D92" t="n">
-        <v>3.93403</v>
+        <v>3.74235</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.72346</v>
+        <v>2.61121</v>
       </c>
       <c r="C93" t="n">
-        <v>4.65124</v>
+        <v>3.72158</v>
       </c>
       <c r="D93" t="n">
-        <v>3.92403</v>
+        <v>3.80847</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.73923</v>
+        <v>2.62452</v>
       </c>
       <c r="C94" t="n">
-        <v>4.8006</v>
+        <v>3.93263</v>
       </c>
       <c r="D94" t="n">
-        <v>3.89278</v>
+        <v>3.81648</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.71546</v>
+        <v>2.61085</v>
       </c>
       <c r="C95" t="n">
-        <v>4.77426</v>
+        <v>3.91818</v>
       </c>
       <c r="D95" t="n">
-        <v>3.9734</v>
+        <v>3.93679</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.75808</v>
+        <v>2.68422</v>
       </c>
       <c r="C96" t="n">
-        <v>4.94998</v>
+        <v>4.0096</v>
       </c>
       <c r="D96" t="n">
-        <v>3.92596</v>
+        <v>3.9353</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.76368</v>
+        <v>2.69839</v>
       </c>
       <c r="C97" t="n">
-        <v>4.58193</v>
+        <v>3.47876</v>
       </c>
       <c r="D97" t="n">
-        <v>4.11798</v>
+        <v>4.00351</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.81689</v>
+        <v>2.66694</v>
       </c>
       <c r="C98" t="n">
-        <v>4.61259</v>
+        <v>3.59663</v>
       </c>
       <c r="D98" t="n">
-        <v>4.13862</v>
+        <v>4.05141</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.86164</v>
+        <v>2.72039</v>
       </c>
       <c r="C99" t="n">
-        <v>4.71615</v>
+        <v>3.65516</v>
       </c>
       <c r="D99" t="n">
-        <v>4.14388</v>
+        <v>4.09714</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.80901</v>
+        <v>2.76228</v>
       </c>
       <c r="C100" t="n">
-        <v>4.7331</v>
+        <v>3.71956</v>
       </c>
       <c r="D100" t="n">
-        <v>4.13879</v>
+        <v>4.06978</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.86937</v>
+        <v>2.73298</v>
       </c>
       <c r="C101" t="n">
-        <v>4.82366</v>
+        <v>3.77432</v>
       </c>
       <c r="D101" t="n">
-        <v>4.27685</v>
+        <v>4.13958</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.88573</v>
+        <v>2.75497</v>
       </c>
       <c r="C102" t="n">
-        <v>4.86523</v>
+        <v>3.77933</v>
       </c>
       <c r="D102" t="n">
-        <v>4.21554</v>
+        <v>4.17242</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.97544</v>
+        <v>2.87363</v>
       </c>
       <c r="C103" t="n">
-        <v>4.95553</v>
+        <v>3.87895</v>
       </c>
       <c r="D103" t="n">
-        <v>4.28869</v>
+        <v>4.24409</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.02901</v>
+        <v>2.89282</v>
       </c>
       <c r="C104" t="n">
-        <v>5.13358</v>
+        <v>4.04794</v>
       </c>
       <c r="D104" t="n">
-        <v>4.26509</v>
+        <v>4.22441</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.10651</v>
+        <v>2.94319</v>
       </c>
       <c r="C105" t="n">
-        <v>5.13947</v>
+        <v>4.02564</v>
       </c>
       <c r="D105" t="n">
-        <v>4.3283</v>
+        <v>4.2775</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.06822</v>
+        <v>2.9373</v>
       </c>
       <c r="C106" t="n">
-        <v>5.26403</v>
+        <v>4.04744</v>
       </c>
       <c r="D106" t="n">
-        <v>4.37066</v>
+        <v>4.29944</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.10098</v>
+        <v>2.91279</v>
       </c>
       <c r="C107" t="n">
-        <v>5.2579</v>
+        <v>4.13112</v>
       </c>
       <c r="D107" t="n">
-        <v>4.38751</v>
+        <v>4.32637</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.13649</v>
+        <v>2.9497</v>
       </c>
       <c r="C108" t="n">
-        <v>5.45337</v>
+        <v>4.30631</v>
       </c>
       <c r="D108" t="n">
-        <v>4.41489</v>
+        <v>4.32617</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.16757</v>
+        <v>2.9686</v>
       </c>
       <c r="C109" t="n">
-        <v>5.53822</v>
+        <v>4.33847</v>
       </c>
       <c r="D109" t="n">
-        <v>4.43193</v>
+        <v>4.30707</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.16308</v>
+        <v>2.99506</v>
       </c>
       <c r="C110" t="n">
-        <v>5.58937</v>
+        <v>4.4421</v>
       </c>
       <c r="D110" t="n">
-        <v>4.58182</v>
+        <v>4.38156</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.17466</v>
+        <v>3.00888</v>
       </c>
       <c r="C111" t="n">
-        <v>5.25275</v>
+        <v>4.02439</v>
       </c>
       <c r="D111" t="n">
-        <v>4.67396</v>
+        <v>4.58096</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.259</v>
+        <v>3.04375</v>
       </c>
       <c r="C112" t="n">
-        <v>5.24468</v>
+        <v>4.0454</v>
       </c>
       <c r="D112" t="n">
-        <v>4.73009</v>
+        <v>4.60183</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.20486</v>
+        <v>3.0905</v>
       </c>
       <c r="C113" t="n">
-        <v>5.3319</v>
+        <v>4.08673</v>
       </c>
       <c r="D113" t="n">
-        <v>4.74058</v>
+        <v>4.55666</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.29511</v>
+        <v>3.07678</v>
       </c>
       <c r="C114" t="n">
-        <v>5.42241</v>
+        <v>4.15748</v>
       </c>
       <c r="D114" t="n">
-        <v>4.67474</v>
+        <v>4.63202</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.25775</v>
+        <v>3.07769</v>
       </c>
       <c r="C115" t="n">
-        <v>5.52925</v>
+        <v>4.25502</v>
       </c>
       <c r="D115" t="n">
-        <v>4.84847</v>
+        <v>4.68028</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.29797</v>
+        <v>3.15611</v>
       </c>
       <c r="C116" t="n">
-        <v>5.60247</v>
+        <v>4.3639</v>
       </c>
       <c r="D116" t="n">
-        <v>4.8337</v>
+        <v>4.73215</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.38517</v>
+        <v>3.2867</v>
       </c>
       <c r="C117" t="n">
-        <v>5.6947</v>
+        <v>4.41597</v>
       </c>
       <c r="D117" t="n">
-        <v>4.79669</v>
+        <v>4.71788</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.48085</v>
+        <v>3.32578</v>
       </c>
       <c r="C118" t="n">
-        <v>5.77165</v>
+        <v>4.49344</v>
       </c>
       <c r="D118" t="n">
-        <v>4.93582</v>
+        <v>4.79761</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.5149</v>
+        <v>3.32272</v>
       </c>
       <c r="C119" t="n">
-        <v>5.99787</v>
+        <v>4.54075</v>
       </c>
       <c r="D119" t="n">
-        <v>4.92553</v>
+        <v>4.8056</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.430508</v>
+        <v>0.444132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.629408</v>
+        <v>0.612353</v>
       </c>
       <c r="D2" t="n">
-        <v>0.404924</v>
+        <v>0.397587</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.419802</v>
+        <v>0.414738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.614579</v>
+        <v>0.63513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.381338</v>
+        <v>0.417601</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.431772</v>
+        <v>0.462074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.626196</v>
+        <v>0.616908</v>
       </c>
       <c r="D4" t="n">
-        <v>0.399904</v>
+        <v>0.402961</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.422599</v>
+        <v>0.439983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.595546</v>
+        <v>0.6007400000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.389822</v>
+        <v>0.405297</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.417739</v>
+        <v>0.428982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.592573</v>
+        <v>0.60438</v>
       </c>
       <c r="D6" t="n">
-        <v>0.396915</v>
+        <v>0.404992</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.420974</v>
+        <v>0.442332</v>
       </c>
       <c r="C7" t="n">
-        <v>0.613927</v>
+        <v>0.613843</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389558</v>
+        <v>0.397831</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.433309</v>
+        <v>0.444826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.61158</v>
+        <v>0.620675</v>
       </c>
       <c r="D8" t="n">
-        <v>0.389495</v>
+        <v>0.405057</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.430065</v>
+        <v>0.452097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.615896</v>
+        <v>0.615289</v>
       </c>
       <c r="D9" t="n">
-        <v>0.402242</v>
+        <v>0.406762</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.436575</v>
+        <v>0.448051</v>
       </c>
       <c r="C10" t="n">
-        <v>0.615502</v>
+        <v>0.614281</v>
       </c>
       <c r="D10" t="n">
-        <v>0.399114</v>
+        <v>0.408238</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.439529</v>
+        <v>0.456378</v>
       </c>
       <c r="C11" t="n">
-        <v>0.627474</v>
+        <v>0.625844</v>
       </c>
       <c r="D11" t="n">
-        <v>0.405142</v>
+        <v>0.408684</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.444277</v>
+        <v>0.458096</v>
       </c>
       <c r="C12" t="n">
-        <v>0.618572</v>
+        <v>0.619572</v>
       </c>
       <c r="D12" t="n">
-        <v>0.409655</v>
+        <v>0.412132</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.426695</v>
+        <v>0.440351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.62756</v>
+        <v>0.62451</v>
       </c>
       <c r="D13" t="n">
-        <v>0.407547</v>
+        <v>0.420082</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.422954</v>
+        <v>0.441005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.616691</v>
+        <v>0.623005</v>
       </c>
       <c r="D14" t="n">
-        <v>0.418625</v>
+        <v>0.425766</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.422474</v>
+        <v>0.44128</v>
       </c>
       <c r="C15" t="n">
-        <v>0.629964</v>
+        <v>0.628878</v>
       </c>
       <c r="D15" t="n">
-        <v>0.417003</v>
+        <v>0.430809</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.439548</v>
+        <v>0.445834</v>
       </c>
       <c r="C16" t="n">
-        <v>0.626551</v>
+        <v>0.636695</v>
       </c>
       <c r="D16" t="n">
-        <v>0.422637</v>
+        <v>0.433599</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.43401</v>
+        <v>0.447976</v>
       </c>
       <c r="C17" t="n">
-        <v>0.633715</v>
+        <v>0.631333</v>
       </c>
       <c r="D17" t="n">
-        <v>0.42405</v>
+        <v>0.433905</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.445623</v>
+        <v>0.44578</v>
       </c>
       <c r="C18" t="n">
-        <v>0.636782</v>
+        <v>0.6364300000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.421767</v>
+        <v>0.442441</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.441779</v>
+        <v>0.464339</v>
       </c>
       <c r="C19" t="n">
-        <v>0.637667</v>
+        <v>0.646311</v>
       </c>
       <c r="D19" t="n">
-        <v>0.43722</v>
+        <v>0.440608</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.46152</v>
+        <v>0.471259</v>
       </c>
       <c r="C20" t="n">
-        <v>0.64154</v>
+        <v>0.637175</v>
       </c>
       <c r="D20" t="n">
-        <v>0.432759</v>
+        <v>0.442079</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.454579</v>
+        <v>0.48161</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6579120000000001</v>
+        <v>0.6616919999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.421429</v>
+        <v>0.442506</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.456028</v>
+        <v>0.465905</v>
       </c>
       <c r="C22" t="n">
-        <v>0.650108</v>
+        <v>0.671665</v>
       </c>
       <c r="D22" t="n">
-        <v>0.422826</v>
+        <v>0.438596</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.459975</v>
+        <v>0.481076</v>
       </c>
       <c r="C23" t="n">
-        <v>0.653627</v>
+        <v>0.668369</v>
       </c>
       <c r="D23" t="n">
-        <v>0.429674</v>
+        <v>0.44139</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.460577</v>
+        <v>0.477938</v>
       </c>
       <c r="C24" t="n">
-        <v>0.660278</v>
+        <v>0.670046</v>
       </c>
       <c r="D24" t="n">
-        <v>0.439393</v>
+        <v>0.449848</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.486084</v>
+        <v>0.477269</v>
       </c>
       <c r="C25" t="n">
-        <v>0.673972</v>
+        <v>0.677393</v>
       </c>
       <c r="D25" t="n">
-        <v>0.442822</v>
+        <v>0.45016</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.479255</v>
+        <v>0.499856</v>
       </c>
       <c r="C26" t="n">
-        <v>0.667295</v>
+        <v>0.671669</v>
       </c>
       <c r="D26" t="n">
-        <v>0.45311</v>
+        <v>0.470615</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.522692</v>
+        <v>0.555447</v>
       </c>
       <c r="C27" t="n">
-        <v>0.679057</v>
+        <v>0.68636</v>
       </c>
       <c r="D27" t="n">
-        <v>0.445695</v>
+        <v>0.469507</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.523389</v>
+        <v>0.561584</v>
       </c>
       <c r="C28" t="n">
-        <v>0.682936</v>
+        <v>0.675183</v>
       </c>
       <c r="D28" t="n">
-        <v>0.472715</v>
+        <v>0.465422</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.569678</v>
+        <v>0.573125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.716533</v>
+        <v>0.694177</v>
       </c>
       <c r="D29" t="n">
-        <v>0.473082</v>
+        <v>0.511552</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.56159</v>
+        <v>0.580968</v>
       </c>
       <c r="C30" t="n">
-        <v>0.700865</v>
+        <v>0.68472</v>
       </c>
       <c r="D30" t="n">
-        <v>0.470745</v>
+        <v>0.480259</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.580967</v>
+        <v>0.6068519999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6890309999999999</v>
+        <v>0.707672</v>
       </c>
       <c r="D31" t="n">
-        <v>0.477813</v>
+        <v>0.507506</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.593967</v>
+        <v>0.6129559999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.694951</v>
+        <v>0.70897</v>
       </c>
       <c r="D32" t="n">
-        <v>0.493231</v>
+        <v>0.516876</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.614927</v>
+        <v>0.641025</v>
       </c>
       <c r="C33" t="n">
-        <v>0.713768</v>
+        <v>0.713085</v>
       </c>
       <c r="D33" t="n">
-        <v>0.514616</v>
+        <v>0.527606</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.614264</v>
+        <v>0.646056</v>
       </c>
       <c r="C34" t="n">
-        <v>0.719947</v>
+        <v>0.729667</v>
       </c>
       <c r="D34" t="n">
-        <v>0.518616</v>
+        <v>0.5359390000000001</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.632314</v>
+        <v>0.659608</v>
       </c>
       <c r="C35" t="n">
-        <v>0.790124</v>
+        <v>0.803503</v>
       </c>
       <c r="D35" t="n">
-        <v>0.606526</v>
+        <v>0.646666</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.66522</v>
+        <v>0.677027</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7958150000000001</v>
+        <v>0.811154</v>
       </c>
       <c r="D36" t="n">
-        <v>0.638649</v>
+        <v>0.659463</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.674268</v>
+        <v>0.709774</v>
       </c>
       <c r="C37" t="n">
-        <v>0.81668</v>
+        <v>0.80741</v>
       </c>
       <c r="D37" t="n">
-        <v>0.667113</v>
+        <v>0.679812</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.690523</v>
+        <v>0.730267</v>
       </c>
       <c r="C38" t="n">
-        <v>0.827725</v>
+        <v>0.846261</v>
       </c>
       <c r="D38" t="n">
-        <v>0.67515</v>
+        <v>0.721249</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.722567</v>
+        <v>0.7302149999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.846465</v>
+        <v>0.870943</v>
       </c>
       <c r="D39" t="n">
-        <v>0.685983</v>
+        <v>0.735293</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.726843</v>
+        <v>0.738197</v>
       </c>
       <c r="C40" t="n">
-        <v>0.849214</v>
+        <v>0.85331</v>
       </c>
       <c r="D40" t="n">
-        <v>0.72429</v>
+        <v>0.769882</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.86291</v>
+        <v>0.872514</v>
       </c>
       <c r="C41" t="n">
-        <v>0.878396</v>
+        <v>0.88788</v>
       </c>
       <c r="D41" t="n">
-        <v>0.742143</v>
+        <v>0.762544</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8901790000000001</v>
+        <v>0.90741</v>
       </c>
       <c r="C42" t="n">
-        <v>0.904292</v>
+        <v>0.905233</v>
       </c>
       <c r="D42" t="n">
-        <v>0.755847</v>
+        <v>0.804459</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8815730000000001</v>
+        <v>0.902756</v>
       </c>
       <c r="C43" t="n">
-        <v>0.887069</v>
+        <v>0.92356</v>
       </c>
       <c r="D43" t="n">
-        <v>0.777068</v>
+        <v>0.82583</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.917033</v>
+        <v>0.955646</v>
       </c>
       <c r="C44" t="n">
-        <v>0.924661</v>
+        <v>0.913296</v>
       </c>
       <c r="D44" t="n">
-        <v>0.79941</v>
+        <v>0.829748</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.948802</v>
+        <v>0.9896430000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.945352</v>
+        <v>0.965747</v>
       </c>
       <c r="D45" t="n">
-        <v>0.808723</v>
+        <v>0.84072</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9514860000000001</v>
+        <v>0.997656</v>
       </c>
       <c r="C46" t="n">
-        <v>0.948686</v>
+        <v>0.980136</v>
       </c>
       <c r="D46" t="n">
-        <v>0.836958</v>
+        <v>0.866241</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.990357</v>
+        <v>1.01887</v>
       </c>
       <c r="C47" t="n">
-        <v>0.995164</v>
+        <v>1.02663</v>
       </c>
       <c r="D47" t="n">
-        <v>0.865331</v>
+        <v>0.911687</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.01326</v>
+        <v>1.08705</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0494</v>
+        <v>1.04704</v>
       </c>
       <c r="D48" t="n">
-        <v>0.910303</v>
+        <v>0.9311700000000001</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.05025</v>
+        <v>1.10201</v>
       </c>
       <c r="C49" t="n">
-        <v>1.06386</v>
+        <v>1.08515</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8953449999999999</v>
+        <v>0.955503</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.07143</v>
+        <v>1.12068</v>
       </c>
       <c r="C50" t="n">
-        <v>1.24538</v>
+        <v>1.25834</v>
       </c>
       <c r="D50" t="n">
-        <v>1.11006</v>
+        <v>1.1767</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.11346</v>
+        <v>1.1357</v>
       </c>
       <c r="C51" t="n">
-        <v>1.26095</v>
+        <v>1.30528</v>
       </c>
       <c r="D51" t="n">
-        <v>1.14527</v>
+        <v>1.18994</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13665</v>
+        <v>1.16725</v>
       </c>
       <c r="C52" t="n">
-        <v>1.3365</v>
+        <v>1.32479</v>
       </c>
       <c r="D52" t="n">
-        <v>1.17723</v>
+        <v>1.22476</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.17627</v>
+        <v>1.21428</v>
       </c>
       <c r="C53" t="n">
-        <v>1.33673</v>
+        <v>1.35116</v>
       </c>
       <c r="D53" t="n">
-        <v>1.19506</v>
+        <v>1.23995</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.21334</v>
+        <v>1.24582</v>
       </c>
       <c r="C54" t="n">
-        <v>1.35849</v>
+        <v>1.40725</v>
       </c>
       <c r="D54" t="n">
-        <v>1.21733</v>
+        <v>1.30717</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.24186</v>
+        <v>1.31538</v>
       </c>
       <c r="C55" t="n">
-        <v>1.44648</v>
+        <v>1.45339</v>
       </c>
       <c r="D55" t="n">
-        <v>1.24909</v>
+        <v>1.3507</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.44036</v>
+        <v>1.55402</v>
       </c>
       <c r="C56" t="n">
-        <v>1.43539</v>
+        <v>1.47203</v>
       </c>
       <c r="D56" t="n">
-        <v>1.31145</v>
+        <v>1.39546</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.4801</v>
+        <v>1.57768</v>
       </c>
       <c r="C57" t="n">
-        <v>1.47344</v>
+        <v>1.47168</v>
       </c>
       <c r="D57" t="n">
-        <v>1.34738</v>
+        <v>1.4389</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.50915</v>
+        <v>1.61202</v>
       </c>
       <c r="C58" t="n">
-        <v>1.49503</v>
+        <v>1.56021</v>
       </c>
       <c r="D58" t="n">
-        <v>1.35664</v>
+        <v>1.4712</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.56351</v>
+        <v>1.66406</v>
       </c>
       <c r="C59" t="n">
-        <v>1.50822</v>
+        <v>1.59573</v>
       </c>
       <c r="D59" t="n">
-        <v>1.38453</v>
+        <v>1.51441</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.6138</v>
+        <v>1.67486</v>
       </c>
       <c r="C60" t="n">
-        <v>1.57755</v>
+        <v>1.59993</v>
       </c>
       <c r="D60" t="n">
-        <v>1.47708</v>
+        <v>1.59084</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.61503</v>
+        <v>1.76527</v>
       </c>
       <c r="C61" t="n">
-        <v>1.60012</v>
+        <v>1.77116</v>
       </c>
       <c r="D61" t="n">
-        <v>1.5318</v>
+        <v>1.64415</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.63563</v>
+        <v>1.86622</v>
       </c>
       <c r="C62" t="n">
-        <v>1.63763</v>
+        <v>1.83361</v>
       </c>
       <c r="D62" t="n">
-        <v>1.55684</v>
+        <v>1.67144</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.66803</v>
+        <v>1.79016</v>
       </c>
       <c r="C63" t="n">
-        <v>1.69189</v>
+        <v>1.69613</v>
       </c>
       <c r="D63" t="n">
-        <v>1.58484</v>
+        <v>1.71057</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.72714</v>
+        <v>1.80288</v>
       </c>
       <c r="C64" t="n">
-        <v>1.8791</v>
+        <v>1.948</v>
       </c>
       <c r="D64" t="n">
-        <v>1.89548</v>
+        <v>2.01205</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.75899</v>
+        <v>1.84244</v>
       </c>
       <c r="C65" t="n">
-        <v>1.84448</v>
+        <v>1.89111</v>
       </c>
       <c r="D65" t="n">
-        <v>1.95</v>
+        <v>2.00316</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.80666</v>
+        <v>1.92408</v>
       </c>
       <c r="C66" t="n">
-        <v>1.86756</v>
+        <v>1.9412</v>
       </c>
       <c r="D66" t="n">
-        <v>1.96115</v>
+        <v>2.01124</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.8361</v>
+        <v>1.91164</v>
       </c>
       <c r="C67" t="n">
-        <v>1.88938</v>
+        <v>2.11306</v>
       </c>
       <c r="D67" t="n">
-        <v>2.04154</v>
+        <v>2.19802</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.86823</v>
+        <v>1.95796</v>
       </c>
       <c r="C68" t="n">
-        <v>1.91637</v>
+        <v>2.14372</v>
       </c>
       <c r="D68" t="n">
-        <v>2.09203</v>
+        <v>2.18773</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.99179</v>
+        <v>2.02311</v>
       </c>
       <c r="C69" t="n">
-        <v>1.96885</v>
+        <v>1.98929</v>
       </c>
       <c r="D69" t="n">
-        <v>2.08299</v>
+        <v>2.17781</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.05388</v>
+        <v>2.12916</v>
       </c>
       <c r="C70" t="n">
-        <v>1.95317</v>
+        <v>2.0562</v>
       </c>
       <c r="D70" t="n">
-        <v>2.13882</v>
+        <v>2.20276</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.02018</v>
+        <v>2.16708</v>
       </c>
       <c r="C71" t="n">
-        <v>1.97823</v>
+        <v>2.0427</v>
       </c>
       <c r="D71" t="n">
-        <v>2.15969</v>
+        <v>2.23065</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.05197</v>
+        <v>2.20304</v>
       </c>
       <c r="C72" t="n">
-        <v>2.01585</v>
+        <v>2.12127</v>
       </c>
       <c r="D72" t="n">
-        <v>2.21496</v>
+        <v>2.31436</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.07543</v>
+        <v>2.24477</v>
       </c>
       <c r="C73" t="n">
-        <v>2.03718</v>
+        <v>2.14059</v>
       </c>
       <c r="D73" t="n">
-        <v>2.19866</v>
+        <v>2.29099</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.10716</v>
+        <v>2.25601</v>
       </c>
       <c r="C74" t="n">
-        <v>2.0714</v>
+        <v>2.14416</v>
       </c>
       <c r="D74" t="n">
-        <v>2.29197</v>
+        <v>2.32585</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.11972</v>
+        <v>2.27471</v>
       </c>
       <c r="C75" t="n">
-        <v>2.08383</v>
+        <v>2.15704</v>
       </c>
       <c r="D75" t="n">
-        <v>2.2969</v>
+        <v>2.37179</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.13041</v>
+        <v>2.32108</v>
       </c>
       <c r="C76" t="n">
-        <v>2.11759</v>
+        <v>2.25417</v>
       </c>
       <c r="D76" t="n">
-        <v>2.36887</v>
+        <v>2.49178</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.21988</v>
+        <v>2.38751</v>
       </c>
       <c r="C77" t="n">
-        <v>2.15194</v>
+        <v>2.23624</v>
       </c>
       <c r="D77" t="n">
-        <v>2.40024</v>
+        <v>2.47825</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.1893</v>
+        <v>2.31628</v>
       </c>
       <c r="C78" t="n">
-        <v>2.24515</v>
+        <v>2.35539</v>
       </c>
       <c r="D78" t="n">
-        <v>2.58595</v>
+        <v>2.77057</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.23852</v>
+        <v>2.34191</v>
       </c>
       <c r="C79" t="n">
-        <v>2.31128</v>
+        <v>2.42912</v>
       </c>
       <c r="D79" t="n">
-        <v>2.65861</v>
+        <v>2.72747</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.23517</v>
+        <v>2.38482</v>
       </c>
       <c r="C80" t="n">
-        <v>2.35523</v>
+        <v>2.50046</v>
       </c>
       <c r="D80" t="n">
-        <v>2.66656</v>
+        <v>2.81478</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.2424</v>
+        <v>2.4609</v>
       </c>
       <c r="C81" t="n">
-        <v>2.35437</v>
+        <v>2.54904</v>
       </c>
       <c r="D81" t="n">
-        <v>2.68867</v>
+        <v>2.83236</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.32726</v>
+        <v>2.45801</v>
       </c>
       <c r="C82" t="n">
-        <v>2.38656</v>
+        <v>2.59413</v>
       </c>
       <c r="D82" t="n">
-        <v>2.7321</v>
+        <v>2.87736</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.28779</v>
+        <v>2.42551</v>
       </c>
       <c r="C83" t="n">
-        <v>2.36093</v>
+        <v>2.55851</v>
       </c>
       <c r="D83" t="n">
-        <v>2.73817</v>
+        <v>2.93882</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.37162</v>
+        <v>2.54669</v>
       </c>
       <c r="C84" t="n">
-        <v>2.40625</v>
+        <v>2.55979</v>
       </c>
       <c r="D84" t="n">
-        <v>2.77</v>
+        <v>2.91305</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.39428</v>
+        <v>2.59634</v>
       </c>
       <c r="C85" t="n">
-        <v>2.45318</v>
+        <v>2.53673</v>
       </c>
       <c r="D85" t="n">
-        <v>2.86264</v>
+        <v>2.91761</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.39162</v>
+        <v>2.61387</v>
       </c>
       <c r="C86" t="n">
-        <v>2.42921</v>
+        <v>2.60262</v>
       </c>
       <c r="D86" t="n">
-        <v>2.86376</v>
+        <v>2.94846</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.46771</v>
+        <v>2.6458</v>
       </c>
       <c r="C87" t="n">
-        <v>2.47573</v>
+        <v>2.63806</v>
       </c>
       <c r="D87" t="n">
-        <v>2.93028</v>
+        <v>2.9856</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.44473</v>
+        <v>2.6781</v>
       </c>
       <c r="C88" t="n">
-        <v>2.47899</v>
+        <v>2.62533</v>
       </c>
       <c r="D88" t="n">
-        <v>2.91954</v>
+        <v>2.95578</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.44706</v>
+        <v>2.6712</v>
       </c>
       <c r="C89" t="n">
-        <v>2.51239</v>
+        <v>2.62954</v>
       </c>
       <c r="D89" t="n">
-        <v>2.97294</v>
+        <v>2.99979</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.50649</v>
+        <v>2.65307</v>
       </c>
       <c r="C90" t="n">
-        <v>2.53502</v>
+        <v>2.65571</v>
       </c>
       <c r="D90" t="n">
-        <v>2.98551</v>
+        <v>2.99756</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.50008</v>
+        <v>2.75187</v>
       </c>
       <c r="C91" t="n">
-        <v>2.58983</v>
+        <v>2.7422</v>
       </c>
       <c r="D91" t="n">
-        <v>2.9857</v>
+        <v>3.07089</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.55908</v>
+        <v>2.71785</v>
       </c>
       <c r="C92" t="n">
-        <v>2.79445</v>
+        <v>2.93324</v>
       </c>
       <c r="D92" t="n">
-        <v>3.24952</v>
+        <v>3.23323</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.57515</v>
+        <v>2.73562</v>
       </c>
       <c r="C93" t="n">
-        <v>2.7438</v>
+        <v>2.82234</v>
       </c>
       <c r="D93" t="n">
-        <v>3.24257</v>
+        <v>3.26678</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.59108</v>
+        <v>2.7957</v>
       </c>
       <c r="C94" t="n">
-        <v>2.76743</v>
+        <v>2.87659</v>
       </c>
       <c r="D94" t="n">
-        <v>3.24511</v>
+        <v>3.35492</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.59698</v>
+        <v>2.83349</v>
       </c>
       <c r="C95" t="n">
-        <v>2.78963</v>
+        <v>2.89763</v>
       </c>
       <c r="D95" t="n">
-        <v>3.19804</v>
+        <v>3.34323</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.70116</v>
+        <v>2.82644</v>
       </c>
       <c r="C96" t="n">
-        <v>2.87942</v>
+        <v>3.03075</v>
       </c>
       <c r="D96" t="n">
-        <v>3.29925</v>
+        <v>3.37473</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.64994</v>
+        <v>2.87156</v>
       </c>
       <c r="C97" t="n">
-        <v>2.87606</v>
+        <v>3.01018</v>
       </c>
       <c r="D97" t="n">
-        <v>3.36205</v>
+        <v>3.37928</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.75197</v>
+        <v>3.00422</v>
       </c>
       <c r="C98" t="n">
-        <v>2.92666</v>
+        <v>3.06449</v>
       </c>
       <c r="D98" t="n">
-        <v>3.29196</v>
+        <v>3.32059</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.82148</v>
+        <v>3.0523</v>
       </c>
       <c r="C99" t="n">
-        <v>2.91806</v>
+        <v>3.12466</v>
       </c>
       <c r="D99" t="n">
-        <v>3.32718</v>
+        <v>3.41527</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.80005</v>
+        <v>3.0566</v>
       </c>
       <c r="C100" t="n">
-        <v>2.9917</v>
+        <v>3.0755</v>
       </c>
       <c r="D100" t="n">
-        <v>3.29277</v>
+        <v>3.41108</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.82465</v>
+        <v>3.13345</v>
       </c>
       <c r="C101" t="n">
-        <v>2.98813</v>
+        <v>3.13252</v>
       </c>
       <c r="D101" t="n">
-        <v>3.38671</v>
+        <v>3.43946</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.81415</v>
+        <v>3.07946</v>
       </c>
       <c r="C102" t="n">
-        <v>3.03804</v>
+        <v>3.15439</v>
       </c>
       <c r="D102" t="n">
-        <v>3.38474</v>
+        <v>3.46998</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.84518</v>
+        <v>3.11258</v>
       </c>
       <c r="C103" t="n">
-        <v>3.06389</v>
+        <v>3.1912</v>
       </c>
       <c r="D103" t="n">
-        <v>3.44716</v>
+        <v>3.48865</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.94245</v>
+        <v>3.10466</v>
       </c>
       <c r="C104" t="n">
-        <v>3.11011</v>
+        <v>3.24666</v>
       </c>
       <c r="D104" t="n">
-        <v>3.48604</v>
+        <v>3.5098</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.92052</v>
+        <v>3.14776</v>
       </c>
       <c r="C105" t="n">
-        <v>3.10447</v>
+        <v>3.15729</v>
       </c>
       <c r="D105" t="n">
-        <v>3.49561</v>
+        <v>3.52769</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.94191</v>
+        <v>3.14532</v>
       </c>
       <c r="C106" t="n">
-        <v>3.10257</v>
+        <v>3.27989</v>
       </c>
       <c r="D106" t="n">
-        <v>3.54072</v>
+        <v>3.58639</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.97735</v>
+        <v>3.20042</v>
       </c>
       <c r="C107" t="n">
-        <v>3.35441</v>
+        <v>3.54677</v>
       </c>
       <c r="D107" t="n">
-        <v>3.73748</v>
+        <v>3.88395</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.95258</v>
+        <v>3.20652</v>
       </c>
       <c r="C108" t="n">
-        <v>3.35088</v>
+        <v>3.57471</v>
       </c>
       <c r="D108" t="n">
-        <v>3.776</v>
+        <v>3.8887</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.02353</v>
+        <v>3.33992</v>
       </c>
       <c r="C109" t="n">
-        <v>3.436</v>
+        <v>3.63962</v>
       </c>
       <c r="D109" t="n">
-        <v>3.83769</v>
+        <v>3.86514</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.04855</v>
+        <v>3.29856</v>
       </c>
       <c r="C110" t="n">
-        <v>3.43318</v>
+        <v>3.6295</v>
       </c>
       <c r="D110" t="n">
-        <v>3.87612</v>
+        <v>3.95056</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.09173</v>
+        <v>3.37711</v>
       </c>
       <c r="C111" t="n">
-        <v>3.40749</v>
+        <v>3.64121</v>
       </c>
       <c r="D111" t="n">
-        <v>3.82716</v>
+        <v>3.90864</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.21269</v>
+        <v>3.46903</v>
       </c>
       <c r="C112" t="n">
-        <v>3.59427</v>
+        <v>3.70551</v>
       </c>
       <c r="D112" t="n">
-        <v>3.94707</v>
+        <v>3.93527</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.3046</v>
+        <v>3.59096</v>
       </c>
       <c r="C113" t="n">
-        <v>3.636</v>
+        <v>3.77794</v>
       </c>
       <c r="D113" t="n">
-        <v>3.94091</v>
+        <v>3.96642</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.30786</v>
+        <v>3.4858</v>
       </c>
       <c r="C114" t="n">
-        <v>3.61917</v>
+        <v>3.77191</v>
       </c>
       <c r="D114" t="n">
-        <v>4.06728</v>
+        <v>4.10638</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.29434</v>
+        <v>3.49845</v>
       </c>
       <c r="C115" t="n">
-        <v>3.56962</v>
+        <v>3.71308</v>
       </c>
       <c r="D115" t="n">
-        <v>4.02158</v>
+        <v>4.02761</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.31715</v>
+        <v>3.60061</v>
       </c>
       <c r="C116" t="n">
-        <v>3.61675</v>
+        <v>3.81813</v>
       </c>
       <c r="D116" t="n">
-        <v>4.10821</v>
+        <v>4.03023</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.43785</v>
+        <v>3.68966</v>
       </c>
       <c r="C117" t="n">
-        <v>3.76537</v>
+        <v>3.87284</v>
       </c>
       <c r="D117" t="n">
-        <v>4.08665</v>
+        <v>4.17437</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.41941</v>
+        <v>3.82859</v>
       </c>
       <c r="C118" t="n">
-        <v>3.71035</v>
+        <v>4.02663</v>
       </c>
       <c r="D118" t="n">
-        <v>4.16657</v>
+        <v>4.16714</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.50909</v>
+        <v>3.76618</v>
       </c>
       <c r="C119" t="n">
-        <v>3.78698</v>
+        <v>4.00507</v>
       </c>
       <c r="D119" t="n">
-        <v>4.221</v>
+        <v>4.27927</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.464998</v>
+        <v>0.485623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.796526</v>
+        <v>0.810064</v>
       </c>
       <c r="D2" t="n">
-        <v>0.547943</v>
+        <v>0.5406609999999999</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.466707</v>
+        <v>0.472841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.814149</v>
+        <v>0.8587590000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.540463</v>
+        <v>0.566176</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.471706</v>
+        <v>0.477357</v>
       </c>
       <c r="C4" t="n">
-        <v>0.793272</v>
+        <v>0.851689</v>
       </c>
       <c r="D4" t="n">
-        <v>0.532216</v>
+        <v>0.559365</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.485043</v>
+        <v>0.477961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.812091</v>
+        <v>0.840091</v>
       </c>
       <c r="D5" t="n">
-        <v>0.558514</v>
+        <v>0.556102</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.462783</v>
+        <v>0.454486</v>
       </c>
       <c r="C6" t="n">
-        <v>0.794811</v>
+        <v>0.808759</v>
       </c>
       <c r="D6" t="n">
-        <v>0.542871</v>
+        <v>0.536313</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.457695</v>
+        <v>0.454153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.805002</v>
+        <v>0.825527</v>
       </c>
       <c r="D7" t="n">
-        <v>0.55311</v>
+        <v>0.548532</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.452512</v>
+        <v>0.458907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.814307</v>
+        <v>0.839413</v>
       </c>
       <c r="D8" t="n">
-        <v>0.553076</v>
+        <v>0.5561</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.459671</v>
+        <v>0.452578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.815384</v>
+        <v>0.8385359999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.563833</v>
+        <v>0.547994</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.465679</v>
+        <v>0.453729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.839132</v>
+        <v>0.829606</v>
       </c>
       <c r="D10" t="n">
-        <v>0.560739</v>
+        <v>0.562917</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.465836</v>
+        <v>0.470212</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8308449999999999</v>
+        <v>0.836796</v>
       </c>
       <c r="D11" t="n">
-        <v>0.560701</v>
+        <v>0.546639</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.470301</v>
+        <v>0.460465</v>
       </c>
       <c r="C12" t="n">
-        <v>0.838298</v>
+        <v>0.843007</v>
       </c>
       <c r="D12" t="n">
-        <v>0.569238</v>
+        <v>0.561902</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.480174</v>
+        <v>0.476909</v>
       </c>
       <c r="C13" t="n">
-        <v>0.821314</v>
+        <v>0.842309</v>
       </c>
       <c r="D13" t="n">
-        <v>0.567074</v>
+        <v>0.571631</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.483432</v>
+        <v>0.471562</v>
       </c>
       <c r="C14" t="n">
-        <v>0.840996</v>
+        <v>0.85315</v>
       </c>
       <c r="D14" t="n">
-        <v>0.57767</v>
+        <v>0.578549</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.476822</v>
+        <v>0.486957</v>
       </c>
       <c r="C15" t="n">
-        <v>0.847229</v>
+        <v>0.853678</v>
       </c>
       <c r="D15" t="n">
-        <v>0.580346</v>
+        <v>0.571524</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.482124</v>
+        <v>0.480361</v>
       </c>
       <c r="C16" t="n">
-        <v>0.833667</v>
+        <v>0.843794</v>
       </c>
       <c r="D16" t="n">
-        <v>0.585035</v>
+        <v>0.574623</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.485927</v>
+        <v>0.491229</v>
       </c>
       <c r="C17" t="n">
-        <v>0.840593</v>
+        <v>0.8885420000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.575411</v>
+        <v>0.585483</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.491092</v>
+        <v>0.491751</v>
       </c>
       <c r="C18" t="n">
-        <v>0.852506</v>
+        <v>0.856362</v>
       </c>
       <c r="D18" t="n">
-        <v>0.595079</v>
+        <v>0.591787</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.489899</v>
+        <v>0.499584</v>
       </c>
       <c r="C19" t="n">
-        <v>0.868008</v>
+        <v>0.8579909999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.58531</v>
+        <v>0.5823390000000001</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.497747</v>
+        <v>0.498126</v>
       </c>
       <c r="C20" t="n">
-        <v>0.869192</v>
+        <v>0.872677</v>
       </c>
       <c r="D20" t="n">
-        <v>0.600653</v>
+        <v>0.591107</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.498927</v>
+        <v>0.488291</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9068349999999999</v>
+        <v>0.900952</v>
       </c>
       <c r="D21" t="n">
-        <v>0.613661</v>
+        <v>0.598689</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.521574</v>
+        <v>0.495298</v>
       </c>
       <c r="C22" t="n">
-        <v>0.917531</v>
+        <v>0.896104</v>
       </c>
       <c r="D22" t="n">
-        <v>0.611995</v>
+        <v>0.601637</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.529865</v>
+        <v>0.496924</v>
       </c>
       <c r="C23" t="n">
-        <v>0.918615</v>
+        <v>0.910224</v>
       </c>
       <c r="D23" t="n">
-        <v>0.634761</v>
+        <v>0.616879</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.527089</v>
+        <v>0.50853</v>
       </c>
       <c r="C24" t="n">
-        <v>0.907666</v>
+        <v>0.926922</v>
       </c>
       <c r="D24" t="n">
-        <v>0.639801</v>
+        <v>0.612933</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.521342</v>
+        <v>0.499801</v>
       </c>
       <c r="C25" t="n">
-        <v>0.930549</v>
+        <v>0.943438</v>
       </c>
       <c r="D25" t="n">
-        <v>0.661913</v>
+        <v>0.624899</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.528208</v>
+        <v>0.498092</v>
       </c>
       <c r="C26" t="n">
-        <v>0.931277</v>
+        <v>0.935941</v>
       </c>
       <c r="D26" t="n">
-        <v>0.624989</v>
+        <v>0.621964</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.585216</v>
+        <v>0.572155</v>
       </c>
       <c r="C27" t="n">
-        <v>0.931594</v>
+        <v>0.939476</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6393990000000001</v>
+        <v>0.6239130000000001</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.59019</v>
+        <v>0.570688</v>
       </c>
       <c r="C28" t="n">
-        <v>0.933605</v>
+        <v>0.9194</v>
       </c>
       <c r="D28" t="n">
-        <v>0.658281</v>
+        <v>0.635904</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5984390000000001</v>
+        <v>0.583997</v>
       </c>
       <c r="C29" t="n">
-        <v>0.961662</v>
+        <v>0.94747</v>
       </c>
       <c r="D29" t="n">
-        <v>0.702385</v>
+        <v>0.652702</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608369</v>
+        <v>0.60321</v>
       </c>
       <c r="C30" t="n">
-        <v>0.962596</v>
+        <v>0.965352</v>
       </c>
       <c r="D30" t="n">
-        <v>0.666589</v>
+        <v>0.654087</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.620092</v>
+        <v>0.614076</v>
       </c>
       <c r="C31" t="n">
-        <v>0.975222</v>
+        <v>0.945779</v>
       </c>
       <c r="D31" t="n">
-        <v>0.700568</v>
+        <v>0.67664</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.642254</v>
+        <v>0.6381</v>
       </c>
       <c r="C32" t="n">
-        <v>0.993151</v>
+        <v>0.977535</v>
       </c>
       <c r="D32" t="n">
-        <v>0.718522</v>
+        <v>0.669537</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.650263</v>
+        <v>0.629542</v>
       </c>
       <c r="C33" t="n">
-        <v>1.0018</v>
+        <v>0.983897</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7254080000000001</v>
+        <v>0.69003</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.656576</v>
+        <v>0.64944</v>
       </c>
       <c r="C34" t="n">
-        <v>0.993615</v>
+        <v>0.990235</v>
       </c>
       <c r="D34" t="n">
-        <v>0.733314</v>
+        <v>0.69854</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.683707</v>
+        <v>0.662042</v>
       </c>
       <c r="C35" t="n">
-        <v>1.09663</v>
+        <v>1.10502</v>
       </c>
       <c r="D35" t="n">
-        <v>0.83716</v>
+        <v>0.809487</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.682565</v>
+        <v>0.6817800000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>1.13271</v>
+        <v>1.12114</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8718050000000001</v>
+        <v>0.821542</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7015169999999999</v>
+        <v>0.700869</v>
       </c>
       <c r="C37" t="n">
-        <v>1.16126</v>
+        <v>1.11035</v>
       </c>
       <c r="D37" t="n">
-        <v>0.860459</v>
+        <v>0.844449</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.706925</v>
+        <v>0.728486</v>
       </c>
       <c r="C38" t="n">
-        <v>1.16075</v>
+        <v>1.20055</v>
       </c>
       <c r="D38" t="n">
-        <v>0.884119</v>
+        <v>0.870794</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.736739</v>
+        <v>0.723278</v>
       </c>
       <c r="C39" t="n">
-        <v>1.18064</v>
+        <v>1.17088</v>
       </c>
       <c r="D39" t="n">
-        <v>0.918107</v>
+        <v>0.876049</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.752171</v>
+        <v>0.738359</v>
       </c>
       <c r="C40" t="n">
-        <v>1.19191</v>
+        <v>1.21072</v>
       </c>
       <c r="D40" t="n">
-        <v>0.95438</v>
+        <v>0.8875459999999999</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.865527</v>
+        <v>0.869574</v>
       </c>
       <c r="C41" t="n">
-        <v>1.2397</v>
+        <v>1.23219</v>
       </c>
       <c r="D41" t="n">
-        <v>0.975568</v>
+        <v>0.936854</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.890522</v>
+        <v>0.881491</v>
       </c>
       <c r="C42" t="n">
-        <v>1.25842</v>
+        <v>1.27345</v>
       </c>
       <c r="D42" t="n">
-        <v>0.990031</v>
+        <v>0.956327</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.907978</v>
+        <v>0.900822</v>
       </c>
       <c r="C43" t="n">
-        <v>1.27538</v>
+        <v>1.30725</v>
       </c>
       <c r="D43" t="n">
-        <v>1.02935</v>
+        <v>0.967195</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.911653</v>
+        <v>0.916077</v>
       </c>
       <c r="C44" t="n">
-        <v>1.29703</v>
+        <v>1.29681</v>
       </c>
       <c r="D44" t="n">
-        <v>1.05011</v>
+        <v>1.02328</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9545979999999999</v>
+        <v>0.938026</v>
       </c>
       <c r="C45" t="n">
-        <v>1.35324</v>
+        <v>1.39127</v>
       </c>
       <c r="D45" t="n">
-        <v>1.07571</v>
+        <v>1.03185</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.966004</v>
+        <v>0.956753</v>
       </c>
       <c r="C46" t="n">
-        <v>1.35858</v>
+        <v>1.42199</v>
       </c>
       <c r="D46" t="n">
-        <v>1.12126</v>
+        <v>1.09505</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.983083</v>
+        <v>0.972491</v>
       </c>
       <c r="C47" t="n">
-        <v>1.42636</v>
+        <v>1.41712</v>
       </c>
       <c r="D47" t="n">
-        <v>1.13619</v>
+        <v>1.11112</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.995559</v>
+        <v>1.00295</v>
       </c>
       <c r="C48" t="n">
-        <v>1.47266</v>
+        <v>1.4728</v>
       </c>
       <c r="D48" t="n">
-        <v>1.15109</v>
+        <v>1.1327</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.01161</v>
+        <v>1.02949</v>
       </c>
       <c r="C49" t="n">
-        <v>1.48981</v>
+        <v>1.53046</v>
       </c>
       <c r="D49" t="n">
-        <v>1.19026</v>
+        <v>1.16531</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.05213</v>
+        <v>1.03624</v>
       </c>
       <c r="C50" t="n">
-        <v>1.6949</v>
+        <v>1.70795</v>
       </c>
       <c r="D50" t="n">
-        <v>1.31144</v>
+        <v>1.30326</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09391</v>
+        <v>1.07712</v>
       </c>
       <c r="C51" t="n">
-        <v>1.7746</v>
+        <v>1.75525</v>
       </c>
       <c r="D51" t="n">
-        <v>1.40648</v>
+        <v>1.34232</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.07801</v>
+        <v>1.07888</v>
       </c>
       <c r="C52" t="n">
-        <v>1.81784</v>
+        <v>1.82838</v>
       </c>
       <c r="D52" t="n">
-        <v>1.4103</v>
+        <v>1.39481</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.12948</v>
+        <v>1.13185</v>
       </c>
       <c r="C53" t="n">
-        <v>1.84318</v>
+        <v>1.87612</v>
       </c>
       <c r="D53" t="n">
-        <v>1.53566</v>
+        <v>1.39563</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.16315</v>
+        <v>1.14045</v>
       </c>
       <c r="C54" t="n">
-        <v>1.91961</v>
+        <v>1.87699</v>
       </c>
       <c r="D54" t="n">
-        <v>1.53915</v>
+        <v>1.45516</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2108</v>
+        <v>1.19179</v>
       </c>
       <c r="C55" t="n">
-        <v>1.96255</v>
+        <v>1.99158</v>
       </c>
       <c r="D55" t="n">
-        <v>1.55989</v>
+        <v>1.50811</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.34326</v>
+        <v>1.28689</v>
       </c>
       <c r="C56" t="n">
-        <v>1.99453</v>
+        <v>2.03929</v>
       </c>
       <c r="D56" t="n">
-        <v>1.63546</v>
+        <v>1.58154</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.38668</v>
+        <v>1.37463</v>
       </c>
       <c r="C57" t="n">
-        <v>2.08233</v>
+        <v>2.29363</v>
       </c>
       <c r="D57" t="n">
-        <v>1.64296</v>
+        <v>1.66256</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.40359</v>
+        <v>1.44486</v>
       </c>
       <c r="C58" t="n">
-        <v>2.12275</v>
+        <v>2.3936</v>
       </c>
       <c r="D58" t="n">
-        <v>1.72671</v>
+        <v>1.67404</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.42665</v>
+        <v>1.48571</v>
       </c>
       <c r="C59" t="n">
-        <v>2.15763</v>
+        <v>2.42402</v>
       </c>
       <c r="D59" t="n">
-        <v>1.79454</v>
+        <v>1.74889</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.45152</v>
+        <v>1.53243</v>
       </c>
       <c r="C60" t="n">
-        <v>2.27606</v>
+        <v>2.26685</v>
       </c>
       <c r="D60" t="n">
-        <v>1.8875</v>
+        <v>1.82002</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.48417</v>
+        <v>1.56745</v>
       </c>
       <c r="C61" t="n">
-        <v>2.31803</v>
+        <v>2.58628</v>
       </c>
       <c r="D61" t="n">
-        <v>1.90861</v>
+        <v>1.88235</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.60451</v>
+        <v>1.54305</v>
       </c>
       <c r="C62" t="n">
-        <v>2.43606</v>
+        <v>2.41583</v>
       </c>
       <c r="D62" t="n">
-        <v>1.99935</v>
+        <v>1.9086</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.55092</v>
+        <v>1.57721</v>
       </c>
       <c r="C63" t="n">
-        <v>2.42066</v>
+        <v>2.47222</v>
       </c>
       <c r="D63" t="n">
-        <v>1.97776</v>
+        <v>1.9715</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.60551</v>
+        <v>1.66006</v>
       </c>
       <c r="C64" t="n">
-        <v>2.72022</v>
+        <v>2.96392</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18192</v>
+        <v>2.1732</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.66186</v>
+        <v>1.74466</v>
       </c>
       <c r="C65" t="n">
-        <v>2.83543</v>
+        <v>3.07395</v>
       </c>
       <c r="D65" t="n">
-        <v>2.37686</v>
+        <v>2.20512</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.7939</v>
+        <v>1.71868</v>
       </c>
       <c r="C66" t="n">
-        <v>2.75763</v>
+        <v>3.03402</v>
       </c>
       <c r="D66" t="n">
-        <v>2.35745</v>
+        <v>2.90508</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.75953</v>
+        <v>2.06949</v>
       </c>
       <c r="C67" t="n">
-        <v>2.95119</v>
+        <v>3.64442</v>
       </c>
       <c r="D67" t="n">
-        <v>2.48536</v>
+        <v>3.20484</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.80921</v>
+        <v>2.04872</v>
       </c>
       <c r="C68" t="n">
-        <v>2.95431</v>
+        <v>3.80659</v>
       </c>
       <c r="D68" t="n">
-        <v>2.38732</v>
+        <v>2.94371</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.73936</v>
+        <v>2.06141</v>
       </c>
       <c r="C69" t="n">
-        <v>2.96226</v>
+        <v>3.80816</v>
       </c>
       <c r="D69" t="n">
-        <v>2.50649</v>
+        <v>3.09509</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.88386</v>
+        <v>2.30091</v>
       </c>
       <c r="C70" t="n">
-        <v>3.04522</v>
+        <v>4.0288</v>
       </c>
       <c r="D70" t="n">
-        <v>2.5245</v>
+        <v>3.16475</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.96312</v>
+        <v>2.26534</v>
       </c>
       <c r="C71" t="n">
-        <v>3.10904</v>
+        <v>4.11424</v>
       </c>
       <c r="D71" t="n">
-        <v>2.5789</v>
+        <v>3.25658</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.96569</v>
+        <v>2.2841</v>
       </c>
       <c r="C72" t="n">
-        <v>3.14859</v>
+        <v>4.06268</v>
       </c>
       <c r="D72" t="n">
-        <v>2.63397</v>
+        <v>3.23094</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.00264</v>
+        <v>2.25966</v>
       </c>
       <c r="C73" t="n">
-        <v>3.21369</v>
+        <v>4.07373</v>
       </c>
       <c r="D73" t="n">
-        <v>2.70986</v>
+        <v>3.23813</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.01776</v>
+        <v>2.31144</v>
       </c>
       <c r="C74" t="n">
-        <v>3.39385</v>
+        <v>4.17052</v>
       </c>
       <c r="D74" t="n">
-        <v>2.91435</v>
+        <v>3.26887</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.10501</v>
+        <v>2.32525</v>
       </c>
       <c r="C75" t="n">
-        <v>3.32572</v>
+        <v>4.28549</v>
       </c>
       <c r="D75" t="n">
-        <v>2.84443</v>
+        <v>3.41837</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.09664</v>
+        <v>2.37028</v>
       </c>
       <c r="C76" t="n">
-        <v>3.35175</v>
+        <v>4.26528</v>
       </c>
       <c r="D76" t="n">
-        <v>2.92821</v>
+        <v>3.49091</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.10379</v>
+        <v>2.4569</v>
       </c>
       <c r="C77" t="n">
-        <v>3.4947</v>
+        <v>4.32206</v>
       </c>
       <c r="D77" t="n">
-        <v>2.94407</v>
+        <v>3.54881</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.10796</v>
+        <v>2.48181</v>
       </c>
       <c r="C78" t="n">
-        <v>3.60053</v>
+        <v>4.60588</v>
       </c>
       <c r="D78" t="n">
-        <v>3.08618</v>
+        <v>3.7064</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.12672</v>
+        <v>2.50073</v>
       </c>
       <c r="C79" t="n">
-        <v>3.6544</v>
+        <v>4.61731</v>
       </c>
       <c r="D79" t="n">
-        <v>3.10165</v>
+        <v>3.6923</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.17258</v>
+        <v>2.54288</v>
       </c>
       <c r="C80" t="n">
-        <v>3.69378</v>
+        <v>4.54067</v>
       </c>
       <c r="D80" t="n">
-        <v>3.15349</v>
+        <v>3.72464</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.23035</v>
+        <v>2.48755</v>
       </c>
       <c r="C81" t="n">
-        <v>3.73448</v>
+        <v>4.63975</v>
       </c>
       <c r="D81" t="n">
-        <v>3.24013</v>
+        <v>3.87255</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.25236</v>
+        <v>2.56691</v>
       </c>
       <c r="C82" t="n">
-        <v>3.83279</v>
+        <v>4.66721</v>
       </c>
       <c r="D82" t="n">
-        <v>3.2969</v>
+        <v>3.86311</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.25184</v>
+        <v>2.53574</v>
       </c>
       <c r="C83" t="n">
-        <v>3.93994</v>
+        <v>4.48517</v>
       </c>
       <c r="D83" t="n">
-        <v>3.37286</v>
+        <v>3.79568</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.36168</v>
+        <v>2.64695</v>
       </c>
       <c r="C84" t="n">
-        <v>3.90777</v>
+        <v>4.55798</v>
       </c>
       <c r="D84" t="n">
-        <v>3.43006</v>
+        <v>3.89173</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.3635</v>
+        <v>2.65941</v>
       </c>
       <c r="C85" t="n">
-        <v>4.01575</v>
+        <v>4.6449</v>
       </c>
       <c r="D85" t="n">
-        <v>3.46687</v>
+        <v>3.92096</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.39845</v>
+        <v>2.70987</v>
       </c>
       <c r="C86" t="n">
-        <v>4.00663</v>
+        <v>4.91084</v>
       </c>
       <c r="D86" t="n">
-        <v>3.48131</v>
+        <v>3.94801</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.43113</v>
+        <v>3.00341</v>
       </c>
       <c r="C87" t="n">
-        <v>3.95374</v>
+        <v>4.92784</v>
       </c>
       <c r="D87" t="n">
-        <v>3.56429</v>
+        <v>4.28148</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.43655</v>
+        <v>2.7202</v>
       </c>
       <c r="C88" t="n">
-        <v>4.05116</v>
+        <v>4.81225</v>
       </c>
       <c r="D88" t="n">
-        <v>3.56876</v>
+        <v>3.94177</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.44408</v>
+        <v>2.74256</v>
       </c>
       <c r="C89" t="n">
-        <v>4.05815</v>
+        <v>4.83281</v>
       </c>
       <c r="D89" t="n">
-        <v>3.62847</v>
+        <v>3.99609</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.49047</v>
+        <v>2.90985</v>
       </c>
       <c r="C90" t="n">
-        <v>4.13044</v>
+        <v>4.77737</v>
       </c>
       <c r="D90" t="n">
-        <v>3.66191</v>
+        <v>4.10091</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.4946</v>
+        <v>2.70199</v>
       </c>
       <c r="C91" t="n">
-        <v>4.14496</v>
+        <v>4.86806</v>
       </c>
       <c r="D91" t="n">
-        <v>3.71277</v>
+        <v>4.03006</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.57328</v>
+        <v>2.71065</v>
       </c>
       <c r="C92" t="n">
-        <v>4.32917</v>
+        <v>4.97572</v>
       </c>
       <c r="D92" t="n">
-        <v>3.84611</v>
+        <v>4.3197</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.58458</v>
+        <v>2.84053</v>
       </c>
       <c r="C93" t="n">
-        <v>4.42573</v>
+        <v>5.0387</v>
       </c>
       <c r="D93" t="n">
-        <v>3.75826</v>
+        <v>4.24746</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.56031</v>
+        <v>2.82513</v>
       </c>
       <c r="C94" t="n">
-        <v>4.4129</v>
+        <v>5.07002</v>
       </c>
       <c r="D94" t="n">
-        <v>3.91035</v>
+        <v>4.32542</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.56367</v>
+        <v>2.88018</v>
       </c>
       <c r="C95" t="n">
-        <v>4.38864</v>
+        <v>5.08833</v>
       </c>
       <c r="D95" t="n">
-        <v>3.92378</v>
+        <v>4.30466</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.62426</v>
+        <v>2.87434</v>
       </c>
       <c r="C96" t="n">
-        <v>4.52278</v>
+        <v>5.14931</v>
       </c>
       <c r="D96" t="n">
-        <v>4.04334</v>
+        <v>4.55639</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.6693</v>
+        <v>2.94677</v>
       </c>
       <c r="C97" t="n">
-        <v>4.51712</v>
+        <v>5.21613</v>
       </c>
       <c r="D97" t="n">
-        <v>4.01353</v>
+        <v>4.4324</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.91561</v>
+        <v>3.11889</v>
       </c>
       <c r="C98" t="n">
-        <v>4.60359</v>
+        <v>5.19655</v>
       </c>
       <c r="D98" t="n">
-        <v>4.05222</v>
+        <v>4.33351</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.83821</v>
+        <v>3.07783</v>
       </c>
       <c r="C99" t="n">
-        <v>4.7052</v>
+        <v>5.37369</v>
       </c>
       <c r="D99" t="n">
-        <v>4.16568</v>
+        <v>4.56858</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.87799</v>
+        <v>3.40746</v>
       </c>
       <c r="C100" t="n">
-        <v>4.72898</v>
+        <v>5.80963</v>
       </c>
       <c r="D100" t="n">
-        <v>4.3147</v>
+        <v>4.98215</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.95261</v>
+        <v>3.32853</v>
       </c>
       <c r="C101" t="n">
-        <v>4.80488</v>
+        <v>5.67322</v>
       </c>
       <c r="D101" t="n">
-        <v>4.15887</v>
+        <v>5.05928</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.91199</v>
+        <v>3.47819</v>
       </c>
       <c r="C102" t="n">
-        <v>4.86333</v>
+        <v>5.78877</v>
       </c>
       <c r="D102" t="n">
-        <v>4.27511</v>
+        <v>5.00374</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.00696</v>
+        <v>3.55298</v>
       </c>
       <c r="C103" t="n">
-        <v>4.79589</v>
+        <v>5.82493</v>
       </c>
       <c r="D103" t="n">
-        <v>4.25581</v>
+        <v>4.98048</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.95598</v>
+        <v>3.57374</v>
       </c>
       <c r="C104" t="n">
-        <v>4.96739</v>
+        <v>5.8075</v>
       </c>
       <c r="D104" t="n">
-        <v>4.37145</v>
+        <v>4.75805</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.98043</v>
+        <v>3.4297</v>
       </c>
       <c r="C105" t="n">
-        <v>4.9076</v>
+        <v>5.89057</v>
       </c>
       <c r="D105" t="n">
-        <v>4.3739</v>
+        <v>4.92781</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.96161</v>
+        <v>3.44881</v>
       </c>
       <c r="C106" t="n">
-        <v>4.89941</v>
+        <v>6.04238</v>
       </c>
       <c r="D106" t="n">
-        <v>4.33808</v>
+        <v>4.91857</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.98016</v>
+        <v>3.5189</v>
       </c>
       <c r="C107" t="n">
-        <v>5.15589</v>
+        <v>6.33066</v>
       </c>
       <c r="D107" t="n">
-        <v>4.50771</v>
+        <v>5.28983</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.03294</v>
+        <v>3.77946</v>
       </c>
       <c r="C108" t="n">
-        <v>5.17315</v>
+        <v>6.19155</v>
       </c>
       <c r="D108" t="n">
-        <v>4.51503</v>
+        <v>5.34228</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.07357</v>
+        <v>3.61144</v>
       </c>
       <c r="C109" t="n">
-        <v>5.25147</v>
+        <v>6.55384</v>
       </c>
       <c r="D109" t="n">
-        <v>4.61624</v>
+        <v>5.47819</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.04526</v>
+        <v>3.67907</v>
       </c>
       <c r="C110" t="n">
-        <v>5.22105</v>
+        <v>6.36973</v>
       </c>
       <c r="D110" t="n">
-        <v>4.675</v>
+        <v>5.52615</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.14085</v>
+        <v>4.05315</v>
       </c>
       <c r="C111" t="n">
-        <v>5.23566</v>
+        <v>6.2536</v>
       </c>
       <c r="D111" t="n">
-        <v>4.75903</v>
+        <v>5.32804</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.27162</v>
+        <v>4.02741</v>
       </c>
       <c r="C112" t="n">
-        <v>5.34599</v>
+        <v>6.92728</v>
       </c>
       <c r="D112" t="n">
-        <v>4.75501</v>
+        <v>5.89528</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.32444</v>
+        <v>4.20872</v>
       </c>
       <c r="C113" t="n">
-        <v>5.41575</v>
+        <v>7.02768</v>
       </c>
       <c r="D113" t="n">
-        <v>4.94032</v>
+        <v>5.78115</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.44863</v>
+        <v>4.28982</v>
       </c>
       <c r="C114" t="n">
-        <v>5.55328</v>
+        <v>7.14646</v>
       </c>
       <c r="D114" t="n">
-        <v>5.05122</v>
+        <v>6.13953</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.47771</v>
+        <v>4.48735</v>
       </c>
       <c r="C115" t="n">
-        <v>5.49555</v>
+        <v>7.26543</v>
       </c>
       <c r="D115" t="n">
-        <v>5.02975</v>
+        <v>6.22282</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.42313</v>
+        <v>4.47847</v>
       </c>
       <c r="C116" t="n">
-        <v>5.60581</v>
+        <v>7.28001</v>
       </c>
       <c r="D116" t="n">
-        <v>4.99757</v>
+        <v>6.59253</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.49313</v>
+        <v>4.64429</v>
       </c>
       <c r="C117" t="n">
-        <v>5.54442</v>
+        <v>7.38233</v>
       </c>
       <c r="D117" t="n">
-        <v>5.00676</v>
+        <v>6.59362</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.55495</v>
+        <v>4.18033</v>
       </c>
       <c r="C118" t="n">
-        <v>5.68091</v>
+        <v>7.02779</v>
       </c>
       <c r="D118" t="n">
-        <v>5.06306</v>
+        <v>6.06267</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.6998</v>
+        <v>4.46073</v>
       </c>
       <c r="C119" t="n">
-        <v>5.80243</v>
+        <v>7.45004</v>
       </c>
       <c r="D119" t="n">
-        <v>5.41172</v>
+        <v>6.11768</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.387729</v>
+        <v>0.411408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.787877</v>
+        <v>0.857681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.512617</v>
+        <v>0.533805</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.408599</v>
+        <v>0.424919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.792998</v>
+        <v>0.829745</v>
       </c>
       <c r="D3" t="n">
-        <v>0.520269</v>
+        <v>0.542115</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.418811</v>
+        <v>0.44321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.814361</v>
+        <v>0.840805</v>
       </c>
       <c r="D4" t="n">
-        <v>0.517883</v>
+        <v>0.540475</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.420623</v>
+        <v>0.432533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.813401</v>
+        <v>0.83136</v>
       </c>
       <c r="D5" t="n">
-        <v>0.526905</v>
+        <v>0.556161</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418046</v>
+        <v>0.433022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.810523</v>
+        <v>0.856107</v>
       </c>
       <c r="D6" t="n">
-        <v>0.537224</v>
+        <v>0.584538</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.418825</v>
+        <v>0.487978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.827112</v>
+        <v>0.999355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.531734</v>
+        <v>0.597994</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.432059</v>
+        <v>0.443478</v>
       </c>
       <c r="C8" t="n">
-        <v>0.835596</v>
+        <v>0.877952</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5482</v>
+        <v>0.553167</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.426092</v>
+        <v>0.457336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.836298</v>
+        <v>0.875808</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5570889999999999</v>
+        <v>0.560651</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.423821</v>
+        <v>0.471071</v>
       </c>
       <c r="C10" t="n">
-        <v>0.845094</v>
+        <v>0.866379</v>
       </c>
       <c r="D10" t="n">
-        <v>0.555739</v>
+        <v>0.5738799999999999</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.424097</v>
+        <v>0.446263</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8354470000000001</v>
+        <v>0.892855</v>
       </c>
       <c r="D11" t="n">
-        <v>0.549939</v>
+        <v>0.563228</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.425548</v>
+        <v>0.437686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.846031</v>
+        <v>0.872586</v>
       </c>
       <c r="D12" t="n">
-        <v>0.564461</v>
+        <v>0.584762</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.427671</v>
+        <v>0.442821</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8664500000000001</v>
+        <v>0.892504</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5690190000000001</v>
+        <v>0.607177</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.429281</v>
+        <v>0.473213</v>
       </c>
       <c r="C14" t="n">
-        <v>0.870081</v>
+        <v>0.891499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.568258</v>
+        <v>0.597985</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.433067</v>
+        <v>0.485459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.871568</v>
+        <v>0.925256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.575252</v>
+        <v>0.61938</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.436134</v>
+        <v>0.475878</v>
       </c>
       <c r="C16" t="n">
-        <v>0.875825</v>
+        <v>0.93852</v>
       </c>
       <c r="D16" t="n">
-        <v>0.581206</v>
+        <v>0.607454</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.464111</v>
+        <v>0.5169820000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.89114</v>
+        <v>0.957035</v>
       </c>
       <c r="D17" t="n">
-        <v>0.588352</v>
+        <v>0.638526</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.474142</v>
+        <v>0.489125</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8958469999999999</v>
+        <v>0.943302</v>
       </c>
       <c r="D18" t="n">
-        <v>0.587093</v>
+        <v>0.625964</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.473683</v>
+        <v>0.493419</v>
       </c>
       <c r="C19" t="n">
-        <v>0.906149</v>
+        <v>0.930266</v>
       </c>
       <c r="D19" t="n">
-        <v>0.592979</v>
+        <v>0.628627</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.469174</v>
+        <v>0.502861</v>
       </c>
       <c r="C20" t="n">
-        <v>0.91088</v>
+        <v>0.993501</v>
       </c>
       <c r="D20" t="n">
-        <v>0.603309</v>
+        <v>0.6405419999999999</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.473046</v>
+        <v>0.497603</v>
       </c>
       <c r="C21" t="n">
-        <v>0.903888</v>
+        <v>0.973384</v>
       </c>
       <c r="D21" t="n">
-        <v>0.599787</v>
+        <v>0.6453950000000001</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.470464</v>
+        <v>0.549215</v>
       </c>
       <c r="C22" t="n">
-        <v>0.932103</v>
+        <v>1.09514</v>
       </c>
       <c r="D22" t="n">
-        <v>0.624322</v>
+        <v>0.689481</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.486034</v>
+        <v>0.6752359999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.93068</v>
+        <v>1.23768</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6145350000000001</v>
+        <v>0.728936</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.478045</v>
+        <v>0.630478</v>
       </c>
       <c r="C24" t="n">
-        <v>0.952667</v>
+        <v>1.09937</v>
       </c>
       <c r="D24" t="n">
-        <v>0.613937</v>
+        <v>0.712518</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.483302</v>
+        <v>0.554018</v>
       </c>
       <c r="C25" t="n">
-        <v>0.953145</v>
+        <v>1.08967</v>
       </c>
       <c r="D25" t="n">
-        <v>0.645856</v>
+        <v>0.764561</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.517852</v>
+        <v>0.61749</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9536019999999999</v>
+        <v>1.10609</v>
       </c>
       <c r="D26" t="n">
-        <v>0.625701</v>
+        <v>0.774015</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.512047</v>
+        <v>0.6183149999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.953088</v>
+        <v>1.09132</v>
       </c>
       <c r="D27" t="n">
-        <v>0.635097</v>
+        <v>0.78061</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.499565</v>
+        <v>0.594757</v>
       </c>
       <c r="C28" t="n">
-        <v>0.952469</v>
+        <v>1.14403</v>
       </c>
       <c r="D28" t="n">
-        <v>0.649129</v>
+        <v>0.78868</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.492295</v>
+        <v>0.582163</v>
       </c>
       <c r="C29" t="n">
-        <v>0.971527</v>
+        <v>1.08041</v>
       </c>
       <c r="D29" t="n">
-        <v>0.677764</v>
+        <v>0.790695</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.499869</v>
+        <v>0.604513</v>
       </c>
       <c r="C30" t="n">
-        <v>0.964678</v>
+        <v>1.18211</v>
       </c>
       <c r="D30" t="n">
-        <v>0.707978</v>
+        <v>0.790318</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.530547</v>
+        <v>0.5932500000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>1.03054</v>
+        <v>1.18618</v>
       </c>
       <c r="D31" t="n">
-        <v>0.702609</v>
+        <v>0.843645</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.556486</v>
+        <v>0.612704</v>
       </c>
       <c r="C32" t="n">
-        <v>1.01509</v>
+        <v>1.23346</v>
       </c>
       <c r="D32" t="n">
-        <v>0.722681</v>
+        <v>0.861359</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.551204</v>
+        <v>0.6674600000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>1.03007</v>
+        <v>1.31373</v>
       </c>
       <c r="D33" t="n">
-        <v>0.706886</v>
+        <v>0.905637</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.558748</v>
+        <v>0.676277</v>
       </c>
       <c r="C34" t="n">
-        <v>1.02895</v>
+        <v>1.3258</v>
       </c>
       <c r="D34" t="n">
-        <v>0.737863</v>
+        <v>0.880568</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.572177</v>
+        <v>0.675783</v>
       </c>
       <c r="C35" t="n">
-        <v>1.09333</v>
+        <v>1.48864</v>
       </c>
       <c r="D35" t="n">
-        <v>0.79473</v>
+        <v>0.899857</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.592518</v>
+        <v>0.6986</v>
       </c>
       <c r="C36" t="n">
-        <v>1.10463</v>
+        <v>1.42782</v>
       </c>
       <c r="D36" t="n">
-        <v>0.778235</v>
+        <v>0.9465</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5742930000000001</v>
+        <v>0.740066</v>
       </c>
       <c r="C37" t="n">
-        <v>1.14199</v>
+        <v>1.39708</v>
       </c>
       <c r="D37" t="n">
-        <v>0.781044</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6027169999999999</v>
+        <v>0.695894</v>
       </c>
       <c r="C38" t="n">
-        <v>1.17221</v>
+        <v>1.65446</v>
       </c>
       <c r="D38" t="n">
-        <v>0.847994</v>
+        <v>0.9825120000000001</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6159559999999999</v>
+        <v>0.705853</v>
       </c>
       <c r="C39" t="n">
-        <v>1.20746</v>
+        <v>1.48989</v>
       </c>
       <c r="D39" t="n">
-        <v>0.847919</v>
+        <v>0.950368</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.611899</v>
+        <v>0.698358</v>
       </c>
       <c r="C40" t="n">
-        <v>1.17086</v>
+        <v>1.46983</v>
       </c>
       <c r="D40" t="n">
-        <v>0.938477</v>
+        <v>1.0166</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6463410000000001</v>
+        <v>0.769593</v>
       </c>
       <c r="C41" t="n">
-        <v>1.21059</v>
+        <v>1.68862</v>
       </c>
       <c r="D41" t="n">
-        <v>0.925838</v>
+        <v>1.09376</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.656676</v>
+        <v>0.7780049999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>1.25595</v>
+        <v>1.73744</v>
       </c>
       <c r="D42" t="n">
-        <v>0.958064</v>
+        <v>1.09918</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.677022</v>
+        <v>0.796767</v>
       </c>
       <c r="C43" t="n">
-        <v>1.30486</v>
+        <v>1.87473</v>
       </c>
       <c r="D43" t="n">
-        <v>1.02912</v>
+        <v>1.1325</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.678938</v>
+        <v>0.865032</v>
       </c>
       <c r="C44" t="n">
-        <v>1.32008</v>
+        <v>2.1131</v>
       </c>
       <c r="D44" t="n">
-        <v>1.04828</v>
+        <v>1.18071</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.693061</v>
+        <v>0.851044</v>
       </c>
       <c r="C45" t="n">
-        <v>1.34581</v>
+        <v>1.89345</v>
       </c>
       <c r="D45" t="n">
-        <v>1.04413</v>
+        <v>1.22142</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.813798</v>
+        <v>1.04115</v>
       </c>
       <c r="C46" t="n">
-        <v>1.38193</v>
+        <v>1.82921</v>
       </c>
       <c r="D46" t="n">
-        <v>1.03326</v>
+        <v>1.38478</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8315669999999999</v>
+        <v>1.16739</v>
       </c>
       <c r="C47" t="n">
-        <v>1.41698</v>
+        <v>2.52397</v>
       </c>
       <c r="D47" t="n">
-        <v>1.09588</v>
+        <v>1.45538</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.849898</v>
+        <v>1.13384</v>
       </c>
       <c r="C48" t="n">
-        <v>1.49049</v>
+        <v>2.25201</v>
       </c>
       <c r="D48" t="n">
-        <v>1.10987</v>
+        <v>1.45034</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.852035</v>
+        <v>1.19026</v>
       </c>
       <c r="C49" t="n">
-        <v>1.52683</v>
+        <v>2.61209</v>
       </c>
       <c r="D49" t="n">
-        <v>1.13579</v>
+        <v>1.59096</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.910714</v>
+        <v>1.20578</v>
       </c>
       <c r="C50" t="n">
-        <v>1.59125</v>
+        <v>2.70847</v>
       </c>
       <c r="D50" t="n">
-        <v>1.1737</v>
+        <v>1.70462</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.91142</v>
+        <v>1.32976</v>
       </c>
       <c r="C51" t="n">
-        <v>1.67919</v>
+        <v>2.90806</v>
       </c>
       <c r="D51" t="n">
-        <v>1.24579</v>
+        <v>1.75441</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9595630000000001</v>
+        <v>1.31372</v>
       </c>
       <c r="C52" t="n">
-        <v>1.75202</v>
+        <v>3.10447</v>
       </c>
       <c r="D52" t="n">
-        <v>1.28884</v>
+        <v>1.94217</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.968125</v>
+        <v>1.37624</v>
       </c>
       <c r="C53" t="n">
-        <v>1.85197</v>
+        <v>3.11986</v>
       </c>
       <c r="D53" t="n">
-        <v>1.31474</v>
+        <v>2.11753</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01678</v>
+        <v>1.40056</v>
       </c>
       <c r="C54" t="n">
-        <v>1.79544</v>
+        <v>3.3605</v>
       </c>
       <c r="D54" t="n">
-        <v>1.42202</v>
+        <v>2.1333</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.0227</v>
+        <v>1.53081</v>
       </c>
       <c r="C55" t="n">
-        <v>1.93076</v>
+        <v>3.35755</v>
       </c>
       <c r="D55" t="n">
-        <v>1.46772</v>
+        <v>2.33163</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.04184</v>
+        <v>1.5163</v>
       </c>
       <c r="C56" t="n">
-        <v>1.90831</v>
+        <v>3.4612</v>
       </c>
       <c r="D56" t="n">
-        <v>1.51316</v>
+        <v>2.38081</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.07369</v>
+        <v>1.67726</v>
       </c>
       <c r="C57" t="n">
-        <v>1.99257</v>
+        <v>3.52246</v>
       </c>
       <c r="D57" t="n">
-        <v>1.57623</v>
+        <v>2.35325</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.10917</v>
+        <v>1.60356</v>
       </c>
       <c r="C58" t="n">
-        <v>2.07579</v>
+        <v>3.52813</v>
       </c>
       <c r="D58" t="n">
-        <v>1.62068</v>
+        <v>2.69209</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.14818</v>
+        <v>1.64342</v>
       </c>
       <c r="C59" t="n">
-        <v>2.12877</v>
+        <v>3.76705</v>
       </c>
       <c r="D59" t="n">
-        <v>1.69999</v>
+        <v>2.6967</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.2926</v>
+        <v>1.84555</v>
       </c>
       <c r="C60" t="n">
-        <v>2.24018</v>
+        <v>3.86989</v>
       </c>
       <c r="D60" t="n">
-        <v>1.74602</v>
+        <v>2.65751</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.35148</v>
+        <v>1.88398</v>
       </c>
       <c r="C61" t="n">
-        <v>2.33021</v>
+        <v>3.81065</v>
       </c>
       <c r="D61" t="n">
-        <v>1.81069</v>
+        <v>2.69507</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.45178</v>
+        <v>1.87697</v>
       </c>
       <c r="C62" t="n">
-        <v>2.56764</v>
+        <v>3.81054</v>
       </c>
       <c r="D62" t="n">
-        <v>1.92568</v>
+        <v>2.8329</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.45416</v>
+        <v>1.96241</v>
       </c>
       <c r="C63" t="n">
-        <v>2.5266</v>
+        <v>4.11869</v>
       </c>
       <c r="D63" t="n">
-        <v>2.02866</v>
+        <v>2.93038</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.51122</v>
+        <v>1.96839</v>
       </c>
       <c r="C64" t="n">
-        <v>2.48952</v>
+        <v>4.15006</v>
       </c>
       <c r="D64" t="n">
-        <v>2.00877</v>
+        <v>2.94446</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.55972</v>
+        <v>1.9416</v>
       </c>
       <c r="C65" t="n">
-        <v>2.63665</v>
+        <v>3.96898</v>
       </c>
       <c r="D65" t="n">
-        <v>2.0544</v>
+        <v>2.82385</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.53735</v>
+        <v>1.98666</v>
       </c>
       <c r="C66" t="n">
-        <v>2.73543</v>
+        <v>4.23795</v>
       </c>
       <c r="D66" t="n">
-        <v>2.1244</v>
+        <v>3.00306</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.56775</v>
+        <v>2.0684</v>
       </c>
       <c r="C67" t="n">
-        <v>2.85235</v>
+        <v>3.60195</v>
       </c>
       <c r="D67" t="n">
-        <v>2.16952</v>
+        <v>3.06205</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.60162</v>
+        <v>2.03489</v>
       </c>
       <c r="C68" t="n">
-        <v>2.79421</v>
+        <v>4.14986</v>
       </c>
       <c r="D68" t="n">
-        <v>2.37204</v>
+        <v>3.74891</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.64206</v>
+        <v>2.07246</v>
       </c>
       <c r="C69" t="n">
-        <v>3.25233</v>
+        <v>4.13257</v>
       </c>
       <c r="D69" t="n">
-        <v>2.48923</v>
+        <v>3.31565</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.68259</v>
+        <v>2.09212</v>
       </c>
       <c r="C70" t="n">
-        <v>3.05508</v>
+        <v>4.33981</v>
       </c>
       <c r="D70" t="n">
-        <v>2.51351</v>
+        <v>3.2933</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.7927</v>
+        <v>2.11762</v>
       </c>
       <c r="C71" t="n">
-        <v>3.38532</v>
+        <v>4.18935</v>
       </c>
       <c r="D71" t="n">
-        <v>2.65558</v>
+        <v>3.30465</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.81067</v>
+        <v>2.10921</v>
       </c>
       <c r="C72" t="n">
-        <v>3.32653</v>
+        <v>4.37132</v>
       </c>
       <c r="D72" t="n">
-        <v>2.66025</v>
+        <v>3.54579</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.77411</v>
+        <v>2.1808</v>
       </c>
       <c r="C73" t="n">
-        <v>3.26633</v>
+        <v>4.4846</v>
       </c>
       <c r="D73" t="n">
-        <v>2.75045</v>
+        <v>3.50417</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.99593</v>
+        <v>2.43894</v>
       </c>
       <c r="C74" t="n">
-        <v>3.26961</v>
+        <v>4.4778</v>
       </c>
       <c r="D74" t="n">
-        <v>2.80234</v>
+        <v>3.45698</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.01038</v>
+        <v>2.33818</v>
       </c>
       <c r="C75" t="n">
-        <v>3.40546</v>
+        <v>4.60123</v>
       </c>
       <c r="D75" t="n">
-        <v>2.93231</v>
+        <v>3.51707</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.0155</v>
+        <v>2.39927</v>
       </c>
       <c r="C76" t="n">
-        <v>3.55978</v>
+        <v>4.78206</v>
       </c>
       <c r="D76" t="n">
-        <v>3.08695</v>
+        <v>3.6412</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.09831</v>
+        <v>2.45171</v>
       </c>
       <c r="C77" t="n">
-        <v>3.57529</v>
+        <v>4.84818</v>
       </c>
       <c r="D77" t="n">
-        <v>3.03646</v>
+        <v>3.69074</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.1152</v>
+        <v>2.46189</v>
       </c>
       <c r="C78" t="n">
-        <v>3.63875</v>
+        <v>5.13747</v>
       </c>
       <c r="D78" t="n">
-        <v>2.99368</v>
+        <v>3.60829</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.08218</v>
+        <v>2.44988</v>
       </c>
       <c r="C79" t="n">
-        <v>3.72695</v>
+        <v>4.94849</v>
       </c>
       <c r="D79" t="n">
-        <v>3.03173</v>
+        <v>3.66352</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.1166</v>
+        <v>2.47872</v>
       </c>
       <c r="C80" t="n">
-        <v>3.859</v>
+        <v>5.09592</v>
       </c>
       <c r="D80" t="n">
-        <v>3.05471</v>
+        <v>3.72091</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.16918</v>
+        <v>2.54934</v>
       </c>
       <c r="C81" t="n">
-        <v>3.94911</v>
+        <v>5.18438</v>
       </c>
       <c r="D81" t="n">
-        <v>3.19671</v>
+        <v>3.77608</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.23307</v>
+        <v>2.55802</v>
       </c>
       <c r="C82" t="n">
-        <v>4.06415</v>
+        <v>5.20099</v>
       </c>
       <c r="D82" t="n">
-        <v>3.17523</v>
+        <v>3.78452</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.25293</v>
+        <v>2.54459</v>
       </c>
       <c r="C83" t="n">
-        <v>3.90699</v>
+        <v>4.99847</v>
       </c>
       <c r="D83" t="n">
-        <v>3.37745</v>
+        <v>4.01058</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.31119</v>
+        <v>2.62736</v>
       </c>
       <c r="C84" t="n">
-        <v>3.99582</v>
+        <v>5.10802</v>
       </c>
       <c r="D84" t="n">
-        <v>3.39558</v>
+        <v>3.93689</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.28989</v>
+        <v>2.5622</v>
       </c>
       <c r="C85" t="n">
-        <v>4.04805</v>
+        <v>5.04146</v>
       </c>
       <c r="D85" t="n">
-        <v>3.52409</v>
+        <v>3.98348</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.29619</v>
+        <v>2.59895</v>
       </c>
       <c r="C86" t="n">
-        <v>4.18436</v>
+        <v>5.11208</v>
       </c>
       <c r="D86" t="n">
-        <v>3.53346</v>
+        <v>4.01815</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.31337</v>
+        <v>2.59166</v>
       </c>
       <c r="C87" t="n">
-        <v>4.42153</v>
+        <v>5.12231</v>
       </c>
       <c r="D87" t="n">
-        <v>3.46714</v>
+        <v>4.06712</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.33001</v>
+        <v>2.6393</v>
       </c>
       <c r="C88" t="n">
-        <v>4.4783</v>
+        <v>5.2752</v>
       </c>
       <c r="D88" t="n">
-        <v>3.66198</v>
+        <v>4.07959</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.56039</v>
+        <v>2.65877</v>
       </c>
       <c r="C89" t="n">
-        <v>4.53331</v>
+        <v>5.22974</v>
       </c>
       <c r="D89" t="n">
-        <v>3.77977</v>
+        <v>3.94063</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.56568</v>
+        <v>2.6787</v>
       </c>
       <c r="C90" t="n">
-        <v>4.71114</v>
+        <v>5.28623</v>
       </c>
       <c r="D90" t="n">
-        <v>3.88334</v>
+        <v>3.87423</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.50623</v>
+        <v>2.60084</v>
       </c>
       <c r="C91" t="n">
-        <v>4.61937</v>
+        <v>4.62162</v>
       </c>
       <c r="D91" t="n">
-        <v>3.87884</v>
+        <v>3.75599</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.57999</v>
+        <v>2.58015</v>
       </c>
       <c r="C92" t="n">
-        <v>4.77627</v>
+        <v>4.77903</v>
       </c>
       <c r="D92" t="n">
-        <v>3.81138</v>
+        <v>3.86933</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.64873</v>
+        <v>2.59283</v>
       </c>
       <c r="C93" t="n">
-        <v>4.68424</v>
+        <v>4.93952</v>
       </c>
       <c r="D93" t="n">
-        <v>3.7615</v>
+        <v>3.85375</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.60237</v>
+        <v>2.61285</v>
       </c>
       <c r="C94" t="n">
-        <v>4.88328</v>
+        <v>4.97568</v>
       </c>
       <c r="D94" t="n">
-        <v>3.81079</v>
+        <v>3.91729</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.67219</v>
+        <v>2.69241</v>
       </c>
       <c r="C95" t="n">
-        <v>4.90563</v>
+        <v>5.09334</v>
       </c>
       <c r="D95" t="n">
-        <v>3.80831</v>
+        <v>3.89468</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.66502</v>
+        <v>2.67877</v>
       </c>
       <c r="C96" t="n">
-        <v>5.01138</v>
+        <v>5.24619</v>
       </c>
       <c r="D96" t="n">
-        <v>3.95852</v>
+        <v>3.99032</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.65794</v>
+        <v>2.66046</v>
       </c>
       <c r="C97" t="n">
-        <v>4.66371</v>
+        <v>4.79611</v>
       </c>
       <c r="D97" t="n">
-        <v>4.11611</v>
+        <v>4.07979</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.67954</v>
+        <v>2.67402</v>
       </c>
       <c r="C98" t="n">
-        <v>4.82401</v>
+        <v>4.92459</v>
       </c>
       <c r="D98" t="n">
-        <v>4.08526</v>
+        <v>4.02881</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.75807</v>
+        <v>2.67166</v>
       </c>
       <c r="C99" t="n">
-        <v>4.80981</v>
+        <v>4.95328</v>
       </c>
       <c r="D99" t="n">
-        <v>4.12328</v>
+        <v>4.0736</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.7081</v>
+        <v>2.73458</v>
       </c>
       <c r="C100" t="n">
-        <v>4.97326</v>
+        <v>5.01032</v>
       </c>
       <c r="D100" t="n">
-        <v>4.19959</v>
+        <v>4.11841</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.72274</v>
+        <v>2.74072</v>
       </c>
       <c r="C101" t="n">
-        <v>4.98885</v>
+        <v>4.98398</v>
       </c>
       <c r="D101" t="n">
-        <v>4.16541</v>
+        <v>4.03195</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.71867</v>
+        <v>2.72666</v>
       </c>
       <c r="C102" t="n">
-        <v>5.10434</v>
+        <v>5.13459</v>
       </c>
       <c r="D102" t="n">
-        <v>4.25987</v>
+        <v>4.07337</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.83963</v>
+        <v>2.84247</v>
       </c>
       <c r="C103" t="n">
-        <v>5.11691</v>
+        <v>5.14548</v>
       </c>
       <c r="D103" t="n">
-        <v>4.3091</v>
+        <v>4.13225</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.90698</v>
+        <v>2.84097</v>
       </c>
       <c r="C104" t="n">
-        <v>5.23345</v>
+        <v>5.21783</v>
       </c>
       <c r="D104" t="n">
-        <v>4.26557</v>
+        <v>4.25711</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.87825</v>
+        <v>2.92649</v>
       </c>
       <c r="C105" t="n">
-        <v>5.2744</v>
+        <v>5.39565</v>
       </c>
       <c r="D105" t="n">
-        <v>4.30484</v>
+        <v>4.25647</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.86471</v>
+        <v>2.90855</v>
       </c>
       <c r="C106" t="n">
-        <v>5.44193</v>
+        <v>5.44292</v>
       </c>
       <c r="D106" t="n">
-        <v>4.37271</v>
+        <v>4.22151</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.91671</v>
+        <v>2.90737</v>
       </c>
       <c r="C107" t="n">
-        <v>5.43596</v>
+        <v>5.45856</v>
       </c>
       <c r="D107" t="n">
-        <v>4.41302</v>
+        <v>4.39336</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.99045</v>
+        <v>2.97703</v>
       </c>
       <c r="C108" t="n">
-        <v>5.56813</v>
+        <v>5.60201</v>
       </c>
       <c r="D108" t="n">
-        <v>4.47024</v>
+        <v>4.26423</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.93421</v>
+        <v>3.04127</v>
       </c>
       <c r="C109" t="n">
-        <v>5.64281</v>
+        <v>5.62744</v>
       </c>
       <c r="D109" t="n">
-        <v>4.46386</v>
+        <v>4.39237</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.01047</v>
+        <v>2.95796</v>
       </c>
       <c r="C110" t="n">
-        <v>5.78034</v>
+        <v>5.77389</v>
       </c>
       <c r="D110" t="n">
-        <v>4.49973</v>
+        <v>4.32692</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.04153</v>
+        <v>2.9879</v>
       </c>
       <c r="C111" t="n">
-        <v>5.39943</v>
+        <v>5.40403</v>
       </c>
       <c r="D111" t="n">
-        <v>4.6203</v>
+        <v>4.54549</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.0748</v>
+        <v>3.02147</v>
       </c>
       <c r="C112" t="n">
-        <v>5.43033</v>
+        <v>5.46991</v>
       </c>
       <c r="D112" t="n">
-        <v>4.77688</v>
+        <v>4.54332</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.05643</v>
+        <v>3.08068</v>
       </c>
       <c r="C113" t="n">
-        <v>5.49498</v>
+        <v>5.52018</v>
       </c>
       <c r="D113" t="n">
-        <v>4.77396</v>
+        <v>4.59695</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.11025</v>
+        <v>3.03941</v>
       </c>
       <c r="C114" t="n">
-        <v>5.565</v>
+        <v>5.5632</v>
       </c>
       <c r="D114" t="n">
-        <v>4.88717</v>
+        <v>4.64564</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.16467</v>
+        <v>3.06022</v>
       </c>
       <c r="C115" t="n">
-        <v>5.68774</v>
+        <v>5.68514</v>
       </c>
       <c r="D115" t="n">
-        <v>4.87412</v>
+        <v>4.66175</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.14973</v>
+        <v>3.11181</v>
       </c>
       <c r="C116" t="n">
-        <v>5.80521</v>
+        <v>5.7745</v>
       </c>
       <c r="D116" t="n">
-        <v>4.87039</v>
+        <v>4.66688</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.26178</v>
+        <v>3.25222</v>
       </c>
       <c r="C117" t="n">
-        <v>5.89468</v>
+        <v>5.85919</v>
       </c>
       <c r="D117" t="n">
-        <v>4.97482</v>
+        <v>4.7216</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.2961</v>
+        <v>3.3032</v>
       </c>
       <c r="C118" t="n">
-        <v>5.93975</v>
+        <v>6.00856</v>
       </c>
       <c r="D118" t="n">
-        <v>5.00116</v>
+        <v>4.77135</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.35538</v>
+        <v>3.34112</v>
       </c>
       <c r="C119" t="n">
-        <v>6.03197</v>
+        <v>6.12855</v>
       </c>
       <c r="D119" t="n">
-        <v>4.94267</v>
+        <v>4.83693</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.444132</v>
+        <v>0.429202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612353</v>
+        <v>0.406011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.397587</v>
+        <v>0.400314</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.414738</v>
+        <v>0.43464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.63513</v>
+        <v>0.405975</v>
       </c>
       <c r="D3" t="n">
-        <v>0.417601</v>
+        <v>0.397688</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.462074</v>
+        <v>0.433439</v>
       </c>
       <c r="C4" t="n">
-        <v>0.616908</v>
+        <v>0.410533</v>
       </c>
       <c r="D4" t="n">
-        <v>0.402961</v>
+        <v>0.404713</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.439983</v>
+        <v>0.422817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6007400000000001</v>
+        <v>0.409136</v>
       </c>
       <c r="D5" t="n">
-        <v>0.405297</v>
+        <v>0.404906</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.428982</v>
+        <v>0.420337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.60438</v>
+        <v>0.394906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.404992</v>
+        <v>0.414149</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.442332</v>
+        <v>0.449258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.613843</v>
+        <v>0.389559</v>
       </c>
       <c r="D7" t="n">
-        <v>0.397831</v>
+        <v>0.385628</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.444826</v>
+        <v>0.427894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.620675</v>
+        <v>0.390383</v>
       </c>
       <c r="D8" t="n">
-        <v>0.405057</v>
+        <v>0.390189</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.452097</v>
+        <v>0.428509</v>
       </c>
       <c r="C9" t="n">
-        <v>0.615289</v>
+        <v>0.384805</v>
       </c>
       <c r="D9" t="n">
-        <v>0.406762</v>
+        <v>0.393459</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.448051</v>
+        <v>0.438709</v>
       </c>
       <c r="C10" t="n">
-        <v>0.614281</v>
+        <v>0.393195</v>
       </c>
       <c r="D10" t="n">
-        <v>0.408238</v>
+        <v>0.399829</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.456378</v>
+        <v>0.439308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.625844</v>
+        <v>0.393445</v>
       </c>
       <c r="D11" t="n">
-        <v>0.408684</v>
+        <v>0.397304</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.458096</v>
+        <v>0.453805</v>
       </c>
       <c r="C12" t="n">
-        <v>0.619572</v>
+        <v>0.399345</v>
       </c>
       <c r="D12" t="n">
-        <v>0.412132</v>
+        <v>0.403128</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.440351</v>
+        <v>0.432281</v>
       </c>
       <c r="C13" t="n">
-        <v>0.62451</v>
+        <v>0.393808</v>
       </c>
       <c r="D13" t="n">
-        <v>0.420082</v>
+        <v>0.405281</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.441005</v>
+        <v>0.420243</v>
       </c>
       <c r="C14" t="n">
-        <v>0.623005</v>
+        <v>0.401816</v>
       </c>
       <c r="D14" t="n">
-        <v>0.425766</v>
+        <v>0.415662</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.44128</v>
+        <v>0.424911</v>
       </c>
       <c r="C15" t="n">
-        <v>0.628878</v>
+        <v>0.397749</v>
       </c>
       <c r="D15" t="n">
-        <v>0.430809</v>
+        <v>0.41673</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.445834</v>
+        <v>0.436049</v>
       </c>
       <c r="C16" t="n">
-        <v>0.636695</v>
+        <v>0.397321</v>
       </c>
       <c r="D16" t="n">
-        <v>0.433599</v>
+        <v>0.414554</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.447976</v>
+        <v>0.436443</v>
       </c>
       <c r="C17" t="n">
-        <v>0.631333</v>
+        <v>0.403115</v>
       </c>
       <c r="D17" t="n">
-        <v>0.433905</v>
+        <v>0.421573</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.44578</v>
+        <v>0.445011</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6364300000000001</v>
+        <v>0.411363</v>
       </c>
       <c r="D18" t="n">
-        <v>0.442441</v>
+        <v>0.429672</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.464339</v>
+        <v>0.445014</v>
       </c>
       <c r="C19" t="n">
-        <v>0.646311</v>
+        <v>0.410117</v>
       </c>
       <c r="D19" t="n">
-        <v>0.440608</v>
+        <v>0.428486</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.471259</v>
+        <v>0.449004</v>
       </c>
       <c r="C20" t="n">
-        <v>0.637175</v>
+        <v>0.418147</v>
       </c>
       <c r="D20" t="n">
-        <v>0.442079</v>
+        <v>0.430177</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.48161</v>
+        <v>0.455908</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6616919999999999</v>
+        <v>0.405608</v>
       </c>
       <c r="D21" t="n">
-        <v>0.442506</v>
+        <v>0.419895</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.465905</v>
+        <v>0.45226</v>
       </c>
       <c r="C22" t="n">
-        <v>0.671665</v>
+        <v>0.418761</v>
       </c>
       <c r="D22" t="n">
-        <v>0.438596</v>
+        <v>0.435395</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.481076</v>
+        <v>0.475517</v>
       </c>
       <c r="C23" t="n">
-        <v>0.668369</v>
+        <v>0.412857</v>
       </c>
       <c r="D23" t="n">
-        <v>0.44139</v>
+        <v>0.438545</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.477938</v>
+        <v>0.468334</v>
       </c>
       <c r="C24" t="n">
-        <v>0.670046</v>
+        <v>0.416127</v>
       </c>
       <c r="D24" t="n">
-        <v>0.449848</v>
+        <v>0.43391</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.477269</v>
+        <v>0.49631</v>
       </c>
       <c r="C25" t="n">
-        <v>0.677393</v>
+        <v>0.410521</v>
       </c>
       <c r="D25" t="n">
-        <v>0.45016</v>
+        <v>0.44086</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.499856</v>
+        <v>0.488486</v>
       </c>
       <c r="C26" t="n">
-        <v>0.671669</v>
+        <v>0.423819</v>
       </c>
       <c r="D26" t="n">
-        <v>0.470615</v>
+        <v>0.44536</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.555447</v>
+        <v>0.518164</v>
       </c>
       <c r="C27" t="n">
-        <v>0.68636</v>
+        <v>0.430626</v>
       </c>
       <c r="D27" t="n">
-        <v>0.469507</v>
+        <v>0.445964</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.561584</v>
+        <v>0.529796</v>
       </c>
       <c r="C28" t="n">
-        <v>0.675183</v>
+        <v>0.433306</v>
       </c>
       <c r="D28" t="n">
-        <v>0.465422</v>
+        <v>0.462432</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.573125</v>
+        <v>0.532762</v>
       </c>
       <c r="C29" t="n">
-        <v>0.694177</v>
+        <v>0.43452</v>
       </c>
       <c r="D29" t="n">
-        <v>0.511552</v>
+        <v>0.473759</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.580968</v>
+        <v>0.560925</v>
       </c>
       <c r="C30" t="n">
-        <v>0.68472</v>
+        <v>0.454827</v>
       </c>
       <c r="D30" t="n">
-        <v>0.480259</v>
+        <v>0.508236</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6068519999999999</v>
+        <v>0.585624</v>
       </c>
       <c r="C31" t="n">
-        <v>0.707672</v>
+        <v>0.453004</v>
       </c>
       <c r="D31" t="n">
-        <v>0.507506</v>
+        <v>0.526263</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6129559999999999</v>
+        <v>0.580392</v>
       </c>
       <c r="C32" t="n">
-        <v>0.70897</v>
+        <v>0.461543</v>
       </c>
       <c r="D32" t="n">
-        <v>0.516876</v>
+        <v>0.525699</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.641025</v>
+        <v>0.617109</v>
       </c>
       <c r="C33" t="n">
-        <v>0.713085</v>
+        <v>0.467897</v>
       </c>
       <c r="D33" t="n">
-        <v>0.527606</v>
+        <v>0.524058</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.646056</v>
+        <v>0.624895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.729667</v>
+        <v>0.471903</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5359390000000001</v>
+        <v>0.532362</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.659608</v>
+        <v>0.6391829999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.803503</v>
+        <v>0.517755</v>
       </c>
       <c r="D35" t="n">
-        <v>0.646666</v>
+        <v>0.625397</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.677027</v>
+        <v>0.668876</v>
       </c>
       <c r="C36" t="n">
-        <v>0.811154</v>
+        <v>0.5338079999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.659463</v>
+        <v>0.641781</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.709774</v>
+        <v>0.676777</v>
       </c>
       <c r="C37" t="n">
-        <v>0.80741</v>
+        <v>0.542181</v>
       </c>
       <c r="D37" t="n">
-        <v>0.679812</v>
+        <v>0.671918</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.730267</v>
+        <v>0.684594</v>
       </c>
       <c r="C38" t="n">
-        <v>0.846261</v>
+        <v>0.5455719999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.721249</v>
+        <v>0.680576</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7302149999999999</v>
+        <v>0.726919</v>
       </c>
       <c r="C39" t="n">
-        <v>0.870943</v>
+        <v>0.558725</v>
       </c>
       <c r="D39" t="n">
-        <v>0.735293</v>
+        <v>0.70579</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.738197</v>
+        <v>0.73168</v>
       </c>
       <c r="C40" t="n">
-        <v>0.85331</v>
+        <v>0.562812</v>
       </c>
       <c r="D40" t="n">
-        <v>0.769882</v>
+        <v>0.711102</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.872514</v>
+        <v>0.863815</v>
       </c>
       <c r="C41" t="n">
-        <v>0.88788</v>
+        <v>0.59161</v>
       </c>
       <c r="D41" t="n">
-        <v>0.762544</v>
+        <v>0.736843</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.90741</v>
+        <v>0.859163</v>
       </c>
       <c r="C42" t="n">
-        <v>0.905233</v>
+        <v>0.591978</v>
       </c>
       <c r="D42" t="n">
-        <v>0.804459</v>
+        <v>0.768971</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.902756</v>
+        <v>0.905736</v>
       </c>
       <c r="C43" t="n">
-        <v>0.92356</v>
+        <v>0.615143</v>
       </c>
       <c r="D43" t="n">
-        <v>0.82583</v>
+        <v>0.78186</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.955646</v>
+        <v>0.944963</v>
       </c>
       <c r="C44" t="n">
-        <v>0.913296</v>
+        <v>0.636622</v>
       </c>
       <c r="D44" t="n">
-        <v>0.829748</v>
+        <v>0.796467</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9896430000000001</v>
+        <v>0.922588</v>
       </c>
       <c r="C45" t="n">
-        <v>0.965747</v>
+        <v>0.656191</v>
       </c>
       <c r="D45" t="n">
-        <v>0.84072</v>
+        <v>0.82941</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.997656</v>
+        <v>0.967862</v>
       </c>
       <c r="C46" t="n">
-        <v>0.980136</v>
+        <v>0.672693</v>
       </c>
       <c r="D46" t="n">
-        <v>0.866241</v>
+        <v>0.86431</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>1.01887</v>
+        <v>1.02851</v>
       </c>
       <c r="C47" t="n">
-        <v>1.02663</v>
+        <v>0.71447</v>
       </c>
       <c r="D47" t="n">
-        <v>0.911687</v>
+        <v>0.859529</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.08705</v>
+        <v>1.00877</v>
       </c>
       <c r="C48" t="n">
-        <v>1.04704</v>
+        <v>0.718805</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9311700000000001</v>
+        <v>0.896566</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.10201</v>
+        <v>1.06505</v>
       </c>
       <c r="C49" t="n">
-        <v>1.08515</v>
+        <v>0.723685</v>
       </c>
       <c r="D49" t="n">
-        <v>0.955503</v>
+        <v>0.903636</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.12068</v>
+        <v>1.09276</v>
       </c>
       <c r="C50" t="n">
-        <v>1.25834</v>
+        <v>0.888222</v>
       </c>
       <c r="D50" t="n">
-        <v>1.1767</v>
+        <v>1.1357</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.1357</v>
+        <v>1.10986</v>
       </c>
       <c r="C51" t="n">
-        <v>1.30528</v>
+        <v>0.88973</v>
       </c>
       <c r="D51" t="n">
-        <v>1.18994</v>
+        <v>1.15793</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.16725</v>
+        <v>1.13964</v>
       </c>
       <c r="C52" t="n">
-        <v>1.32479</v>
+        <v>0.913984</v>
       </c>
       <c r="D52" t="n">
-        <v>1.22476</v>
+        <v>1.19009</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.21428</v>
+        <v>1.16613</v>
       </c>
       <c r="C53" t="n">
-        <v>1.35116</v>
+        <v>0.94596</v>
       </c>
       <c r="D53" t="n">
-        <v>1.23995</v>
+        <v>1.21489</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.24582</v>
+        <v>1.18785</v>
       </c>
       <c r="C54" t="n">
-        <v>1.40725</v>
+        <v>0.969478</v>
       </c>
       <c r="D54" t="n">
-        <v>1.30717</v>
+        <v>1.21444</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.31538</v>
+        <v>1.25892</v>
       </c>
       <c r="C55" t="n">
-        <v>1.45339</v>
+        <v>1.00746</v>
       </c>
       <c r="D55" t="n">
-        <v>1.3507</v>
+        <v>1.2577</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.55402</v>
+        <v>1.47445</v>
       </c>
       <c r="C56" t="n">
-        <v>1.47203</v>
+        <v>1.04293</v>
       </c>
       <c r="D56" t="n">
-        <v>1.39546</v>
+        <v>1.3346</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.57768</v>
+        <v>1.50013</v>
       </c>
       <c r="C57" t="n">
-        <v>1.47168</v>
+        <v>1.04387</v>
       </c>
       <c r="D57" t="n">
-        <v>1.4389</v>
+        <v>1.33395</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.61202</v>
+        <v>1.51457</v>
       </c>
       <c r="C58" t="n">
-        <v>1.56021</v>
+        <v>1.07038</v>
       </c>
       <c r="D58" t="n">
-        <v>1.4712</v>
+        <v>1.38668</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.66406</v>
+        <v>1.55862</v>
       </c>
       <c r="C59" t="n">
-        <v>1.59573</v>
+        <v>1.10093</v>
       </c>
       <c r="D59" t="n">
-        <v>1.51441</v>
+        <v>1.45723</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.67486</v>
+        <v>1.60233</v>
       </c>
       <c r="C60" t="n">
-        <v>1.59993</v>
+        <v>1.10755</v>
       </c>
       <c r="D60" t="n">
-        <v>1.59084</v>
+        <v>1.51769</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.76527</v>
+        <v>1.61842</v>
       </c>
       <c r="C61" t="n">
-        <v>1.77116</v>
+        <v>1.16818</v>
       </c>
       <c r="D61" t="n">
-        <v>1.64415</v>
+        <v>1.53663</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.86622</v>
+        <v>1.63329</v>
       </c>
       <c r="C62" t="n">
-        <v>1.83361</v>
+        <v>1.184</v>
       </c>
       <c r="D62" t="n">
-        <v>1.67144</v>
+        <v>1.58291</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.79016</v>
+        <v>1.68593</v>
       </c>
       <c r="C63" t="n">
-        <v>1.69613</v>
+        <v>1.186</v>
       </c>
       <c r="D63" t="n">
-        <v>1.71057</v>
+        <v>1.62139</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.80288</v>
+        <v>1.71228</v>
       </c>
       <c r="C64" t="n">
-        <v>1.948</v>
+        <v>1.29502</v>
       </c>
       <c r="D64" t="n">
-        <v>2.01205</v>
+        <v>1.88491</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.84244</v>
+        <v>1.76501</v>
       </c>
       <c r="C65" t="n">
-        <v>1.89111</v>
+        <v>1.31717</v>
       </c>
       <c r="D65" t="n">
-        <v>2.00316</v>
+        <v>1.92668</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.92408</v>
+        <v>1.7917</v>
       </c>
       <c r="C66" t="n">
-        <v>1.9412</v>
+        <v>1.35573</v>
       </c>
       <c r="D66" t="n">
-        <v>2.01124</v>
+        <v>2.01986</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.91164</v>
+        <v>1.84067</v>
       </c>
       <c r="C67" t="n">
-        <v>2.11306</v>
+        <v>1.37272</v>
       </c>
       <c r="D67" t="n">
-        <v>2.19802</v>
+        <v>1.98299</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.95796</v>
+        <v>1.874</v>
       </c>
       <c r="C68" t="n">
-        <v>2.14372</v>
+        <v>1.37541</v>
       </c>
       <c r="D68" t="n">
-        <v>2.18773</v>
+        <v>2.11814</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>2.02311</v>
+        <v>1.85946</v>
       </c>
       <c r="C69" t="n">
-        <v>1.98929</v>
+        <v>1.40004</v>
       </c>
       <c r="D69" t="n">
-        <v>2.17781</v>
+        <v>2.07615</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.12916</v>
+        <v>1.99072</v>
       </c>
       <c r="C70" t="n">
-        <v>2.0562</v>
+        <v>1.41624</v>
       </c>
       <c r="D70" t="n">
-        <v>2.20276</v>
+        <v>2.07792</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.16708</v>
+        <v>2.0028</v>
       </c>
       <c r="C71" t="n">
-        <v>2.0427</v>
+        <v>1.43293</v>
       </c>
       <c r="D71" t="n">
-        <v>2.23065</v>
+        <v>2.15202</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.20304</v>
+        <v>2.07435</v>
       </c>
       <c r="C72" t="n">
-        <v>2.12127</v>
+        <v>1.48437</v>
       </c>
       <c r="D72" t="n">
-        <v>2.31436</v>
+        <v>2.16063</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.24477</v>
+        <v>2.11328</v>
       </c>
       <c r="C73" t="n">
-        <v>2.14059</v>
+        <v>1.50303</v>
       </c>
       <c r="D73" t="n">
-        <v>2.29099</v>
+        <v>2.33649</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.25601</v>
+        <v>2.21598</v>
       </c>
       <c r="C74" t="n">
-        <v>2.14416</v>
+        <v>1.51799</v>
       </c>
       <c r="D74" t="n">
-        <v>2.32585</v>
+        <v>2.28711</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.27471</v>
+        <v>2.13772</v>
       </c>
       <c r="C75" t="n">
-        <v>2.15704</v>
+        <v>1.52894</v>
       </c>
       <c r="D75" t="n">
-        <v>2.37179</v>
+        <v>2.29354</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.32108</v>
+        <v>2.12516</v>
       </c>
       <c r="C76" t="n">
-        <v>2.25417</v>
+        <v>1.53827</v>
       </c>
       <c r="D76" t="n">
-        <v>2.49178</v>
+        <v>2.32482</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.38751</v>
+        <v>2.20806</v>
       </c>
       <c r="C77" t="n">
-        <v>2.23624</v>
+        <v>1.56082</v>
       </c>
       <c r="D77" t="n">
-        <v>2.47825</v>
+        <v>2.34373</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.31628</v>
+        <v>2.17204</v>
       </c>
       <c r="C78" t="n">
-        <v>2.35539</v>
+        <v>1.66419</v>
       </c>
       <c r="D78" t="n">
-        <v>2.77057</v>
+        <v>2.70439</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.34191</v>
+        <v>2.19167</v>
       </c>
       <c r="C79" t="n">
-        <v>2.42912</v>
+        <v>1.65055</v>
       </c>
       <c r="D79" t="n">
-        <v>2.72747</v>
+        <v>2.6439</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.38482</v>
+        <v>2.19397</v>
       </c>
       <c r="C80" t="n">
-        <v>2.50046</v>
+        <v>1.66573</v>
       </c>
       <c r="D80" t="n">
-        <v>2.81478</v>
+        <v>2.69608</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.4609</v>
+        <v>2.27016</v>
       </c>
       <c r="C81" t="n">
-        <v>2.54904</v>
+        <v>1.67267</v>
       </c>
       <c r="D81" t="n">
-        <v>2.83236</v>
+        <v>2.68754</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.45801</v>
+        <v>2.23428</v>
       </c>
       <c r="C82" t="n">
-        <v>2.59413</v>
+        <v>1.69909</v>
       </c>
       <c r="D82" t="n">
-        <v>2.87736</v>
+        <v>2.70792</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.42551</v>
+        <v>2.29933</v>
       </c>
       <c r="C83" t="n">
-        <v>2.55851</v>
+        <v>1.70915</v>
       </c>
       <c r="D83" t="n">
-        <v>2.93882</v>
+        <v>2.72703</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.54669</v>
+        <v>2.39341</v>
       </c>
       <c r="C84" t="n">
-        <v>2.55979</v>
+        <v>1.77188</v>
       </c>
       <c r="D84" t="n">
-        <v>2.91305</v>
+        <v>2.76522</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.59634</v>
+        <v>2.42687</v>
       </c>
       <c r="C85" t="n">
-        <v>2.53673</v>
+        <v>1.7474</v>
       </c>
       <c r="D85" t="n">
-        <v>2.91761</v>
+        <v>2.78598</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.61387</v>
+        <v>2.46779</v>
       </c>
       <c r="C86" t="n">
-        <v>2.60262</v>
+        <v>1.72724</v>
       </c>
       <c r="D86" t="n">
-        <v>2.94846</v>
+        <v>2.8671</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.6458</v>
+        <v>2.44966</v>
       </c>
       <c r="C87" t="n">
-        <v>2.63806</v>
+        <v>1.76049</v>
       </c>
       <c r="D87" t="n">
-        <v>2.9856</v>
+        <v>2.89901</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.6781</v>
+        <v>2.51424</v>
       </c>
       <c r="C88" t="n">
-        <v>2.62533</v>
+        <v>1.773</v>
       </c>
       <c r="D88" t="n">
-        <v>2.95578</v>
+        <v>2.86232</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.6712</v>
+        <v>2.51224</v>
       </c>
       <c r="C89" t="n">
-        <v>2.62954</v>
+        <v>1.81045</v>
       </c>
       <c r="D89" t="n">
-        <v>2.99979</v>
+        <v>2.95418</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.65307</v>
+        <v>2.53596</v>
       </c>
       <c r="C90" t="n">
-        <v>2.65571</v>
+        <v>1.8313</v>
       </c>
       <c r="D90" t="n">
-        <v>2.99756</v>
+        <v>2.90115</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.75187</v>
+        <v>2.50392</v>
       </c>
       <c r="C91" t="n">
-        <v>2.7422</v>
+        <v>1.8636</v>
       </c>
       <c r="D91" t="n">
-        <v>3.07089</v>
+        <v>2.98323</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.71785</v>
+        <v>2.56407</v>
       </c>
       <c r="C92" t="n">
-        <v>2.93324</v>
+        <v>1.90404</v>
       </c>
       <c r="D92" t="n">
-        <v>3.23323</v>
+        <v>3.1667</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.73562</v>
+        <v>2.51316</v>
       </c>
       <c r="C93" t="n">
-        <v>2.82234</v>
+        <v>1.90233</v>
       </c>
       <c r="D93" t="n">
-        <v>3.26678</v>
+        <v>3.18039</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.7957</v>
+        <v>2.5586</v>
       </c>
       <c r="C94" t="n">
-        <v>2.87659</v>
+        <v>1.92007</v>
       </c>
       <c r="D94" t="n">
-        <v>3.35492</v>
+        <v>3.21345</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.83349</v>
+        <v>2.54613</v>
       </c>
       <c r="C95" t="n">
-        <v>2.89763</v>
+        <v>1.9797</v>
       </c>
       <c r="D95" t="n">
-        <v>3.34323</v>
+        <v>3.21208</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.82644</v>
+        <v>2.70424</v>
       </c>
       <c r="C96" t="n">
-        <v>3.03075</v>
+        <v>1.96326</v>
       </c>
       <c r="D96" t="n">
-        <v>3.37473</v>
+        <v>3.356</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.87156</v>
+        <v>2.66079</v>
       </c>
       <c r="C97" t="n">
-        <v>3.01018</v>
+        <v>2.01422</v>
       </c>
       <c r="D97" t="n">
-        <v>3.37928</v>
+        <v>3.3223</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>3.00422</v>
+        <v>2.82029</v>
       </c>
       <c r="C98" t="n">
-        <v>3.06449</v>
+        <v>2.02286</v>
       </c>
       <c r="D98" t="n">
-        <v>3.32059</v>
+        <v>3.2333</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>3.0523</v>
+        <v>2.80345</v>
       </c>
       <c r="C99" t="n">
-        <v>3.12466</v>
+        <v>2.04074</v>
       </c>
       <c r="D99" t="n">
-        <v>3.41527</v>
+        <v>3.31392</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>3.0566</v>
+        <v>2.82068</v>
       </c>
       <c r="C100" t="n">
-        <v>3.0755</v>
+        <v>2.04615</v>
       </c>
       <c r="D100" t="n">
-        <v>3.41108</v>
+        <v>3.3358</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>3.13345</v>
+        <v>2.84068</v>
       </c>
       <c r="C101" t="n">
-        <v>3.13252</v>
+        <v>2.1287</v>
       </c>
       <c r="D101" t="n">
-        <v>3.43946</v>
+        <v>3.31429</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>3.07946</v>
+        <v>2.86581</v>
       </c>
       <c r="C102" t="n">
-        <v>3.15439</v>
+        <v>2.09872</v>
       </c>
       <c r="D102" t="n">
-        <v>3.46998</v>
+        <v>3.32139</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>3.11258</v>
+        <v>2.88707</v>
       </c>
       <c r="C103" t="n">
-        <v>3.1912</v>
+        <v>2.18507</v>
       </c>
       <c r="D103" t="n">
-        <v>3.48865</v>
+        <v>3.41791</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>3.10466</v>
+        <v>2.93556</v>
       </c>
       <c r="C104" t="n">
-        <v>3.24666</v>
+        <v>2.17403</v>
       </c>
       <c r="D104" t="n">
-        <v>3.5098</v>
+        <v>3.44936</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>3.14776</v>
+        <v>2.97793</v>
       </c>
       <c r="C105" t="n">
-        <v>3.15729</v>
+        <v>2.21299</v>
       </c>
       <c r="D105" t="n">
-        <v>3.52769</v>
+        <v>3.47107</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>3.14532</v>
+        <v>2.99549</v>
       </c>
       <c r="C106" t="n">
-        <v>3.27989</v>
+        <v>2.27533</v>
       </c>
       <c r="D106" t="n">
-        <v>3.58639</v>
+        <v>3.54104</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>3.20042</v>
+        <v>3.03577</v>
       </c>
       <c r="C107" t="n">
-        <v>3.54677</v>
+        <v>2.30235</v>
       </c>
       <c r="D107" t="n">
-        <v>3.88395</v>
+        <v>3.77424</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>3.20652</v>
+        <v>2.9935</v>
       </c>
       <c r="C108" t="n">
-        <v>3.57471</v>
+        <v>2.25422</v>
       </c>
       <c r="D108" t="n">
-        <v>3.8887</v>
+        <v>3.74369</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.33992</v>
+        <v>3.01487</v>
       </c>
       <c r="C109" t="n">
-        <v>3.63962</v>
+        <v>2.25727</v>
       </c>
       <c r="D109" t="n">
-        <v>3.86514</v>
+        <v>3.85573</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.29856</v>
+        <v>3.01606</v>
       </c>
       <c r="C110" t="n">
-        <v>3.6295</v>
+        <v>2.34931</v>
       </c>
       <c r="D110" t="n">
-        <v>3.95056</v>
+        <v>3.76992</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.37711</v>
+        <v>3.01313</v>
       </c>
       <c r="C111" t="n">
-        <v>3.64121</v>
+        <v>2.38918</v>
       </c>
       <c r="D111" t="n">
-        <v>3.90864</v>
+        <v>3.8155</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.46903</v>
+        <v>3.3251</v>
       </c>
       <c r="C112" t="n">
-        <v>3.70551</v>
+        <v>2.43395</v>
       </c>
       <c r="D112" t="n">
-        <v>3.93527</v>
+        <v>3.84922</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.59096</v>
+        <v>3.23781</v>
       </c>
       <c r="C113" t="n">
-        <v>3.77794</v>
+        <v>2.42862</v>
       </c>
       <c r="D113" t="n">
-        <v>3.96642</v>
+        <v>4.00464</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.4858</v>
+        <v>3.36396</v>
       </c>
       <c r="C114" t="n">
-        <v>3.77191</v>
+        <v>2.49797</v>
       </c>
       <c r="D114" t="n">
-        <v>4.10638</v>
+        <v>4.00787</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.49845</v>
+        <v>3.4336</v>
       </c>
       <c r="C115" t="n">
-        <v>3.71308</v>
+        <v>2.48834</v>
       </c>
       <c r="D115" t="n">
-        <v>4.02761</v>
+        <v>3.97489</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.60061</v>
+        <v>3.35363</v>
       </c>
       <c r="C116" t="n">
-        <v>3.81813</v>
+        <v>2.52527</v>
       </c>
       <c r="D116" t="n">
-        <v>4.03023</v>
+        <v>4.18423</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.68966</v>
+        <v>3.45893</v>
       </c>
       <c r="C117" t="n">
-        <v>3.87284</v>
+        <v>2.58344</v>
       </c>
       <c r="D117" t="n">
-        <v>4.17437</v>
+        <v>4.0814</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.82859</v>
+        <v>3.39618</v>
       </c>
       <c r="C118" t="n">
-        <v>4.02663</v>
+        <v>2.56679</v>
       </c>
       <c r="D118" t="n">
-        <v>4.16714</v>
+        <v>4.0991</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.76618</v>
+        <v>3.42726</v>
       </c>
       <c r="C119" t="n">
-        <v>4.00507</v>
+        <v>2.66198</v>
       </c>
       <c r="D119" t="n">
-        <v>4.27927</v>
+        <v>4.1694</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.485623</v>
+        <v>0.464546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.810064</v>
+        <v>0.5629110000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5406609999999999</v>
+        <v>0.542069</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.472841</v>
+        <v>0.476332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8587590000000001</v>
+        <v>0.555019</v>
       </c>
       <c r="D3" t="n">
-        <v>0.566176</v>
+        <v>0.54193</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.477357</v>
+        <v>0.492247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.851689</v>
+        <v>0.5742699999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.559365</v>
+        <v>0.545729</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.477961</v>
+        <v>0.474744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.840091</v>
+        <v>0.576349</v>
       </c>
       <c r="D5" t="n">
-        <v>0.556102</v>
+        <v>0.526917</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.454486</v>
+        <v>0.460307</v>
       </c>
       <c r="C6" t="n">
-        <v>0.808759</v>
+        <v>0.544999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.536313</v>
+        <v>0.526442</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.454153</v>
+        <v>0.455208</v>
       </c>
       <c r="C7" t="n">
-        <v>0.825527</v>
+        <v>0.5565870000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.548532</v>
+        <v>0.537251</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.458907</v>
+        <v>0.458429</v>
       </c>
       <c r="C8" t="n">
-        <v>0.839413</v>
+        <v>0.55465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5561</v>
+        <v>0.552041</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.452578</v>
+        <v>0.457031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8385359999999999</v>
+        <v>0.565814</v>
       </c>
       <c r="D9" t="n">
-        <v>0.547994</v>
+        <v>0.544563</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.453729</v>
+        <v>0.462629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.829606</v>
+        <v>0.568348</v>
       </c>
       <c r="D10" t="n">
-        <v>0.562917</v>
+        <v>0.54894</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.470212</v>
+        <v>0.467172</v>
       </c>
       <c r="C11" t="n">
-        <v>0.836796</v>
+        <v>0.561222</v>
       </c>
       <c r="D11" t="n">
-        <v>0.546639</v>
+        <v>0.552554</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.460465</v>
+        <v>0.462516</v>
       </c>
       <c r="C12" t="n">
-        <v>0.843007</v>
+        <v>0.574231</v>
       </c>
       <c r="D12" t="n">
-        <v>0.561902</v>
+        <v>0.5553630000000001</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.476909</v>
+        <v>0.474666</v>
       </c>
       <c r="C13" t="n">
-        <v>0.842309</v>
+        <v>0.574847</v>
       </c>
       <c r="D13" t="n">
-        <v>0.571631</v>
+        <v>0.557839</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.471562</v>
+        <v>0.473571</v>
       </c>
       <c r="C14" t="n">
-        <v>0.85315</v>
+        <v>0.569182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.578549</v>
+        <v>0.5573709999999999</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.486957</v>
+        <v>0.479612</v>
       </c>
       <c r="C15" t="n">
-        <v>0.853678</v>
+        <v>0.566974</v>
       </c>
       <c r="D15" t="n">
-        <v>0.571524</v>
+        <v>0.562132</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.480361</v>
+        <v>0.491197</v>
       </c>
       <c r="C16" t="n">
-        <v>0.843794</v>
+        <v>0.581662</v>
       </c>
       <c r="D16" t="n">
-        <v>0.574623</v>
+        <v>0.5696830000000001</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.491229</v>
+        <v>0.481396</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8885420000000001</v>
+        <v>0.5808950000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.585483</v>
+        <v>0.573834</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.491751</v>
+        <v>0.484532</v>
       </c>
       <c r="C18" t="n">
-        <v>0.856362</v>
+        <v>0.581942</v>
       </c>
       <c r="D18" t="n">
-        <v>0.591787</v>
+        <v>0.573194</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.499584</v>
+        <v>0.479891</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8579909999999999</v>
+        <v>0.581958</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5823390000000001</v>
+        <v>0.578064</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.498126</v>
+        <v>0.484755</v>
       </c>
       <c r="C20" t="n">
-        <v>0.872677</v>
+        <v>0.589684</v>
       </c>
       <c r="D20" t="n">
-        <v>0.591107</v>
+        <v>0.587436</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.488291</v>
+        <v>0.494057</v>
       </c>
       <c r="C21" t="n">
-        <v>0.900952</v>
+        <v>0.610703</v>
       </c>
       <c r="D21" t="n">
-        <v>0.598689</v>
+        <v>0.5904470000000001</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.495298</v>
+        <v>0.494847</v>
       </c>
       <c r="C22" t="n">
-        <v>0.896104</v>
+        <v>0.604291</v>
       </c>
       <c r="D22" t="n">
-        <v>0.601637</v>
+        <v>0.590516</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.496924</v>
+        <v>0.500821</v>
       </c>
       <c r="C23" t="n">
-        <v>0.910224</v>
+        <v>0.599559</v>
       </c>
       <c r="D23" t="n">
-        <v>0.616879</v>
+        <v>0.598226</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.50853</v>
+        <v>0.526071</v>
       </c>
       <c r="C24" t="n">
-        <v>0.926922</v>
+        <v>0.611447</v>
       </c>
       <c r="D24" t="n">
-        <v>0.612933</v>
+        <v>0.590265</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.499801</v>
+        <v>0.500528</v>
       </c>
       <c r="C25" t="n">
-        <v>0.943438</v>
+        <v>0.619362</v>
       </c>
       <c r="D25" t="n">
-        <v>0.624899</v>
+        <v>0.606832</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.498092</v>
+        <v>0.494458</v>
       </c>
       <c r="C26" t="n">
-        <v>0.935941</v>
+        <v>0.625315</v>
       </c>
       <c r="D26" t="n">
-        <v>0.621964</v>
+        <v>0.6297739999999999</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.572155</v>
+        <v>0.570631</v>
       </c>
       <c r="C27" t="n">
-        <v>0.939476</v>
+        <v>0.627063</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6239130000000001</v>
+        <v>0.6133</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.570688</v>
+        <v>0.573275</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9194</v>
+        <v>0.638089</v>
       </c>
       <c r="D28" t="n">
-        <v>0.635904</v>
+        <v>0.626686</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.583997</v>
+        <v>0.5801770000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.94747</v>
+        <v>0.646056</v>
       </c>
       <c r="D29" t="n">
-        <v>0.652702</v>
+        <v>0.627619</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.60321</v>
+        <v>0.596662</v>
       </c>
       <c r="C30" t="n">
-        <v>0.965352</v>
+        <v>0.651226</v>
       </c>
       <c r="D30" t="n">
-        <v>0.654087</v>
+        <v>0.625777</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.614076</v>
+        <v>0.604312</v>
       </c>
       <c r="C31" t="n">
-        <v>0.945779</v>
+        <v>0.64888</v>
       </c>
       <c r="D31" t="n">
-        <v>0.67664</v>
+        <v>0.64902</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6381</v>
+        <v>0.626234</v>
       </c>
       <c r="C32" t="n">
-        <v>0.977535</v>
+        <v>0.68696</v>
       </c>
       <c r="D32" t="n">
-        <v>0.669537</v>
+        <v>0.672399</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.629542</v>
+        <v>0.638814</v>
       </c>
       <c r="C33" t="n">
-        <v>0.983897</v>
+        <v>0.68969</v>
       </c>
       <c r="D33" t="n">
-        <v>0.69003</v>
+        <v>0.706334</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.64944</v>
+        <v>0.6394339999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.990235</v>
+        <v>0.706025</v>
       </c>
       <c r="D34" t="n">
-        <v>0.69854</v>
+        <v>0.6921</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.662042</v>
+        <v>0.677345</v>
       </c>
       <c r="C35" t="n">
-        <v>1.10502</v>
+        <v>0.758777</v>
       </c>
       <c r="D35" t="n">
-        <v>0.809487</v>
+        <v>0.795357</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6817800000000001</v>
+        <v>0.685299</v>
       </c>
       <c r="C36" t="n">
-        <v>1.12114</v>
+        <v>0.779313</v>
       </c>
       <c r="D36" t="n">
-        <v>0.821542</v>
+        <v>0.817999</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.700869</v>
+        <v>0.714401</v>
       </c>
       <c r="C37" t="n">
-        <v>1.11035</v>
+        <v>0.784726</v>
       </c>
       <c r="D37" t="n">
-        <v>0.844449</v>
+        <v>0.830286</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.728486</v>
+        <v>0.72132</v>
       </c>
       <c r="C38" t="n">
-        <v>1.20055</v>
+        <v>0.810543</v>
       </c>
       <c r="D38" t="n">
-        <v>0.870794</v>
+        <v>0.857521</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.723278</v>
+        <v>0.728592</v>
       </c>
       <c r="C39" t="n">
-        <v>1.17088</v>
+        <v>0.8292659999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.876049</v>
+        <v>0.870021</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.738359</v>
+        <v>0.7523840000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>1.21072</v>
+        <v>0.854255</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8875459999999999</v>
+        <v>0.903265</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.869574</v>
+        <v>0.872565</v>
       </c>
       <c r="C41" t="n">
-        <v>1.23219</v>
+        <v>0.869286</v>
       </c>
       <c r="D41" t="n">
-        <v>0.936854</v>
+        <v>0.918346</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.881491</v>
+        <v>0.879113</v>
       </c>
       <c r="C42" t="n">
-        <v>1.27345</v>
+        <v>0.8695889999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.956327</v>
+        <v>0.940017</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.900822</v>
+        <v>0.891227</v>
       </c>
       <c r="C43" t="n">
-        <v>1.30725</v>
+        <v>0.908508</v>
       </c>
       <c r="D43" t="n">
-        <v>0.967195</v>
+        <v>0.9755</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.916077</v>
+        <v>0.922362</v>
       </c>
       <c r="C44" t="n">
-        <v>1.29681</v>
+        <v>0.936188</v>
       </c>
       <c r="D44" t="n">
-        <v>1.02328</v>
+        <v>1.00386</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.938026</v>
+        <v>0.946515</v>
       </c>
       <c r="C45" t="n">
-        <v>1.39127</v>
+        <v>0.968081</v>
       </c>
       <c r="D45" t="n">
-        <v>1.03185</v>
+        <v>1.02234</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.956753</v>
+        <v>0.963776</v>
       </c>
       <c r="C46" t="n">
-        <v>1.42199</v>
+        <v>0.985739</v>
       </c>
       <c r="D46" t="n">
-        <v>1.09505</v>
+        <v>1.06706</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.972491</v>
+        <v>0.9827669999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>1.41712</v>
+        <v>1.03634</v>
       </c>
       <c r="D47" t="n">
-        <v>1.11112</v>
+        <v>1.09734</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.00295</v>
+        <v>0.991061</v>
       </c>
       <c r="C48" t="n">
-        <v>1.4728</v>
+        <v>1.05398</v>
       </c>
       <c r="D48" t="n">
-        <v>1.1327</v>
+        <v>1.1282</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.02949</v>
+        <v>1.03175</v>
       </c>
       <c r="C49" t="n">
-        <v>1.53046</v>
+        <v>1.06821</v>
       </c>
       <c r="D49" t="n">
-        <v>1.16531</v>
+        <v>1.15057</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.03624</v>
+        <v>1.03162</v>
       </c>
       <c r="C50" t="n">
-        <v>1.70795</v>
+        <v>1.2878</v>
       </c>
       <c r="D50" t="n">
-        <v>1.30326</v>
+        <v>1.29243</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.07712</v>
+        <v>1.08457</v>
       </c>
       <c r="C51" t="n">
-        <v>1.75525</v>
+        <v>1.29605</v>
       </c>
       <c r="D51" t="n">
-        <v>1.34232</v>
+        <v>1.31536</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.07888</v>
+        <v>1.07913</v>
       </c>
       <c r="C52" t="n">
-        <v>1.82838</v>
+        <v>1.35136</v>
       </c>
       <c r="D52" t="n">
-        <v>1.39481</v>
+        <v>1.37472</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.13185</v>
+        <v>1.16569</v>
       </c>
       <c r="C53" t="n">
-        <v>1.87612</v>
+        <v>1.40315</v>
       </c>
       <c r="D53" t="n">
-        <v>1.39563</v>
+        <v>1.40599</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.14045</v>
+        <v>1.17253</v>
       </c>
       <c r="C54" t="n">
-        <v>1.87699</v>
+        <v>1.49234</v>
       </c>
       <c r="D54" t="n">
-        <v>1.45516</v>
+        <v>1.45495</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.19179</v>
+        <v>1.19754</v>
       </c>
       <c r="C55" t="n">
-        <v>1.99158</v>
+        <v>1.54454</v>
       </c>
       <c r="D55" t="n">
-        <v>1.50811</v>
+        <v>1.46075</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.28689</v>
+        <v>1.38389</v>
       </c>
       <c r="C56" t="n">
-        <v>2.03929</v>
+        <v>1.58763</v>
       </c>
       <c r="D56" t="n">
-        <v>1.58154</v>
+        <v>1.52182</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.37463</v>
+        <v>1.41133</v>
       </c>
       <c r="C57" t="n">
-        <v>2.29363</v>
+        <v>1.67572</v>
       </c>
       <c r="D57" t="n">
-        <v>1.66256</v>
+        <v>1.60162</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.44486</v>
+        <v>1.38872</v>
       </c>
       <c r="C58" t="n">
-        <v>2.3936</v>
+        <v>1.69173</v>
       </c>
       <c r="D58" t="n">
-        <v>1.67404</v>
+        <v>1.70164</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.48571</v>
+        <v>1.48711</v>
       </c>
       <c r="C59" t="n">
-        <v>2.42402</v>
+        <v>1.8205</v>
       </c>
       <c r="D59" t="n">
-        <v>1.74889</v>
+        <v>1.73967</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.53243</v>
+        <v>1.54853</v>
       </c>
       <c r="C60" t="n">
-        <v>2.26685</v>
+        <v>1.83647</v>
       </c>
       <c r="D60" t="n">
-        <v>1.82002</v>
+        <v>1.79757</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.56745</v>
+        <v>1.60912</v>
       </c>
       <c r="C61" t="n">
-        <v>2.58628</v>
+        <v>1.88955</v>
       </c>
       <c r="D61" t="n">
-        <v>1.88235</v>
+        <v>1.84421</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.54305</v>
+        <v>1.58923</v>
       </c>
       <c r="C62" t="n">
-        <v>2.41583</v>
+        <v>1.72759</v>
       </c>
       <c r="D62" t="n">
-        <v>1.9086</v>
+        <v>1.88918</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.57721</v>
+        <v>1.64638</v>
       </c>
       <c r="C63" t="n">
-        <v>2.47222</v>
+        <v>1.832</v>
       </c>
       <c r="D63" t="n">
-        <v>1.9715</v>
+        <v>1.98488</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.66006</v>
+        <v>1.62173</v>
       </c>
       <c r="C64" t="n">
-        <v>2.96392</v>
+        <v>2.03271</v>
       </c>
       <c r="D64" t="n">
-        <v>2.1732</v>
+        <v>2.17436</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.74466</v>
+        <v>1.72853</v>
       </c>
       <c r="C65" t="n">
-        <v>3.07395</v>
+        <v>2.17989</v>
       </c>
       <c r="D65" t="n">
-        <v>2.20512</v>
+        <v>2.26543</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.71868</v>
+        <v>1.75748</v>
       </c>
       <c r="C66" t="n">
-        <v>3.03402</v>
+        <v>2.21009</v>
       </c>
       <c r="D66" t="n">
-        <v>2.90508</v>
+        <v>2.34862</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>2.06949</v>
+        <v>1.80366</v>
       </c>
       <c r="C67" t="n">
-        <v>3.64442</v>
+        <v>2.16419</v>
       </c>
       <c r="D67" t="n">
-        <v>3.20484</v>
+        <v>2.36892</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.04872</v>
+        <v>1.78189</v>
       </c>
       <c r="C68" t="n">
-        <v>3.80659</v>
+        <v>2.18326</v>
       </c>
       <c r="D68" t="n">
-        <v>2.94371</v>
+        <v>2.45106</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.06141</v>
+        <v>1.89398</v>
       </c>
       <c r="C69" t="n">
-        <v>3.80816</v>
+        <v>2.2035</v>
       </c>
       <c r="D69" t="n">
-        <v>3.09509</v>
+        <v>2.46435</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.30091</v>
+        <v>1.89125</v>
       </c>
       <c r="C70" t="n">
-        <v>4.0288</v>
+        <v>2.38366</v>
       </c>
       <c r="D70" t="n">
-        <v>3.16475</v>
+        <v>2.62626</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.26534</v>
+        <v>2.07128</v>
       </c>
       <c r="C71" t="n">
-        <v>4.11424</v>
+        <v>2.39112</v>
       </c>
       <c r="D71" t="n">
-        <v>3.25658</v>
+        <v>2.67306</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.2841</v>
+        <v>2.11872</v>
       </c>
       <c r="C72" t="n">
-        <v>4.06268</v>
+        <v>2.40916</v>
       </c>
       <c r="D72" t="n">
-        <v>3.23094</v>
+        <v>2.66436</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.25966</v>
+        <v>2.01414</v>
       </c>
       <c r="C73" t="n">
-        <v>4.07373</v>
+        <v>2.27415</v>
       </c>
       <c r="D73" t="n">
-        <v>3.23813</v>
+        <v>2.80881</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.31144</v>
+        <v>2.03249</v>
       </c>
       <c r="C74" t="n">
-        <v>4.17052</v>
+        <v>2.35236</v>
       </c>
       <c r="D74" t="n">
-        <v>3.26887</v>
+        <v>2.75436</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.32525</v>
+        <v>2.05536</v>
       </c>
       <c r="C75" t="n">
-        <v>4.28549</v>
+        <v>2.42614</v>
       </c>
       <c r="D75" t="n">
-        <v>3.41837</v>
+        <v>2.75876</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.37028</v>
+        <v>2.08918</v>
       </c>
       <c r="C76" t="n">
-        <v>4.26528</v>
+        <v>2.42499</v>
       </c>
       <c r="D76" t="n">
-        <v>3.49091</v>
+        <v>2.80893</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.4569</v>
+        <v>2.1154</v>
       </c>
       <c r="C77" t="n">
-        <v>4.32206</v>
+        <v>2.45437</v>
       </c>
       <c r="D77" t="n">
-        <v>3.54881</v>
+        <v>2.84741</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.48181</v>
+        <v>2.13844</v>
       </c>
       <c r="C78" t="n">
-        <v>4.60588</v>
+        <v>2.57509</v>
       </c>
       <c r="D78" t="n">
-        <v>3.7064</v>
+        <v>3.04505</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.50073</v>
+        <v>2.19719</v>
       </c>
       <c r="C79" t="n">
-        <v>4.61731</v>
+        <v>2.63461</v>
       </c>
       <c r="D79" t="n">
-        <v>3.6923</v>
+        <v>3.04414</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.54288</v>
+        <v>2.24438</v>
       </c>
       <c r="C80" t="n">
-        <v>4.54067</v>
+        <v>2.72159</v>
       </c>
       <c r="D80" t="n">
-        <v>3.72464</v>
+        <v>3.26714</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.48755</v>
+        <v>2.30883</v>
       </c>
       <c r="C81" t="n">
-        <v>4.63975</v>
+        <v>2.6893</v>
       </c>
       <c r="D81" t="n">
-        <v>3.87255</v>
+        <v>3.27977</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.56691</v>
+        <v>2.23796</v>
       </c>
       <c r="C82" t="n">
-        <v>4.66721</v>
+        <v>2.73895</v>
       </c>
       <c r="D82" t="n">
-        <v>3.86311</v>
+        <v>3.29838</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.53574</v>
+        <v>2.3323</v>
       </c>
       <c r="C83" t="n">
-        <v>4.48517</v>
+        <v>2.77792</v>
       </c>
       <c r="D83" t="n">
-        <v>3.79568</v>
+        <v>3.43159</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.64695</v>
+        <v>2.44921</v>
       </c>
       <c r="C84" t="n">
-        <v>4.55798</v>
+        <v>2.83925</v>
       </c>
       <c r="D84" t="n">
-        <v>3.89173</v>
+        <v>3.31814</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.65941</v>
+        <v>2.45676</v>
       </c>
       <c r="C85" t="n">
-        <v>4.6449</v>
+        <v>2.89451</v>
       </c>
       <c r="D85" t="n">
-        <v>3.92096</v>
+        <v>3.53753</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.70987</v>
+        <v>2.49884</v>
       </c>
       <c r="C86" t="n">
-        <v>4.91084</v>
+        <v>2.87123</v>
       </c>
       <c r="D86" t="n">
-        <v>3.94801</v>
+        <v>3.37178</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.00341</v>
+        <v>2.52296</v>
       </c>
       <c r="C87" t="n">
-        <v>4.92784</v>
+        <v>2.89995</v>
       </c>
       <c r="D87" t="n">
-        <v>4.28148</v>
+        <v>3.55444</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.7202</v>
+        <v>2.51871</v>
       </c>
       <c r="C88" t="n">
-        <v>4.81225</v>
+        <v>2.9468</v>
       </c>
       <c r="D88" t="n">
-        <v>3.94177</v>
+        <v>3.56119</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.74256</v>
+        <v>2.55184</v>
       </c>
       <c r="C89" t="n">
-        <v>4.83281</v>
+        <v>2.94368</v>
       </c>
       <c r="D89" t="n">
-        <v>3.99609</v>
+        <v>3.61457</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.90985</v>
+        <v>2.57934</v>
       </c>
       <c r="C90" t="n">
-        <v>4.77737</v>
+        <v>2.97946</v>
       </c>
       <c r="D90" t="n">
-        <v>4.10091</v>
+        <v>3.77288</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.70199</v>
+        <v>2.67229</v>
       </c>
       <c r="C91" t="n">
-        <v>4.86806</v>
+        <v>3.06372</v>
       </c>
       <c r="D91" t="n">
-        <v>4.03006</v>
+        <v>3.52456</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.71065</v>
+        <v>2.63714</v>
       </c>
       <c r="C92" t="n">
-        <v>4.97572</v>
+        <v>3.11053</v>
       </c>
       <c r="D92" t="n">
-        <v>4.3197</v>
+        <v>3.69946</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.84053</v>
+        <v>2.69161</v>
       </c>
       <c r="C93" t="n">
-        <v>5.0387</v>
+        <v>3.12736</v>
       </c>
       <c r="D93" t="n">
-        <v>4.24746</v>
+        <v>3.77456</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.82513</v>
+        <v>2.58859</v>
       </c>
       <c r="C94" t="n">
-        <v>5.07002</v>
+        <v>3.11529</v>
       </c>
       <c r="D94" t="n">
-        <v>4.32542</v>
+        <v>3.87975</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.88018</v>
+        <v>2.62733</v>
       </c>
       <c r="C95" t="n">
-        <v>5.08833</v>
+        <v>3.17003</v>
       </c>
       <c r="D95" t="n">
-        <v>4.30466</v>
+        <v>3.90896</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.87434</v>
+        <v>2.65605</v>
       </c>
       <c r="C96" t="n">
-        <v>5.14931</v>
+        <v>3.24935</v>
       </c>
       <c r="D96" t="n">
-        <v>4.55639</v>
+        <v>3.95468</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.94677</v>
+        <v>2.74925</v>
       </c>
       <c r="C97" t="n">
-        <v>5.21613</v>
+        <v>3.2542</v>
       </c>
       <c r="D97" t="n">
-        <v>4.4324</v>
+        <v>3.98289</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.11889</v>
+        <v>2.80149</v>
       </c>
       <c r="C98" t="n">
-        <v>5.19655</v>
+        <v>3.33928</v>
       </c>
       <c r="D98" t="n">
-        <v>4.33351</v>
+        <v>4.01017</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.07783</v>
+        <v>2.85044</v>
       </c>
       <c r="C99" t="n">
-        <v>5.37369</v>
+        <v>3.36825</v>
       </c>
       <c r="D99" t="n">
-        <v>4.56858</v>
+        <v>4.0203</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.40746</v>
+        <v>2.87227</v>
       </c>
       <c r="C100" t="n">
-        <v>5.80963</v>
+        <v>3.38448</v>
       </c>
       <c r="D100" t="n">
-        <v>4.98215</v>
+        <v>4.09824</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.32853</v>
+        <v>2.8404</v>
       </c>
       <c r="C101" t="n">
-        <v>5.67322</v>
+        <v>3.36198</v>
       </c>
       <c r="D101" t="n">
-        <v>5.05928</v>
+        <v>4.14811</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.47819</v>
+        <v>2.88142</v>
       </c>
       <c r="C102" t="n">
-        <v>5.78877</v>
+        <v>3.46322</v>
       </c>
       <c r="D102" t="n">
-        <v>5.00374</v>
+        <v>4.20949</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.55298</v>
+        <v>2.91873</v>
       </c>
       <c r="C103" t="n">
-        <v>5.82493</v>
+        <v>3.44273</v>
       </c>
       <c r="D103" t="n">
-        <v>4.98048</v>
+        <v>4.23058</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.57374</v>
+        <v>2.99172</v>
       </c>
       <c r="C104" t="n">
-        <v>5.8075</v>
+        <v>3.53933</v>
       </c>
       <c r="D104" t="n">
-        <v>4.75805</v>
+        <v>4.20346</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.4297</v>
+        <v>2.9706</v>
       </c>
       <c r="C105" t="n">
-        <v>5.89057</v>
+        <v>3.5657</v>
       </c>
       <c r="D105" t="n">
-        <v>4.92781</v>
+        <v>4.26975</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.44881</v>
+        <v>2.9881</v>
       </c>
       <c r="C106" t="n">
-        <v>6.04238</v>
+        <v>3.51025</v>
       </c>
       <c r="D106" t="n">
-        <v>4.91857</v>
+        <v>4.24964</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.5189</v>
+        <v>3.1248</v>
       </c>
       <c r="C107" t="n">
-        <v>6.33066</v>
+        <v>3.59538</v>
       </c>
       <c r="D107" t="n">
-        <v>5.28983</v>
+        <v>4.49914</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.77946</v>
+        <v>3.06621</v>
       </c>
       <c r="C108" t="n">
-        <v>6.19155</v>
+        <v>3.65865</v>
       </c>
       <c r="D108" t="n">
-        <v>5.34228</v>
+        <v>4.48646</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.61144</v>
+        <v>3.11436</v>
       </c>
       <c r="C109" t="n">
-        <v>6.55384</v>
+        <v>3.66314</v>
       </c>
       <c r="D109" t="n">
-        <v>5.47819</v>
+        <v>4.50126</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.67907</v>
+        <v>3.07472</v>
       </c>
       <c r="C110" t="n">
-        <v>6.36973</v>
+        <v>3.7102</v>
       </c>
       <c r="D110" t="n">
-        <v>5.52615</v>
+        <v>4.59309</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.05315</v>
+        <v>3.16547</v>
       </c>
       <c r="C111" t="n">
-        <v>6.2536</v>
+        <v>3.78573</v>
       </c>
       <c r="D111" t="n">
-        <v>5.32804</v>
+        <v>4.6209</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.02741</v>
+        <v>3.36746</v>
       </c>
       <c r="C112" t="n">
-        <v>6.92728</v>
+        <v>3.83077</v>
       </c>
       <c r="D112" t="n">
-        <v>5.89528</v>
+        <v>4.7579</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.20872</v>
+        <v>3.37743</v>
       </c>
       <c r="C113" t="n">
-        <v>7.02768</v>
+        <v>3.88</v>
       </c>
       <c r="D113" t="n">
-        <v>5.78115</v>
+        <v>4.70642</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.28982</v>
+        <v>3.49761</v>
       </c>
       <c r="C114" t="n">
-        <v>7.14646</v>
+        <v>3.97701</v>
       </c>
       <c r="D114" t="n">
-        <v>6.13953</v>
+        <v>4.84283</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.48735</v>
+        <v>3.57376</v>
       </c>
       <c r="C115" t="n">
-        <v>7.26543</v>
+        <v>3.97348</v>
       </c>
       <c r="D115" t="n">
-        <v>6.22282</v>
+        <v>4.92756</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.47847</v>
+        <v>3.62344</v>
       </c>
       <c r="C116" t="n">
-        <v>7.28001</v>
+        <v>4.1139</v>
       </c>
       <c r="D116" t="n">
-        <v>6.59253</v>
+        <v>4.99949</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.64429</v>
+        <v>3.69506</v>
       </c>
       <c r="C117" t="n">
-        <v>7.38233</v>
+        <v>4.1476</v>
       </c>
       <c r="D117" t="n">
-        <v>6.59362</v>
+        <v>4.98845</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.18033</v>
+        <v>3.56806</v>
       </c>
       <c r="C118" t="n">
-        <v>7.02779</v>
+        <v>4.07352</v>
       </c>
       <c r="D118" t="n">
-        <v>6.06267</v>
+        <v>4.96048</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.46073</v>
+        <v>3.54338</v>
       </c>
       <c r="C119" t="n">
-        <v>7.45004</v>
+        <v>4.34188</v>
       </c>
       <c r="D119" t="n">
-        <v>6.11768</v>
+        <v>5.08934</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.411408</v>
+        <v>0.398335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.857681</v>
+        <v>0.5559730000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.533805</v>
+        <v>0.500068</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.424919</v>
+        <v>0.409814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.829745</v>
+        <v>0.568303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.542115</v>
+        <v>0.518524</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.44321</v>
+        <v>0.421316</v>
       </c>
       <c r="C4" t="n">
-        <v>0.840805</v>
+        <v>0.58147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.540475</v>
+        <v>0.5124880000000001</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.432533</v>
+        <v>0.415135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.83136</v>
+        <v>0.577523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.556161</v>
+        <v>0.518443</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.433022</v>
+        <v>0.422743</v>
       </c>
       <c r="C6" t="n">
-        <v>0.856107</v>
+        <v>0.585753</v>
       </c>
       <c r="D6" t="n">
-        <v>0.584538</v>
+        <v>0.524037</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.487978</v>
+        <v>0.424355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.999355</v>
+        <v>0.568308</v>
       </c>
       <c r="D7" t="n">
-        <v>0.597994</v>
+        <v>0.522899</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.443478</v>
+        <v>0.42424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.877952</v>
+        <v>0.592324</v>
       </c>
       <c r="D8" t="n">
-        <v>0.553167</v>
+        <v>0.540019</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.457336</v>
+        <v>0.43045</v>
       </c>
       <c r="C9" t="n">
-        <v>0.875808</v>
+        <v>0.604132</v>
       </c>
       <c r="D9" t="n">
-        <v>0.560651</v>
+        <v>0.536316</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.471071</v>
+        <v>0.430382</v>
       </c>
       <c r="C10" t="n">
-        <v>0.866379</v>
+        <v>0.616897</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5738799999999999</v>
+        <v>0.531181</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.446263</v>
+        <v>0.430282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.892855</v>
+        <v>0.6003270000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.563228</v>
+        <v>0.550103</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.437686</v>
+        <v>0.432164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.872586</v>
+        <v>0.600836</v>
       </c>
       <c r="D12" t="n">
-        <v>0.584762</v>
+        <v>0.549573</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.442821</v>
+        <v>0.424895</v>
       </c>
       <c r="C13" t="n">
-        <v>0.892504</v>
+        <v>0.607676</v>
       </c>
       <c r="D13" t="n">
-        <v>0.607177</v>
+        <v>0.560701</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.473213</v>
+        <v>0.429787</v>
       </c>
       <c r="C14" t="n">
-        <v>0.891499</v>
+        <v>0.614564</v>
       </c>
       <c r="D14" t="n">
-        <v>0.597985</v>
+        <v>0.555337</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.485459</v>
+        <v>0.426475</v>
       </c>
       <c r="C15" t="n">
-        <v>0.925256</v>
+        <v>0.607729</v>
       </c>
       <c r="D15" t="n">
-        <v>0.61938</v>
+        <v>0.568323</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.475878</v>
+        <v>0.435581</v>
       </c>
       <c r="C16" t="n">
-        <v>0.93852</v>
+        <v>0.626591</v>
       </c>
       <c r="D16" t="n">
-        <v>0.607454</v>
+        <v>0.570932</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5169820000000001</v>
+        <v>0.461027</v>
       </c>
       <c r="C17" t="n">
-        <v>0.957035</v>
+        <v>0.641785</v>
       </c>
       <c r="D17" t="n">
-        <v>0.638526</v>
+        <v>0.575924</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.489125</v>
+        <v>0.461473</v>
       </c>
       <c r="C18" t="n">
-        <v>0.943302</v>
+        <v>0.636522</v>
       </c>
       <c r="D18" t="n">
-        <v>0.625964</v>
+        <v>0.58435</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.493419</v>
+        <v>0.459837</v>
       </c>
       <c r="C19" t="n">
-        <v>0.930266</v>
+        <v>0.652085</v>
       </c>
       <c r="D19" t="n">
-        <v>0.628627</v>
+        <v>0.586488</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.502861</v>
+        <v>0.474739</v>
       </c>
       <c r="C20" t="n">
-        <v>0.993501</v>
+        <v>0.6461</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6405419999999999</v>
+        <v>0.591519</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.497603</v>
+        <v>0.464154</v>
       </c>
       <c r="C21" t="n">
-        <v>0.973384</v>
+        <v>0.6524990000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6453950000000001</v>
+        <v>0.577304</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.549215</v>
+        <v>0.47477</v>
       </c>
       <c r="C22" t="n">
-        <v>1.09514</v>
+        <v>0.665269</v>
       </c>
       <c r="D22" t="n">
-        <v>0.689481</v>
+        <v>0.590363</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6752359999999999</v>
+        <v>0.460696</v>
       </c>
       <c r="C23" t="n">
-        <v>1.23768</v>
+        <v>0.685079</v>
       </c>
       <c r="D23" t="n">
-        <v>0.728936</v>
+        <v>0.598701</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.630478</v>
+        <v>0.462562</v>
       </c>
       <c r="C24" t="n">
-        <v>1.09937</v>
+        <v>0.690762</v>
       </c>
       <c r="D24" t="n">
-        <v>0.712518</v>
+        <v>0.599567</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.554018</v>
+        <v>0.478941</v>
       </c>
       <c r="C25" t="n">
-        <v>1.08967</v>
+        <v>0.7029339999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.764561</v>
+        <v>0.600711</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.61749</v>
+        <v>0.491037</v>
       </c>
       <c r="C26" t="n">
-        <v>1.10609</v>
+        <v>0.64435</v>
       </c>
       <c r="D26" t="n">
-        <v>0.774015</v>
+        <v>0.597392</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6183149999999999</v>
+        <v>0.469809</v>
       </c>
       <c r="C27" t="n">
-        <v>1.09132</v>
+        <v>0.666322</v>
       </c>
       <c r="D27" t="n">
-        <v>0.78061</v>
+        <v>0.613213</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.594757</v>
+        <v>0.482513</v>
       </c>
       <c r="C28" t="n">
-        <v>1.14403</v>
+        <v>0.667727</v>
       </c>
       <c r="D28" t="n">
-        <v>0.78868</v>
+        <v>0.612719</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.582163</v>
+        <v>0.475165</v>
       </c>
       <c r="C29" t="n">
-        <v>1.08041</v>
+        <v>0.658999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.790695</v>
+        <v>0.623125</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.604513</v>
+        <v>0.475312</v>
       </c>
       <c r="C30" t="n">
-        <v>1.18211</v>
+        <v>0.676105</v>
       </c>
       <c r="D30" t="n">
-        <v>0.790318</v>
+        <v>0.629746</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5932500000000001</v>
+        <v>0.492691</v>
       </c>
       <c r="C31" t="n">
-        <v>1.18618</v>
+        <v>0.6923589999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.843645</v>
+        <v>0.640456</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.612704</v>
+        <v>0.517727</v>
       </c>
       <c r="C32" t="n">
-        <v>1.23346</v>
+        <v>0.696058</v>
       </c>
       <c r="D32" t="n">
-        <v>0.861359</v>
+        <v>0.655365</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6674600000000001</v>
+        <v>0.556419</v>
       </c>
       <c r="C33" t="n">
-        <v>1.31373</v>
+        <v>0.726477</v>
       </c>
       <c r="D33" t="n">
-        <v>0.905637</v>
+        <v>0.680827</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.676277</v>
+        <v>0.5329930000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>1.3258</v>
+        <v>0.707882</v>
       </c>
       <c r="D34" t="n">
-        <v>0.880568</v>
+        <v>0.663306</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.675783</v>
+        <v>0.552005</v>
       </c>
       <c r="C35" t="n">
-        <v>1.48864</v>
+        <v>0.745039</v>
       </c>
       <c r="D35" t="n">
-        <v>0.899857</v>
+        <v>0.691005</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6986</v>
+        <v>0.5582240000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>1.42782</v>
+        <v>0.771566</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9465</v>
+        <v>0.721877</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.740066</v>
+        <v>0.586032</v>
       </c>
       <c r="C37" t="n">
-        <v>1.39708</v>
+        <v>0.8046180000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.93</v>
+        <v>0.723316</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.695894</v>
+        <v>0.569214</v>
       </c>
       <c r="C38" t="n">
-        <v>1.65446</v>
+        <v>0.795556</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9825120000000001</v>
+        <v>0.757497</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.705853</v>
+        <v>0.596323</v>
       </c>
       <c r="C39" t="n">
-        <v>1.48989</v>
+        <v>0.855356</v>
       </c>
       <c r="D39" t="n">
-        <v>0.950368</v>
+        <v>0.780836</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.698358</v>
+        <v>0.610317</v>
       </c>
       <c r="C40" t="n">
-        <v>1.46983</v>
+        <v>0.8180809999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0166</v>
+        <v>0.823002</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.769593</v>
+        <v>0.6338240000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>1.68862</v>
+        <v>0.833264</v>
       </c>
       <c r="D41" t="n">
-        <v>1.09376</v>
+        <v>0.853902</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7780049999999999</v>
+        <v>0.648543</v>
       </c>
       <c r="C42" t="n">
-        <v>1.73744</v>
+        <v>0.854849</v>
       </c>
       <c r="D42" t="n">
-        <v>1.09918</v>
+        <v>0.8512690000000001</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.796767</v>
+        <v>0.643971</v>
       </c>
       <c r="C43" t="n">
-        <v>1.87473</v>
+        <v>0.902603</v>
       </c>
       <c r="D43" t="n">
-        <v>1.1325</v>
+        <v>0.924903</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.865032</v>
+        <v>0.683611</v>
       </c>
       <c r="C44" t="n">
-        <v>2.1131</v>
+        <v>0.9220660000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>1.18071</v>
+        <v>0.913507</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.851044</v>
+        <v>0.705033</v>
       </c>
       <c r="C45" t="n">
-        <v>1.89345</v>
+        <v>0.962147</v>
       </c>
       <c r="D45" t="n">
-        <v>1.22142</v>
+        <v>0.959974</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.04115</v>
+        <v>0.827443</v>
       </c>
       <c r="C46" t="n">
-        <v>1.82921</v>
+        <v>0.988228</v>
       </c>
       <c r="D46" t="n">
-        <v>1.38478</v>
+        <v>0.983483</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.16739</v>
+        <v>0.817988</v>
       </c>
       <c r="C47" t="n">
-        <v>2.52397</v>
+        <v>1.04484</v>
       </c>
       <c r="D47" t="n">
-        <v>1.45538</v>
+        <v>1.00022</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.13384</v>
+        <v>0.869207</v>
       </c>
       <c r="C48" t="n">
-        <v>2.25201</v>
+        <v>1.12707</v>
       </c>
       <c r="D48" t="n">
-        <v>1.45034</v>
+        <v>1.05712</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.19026</v>
+        <v>0.880975</v>
       </c>
       <c r="C49" t="n">
-        <v>2.61209</v>
+        <v>1.13148</v>
       </c>
       <c r="D49" t="n">
-        <v>1.59096</v>
+        <v>1.09332</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.20578</v>
+        <v>0.899345</v>
       </c>
       <c r="C50" t="n">
-        <v>2.70847</v>
+        <v>1.16665</v>
       </c>
       <c r="D50" t="n">
-        <v>1.70462</v>
+        <v>1.13833</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.32976</v>
+        <v>0.930488</v>
       </c>
       <c r="C51" t="n">
-        <v>2.90806</v>
+        <v>1.25037</v>
       </c>
       <c r="D51" t="n">
-        <v>1.75441</v>
+        <v>1.18237</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.31372</v>
+        <v>0.962593</v>
       </c>
       <c r="C52" t="n">
-        <v>3.10447</v>
+        <v>1.31663</v>
       </c>
       <c r="D52" t="n">
-        <v>1.94217</v>
+        <v>1.23886</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.37624</v>
+        <v>0.973098</v>
       </c>
       <c r="C53" t="n">
-        <v>3.11986</v>
+        <v>1.36786</v>
       </c>
       <c r="D53" t="n">
-        <v>2.11753</v>
+        <v>1.2694</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.40056</v>
+        <v>1.00537</v>
       </c>
       <c r="C54" t="n">
-        <v>3.3605</v>
+        <v>1.44758</v>
       </c>
       <c r="D54" t="n">
-        <v>2.1333</v>
+        <v>1.3882</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.53081</v>
+        <v>1.03125</v>
       </c>
       <c r="C55" t="n">
-        <v>3.35755</v>
+        <v>1.39062</v>
       </c>
       <c r="D55" t="n">
-        <v>2.33163</v>
+        <v>1.39622</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.5163</v>
+        <v>1.06035</v>
       </c>
       <c r="C56" t="n">
-        <v>3.4612</v>
+        <v>1.51045</v>
       </c>
       <c r="D56" t="n">
-        <v>2.38081</v>
+        <v>1.42178</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.67726</v>
+        <v>1.08132</v>
       </c>
       <c r="C57" t="n">
-        <v>3.52246</v>
+        <v>1.53415</v>
       </c>
       <c r="D57" t="n">
-        <v>2.35325</v>
+        <v>1.47092</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.60356</v>
+        <v>1.09768</v>
       </c>
       <c r="C58" t="n">
-        <v>3.52813</v>
+        <v>1.59189</v>
       </c>
       <c r="D58" t="n">
-        <v>2.69209</v>
+        <v>1.51898</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.64342</v>
+        <v>1.1399</v>
       </c>
       <c r="C59" t="n">
-        <v>3.76705</v>
+        <v>1.72201</v>
       </c>
       <c r="D59" t="n">
-        <v>2.6967</v>
+        <v>1.60614</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.84555</v>
+        <v>1.33659</v>
       </c>
       <c r="C60" t="n">
-        <v>3.86989</v>
+        <v>1.66826</v>
       </c>
       <c r="D60" t="n">
-        <v>2.65751</v>
+        <v>1.61204</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.88398</v>
+        <v>1.34217</v>
       </c>
       <c r="C61" t="n">
-        <v>3.81065</v>
+        <v>1.80681</v>
       </c>
       <c r="D61" t="n">
-        <v>2.69507</v>
+        <v>1.71379</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.87697</v>
+        <v>1.41923</v>
       </c>
       <c r="C62" t="n">
-        <v>3.81054</v>
+        <v>1.89862</v>
       </c>
       <c r="D62" t="n">
-        <v>2.8329</v>
+        <v>1.76667</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.96241</v>
+        <v>1.44838</v>
       </c>
       <c r="C63" t="n">
-        <v>4.11869</v>
+        <v>1.88091</v>
       </c>
       <c r="D63" t="n">
-        <v>2.93038</v>
+        <v>1.80116</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.96839</v>
+        <v>1.48186</v>
       </c>
       <c r="C64" t="n">
-        <v>4.15006</v>
+        <v>2.02229</v>
       </c>
       <c r="D64" t="n">
-        <v>2.94446</v>
+        <v>1.89398</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.9416</v>
+        <v>1.48729</v>
       </c>
       <c r="C65" t="n">
-        <v>3.96898</v>
+        <v>1.995</v>
       </c>
       <c r="D65" t="n">
-        <v>2.82385</v>
+        <v>1.95885</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.98666</v>
+        <v>1.53832</v>
       </c>
       <c r="C66" t="n">
-        <v>4.23795</v>
+        <v>2.07613</v>
       </c>
       <c r="D66" t="n">
-        <v>3.00306</v>
+        <v>1.99742</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>2.0684</v>
+        <v>1.57076</v>
       </c>
       <c r="C67" t="n">
-        <v>3.60195</v>
+        <v>2.18035</v>
       </c>
       <c r="D67" t="n">
-        <v>3.06205</v>
+        <v>2.04124</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.03489</v>
+        <v>1.6027</v>
       </c>
       <c r="C68" t="n">
-        <v>4.14986</v>
+        <v>2.13434</v>
       </c>
       <c r="D68" t="n">
-        <v>3.74891</v>
+        <v>2.2479</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.07246</v>
+        <v>1.62345</v>
       </c>
       <c r="C69" t="n">
-        <v>4.13257</v>
+        <v>2.21862</v>
       </c>
       <c r="D69" t="n">
-        <v>3.31565</v>
+        <v>2.31567</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.09212</v>
+        <v>1.70184</v>
       </c>
       <c r="C70" t="n">
-        <v>4.33981</v>
+        <v>2.2329</v>
       </c>
       <c r="D70" t="n">
-        <v>3.2933</v>
+        <v>2.388</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.11762</v>
+        <v>1.75348</v>
       </c>
       <c r="C71" t="n">
-        <v>4.18935</v>
+        <v>2.46287</v>
       </c>
       <c r="D71" t="n">
-        <v>3.30465</v>
+        <v>2.49222</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.10921</v>
+        <v>1.71709</v>
       </c>
       <c r="C72" t="n">
-        <v>4.37132</v>
+        <v>2.37002</v>
       </c>
       <c r="D72" t="n">
-        <v>3.54579</v>
+        <v>2.68377</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.1808</v>
+        <v>1.88795</v>
       </c>
       <c r="C73" t="n">
-        <v>4.4846</v>
+        <v>2.62697</v>
       </c>
       <c r="D73" t="n">
-        <v>3.50417</v>
+        <v>2.70278</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.43894</v>
+        <v>2.052</v>
       </c>
       <c r="C74" t="n">
-        <v>4.4778</v>
+        <v>2.77902</v>
       </c>
       <c r="D74" t="n">
-        <v>3.45698</v>
+        <v>2.80956</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.33818</v>
+        <v>2.10082</v>
       </c>
       <c r="C75" t="n">
-        <v>4.60123</v>
+        <v>2.67544</v>
       </c>
       <c r="D75" t="n">
-        <v>3.51707</v>
+        <v>2.79634</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.39927</v>
+        <v>2.05884</v>
       </c>
       <c r="C76" t="n">
-        <v>4.78206</v>
+        <v>2.61075</v>
       </c>
       <c r="D76" t="n">
-        <v>3.6412</v>
+        <v>2.91317</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.45171</v>
+        <v>2.15734</v>
       </c>
       <c r="C77" t="n">
-        <v>4.84818</v>
+        <v>2.87558</v>
       </c>
       <c r="D77" t="n">
-        <v>3.69074</v>
+        <v>2.93611</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.46189</v>
+        <v>2.11661</v>
       </c>
       <c r="C78" t="n">
-        <v>5.13747</v>
+        <v>2.79007</v>
       </c>
       <c r="D78" t="n">
-        <v>3.60829</v>
+        <v>2.86237</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.44988</v>
+        <v>2.077</v>
       </c>
       <c r="C79" t="n">
-        <v>4.94849</v>
+        <v>2.86849</v>
       </c>
       <c r="D79" t="n">
-        <v>3.66352</v>
+        <v>2.91783</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.47872</v>
+        <v>2.13269</v>
       </c>
       <c r="C80" t="n">
-        <v>5.09592</v>
+        <v>2.9693</v>
       </c>
       <c r="D80" t="n">
-        <v>3.72091</v>
+        <v>2.95744</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.54934</v>
+        <v>2.1625</v>
       </c>
       <c r="C81" t="n">
-        <v>5.18438</v>
+        <v>3.19704</v>
       </c>
       <c r="D81" t="n">
-        <v>3.77608</v>
+        <v>3.19368</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.55802</v>
+        <v>2.21032</v>
       </c>
       <c r="C82" t="n">
-        <v>5.20099</v>
+        <v>3.19839</v>
       </c>
       <c r="D82" t="n">
-        <v>3.78452</v>
+        <v>3.33966</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.54459</v>
+        <v>2.30994</v>
       </c>
       <c r="C83" t="n">
-        <v>4.99847</v>
+        <v>3.02418</v>
       </c>
       <c r="D83" t="n">
-        <v>4.01058</v>
+        <v>3.36377</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.62736</v>
+        <v>2.30362</v>
       </c>
       <c r="C84" t="n">
-        <v>5.10802</v>
+        <v>3.20864</v>
       </c>
       <c r="D84" t="n">
-        <v>3.93689</v>
+        <v>3.41476</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.5622</v>
+        <v>2.37247</v>
       </c>
       <c r="C85" t="n">
-        <v>5.04146</v>
+        <v>3.15908</v>
       </c>
       <c r="D85" t="n">
-        <v>3.98348</v>
+        <v>3.49788</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.59895</v>
+        <v>2.36744</v>
       </c>
       <c r="C86" t="n">
-        <v>5.11208</v>
+        <v>3.23972</v>
       </c>
       <c r="D86" t="n">
-        <v>4.01815</v>
+        <v>3.54141</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.59166</v>
+        <v>2.39452</v>
       </c>
       <c r="C87" t="n">
-        <v>5.12231</v>
+        <v>3.40787</v>
       </c>
       <c r="D87" t="n">
-        <v>4.06712</v>
+        <v>3.48905</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.6393</v>
+        <v>2.36782</v>
       </c>
       <c r="C88" t="n">
-        <v>5.2752</v>
+        <v>3.48057</v>
       </c>
       <c r="D88" t="n">
-        <v>4.07959</v>
+        <v>3.63321</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.65877</v>
+        <v>2.52269</v>
       </c>
       <c r="C89" t="n">
-        <v>5.22974</v>
+        <v>3.45238</v>
       </c>
       <c r="D89" t="n">
-        <v>3.94063</v>
+        <v>3.47961</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.6787</v>
+        <v>2.51565</v>
       </c>
       <c r="C90" t="n">
-        <v>5.28623</v>
+        <v>3.60468</v>
       </c>
       <c r="D90" t="n">
-        <v>3.87423</v>
+        <v>3.77635</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.60084</v>
+        <v>2.61053</v>
       </c>
       <c r="C91" t="n">
-        <v>4.62162</v>
+        <v>3.60001</v>
       </c>
       <c r="D91" t="n">
-        <v>3.75599</v>
+        <v>3.63895</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.58015</v>
+        <v>2.66879</v>
       </c>
       <c r="C92" t="n">
-        <v>4.77903</v>
+        <v>3.61654</v>
       </c>
       <c r="D92" t="n">
-        <v>3.86933</v>
+        <v>3.69693</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.59283</v>
+        <v>2.57361</v>
       </c>
       <c r="C93" t="n">
-        <v>4.93952</v>
+        <v>3.74314</v>
       </c>
       <c r="D93" t="n">
-        <v>3.85375</v>
+        <v>3.74475</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.61285</v>
+        <v>2.6487</v>
       </c>
       <c r="C94" t="n">
-        <v>4.97568</v>
+        <v>3.88496</v>
       </c>
       <c r="D94" t="n">
-        <v>3.91729</v>
+        <v>3.8555</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.69241</v>
+        <v>2.69458</v>
       </c>
       <c r="C95" t="n">
-        <v>5.09334</v>
+        <v>3.93573</v>
       </c>
       <c r="D95" t="n">
-        <v>3.89468</v>
+        <v>3.89795</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.67877</v>
+        <v>2.65982</v>
       </c>
       <c r="C96" t="n">
-        <v>5.24619</v>
+        <v>4.04942</v>
       </c>
       <c r="D96" t="n">
-        <v>3.99032</v>
+        <v>3.87935</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.66046</v>
+        <v>2.68194</v>
       </c>
       <c r="C97" t="n">
-        <v>4.79611</v>
+        <v>3.56899</v>
       </c>
       <c r="D97" t="n">
-        <v>4.07979</v>
+        <v>3.99158</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.67402</v>
+        <v>2.68374</v>
       </c>
       <c r="C98" t="n">
-        <v>4.92459</v>
+        <v>3.57618</v>
       </c>
       <c r="D98" t="n">
-        <v>4.02881</v>
+        <v>4.05779</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.67166</v>
+        <v>2.67412</v>
       </c>
       <c r="C99" t="n">
-        <v>4.95328</v>
+        <v>3.66689</v>
       </c>
       <c r="D99" t="n">
-        <v>4.0736</v>
+        <v>3.95612</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.73458</v>
+        <v>2.69594</v>
       </c>
       <c r="C100" t="n">
-        <v>5.01032</v>
+        <v>3.75248</v>
       </c>
       <c r="D100" t="n">
-        <v>4.11841</v>
+        <v>4.0118</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.74072</v>
+        <v>2.67683</v>
       </c>
       <c r="C101" t="n">
-        <v>4.98398</v>
+        <v>3.82988</v>
       </c>
       <c r="D101" t="n">
-        <v>4.03195</v>
+        <v>4.10279</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.72666</v>
+        <v>2.78075</v>
       </c>
       <c r="C102" t="n">
-        <v>5.13459</v>
+        <v>3.86337</v>
       </c>
       <c r="D102" t="n">
-        <v>4.07337</v>
+        <v>4.05624</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.84247</v>
+        <v>2.93504</v>
       </c>
       <c r="C103" t="n">
-        <v>5.14548</v>
+        <v>3.98906</v>
       </c>
       <c r="D103" t="n">
-        <v>4.13225</v>
+        <v>4.13884</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.84097</v>
+        <v>2.89466</v>
       </c>
       <c r="C104" t="n">
-        <v>5.21783</v>
+        <v>4.02183</v>
       </c>
       <c r="D104" t="n">
-        <v>4.25711</v>
+        <v>4.19594</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.92649</v>
+        <v>2.91262</v>
       </c>
       <c r="C105" t="n">
-        <v>5.39565</v>
+        <v>4.09979</v>
       </c>
       <c r="D105" t="n">
-        <v>4.25647</v>
+        <v>4.14228</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.90855</v>
+        <v>2.93304</v>
       </c>
       <c r="C106" t="n">
-        <v>5.44292</v>
+        <v>4.27691</v>
       </c>
       <c r="D106" t="n">
-        <v>4.22151</v>
+        <v>4.21353</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.90737</v>
+        <v>2.94119</v>
       </c>
       <c r="C107" t="n">
-        <v>5.45856</v>
+        <v>4.26301</v>
       </c>
       <c r="D107" t="n">
-        <v>4.39336</v>
+        <v>4.23258</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.97703</v>
+        <v>2.95062</v>
       </c>
       <c r="C108" t="n">
-        <v>5.60201</v>
+        <v>4.31117</v>
       </c>
       <c r="D108" t="n">
-        <v>4.26423</v>
+        <v>4.23718</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.04127</v>
+        <v>2.97434</v>
       </c>
       <c r="C109" t="n">
-        <v>5.62744</v>
+        <v>4.47216</v>
       </c>
       <c r="D109" t="n">
-        <v>4.39237</v>
+        <v>4.2629</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.95796</v>
+        <v>3.03092</v>
       </c>
       <c r="C110" t="n">
-        <v>5.77389</v>
+        <v>4.5908</v>
       </c>
       <c r="D110" t="n">
-        <v>4.32692</v>
+        <v>4.34674</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.9879</v>
+        <v>3.06009</v>
       </c>
       <c r="C111" t="n">
-        <v>5.40403</v>
+        <v>4.08425</v>
       </c>
       <c r="D111" t="n">
-        <v>4.54549</v>
+        <v>4.48951</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.02147</v>
+        <v>3.06394</v>
       </c>
       <c r="C112" t="n">
-        <v>5.46991</v>
+        <v>4.14369</v>
       </c>
       <c r="D112" t="n">
-        <v>4.54332</v>
+        <v>4.6022</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.08068</v>
+        <v>3.1447</v>
       </c>
       <c r="C113" t="n">
-        <v>5.52018</v>
+        <v>4.25477</v>
       </c>
       <c r="D113" t="n">
-        <v>4.59695</v>
+        <v>4.63251</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.03941</v>
+        <v>3.17857</v>
       </c>
       <c r="C114" t="n">
-        <v>5.5632</v>
+        <v>4.35232</v>
       </c>
       <c r="D114" t="n">
-        <v>4.64564</v>
+        <v>4.70636</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.06022</v>
+        <v>3.15271</v>
       </c>
       <c r="C115" t="n">
-        <v>5.68514</v>
+        <v>4.38132</v>
       </c>
       <c r="D115" t="n">
-        <v>4.66175</v>
+        <v>4.71227</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.11181</v>
+        <v>3.1631</v>
       </c>
       <c r="C116" t="n">
-        <v>5.7745</v>
+        <v>4.47451</v>
       </c>
       <c r="D116" t="n">
-        <v>4.66688</v>
+        <v>4.75168</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.25222</v>
+        <v>3.34815</v>
       </c>
       <c r="C117" t="n">
-        <v>5.85919</v>
+        <v>4.56834</v>
       </c>
       <c r="D117" t="n">
-        <v>4.7216</v>
+        <v>4.81489</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.3032</v>
+        <v>3.40637</v>
       </c>
       <c r="C118" t="n">
-        <v>6.00856</v>
+        <v>4.70508</v>
       </c>
       <c r="D118" t="n">
-        <v>4.77135</v>
+        <v>4.7897</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.34112</v>
+        <v>3.36494</v>
       </c>
       <c r="C119" t="n">
-        <v>6.12855</v>
+        <v>4.72156</v>
       </c>
       <c r="D119" t="n">
-        <v>4.83693</v>
+        <v>4.90064</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.429202</v>
+        <v>0.404494</v>
       </c>
       <c r="C2" t="n">
-        <v>0.406011</v>
+        <v>0.387217</v>
       </c>
       <c r="D2" t="n">
-        <v>0.400314</v>
+        <v>0.380294</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.43464</v>
+        <v>0.411694</v>
       </c>
       <c r="C3" t="n">
-        <v>0.405975</v>
+        <v>0.396338</v>
       </c>
       <c r="D3" t="n">
-        <v>0.397688</v>
+        <v>0.381939</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.433439</v>
+        <v>0.408961</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410533</v>
+        <v>0.385034</v>
       </c>
       <c r="D4" t="n">
-        <v>0.404713</v>
+        <v>0.38789</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.422817</v>
+        <v>0.422414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.409136</v>
+        <v>0.392707</v>
       </c>
       <c r="D5" t="n">
-        <v>0.404906</v>
+        <v>0.393734</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.420337</v>
+        <v>0.415114</v>
       </c>
       <c r="C6" t="n">
-        <v>0.394906</v>
+        <v>0.387477</v>
       </c>
       <c r="D6" t="n">
-        <v>0.414149</v>
+        <v>0.398963</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.449258</v>
+        <v>0.420928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.389559</v>
+        <v>0.381692</v>
       </c>
       <c r="D7" t="n">
-        <v>0.385628</v>
+        <v>0.377822</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.427894</v>
+        <v>0.420359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.390383</v>
+        <v>0.384135</v>
       </c>
       <c r="D8" t="n">
-        <v>0.390189</v>
+        <v>0.388029</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.428509</v>
+        <v>0.42257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.384805</v>
+        <v>0.383698</v>
       </c>
       <c r="D9" t="n">
-        <v>0.393459</v>
+        <v>0.387764</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.438709</v>
+        <v>0.43784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.393195</v>
+        <v>0.388908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.399829</v>
+        <v>0.390379</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.439308</v>
+        <v>0.439292</v>
       </c>
       <c r="C11" t="n">
-        <v>0.393445</v>
+        <v>0.39746</v>
       </c>
       <c r="D11" t="n">
-        <v>0.397304</v>
+        <v>0.402359</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.453805</v>
+        <v>0.437765</v>
       </c>
       <c r="C12" t="n">
-        <v>0.399345</v>
+        <v>0.390988</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403128</v>
+        <v>0.401842</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.432281</v>
+        <v>0.421271</v>
       </c>
       <c r="C13" t="n">
-        <v>0.393808</v>
+        <v>0.389248</v>
       </c>
       <c r="D13" t="n">
-        <v>0.405281</v>
+        <v>0.398395</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.420243</v>
+        <v>0.416195</v>
       </c>
       <c r="C14" t="n">
-        <v>0.401816</v>
+        <v>0.398344</v>
       </c>
       <c r="D14" t="n">
-        <v>0.415662</v>
+        <v>0.404634</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.424911</v>
+        <v>0.422991</v>
       </c>
       <c r="C15" t="n">
-        <v>0.397749</v>
+        <v>0.388947</v>
       </c>
       <c r="D15" t="n">
-        <v>0.41673</v>
+        <v>0.405716</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.436049</v>
+        <v>0.435028</v>
       </c>
       <c r="C16" t="n">
-        <v>0.397321</v>
+        <v>0.398108</v>
       </c>
       <c r="D16" t="n">
-        <v>0.414554</v>
+        <v>0.419687</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.436443</v>
+        <v>0.431251</v>
       </c>
       <c r="C17" t="n">
-        <v>0.403115</v>
+        <v>0.401935</v>
       </c>
       <c r="D17" t="n">
-        <v>0.421573</v>
+        <v>0.414803</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.445011</v>
+        <v>0.440385</v>
       </c>
       <c r="C18" t="n">
-        <v>0.411363</v>
+        <v>0.394591</v>
       </c>
       <c r="D18" t="n">
-        <v>0.429672</v>
+        <v>0.421383</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.445014</v>
+        <v>0.440498</v>
       </c>
       <c r="C19" t="n">
-        <v>0.410117</v>
+        <v>0.402397</v>
       </c>
       <c r="D19" t="n">
-        <v>0.428486</v>
+        <v>0.428817</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.449004</v>
+        <v>0.449023</v>
       </c>
       <c r="C20" t="n">
-        <v>0.418147</v>
+        <v>0.408414</v>
       </c>
       <c r="D20" t="n">
-        <v>0.430177</v>
+        <v>0.429525</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.455908</v>
+        <v>0.452788</v>
       </c>
       <c r="C21" t="n">
-        <v>0.405608</v>
+        <v>0.404812</v>
       </c>
       <c r="D21" t="n">
-        <v>0.419895</v>
+        <v>0.418425</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.45226</v>
+        <v>0.450911</v>
       </c>
       <c r="C22" t="n">
-        <v>0.418761</v>
+        <v>0.406834</v>
       </c>
       <c r="D22" t="n">
-        <v>0.435395</v>
+        <v>0.426028</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.475517</v>
+        <v>0.471789</v>
       </c>
       <c r="C23" t="n">
-        <v>0.412857</v>
+        <v>0.404972</v>
       </c>
       <c r="D23" t="n">
-        <v>0.438545</v>
+        <v>0.432796</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.468334</v>
+        <v>0.467818</v>
       </c>
       <c r="C24" t="n">
-        <v>0.416127</v>
+        <v>0.412869</v>
       </c>
       <c r="D24" t="n">
-        <v>0.43391</v>
+        <v>0.445789</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.49631</v>
+        <v>0.498772</v>
       </c>
       <c r="C25" t="n">
-        <v>0.410521</v>
+        <v>0.410271</v>
       </c>
       <c r="D25" t="n">
-        <v>0.44086</v>
+        <v>0.435702</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.488486</v>
+        <v>0.502754</v>
       </c>
       <c r="C26" t="n">
-        <v>0.423819</v>
+        <v>0.418045</v>
       </c>
       <c r="D26" t="n">
-        <v>0.44536</v>
+        <v>0.451045</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.518164</v>
+        <v>0.532837</v>
       </c>
       <c r="C27" t="n">
-        <v>0.430626</v>
+        <v>0.426931</v>
       </c>
       <c r="D27" t="n">
-        <v>0.445964</v>
+        <v>0.461397</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.529796</v>
+        <v>0.566679</v>
       </c>
       <c r="C28" t="n">
-        <v>0.433306</v>
+        <v>0.438915</v>
       </c>
       <c r="D28" t="n">
-        <v>0.462432</v>
+        <v>0.469506</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.532762</v>
+        <v>0.559585</v>
       </c>
       <c r="C29" t="n">
-        <v>0.43452</v>
+        <v>0.430741</v>
       </c>
       <c r="D29" t="n">
-        <v>0.473759</v>
+        <v>0.476737</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.560925</v>
+        <v>0.562659</v>
       </c>
       <c r="C30" t="n">
-        <v>0.454827</v>
+        <v>0.443222</v>
       </c>
       <c r="D30" t="n">
-        <v>0.508236</v>
+        <v>0.476973</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.585624</v>
+        <v>0.58611</v>
       </c>
       <c r="C31" t="n">
-        <v>0.453004</v>
+        <v>0.446853</v>
       </c>
       <c r="D31" t="n">
-        <v>0.526263</v>
+        <v>0.488069</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.580392</v>
+        <v>0.582446</v>
       </c>
       <c r="C32" t="n">
-        <v>0.461543</v>
+        <v>0.447908</v>
       </c>
       <c r="D32" t="n">
-        <v>0.525699</v>
+        <v>0.491756</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.617109</v>
+        <v>0.611295</v>
       </c>
       <c r="C33" t="n">
-        <v>0.467897</v>
+        <v>0.456068</v>
       </c>
       <c r="D33" t="n">
-        <v>0.524058</v>
+        <v>0.508385</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.624895</v>
+        <v>0.634822</v>
       </c>
       <c r="C34" t="n">
-        <v>0.471903</v>
+        <v>0.462985</v>
       </c>
       <c r="D34" t="n">
-        <v>0.532362</v>
+        <v>0.53359</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6391829999999999</v>
+        <v>0.630896</v>
       </c>
       <c r="C35" t="n">
-        <v>0.517755</v>
+        <v>0.521736</v>
       </c>
       <c r="D35" t="n">
-        <v>0.625397</v>
+        <v>0.61393</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.668876</v>
+        <v>0.667039</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5338079999999999</v>
+        <v>0.52108</v>
       </c>
       <c r="D36" t="n">
-        <v>0.641781</v>
+        <v>0.6393990000000001</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.676777</v>
+        <v>0.683954</v>
       </c>
       <c r="C37" t="n">
-        <v>0.542181</v>
+        <v>0.53809</v>
       </c>
       <c r="D37" t="n">
-        <v>0.671918</v>
+        <v>0.660957</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.684594</v>
+        <v>0.706842</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5455719999999999</v>
+        <v>0.542443</v>
       </c>
       <c r="D38" t="n">
-        <v>0.680576</v>
+        <v>0.677019</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.726919</v>
+        <v>0.714428</v>
       </c>
       <c r="C39" t="n">
-        <v>0.558725</v>
+        <v>0.559096</v>
       </c>
       <c r="D39" t="n">
-        <v>0.70579</v>
+        <v>0.7033740000000001</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.73168</v>
+        <v>0.731957</v>
       </c>
       <c r="C40" t="n">
-        <v>0.562812</v>
+        <v>0.570504</v>
       </c>
       <c r="D40" t="n">
-        <v>0.711102</v>
+        <v>0.7156439999999999</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.863815</v>
+        <v>0.842795</v>
       </c>
       <c r="C41" t="n">
-        <v>0.59161</v>
+        <v>0.590107</v>
       </c>
       <c r="D41" t="n">
-        <v>0.736843</v>
+        <v>0.742142</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.859163</v>
+        <v>0.866905</v>
       </c>
       <c r="C42" t="n">
-        <v>0.591978</v>
+        <v>0.595957</v>
       </c>
       <c r="D42" t="n">
-        <v>0.768971</v>
+        <v>0.749088</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.905736</v>
+        <v>0.885779</v>
       </c>
       <c r="C43" t="n">
-        <v>0.615143</v>
+        <v>0.607827</v>
       </c>
       <c r="D43" t="n">
-        <v>0.78186</v>
+        <v>0.79225</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.944963</v>
+        <v>0.918861</v>
       </c>
       <c r="C44" t="n">
-        <v>0.636622</v>
+        <v>0.6372679999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.796467</v>
+        <v>0.809229</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.922588</v>
+        <v>0.90557</v>
       </c>
       <c r="C45" t="n">
-        <v>0.656191</v>
+        <v>0.649554</v>
       </c>
       <c r="D45" t="n">
-        <v>0.82941</v>
+        <v>0.825389</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.967862</v>
+        <v>0.955062</v>
       </c>
       <c r="C46" t="n">
-        <v>0.672693</v>
+        <v>0.660432</v>
       </c>
       <c r="D46" t="n">
-        <v>0.86431</v>
+        <v>0.828617</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>1.02851</v>
+        <v>0.970903</v>
       </c>
       <c r="C47" t="n">
-        <v>0.71447</v>
+        <v>0.697866</v>
       </c>
       <c r="D47" t="n">
-        <v>0.859529</v>
+        <v>0.863628</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.00877</v>
+        <v>1.01411</v>
       </c>
       <c r="C48" t="n">
-        <v>0.718805</v>
+        <v>0.712125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.896566</v>
+        <v>0.906888</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.06505</v>
+        <v>1.02611</v>
       </c>
       <c r="C49" t="n">
-        <v>0.723685</v>
+        <v>0.732111</v>
       </c>
       <c r="D49" t="n">
-        <v>0.903636</v>
+        <v>0.914801</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.09276</v>
+        <v>1.06728</v>
       </c>
       <c r="C50" t="n">
-        <v>0.888222</v>
+        <v>0.875297</v>
       </c>
       <c r="D50" t="n">
-        <v>1.1357</v>
+        <v>1.10777</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.10986</v>
+        <v>1.10889</v>
       </c>
       <c r="C51" t="n">
-        <v>0.88973</v>
+        <v>0.920838</v>
       </c>
       <c r="D51" t="n">
-        <v>1.15793</v>
+        <v>1.16429</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13964</v>
+        <v>1.12521</v>
       </c>
       <c r="C52" t="n">
-        <v>0.913984</v>
+        <v>0.957533</v>
       </c>
       <c r="D52" t="n">
-        <v>1.19009</v>
+        <v>1.21189</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.16613</v>
+        <v>1.19351</v>
       </c>
       <c r="C53" t="n">
-        <v>0.94596</v>
+        <v>1.00726</v>
       </c>
       <c r="D53" t="n">
-        <v>1.21489</v>
+        <v>1.24518</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.18785</v>
+        <v>1.23255</v>
       </c>
       <c r="C54" t="n">
-        <v>0.969478</v>
+        <v>1.05812</v>
       </c>
       <c r="D54" t="n">
-        <v>1.21444</v>
+        <v>1.24908</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.25892</v>
+        <v>1.27214</v>
       </c>
       <c r="C55" t="n">
-        <v>1.00746</v>
+        <v>1.01691</v>
       </c>
       <c r="D55" t="n">
-        <v>1.2577</v>
+        <v>1.25325</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.47445</v>
+        <v>1.47171</v>
       </c>
       <c r="C56" t="n">
-        <v>1.04293</v>
+        <v>1.0463</v>
       </c>
       <c r="D56" t="n">
-        <v>1.3346</v>
+        <v>1.32204</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.50013</v>
+        <v>1.50029</v>
       </c>
       <c r="C57" t="n">
-        <v>1.04387</v>
+        <v>1.13089</v>
       </c>
       <c r="D57" t="n">
-        <v>1.33395</v>
+        <v>1.34158</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.51457</v>
+        <v>1.55398</v>
       </c>
       <c r="C58" t="n">
-        <v>1.07038</v>
+        <v>1.08108</v>
       </c>
       <c r="D58" t="n">
-        <v>1.38668</v>
+        <v>1.42716</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.55862</v>
+        <v>1.56676</v>
       </c>
       <c r="C59" t="n">
-        <v>1.10093</v>
+        <v>1.07447</v>
       </c>
       <c r="D59" t="n">
-        <v>1.45723</v>
+        <v>1.48406</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.60233</v>
+        <v>1.6239</v>
       </c>
       <c r="C60" t="n">
-        <v>1.10755</v>
+        <v>1.22596</v>
       </c>
       <c r="D60" t="n">
-        <v>1.51769</v>
+        <v>1.4759</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.61842</v>
+        <v>1.72219</v>
       </c>
       <c r="C61" t="n">
-        <v>1.16818</v>
+        <v>1.21311</v>
       </c>
       <c r="D61" t="n">
-        <v>1.53663</v>
+        <v>1.56451</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.63329</v>
+        <v>1.66784</v>
       </c>
       <c r="C62" t="n">
-        <v>1.184</v>
+        <v>1.1782</v>
       </c>
       <c r="D62" t="n">
-        <v>1.58291</v>
+        <v>1.55678</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.68593</v>
+        <v>1.70228</v>
       </c>
       <c r="C63" t="n">
-        <v>1.186</v>
+        <v>1.17451</v>
       </c>
       <c r="D63" t="n">
-        <v>1.62139</v>
+        <v>1.5998</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.71228</v>
+        <v>1.72056</v>
       </c>
       <c r="C64" t="n">
-        <v>1.29502</v>
+        <v>1.43771</v>
       </c>
       <c r="D64" t="n">
-        <v>1.88491</v>
+        <v>2.03122</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.76501</v>
+        <v>1.89324</v>
       </c>
       <c r="C65" t="n">
-        <v>1.31717</v>
+        <v>1.39622</v>
       </c>
       <c r="D65" t="n">
-        <v>1.92668</v>
+        <v>1.9566</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.7917</v>
+        <v>1.82964</v>
       </c>
       <c r="C66" t="n">
-        <v>1.35573</v>
+        <v>1.40856</v>
       </c>
       <c r="D66" t="n">
-        <v>2.01986</v>
+        <v>2.10743</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.84067</v>
+        <v>1.86027</v>
       </c>
       <c r="C67" t="n">
-        <v>1.37272</v>
+        <v>1.36623</v>
       </c>
       <c r="D67" t="n">
-        <v>1.98299</v>
+        <v>2.05837</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.874</v>
+        <v>1.8439</v>
       </c>
       <c r="C68" t="n">
-        <v>1.37541</v>
+        <v>1.42407</v>
       </c>
       <c r="D68" t="n">
-        <v>2.11814</v>
+        <v>2.04587</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.85946</v>
+        <v>1.90425</v>
       </c>
       <c r="C69" t="n">
-        <v>1.40004</v>
+        <v>1.40976</v>
       </c>
       <c r="D69" t="n">
-        <v>2.07615</v>
+        <v>2.12101</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>1.99072</v>
+        <v>2.07952</v>
       </c>
       <c r="C70" t="n">
-        <v>1.41624</v>
+        <v>1.51183</v>
       </c>
       <c r="D70" t="n">
-        <v>2.07792</v>
+        <v>2.27936</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.0028</v>
+        <v>2.07829</v>
       </c>
       <c r="C71" t="n">
-        <v>1.43293</v>
+        <v>1.45292</v>
       </c>
       <c r="D71" t="n">
-        <v>2.15202</v>
+        <v>2.14822</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.07435</v>
+        <v>2.06459</v>
       </c>
       <c r="C72" t="n">
-        <v>1.48437</v>
+        <v>1.4435</v>
       </c>
       <c r="D72" t="n">
-        <v>2.16063</v>
+        <v>2.18833</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.11328</v>
+        <v>2.12153</v>
       </c>
       <c r="C73" t="n">
-        <v>1.50303</v>
+        <v>1.46652</v>
       </c>
       <c r="D73" t="n">
-        <v>2.33649</v>
+        <v>2.22567</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.21598</v>
+        <v>2.1108</v>
       </c>
       <c r="C74" t="n">
-        <v>1.51799</v>
+        <v>1.53547</v>
       </c>
       <c r="D74" t="n">
-        <v>2.28711</v>
+        <v>2.33489</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.13772</v>
+        <v>2.16623</v>
       </c>
       <c r="C75" t="n">
-        <v>1.52894</v>
+        <v>1.53781</v>
       </c>
       <c r="D75" t="n">
-        <v>2.29354</v>
+        <v>2.30215</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.12516</v>
+        <v>2.16458</v>
       </c>
       <c r="C76" t="n">
-        <v>1.53827</v>
+        <v>1.55444</v>
       </c>
       <c r="D76" t="n">
-        <v>2.32482</v>
+        <v>2.36938</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.20806</v>
+        <v>2.16551</v>
       </c>
       <c r="C77" t="n">
-        <v>1.56082</v>
+        <v>1.56852</v>
       </c>
       <c r="D77" t="n">
-        <v>2.34373</v>
+        <v>2.38213</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.17204</v>
+        <v>2.16294</v>
       </c>
       <c r="C78" t="n">
-        <v>1.66419</v>
+        <v>1.6291</v>
       </c>
       <c r="D78" t="n">
-        <v>2.70439</v>
+        <v>2.63326</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.19167</v>
+        <v>2.25837</v>
       </c>
       <c r="C79" t="n">
-        <v>1.65055</v>
+        <v>1.65937</v>
       </c>
       <c r="D79" t="n">
-        <v>2.6439</v>
+        <v>2.61875</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.19397</v>
+        <v>2.26491</v>
       </c>
       <c r="C80" t="n">
-        <v>1.66573</v>
+        <v>1.67984</v>
       </c>
       <c r="D80" t="n">
-        <v>2.69608</v>
+        <v>2.82251</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.27016</v>
+        <v>2.26944</v>
       </c>
       <c r="C81" t="n">
-        <v>1.67267</v>
+        <v>1.68629</v>
       </c>
       <c r="D81" t="n">
-        <v>2.68754</v>
+        <v>2.74191</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.23428</v>
+        <v>2.27183</v>
       </c>
       <c r="C82" t="n">
-        <v>1.69909</v>
+        <v>1.68633</v>
       </c>
       <c r="D82" t="n">
-        <v>2.70792</v>
+        <v>2.69544</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.29933</v>
+        <v>2.31045</v>
       </c>
       <c r="C83" t="n">
-        <v>1.70915</v>
+        <v>1.71722</v>
       </c>
       <c r="D83" t="n">
-        <v>2.72703</v>
+        <v>2.78018</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.39341</v>
+        <v>2.38251</v>
       </c>
       <c r="C84" t="n">
-        <v>1.77188</v>
+        <v>1.74749</v>
       </c>
       <c r="D84" t="n">
-        <v>2.76522</v>
+        <v>2.79153</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.42687</v>
+        <v>2.39276</v>
       </c>
       <c r="C85" t="n">
-        <v>1.7474</v>
+        <v>1.73172</v>
       </c>
       <c r="D85" t="n">
-        <v>2.78598</v>
+        <v>2.81348</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.46779</v>
+        <v>2.45372</v>
       </c>
       <c r="C86" t="n">
-        <v>1.72724</v>
+        <v>1.78478</v>
       </c>
       <c r="D86" t="n">
-        <v>2.8671</v>
+        <v>2.84428</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.44966</v>
+        <v>2.50233</v>
       </c>
       <c r="C87" t="n">
-        <v>1.76049</v>
+        <v>1.7828</v>
       </c>
       <c r="D87" t="n">
-        <v>2.89901</v>
+        <v>2.87156</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.51424</v>
+        <v>2.49932</v>
       </c>
       <c r="C88" t="n">
-        <v>1.773</v>
+        <v>1.78476</v>
       </c>
       <c r="D88" t="n">
-        <v>2.86232</v>
+        <v>2.90029</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.51224</v>
+        <v>2.49411</v>
       </c>
       <c r="C89" t="n">
-        <v>1.81045</v>
+        <v>1.79523</v>
       </c>
       <c r="D89" t="n">
-        <v>2.95418</v>
+        <v>2.89561</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.53596</v>
+        <v>2.49984</v>
       </c>
       <c r="C90" t="n">
-        <v>1.8313</v>
+        <v>1.82427</v>
       </c>
       <c r="D90" t="n">
-        <v>2.90115</v>
+        <v>2.9101</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.50392</v>
+        <v>2.55603</v>
       </c>
       <c r="C91" t="n">
-        <v>1.8636</v>
+        <v>1.87237</v>
       </c>
       <c r="D91" t="n">
-        <v>2.98323</v>
+        <v>2.95799</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.56407</v>
+        <v>2.58475</v>
       </c>
       <c r="C92" t="n">
-        <v>1.90404</v>
+        <v>1.93995</v>
       </c>
       <c r="D92" t="n">
-        <v>3.1667</v>
+        <v>3.17654</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.51316</v>
+        <v>2.52845</v>
       </c>
       <c r="C93" t="n">
-        <v>1.90233</v>
+        <v>1.93071</v>
       </c>
       <c r="D93" t="n">
-        <v>3.18039</v>
+        <v>3.14667</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.5586</v>
+        <v>2.5942</v>
       </c>
       <c r="C94" t="n">
-        <v>1.92007</v>
+        <v>1.91963</v>
       </c>
       <c r="D94" t="n">
-        <v>3.21345</v>
+        <v>3.21675</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.54613</v>
+        <v>2.61414</v>
       </c>
       <c r="C95" t="n">
-        <v>1.9797</v>
+        <v>1.94558</v>
       </c>
       <c r="D95" t="n">
-        <v>3.21208</v>
+        <v>3.24422</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.70424</v>
+        <v>2.58611</v>
       </c>
       <c r="C96" t="n">
-        <v>1.96326</v>
+        <v>1.9429</v>
       </c>
       <c r="D96" t="n">
-        <v>3.356</v>
+        <v>3.24766</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.66079</v>
+        <v>2.6284</v>
       </c>
       <c r="C97" t="n">
-        <v>2.01422</v>
+        <v>1.98387</v>
       </c>
       <c r="D97" t="n">
-        <v>3.3223</v>
+        <v>3.30718</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.82029</v>
+        <v>2.72691</v>
       </c>
       <c r="C98" t="n">
-        <v>2.02286</v>
+        <v>2.01977</v>
       </c>
       <c r="D98" t="n">
-        <v>3.2333</v>
+        <v>3.26318</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.80345</v>
+        <v>2.74823</v>
       </c>
       <c r="C99" t="n">
-        <v>2.04074</v>
+        <v>1.99881</v>
       </c>
       <c r="D99" t="n">
-        <v>3.31392</v>
+        <v>3.28543</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.82068</v>
+        <v>2.78951</v>
       </c>
       <c r="C100" t="n">
-        <v>2.04615</v>
+        <v>2.05386</v>
       </c>
       <c r="D100" t="n">
-        <v>3.3358</v>
+        <v>3.37144</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.84068</v>
+        <v>2.86607</v>
       </c>
       <c r="C101" t="n">
-        <v>2.1287</v>
+        <v>2.08349</v>
       </c>
       <c r="D101" t="n">
-        <v>3.31429</v>
+        <v>3.36803</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.86581</v>
+        <v>2.79427</v>
       </c>
       <c r="C102" t="n">
-        <v>2.09872</v>
+        <v>2.12049</v>
       </c>
       <c r="D102" t="n">
-        <v>3.32139</v>
+        <v>3.39915</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.88707</v>
+        <v>2.8573</v>
       </c>
       <c r="C103" t="n">
-        <v>2.18507</v>
+        <v>2.16672</v>
       </c>
       <c r="D103" t="n">
-        <v>3.41791</v>
+        <v>3.40635</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.93556</v>
+        <v>2.88656</v>
       </c>
       <c r="C104" t="n">
-        <v>2.17403</v>
+        <v>2.13983</v>
       </c>
       <c r="D104" t="n">
-        <v>3.44936</v>
+        <v>3.52527</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.97793</v>
+        <v>2.92274</v>
       </c>
       <c r="C105" t="n">
-        <v>2.21299</v>
+        <v>2.15857</v>
       </c>
       <c r="D105" t="n">
-        <v>3.47107</v>
+        <v>3.46865</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.99549</v>
+        <v>3.00769</v>
       </c>
       <c r="C106" t="n">
-        <v>2.27533</v>
+        <v>2.16952</v>
       </c>
       <c r="D106" t="n">
-        <v>3.54104</v>
+        <v>3.47885</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>3.03577</v>
+        <v>2.89786</v>
       </c>
       <c r="C107" t="n">
-        <v>2.30235</v>
+        <v>2.22702</v>
       </c>
       <c r="D107" t="n">
-        <v>3.77424</v>
+        <v>3.73583</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.9935</v>
+        <v>2.97218</v>
       </c>
       <c r="C108" t="n">
-        <v>2.25422</v>
+        <v>2.28346</v>
       </c>
       <c r="D108" t="n">
-        <v>3.74369</v>
+        <v>3.7217</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.01487</v>
+        <v>3.02615</v>
       </c>
       <c r="C109" t="n">
-        <v>2.25727</v>
+        <v>2.32746</v>
       </c>
       <c r="D109" t="n">
-        <v>3.85573</v>
+        <v>3.72115</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.01606</v>
+        <v>2.99917</v>
       </c>
       <c r="C110" t="n">
-        <v>2.34931</v>
+        <v>2.33584</v>
       </c>
       <c r="D110" t="n">
-        <v>3.76992</v>
+        <v>3.80874</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.01313</v>
+        <v>3.04664</v>
       </c>
       <c r="C111" t="n">
-        <v>2.38918</v>
+        <v>2.32955</v>
       </c>
       <c r="D111" t="n">
-        <v>3.8155</v>
+        <v>3.85558</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.3251</v>
+        <v>3.21806</v>
       </c>
       <c r="C112" t="n">
-        <v>2.43395</v>
+        <v>2.36029</v>
       </c>
       <c r="D112" t="n">
-        <v>3.84922</v>
+        <v>3.86004</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.23781</v>
+        <v>3.26709</v>
       </c>
       <c r="C113" t="n">
-        <v>2.42862</v>
+        <v>2.37753</v>
       </c>
       <c r="D113" t="n">
-        <v>4.00464</v>
+        <v>3.90581</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.36396</v>
+        <v>3.27357</v>
       </c>
       <c r="C114" t="n">
-        <v>2.49797</v>
+        <v>2.42414</v>
       </c>
       <c r="D114" t="n">
-        <v>4.00787</v>
+        <v>3.95692</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.4336</v>
+        <v>3.273</v>
       </c>
       <c r="C115" t="n">
-        <v>2.48834</v>
+        <v>2.44715</v>
       </c>
       <c r="D115" t="n">
-        <v>3.97489</v>
+        <v>3.94018</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.35363</v>
+        <v>3.32337</v>
       </c>
       <c r="C116" t="n">
-        <v>2.52527</v>
+        <v>2.50731</v>
       </c>
       <c r="D116" t="n">
-        <v>4.18423</v>
+        <v>4.02105</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.45893</v>
+        <v>3.39024</v>
       </c>
       <c r="C117" t="n">
-        <v>2.58344</v>
+        <v>2.5665</v>
       </c>
       <c r="D117" t="n">
-        <v>4.0814</v>
+        <v>4.03757</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.39618</v>
+        <v>3.42639</v>
       </c>
       <c r="C118" t="n">
-        <v>2.56679</v>
+        <v>2.6328</v>
       </c>
       <c r="D118" t="n">
-        <v>4.0991</v>
+        <v>4.11659</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.42726</v>
+        <v>3.47384</v>
       </c>
       <c r="C119" t="n">
-        <v>2.66198</v>
+        <v>2.67134</v>
       </c>
       <c r="D119" t="n">
-        <v>4.1694</v>
+        <v>4.13193</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.464546</v>
+        <v>0.596756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5629110000000001</v>
+        <v>0.698552</v>
       </c>
       <c r="D2" t="n">
-        <v>0.542069</v>
+        <v>0.651136</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.476332</v>
+        <v>0.596606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.555019</v>
+        <v>0.704268</v>
       </c>
       <c r="D3" t="n">
-        <v>0.54193</v>
+        <v>0.6254729999999999</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.492247</v>
+        <v>0.674899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5742699999999999</v>
+        <v>0.739818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.545729</v>
+        <v>0.582364</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.474744</v>
+        <v>0.478552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.576349</v>
+        <v>0.630788</v>
       </c>
       <c r="D5" t="n">
-        <v>0.526917</v>
+        <v>0.870426</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.460307</v>
+        <v>0.526185</v>
       </c>
       <c r="C6" t="n">
-        <v>0.544999</v>
+        <v>0.596951</v>
       </c>
       <c r="D6" t="n">
-        <v>0.526442</v>
+        <v>0.568657</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.455208</v>
+        <v>0.485686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5565870000000001</v>
+        <v>0.567369</v>
       </c>
       <c r="D7" t="n">
-        <v>0.537251</v>
+        <v>0.539691</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.458429</v>
+        <v>0.47174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.55465</v>
+        <v>0.577839</v>
       </c>
       <c r="D8" t="n">
-        <v>0.552041</v>
+        <v>0.547798</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.457031</v>
+        <v>0.471311</v>
       </c>
       <c r="C9" t="n">
-        <v>0.565814</v>
+        <v>0.582825</v>
       </c>
       <c r="D9" t="n">
-        <v>0.544563</v>
+        <v>0.543583</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.462629</v>
+        <v>0.471804</v>
       </c>
       <c r="C10" t="n">
-        <v>0.568348</v>
+        <v>0.575685</v>
       </c>
       <c r="D10" t="n">
-        <v>0.54894</v>
+        <v>0.553732</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.467172</v>
+        <v>0.468962</v>
       </c>
       <c r="C11" t="n">
-        <v>0.561222</v>
+        <v>0.585039</v>
       </c>
       <c r="D11" t="n">
-        <v>0.552554</v>
+        <v>0.563123</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.462516</v>
+        <v>0.480662</v>
       </c>
       <c r="C12" t="n">
-        <v>0.574231</v>
+        <v>0.587398</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5553630000000001</v>
+        <v>0.555172</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.474666</v>
+        <v>0.500403</v>
       </c>
       <c r="C13" t="n">
-        <v>0.574847</v>
+        <v>0.594193</v>
       </c>
       <c r="D13" t="n">
-        <v>0.557839</v>
+        <v>0.566395</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.473571</v>
+        <v>0.483713</v>
       </c>
       <c r="C14" t="n">
-        <v>0.569182</v>
+        <v>0.588192</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5573709999999999</v>
+        <v>0.566383</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.479612</v>
+        <v>0.484157</v>
       </c>
       <c r="C15" t="n">
-        <v>0.566974</v>
+        <v>0.590197</v>
       </c>
       <c r="D15" t="n">
-        <v>0.562132</v>
+        <v>0.5619960000000001</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.491197</v>
+        <v>0.501572</v>
       </c>
       <c r="C16" t="n">
-        <v>0.581662</v>
+        <v>0.590353</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5696830000000001</v>
+        <v>0.571074</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.481396</v>
+        <v>0.487549</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5808950000000001</v>
+        <v>0.587674</v>
       </c>
       <c r="D17" t="n">
-        <v>0.573834</v>
+        <v>0.583239</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.484532</v>
+        <v>0.489578</v>
       </c>
       <c r="C18" t="n">
-        <v>0.581942</v>
+        <v>0.594681</v>
       </c>
       <c r="D18" t="n">
-        <v>0.573194</v>
+        <v>0.567231</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.479891</v>
+        <v>0.500463</v>
       </c>
       <c r="C19" t="n">
-        <v>0.581958</v>
+        <v>0.597756</v>
       </c>
       <c r="D19" t="n">
-        <v>0.578064</v>
+        <v>0.576734</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.484755</v>
+        <v>0.492028</v>
       </c>
       <c r="C20" t="n">
-        <v>0.589684</v>
+        <v>0.614599</v>
       </c>
       <c r="D20" t="n">
-        <v>0.587436</v>
+        <v>0.587896</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.494057</v>
+        <v>0.491816</v>
       </c>
       <c r="C21" t="n">
-        <v>0.610703</v>
+        <v>0.604564</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5904470000000001</v>
+        <v>0.5877289999999999</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.494847</v>
+        <v>0.489992</v>
       </c>
       <c r="C22" t="n">
-        <v>0.604291</v>
+        <v>0.610274</v>
       </c>
       <c r="D22" t="n">
-        <v>0.590516</v>
+        <v>0.584843</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.500821</v>
+        <v>0.515501</v>
       </c>
       <c r="C23" t="n">
-        <v>0.599559</v>
+        <v>0.60861</v>
       </c>
       <c r="D23" t="n">
-        <v>0.598226</v>
+        <v>0.600333</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.526071</v>
+        <v>0.513247</v>
       </c>
       <c r="C24" t="n">
-        <v>0.611447</v>
+        <v>0.652602</v>
       </c>
       <c r="D24" t="n">
-        <v>0.590265</v>
+        <v>0.614466</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.500528</v>
+        <v>0.5152369999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.619362</v>
+        <v>0.691036</v>
       </c>
       <c r="D25" t="n">
-        <v>0.606832</v>
+        <v>0.615036</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.494458</v>
+        <v>0.538208</v>
       </c>
       <c r="C26" t="n">
-        <v>0.625315</v>
+        <v>0.654307</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6297739999999999</v>
+        <v>0.658351</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.570631</v>
+        <v>0.602166</v>
       </c>
       <c r="C27" t="n">
-        <v>0.627063</v>
+        <v>0.661</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6133</v>
+        <v>0.616058</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.573275</v>
+        <v>0.612622</v>
       </c>
       <c r="C28" t="n">
-        <v>0.638089</v>
+        <v>0.663761</v>
       </c>
       <c r="D28" t="n">
-        <v>0.626686</v>
+        <v>0.613362</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5801770000000001</v>
+        <v>0.631589</v>
       </c>
       <c r="C29" t="n">
-        <v>0.646056</v>
+        <v>0.666458</v>
       </c>
       <c r="D29" t="n">
-        <v>0.627619</v>
+        <v>0.644689</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.596662</v>
+        <v>0.63752</v>
       </c>
       <c r="C30" t="n">
-        <v>0.651226</v>
+        <v>0.707688</v>
       </c>
       <c r="D30" t="n">
-        <v>0.625777</v>
+        <v>0.676253</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.604312</v>
+        <v>0.666006</v>
       </c>
       <c r="C31" t="n">
-        <v>0.64888</v>
+        <v>0.710977</v>
       </c>
       <c r="D31" t="n">
-        <v>0.64902</v>
+        <v>0.680835</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.626234</v>
+        <v>0.666041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.68696</v>
+        <v>0.7333809999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.672399</v>
+        <v>0.707562</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.638814</v>
+        <v>0.6781700000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.68969</v>
+        <v>0.804708</v>
       </c>
       <c r="D33" t="n">
-        <v>0.706334</v>
+        <v>0.735519</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6394339999999999</v>
+        <v>0.732977</v>
       </c>
       <c r="C34" t="n">
-        <v>0.706025</v>
+        <v>0.806609</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6921</v>
+        <v>0.728333</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.677345</v>
+        <v>0.743982</v>
       </c>
       <c r="C35" t="n">
-        <v>0.758777</v>
+        <v>0.9189310000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.795357</v>
+        <v>0.897755</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.685299</v>
+        <v>0.776918</v>
       </c>
       <c r="C36" t="n">
-        <v>0.779313</v>
+        <v>0.972337</v>
       </c>
       <c r="D36" t="n">
-        <v>0.817999</v>
+        <v>0.8806580000000001</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.714401</v>
+        <v>0.770456</v>
       </c>
       <c r="C37" t="n">
-        <v>0.784726</v>
+        <v>1.00699</v>
       </c>
       <c r="D37" t="n">
-        <v>0.830286</v>
+        <v>0.89555</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.72132</v>
+        <v>0.813271</v>
       </c>
       <c r="C38" t="n">
-        <v>0.810543</v>
+        <v>1.05129</v>
       </c>
       <c r="D38" t="n">
-        <v>0.857521</v>
+        <v>0.905738</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.728592</v>
+        <v>0.854593</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8292659999999999</v>
+        <v>1.07248</v>
       </c>
       <c r="D39" t="n">
-        <v>0.870021</v>
+        <v>0.967047</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7523840000000001</v>
+        <v>0.867586</v>
       </c>
       <c r="C40" t="n">
-        <v>0.854255</v>
+        <v>1.14752</v>
       </c>
       <c r="D40" t="n">
-        <v>0.903265</v>
+        <v>0.998781</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.872565</v>
+        <v>1.03887</v>
       </c>
       <c r="C41" t="n">
-        <v>0.869286</v>
+        <v>1.19695</v>
       </c>
       <c r="D41" t="n">
-        <v>0.918346</v>
+        <v>1.00154</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.879113</v>
+        <v>1.11176</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8695889999999999</v>
+        <v>1.22032</v>
       </c>
       <c r="D42" t="n">
-        <v>0.940017</v>
+        <v>1.05624</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.891227</v>
+        <v>1.14603</v>
       </c>
       <c r="C43" t="n">
-        <v>0.908508</v>
+        <v>1.27422</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9755</v>
+        <v>1.11773</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.922362</v>
+        <v>1.14143</v>
       </c>
       <c r="C44" t="n">
-        <v>0.936188</v>
+        <v>1.54039</v>
       </c>
       <c r="D44" t="n">
-        <v>1.00386</v>
+        <v>1.29133</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.946515</v>
+        <v>1.3295</v>
       </c>
       <c r="C45" t="n">
-        <v>0.968081</v>
+        <v>1.59002</v>
       </c>
       <c r="D45" t="n">
-        <v>1.02234</v>
+        <v>1.34591</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.963776</v>
+        <v>1.38716</v>
       </c>
       <c r="C46" t="n">
-        <v>0.985739</v>
+        <v>1.64251</v>
       </c>
       <c r="D46" t="n">
-        <v>1.06706</v>
+        <v>1.40327</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9827669999999999</v>
+        <v>1.40431</v>
       </c>
       <c r="C47" t="n">
-        <v>1.03634</v>
+        <v>1.68168</v>
       </c>
       <c r="D47" t="n">
-        <v>1.09734</v>
+        <v>1.47747</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.991061</v>
+        <v>1.42611</v>
       </c>
       <c r="C48" t="n">
-        <v>1.05398</v>
+        <v>1.7573</v>
       </c>
       <c r="D48" t="n">
-        <v>1.1282</v>
+        <v>1.55277</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.03175</v>
+        <v>1.49378</v>
       </c>
       <c r="C49" t="n">
-        <v>1.06821</v>
+        <v>1.79267</v>
       </c>
       <c r="D49" t="n">
-        <v>1.15057</v>
+        <v>1.62917</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.03162</v>
+        <v>1.55997</v>
       </c>
       <c r="C50" t="n">
-        <v>1.2878</v>
+        <v>2.02273</v>
       </c>
       <c r="D50" t="n">
-        <v>1.29243</v>
+        <v>1.81976</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.08457</v>
+        <v>1.56376</v>
       </c>
       <c r="C51" t="n">
-        <v>1.29605</v>
+        <v>2.10357</v>
       </c>
       <c r="D51" t="n">
-        <v>1.31536</v>
+        <v>1.8947</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.07913</v>
+        <v>1.5907</v>
       </c>
       <c r="C52" t="n">
-        <v>1.35136</v>
+        <v>2.17868</v>
       </c>
       <c r="D52" t="n">
-        <v>1.37472</v>
+        <v>1.92761</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.16569</v>
+        <v>1.68107</v>
       </c>
       <c r="C53" t="n">
-        <v>1.40315</v>
+        <v>2.20693</v>
       </c>
       <c r="D53" t="n">
-        <v>1.40599</v>
+        <v>2.0279</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.17253</v>
+        <v>1.77515</v>
       </c>
       <c r="C54" t="n">
-        <v>1.49234</v>
+        <v>2.28984</v>
       </c>
       <c r="D54" t="n">
-        <v>1.45495</v>
+        <v>2.08747</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.19754</v>
+        <v>1.77409</v>
       </c>
       <c r="C55" t="n">
-        <v>1.54454</v>
+        <v>2.23195</v>
       </c>
       <c r="D55" t="n">
-        <v>1.46075</v>
+        <v>2.16251</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.38389</v>
+        <v>1.86359</v>
       </c>
       <c r="C56" t="n">
-        <v>1.58763</v>
+        <v>2.23555</v>
       </c>
       <c r="D56" t="n">
-        <v>1.52182</v>
+        <v>2.12623</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.41133</v>
+        <v>1.74906</v>
       </c>
       <c r="C57" t="n">
-        <v>1.67572</v>
+        <v>2.51667</v>
       </c>
       <c r="D57" t="n">
-        <v>1.60162</v>
+        <v>2.53764</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.38872</v>
+        <v>2.04286</v>
       </c>
       <c r="C58" t="n">
-        <v>1.69173</v>
+        <v>2.38231</v>
       </c>
       <c r="D58" t="n">
-        <v>1.70164</v>
+        <v>2.45772</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.48711</v>
+        <v>1.91257</v>
       </c>
       <c r="C59" t="n">
-        <v>1.8205</v>
+        <v>2.25873</v>
       </c>
       <c r="D59" t="n">
-        <v>1.73967</v>
+        <v>2.3525</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.54853</v>
+        <v>1.97641</v>
       </c>
       <c r="C60" t="n">
-        <v>1.83647</v>
+        <v>2.42801</v>
       </c>
       <c r="D60" t="n">
-        <v>1.79757</v>
+        <v>2.37647</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.60912</v>
+        <v>1.90571</v>
       </c>
       <c r="C61" t="n">
-        <v>1.88955</v>
+        <v>2.48609</v>
       </c>
       <c r="D61" t="n">
-        <v>1.84421</v>
+        <v>2.52636</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.58923</v>
+        <v>1.94305</v>
       </c>
       <c r="C62" t="n">
-        <v>1.72759</v>
+        <v>2.41843</v>
       </c>
       <c r="D62" t="n">
-        <v>1.88918</v>
+        <v>2.3941</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.64638</v>
+        <v>2.14473</v>
       </c>
       <c r="C63" t="n">
-        <v>1.832</v>
+        <v>2.6926</v>
       </c>
       <c r="D63" t="n">
-        <v>1.98488</v>
+        <v>2.6262</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.62173</v>
+        <v>2.15583</v>
       </c>
       <c r="C64" t="n">
-        <v>2.03271</v>
+        <v>2.69553</v>
       </c>
       <c r="D64" t="n">
-        <v>2.17436</v>
+        <v>2.89425</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.72853</v>
+        <v>2.1345</v>
       </c>
       <c r="C65" t="n">
-        <v>2.17989</v>
+        <v>2.65974</v>
       </c>
       <c r="D65" t="n">
-        <v>2.26543</v>
+        <v>2.92966</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.75748</v>
+        <v>2.14749</v>
       </c>
       <c r="C66" t="n">
-        <v>2.21009</v>
+        <v>2.77094</v>
       </c>
       <c r="D66" t="n">
-        <v>2.34862</v>
+        <v>2.90429</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.80366</v>
+        <v>2.2054</v>
       </c>
       <c r="C67" t="n">
-        <v>2.16419</v>
+        <v>2.80287</v>
       </c>
       <c r="D67" t="n">
-        <v>2.36892</v>
+        <v>2.83675</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.78189</v>
+        <v>2.16731</v>
       </c>
       <c r="C68" t="n">
-        <v>2.18326</v>
+        <v>2.75133</v>
       </c>
       <c r="D68" t="n">
-        <v>2.45106</v>
+        <v>2.73323</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.89398</v>
+        <v>2.17895</v>
       </c>
       <c r="C69" t="n">
-        <v>2.2035</v>
+        <v>2.67776</v>
       </c>
       <c r="D69" t="n">
-        <v>2.46435</v>
+        <v>2.9677</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.89125</v>
+        <v>2.26941</v>
       </c>
       <c r="C70" t="n">
-        <v>2.38366</v>
+        <v>2.72859</v>
       </c>
       <c r="D70" t="n">
-        <v>2.62626</v>
+        <v>3.054</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.07128</v>
+        <v>2.31033</v>
       </c>
       <c r="C71" t="n">
-        <v>2.39112</v>
+        <v>2.83948</v>
       </c>
       <c r="D71" t="n">
-        <v>2.67306</v>
+        <v>3.29889</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.11872</v>
+        <v>2.42133</v>
       </c>
       <c r="C72" t="n">
-        <v>2.40916</v>
+        <v>2.97415</v>
       </c>
       <c r="D72" t="n">
-        <v>2.66436</v>
+        <v>3.3523</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.01414</v>
+        <v>2.40237</v>
       </c>
       <c r="C73" t="n">
-        <v>2.27415</v>
+        <v>2.92532</v>
       </c>
       <c r="D73" t="n">
-        <v>2.80881</v>
+        <v>3.17319</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.03249</v>
+        <v>2.39981</v>
       </c>
       <c r="C74" t="n">
-        <v>2.35236</v>
+        <v>3.00035</v>
       </c>
       <c r="D74" t="n">
-        <v>2.75436</v>
+        <v>3.46291</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.05536</v>
+        <v>2.54307</v>
       </c>
       <c r="C75" t="n">
-        <v>2.42614</v>
+        <v>2.93205</v>
       </c>
       <c r="D75" t="n">
-        <v>2.75876</v>
+        <v>3.29327</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.08918</v>
+        <v>2.42969</v>
       </c>
       <c r="C76" t="n">
-        <v>2.42499</v>
+        <v>2.97919</v>
       </c>
       <c r="D76" t="n">
-        <v>2.80893</v>
+        <v>3.39032</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.1154</v>
+        <v>2.36596</v>
       </c>
       <c r="C77" t="n">
-        <v>2.45437</v>
+        <v>3.00625</v>
       </c>
       <c r="D77" t="n">
-        <v>2.84741</v>
+        <v>3.29543</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.13844</v>
+        <v>2.41268</v>
       </c>
       <c r="C78" t="n">
-        <v>2.57509</v>
+        <v>2.99727</v>
       </c>
       <c r="D78" t="n">
-        <v>3.04505</v>
+        <v>3.51509</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.19719</v>
+        <v>2.48781</v>
       </c>
       <c r="C79" t="n">
-        <v>2.63461</v>
+        <v>3.06845</v>
       </c>
       <c r="D79" t="n">
-        <v>3.04414</v>
+        <v>3.69404</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.24438</v>
+        <v>2.51139</v>
       </c>
       <c r="C80" t="n">
-        <v>2.72159</v>
+        <v>3.12468</v>
       </c>
       <c r="D80" t="n">
-        <v>3.26714</v>
+        <v>3.61973</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.30883</v>
+        <v>2.51207</v>
       </c>
       <c r="C81" t="n">
-        <v>2.6893</v>
+        <v>3.1228</v>
       </c>
       <c r="D81" t="n">
-        <v>3.27977</v>
+        <v>3.56973</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.23796</v>
+        <v>2.48795</v>
       </c>
       <c r="C82" t="n">
-        <v>2.73895</v>
+        <v>3.21386</v>
       </c>
       <c r="D82" t="n">
-        <v>3.29838</v>
+        <v>3.64492</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.3323</v>
+        <v>2.51332</v>
       </c>
       <c r="C83" t="n">
-        <v>2.77792</v>
+        <v>3.1692</v>
       </c>
       <c r="D83" t="n">
-        <v>3.43159</v>
+        <v>3.66594</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.44921</v>
+        <v>2.61853</v>
       </c>
       <c r="C84" t="n">
-        <v>2.83925</v>
+        <v>3.30533</v>
       </c>
       <c r="D84" t="n">
-        <v>3.31814</v>
+        <v>3.83897</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.45676</v>
+        <v>2.6522</v>
       </c>
       <c r="C85" t="n">
-        <v>2.89451</v>
+        <v>3.23306</v>
       </c>
       <c r="D85" t="n">
-        <v>3.53753</v>
+        <v>3.78566</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.49884</v>
+        <v>2.6301</v>
       </c>
       <c r="C86" t="n">
-        <v>2.87123</v>
+        <v>3.27899</v>
       </c>
       <c r="D86" t="n">
-        <v>3.37178</v>
+        <v>3.71754</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.52296</v>
+        <v>2.66297</v>
       </c>
       <c r="C87" t="n">
-        <v>2.89995</v>
+        <v>3.30834</v>
       </c>
       <c r="D87" t="n">
-        <v>3.55444</v>
+        <v>3.74866</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.51871</v>
+        <v>2.69859</v>
       </c>
       <c r="C88" t="n">
-        <v>2.9468</v>
+        <v>3.46699</v>
       </c>
       <c r="D88" t="n">
-        <v>3.56119</v>
+        <v>3.81639</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.55184</v>
+        <v>2.70923</v>
       </c>
       <c r="C89" t="n">
-        <v>2.94368</v>
+        <v>3.41975</v>
       </c>
       <c r="D89" t="n">
-        <v>3.61457</v>
+        <v>4.02837</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.57934</v>
+        <v>2.70555</v>
       </c>
       <c r="C90" t="n">
-        <v>2.97946</v>
+        <v>3.4905</v>
       </c>
       <c r="D90" t="n">
-        <v>3.77288</v>
+        <v>3.99143</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.67229</v>
+        <v>2.75827</v>
       </c>
       <c r="C91" t="n">
-        <v>3.06372</v>
+        <v>3.5233</v>
       </c>
       <c r="D91" t="n">
-        <v>3.52456</v>
+        <v>4.06945</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.63714</v>
+        <v>2.84159</v>
       </c>
       <c r="C92" t="n">
-        <v>3.11053</v>
+        <v>3.58747</v>
       </c>
       <c r="D92" t="n">
-        <v>3.69946</v>
+        <v>4.16707</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.69161</v>
+        <v>2.80986</v>
       </c>
       <c r="C93" t="n">
-        <v>3.12736</v>
+        <v>3.61231</v>
       </c>
       <c r="D93" t="n">
-        <v>3.77456</v>
+        <v>4.28253</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.58859</v>
+        <v>2.90242</v>
       </c>
       <c r="C94" t="n">
-        <v>3.11529</v>
+        <v>3.7084</v>
       </c>
       <c r="D94" t="n">
-        <v>3.87975</v>
+        <v>4.22757</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.62733</v>
+        <v>2.82949</v>
       </c>
       <c r="C95" t="n">
-        <v>3.17003</v>
+        <v>3.72703</v>
       </c>
       <c r="D95" t="n">
-        <v>3.90896</v>
+        <v>4.32628</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.65605</v>
+        <v>2.86412</v>
       </c>
       <c r="C96" t="n">
-        <v>3.24935</v>
+        <v>3.69542</v>
       </c>
       <c r="D96" t="n">
-        <v>3.95468</v>
+        <v>4.35848</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.74925</v>
+        <v>2.94059</v>
       </c>
       <c r="C97" t="n">
-        <v>3.2542</v>
+        <v>3.78279</v>
       </c>
       <c r="D97" t="n">
-        <v>3.98289</v>
+        <v>4.4024</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.80149</v>
+        <v>3.22746</v>
       </c>
       <c r="C98" t="n">
-        <v>3.33928</v>
+        <v>3.78275</v>
       </c>
       <c r="D98" t="n">
-        <v>4.01017</v>
+        <v>4.38754</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.85044</v>
+        <v>3.14385</v>
       </c>
       <c r="C99" t="n">
-        <v>3.36825</v>
+        <v>3.89877</v>
       </c>
       <c r="D99" t="n">
-        <v>4.0203</v>
+        <v>4.37163</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.87227</v>
+        <v>3.22864</v>
       </c>
       <c r="C100" t="n">
-        <v>3.38448</v>
+        <v>3.80171</v>
       </c>
       <c r="D100" t="n">
-        <v>4.09824</v>
+        <v>4.4263</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.8404</v>
+        <v>3.24581</v>
       </c>
       <c r="C101" t="n">
-        <v>3.36198</v>
+        <v>4.00545</v>
       </c>
       <c r="D101" t="n">
-        <v>4.14811</v>
+        <v>4.61886</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.88142</v>
+        <v>3.38862</v>
       </c>
       <c r="C102" t="n">
-        <v>3.46322</v>
+        <v>4.0587</v>
       </c>
       <c r="D102" t="n">
-        <v>4.20949</v>
+        <v>4.66455</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.91873</v>
+        <v>3.42523</v>
       </c>
       <c r="C103" t="n">
-        <v>3.44273</v>
+        <v>3.99818</v>
       </c>
       <c r="D103" t="n">
-        <v>4.23058</v>
+        <v>4.66948</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.99172</v>
+        <v>3.39338</v>
       </c>
       <c r="C104" t="n">
-        <v>3.53933</v>
+        <v>4.04551</v>
       </c>
       <c r="D104" t="n">
-        <v>4.20346</v>
+        <v>4.66395</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.9706</v>
+        <v>3.3913</v>
       </c>
       <c r="C105" t="n">
-        <v>3.5657</v>
+        <v>4.71231</v>
       </c>
       <c r="D105" t="n">
-        <v>4.26975</v>
+        <v>4.8879</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.9881</v>
+        <v>3.50077</v>
       </c>
       <c r="C106" t="n">
-        <v>3.51025</v>
+        <v>4.37929</v>
       </c>
       <c r="D106" t="n">
-        <v>4.24964</v>
+        <v>4.98466</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.1248</v>
+        <v>3.83503</v>
       </c>
       <c r="C107" t="n">
-        <v>3.59538</v>
+        <v>4.91627</v>
       </c>
       <c r="D107" t="n">
-        <v>4.49914</v>
+        <v>5.72632</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.06621</v>
+        <v>3.85907</v>
       </c>
       <c r="C108" t="n">
-        <v>3.65865</v>
+        <v>4.59308</v>
       </c>
       <c r="D108" t="n">
-        <v>4.48646</v>
+        <v>5.26386</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.11436</v>
+        <v>3.80183</v>
       </c>
       <c r="C109" t="n">
-        <v>3.66314</v>
+        <v>4.74699</v>
       </c>
       <c r="D109" t="n">
-        <v>4.50126</v>
+        <v>6.32385</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.07472</v>
+        <v>4.52037</v>
       </c>
       <c r="C110" t="n">
-        <v>3.7102</v>
+        <v>6.13028</v>
       </c>
       <c r="D110" t="n">
-        <v>4.59309</v>
+        <v>5.75342</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.16547</v>
+        <v>3.47777</v>
       </c>
       <c r="C111" t="n">
-        <v>3.78573</v>
+        <v>4.13061</v>
       </c>
       <c r="D111" t="n">
-        <v>4.6209</v>
+        <v>4.803</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.36746</v>
+        <v>3.62397</v>
       </c>
       <c r="C112" t="n">
-        <v>3.83077</v>
+        <v>4.2143</v>
       </c>
       <c r="D112" t="n">
-        <v>4.7579</v>
+        <v>4.79921</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.37743</v>
+        <v>3.53878</v>
       </c>
       <c r="C113" t="n">
-        <v>3.88</v>
+        <v>4.34284</v>
       </c>
       <c r="D113" t="n">
-        <v>4.70642</v>
+        <v>4.96714</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.49761</v>
+        <v>3.61476</v>
       </c>
       <c r="C114" t="n">
-        <v>3.97701</v>
+        <v>4.42502</v>
       </c>
       <c r="D114" t="n">
-        <v>4.84283</v>
+        <v>5.1017</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.57376</v>
+        <v>3.68413</v>
       </c>
       <c r="C115" t="n">
-        <v>3.97348</v>
+        <v>4.52663</v>
       </c>
       <c r="D115" t="n">
-        <v>4.92756</v>
+        <v>5.29714</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.62344</v>
+        <v>4.04237</v>
       </c>
       <c r="C116" t="n">
-        <v>4.1139</v>
+        <v>4.70746</v>
       </c>
       <c r="D116" t="n">
-        <v>4.99949</v>
+        <v>5.41747</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.69506</v>
+        <v>4.07041</v>
       </c>
       <c r="C117" t="n">
-        <v>4.1476</v>
+        <v>4.7349</v>
       </c>
       <c r="D117" t="n">
-        <v>4.98845</v>
+        <v>5.81886</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.56806</v>
+        <v>4.16796</v>
       </c>
       <c r="C118" t="n">
-        <v>4.07352</v>
+        <v>5.01542</v>
       </c>
       <c r="D118" t="n">
-        <v>4.96048</v>
+        <v>5.94639</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.54338</v>
+        <v>4.25329</v>
       </c>
       <c r="C119" t="n">
-        <v>4.34188</v>
+        <v>5.02821</v>
       </c>
       <c r="D119" t="n">
-        <v>5.08934</v>
+        <v>5.95757</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.398335</v>
+        <v>0.402331</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5559730000000001</v>
+        <v>0.57612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.500068</v>
+        <v>0.508746</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.409814</v>
+        <v>0.433033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.568303</v>
+        <v>0.5807</v>
       </c>
       <c r="D3" t="n">
-        <v>0.518524</v>
+        <v>0.505328</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.421316</v>
+        <v>0.428762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.58147</v>
+        <v>0.584132</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5124880000000001</v>
+        <v>0.52278</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.415135</v>
+        <v>0.473947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.577523</v>
+        <v>0.589855</v>
       </c>
       <c r="D5" t="n">
-        <v>0.518443</v>
+        <v>0.5148740000000001</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.422743</v>
+        <v>0.436085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.585753</v>
+        <v>0.591064</v>
       </c>
       <c r="D6" t="n">
-        <v>0.524037</v>
+        <v>0.514148</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.424355</v>
+        <v>0.428392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.568308</v>
+        <v>0.60565</v>
       </c>
       <c r="D7" t="n">
-        <v>0.522899</v>
+        <v>0.536727</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.42424</v>
+        <v>0.439348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.592324</v>
+        <v>0.6062110000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.540019</v>
+        <v>0.524926</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.43045</v>
+        <v>0.44286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.604132</v>
+        <v>0.621173</v>
       </c>
       <c r="D9" t="n">
-        <v>0.536316</v>
+        <v>0.53609</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.430382</v>
+        <v>0.457537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.616897</v>
+        <v>0.639239</v>
       </c>
       <c r="D10" t="n">
-        <v>0.531181</v>
+        <v>0.537398</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.430282</v>
+        <v>0.433035</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6003270000000001</v>
+        <v>0.608867</v>
       </c>
       <c r="D11" t="n">
-        <v>0.550103</v>
+        <v>0.546104</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.432164</v>
+        <v>0.438623</v>
       </c>
       <c r="C12" t="n">
-        <v>0.600836</v>
+        <v>0.615859</v>
       </c>
       <c r="D12" t="n">
-        <v>0.549573</v>
+        <v>0.560287</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.424895</v>
+        <v>0.442907</v>
       </c>
       <c r="C13" t="n">
-        <v>0.607676</v>
+        <v>0.613671</v>
       </c>
       <c r="D13" t="n">
-        <v>0.560701</v>
+        <v>0.5523709999999999</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.429787</v>
+        <v>0.444891</v>
       </c>
       <c r="C14" t="n">
-        <v>0.614564</v>
+        <v>0.691095</v>
       </c>
       <c r="D14" t="n">
-        <v>0.555337</v>
+        <v>0.571957</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.426475</v>
+        <v>0.448532</v>
       </c>
       <c r="C15" t="n">
-        <v>0.607729</v>
+        <v>0.640216</v>
       </c>
       <c r="D15" t="n">
-        <v>0.568323</v>
+        <v>0.571195</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.435581</v>
+        <v>0.453991</v>
       </c>
       <c r="C16" t="n">
-        <v>0.626591</v>
+        <v>0.642863</v>
       </c>
       <c r="D16" t="n">
-        <v>0.570932</v>
+        <v>0.586118</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.461027</v>
+        <v>0.480477</v>
       </c>
       <c r="C17" t="n">
-        <v>0.641785</v>
+        <v>0.654587</v>
       </c>
       <c r="D17" t="n">
-        <v>0.575924</v>
+        <v>0.571348</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.461473</v>
+        <v>0.466727</v>
       </c>
       <c r="C18" t="n">
-        <v>0.636522</v>
+        <v>0.651181</v>
       </c>
       <c r="D18" t="n">
-        <v>0.58435</v>
+        <v>0.583493</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.459837</v>
+        <v>0.471645</v>
       </c>
       <c r="C19" t="n">
-        <v>0.652085</v>
+        <v>0.667366</v>
       </c>
       <c r="D19" t="n">
-        <v>0.586488</v>
+        <v>0.5829569999999999</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.474739</v>
+        <v>0.479931</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6461</v>
+        <v>0.683233</v>
       </c>
       <c r="D20" t="n">
-        <v>0.591519</v>
+        <v>0.5848449999999999</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.464154</v>
+        <v>0.495525</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6524990000000001</v>
+        <v>0.686334</v>
       </c>
       <c r="D21" t="n">
-        <v>0.577304</v>
+        <v>0.591407</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.47477</v>
+        <v>0.481632</v>
       </c>
       <c r="C22" t="n">
-        <v>0.665269</v>
+        <v>0.68991</v>
       </c>
       <c r="D22" t="n">
-        <v>0.590363</v>
+        <v>0.5908870000000001</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.460696</v>
+        <v>0.476957</v>
       </c>
       <c r="C23" t="n">
-        <v>0.685079</v>
+        <v>0.7369059999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.598701</v>
+        <v>0.600864</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.462562</v>
+        <v>0.474072</v>
       </c>
       <c r="C24" t="n">
-        <v>0.690762</v>
+        <v>0.721648</v>
       </c>
       <c r="D24" t="n">
-        <v>0.599567</v>
+        <v>0.629932</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.478941</v>
+        <v>0.498497</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7029339999999999</v>
+        <v>0.735632</v>
       </c>
       <c r="D25" t="n">
-        <v>0.600711</v>
+        <v>0.6244189999999999</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.491037</v>
+        <v>0.494816</v>
       </c>
       <c r="C26" t="n">
-        <v>0.64435</v>
+        <v>0.681274</v>
       </c>
       <c r="D26" t="n">
-        <v>0.597392</v>
+        <v>0.640134</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.469809</v>
+        <v>0.481149</v>
       </c>
       <c r="C27" t="n">
-        <v>0.666322</v>
+        <v>0.692283</v>
       </c>
       <c r="D27" t="n">
-        <v>0.613213</v>
+        <v>0.639351</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.482513</v>
+        <v>0.503834</v>
       </c>
       <c r="C28" t="n">
-        <v>0.667727</v>
+        <v>0.7021849999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.612719</v>
+        <v>0.649647</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.475165</v>
+        <v>0.505722</v>
       </c>
       <c r="C29" t="n">
-        <v>0.658999</v>
+        <v>0.725015</v>
       </c>
       <c r="D29" t="n">
-        <v>0.623125</v>
+        <v>0.660212</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.475312</v>
+        <v>0.509162</v>
       </c>
       <c r="C30" t="n">
-        <v>0.676105</v>
+        <v>0.726696</v>
       </c>
       <c r="D30" t="n">
-        <v>0.629746</v>
+        <v>0.663694</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.492691</v>
+        <v>0.527671</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6923589999999999</v>
+        <v>0.736754</v>
       </c>
       <c r="D31" t="n">
-        <v>0.640456</v>
+        <v>0.6853630000000001</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.517727</v>
+        <v>0.558971</v>
       </c>
       <c r="C32" t="n">
-        <v>0.696058</v>
+        <v>0.751015</v>
       </c>
       <c r="D32" t="n">
-        <v>0.655365</v>
+        <v>0.676074</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.556419</v>
+        <v>0.572179</v>
       </c>
       <c r="C33" t="n">
-        <v>0.726477</v>
+        <v>0.8205249999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.680827</v>
+        <v>0.695103</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5329930000000001</v>
+        <v>0.571495</v>
       </c>
       <c r="C34" t="n">
-        <v>0.707882</v>
+        <v>0.8367869999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.663306</v>
+        <v>0.720647</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.552005</v>
+        <v>0.585763</v>
       </c>
       <c r="C35" t="n">
-        <v>0.745039</v>
+        <v>0.87492</v>
       </c>
       <c r="D35" t="n">
-        <v>0.691005</v>
+        <v>0.7424770000000001</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5582240000000001</v>
+        <v>0.640245</v>
       </c>
       <c r="C36" t="n">
-        <v>0.771566</v>
+        <v>0.884871</v>
       </c>
       <c r="D36" t="n">
-        <v>0.721877</v>
+        <v>0.752435</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.586032</v>
+        <v>0.627803</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8046180000000001</v>
+        <v>0.937883</v>
       </c>
       <c r="D37" t="n">
-        <v>0.723316</v>
+        <v>0.771309</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.569214</v>
+        <v>0.649525</v>
       </c>
       <c r="C38" t="n">
-        <v>0.795556</v>
+        <v>0.9230390000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.757497</v>
+        <v>0.798817</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.596323</v>
+        <v>0.662503</v>
       </c>
       <c r="C39" t="n">
-        <v>0.855356</v>
+        <v>0.999491</v>
       </c>
       <c r="D39" t="n">
-        <v>0.780836</v>
+        <v>0.838959</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.610317</v>
+        <v>0.693921</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8180809999999999</v>
+        <v>0.974915</v>
       </c>
       <c r="D40" t="n">
-        <v>0.823002</v>
+        <v>0.901149</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6338240000000001</v>
+        <v>0.806841</v>
       </c>
       <c r="C41" t="n">
-        <v>0.833264</v>
+        <v>1.0302</v>
       </c>
       <c r="D41" t="n">
-        <v>0.853902</v>
+        <v>1.32015</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.648543</v>
+        <v>0.953201</v>
       </c>
       <c r="C42" t="n">
-        <v>0.854849</v>
+        <v>1.39917</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8512690000000001</v>
+        <v>1.12555</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.643971</v>
+        <v>0.800878</v>
       </c>
       <c r="C43" t="n">
-        <v>0.902603</v>
+        <v>1.21236</v>
       </c>
       <c r="D43" t="n">
-        <v>0.924903</v>
+        <v>1.15319</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.683611</v>
+        <v>0.853512</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9220660000000001</v>
+        <v>1.40024</v>
       </c>
       <c r="D44" t="n">
-        <v>0.913507</v>
+        <v>1.25278</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.705033</v>
+        <v>0.9708869999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.962147</v>
+        <v>1.47379</v>
       </c>
       <c r="D45" t="n">
-        <v>0.959974</v>
+        <v>1.2614</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.827443</v>
+        <v>1.20562</v>
       </c>
       <c r="C46" t="n">
-        <v>0.988228</v>
+        <v>1.77066</v>
       </c>
       <c r="D46" t="n">
-        <v>0.983483</v>
+        <v>1.36976</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.817988</v>
+        <v>1.1226</v>
       </c>
       <c r="C47" t="n">
-        <v>1.04484</v>
+        <v>1.53684</v>
       </c>
       <c r="D47" t="n">
-        <v>1.00022</v>
+        <v>1.27001</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.869207</v>
+        <v>1.20388</v>
       </c>
       <c r="C48" t="n">
-        <v>1.12707</v>
+        <v>1.58906</v>
       </c>
       <c r="D48" t="n">
-        <v>1.05712</v>
+        <v>1.56815</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.880975</v>
+        <v>1.32296</v>
       </c>
       <c r="C49" t="n">
-        <v>1.13148</v>
+        <v>1.5824</v>
       </c>
       <c r="D49" t="n">
-        <v>1.09332</v>
+        <v>1.38401</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.899345</v>
+        <v>1.23502</v>
       </c>
       <c r="C50" t="n">
-        <v>1.16665</v>
+        <v>1.72729</v>
       </c>
       <c r="D50" t="n">
-        <v>1.13833</v>
+        <v>1.51796</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.930488</v>
+        <v>1.26772</v>
       </c>
       <c r="C51" t="n">
-        <v>1.25037</v>
+        <v>1.77349</v>
       </c>
       <c r="D51" t="n">
-        <v>1.18237</v>
+        <v>1.63771</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.962593</v>
+        <v>1.25923</v>
       </c>
       <c r="C52" t="n">
-        <v>1.31663</v>
+        <v>1.89373</v>
       </c>
       <c r="D52" t="n">
-        <v>1.23886</v>
+        <v>1.7086</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.973098</v>
+        <v>1.24012</v>
       </c>
       <c r="C53" t="n">
-        <v>1.36786</v>
+        <v>1.92242</v>
       </c>
       <c r="D53" t="n">
-        <v>1.2694</v>
+        <v>1.56823</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.00537</v>
+        <v>1.31091</v>
       </c>
       <c r="C54" t="n">
-        <v>1.44758</v>
+        <v>2.00499</v>
       </c>
       <c r="D54" t="n">
-        <v>1.3882</v>
+        <v>1.87902</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.03125</v>
+        <v>1.4426</v>
       </c>
       <c r="C55" t="n">
-        <v>1.39062</v>
+        <v>2.16905</v>
       </c>
       <c r="D55" t="n">
-        <v>1.39622</v>
+        <v>2.35401</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.06035</v>
+        <v>1.71156</v>
       </c>
       <c r="C56" t="n">
-        <v>1.51045</v>
+        <v>2.65117</v>
       </c>
       <c r="D56" t="n">
-        <v>1.42178</v>
+        <v>2.59562</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.08132</v>
+        <v>1.93772</v>
       </c>
       <c r="C57" t="n">
-        <v>1.53415</v>
+        <v>2.67821</v>
       </c>
       <c r="D57" t="n">
-        <v>1.47092</v>
+        <v>2.52769</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.09768</v>
+        <v>1.75723</v>
       </c>
       <c r="C58" t="n">
-        <v>1.59189</v>
+        <v>2.81134</v>
       </c>
       <c r="D58" t="n">
-        <v>1.51898</v>
+        <v>2.67072</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.1399</v>
+        <v>1.99644</v>
       </c>
       <c r="C59" t="n">
-        <v>1.72201</v>
+        <v>3.15341</v>
       </c>
       <c r="D59" t="n">
-        <v>1.60614</v>
+        <v>3.22407</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.33659</v>
+        <v>2.79024</v>
       </c>
       <c r="C60" t="n">
-        <v>1.66826</v>
+        <v>2.41348</v>
       </c>
       <c r="D60" t="n">
-        <v>1.61204</v>
+        <v>2.34143</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.34217</v>
+        <v>2.58535</v>
       </c>
       <c r="C61" t="n">
-        <v>1.80681</v>
+        <v>3.96843</v>
       </c>
       <c r="D61" t="n">
-        <v>1.71379</v>
+        <v>2.69784</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.41923</v>
+        <v>2.17842</v>
       </c>
       <c r="C62" t="n">
-        <v>1.89862</v>
+        <v>2.77516</v>
       </c>
       <c r="D62" t="n">
-        <v>1.76667</v>
+        <v>2.2009</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.44838</v>
+        <v>1.76272</v>
       </c>
       <c r="C63" t="n">
-        <v>1.88091</v>
+        <v>2.44734</v>
       </c>
       <c r="D63" t="n">
-        <v>1.80116</v>
+        <v>2.18063</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.48186</v>
+        <v>1.76756</v>
       </c>
       <c r="C64" t="n">
-        <v>2.02229</v>
+        <v>2.47869</v>
       </c>
       <c r="D64" t="n">
-        <v>1.89398</v>
+        <v>2.2715</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.48729</v>
+        <v>1.75481</v>
       </c>
       <c r="C65" t="n">
-        <v>1.995</v>
+        <v>2.39395</v>
       </c>
       <c r="D65" t="n">
-        <v>1.95885</v>
+        <v>2.17783</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.53832</v>
+        <v>1.72688</v>
       </c>
       <c r="C66" t="n">
-        <v>2.07613</v>
+        <v>2.42992</v>
       </c>
       <c r="D66" t="n">
-        <v>1.99742</v>
+        <v>2.22773</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.57076</v>
+        <v>1.76189</v>
       </c>
       <c r="C67" t="n">
-        <v>2.18035</v>
+        <v>2.53657</v>
       </c>
       <c r="D67" t="n">
-        <v>2.04124</v>
+        <v>2.25904</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.6027</v>
+        <v>1.803</v>
       </c>
       <c r="C68" t="n">
-        <v>2.13434</v>
+        <v>2.40715</v>
       </c>
       <c r="D68" t="n">
-        <v>2.2479</v>
+        <v>2.45983</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.62345</v>
+        <v>1.80257</v>
       </c>
       <c r="C69" t="n">
-        <v>2.21862</v>
+        <v>2.41619</v>
       </c>
       <c r="D69" t="n">
-        <v>2.31567</v>
+        <v>2.48923</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.70184</v>
+        <v>1.89195</v>
       </c>
       <c r="C70" t="n">
-        <v>2.2329</v>
+        <v>2.54156</v>
       </c>
       <c r="D70" t="n">
-        <v>2.388</v>
+        <v>2.60002</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.75348</v>
+        <v>1.8634</v>
       </c>
       <c r="C71" t="n">
-        <v>2.46287</v>
+        <v>2.57685</v>
       </c>
       <c r="D71" t="n">
-        <v>2.49222</v>
+        <v>2.69368</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.71709</v>
+        <v>1.965</v>
       </c>
       <c r="C72" t="n">
-        <v>2.37002</v>
+        <v>2.77008</v>
       </c>
       <c r="D72" t="n">
-        <v>2.68377</v>
+        <v>2.6878</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.88795</v>
+        <v>1.96259</v>
       </c>
       <c r="C73" t="n">
-        <v>2.62697</v>
+        <v>2.72456</v>
       </c>
       <c r="D73" t="n">
-        <v>2.70278</v>
+        <v>2.95752</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.052</v>
+        <v>2.25664</v>
       </c>
       <c r="C74" t="n">
-        <v>2.77902</v>
+        <v>3.02745</v>
       </c>
       <c r="D74" t="n">
-        <v>2.80956</v>
+        <v>3.115</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.10082</v>
+        <v>2.25993</v>
       </c>
       <c r="C75" t="n">
-        <v>2.67544</v>
+        <v>3.1517</v>
       </c>
       <c r="D75" t="n">
-        <v>2.79634</v>
+        <v>3.13697</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.05884</v>
+        <v>2.25126</v>
       </c>
       <c r="C76" t="n">
-        <v>2.61075</v>
+        <v>3.19988</v>
       </c>
       <c r="D76" t="n">
-        <v>2.91317</v>
+        <v>3.19192</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.15734</v>
+        <v>2.31551</v>
       </c>
       <c r="C77" t="n">
-        <v>2.87558</v>
+        <v>3.22651</v>
       </c>
       <c r="D77" t="n">
-        <v>2.93611</v>
+        <v>3.18072</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.11661</v>
+        <v>2.29202</v>
       </c>
       <c r="C78" t="n">
-        <v>2.79007</v>
+        <v>3.31833</v>
       </c>
       <c r="D78" t="n">
-        <v>2.86237</v>
+        <v>3.1824</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.077</v>
+        <v>2.33889</v>
       </c>
       <c r="C79" t="n">
-        <v>2.86849</v>
+        <v>3.51212</v>
       </c>
       <c r="D79" t="n">
-        <v>2.91783</v>
+        <v>3.3196</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.13269</v>
+        <v>2.36725</v>
       </c>
       <c r="C80" t="n">
-        <v>2.9693</v>
+        <v>3.54879</v>
       </c>
       <c r="D80" t="n">
-        <v>2.95744</v>
+        <v>3.41634</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.1625</v>
+        <v>2.52296</v>
       </c>
       <c r="C81" t="n">
-        <v>3.19704</v>
+        <v>3.65296</v>
       </c>
       <c r="D81" t="n">
-        <v>3.19368</v>
+        <v>3.46157</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.21032</v>
+        <v>2.42956</v>
       </c>
       <c r="C82" t="n">
-        <v>3.19839</v>
+        <v>3.89772</v>
       </c>
       <c r="D82" t="n">
-        <v>3.33966</v>
+        <v>3.47224</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.30994</v>
+        <v>2.45513</v>
       </c>
       <c r="C83" t="n">
-        <v>3.02418</v>
+        <v>3.57327</v>
       </c>
       <c r="D83" t="n">
-        <v>3.36377</v>
+        <v>3.75094</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.30362</v>
+        <v>2.45831</v>
       </c>
       <c r="C84" t="n">
-        <v>3.20864</v>
+        <v>3.60298</v>
       </c>
       <c r="D84" t="n">
-        <v>3.41476</v>
+        <v>3.79949</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.37247</v>
+        <v>2.52465</v>
       </c>
       <c r="C85" t="n">
-        <v>3.15908</v>
+        <v>3.69012</v>
       </c>
       <c r="D85" t="n">
-        <v>3.49788</v>
+        <v>3.7387</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.36744</v>
+        <v>2.49458</v>
       </c>
       <c r="C86" t="n">
-        <v>3.23972</v>
+        <v>3.7051</v>
       </c>
       <c r="D86" t="n">
-        <v>3.54141</v>
+        <v>3.6821</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.39452</v>
+        <v>2.51507</v>
       </c>
       <c r="C87" t="n">
-        <v>3.40787</v>
+        <v>3.80616</v>
       </c>
       <c r="D87" t="n">
-        <v>3.48905</v>
+        <v>3.84695</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.36782</v>
+        <v>2.53485</v>
       </c>
       <c r="C88" t="n">
-        <v>3.48057</v>
+        <v>3.91042</v>
       </c>
       <c r="D88" t="n">
-        <v>3.63321</v>
+        <v>3.94007</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.52269</v>
+        <v>2.653</v>
       </c>
       <c r="C89" t="n">
-        <v>3.45238</v>
+        <v>3.95809</v>
       </c>
       <c r="D89" t="n">
-        <v>3.47961</v>
+        <v>3.82671</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.51565</v>
+        <v>2.71052</v>
       </c>
       <c r="C90" t="n">
-        <v>3.60468</v>
+        <v>4.05257</v>
       </c>
       <c r="D90" t="n">
-        <v>3.77635</v>
+        <v>3.9006</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.61053</v>
+        <v>2.76023</v>
       </c>
       <c r="C91" t="n">
-        <v>3.60001</v>
+        <v>4.10935</v>
       </c>
       <c r="D91" t="n">
-        <v>3.63895</v>
+        <v>3.98182</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.66879</v>
+        <v>2.70837</v>
       </c>
       <c r="C92" t="n">
-        <v>3.61654</v>
+        <v>4.13571</v>
       </c>
       <c r="D92" t="n">
-        <v>3.69693</v>
+        <v>3.98526</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.57361</v>
+        <v>2.74284</v>
       </c>
       <c r="C93" t="n">
-        <v>3.74314</v>
+        <v>4.36652</v>
       </c>
       <c r="D93" t="n">
-        <v>3.74475</v>
+        <v>4.04122</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.6487</v>
+        <v>2.80129</v>
       </c>
       <c r="C94" t="n">
-        <v>3.88496</v>
+        <v>4.36864</v>
       </c>
       <c r="D94" t="n">
-        <v>3.8555</v>
+        <v>4.04943</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.69458</v>
+        <v>2.78573</v>
       </c>
       <c r="C95" t="n">
-        <v>3.93573</v>
+        <v>4.49024</v>
       </c>
       <c r="D95" t="n">
-        <v>3.89795</v>
+        <v>4.15321</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.65982</v>
+        <v>2.8162</v>
       </c>
       <c r="C96" t="n">
-        <v>4.04942</v>
+        <v>4.51319</v>
       </c>
       <c r="D96" t="n">
-        <v>3.87935</v>
+        <v>4.16548</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.68194</v>
+        <v>2.84886</v>
       </c>
       <c r="C97" t="n">
-        <v>3.56899</v>
+        <v>4.14958</v>
       </c>
       <c r="D97" t="n">
-        <v>3.99158</v>
+        <v>4.28152</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.68374</v>
+        <v>2.82963</v>
       </c>
       <c r="C98" t="n">
-        <v>3.57618</v>
+        <v>4.0511</v>
       </c>
       <c r="D98" t="n">
-        <v>4.05779</v>
+        <v>4.22329</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.67412</v>
+        <v>2.85296</v>
       </c>
       <c r="C99" t="n">
-        <v>3.66689</v>
+        <v>4.15974</v>
       </c>
       <c r="D99" t="n">
-        <v>3.95612</v>
+        <v>4.29805</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.69594</v>
+        <v>2.86581</v>
       </c>
       <c r="C100" t="n">
-        <v>3.75248</v>
+        <v>4.2364</v>
       </c>
       <c r="D100" t="n">
-        <v>4.0118</v>
+        <v>4.27428</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.67683</v>
+        <v>2.86452</v>
       </c>
       <c r="C101" t="n">
-        <v>3.82988</v>
+        <v>4.21711</v>
       </c>
       <c r="D101" t="n">
-        <v>4.10279</v>
+        <v>4.29801</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.78075</v>
+        <v>2.92216</v>
       </c>
       <c r="C102" t="n">
-        <v>3.86337</v>
+        <v>4.29722</v>
       </c>
       <c r="D102" t="n">
-        <v>4.05624</v>
+        <v>4.30076</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.93504</v>
+        <v>2.99693</v>
       </c>
       <c r="C103" t="n">
-        <v>3.98906</v>
+        <v>4.48123</v>
       </c>
       <c r="D103" t="n">
-        <v>4.13884</v>
+        <v>4.33045</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.89466</v>
+        <v>3.03929</v>
       </c>
       <c r="C104" t="n">
-        <v>4.02183</v>
+        <v>4.47632</v>
       </c>
       <c r="D104" t="n">
-        <v>4.19594</v>
+        <v>4.34367</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.91262</v>
+        <v>3.04095</v>
       </c>
       <c r="C105" t="n">
-        <v>4.09979</v>
+        <v>4.48431</v>
       </c>
       <c r="D105" t="n">
-        <v>4.14228</v>
+        <v>4.39851</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.93304</v>
+        <v>3.02603</v>
       </c>
       <c r="C106" t="n">
-        <v>4.27691</v>
+        <v>4.59008</v>
       </c>
       <c r="D106" t="n">
-        <v>4.21353</v>
+        <v>4.38654</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.94119</v>
+        <v>3.05981</v>
       </c>
       <c r="C107" t="n">
-        <v>4.26301</v>
+        <v>4.62461</v>
       </c>
       <c r="D107" t="n">
-        <v>4.23258</v>
+        <v>4.4588</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.95062</v>
+        <v>3.09856</v>
       </c>
       <c r="C108" t="n">
-        <v>4.31117</v>
+        <v>4.75278</v>
       </c>
       <c r="D108" t="n">
-        <v>4.23718</v>
+        <v>4.45267</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.97434</v>
+        <v>3.11482</v>
       </c>
       <c r="C109" t="n">
-        <v>4.47216</v>
+        <v>4.85675</v>
       </c>
       <c r="D109" t="n">
-        <v>4.2629</v>
+        <v>4.54923</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.03092</v>
+        <v>3.15137</v>
       </c>
       <c r="C110" t="n">
-        <v>4.5908</v>
+        <v>4.96914</v>
       </c>
       <c r="D110" t="n">
-        <v>4.34674</v>
+        <v>4.53477</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.06009</v>
+        <v>3.15816</v>
       </c>
       <c r="C111" t="n">
-        <v>4.08425</v>
+        <v>4.44247</v>
       </c>
       <c r="D111" t="n">
-        <v>4.48951</v>
+        <v>4.71205</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.06394</v>
+        <v>3.17237</v>
       </c>
       <c r="C112" t="n">
-        <v>4.14369</v>
+        <v>4.50685</v>
       </c>
       <c r="D112" t="n">
-        <v>4.6022</v>
+        <v>4.70727</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.1447</v>
+        <v>3.21171</v>
       </c>
       <c r="C113" t="n">
-        <v>4.25477</v>
+        <v>4.60457</v>
       </c>
       <c r="D113" t="n">
-        <v>4.63251</v>
+        <v>4.72359</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.17857</v>
+        <v>3.22</v>
       </c>
       <c r="C114" t="n">
-        <v>4.35232</v>
+        <v>4.60886</v>
       </c>
       <c r="D114" t="n">
-        <v>4.70636</v>
+        <v>4.80926</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.15271</v>
+        <v>3.24538</v>
       </c>
       <c r="C115" t="n">
-        <v>4.38132</v>
+        <v>4.62793</v>
       </c>
       <c r="D115" t="n">
-        <v>4.71227</v>
+        <v>4.70868</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.1631</v>
+        <v>3.23855</v>
       </c>
       <c r="C116" t="n">
-        <v>4.47451</v>
+        <v>4.69051</v>
       </c>
       <c r="D116" t="n">
-        <v>4.75168</v>
+        <v>4.72638</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.34815</v>
+        <v>3.32934</v>
       </c>
       <c r="C117" t="n">
-        <v>4.56834</v>
+        <v>4.72594</v>
       </c>
       <c r="D117" t="n">
-        <v>4.81489</v>
+        <v>4.82221</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.40637</v>
+        <v>3.40416</v>
       </c>
       <c r="C118" t="n">
-        <v>4.70508</v>
+        <v>4.89341</v>
       </c>
       <c r="D118" t="n">
-        <v>4.7897</v>
+        <v>4.85926</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.36494</v>
+        <v>3.55749</v>
       </c>
       <c r="C119" t="n">
-        <v>4.72156</v>
+        <v>5.01902</v>
       </c>
       <c r="D119" t="n">
-        <v>4.90064</v>
+        <v>4.96376</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.461118</v>
+        <v>0.444799</v>
       </c>
       <c r="C2" t="n">
-        <v>0.588147</v>
+        <v>0.633115</v>
       </c>
       <c r="D2" t="n">
-        <v>0.375609</v>
+        <v>0.414911</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.399385</v>
+        <v>0.455126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584562</v>
+        <v>0.635256</v>
       </c>
       <c r="D3" t="n">
-        <v>0.371371</v>
+        <v>0.405403</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.396401</v>
+        <v>0.460219</v>
       </c>
       <c r="C4" t="n">
-        <v>0.583766</v>
+        <v>0.645186</v>
       </c>
       <c r="D4" t="n">
-        <v>0.383409</v>
+        <v>0.410913</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.400673</v>
+        <v>0.441193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.607753</v>
+        <v>0.623852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37829</v>
+        <v>0.41484</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.400889</v>
+        <v>0.447909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.582203</v>
+        <v>0.614681</v>
       </c>
       <c r="D6" t="n">
-        <v>0.386352</v>
+        <v>0.404371</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.401697</v>
+        <v>0.434536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.593178</v>
+        <v>0.634701</v>
       </c>
       <c r="D7" t="n">
-        <v>0.378419</v>
+        <v>0.409195</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.437833</v>
+        <v>0.431285</v>
       </c>
       <c r="C8" t="n">
-        <v>0.60376</v>
+        <v>0.617938</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378801</v>
+        <v>0.396065</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.411623</v>
+        <v>0.438095</v>
       </c>
       <c r="C9" t="n">
-        <v>0.597118</v>
+        <v>0.612199</v>
       </c>
       <c r="D9" t="n">
-        <v>0.388358</v>
+        <v>0.397782</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.418644</v>
+        <v>0.436658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.604994</v>
+        <v>0.614613</v>
       </c>
       <c r="D10" t="n">
-        <v>0.397044</v>
+        <v>0.402111</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.428069</v>
+        <v>0.44303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.603751</v>
+        <v>0.625403</v>
       </c>
       <c r="D11" t="n">
-        <v>0.389097</v>
+        <v>0.401644</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.434446</v>
+        <v>0.442827</v>
       </c>
       <c r="C12" t="n">
-        <v>0.645712</v>
+        <v>0.620185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.389868</v>
+        <v>0.407945</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.413519</v>
+        <v>0.436134</v>
       </c>
       <c r="C13" t="n">
-        <v>0.607538</v>
+        <v>0.627075</v>
       </c>
       <c r="D13" t="n">
-        <v>0.393846</v>
+        <v>0.410793</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.420645</v>
+        <v>0.444498</v>
       </c>
       <c r="C14" t="n">
-        <v>0.607989</v>
+        <v>0.634965</v>
       </c>
       <c r="D14" t="n">
-        <v>0.406709</v>
+        <v>0.420622</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.408306</v>
+        <v>0.439818</v>
       </c>
       <c r="C15" t="n">
-        <v>0.604025</v>
+        <v>0.631912</v>
       </c>
       <c r="D15" t="n">
-        <v>0.397806</v>
+        <v>0.414872</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.420617</v>
+        <v>0.435462</v>
       </c>
       <c r="C16" t="n">
-        <v>0.620201</v>
+        <v>0.640055</v>
       </c>
       <c r="D16" t="n">
-        <v>0.403928</v>
+        <v>0.42386</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.423605</v>
+        <v>0.440734</v>
       </c>
       <c r="C17" t="n">
-        <v>0.609587</v>
+        <v>0.619483</v>
       </c>
       <c r="D17" t="n">
-        <v>0.408189</v>
+        <v>0.427418</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.434507</v>
+        <v>0.45375</v>
       </c>
       <c r="C18" t="n">
-        <v>0.609055</v>
+        <v>0.634944</v>
       </c>
       <c r="D18" t="n">
-        <v>0.423249</v>
+        <v>0.430725</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.428084</v>
+        <v>0.456678</v>
       </c>
       <c r="C19" t="n">
-        <v>0.613445</v>
+        <v>0.637956</v>
       </c>
       <c r="D19" t="n">
-        <v>0.416578</v>
+        <v>0.433917</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.436974</v>
+        <v>0.458167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.621418</v>
+        <v>0.656277</v>
       </c>
       <c r="D20" t="n">
-        <v>0.419044</v>
+        <v>0.433572</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4392</v>
+        <v>0.457477</v>
       </c>
       <c r="C21" t="n">
-        <v>0.638313</v>
+        <v>0.664374</v>
       </c>
       <c r="D21" t="n">
-        <v>0.410858</v>
+        <v>0.429017</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.452427</v>
+        <v>0.470784</v>
       </c>
       <c r="C22" t="n">
-        <v>0.673948</v>
+        <v>0.649566</v>
       </c>
       <c r="D22" t="n">
-        <v>0.414099</v>
+        <v>0.435456</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.468402</v>
+        <v>0.465052</v>
       </c>
       <c r="C23" t="n">
-        <v>0.663533</v>
+        <v>0.675755</v>
       </c>
       <c r="D23" t="n">
-        <v>0.42121</v>
+        <v>0.440561</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.458277</v>
+        <v>0.48881</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6500939999999999</v>
+        <v>0.673929</v>
       </c>
       <c r="D24" t="n">
-        <v>0.426565</v>
+        <v>0.440096</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.473722</v>
+        <v>0.516792</v>
       </c>
       <c r="C25" t="n">
-        <v>0.64672</v>
+        <v>0.679308</v>
       </c>
       <c r="D25" t="n">
-        <v>0.440611</v>
+        <v>0.45382</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.459586</v>
+        <v>0.520886</v>
       </c>
       <c r="C26" t="n">
-        <v>0.648922</v>
+        <v>0.679427</v>
       </c>
       <c r="D26" t="n">
-        <v>0.429578</v>
+        <v>0.468847</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.549056</v>
+        <v>0.55474</v>
       </c>
       <c r="C27" t="n">
-        <v>0.671634</v>
+        <v>0.68325</v>
       </c>
       <c r="D27" t="n">
-        <v>0.440167</v>
+        <v>0.496571</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.52563</v>
+        <v>0.551555</v>
       </c>
       <c r="C28" t="n">
-        <v>0.673301</v>
+        <v>0.6871620000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.447725</v>
+        <v>0.508818</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.54443</v>
+        <v>0.586718</v>
       </c>
       <c r="C29" t="n">
-        <v>0.675304</v>
+        <v>0.697357</v>
       </c>
       <c r="D29" t="n">
-        <v>0.486771</v>
+        <v>0.50647</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.561999</v>
+        <v>0.580088</v>
       </c>
       <c r="C30" t="n">
-        <v>0.672936</v>
+        <v>0.706975</v>
       </c>
       <c r="D30" t="n">
-        <v>0.473206</v>
+        <v>0.504199</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.612156</v>
+        <v>0.592925</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6716529999999999</v>
+        <v>0.727946</v>
       </c>
       <c r="D31" t="n">
-        <v>0.47012</v>
+        <v>0.501869</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.601041</v>
+        <v>0.604064</v>
       </c>
       <c r="C32" t="n">
-        <v>0.692818</v>
+        <v>0.712131</v>
       </c>
       <c r="D32" t="n">
-        <v>0.487047</v>
+        <v>0.514277</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.599869</v>
+        <v>0.623571</v>
       </c>
       <c r="C33" t="n">
-        <v>0.728658</v>
+        <v>0.714328</v>
       </c>
       <c r="D33" t="n">
-        <v>0.504365</v>
+        <v>0.5433750000000001</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.628846</v>
+        <v>0.6435689999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7214390000000001</v>
+        <v>0.716155</v>
       </c>
       <c r="D34" t="n">
-        <v>0.522232</v>
+        <v>0.53755</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.631489</v>
+        <v>0.665624</v>
       </c>
       <c r="C35" t="n">
-        <v>0.772848</v>
+        <v>0.808006</v>
       </c>
       <c r="D35" t="n">
-        <v>0.593619</v>
+        <v>0.673482</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.652297</v>
+        <v>0.6722860000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7815029999999999</v>
+        <v>0.806107</v>
       </c>
       <c r="D36" t="n">
-        <v>0.624926</v>
+        <v>0.672009</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6903589999999999</v>
+        <v>0.7042119999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.796551</v>
+        <v>0.819947</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6479470000000001</v>
+        <v>0.717297</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.720081</v>
+        <v>0.709971</v>
       </c>
       <c r="C38" t="n">
-        <v>0.861739</v>
+        <v>0.836218</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6584</v>
+        <v>0.714543</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.704873</v>
+        <v>0.730328</v>
       </c>
       <c r="C39" t="n">
-        <v>0.909559</v>
+        <v>0.847142</v>
       </c>
       <c r="D39" t="n">
-        <v>0.685111</v>
+        <v>0.724458</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.727281</v>
+        <v>0.75087</v>
       </c>
       <c r="C40" t="n">
-        <v>0.849896</v>
+        <v>0.8496359999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.693634</v>
+        <v>0.765506</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.852588</v>
+        <v>0.896791</v>
       </c>
       <c r="C41" t="n">
-        <v>0.889672</v>
+        <v>0.877494</v>
       </c>
       <c r="D41" t="n">
-        <v>0.703948</v>
+        <v>0.778595</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.904146</v>
+        <v>0.909624</v>
       </c>
       <c r="C42" t="n">
-        <v>0.884861</v>
+        <v>0.907331</v>
       </c>
       <c r="D42" t="n">
-        <v>0.724287</v>
+        <v>0.7755609999999999</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.907481</v>
+        <v>0.9271779999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.979622</v>
+        <v>0.893356</v>
       </c>
       <c r="D43" t="n">
-        <v>0.760112</v>
+        <v>0.802797</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.956672</v>
+        <v>0.957287</v>
       </c>
       <c r="C44" t="n">
-        <v>0.920189</v>
+        <v>0.922085</v>
       </c>
       <c r="D44" t="n">
-        <v>0.832768</v>
+        <v>0.834135</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.975452</v>
+        <v>0.996908</v>
       </c>
       <c r="C45" t="n">
-        <v>0.937837</v>
+        <v>0.968863</v>
       </c>
       <c r="D45" t="n">
-        <v>0.787774</v>
+        <v>0.865684</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>1.025</v>
+        <v>1.00315</v>
       </c>
       <c r="C46" t="n">
-        <v>1.00811</v>
+        <v>0.970487</v>
       </c>
       <c r="D46" t="n">
-        <v>0.830086</v>
+        <v>0.852204</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>1.06498</v>
+        <v>1.0177</v>
       </c>
       <c r="C47" t="n">
-        <v>1.06224</v>
+        <v>0.977001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.856266</v>
+        <v>0.906782</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07213</v>
+        <v>1.05599</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0978</v>
+        <v>1.03432</v>
       </c>
       <c r="D48" t="n">
-        <v>0.870152</v>
+        <v>0.936565</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.09988</v>
+        <v>1.10143</v>
       </c>
       <c r="C49" t="n">
-        <v>1.15588</v>
+        <v>1.0519</v>
       </c>
       <c r="D49" t="n">
-        <v>0.917526</v>
+        <v>0.963154</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.16459</v>
+        <v>1.0963</v>
       </c>
       <c r="C50" t="n">
-        <v>1.38884</v>
+        <v>1.26663</v>
       </c>
       <c r="D50" t="n">
-        <v>1.16704</v>
+        <v>1.13911</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.18996</v>
+        <v>1.14297</v>
       </c>
       <c r="C51" t="n">
-        <v>1.38295</v>
+        <v>1.32882</v>
       </c>
       <c r="D51" t="n">
-        <v>1.16801</v>
+        <v>1.17841</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.22702</v>
+        <v>1.15748</v>
       </c>
       <c r="C52" t="n">
-        <v>1.42681</v>
+        <v>1.37539</v>
       </c>
       <c r="D52" t="n">
-        <v>1.24383</v>
+        <v>1.23109</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.29502</v>
+        <v>1.21328</v>
       </c>
       <c r="C53" t="n">
-        <v>1.43336</v>
+        <v>1.39242</v>
       </c>
       <c r="D53" t="n">
-        <v>1.26633</v>
+        <v>1.26663</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.25235</v>
+        <v>1.27369</v>
       </c>
       <c r="C54" t="n">
-        <v>1.46393</v>
+        <v>1.42002</v>
       </c>
       <c r="D54" t="n">
-        <v>1.28107</v>
+        <v>1.29003</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.40828</v>
+        <v>1.31313</v>
       </c>
       <c r="C55" t="n">
-        <v>1.49295</v>
+        <v>1.45712</v>
       </c>
       <c r="D55" t="n">
-        <v>1.38632</v>
+        <v>1.37934</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.54084</v>
+        <v>1.5372</v>
       </c>
       <c r="C56" t="n">
-        <v>1.5684</v>
+        <v>1.46246</v>
       </c>
       <c r="D56" t="n">
-        <v>1.38267</v>
+        <v>1.39274</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.53189</v>
+        <v>1.54727</v>
       </c>
       <c r="C57" t="n">
-        <v>1.5074</v>
+        <v>1.50434</v>
       </c>
       <c r="D57" t="n">
-        <v>1.37607</v>
+        <v>1.40259</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.60649</v>
+        <v>1.57594</v>
       </c>
       <c r="C58" t="n">
-        <v>1.54989</v>
+        <v>1.53763</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43961</v>
+        <v>1.41117</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.60368</v>
+        <v>1.63365</v>
       </c>
       <c r="C59" t="n">
-        <v>1.57671</v>
+        <v>1.53873</v>
       </c>
       <c r="D59" t="n">
-        <v>1.52176</v>
+        <v>1.51564</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.62502</v>
+        <v>1.64426</v>
       </c>
       <c r="C60" t="n">
-        <v>1.71994</v>
+        <v>1.56068</v>
       </c>
       <c r="D60" t="n">
-        <v>1.52436</v>
+        <v>1.48931</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.7532</v>
+        <v>1.67693</v>
       </c>
       <c r="C61" t="n">
-        <v>1.74442</v>
+        <v>1.61637</v>
       </c>
       <c r="D61" t="n">
-        <v>1.56231</v>
+        <v>1.54899</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.69621</v>
+        <v>1.7232</v>
       </c>
       <c r="C62" t="n">
-        <v>1.75062</v>
+        <v>1.65595</v>
       </c>
       <c r="D62" t="n">
-        <v>1.57959</v>
+        <v>1.59804</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.69563</v>
+        <v>1.71932</v>
       </c>
       <c r="C63" t="n">
-        <v>1.68498</v>
+        <v>1.66953</v>
       </c>
       <c r="D63" t="n">
-        <v>1.60243</v>
+        <v>1.61269</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.70569</v>
+        <v>1.7742</v>
       </c>
       <c r="C64" t="n">
-        <v>1.9044</v>
+        <v>1.86589</v>
       </c>
       <c r="D64" t="n">
-        <v>1.94576</v>
+        <v>1.91586</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.75263</v>
+        <v>1.7938</v>
       </c>
       <c r="C65" t="n">
-        <v>1.87151</v>
+        <v>1.87731</v>
       </c>
       <c r="D65" t="n">
-        <v>1.95002</v>
+        <v>1.96077</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.78449</v>
+        <v>1.82662</v>
       </c>
       <c r="C66" t="n">
-        <v>1.86918</v>
+        <v>1.93967</v>
       </c>
       <c r="D66" t="n">
-        <v>1.95002</v>
+        <v>1.96992</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.92352</v>
+        <v>1.86323</v>
       </c>
       <c r="C67" t="n">
-        <v>1.98738</v>
+        <v>1.91248</v>
       </c>
       <c r="D67" t="n">
-        <v>2.11037</v>
+        <v>2.09352</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.95898</v>
+        <v>1.95034</v>
       </c>
       <c r="C68" t="n">
-        <v>1.94435</v>
+        <v>1.9191</v>
       </c>
       <c r="D68" t="n">
-        <v>2.04573</v>
+        <v>2.07984</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.9694</v>
+        <v>1.94736</v>
       </c>
       <c r="C69" t="n">
-        <v>1.99728</v>
+        <v>1.9358</v>
       </c>
       <c r="D69" t="n">
-        <v>2.20085</v>
+        <v>2.17278</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.06731</v>
+        <v>2.14721</v>
       </c>
       <c r="C70" t="n">
-        <v>1.98348</v>
+        <v>2.05588</v>
       </c>
       <c r="D70" t="n">
-        <v>2.24307</v>
+        <v>2.15761</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.09598</v>
+        <v>2.11432</v>
       </c>
       <c r="C71" t="n">
-        <v>2.0408</v>
+        <v>2.04116</v>
       </c>
       <c r="D71" t="n">
-        <v>2.12373</v>
+        <v>2.18855</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.07708</v>
+        <v>2.18618</v>
       </c>
       <c r="C72" t="n">
-        <v>2.13698</v>
+        <v>2.04017</v>
       </c>
       <c r="D72" t="n">
-        <v>2.30152</v>
+        <v>2.24942</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.1891</v>
+        <v>2.18829</v>
       </c>
       <c r="C73" t="n">
-        <v>2.15782</v>
+        <v>2.03677</v>
       </c>
       <c r="D73" t="n">
-        <v>2.25175</v>
+        <v>2.27268</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.09826</v>
+        <v>2.27887</v>
       </c>
       <c r="C74" t="n">
-        <v>2.05021</v>
+        <v>2.03883</v>
       </c>
       <c r="D74" t="n">
-        <v>2.26424</v>
+        <v>2.41441</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.04542</v>
+        <v>2.24955</v>
       </c>
       <c r="C75" t="n">
-        <v>2.10234</v>
+        <v>2.23701</v>
       </c>
       <c r="D75" t="n">
-        <v>2.32092</v>
+        <v>2.51422</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.17973</v>
+        <v>2.33103</v>
       </c>
       <c r="C76" t="n">
-        <v>2.1678</v>
+        <v>2.19259</v>
       </c>
       <c r="D76" t="n">
-        <v>2.48598</v>
+        <v>2.36479</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.23425</v>
+        <v>2.34393</v>
       </c>
       <c r="C77" t="n">
-        <v>2.16816</v>
+        <v>2.18662</v>
       </c>
       <c r="D77" t="n">
-        <v>2.35028</v>
+        <v>2.41375</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.23753</v>
+        <v>2.39428</v>
       </c>
       <c r="C78" t="n">
-        <v>2.29103</v>
+        <v>2.36035</v>
       </c>
       <c r="D78" t="n">
-        <v>2.63968</v>
+        <v>2.70043</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.17209</v>
+        <v>2.45202</v>
       </c>
       <c r="C79" t="n">
-        <v>2.37162</v>
+        <v>2.39676</v>
       </c>
       <c r="D79" t="n">
-        <v>2.6392</v>
+        <v>2.65991</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.24875</v>
+        <v>2.39571</v>
       </c>
       <c r="C80" t="n">
-        <v>2.38527</v>
+        <v>2.39181</v>
       </c>
       <c r="D80" t="n">
-        <v>2.68048</v>
+        <v>2.82359</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.19456</v>
+        <v>2.45044</v>
       </c>
       <c r="C81" t="n">
-        <v>2.27561</v>
+        <v>2.41287</v>
       </c>
       <c r="D81" t="n">
-        <v>2.68897</v>
+        <v>2.8064</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.22861</v>
+        <v>2.42274</v>
       </c>
       <c r="C82" t="n">
-        <v>2.30662</v>
+        <v>2.4229</v>
       </c>
       <c r="D82" t="n">
-        <v>2.64904</v>
+        <v>2.78835</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.25535</v>
+        <v>2.44086</v>
       </c>
       <c r="C83" t="n">
-        <v>2.31761</v>
+        <v>2.44485</v>
       </c>
       <c r="D83" t="n">
-        <v>2.77152</v>
+        <v>2.85928</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.33608</v>
+        <v>2.57453</v>
       </c>
       <c r="C84" t="n">
-        <v>2.34425</v>
+        <v>2.45646</v>
       </c>
       <c r="D84" t="n">
-        <v>2.72055</v>
+        <v>2.89101</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.33084</v>
+        <v>2.55755</v>
       </c>
       <c r="C85" t="n">
-        <v>2.38855</v>
+        <v>2.5237</v>
       </c>
       <c r="D85" t="n">
-        <v>2.75111</v>
+        <v>2.93044</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.40408</v>
+        <v>2.56529</v>
       </c>
       <c r="C86" t="n">
-        <v>2.35965</v>
+        <v>2.46376</v>
       </c>
       <c r="D86" t="n">
-        <v>2.78174</v>
+        <v>2.92622</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.38674</v>
+        <v>2.63029</v>
       </c>
       <c r="C87" t="n">
-        <v>2.37733</v>
+        <v>2.51404</v>
       </c>
       <c r="D87" t="n">
-        <v>2.81081</v>
+        <v>3.03295</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.351</v>
+        <v>2.66502</v>
       </c>
       <c r="C88" t="n">
-        <v>2.44386</v>
+        <v>2.51527</v>
       </c>
       <c r="D88" t="n">
-        <v>2.85474</v>
+        <v>2.95471</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.43653</v>
+        <v>2.71508</v>
       </c>
       <c r="C89" t="n">
-        <v>2.4232</v>
+        <v>2.56674</v>
       </c>
       <c r="D89" t="n">
-        <v>2.87249</v>
+        <v>3.0501</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.45522</v>
+        <v>2.77246</v>
       </c>
       <c r="C90" t="n">
-        <v>2.46545</v>
+        <v>2.56119</v>
       </c>
       <c r="D90" t="n">
-        <v>2.90929</v>
+        <v>3.03844</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.445</v>
+        <v>2.75527</v>
       </c>
       <c r="C91" t="n">
-        <v>2.48667</v>
+        <v>2.61295</v>
       </c>
       <c r="D91" t="n">
-        <v>2.94144</v>
+        <v>3.11625</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.45846</v>
+        <v>2.67806</v>
       </c>
       <c r="C92" t="n">
-        <v>2.7021</v>
+        <v>2.83021</v>
       </c>
       <c r="D92" t="n">
-        <v>3.06302</v>
+        <v>3.24994</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.42983</v>
+        <v>2.68717</v>
       </c>
       <c r="C93" t="n">
-        <v>2.69888</v>
+        <v>2.80453</v>
       </c>
       <c r="D93" t="n">
-        <v>3.17977</v>
+        <v>3.29867</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.50765</v>
+        <v>2.77204</v>
       </c>
       <c r="C94" t="n">
-        <v>2.77881</v>
+        <v>2.87577</v>
       </c>
       <c r="D94" t="n">
-        <v>3.15252</v>
+        <v>3.33871</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.50339</v>
+        <v>2.76897</v>
       </c>
       <c r="C95" t="n">
-        <v>2.7179</v>
+        <v>2.83208</v>
       </c>
       <c r="D95" t="n">
-        <v>3.2479</v>
+        <v>3.34145</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.53852</v>
+        <v>2.84978</v>
       </c>
       <c r="C96" t="n">
-        <v>2.77448</v>
+        <v>2.88286</v>
       </c>
       <c r="D96" t="n">
-        <v>3.23348</v>
+        <v>3.40987</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.72049</v>
+        <v>2.88529</v>
       </c>
       <c r="C97" t="n">
-        <v>2.73309</v>
+        <v>2.92604</v>
       </c>
       <c r="D97" t="n">
-        <v>3.26302</v>
+        <v>3.3643</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.76951</v>
+        <v>3.00915</v>
       </c>
       <c r="C98" t="n">
-        <v>2.81297</v>
+        <v>2.99456</v>
       </c>
       <c r="D98" t="n">
-        <v>3.23418</v>
+        <v>3.42262</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.73121</v>
+        <v>3.01304</v>
       </c>
       <c r="C99" t="n">
-        <v>2.77924</v>
+        <v>3.00962</v>
       </c>
       <c r="D99" t="n">
-        <v>3.24662</v>
+        <v>3.42508</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.79382</v>
+        <v>3.09977</v>
       </c>
       <c r="C100" t="n">
-        <v>2.87258</v>
+        <v>3.04907</v>
       </c>
       <c r="D100" t="n">
-        <v>3.26974</v>
+        <v>3.39739</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.74891</v>
+        <v>3.14162</v>
       </c>
       <c r="C101" t="n">
-        <v>2.87341</v>
+        <v>3.04686</v>
       </c>
       <c r="D101" t="n">
-        <v>3.34075</v>
+        <v>3.42153</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.88965</v>
+        <v>3.06532</v>
       </c>
       <c r="C102" t="n">
-        <v>2.85974</v>
+        <v>3.05008</v>
       </c>
       <c r="D102" t="n">
-        <v>3.31586</v>
+        <v>3.4241</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.78272</v>
+        <v>3.13146</v>
       </c>
       <c r="C103" t="n">
-        <v>2.89135</v>
+        <v>3.09036</v>
       </c>
       <c r="D103" t="n">
-        <v>3.34528</v>
+        <v>3.50152</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.74063</v>
+        <v>3.18432</v>
       </c>
       <c r="C104" t="n">
-        <v>2.9181</v>
+        <v>3.08598</v>
       </c>
       <c r="D104" t="n">
-        <v>3.36098</v>
+        <v>3.51421</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.76618</v>
+        <v>3.203</v>
       </c>
       <c r="C105" t="n">
-        <v>2.89564</v>
+        <v>3.1347</v>
       </c>
       <c r="D105" t="n">
-        <v>3.32837</v>
+        <v>3.53072</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.81289</v>
+        <v>3.22641</v>
       </c>
       <c r="C106" t="n">
-        <v>3.012</v>
+        <v>3.18232</v>
       </c>
       <c r="D106" t="n">
-        <v>3.37418</v>
+        <v>3.59951</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.8324</v>
+        <v>3.28561</v>
       </c>
       <c r="C107" t="n">
-        <v>3.30638</v>
+        <v>3.4805</v>
       </c>
       <c r="D107" t="n">
-        <v>3.67398</v>
+        <v>3.86365</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.84368</v>
+        <v>3.25756</v>
       </c>
       <c r="C108" t="n">
-        <v>3.30946</v>
+        <v>3.45001</v>
       </c>
       <c r="D108" t="n">
-        <v>3.71179</v>
+        <v>3.90402</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.82274</v>
+        <v>3.2915</v>
       </c>
       <c r="C109" t="n">
-        <v>3.31129</v>
+        <v>3.47081</v>
       </c>
       <c r="D109" t="n">
-        <v>3.61623</v>
+        <v>3.8859</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.88558</v>
+        <v>3.36788</v>
       </c>
       <c r="C110" t="n">
-        <v>3.3531</v>
+        <v>3.5249</v>
       </c>
       <c r="D110" t="n">
-        <v>3.68586</v>
+        <v>3.95635</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.88984</v>
+        <v>3.47042</v>
       </c>
       <c r="C111" t="n">
-        <v>3.42114</v>
+        <v>3.60939</v>
       </c>
       <c r="D111" t="n">
-        <v>3.78424</v>
+        <v>4.04579</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.07952</v>
+        <v>3.623</v>
       </c>
       <c r="C112" t="n">
-        <v>3.39354</v>
+        <v>3.59558</v>
       </c>
       <c r="D112" t="n">
-        <v>3.71094</v>
+        <v>3.97399</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.08649</v>
+        <v>3.50937</v>
       </c>
       <c r="C113" t="n">
-        <v>3.35556</v>
+        <v>3.55335</v>
       </c>
       <c r="D113" t="n">
-        <v>3.7514</v>
+        <v>3.95383</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.04801</v>
+        <v>3.67854</v>
       </c>
       <c r="C114" t="n">
-        <v>3.42203</v>
+        <v>3.65873</v>
       </c>
       <c r="D114" t="n">
-        <v>3.78018</v>
+        <v>4.01125</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.09379</v>
+        <v>3.63587</v>
       </c>
       <c r="C115" t="n">
-        <v>3.46947</v>
+        <v>3.68341</v>
       </c>
       <c r="D115" t="n">
-        <v>3.76822</v>
+        <v>4.12443</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.17818</v>
+        <v>3.65265</v>
       </c>
       <c r="C116" t="n">
-        <v>3.4416</v>
+        <v>3.69865</v>
       </c>
       <c r="D116" t="n">
-        <v>3.8487</v>
+        <v>4.14939</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.17953</v>
+        <v>3.62373</v>
       </c>
       <c r="C117" t="n">
-        <v>3.5691</v>
+        <v>3.73887</v>
       </c>
       <c r="D117" t="n">
-        <v>3.88828</v>
+        <v>4.20756</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.25139</v>
+        <v>3.71986</v>
       </c>
       <c r="C118" t="n">
-        <v>3.51899</v>
+        <v>3.86633</v>
       </c>
       <c r="D118" t="n">
-        <v>4.0146</v>
+        <v>4.18677</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.33581</v>
+        <v>3.83247</v>
       </c>
       <c r="C119" t="n">
-        <v>3.69652</v>
+        <v>3.87294</v>
       </c>
       <c r="D119" t="n">
-        <v>4.0078</v>
+        <v>4.36422</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.459082</v>
+        <v>0.472021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.802022</v>
+        <v>0.828348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.517849</v>
+        <v>0.561487</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.456978</v>
+        <v>0.480027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75017</v>
+        <v>0.7941820000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5184260000000001</v>
+        <v>0.554446</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.454832</v>
+        <v>0.481686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.761825</v>
+        <v>0.786974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.539205</v>
+        <v>0.528239</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.446246</v>
+        <v>0.462035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7751710000000001</v>
+        <v>0.823396</v>
       </c>
       <c r="D5" t="n">
-        <v>0.555682</v>
+        <v>0.5721540000000001</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.449094</v>
+        <v>0.475769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.756092</v>
+        <v>0.827583</v>
       </c>
       <c r="D6" t="n">
-        <v>0.531546</v>
+        <v>0.561501</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439775</v>
+        <v>0.46722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.794667</v>
+        <v>0.80349</v>
       </c>
       <c r="D7" t="n">
-        <v>0.536059</v>
+        <v>0.548704</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.450892</v>
+        <v>0.464286</v>
       </c>
       <c r="C8" t="n">
-        <v>0.78096</v>
+        <v>0.792381</v>
       </c>
       <c r="D8" t="n">
-        <v>0.537611</v>
+        <v>0.556921</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.444233</v>
+        <v>0.454491</v>
       </c>
       <c r="C9" t="n">
-        <v>0.792551</v>
+        <v>0.805589</v>
       </c>
       <c r="D9" t="n">
-        <v>0.546416</v>
+        <v>0.561958</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.482418</v>
+        <v>0.460531</v>
       </c>
       <c r="C10" t="n">
-        <v>0.80874</v>
+        <v>0.812204</v>
       </c>
       <c r="D10" t="n">
-        <v>0.549491</v>
+        <v>0.554884</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.457106</v>
+        <v>0.466659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.820927</v>
+        <v>0.806535</v>
       </c>
       <c r="D11" t="n">
-        <v>0.559051</v>
+        <v>0.550112</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.45701</v>
+        <v>0.464753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.798769</v>
+        <v>0.82204</v>
       </c>
       <c r="D12" t="n">
-        <v>0.552495</v>
+        <v>0.558797</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.465512</v>
+        <v>0.482273</v>
       </c>
       <c r="C13" t="n">
-        <v>0.808878</v>
+        <v>0.828194</v>
       </c>
       <c r="D13" t="n">
-        <v>0.569226</v>
+        <v>0.56679</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.470427</v>
+        <v>0.475302</v>
       </c>
       <c r="C14" t="n">
-        <v>0.81012</v>
+        <v>0.814868</v>
       </c>
       <c r="D14" t="n">
-        <v>0.557983</v>
+        <v>0.571433</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.483259</v>
+        <v>0.4821</v>
       </c>
       <c r="C15" t="n">
-        <v>0.808497</v>
+        <v>0.838004</v>
       </c>
       <c r="D15" t="n">
-        <v>0.574132</v>
+        <v>0.571339</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.47617</v>
+        <v>0.488047</v>
       </c>
       <c r="C16" t="n">
-        <v>0.812001</v>
+        <v>0.819973</v>
       </c>
       <c r="D16" t="n">
-        <v>0.567648</v>
+        <v>0.584611</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.474618</v>
+        <v>0.482557</v>
       </c>
       <c r="C17" t="n">
-        <v>0.81531</v>
+        <v>0.838132</v>
       </c>
       <c r="D17" t="n">
-        <v>0.570085</v>
+        <v>0.582389</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.482357</v>
+        <v>0.484805</v>
       </c>
       <c r="C18" t="n">
-        <v>0.818953</v>
+        <v>0.832083</v>
       </c>
       <c r="D18" t="n">
-        <v>0.594178</v>
+        <v>0.585715</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.488332</v>
+        <v>0.501007</v>
       </c>
       <c r="C19" t="n">
-        <v>0.827277</v>
+        <v>0.841193</v>
       </c>
       <c r="D19" t="n">
-        <v>0.575434</v>
+        <v>0.591535</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.480123</v>
+        <v>0.490763</v>
       </c>
       <c r="C20" t="n">
-        <v>0.854522</v>
+        <v>0.849806</v>
       </c>
       <c r="D20" t="n">
-        <v>0.591444</v>
+        <v>0.591426</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.477792</v>
+        <v>0.500177</v>
       </c>
       <c r="C21" t="n">
-        <v>0.857773</v>
+        <v>0.863559</v>
       </c>
       <c r="D21" t="n">
-        <v>0.586184</v>
+        <v>0.590937</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.487769</v>
+        <v>0.48522</v>
       </c>
       <c r="C22" t="n">
-        <v>0.855557</v>
+        <v>0.865152</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5928369999999999</v>
+        <v>0.605818</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.492074</v>
+        <v>0.500385</v>
       </c>
       <c r="C23" t="n">
-        <v>0.869034</v>
+        <v>0.876259</v>
       </c>
       <c r="D23" t="n">
-        <v>0.60764</v>
+        <v>0.610355</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481024</v>
+        <v>0.50334</v>
       </c>
       <c r="C24" t="n">
-        <v>0.864849</v>
+        <v>0.880208</v>
       </c>
       <c r="D24" t="n">
-        <v>0.640979</v>
+        <v>0.6248590000000001</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.506528</v>
+        <v>0.510862</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8663459999999999</v>
+        <v>0.902135</v>
       </c>
       <c r="D25" t="n">
-        <v>0.600839</v>
+        <v>0.612827</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.506982</v>
+        <v>0.5079900000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.863502</v>
+        <v>0.872021</v>
       </c>
       <c r="D26" t="n">
-        <v>0.604365</v>
+        <v>0.61733</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.57583</v>
+        <v>0.581654</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8761949999999999</v>
+        <v>0.911794</v>
       </c>
       <c r="D27" t="n">
-        <v>0.623825</v>
+        <v>0.644159</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.588239</v>
+        <v>0.591408</v>
       </c>
       <c r="C28" t="n">
-        <v>0.889389</v>
+        <v>0.877315</v>
       </c>
       <c r="D28" t="n">
-        <v>0.615992</v>
+        <v>0.643612</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5941419999999999</v>
+        <v>0.596994</v>
       </c>
       <c r="C29" t="n">
-        <v>0.897349</v>
+        <v>0.934401</v>
       </c>
       <c r="D29" t="n">
-        <v>0.631467</v>
+        <v>0.620509</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.597015</v>
+        <v>0.591592</v>
       </c>
       <c r="C30" t="n">
-        <v>0.958094</v>
+        <v>0.934022</v>
       </c>
       <c r="D30" t="n">
-        <v>0.672496</v>
+        <v>0.636686</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6329669999999999</v>
+        <v>0.5971109999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.910328</v>
+        <v>0.936284</v>
       </c>
       <c r="D31" t="n">
-        <v>0.644177</v>
+        <v>0.666779</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.636294</v>
+        <v>0.637482</v>
       </c>
       <c r="C32" t="n">
-        <v>0.965184</v>
+        <v>0.9473470000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.685221</v>
+        <v>0.661404</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.689381</v>
+        <v>0.645133</v>
       </c>
       <c r="C33" t="n">
-        <v>0.976328</v>
+        <v>0.9612619999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.675272</v>
+        <v>0.7026250000000001</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.666404</v>
+        <v>0.655522</v>
       </c>
       <c r="C34" t="n">
-        <v>0.980535</v>
+        <v>0.989619</v>
       </c>
       <c r="D34" t="n">
-        <v>0.689061</v>
+        <v>0.712063</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.668563</v>
+        <v>0.671255</v>
       </c>
       <c r="C35" t="n">
-        <v>1.11217</v>
+        <v>1.04333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.822063</v>
+        <v>0.780164</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.680823</v>
+        <v>0.695383</v>
       </c>
       <c r="C36" t="n">
-        <v>1.11417</v>
+        <v>1.072</v>
       </c>
       <c r="D36" t="n">
-        <v>0.850972</v>
+        <v>0.813022</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.687302</v>
+        <v>0.701836</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0802</v>
+        <v>1.09076</v>
       </c>
       <c r="D37" t="n">
-        <v>0.862724</v>
+        <v>0.862215</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.737619</v>
+        <v>0.721072</v>
       </c>
       <c r="C38" t="n">
-        <v>1.14687</v>
+        <v>1.09035</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8769</v>
+        <v>0.860471</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7490790000000001</v>
+        <v>0.734697</v>
       </c>
       <c r="C39" t="n">
-        <v>1.21424</v>
+        <v>1.13752</v>
       </c>
       <c r="D39" t="n">
-        <v>0.932284</v>
+        <v>0.897404</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.752615</v>
+        <v>0.74949</v>
       </c>
       <c r="C40" t="n">
-        <v>1.23032</v>
+        <v>1.13791</v>
       </c>
       <c r="D40" t="n">
-        <v>0.927503</v>
+        <v>0.903163</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.90296</v>
+        <v>0.873204</v>
       </c>
       <c r="C41" t="n">
-        <v>1.27904</v>
+        <v>1.16169</v>
       </c>
       <c r="D41" t="n">
-        <v>0.951155</v>
+        <v>0.940349</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9185950000000001</v>
+        <v>0.899641</v>
       </c>
       <c r="C42" t="n">
-        <v>1.31054</v>
+        <v>1.20577</v>
       </c>
       <c r="D42" t="n">
-        <v>0.949699</v>
+        <v>0.960108</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.923421</v>
+        <v>0.89849</v>
       </c>
       <c r="C43" t="n">
-        <v>1.34071</v>
+        <v>1.23624</v>
       </c>
       <c r="D43" t="n">
-        <v>1.04559</v>
+        <v>0.98936</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.962113</v>
+        <v>0.947333</v>
       </c>
       <c r="C44" t="n">
-        <v>1.49219</v>
+        <v>1.24405</v>
       </c>
       <c r="D44" t="n">
-        <v>1.0573</v>
+        <v>1.03147</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.990028</v>
+        <v>0.941455</v>
       </c>
       <c r="C45" t="n">
-        <v>1.46529</v>
+        <v>1.31651</v>
       </c>
       <c r="D45" t="n">
-        <v>1.05935</v>
+        <v>1.05187</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9963920000000001</v>
+        <v>0.963674</v>
       </c>
       <c r="C46" t="n">
-        <v>1.48714</v>
+        <v>1.31549</v>
       </c>
       <c r="D46" t="n">
-        <v>1.13658</v>
+        <v>1.087</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.05074</v>
+        <v>0.994467</v>
       </c>
       <c r="C47" t="n">
-        <v>1.56126</v>
+        <v>1.3572</v>
       </c>
       <c r="D47" t="n">
-        <v>1.18093</v>
+        <v>1.11161</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.07246</v>
+        <v>1.00365</v>
       </c>
       <c r="C48" t="n">
-        <v>1.65459</v>
+        <v>1.39759</v>
       </c>
       <c r="D48" t="n">
-        <v>1.15258</v>
+        <v>1.14601</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.07711</v>
+        <v>1.02458</v>
       </c>
       <c r="C49" t="n">
-        <v>1.60881</v>
+        <v>1.44625</v>
       </c>
       <c r="D49" t="n">
-        <v>1.26163</v>
+        <v>1.19505</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.1354</v>
+        <v>1.0519</v>
       </c>
       <c r="C50" t="n">
-        <v>1.99023</v>
+        <v>1.74051</v>
       </c>
       <c r="D50" t="n">
-        <v>1.41543</v>
+        <v>1.32011</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.16653</v>
+        <v>1.09538</v>
       </c>
       <c r="C51" t="n">
-        <v>1.9968</v>
+        <v>1.74035</v>
       </c>
       <c r="D51" t="n">
-        <v>1.433</v>
+        <v>1.33782</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.17519</v>
+        <v>1.09405</v>
       </c>
       <c r="C52" t="n">
-        <v>2.00755</v>
+        <v>1.86076</v>
       </c>
       <c r="D52" t="n">
-        <v>1.46853</v>
+        <v>1.40651</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.25408</v>
+        <v>1.16317</v>
       </c>
       <c r="C53" t="n">
-        <v>2.11481</v>
+        <v>1.87233</v>
       </c>
       <c r="D53" t="n">
-        <v>1.54165</v>
+        <v>1.42087</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.27683</v>
+        <v>1.18853</v>
       </c>
       <c r="C54" t="n">
-        <v>2.19499</v>
+        <v>1.96906</v>
       </c>
       <c r="D54" t="n">
-        <v>1.70918</v>
+        <v>1.49365</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.3084</v>
+        <v>1.20942</v>
       </c>
       <c r="C55" t="n">
-        <v>2.36907</v>
+        <v>2.0642</v>
       </c>
       <c r="D55" t="n">
-        <v>1.71148</v>
+        <v>1.5285</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.47496</v>
+        <v>1.36605</v>
       </c>
       <c r="C56" t="n">
-        <v>2.28897</v>
+        <v>2.11689</v>
       </c>
       <c r="D56" t="n">
-        <v>1.69481</v>
+        <v>1.60716</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.46062</v>
+        <v>1.41887</v>
       </c>
       <c r="C57" t="n">
-        <v>2.37884</v>
+        <v>2.18489</v>
       </c>
       <c r="D57" t="n">
-        <v>1.84038</v>
+        <v>1.65445</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.60154</v>
+        <v>1.44717</v>
       </c>
       <c r="C58" t="n">
-        <v>2.69468</v>
+        <v>2.09699</v>
       </c>
       <c r="D58" t="n">
-        <v>1.89534</v>
+        <v>1.66222</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.6076</v>
+        <v>1.48724</v>
       </c>
       <c r="C59" t="n">
-        <v>2.87127</v>
+        <v>2.36771</v>
       </c>
       <c r="D59" t="n">
-        <v>1.97435</v>
+        <v>1.73688</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.68994</v>
+        <v>1.47143</v>
       </c>
       <c r="C60" t="n">
-        <v>2.76366</v>
+        <v>2.19514</v>
       </c>
       <c r="D60" t="n">
-        <v>1.96468</v>
+        <v>1.83093</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.69379</v>
+        <v>1.53562</v>
       </c>
       <c r="C61" t="n">
-        <v>2.84789</v>
+        <v>2.32474</v>
       </c>
       <c r="D61" t="n">
-        <v>2.04797</v>
+        <v>1.89046</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.68513</v>
+        <v>1.63355</v>
       </c>
       <c r="C62" t="n">
-        <v>2.81298</v>
+        <v>2.42759</v>
       </c>
       <c r="D62" t="n">
-        <v>2.19794</v>
+        <v>1.9599</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.73169</v>
+        <v>1.71017</v>
       </c>
       <c r="C63" t="n">
-        <v>2.68413</v>
+        <v>2.62455</v>
       </c>
       <c r="D63" t="n">
-        <v>2.12568</v>
+        <v>2.02554</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.75998</v>
+        <v>1.61096</v>
       </c>
       <c r="C64" t="n">
-        <v>2.90254</v>
+        <v>2.58424</v>
       </c>
       <c r="D64" t="n">
-        <v>2.21863</v>
+        <v>2.14389</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.77112</v>
+        <v>1.74283</v>
       </c>
       <c r="C65" t="n">
-        <v>2.84777</v>
+        <v>2.98712</v>
       </c>
       <c r="D65" t="n">
-        <v>2.38493</v>
+        <v>2.28352</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.81817</v>
+        <v>1.73921</v>
       </c>
       <c r="C66" t="n">
-        <v>2.9572</v>
+        <v>3.0564</v>
       </c>
       <c r="D66" t="n">
-        <v>2.50146</v>
+        <v>2.34031</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.87414</v>
+        <v>1.78022</v>
       </c>
       <c r="C67" t="n">
-        <v>3.05323</v>
+        <v>3.08424</v>
       </c>
       <c r="D67" t="n">
-        <v>2.4529</v>
+        <v>2.48375</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.89195</v>
+        <v>1.88996</v>
       </c>
       <c r="C68" t="n">
-        <v>2.98638</v>
+        <v>3.11575</v>
       </c>
       <c r="D68" t="n">
-        <v>2.52878</v>
+        <v>2.53726</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.95434</v>
+        <v>1.87942</v>
       </c>
       <c r="C69" t="n">
-        <v>3.10416</v>
+        <v>3.19024</v>
       </c>
       <c r="D69" t="n">
-        <v>2.63768</v>
+        <v>2.53511</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.03073</v>
+        <v>2.00483</v>
       </c>
       <c r="C70" t="n">
-        <v>3.16907</v>
+        <v>3.12163</v>
       </c>
       <c r="D70" t="n">
-        <v>2.61984</v>
+        <v>2.62191</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.07241</v>
+        <v>2.05989</v>
       </c>
       <c r="C71" t="n">
-        <v>3.15273</v>
+        <v>3.20441</v>
       </c>
       <c r="D71" t="n">
-        <v>2.84814</v>
+        <v>2.53624</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.08785</v>
+        <v>2.09162</v>
       </c>
       <c r="C72" t="n">
-        <v>3.24756</v>
+        <v>3.41348</v>
       </c>
       <c r="D72" t="n">
-        <v>2.79361</v>
+        <v>2.83201</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.15068</v>
+        <v>2.1162</v>
       </c>
       <c r="C73" t="n">
-        <v>3.32063</v>
+        <v>3.13635</v>
       </c>
       <c r="D73" t="n">
-        <v>2.89515</v>
+        <v>2.71177</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.11899</v>
+        <v>2.06773</v>
       </c>
       <c r="C74" t="n">
-        <v>3.32931</v>
+        <v>3.10526</v>
       </c>
       <c r="D74" t="n">
-        <v>2.9079</v>
+        <v>2.94648</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.17237</v>
+        <v>2.08486</v>
       </c>
       <c r="C75" t="n">
-        <v>3.40299</v>
+        <v>3.44561</v>
       </c>
       <c r="D75" t="n">
-        <v>2.98493</v>
+        <v>2.96408</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.19223</v>
+        <v>2.13368</v>
       </c>
       <c r="C76" t="n">
-        <v>3.34673</v>
+        <v>3.39723</v>
       </c>
       <c r="D76" t="n">
-        <v>2.95485</v>
+        <v>2.98886</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.25249</v>
+        <v>2.20798</v>
       </c>
       <c r="C77" t="n">
-        <v>3.46864</v>
+        <v>3.49893</v>
       </c>
       <c r="D77" t="n">
-        <v>3.18991</v>
+        <v>3.01963</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.34619</v>
+        <v>2.2158</v>
       </c>
       <c r="C78" t="n">
-        <v>3.72248</v>
+        <v>3.41837</v>
       </c>
       <c r="D78" t="n">
-        <v>3.18632</v>
+        <v>3.0686</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.34047</v>
+        <v>2.20561</v>
       </c>
       <c r="C79" t="n">
-        <v>3.8911</v>
+        <v>3.38385</v>
       </c>
       <c r="D79" t="n">
-        <v>3.46419</v>
+        <v>3.10557</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.44639</v>
+        <v>2.17799</v>
       </c>
       <c r="C80" t="n">
-        <v>3.87661</v>
+        <v>3.43614</v>
       </c>
       <c r="D80" t="n">
-        <v>3.32794</v>
+        <v>3.1253</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.33043</v>
+        <v>2.19169</v>
       </c>
       <c r="C81" t="n">
-        <v>3.81421</v>
+        <v>3.54515</v>
       </c>
       <c r="D81" t="n">
-        <v>3.48916</v>
+        <v>3.31154</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.39896</v>
+        <v>2.22299</v>
       </c>
       <c r="C82" t="n">
-        <v>3.82332</v>
+        <v>3.64259</v>
       </c>
       <c r="D82" t="n">
-        <v>3.37188</v>
+        <v>3.22924</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.40739</v>
+        <v>2.27859</v>
       </c>
       <c r="C83" t="n">
-        <v>3.90669</v>
+        <v>3.61231</v>
       </c>
       <c r="D83" t="n">
-        <v>3.64716</v>
+        <v>3.26418</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.50844</v>
+        <v>2.3701</v>
       </c>
       <c r="C84" t="n">
-        <v>4.01706</v>
+        <v>3.67686</v>
       </c>
       <c r="D84" t="n">
-        <v>3.53158</v>
+        <v>3.32742</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.58449</v>
+        <v>2.39748</v>
       </c>
       <c r="C85" t="n">
-        <v>4.10046</v>
+        <v>3.65502</v>
       </c>
       <c r="D85" t="n">
-        <v>3.60742</v>
+        <v>3.38862</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.60507</v>
+        <v>2.38326</v>
       </c>
       <c r="C86" t="n">
-        <v>4.02908</v>
+        <v>3.77972</v>
       </c>
       <c r="D86" t="n">
-        <v>3.66102</v>
+        <v>3.45173</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.67255</v>
+        <v>2.41998</v>
       </c>
       <c r="C87" t="n">
-        <v>4.15413</v>
+        <v>3.76331</v>
       </c>
       <c r="D87" t="n">
-        <v>3.6548</v>
+        <v>3.37289</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.65098</v>
+        <v>2.43628</v>
       </c>
       <c r="C88" t="n">
-        <v>4.01946</v>
+        <v>3.71184</v>
       </c>
       <c r="D88" t="n">
-        <v>3.72564</v>
+        <v>3.48135</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.66495</v>
+        <v>2.48879</v>
       </c>
       <c r="C89" t="n">
-        <v>4.13993</v>
+        <v>3.76503</v>
       </c>
       <c r="D89" t="n">
-        <v>3.85336</v>
+        <v>3.57497</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.73983</v>
+        <v>2.49728</v>
       </c>
       <c r="C90" t="n">
-        <v>4.2064</v>
+        <v>3.80577</v>
       </c>
       <c r="D90" t="n">
-        <v>3.83119</v>
+        <v>3.60381</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.75315</v>
+        <v>2.53395</v>
       </c>
       <c r="C91" t="n">
-        <v>4.21804</v>
+        <v>3.88724</v>
       </c>
       <c r="D91" t="n">
-        <v>3.88522</v>
+        <v>3.64807</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.79355</v>
+        <v>2.56644</v>
       </c>
       <c r="C92" t="n">
-        <v>4.40053</v>
+        <v>4.07997</v>
       </c>
       <c r="D92" t="n">
-        <v>4.0369</v>
+        <v>3.83515</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.79781</v>
+        <v>2.55977</v>
       </c>
       <c r="C93" t="n">
-        <v>4.44506</v>
+        <v>4.10028</v>
       </c>
       <c r="D93" t="n">
-        <v>4.03992</v>
+        <v>3.84919</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.80668</v>
+        <v>2.64253</v>
       </c>
       <c r="C94" t="n">
-        <v>4.49949</v>
+        <v>4.31729</v>
       </c>
       <c r="D94" t="n">
-        <v>4.07882</v>
+        <v>3.89529</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.91657</v>
+        <v>2.67348</v>
       </c>
       <c r="C95" t="n">
-        <v>4.54892</v>
+        <v>4.23076</v>
       </c>
       <c r="D95" t="n">
-        <v>4.19881</v>
+        <v>3.91714</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.88083</v>
+        <v>2.60949</v>
       </c>
       <c r="C96" t="n">
-        <v>4.51943</v>
+        <v>4.20955</v>
       </c>
       <c r="D96" t="n">
-        <v>4.09054</v>
+        <v>3.9884</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.91554</v>
+        <v>2.69154</v>
       </c>
       <c r="C97" t="n">
-        <v>4.54197</v>
+        <v>4.34132</v>
       </c>
       <c r="D97" t="n">
-        <v>4.1884</v>
+        <v>4.00554</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.0872</v>
+        <v>2.78999</v>
       </c>
       <c r="C98" t="n">
-        <v>4.57939</v>
+        <v>4.41403</v>
       </c>
       <c r="D98" t="n">
-        <v>4.17562</v>
+        <v>3.99841</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.06819</v>
+        <v>2.8949</v>
       </c>
       <c r="C99" t="n">
-        <v>4.70129</v>
+        <v>4.37596</v>
       </c>
       <c r="D99" t="n">
-        <v>4.21641</v>
+        <v>4.01831</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.08459</v>
+        <v>2.90901</v>
       </c>
       <c r="C100" t="n">
-        <v>4.75586</v>
+        <v>4.39473</v>
       </c>
       <c r="D100" t="n">
-        <v>4.30899</v>
+        <v>4.12732</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.1448</v>
+        <v>2.87249</v>
       </c>
       <c r="C101" t="n">
-        <v>4.60436</v>
+        <v>4.41646</v>
       </c>
       <c r="D101" t="n">
-        <v>4.30367</v>
+        <v>4.10645</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.14745</v>
+        <v>2.90267</v>
       </c>
       <c r="C102" t="n">
-        <v>4.7258</v>
+        <v>4.62692</v>
       </c>
       <c r="D102" t="n">
-        <v>4.3396</v>
+        <v>4.19082</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.18512</v>
+        <v>2.94431</v>
       </c>
       <c r="C103" t="n">
-        <v>4.77185</v>
+        <v>4.5613</v>
       </c>
       <c r="D103" t="n">
-        <v>4.3422</v>
+        <v>4.23579</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.15656</v>
+        <v>3.10262</v>
       </c>
       <c r="C104" t="n">
-        <v>4.91858</v>
+        <v>4.83301</v>
       </c>
       <c r="D104" t="n">
-        <v>4.39995</v>
+        <v>4.25259</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.1743</v>
+        <v>3.02956</v>
       </c>
       <c r="C105" t="n">
-        <v>4.8441</v>
+        <v>4.64114</v>
       </c>
       <c r="D105" t="n">
-        <v>4.38779</v>
+        <v>4.27222</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.14763</v>
+        <v>3.03323</v>
       </c>
       <c r="C106" t="n">
-        <v>4.86236</v>
+        <v>4.68431</v>
       </c>
       <c r="D106" t="n">
-        <v>4.45643</v>
+        <v>4.29403</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.19035</v>
+        <v>2.99017</v>
       </c>
       <c r="C107" t="n">
-        <v>5.13698</v>
+        <v>4.97071</v>
       </c>
       <c r="D107" t="n">
-        <v>4.59952</v>
+        <v>4.51233</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.21931</v>
+        <v>3.01015</v>
       </c>
       <c r="C108" t="n">
-        <v>5.15694</v>
+        <v>4.90289</v>
       </c>
       <c r="D108" t="n">
-        <v>4.58181</v>
+        <v>4.50307</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.26536</v>
+        <v>3.03461</v>
       </c>
       <c r="C109" t="n">
-        <v>5.14939</v>
+        <v>4.94856</v>
       </c>
       <c r="D109" t="n">
-        <v>4.66822</v>
+        <v>4.53405</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.31712</v>
+        <v>3.0762</v>
       </c>
       <c r="C110" t="n">
-        <v>5.15615</v>
+        <v>5.03315</v>
       </c>
       <c r="D110" t="n">
-        <v>4.69713</v>
+        <v>4.57723</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.33977</v>
+        <v>3.08263</v>
       </c>
       <c r="C111" t="n">
-        <v>5.24474</v>
+        <v>4.98892</v>
       </c>
       <c r="D111" t="n">
-        <v>4.74686</v>
+        <v>4.61752</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.49763</v>
+        <v>3.30989</v>
       </c>
       <c r="C112" t="n">
-        <v>5.24329</v>
+        <v>5.05229</v>
       </c>
       <c r="D112" t="n">
-        <v>4.74465</v>
+        <v>4.65103</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.57982</v>
+        <v>3.34202</v>
       </c>
       <c r="C113" t="n">
-        <v>5.30629</v>
+        <v>5.16007</v>
       </c>
       <c r="D113" t="n">
-        <v>4.79095</v>
+        <v>4.68377</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.61678</v>
+        <v>3.30757</v>
       </c>
       <c r="C114" t="n">
-        <v>5.39328</v>
+        <v>5.1039</v>
       </c>
       <c r="D114" t="n">
-        <v>4.8831</v>
+        <v>4.73165</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.65629</v>
+        <v>3.40993</v>
       </c>
       <c r="C115" t="n">
-        <v>5.43573</v>
+        <v>5.19808</v>
       </c>
       <c r="D115" t="n">
-        <v>4.88545</v>
+        <v>4.77908</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.672</v>
+        <v>3.42224</v>
       </c>
       <c r="C116" t="n">
-        <v>5.47682</v>
+        <v>5.27503</v>
       </c>
       <c r="D116" t="n">
-        <v>5.01242</v>
+        <v>4.84899</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.665</v>
+        <v>3.50659</v>
       </c>
       <c r="C117" t="n">
-        <v>5.59026</v>
+        <v>5.26749</v>
       </c>
       <c r="D117" t="n">
-        <v>5.08802</v>
+        <v>4.90141</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.68302</v>
+        <v>3.51874</v>
       </c>
       <c r="C118" t="n">
-        <v>5.65859</v>
+        <v>5.51335</v>
       </c>
       <c r="D118" t="n">
-        <v>5.14723</v>
+        <v>5.13088</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.81451</v>
+        <v>3.62715</v>
       </c>
       <c r="C119" t="n">
-        <v>5.73982</v>
+        <v>5.52839</v>
       </c>
       <c r="D119" t="n">
-        <v>5.19632</v>
+        <v>5.02938</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.407914</v>
+        <v>0.394718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7988960000000001</v>
+        <v>0.770913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.508311</v>
+        <v>0.51645</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.427041</v>
+        <v>0.411054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7775919999999999</v>
+        <v>0.774234</v>
       </c>
       <c r="D3" t="n">
-        <v>0.508915</v>
+        <v>0.510835</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.413783</v>
+        <v>0.422287</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7647969999999999</v>
+        <v>0.779125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.520791</v>
+        <v>0.520778</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.411983</v>
+        <v>0.419032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.783281</v>
+        <v>0.782323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.532493</v>
+        <v>0.524317</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.428985</v>
+        <v>0.416115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.776062</v>
+        <v>0.772952</v>
       </c>
       <c r="D6" t="n">
-        <v>0.524097</v>
+        <v>0.530923</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.416137</v>
+        <v>0.430224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.777993</v>
+        <v>0.805607</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528169</v>
+        <v>0.532598</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.42158</v>
+        <v>0.430335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.791345</v>
+        <v>0.817893</v>
       </c>
       <c r="D8" t="n">
-        <v>0.531694</v>
+        <v>0.534033</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.426692</v>
+        <v>0.430224</v>
       </c>
       <c r="C9" t="n">
-        <v>0.827526</v>
+        <v>0.816591</v>
       </c>
       <c r="D9" t="n">
-        <v>0.553899</v>
+        <v>0.551399</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.42081</v>
+        <v>0.438274</v>
       </c>
       <c r="C10" t="n">
-        <v>0.822175</v>
+        <v>0.829117</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5451319999999999</v>
+        <v>0.553653</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.426023</v>
+        <v>0.425743</v>
       </c>
       <c r="C11" t="n">
-        <v>0.801601</v>
+        <v>0.826514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.553639</v>
+        <v>0.559941</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4311</v>
+        <v>0.431127</v>
       </c>
       <c r="C12" t="n">
-        <v>0.804665</v>
+        <v>0.848869</v>
       </c>
       <c r="D12" t="n">
-        <v>0.55597</v>
+        <v>0.565864</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.424927</v>
+        <v>0.439628</v>
       </c>
       <c r="C13" t="n">
-        <v>0.807141</v>
+        <v>0.818964</v>
       </c>
       <c r="D13" t="n">
-        <v>0.564913</v>
+        <v>0.563874</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.428398</v>
+        <v>0.443566</v>
       </c>
       <c r="C14" t="n">
-        <v>0.830259</v>
+        <v>0.82486</v>
       </c>
       <c r="D14" t="n">
-        <v>0.558837</v>
+        <v>0.565213</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.423786</v>
+        <v>0.432356</v>
       </c>
       <c r="C15" t="n">
-        <v>0.822488</v>
+        <v>0.833822</v>
       </c>
       <c r="D15" t="n">
-        <v>0.560473</v>
+        <v>0.58746</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.42843</v>
+        <v>0.430048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.820848</v>
+        <v>0.862096</v>
       </c>
       <c r="D16" t="n">
-        <v>0.583172</v>
+        <v>0.575912</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.454545</v>
+        <v>0.471685</v>
       </c>
       <c r="C17" t="n">
-        <v>0.851801</v>
+        <v>0.848886</v>
       </c>
       <c r="D17" t="n">
-        <v>0.589202</v>
+        <v>0.586773</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.469414</v>
+        <v>0.487832</v>
       </c>
       <c r="C18" t="n">
-        <v>0.847556</v>
+        <v>0.852975</v>
       </c>
       <c r="D18" t="n">
-        <v>0.578195</v>
+        <v>0.58829</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.470732</v>
+        <v>0.470114</v>
       </c>
       <c r="C19" t="n">
-        <v>0.874903</v>
+        <v>0.855104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.590489</v>
+        <v>0.593457</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.472499</v>
+        <v>0.475874</v>
       </c>
       <c r="C20" t="n">
-        <v>0.895609</v>
+        <v>0.87407</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5971610000000001</v>
+        <v>0.610912</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.47101</v>
+        <v>0.46857</v>
       </c>
       <c r="C21" t="n">
-        <v>0.86813</v>
+        <v>0.868039</v>
       </c>
       <c r="D21" t="n">
-        <v>0.595766</v>
+        <v>0.609405</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.462483</v>
+        <v>0.468438</v>
       </c>
       <c r="C22" t="n">
-        <v>0.89277</v>
+        <v>0.915194</v>
       </c>
       <c r="D22" t="n">
-        <v>0.618606</v>
+        <v>0.599586</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.521486</v>
+        <v>0.47251</v>
       </c>
       <c r="C23" t="n">
-        <v>0.993833</v>
+        <v>0.913597</v>
       </c>
       <c r="D23" t="n">
-        <v>0.643784</v>
+        <v>0.614492</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.483198</v>
+        <v>0.483258</v>
       </c>
       <c r="C24" t="n">
-        <v>0.915728</v>
+        <v>0.902109</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6365690000000001</v>
+        <v>0.655513</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.522651</v>
+        <v>0.492848</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9713000000000001</v>
+        <v>0.9302859999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.634607</v>
+        <v>0.652249</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.496289</v>
+        <v>0.483683</v>
       </c>
       <c r="C26" t="n">
-        <v>0.887032</v>
+        <v>0.874938</v>
       </c>
       <c r="D26" t="n">
-        <v>0.639467</v>
+        <v>0.636885</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5015540000000001</v>
+        <v>0.478948</v>
       </c>
       <c r="C27" t="n">
-        <v>0.909234</v>
+        <v>0.910507</v>
       </c>
       <c r="D27" t="n">
-        <v>0.66313</v>
+        <v>0.651677</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.490974</v>
+        <v>0.50783</v>
       </c>
       <c r="C28" t="n">
-        <v>0.914806</v>
+        <v>0.9083909999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.645972</v>
+        <v>0.645581</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.502939</v>
+        <v>0.516548</v>
       </c>
       <c r="C29" t="n">
-        <v>0.92093</v>
+        <v>0.910994</v>
       </c>
       <c r="D29" t="n">
-        <v>0.693197</v>
+        <v>0.663196</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.499626</v>
+        <v>0.508763</v>
       </c>
       <c r="C30" t="n">
-        <v>0.933788</v>
+        <v>0.938706</v>
       </c>
       <c r="D30" t="n">
-        <v>0.70292</v>
+        <v>0.6617690000000001</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.508474</v>
+        <v>0.506823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.930272</v>
+        <v>0.94944</v>
       </c>
       <c r="D31" t="n">
-        <v>0.684439</v>
+        <v>0.672152</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.537929</v>
+        <v>0.528458</v>
       </c>
       <c r="C32" t="n">
-        <v>0.938347</v>
+        <v>0.957112</v>
       </c>
       <c r="D32" t="n">
-        <v>0.666784</v>
+        <v>0.714913</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.549222</v>
+        <v>0.553341</v>
       </c>
       <c r="C33" t="n">
-        <v>0.979027</v>
+        <v>0.978114</v>
       </c>
       <c r="D33" t="n">
-        <v>0.703002</v>
+        <v>0.6973780000000001</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.568334</v>
+        <v>0.548528</v>
       </c>
       <c r="C34" t="n">
-        <v>1.00566</v>
+        <v>1.01228</v>
       </c>
       <c r="D34" t="n">
-        <v>0.700529</v>
+        <v>0.715464</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.56309</v>
+        <v>0.556366</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0135</v>
+        <v>1.03525</v>
       </c>
       <c r="D35" t="n">
-        <v>0.709172</v>
+        <v>0.751376</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.565089</v>
+        <v>0.569924</v>
       </c>
       <c r="C36" t="n">
-        <v>1.10975</v>
+        <v>1.03081</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7350640000000001</v>
+        <v>0.758839</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.576141</v>
+        <v>0.587303</v>
       </c>
       <c r="C37" t="n">
-        <v>1.06498</v>
+        <v>1.06881</v>
       </c>
       <c r="D37" t="n">
-        <v>0.765216</v>
+        <v>0.757439</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.580797</v>
+        <v>0.5968</v>
       </c>
       <c r="C38" t="n">
-        <v>1.08527</v>
+        <v>1.0993</v>
       </c>
       <c r="D38" t="n">
-        <v>0.772909</v>
+        <v>0.810816</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.63934</v>
+        <v>0.616169</v>
       </c>
       <c r="C39" t="n">
-        <v>1.14202</v>
+        <v>1.12655</v>
       </c>
       <c r="D39" t="n">
-        <v>0.798383</v>
+        <v>0.806376</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.624409</v>
+        <v>0.607279</v>
       </c>
       <c r="C40" t="n">
-        <v>1.11773</v>
+        <v>1.10651</v>
       </c>
       <c r="D40" t="n">
-        <v>0.839288</v>
+        <v>0.844371</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.627839</v>
+        <v>0.64053</v>
       </c>
       <c r="C41" t="n">
-        <v>1.21754</v>
+        <v>1.11194</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8911480000000001</v>
+        <v>0.868055</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.628787</v>
+        <v>0.661948</v>
       </c>
       <c r="C42" t="n">
-        <v>1.20815</v>
+        <v>1.17307</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8853259999999999</v>
+        <v>0.9161550000000001</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.654057</v>
+        <v>0.6934090000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.20174</v>
+        <v>1.22008</v>
       </c>
       <c r="D43" t="n">
-        <v>0.905961</v>
+        <v>0.946802</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.665237</v>
+        <v>0.708519</v>
       </c>
       <c r="C44" t="n">
-        <v>1.30386</v>
+        <v>1.2603</v>
       </c>
       <c r="D44" t="n">
-        <v>0.928765</v>
+        <v>0.968221</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6775910000000001</v>
+        <v>0.716313</v>
       </c>
       <c r="C45" t="n">
-        <v>1.35403</v>
+        <v>1.27158</v>
       </c>
       <c r="D45" t="n">
-        <v>0.981569</v>
+        <v>1.01044</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.779185</v>
+        <v>0.793329</v>
       </c>
       <c r="C46" t="n">
-        <v>1.33801</v>
+        <v>1.31521</v>
       </c>
       <c r="D46" t="n">
-        <v>1.01971</v>
+        <v>1.02308</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8257640000000001</v>
+        <v>0.8297020000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>1.4416</v>
+        <v>1.40384</v>
       </c>
       <c r="D47" t="n">
-        <v>1.03302</v>
+        <v>1.06043</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8315399999999999</v>
+        <v>0.848021</v>
       </c>
       <c r="C48" t="n">
-        <v>1.47586</v>
+        <v>1.44455</v>
       </c>
       <c r="D48" t="n">
-        <v>1.07043</v>
+        <v>1.12128</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.881393</v>
+        <v>0.872539</v>
       </c>
       <c r="C49" t="n">
-        <v>1.58643</v>
+        <v>1.49128</v>
       </c>
       <c r="D49" t="n">
-        <v>1.09211</v>
+        <v>1.10119</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.869545</v>
+        <v>0.887453</v>
       </c>
       <c r="C50" t="n">
-        <v>1.656</v>
+        <v>1.52512</v>
       </c>
       <c r="D50" t="n">
-        <v>1.16629</v>
+        <v>1.17351</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.947658</v>
+        <v>0.923956</v>
       </c>
       <c r="C51" t="n">
-        <v>1.78315</v>
+        <v>1.60651</v>
       </c>
       <c r="D51" t="n">
-        <v>1.22554</v>
+        <v>1.18338</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.99375</v>
+        <v>0.947074</v>
       </c>
       <c r="C52" t="n">
-        <v>1.82317</v>
+        <v>1.67534</v>
       </c>
       <c r="D52" t="n">
-        <v>1.27384</v>
+        <v>1.21802</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.993202</v>
+        <v>0.974292</v>
       </c>
       <c r="C53" t="n">
-        <v>1.81958</v>
+        <v>1.78664</v>
       </c>
       <c r="D53" t="n">
-        <v>1.29249</v>
+        <v>1.27516</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.99214</v>
+        <v>0.99733</v>
       </c>
       <c r="C54" t="n">
-        <v>2.14641</v>
+        <v>1.70843</v>
       </c>
       <c r="D54" t="n">
-        <v>1.40785</v>
+        <v>1.37521</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.06703</v>
+        <v>1.01676</v>
       </c>
       <c r="C55" t="n">
-        <v>2.15972</v>
+        <v>1.91359</v>
       </c>
       <c r="D55" t="n">
-        <v>1.5214</v>
+        <v>1.43246</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.11959</v>
+        <v>1.04317</v>
       </c>
       <c r="C56" t="n">
-        <v>2.16054</v>
+        <v>1.9107</v>
       </c>
       <c r="D56" t="n">
-        <v>1.55877</v>
+        <v>1.50492</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.12094</v>
+        <v>1.09541</v>
       </c>
       <c r="C57" t="n">
-        <v>2.28863</v>
+        <v>2.03416</v>
       </c>
       <c r="D57" t="n">
-        <v>1.68468</v>
+        <v>1.51283</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.21097</v>
+        <v>1.10694</v>
       </c>
       <c r="C58" t="n">
-        <v>2.47435</v>
+        <v>2.15524</v>
       </c>
       <c r="D58" t="n">
-        <v>1.73405</v>
+        <v>1.62646</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.27414</v>
+        <v>1.15699</v>
       </c>
       <c r="C59" t="n">
-        <v>2.56963</v>
+        <v>2.25047</v>
       </c>
       <c r="D59" t="n">
-        <v>1.75619</v>
+        <v>1.69386</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.44285</v>
+        <v>1.38416</v>
       </c>
       <c r="C60" t="n">
-        <v>2.50312</v>
+        <v>2.28968</v>
       </c>
       <c r="D60" t="n">
-        <v>1.78682</v>
+        <v>1.73302</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.43939</v>
+        <v>1.38978</v>
       </c>
       <c r="C61" t="n">
-        <v>2.42858</v>
+        <v>2.42459</v>
       </c>
       <c r="D61" t="n">
-        <v>1.90248</v>
+        <v>1.80208</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.58152</v>
+        <v>1.41449</v>
       </c>
       <c r="C62" t="n">
-        <v>2.63146</v>
+        <v>2.29385</v>
       </c>
       <c r="D62" t="n">
-        <v>2.02008</v>
+        <v>1.86535</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.51279</v>
+        <v>1.42565</v>
       </c>
       <c r="C63" t="n">
-        <v>2.88194</v>
+        <v>2.34756</v>
       </c>
       <c r="D63" t="n">
-        <v>2.06355</v>
+        <v>1.82774</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.54732</v>
+        <v>1.48348</v>
       </c>
       <c r="C64" t="n">
-        <v>2.95749</v>
+        <v>2.56703</v>
       </c>
       <c r="D64" t="n">
-        <v>2.18672</v>
+        <v>1.97832</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.59923</v>
+        <v>1.50245</v>
       </c>
       <c r="C65" t="n">
-        <v>3.00091</v>
+        <v>2.72135</v>
       </c>
       <c r="D65" t="n">
-        <v>2.25842</v>
+        <v>1.98376</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.59409</v>
+        <v>1.55504</v>
       </c>
       <c r="C66" t="n">
-        <v>2.97874</v>
+        <v>2.90634</v>
       </c>
       <c r="D66" t="n">
-        <v>2.19385</v>
+        <v>2.17277</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.68652</v>
+        <v>1.63213</v>
       </c>
       <c r="C67" t="n">
-        <v>3.03085</v>
+        <v>2.92117</v>
       </c>
       <c r="D67" t="n">
-        <v>2.28832</v>
+        <v>2.13463</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.71023</v>
+        <v>1.60235</v>
       </c>
       <c r="C68" t="n">
-        <v>2.93797</v>
+        <v>2.63613</v>
       </c>
       <c r="D68" t="n">
-        <v>2.45964</v>
+        <v>2.36488</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.66815</v>
+        <v>1.66944</v>
       </c>
       <c r="C69" t="n">
-        <v>2.91325</v>
+        <v>2.68815</v>
       </c>
       <c r="D69" t="n">
-        <v>2.49611</v>
+        <v>2.37683</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.74145</v>
+        <v>1.64908</v>
       </c>
       <c r="C70" t="n">
-        <v>3.1495</v>
+        <v>2.72972</v>
       </c>
       <c r="D70" t="n">
-        <v>2.65004</v>
+        <v>2.5508</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.77797</v>
+        <v>1.76981</v>
       </c>
       <c r="C71" t="n">
-        <v>3.17856</v>
+        <v>2.84413</v>
       </c>
       <c r="D71" t="n">
-        <v>2.61558</v>
+        <v>2.53626</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.75556</v>
+        <v>1.80045</v>
       </c>
       <c r="C72" t="n">
-        <v>3.13623</v>
+        <v>2.92046</v>
       </c>
       <c r="D72" t="n">
-        <v>2.77259</v>
+        <v>2.54647</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.82173</v>
+        <v>1.75117</v>
       </c>
       <c r="C73" t="n">
-        <v>3.28108</v>
+        <v>2.93233</v>
       </c>
       <c r="D73" t="n">
-        <v>2.79775</v>
+        <v>2.77652</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.0496</v>
+        <v>2.04849</v>
       </c>
       <c r="C74" t="n">
-        <v>3.1888</v>
+        <v>3.19929</v>
       </c>
       <c r="D74" t="n">
-        <v>2.78817</v>
+        <v>2.67571</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.05962</v>
+        <v>1.9725</v>
       </c>
       <c r="C75" t="n">
-        <v>3.47078</v>
+        <v>3.10684</v>
       </c>
       <c r="D75" t="n">
-        <v>2.84565</v>
+        <v>2.67941</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.12396</v>
+        <v>2.03074</v>
       </c>
       <c r="C76" t="n">
-        <v>3.5039</v>
+        <v>3.15067</v>
       </c>
       <c r="D76" t="n">
-        <v>2.91414</v>
+        <v>2.78872</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.22585</v>
+        <v>2.04251</v>
       </c>
       <c r="C77" t="n">
-        <v>3.55441</v>
+        <v>3.22579</v>
       </c>
       <c r="D77" t="n">
-        <v>2.96324</v>
+        <v>2.93957</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.19866</v>
+        <v>2.08897</v>
       </c>
       <c r="C78" t="n">
-        <v>3.64889</v>
+        <v>3.45718</v>
       </c>
       <c r="D78" t="n">
-        <v>3.04981</v>
+        <v>2.90226</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.18721</v>
+        <v>2.11751</v>
       </c>
       <c r="C79" t="n">
-        <v>3.72602</v>
+        <v>3.47653</v>
       </c>
       <c r="D79" t="n">
-        <v>3.06128</v>
+        <v>3.03369</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.22859</v>
+        <v>2.14519</v>
       </c>
       <c r="C80" t="n">
-        <v>3.98282</v>
+        <v>3.5151</v>
       </c>
       <c r="D80" t="n">
-        <v>3.10818</v>
+        <v>2.99133</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.22393</v>
+        <v>2.12919</v>
       </c>
       <c r="C81" t="n">
-        <v>3.90934</v>
+        <v>3.62501</v>
       </c>
       <c r="D81" t="n">
-        <v>3.20603</v>
+        <v>3.12255</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.23947</v>
+        <v>2.17054</v>
       </c>
       <c r="C82" t="n">
-        <v>4.06638</v>
+        <v>3.66972</v>
       </c>
       <c r="D82" t="n">
-        <v>3.32002</v>
+        <v>3.09784</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.31135</v>
+        <v>2.26136</v>
       </c>
       <c r="C83" t="n">
-        <v>4.01747</v>
+        <v>3.62394</v>
       </c>
       <c r="D83" t="n">
-        <v>3.43155</v>
+        <v>3.30888</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.31788</v>
+        <v>2.20589</v>
       </c>
       <c r="C84" t="n">
-        <v>3.90816</v>
+        <v>3.80647</v>
       </c>
       <c r="D84" t="n">
-        <v>3.45423</v>
+        <v>3.35691</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.38403</v>
+        <v>2.24298</v>
       </c>
       <c r="C85" t="n">
-        <v>4.06748</v>
+        <v>3.81355</v>
       </c>
       <c r="D85" t="n">
-        <v>3.56699</v>
+        <v>3.36302</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.35427</v>
+        <v>2.26616</v>
       </c>
       <c r="C86" t="n">
-        <v>4.00882</v>
+        <v>3.82712</v>
       </c>
       <c r="D86" t="n">
-        <v>3.54693</v>
+        <v>3.48917</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.35433</v>
+        <v>2.33887</v>
       </c>
       <c r="C87" t="n">
-        <v>4.29005</v>
+        <v>3.85903</v>
       </c>
       <c r="D87" t="n">
-        <v>3.68919</v>
+        <v>3.48557</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48385</v>
+        <v>2.34694</v>
       </c>
       <c r="C88" t="n">
-        <v>4.29672</v>
+        <v>3.89193</v>
       </c>
       <c r="D88" t="n">
-        <v>3.56143</v>
+        <v>3.46181</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.5932</v>
+        <v>2.54963</v>
       </c>
       <c r="C89" t="n">
-        <v>4.41829</v>
+        <v>4.11084</v>
       </c>
       <c r="D89" t="n">
-        <v>3.77026</v>
+        <v>3.55486</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.7092</v>
+        <v>2.54586</v>
       </c>
       <c r="C90" t="n">
-        <v>4.44468</v>
+        <v>4.22851</v>
       </c>
       <c r="D90" t="n">
-        <v>3.74712</v>
+        <v>3.52481</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.64227</v>
+        <v>2.52701</v>
       </c>
       <c r="C91" t="n">
-        <v>4.50823</v>
+        <v>4.25448</v>
       </c>
       <c r="D91" t="n">
-        <v>3.86465</v>
+        <v>3.59737</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.66369</v>
+        <v>2.5703</v>
       </c>
       <c r="C92" t="n">
-        <v>4.63207</v>
+        <v>4.29706</v>
       </c>
       <c r="D92" t="n">
-        <v>3.93403</v>
+        <v>3.6833</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.72346</v>
+        <v>2.64766</v>
       </c>
       <c r="C93" t="n">
-        <v>4.65124</v>
+        <v>4.5039</v>
       </c>
       <c r="D93" t="n">
-        <v>3.92403</v>
+        <v>3.85805</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.73923</v>
+        <v>2.63729</v>
       </c>
       <c r="C94" t="n">
-        <v>4.8006</v>
+        <v>4.52338</v>
       </c>
       <c r="D94" t="n">
-        <v>3.89278</v>
+        <v>3.76555</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.71546</v>
+        <v>2.64776</v>
       </c>
       <c r="C95" t="n">
-        <v>4.77426</v>
+        <v>4.62504</v>
       </c>
       <c r="D95" t="n">
-        <v>3.9734</v>
+        <v>3.7845</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.75808</v>
+        <v>2.64444</v>
       </c>
       <c r="C96" t="n">
-        <v>4.94998</v>
+        <v>4.71093</v>
       </c>
       <c r="D96" t="n">
-        <v>3.92596</v>
+        <v>3.85657</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.76368</v>
+        <v>2.71405</v>
       </c>
       <c r="C97" t="n">
-        <v>4.58193</v>
+        <v>4.48502</v>
       </c>
       <c r="D97" t="n">
-        <v>4.11798</v>
+        <v>4.05443</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.81689</v>
+        <v>2.67674</v>
       </c>
       <c r="C98" t="n">
-        <v>4.61259</v>
+        <v>4.46457</v>
       </c>
       <c r="D98" t="n">
-        <v>4.13862</v>
+        <v>4.00175</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.86164</v>
+        <v>2.70986</v>
       </c>
       <c r="C99" t="n">
-        <v>4.71615</v>
+        <v>4.49504</v>
       </c>
       <c r="D99" t="n">
-        <v>4.14388</v>
+        <v>4.0524</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.80901</v>
+        <v>2.74498</v>
       </c>
       <c r="C100" t="n">
-        <v>4.7331</v>
+        <v>4.60591</v>
       </c>
       <c r="D100" t="n">
-        <v>4.13879</v>
+        <v>4.08226</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.86937</v>
+        <v>2.72814</v>
       </c>
       <c r="C101" t="n">
-        <v>4.82366</v>
+        <v>4.68574</v>
       </c>
       <c r="D101" t="n">
-        <v>4.27685</v>
+        <v>4.18088</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.88573</v>
+        <v>2.75405</v>
       </c>
       <c r="C102" t="n">
-        <v>4.86523</v>
+        <v>4.74949</v>
       </c>
       <c r="D102" t="n">
-        <v>4.21554</v>
+        <v>4.1098</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.97544</v>
+        <v>2.88589</v>
       </c>
       <c r="C103" t="n">
-        <v>4.95553</v>
+        <v>4.78584</v>
       </c>
       <c r="D103" t="n">
-        <v>4.28869</v>
+        <v>4.14611</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.02901</v>
+        <v>2.86823</v>
       </c>
       <c r="C104" t="n">
-        <v>5.13358</v>
+        <v>4.97616</v>
       </c>
       <c r="D104" t="n">
-        <v>4.26509</v>
+        <v>4.17218</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.10651</v>
+        <v>2.96354</v>
       </c>
       <c r="C105" t="n">
-        <v>5.13947</v>
+        <v>4.97565</v>
       </c>
       <c r="D105" t="n">
-        <v>4.3283</v>
+        <v>4.2488</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.06822</v>
+        <v>2.9324</v>
       </c>
       <c r="C106" t="n">
-        <v>5.26403</v>
+        <v>5.03885</v>
       </c>
       <c r="D106" t="n">
-        <v>4.37066</v>
+        <v>4.25105</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.10098</v>
+        <v>2.95185</v>
       </c>
       <c r="C107" t="n">
-        <v>5.2579</v>
+        <v>5.15452</v>
       </c>
       <c r="D107" t="n">
-        <v>4.38751</v>
+        <v>4.35555</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.13649</v>
+        <v>3.0319</v>
       </c>
       <c r="C108" t="n">
-        <v>5.45337</v>
+        <v>5.21354</v>
       </c>
       <c r="D108" t="n">
-        <v>4.41489</v>
+        <v>4.35716</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.16757</v>
+        <v>2.99782</v>
       </c>
       <c r="C109" t="n">
-        <v>5.53822</v>
+        <v>5.33375</v>
       </c>
       <c r="D109" t="n">
-        <v>4.43193</v>
+        <v>4.36797</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.16308</v>
+        <v>3.0554</v>
       </c>
       <c r="C110" t="n">
-        <v>5.58937</v>
+        <v>5.39072</v>
       </c>
       <c r="D110" t="n">
-        <v>4.58182</v>
+        <v>4.37168</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.17466</v>
+        <v>3.02486</v>
       </c>
       <c r="C111" t="n">
-        <v>5.25275</v>
+        <v>4.99986</v>
       </c>
       <c r="D111" t="n">
-        <v>4.67396</v>
+        <v>4.5239</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.259</v>
+        <v>3.05685</v>
       </c>
       <c r="C112" t="n">
-        <v>5.24468</v>
+        <v>5.1034</v>
       </c>
       <c r="D112" t="n">
-        <v>4.73009</v>
+        <v>4.50931</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.20486</v>
+        <v>3.10315</v>
       </c>
       <c r="C113" t="n">
-        <v>5.3319</v>
+        <v>5.1735</v>
       </c>
       <c r="D113" t="n">
-        <v>4.74058</v>
+        <v>4.63522</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.29511</v>
+        <v>3.11218</v>
       </c>
       <c r="C114" t="n">
-        <v>5.42241</v>
+        <v>5.25775</v>
       </c>
       <c r="D114" t="n">
-        <v>4.67474</v>
+        <v>4.57449</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.25775</v>
+        <v>3.09114</v>
       </c>
       <c r="C115" t="n">
-        <v>5.52925</v>
+        <v>5.31789</v>
       </c>
       <c r="D115" t="n">
-        <v>4.84847</v>
+        <v>4.61436</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.29797</v>
+        <v>3.09669</v>
       </c>
       <c r="C116" t="n">
-        <v>5.60247</v>
+        <v>5.41115</v>
       </c>
       <c r="D116" t="n">
-        <v>4.8337</v>
+        <v>4.67184</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.38517</v>
+        <v>3.22238</v>
       </c>
       <c r="C117" t="n">
-        <v>5.6947</v>
+        <v>5.46866</v>
       </c>
       <c r="D117" t="n">
-        <v>4.79669</v>
+        <v>4.71147</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.48085</v>
+        <v>3.35677</v>
       </c>
       <c r="C118" t="n">
-        <v>5.77165</v>
+        <v>5.56677</v>
       </c>
       <c r="D118" t="n">
-        <v>4.93582</v>
+        <v>4.87955</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.5149</v>
+        <v>3.36354</v>
       </c>
       <c r="C119" t="n">
-        <v>5.99787</v>
+        <v>5.73557</v>
       </c>
       <c r="D119" t="n">
-        <v>4.92553</v>
+        <v>4.83881</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.444799</v>
+        <v>0.409751</v>
       </c>
       <c r="C2" t="n">
-        <v>0.633115</v>
+        <v>0.5990490000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.414911</v>
+        <v>0.382991</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455126</v>
+        <v>0.409345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.635256</v>
+        <v>0.598345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.405403</v>
+        <v>0.389676</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.460219</v>
+        <v>0.410658</v>
       </c>
       <c r="C4" t="n">
-        <v>0.645186</v>
+        <v>0.61647</v>
       </c>
       <c r="D4" t="n">
-        <v>0.410913</v>
+        <v>0.378657</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.441193</v>
+        <v>0.413199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.623852</v>
+        <v>0.596073</v>
       </c>
       <c r="D5" t="n">
-        <v>0.41484</v>
+        <v>0.396908</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.447909</v>
+        <v>0.421268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.614681</v>
+        <v>0.602098</v>
       </c>
       <c r="D6" t="n">
-        <v>0.404371</v>
+        <v>0.400444</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.434536</v>
+        <v>0.417733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.634701</v>
+        <v>0.621398</v>
       </c>
       <c r="D7" t="n">
-        <v>0.409195</v>
+        <v>0.39143</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.431285</v>
+        <v>0.430868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.617938</v>
+        <v>0.623578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.396065</v>
+        <v>0.391719</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.438095</v>
+        <v>0.423517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.612199</v>
+        <v>0.623167</v>
       </c>
       <c r="D9" t="n">
-        <v>0.397782</v>
+        <v>0.395351</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.436658</v>
+        <v>0.427466</v>
       </c>
       <c r="C10" t="n">
-        <v>0.614613</v>
+        <v>0.6282</v>
       </c>
       <c r="D10" t="n">
-        <v>0.402111</v>
+        <v>0.390229</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.44303</v>
+        <v>0.429799</v>
       </c>
       <c r="C11" t="n">
-        <v>0.625403</v>
+        <v>0.625015</v>
       </c>
       <c r="D11" t="n">
-        <v>0.401644</v>
+        <v>0.397578</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.442827</v>
+        <v>0.441353</v>
       </c>
       <c r="C12" t="n">
-        <v>0.620185</v>
+        <v>0.623517</v>
       </c>
       <c r="D12" t="n">
-        <v>0.407945</v>
+        <v>0.406082</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.436134</v>
+        <v>0.417175</v>
       </c>
       <c r="C13" t="n">
-        <v>0.627075</v>
+        <v>0.622282</v>
       </c>
       <c r="D13" t="n">
-        <v>0.410793</v>
+        <v>0.409842</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.444498</v>
+        <v>0.419441</v>
       </c>
       <c r="C14" t="n">
-        <v>0.634965</v>
+        <v>0.62923</v>
       </c>
       <c r="D14" t="n">
-        <v>0.420622</v>
+        <v>0.413488</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.439818</v>
+        <v>0.429507</v>
       </c>
       <c r="C15" t="n">
-        <v>0.631912</v>
+        <v>0.6211719999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.414872</v>
+        <v>0.417606</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.435462</v>
+        <v>0.440894</v>
       </c>
       <c r="C16" t="n">
-        <v>0.640055</v>
+        <v>0.646269</v>
       </c>
       <c r="D16" t="n">
-        <v>0.42386</v>
+        <v>0.4357</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.440734</v>
+        <v>0.433093</v>
       </c>
       <c r="C17" t="n">
-        <v>0.619483</v>
+        <v>0.645357</v>
       </c>
       <c r="D17" t="n">
-        <v>0.427418</v>
+        <v>0.424752</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.45375</v>
+        <v>0.440672</v>
       </c>
       <c r="C18" t="n">
-        <v>0.634944</v>
+        <v>0.642113</v>
       </c>
       <c r="D18" t="n">
-        <v>0.430725</v>
+        <v>0.429862</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.456678</v>
+        <v>0.442569</v>
       </c>
       <c r="C19" t="n">
-        <v>0.637956</v>
+        <v>0.645038</v>
       </c>
       <c r="D19" t="n">
-        <v>0.433917</v>
+        <v>0.433085</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.458167</v>
+        <v>0.442628</v>
       </c>
       <c r="C20" t="n">
-        <v>0.656277</v>
+        <v>0.6639</v>
       </c>
       <c r="D20" t="n">
-        <v>0.433572</v>
+        <v>0.448235</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.457477</v>
+        <v>0.457599</v>
       </c>
       <c r="C21" t="n">
-        <v>0.664374</v>
+        <v>0.6553639999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.429017</v>
+        <v>0.419955</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.470784</v>
+        <v>0.457978</v>
       </c>
       <c r="C22" t="n">
-        <v>0.649566</v>
+        <v>0.688604</v>
       </c>
       <c r="D22" t="n">
-        <v>0.435456</v>
+        <v>0.439859</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.465052</v>
+        <v>0.467095</v>
       </c>
       <c r="C23" t="n">
-        <v>0.675755</v>
+        <v>0.665825</v>
       </c>
       <c r="D23" t="n">
-        <v>0.440561</v>
+        <v>0.441154</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.48881</v>
+        <v>0.48067</v>
       </c>
       <c r="C24" t="n">
-        <v>0.673929</v>
+        <v>0.6812550000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.440096</v>
+        <v>0.449361</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.516792</v>
+        <v>0.470023</v>
       </c>
       <c r="C25" t="n">
-        <v>0.679308</v>
+        <v>0.6709000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.45382</v>
+        <v>0.440341</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.520886</v>
+        <v>0.486787</v>
       </c>
       <c r="C26" t="n">
-        <v>0.679427</v>
+        <v>0.660731</v>
       </c>
       <c r="D26" t="n">
-        <v>0.468847</v>
+        <v>0.435959</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.55474</v>
+        <v>0.519819</v>
       </c>
       <c r="C27" t="n">
-        <v>0.68325</v>
+        <v>0.674166</v>
       </c>
       <c r="D27" t="n">
-        <v>0.496571</v>
+        <v>0.444101</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.551555</v>
+        <v>0.529939</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6871620000000001</v>
+        <v>0.679538</v>
       </c>
       <c r="D28" t="n">
-        <v>0.508818</v>
+        <v>0.473199</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.586718</v>
+        <v>0.5680500000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.697357</v>
+        <v>0.683599</v>
       </c>
       <c r="D29" t="n">
-        <v>0.50647</v>
+        <v>0.499822</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.580088</v>
+        <v>0.582624</v>
       </c>
       <c r="C30" t="n">
-        <v>0.706975</v>
+        <v>0.696265</v>
       </c>
       <c r="D30" t="n">
-        <v>0.504199</v>
+        <v>0.491239</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.592925</v>
+        <v>0.5807870000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.727946</v>
+        <v>0.707018</v>
       </c>
       <c r="D31" t="n">
-        <v>0.501869</v>
+        <v>0.488021</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.604064</v>
+        <v>0.580155</v>
       </c>
       <c r="C32" t="n">
-        <v>0.712131</v>
+        <v>0.695562</v>
       </c>
       <c r="D32" t="n">
-        <v>0.514277</v>
+        <v>0.498559</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.623571</v>
+        <v>0.593154</v>
       </c>
       <c r="C33" t="n">
-        <v>0.714328</v>
+        <v>0.727015</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5433750000000001</v>
+        <v>0.5111790000000001</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6435689999999999</v>
+        <v>0.622758</v>
       </c>
       <c r="C34" t="n">
-        <v>0.716155</v>
+        <v>0.722135</v>
       </c>
       <c r="D34" t="n">
-        <v>0.53755</v>
+        <v>0.520605</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.665624</v>
+        <v>0.637471</v>
       </c>
       <c r="C35" t="n">
-        <v>0.808006</v>
+        <v>0.793938</v>
       </c>
       <c r="D35" t="n">
-        <v>0.673482</v>
+        <v>0.634691</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6722860000000001</v>
+        <v>0.673113</v>
       </c>
       <c r="C36" t="n">
-        <v>0.806107</v>
+        <v>0.809285</v>
       </c>
       <c r="D36" t="n">
-        <v>0.672009</v>
+        <v>0.632571</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7042119999999999</v>
+        <v>0.665</v>
       </c>
       <c r="C37" t="n">
-        <v>0.819947</v>
+        <v>0.8129150000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.717297</v>
+        <v>0.657492</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.709971</v>
+        <v>0.69138</v>
       </c>
       <c r="C38" t="n">
-        <v>0.836218</v>
+        <v>0.819263</v>
       </c>
       <c r="D38" t="n">
-        <v>0.714543</v>
+        <v>0.679091</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.730328</v>
+        <v>0.702089</v>
       </c>
       <c r="C39" t="n">
-        <v>0.847142</v>
+        <v>0.824218</v>
       </c>
       <c r="D39" t="n">
-        <v>0.724458</v>
+        <v>0.700023</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.75087</v>
+        <v>0.721619</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8496359999999999</v>
+        <v>0.840604</v>
       </c>
       <c r="D40" t="n">
-        <v>0.765506</v>
+        <v>0.713805</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.896791</v>
+        <v>0.837075</v>
       </c>
       <c r="C41" t="n">
-        <v>0.877494</v>
+        <v>0.874377</v>
       </c>
       <c r="D41" t="n">
-        <v>0.778595</v>
+        <v>0.743801</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.909624</v>
+        <v>0.862833</v>
       </c>
       <c r="C42" t="n">
-        <v>0.907331</v>
+        <v>0.899621</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7755609999999999</v>
+        <v>0.756015</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9271779999999999</v>
+        <v>0.8986769999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.893356</v>
+        <v>0.890052</v>
       </c>
       <c r="D43" t="n">
-        <v>0.802797</v>
+        <v>0.788972</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.957287</v>
+        <v>0.895115</v>
       </c>
       <c r="C44" t="n">
-        <v>0.922085</v>
+        <v>0.914602</v>
       </c>
       <c r="D44" t="n">
-        <v>0.834135</v>
+        <v>0.801742</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.996908</v>
+        <v>0.915066</v>
       </c>
       <c r="C45" t="n">
-        <v>0.968863</v>
+        <v>0.9463510000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.865684</v>
+        <v>0.838569</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>1.00315</v>
+        <v>0.960924</v>
       </c>
       <c r="C46" t="n">
-        <v>0.970487</v>
+        <v>0.996985</v>
       </c>
       <c r="D46" t="n">
-        <v>0.852204</v>
+        <v>0.846482</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>1.0177</v>
+        <v>0.993483</v>
       </c>
       <c r="C47" t="n">
-        <v>0.977001</v>
+        <v>0.99839</v>
       </c>
       <c r="D47" t="n">
-        <v>0.906782</v>
+        <v>0.897477</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.05599</v>
+        <v>1.01078</v>
       </c>
       <c r="C48" t="n">
-        <v>1.03432</v>
+        <v>1.01423</v>
       </c>
       <c r="D48" t="n">
-        <v>0.936565</v>
+        <v>0.884953</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.10143</v>
+        <v>1.03075</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0519</v>
+        <v>1.03281</v>
       </c>
       <c r="D49" t="n">
-        <v>0.963154</v>
+        <v>0.9095259999999999</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0963</v>
+        <v>1.09632</v>
       </c>
       <c r="C50" t="n">
-        <v>1.26663</v>
+        <v>1.23061</v>
       </c>
       <c r="D50" t="n">
-        <v>1.13911</v>
+        <v>1.13085</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.14297</v>
+        <v>1.09677</v>
       </c>
       <c r="C51" t="n">
-        <v>1.32882</v>
+        <v>1.32373</v>
       </c>
       <c r="D51" t="n">
-        <v>1.17841</v>
+        <v>1.16215</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.15748</v>
+        <v>1.15676</v>
       </c>
       <c r="C52" t="n">
-        <v>1.37539</v>
+        <v>1.32348</v>
       </c>
       <c r="D52" t="n">
-        <v>1.23109</v>
+        <v>1.19842</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.21328</v>
+        <v>1.18795</v>
       </c>
       <c r="C53" t="n">
-        <v>1.39242</v>
+        <v>1.32598</v>
       </c>
       <c r="D53" t="n">
-        <v>1.26663</v>
+        <v>1.22494</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.27369</v>
+        <v>1.20622</v>
       </c>
       <c r="C54" t="n">
-        <v>1.42002</v>
+        <v>1.37338</v>
       </c>
       <c r="D54" t="n">
-        <v>1.29003</v>
+        <v>1.2345</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.31313</v>
+        <v>1.23743</v>
       </c>
       <c r="C55" t="n">
-        <v>1.45712</v>
+        <v>1.41384</v>
       </c>
       <c r="D55" t="n">
-        <v>1.37934</v>
+        <v>1.27076</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.5372</v>
+        <v>1.43536</v>
       </c>
       <c r="C56" t="n">
-        <v>1.46246</v>
+        <v>1.43149</v>
       </c>
       <c r="D56" t="n">
-        <v>1.39274</v>
+        <v>1.31088</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.54727</v>
+        <v>1.53012</v>
       </c>
       <c r="C57" t="n">
-        <v>1.50434</v>
+        <v>1.49449</v>
       </c>
       <c r="D57" t="n">
-        <v>1.40259</v>
+        <v>1.37406</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.57594</v>
+        <v>1.52566</v>
       </c>
       <c r="C58" t="n">
-        <v>1.53763</v>
+        <v>1.46813</v>
       </c>
       <c r="D58" t="n">
-        <v>1.41117</v>
+        <v>1.43255</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.63365</v>
+        <v>1.60553</v>
       </c>
       <c r="C59" t="n">
-        <v>1.53873</v>
+        <v>1.53136</v>
       </c>
       <c r="D59" t="n">
-        <v>1.51564</v>
+        <v>1.42449</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.64426</v>
+        <v>1.59546</v>
       </c>
       <c r="C60" t="n">
-        <v>1.56068</v>
+        <v>1.55245</v>
       </c>
       <c r="D60" t="n">
-        <v>1.48931</v>
+        <v>1.47809</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.67693</v>
+        <v>1.65294</v>
       </c>
       <c r="C61" t="n">
-        <v>1.61637</v>
+        <v>1.58698</v>
       </c>
       <c r="D61" t="n">
-        <v>1.54899</v>
+        <v>1.5788</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.7232</v>
+        <v>1.64673</v>
       </c>
       <c r="C62" t="n">
-        <v>1.65595</v>
+        <v>1.60765</v>
       </c>
       <c r="D62" t="n">
-        <v>1.59804</v>
+        <v>1.5588</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.71932</v>
+        <v>1.69049</v>
       </c>
       <c r="C63" t="n">
-        <v>1.66953</v>
+        <v>1.63045</v>
       </c>
       <c r="D63" t="n">
-        <v>1.61269</v>
+        <v>1.71158</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.7742</v>
+        <v>1.8086</v>
       </c>
       <c r="C64" t="n">
-        <v>1.86589</v>
+        <v>1.86029</v>
       </c>
       <c r="D64" t="n">
-        <v>1.91586</v>
+        <v>1.89838</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.7938</v>
+        <v>1.7792</v>
       </c>
       <c r="C65" t="n">
-        <v>1.87731</v>
+        <v>1.86472</v>
       </c>
       <c r="D65" t="n">
-        <v>1.96077</v>
+        <v>1.93508</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.82662</v>
+        <v>1.79376</v>
       </c>
       <c r="C66" t="n">
-        <v>1.93967</v>
+        <v>1.85946</v>
       </c>
       <c r="D66" t="n">
-        <v>1.96992</v>
+        <v>2.03136</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.86323</v>
+        <v>1.87075</v>
       </c>
       <c r="C67" t="n">
-        <v>1.91248</v>
+        <v>1.96324</v>
       </c>
       <c r="D67" t="n">
-        <v>2.09352</v>
+        <v>2.08337</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.95034</v>
+        <v>1.8704</v>
       </c>
       <c r="C68" t="n">
-        <v>1.9191</v>
+        <v>1.89973</v>
       </c>
       <c r="D68" t="n">
-        <v>2.07984</v>
+        <v>2.075</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.94736</v>
+        <v>1.87655</v>
       </c>
       <c r="C69" t="n">
-        <v>1.9358</v>
+        <v>1.92198</v>
       </c>
       <c r="D69" t="n">
-        <v>2.17278</v>
+        <v>2.0854</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.14721</v>
+        <v>1.99825</v>
       </c>
       <c r="C70" t="n">
-        <v>2.05588</v>
+        <v>2.05867</v>
       </c>
       <c r="D70" t="n">
-        <v>2.15761</v>
+        <v>2.15211</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.11432</v>
+        <v>2.09447</v>
       </c>
       <c r="C71" t="n">
-        <v>2.04116</v>
+        <v>2.00366</v>
       </c>
       <c r="D71" t="n">
-        <v>2.18855</v>
+        <v>2.13671</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.18618</v>
+        <v>2.04205</v>
       </c>
       <c r="C72" t="n">
-        <v>2.04017</v>
+        <v>1.98072</v>
       </c>
       <c r="D72" t="n">
-        <v>2.24942</v>
+        <v>2.35373</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.18829</v>
+        <v>2.11347</v>
       </c>
       <c r="C73" t="n">
-        <v>2.03677</v>
+        <v>2.00395</v>
       </c>
       <c r="D73" t="n">
-        <v>2.27268</v>
+        <v>2.22304</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.27887</v>
+        <v>2.10978</v>
       </c>
       <c r="C74" t="n">
-        <v>2.03883</v>
+        <v>2.06582</v>
       </c>
       <c r="D74" t="n">
-        <v>2.41441</v>
+        <v>2.26219</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.24955</v>
+        <v>2.16168</v>
       </c>
       <c r="C75" t="n">
-        <v>2.23701</v>
+        <v>2.04485</v>
       </c>
       <c r="D75" t="n">
-        <v>2.51422</v>
+        <v>2.33953</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.33103</v>
+        <v>2.16377</v>
       </c>
       <c r="C76" t="n">
-        <v>2.19259</v>
+        <v>2.06208</v>
       </c>
       <c r="D76" t="n">
-        <v>2.36479</v>
+        <v>2.37654</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.34393</v>
+        <v>2.1649</v>
       </c>
       <c r="C77" t="n">
-        <v>2.18662</v>
+        <v>2.07383</v>
       </c>
       <c r="D77" t="n">
-        <v>2.41375</v>
+        <v>2.39531</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.39428</v>
+        <v>2.19803</v>
       </c>
       <c r="C78" t="n">
-        <v>2.36035</v>
+        <v>2.25593</v>
       </c>
       <c r="D78" t="n">
-        <v>2.70043</v>
+        <v>2.59158</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.45202</v>
+        <v>2.226</v>
       </c>
       <c r="C79" t="n">
-        <v>2.39676</v>
+        <v>2.28746</v>
       </c>
       <c r="D79" t="n">
-        <v>2.65991</v>
+        <v>2.62682</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.39571</v>
+        <v>2.23066</v>
       </c>
       <c r="C80" t="n">
-        <v>2.39181</v>
+        <v>2.29048</v>
       </c>
       <c r="D80" t="n">
-        <v>2.82359</v>
+        <v>2.6525</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.45044</v>
+        <v>2.28493</v>
       </c>
       <c r="C81" t="n">
-        <v>2.41287</v>
+        <v>2.31753</v>
       </c>
       <c r="D81" t="n">
-        <v>2.8064</v>
+        <v>2.79655</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.42274</v>
+        <v>2.33741</v>
       </c>
       <c r="C82" t="n">
-        <v>2.4229</v>
+        <v>2.33827</v>
       </c>
       <c r="D82" t="n">
-        <v>2.78835</v>
+        <v>2.78532</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.44086</v>
+        <v>2.38667</v>
       </c>
       <c r="C83" t="n">
-        <v>2.44485</v>
+        <v>2.38437</v>
       </c>
       <c r="D83" t="n">
-        <v>2.85928</v>
+        <v>2.84557</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.57453</v>
+        <v>2.43763</v>
       </c>
       <c r="C84" t="n">
-        <v>2.45646</v>
+        <v>2.3761</v>
       </c>
       <c r="D84" t="n">
-        <v>2.89101</v>
+        <v>2.87443</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.55755</v>
+        <v>2.46473</v>
       </c>
       <c r="C85" t="n">
-        <v>2.5237</v>
+        <v>2.39422</v>
       </c>
       <c r="D85" t="n">
-        <v>2.93044</v>
+        <v>2.85366</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.56529</v>
+        <v>2.40007</v>
       </c>
       <c r="C86" t="n">
-        <v>2.46376</v>
+        <v>2.43988</v>
       </c>
       <c r="D86" t="n">
-        <v>2.92622</v>
+        <v>2.84216</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.63029</v>
+        <v>2.4759</v>
       </c>
       <c r="C87" t="n">
-        <v>2.51404</v>
+        <v>2.40183</v>
       </c>
       <c r="D87" t="n">
-        <v>3.03295</v>
+        <v>2.90523</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.66502</v>
+        <v>2.47951</v>
       </c>
       <c r="C88" t="n">
-        <v>2.51527</v>
+        <v>2.45754</v>
       </c>
       <c r="D88" t="n">
-        <v>2.95471</v>
+        <v>2.83838</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.71508</v>
+        <v>2.48051</v>
       </c>
       <c r="C89" t="n">
-        <v>2.56674</v>
+        <v>2.42787</v>
       </c>
       <c r="D89" t="n">
-        <v>3.0501</v>
+        <v>2.95202</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.77246</v>
+        <v>2.52227</v>
       </c>
       <c r="C90" t="n">
-        <v>2.56119</v>
+        <v>2.42053</v>
       </c>
       <c r="D90" t="n">
-        <v>3.03844</v>
+        <v>2.92751</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.75527</v>
+        <v>2.55729</v>
       </c>
       <c r="C91" t="n">
-        <v>2.61295</v>
+        <v>2.48967</v>
       </c>
       <c r="D91" t="n">
-        <v>3.11625</v>
+        <v>3.04805</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.67806</v>
+        <v>2.64083</v>
       </c>
       <c r="C92" t="n">
-        <v>2.83021</v>
+        <v>2.75163</v>
       </c>
       <c r="D92" t="n">
-        <v>3.24994</v>
+        <v>3.16164</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.68717</v>
+        <v>2.59008</v>
       </c>
       <c r="C93" t="n">
-        <v>2.80453</v>
+        <v>2.77946</v>
       </c>
       <c r="D93" t="n">
-        <v>3.29867</v>
+        <v>3.16024</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.77204</v>
+        <v>2.63569</v>
       </c>
       <c r="C94" t="n">
-        <v>2.87577</v>
+        <v>2.72842</v>
       </c>
       <c r="D94" t="n">
-        <v>3.33871</v>
+        <v>3.25417</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.76897</v>
+        <v>2.5913</v>
       </c>
       <c r="C95" t="n">
-        <v>2.83208</v>
+        <v>2.87186</v>
       </c>
       <c r="D95" t="n">
-        <v>3.34145</v>
+        <v>3.29387</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.84978</v>
+        <v>2.67829</v>
       </c>
       <c r="C96" t="n">
-        <v>2.88286</v>
+        <v>2.7861</v>
       </c>
       <c r="D96" t="n">
-        <v>3.40987</v>
+        <v>3.31396</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.88529</v>
+        <v>2.61592</v>
       </c>
       <c r="C97" t="n">
-        <v>2.92604</v>
+        <v>2.7646</v>
       </c>
       <c r="D97" t="n">
-        <v>3.3643</v>
+        <v>3.33743</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>3.00915</v>
+        <v>2.74164</v>
       </c>
       <c r="C98" t="n">
-        <v>2.99456</v>
+        <v>2.82316</v>
       </c>
       <c r="D98" t="n">
-        <v>3.42262</v>
+        <v>3.1582</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>3.01304</v>
+        <v>2.84339</v>
       </c>
       <c r="C99" t="n">
-        <v>3.00962</v>
+        <v>2.87154</v>
       </c>
       <c r="D99" t="n">
-        <v>3.42508</v>
+        <v>3.25647</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>3.09977</v>
+        <v>2.85346</v>
       </c>
       <c r="C100" t="n">
-        <v>3.04907</v>
+        <v>2.91807</v>
       </c>
       <c r="D100" t="n">
-        <v>3.39739</v>
+        <v>3.35673</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>3.14162</v>
+        <v>2.83542</v>
       </c>
       <c r="C101" t="n">
-        <v>3.04686</v>
+        <v>2.91163</v>
       </c>
       <c r="D101" t="n">
-        <v>3.42153</v>
+        <v>3.29879</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>3.06532</v>
+        <v>2.85942</v>
       </c>
       <c r="C102" t="n">
-        <v>3.05008</v>
+        <v>2.90935</v>
       </c>
       <c r="D102" t="n">
-        <v>3.4241</v>
+        <v>3.34766</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>3.13146</v>
+        <v>2.94168</v>
       </c>
       <c r="C103" t="n">
-        <v>3.09036</v>
+        <v>2.94114</v>
       </c>
       <c r="D103" t="n">
-        <v>3.50152</v>
+        <v>3.38376</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>3.18432</v>
+        <v>2.95934</v>
       </c>
       <c r="C104" t="n">
-        <v>3.08598</v>
+        <v>3.05077</v>
       </c>
       <c r="D104" t="n">
-        <v>3.51421</v>
+        <v>3.48856</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>3.203</v>
+        <v>2.98223</v>
       </c>
       <c r="C105" t="n">
-        <v>3.1347</v>
+        <v>3.08995</v>
       </c>
       <c r="D105" t="n">
-        <v>3.53072</v>
+        <v>3.45822</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>3.22641</v>
+        <v>2.98819</v>
       </c>
       <c r="C106" t="n">
-        <v>3.18232</v>
+        <v>3.11559</v>
       </c>
       <c r="D106" t="n">
-        <v>3.59951</v>
+        <v>3.47387</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>3.28561</v>
+        <v>3.01716</v>
       </c>
       <c r="C107" t="n">
-        <v>3.4805</v>
+        <v>3.33909</v>
       </c>
       <c r="D107" t="n">
-        <v>3.86365</v>
+        <v>3.76001</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>3.25756</v>
+        <v>3.02844</v>
       </c>
       <c r="C108" t="n">
-        <v>3.45001</v>
+        <v>3.41042</v>
       </c>
       <c r="D108" t="n">
-        <v>3.90402</v>
+        <v>3.78712</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.2915</v>
+        <v>3.0767</v>
       </c>
       <c r="C109" t="n">
-        <v>3.47081</v>
+        <v>3.37925</v>
       </c>
       <c r="D109" t="n">
-        <v>3.8859</v>
+        <v>3.80426</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.36788</v>
+        <v>3.15027</v>
       </c>
       <c r="C110" t="n">
-        <v>3.5249</v>
+        <v>3.43147</v>
       </c>
       <c r="D110" t="n">
-        <v>3.95635</v>
+        <v>3.87977</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.47042</v>
+        <v>3.18366</v>
       </c>
       <c r="C111" t="n">
-        <v>3.60939</v>
+        <v>3.41736</v>
       </c>
       <c r="D111" t="n">
-        <v>4.04579</v>
+        <v>3.87151</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.623</v>
+        <v>3.27709</v>
       </c>
       <c r="C112" t="n">
-        <v>3.59558</v>
+        <v>3.4751</v>
       </c>
       <c r="D112" t="n">
-        <v>3.97399</v>
+        <v>3.93759</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.50937</v>
+        <v>3.30468</v>
       </c>
       <c r="C113" t="n">
-        <v>3.55335</v>
+        <v>3.47353</v>
       </c>
       <c r="D113" t="n">
-        <v>3.95383</v>
+        <v>3.87073</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.67854</v>
+        <v>3.40517</v>
       </c>
       <c r="C114" t="n">
-        <v>3.65873</v>
+        <v>3.57262</v>
       </c>
       <c r="D114" t="n">
-        <v>4.01125</v>
+        <v>4.05897</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.63587</v>
+        <v>3.42088</v>
       </c>
       <c r="C115" t="n">
-        <v>3.68341</v>
+        <v>3.55958</v>
       </c>
       <c r="D115" t="n">
-        <v>4.12443</v>
+        <v>4.15367</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.65265</v>
+        <v>3.48188</v>
       </c>
       <c r="C116" t="n">
-        <v>3.69865</v>
+        <v>3.6125</v>
       </c>
       <c r="D116" t="n">
-        <v>4.14939</v>
+        <v>4.13062</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.62373</v>
+        <v>3.39002</v>
       </c>
       <c r="C117" t="n">
-        <v>3.73887</v>
+        <v>3.60764</v>
       </c>
       <c r="D117" t="n">
-        <v>4.20756</v>
+        <v>4.13995</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.71986</v>
+        <v>3.41723</v>
       </c>
       <c r="C118" t="n">
-        <v>3.86633</v>
+        <v>3.70651</v>
       </c>
       <c r="D118" t="n">
-        <v>4.18677</v>
+        <v>4.06021</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.83247</v>
+        <v>3.48379</v>
       </c>
       <c r="C119" t="n">
-        <v>3.87294</v>
+        <v>3.69792</v>
       </c>
       <c r="D119" t="n">
-        <v>4.36422</v>
+        <v>4.14357</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.472021</v>
+        <v>0.469696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.828348</v>
+        <v>0.778193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.561487</v>
+        <v>0.539289</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.480027</v>
+        <v>0.459712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7941820000000001</v>
+        <v>0.7787809999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.554446</v>
+        <v>0.538254</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.481686</v>
+        <v>0.465427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.786974</v>
+        <v>0.792744</v>
       </c>
       <c r="D4" t="n">
-        <v>0.528239</v>
+        <v>0.5377999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.462035</v>
+        <v>0.464243</v>
       </c>
       <c r="C5" t="n">
-        <v>0.823396</v>
+        <v>0.79186</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5721540000000001</v>
+        <v>0.538922</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.475769</v>
+        <v>0.451522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.827583</v>
+        <v>0.783331</v>
       </c>
       <c r="D6" t="n">
-        <v>0.561501</v>
+        <v>0.545735</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.46722</v>
+        <v>0.456656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.80349</v>
+        <v>0.792485</v>
       </c>
       <c r="D7" t="n">
-        <v>0.548704</v>
+        <v>0.545894</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.464286</v>
+        <v>0.46708</v>
       </c>
       <c r="C8" t="n">
-        <v>0.792381</v>
+        <v>0.793547</v>
       </c>
       <c r="D8" t="n">
-        <v>0.556921</v>
+        <v>0.542919</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.454491</v>
+        <v>0.461256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.805589</v>
+        <v>0.807742</v>
       </c>
       <c r="D9" t="n">
-        <v>0.561958</v>
+        <v>0.553688</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.460531</v>
+        <v>0.460497</v>
       </c>
       <c r="C10" t="n">
-        <v>0.812204</v>
+        <v>0.809624</v>
       </c>
       <c r="D10" t="n">
-        <v>0.554884</v>
+        <v>0.555718</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.466659</v>
+        <v>0.464964</v>
       </c>
       <c r="C11" t="n">
-        <v>0.806535</v>
+        <v>0.807877</v>
       </c>
       <c r="D11" t="n">
-        <v>0.550112</v>
+        <v>0.557593</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.464753</v>
+        <v>0.46945</v>
       </c>
       <c r="C12" t="n">
-        <v>0.82204</v>
+        <v>0.8288</v>
       </c>
       <c r="D12" t="n">
-        <v>0.558797</v>
+        <v>0.562622</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.482273</v>
+        <v>0.478768</v>
       </c>
       <c r="C13" t="n">
-        <v>0.828194</v>
+        <v>0.792226</v>
       </c>
       <c r="D13" t="n">
-        <v>0.56679</v>
+        <v>0.576125</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.475302</v>
+        <v>0.478079</v>
       </c>
       <c r="C14" t="n">
-        <v>0.814868</v>
+        <v>0.83036</v>
       </c>
       <c r="D14" t="n">
-        <v>0.571433</v>
+        <v>0.579993</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4821</v>
+        <v>0.487686</v>
       </c>
       <c r="C15" t="n">
-        <v>0.838004</v>
+        <v>0.819841</v>
       </c>
       <c r="D15" t="n">
-        <v>0.571339</v>
+        <v>0.576813</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.488047</v>
+        <v>0.493739</v>
       </c>
       <c r="C16" t="n">
-        <v>0.819973</v>
+        <v>0.836045</v>
       </c>
       <c r="D16" t="n">
-        <v>0.584611</v>
+        <v>0.577921</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.482557</v>
+        <v>0.484312</v>
       </c>
       <c r="C17" t="n">
-        <v>0.838132</v>
+        <v>0.826916</v>
       </c>
       <c r="D17" t="n">
-        <v>0.582389</v>
+        <v>0.577608</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.484805</v>
+        <v>0.488355</v>
       </c>
       <c r="C18" t="n">
-        <v>0.832083</v>
+        <v>0.8389219999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585715</v>
+        <v>0.588703</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.501007</v>
+        <v>0.490103</v>
       </c>
       <c r="C19" t="n">
-        <v>0.841193</v>
+        <v>0.843271</v>
       </c>
       <c r="D19" t="n">
-        <v>0.591535</v>
+        <v>0.58399</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.490763</v>
+        <v>0.493936</v>
       </c>
       <c r="C20" t="n">
-        <v>0.849806</v>
+        <v>0.837379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.591426</v>
+        <v>0.5858719999999999</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.500177</v>
+        <v>0.484501</v>
       </c>
       <c r="C21" t="n">
-        <v>0.863559</v>
+        <v>0.8447480000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.590937</v>
+        <v>0.610251</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.48522</v>
+        <v>0.494441</v>
       </c>
       <c r="C22" t="n">
-        <v>0.865152</v>
+        <v>0.878215</v>
       </c>
       <c r="D22" t="n">
-        <v>0.605818</v>
+        <v>0.6093150000000001</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.500385</v>
+        <v>0.51037</v>
       </c>
       <c r="C23" t="n">
-        <v>0.876259</v>
+        <v>0.869097</v>
       </c>
       <c r="D23" t="n">
-        <v>0.610355</v>
+        <v>0.604573</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.50334</v>
+        <v>0.501825</v>
       </c>
       <c r="C24" t="n">
-        <v>0.880208</v>
+        <v>0.882605</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6248590000000001</v>
+        <v>0.613219</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.510862</v>
+        <v>0.50988</v>
       </c>
       <c r="C25" t="n">
-        <v>0.902135</v>
+        <v>0.88846</v>
       </c>
       <c r="D25" t="n">
-        <v>0.612827</v>
+        <v>0.629313</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5079900000000001</v>
+        <v>0.520833</v>
       </c>
       <c r="C26" t="n">
-        <v>0.872021</v>
+        <v>0.897468</v>
       </c>
       <c r="D26" t="n">
-        <v>0.61733</v>
+        <v>0.6308280000000001</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.581654</v>
+        <v>0.577731</v>
       </c>
       <c r="C27" t="n">
-        <v>0.911794</v>
+        <v>0.912552</v>
       </c>
       <c r="D27" t="n">
-        <v>0.644159</v>
+        <v>0.634101</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.591408</v>
+        <v>0.610711</v>
       </c>
       <c r="C28" t="n">
-        <v>0.877315</v>
+        <v>0.910761</v>
       </c>
       <c r="D28" t="n">
-        <v>0.643612</v>
+        <v>0.654423</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.596994</v>
+        <v>0.608612</v>
       </c>
       <c r="C29" t="n">
-        <v>0.934401</v>
+        <v>0.9238690000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.620509</v>
+        <v>0.690897</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.591592</v>
+        <v>0.612823</v>
       </c>
       <c r="C30" t="n">
-        <v>0.934022</v>
+        <v>0.9113</v>
       </c>
       <c r="D30" t="n">
-        <v>0.636686</v>
+        <v>0.680198</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5971109999999999</v>
+        <v>0.621221</v>
       </c>
       <c r="C31" t="n">
-        <v>0.936284</v>
+        <v>0.914402</v>
       </c>
       <c r="D31" t="n">
-        <v>0.666779</v>
+        <v>0.662428</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.637482</v>
+        <v>0.625752</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9473470000000001</v>
+        <v>0.957669</v>
       </c>
       <c r="D32" t="n">
-        <v>0.661404</v>
+        <v>0.681935</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.645133</v>
+        <v>0.632161</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9612619999999999</v>
+        <v>0.940095</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7026250000000001</v>
+        <v>0.708264</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.655522</v>
+        <v>0.649421</v>
       </c>
       <c r="C34" t="n">
-        <v>0.989619</v>
+        <v>0.961634</v>
       </c>
       <c r="D34" t="n">
-        <v>0.712063</v>
+        <v>0.6973240000000001</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.671255</v>
+        <v>0.67905</v>
       </c>
       <c r="C35" t="n">
-        <v>1.04333</v>
+        <v>1.03992</v>
       </c>
       <c r="D35" t="n">
-        <v>0.780164</v>
+        <v>0.803163</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.695383</v>
+        <v>0.684103</v>
       </c>
       <c r="C36" t="n">
-        <v>1.072</v>
+        <v>1.06957</v>
       </c>
       <c r="D36" t="n">
-        <v>0.813022</v>
+        <v>0.8169650000000001</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.701836</v>
+        <v>0.708463</v>
       </c>
       <c r="C37" t="n">
-        <v>1.09076</v>
+        <v>1.0969</v>
       </c>
       <c r="D37" t="n">
-        <v>0.862215</v>
+        <v>0.851434</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.721072</v>
+        <v>0.720503</v>
       </c>
       <c r="C38" t="n">
-        <v>1.09035</v>
+        <v>1.113</v>
       </c>
       <c r="D38" t="n">
-        <v>0.860471</v>
+        <v>0.843875</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.734697</v>
+        <v>0.754986</v>
       </c>
       <c r="C39" t="n">
-        <v>1.13752</v>
+        <v>1.15741</v>
       </c>
       <c r="D39" t="n">
-        <v>0.897404</v>
+        <v>0.8843529999999999</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.74949</v>
+        <v>0.789034</v>
       </c>
       <c r="C40" t="n">
-        <v>1.13791</v>
+        <v>1.17171</v>
       </c>
       <c r="D40" t="n">
-        <v>0.903163</v>
+        <v>0.90783</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.873204</v>
+        <v>0.89169</v>
       </c>
       <c r="C41" t="n">
-        <v>1.16169</v>
+        <v>1.17813</v>
       </c>
       <c r="D41" t="n">
-        <v>0.940349</v>
+        <v>0.949726</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.899641</v>
+        <v>0.913901</v>
       </c>
       <c r="C42" t="n">
-        <v>1.20577</v>
+        <v>1.20729</v>
       </c>
       <c r="D42" t="n">
-        <v>0.960108</v>
+        <v>0.958121</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.89849</v>
+        <v>0.920683</v>
       </c>
       <c r="C43" t="n">
-        <v>1.23624</v>
+        <v>1.24955</v>
       </c>
       <c r="D43" t="n">
-        <v>0.98936</v>
+        <v>1.0093</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.947333</v>
+        <v>0.924318</v>
       </c>
       <c r="C44" t="n">
-        <v>1.24405</v>
+        <v>1.2311</v>
       </c>
       <c r="D44" t="n">
-        <v>1.03147</v>
+        <v>1.03529</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.941455</v>
+        <v>0.936965</v>
       </c>
       <c r="C45" t="n">
-        <v>1.31651</v>
+        <v>1.28815</v>
       </c>
       <c r="D45" t="n">
-        <v>1.05187</v>
+        <v>1.04007</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.963674</v>
+        <v>0.993046</v>
       </c>
       <c r="C46" t="n">
-        <v>1.31549</v>
+        <v>1.32929</v>
       </c>
       <c r="D46" t="n">
-        <v>1.087</v>
+        <v>1.0675</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.994467</v>
+        <v>0.988656</v>
       </c>
       <c r="C47" t="n">
-        <v>1.3572</v>
+        <v>1.33741</v>
       </c>
       <c r="D47" t="n">
-        <v>1.11161</v>
+        <v>1.12148</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.00365</v>
+        <v>1.04095</v>
       </c>
       <c r="C48" t="n">
-        <v>1.39759</v>
+        <v>1.39746</v>
       </c>
       <c r="D48" t="n">
-        <v>1.14601</v>
+        <v>1.14798</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.02458</v>
+        <v>1.05439</v>
       </c>
       <c r="C49" t="n">
-        <v>1.44625</v>
+        <v>1.49262</v>
       </c>
       <c r="D49" t="n">
-        <v>1.19505</v>
+        <v>1.19332</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0519</v>
+        <v>1.07017</v>
       </c>
       <c r="C50" t="n">
-        <v>1.74051</v>
+        <v>1.65789</v>
       </c>
       <c r="D50" t="n">
-        <v>1.32011</v>
+        <v>1.33577</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09538</v>
+        <v>1.10158</v>
       </c>
       <c r="C51" t="n">
-        <v>1.74035</v>
+        <v>1.6768</v>
       </c>
       <c r="D51" t="n">
-        <v>1.33782</v>
+        <v>1.35334</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.09405</v>
+        <v>1.10908</v>
       </c>
       <c r="C52" t="n">
-        <v>1.86076</v>
+        <v>1.82354</v>
       </c>
       <c r="D52" t="n">
-        <v>1.40651</v>
+        <v>1.42259</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.16317</v>
+        <v>1.18922</v>
       </c>
       <c r="C53" t="n">
-        <v>1.87233</v>
+        <v>1.86847</v>
       </c>
       <c r="D53" t="n">
-        <v>1.42087</v>
+        <v>1.49059</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.18853</v>
+        <v>1.22512</v>
       </c>
       <c r="C54" t="n">
-        <v>1.96906</v>
+        <v>1.95478</v>
       </c>
       <c r="D54" t="n">
-        <v>1.49365</v>
+        <v>1.5188</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.20942</v>
+        <v>1.26601</v>
       </c>
       <c r="C55" t="n">
-        <v>2.0642</v>
+        <v>2.01956</v>
       </c>
       <c r="D55" t="n">
-        <v>1.5285</v>
+        <v>1.53473</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.36605</v>
+        <v>1.46234</v>
       </c>
       <c r="C56" t="n">
-        <v>2.11689</v>
+        <v>2.21614</v>
       </c>
       <c r="D56" t="n">
-        <v>1.60716</v>
+        <v>1.59807</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.41887</v>
+        <v>1.45891</v>
       </c>
       <c r="C57" t="n">
-        <v>2.18489</v>
+        <v>2.23602</v>
       </c>
       <c r="D57" t="n">
-        <v>1.65445</v>
+        <v>1.58386</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.44717</v>
+        <v>1.44788</v>
       </c>
       <c r="C58" t="n">
-        <v>2.09699</v>
+        <v>2.30724</v>
       </c>
       <c r="D58" t="n">
-        <v>1.66222</v>
+        <v>1.69809</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.48724</v>
+        <v>1.52205</v>
       </c>
       <c r="C59" t="n">
-        <v>2.36771</v>
+        <v>2.29325</v>
       </c>
       <c r="D59" t="n">
-        <v>1.73688</v>
+        <v>1.74856</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.47143</v>
+        <v>1.51258</v>
       </c>
       <c r="C60" t="n">
-        <v>2.19514</v>
+        <v>2.28129</v>
       </c>
       <c r="D60" t="n">
-        <v>1.83093</v>
+        <v>1.83234</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.53562</v>
+        <v>1.62361</v>
       </c>
       <c r="C61" t="n">
-        <v>2.32474</v>
+        <v>2.51372</v>
       </c>
       <c r="D61" t="n">
-        <v>1.89046</v>
+        <v>1.9035</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.63355</v>
+        <v>1.67781</v>
       </c>
       <c r="C62" t="n">
-        <v>2.42759</v>
+        <v>2.51868</v>
       </c>
       <c r="D62" t="n">
-        <v>1.9599</v>
+        <v>1.96314</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.71017</v>
+        <v>1.65732</v>
       </c>
       <c r="C63" t="n">
-        <v>2.62455</v>
+        <v>2.61122</v>
       </c>
       <c r="D63" t="n">
-        <v>2.02554</v>
+        <v>2.03448</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.61096</v>
+        <v>1.69783</v>
       </c>
       <c r="C64" t="n">
-        <v>2.58424</v>
+        <v>2.92116</v>
       </c>
       <c r="D64" t="n">
-        <v>2.14389</v>
+        <v>2.23407</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.74283</v>
+        <v>1.74418</v>
       </c>
       <c r="C65" t="n">
-        <v>2.98712</v>
+        <v>2.59505</v>
       </c>
       <c r="D65" t="n">
-        <v>2.28352</v>
+        <v>2.21207</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.73921</v>
+        <v>1.77228</v>
       </c>
       <c r="C66" t="n">
-        <v>3.0564</v>
+        <v>2.6392</v>
       </c>
       <c r="D66" t="n">
-        <v>2.34031</v>
+        <v>2.30976</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.78022</v>
+        <v>1.84461</v>
       </c>
       <c r="C67" t="n">
-        <v>3.08424</v>
+        <v>2.86639</v>
       </c>
       <c r="D67" t="n">
-        <v>2.48375</v>
+        <v>2.52837</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.88996</v>
+        <v>1.94673</v>
       </c>
       <c r="C68" t="n">
-        <v>3.11575</v>
+        <v>3.11763</v>
       </c>
       <c r="D68" t="n">
-        <v>2.53726</v>
+        <v>2.5318</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.87942</v>
+        <v>2.04437</v>
       </c>
       <c r="C69" t="n">
-        <v>3.19024</v>
+        <v>2.87502</v>
       </c>
       <c r="D69" t="n">
-        <v>2.53511</v>
+        <v>2.59882</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.00483</v>
+        <v>2.03035</v>
       </c>
       <c r="C70" t="n">
-        <v>3.12163</v>
+        <v>3.00092</v>
       </c>
       <c r="D70" t="n">
-        <v>2.62191</v>
+        <v>2.65729</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.05989</v>
+        <v>2.1776</v>
       </c>
       <c r="C71" t="n">
-        <v>3.20441</v>
+        <v>3.24567</v>
       </c>
       <c r="D71" t="n">
-        <v>2.53624</v>
+        <v>2.7692</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.09162</v>
+        <v>2.1534</v>
       </c>
       <c r="C72" t="n">
-        <v>3.41348</v>
+        <v>3.37595</v>
       </c>
       <c r="D72" t="n">
-        <v>2.83201</v>
+        <v>2.80219</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.1162</v>
+        <v>2.23565</v>
       </c>
       <c r="C73" t="n">
-        <v>3.13635</v>
+        <v>3.30794</v>
       </c>
       <c r="D73" t="n">
-        <v>2.71177</v>
+        <v>2.8691</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.06773</v>
+        <v>2.27031</v>
       </c>
       <c r="C74" t="n">
-        <v>3.10526</v>
+        <v>3.38513</v>
       </c>
       <c r="D74" t="n">
-        <v>2.94648</v>
+        <v>2.95218</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.08486</v>
+        <v>2.23242</v>
       </c>
       <c r="C75" t="n">
-        <v>3.44561</v>
+        <v>3.41777</v>
       </c>
       <c r="D75" t="n">
-        <v>2.96408</v>
+        <v>2.89249</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.13368</v>
+        <v>2.25857</v>
       </c>
       <c r="C76" t="n">
-        <v>3.39723</v>
+        <v>3.22799</v>
       </c>
       <c r="D76" t="n">
-        <v>2.98886</v>
+        <v>3.02388</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.20798</v>
+        <v>2.33774</v>
       </c>
       <c r="C77" t="n">
-        <v>3.49893</v>
+        <v>3.30259</v>
       </c>
       <c r="D77" t="n">
-        <v>3.01963</v>
+        <v>3.06333</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.2158</v>
+        <v>2.29084</v>
       </c>
       <c r="C78" t="n">
-        <v>3.41837</v>
+        <v>3.53002</v>
       </c>
       <c r="D78" t="n">
-        <v>3.0686</v>
+        <v>3.18354</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.20561</v>
+        <v>2.31415</v>
       </c>
       <c r="C79" t="n">
-        <v>3.38385</v>
+        <v>3.66573</v>
       </c>
       <c r="D79" t="n">
-        <v>3.10557</v>
+        <v>3.3713</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.17799</v>
+        <v>2.35057</v>
       </c>
       <c r="C80" t="n">
-        <v>3.43614</v>
+        <v>3.74088</v>
       </c>
       <c r="D80" t="n">
-        <v>3.1253</v>
+        <v>3.23918</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.19169</v>
+        <v>2.39831</v>
       </c>
       <c r="C81" t="n">
-        <v>3.54515</v>
+        <v>3.66118</v>
       </c>
       <c r="D81" t="n">
-        <v>3.31154</v>
+        <v>3.26247</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.22299</v>
+        <v>2.36755</v>
       </c>
       <c r="C82" t="n">
-        <v>3.64259</v>
+        <v>3.62908</v>
       </c>
       <c r="D82" t="n">
-        <v>3.22924</v>
+        <v>3.47916</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.27859</v>
+        <v>2.50405</v>
       </c>
       <c r="C83" t="n">
-        <v>3.61231</v>
+        <v>3.64445</v>
       </c>
       <c r="D83" t="n">
-        <v>3.26418</v>
+        <v>3.42455</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.3701</v>
+        <v>2.5565</v>
       </c>
       <c r="C84" t="n">
-        <v>3.67686</v>
+        <v>3.8264</v>
       </c>
       <c r="D84" t="n">
-        <v>3.32742</v>
+        <v>3.47416</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.39748</v>
+        <v>2.56243</v>
       </c>
       <c r="C85" t="n">
-        <v>3.65502</v>
+        <v>3.66984</v>
       </c>
       <c r="D85" t="n">
-        <v>3.38862</v>
+        <v>3.53602</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.38326</v>
+        <v>2.58052</v>
       </c>
       <c r="C86" t="n">
-        <v>3.77972</v>
+        <v>3.73638</v>
       </c>
       <c r="D86" t="n">
-        <v>3.45173</v>
+        <v>3.54766</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.41998</v>
+        <v>2.63969</v>
       </c>
       <c r="C87" t="n">
-        <v>3.76331</v>
+        <v>3.84048</v>
       </c>
       <c r="D87" t="n">
-        <v>3.37289</v>
+        <v>3.66907</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.43628</v>
+        <v>2.76878</v>
       </c>
       <c r="C88" t="n">
-        <v>3.71184</v>
+        <v>3.84029</v>
       </c>
       <c r="D88" t="n">
-        <v>3.48135</v>
+        <v>3.67765</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.48879</v>
+        <v>2.65277</v>
       </c>
       <c r="C89" t="n">
-        <v>3.76503</v>
+        <v>3.85056</v>
       </c>
       <c r="D89" t="n">
-        <v>3.57497</v>
+        <v>3.65644</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.49728</v>
+        <v>2.77225</v>
       </c>
       <c r="C90" t="n">
-        <v>3.80577</v>
+        <v>3.86027</v>
       </c>
       <c r="D90" t="n">
-        <v>3.60381</v>
+        <v>3.75785</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.53395</v>
+        <v>2.75956</v>
       </c>
       <c r="C91" t="n">
-        <v>3.88724</v>
+        <v>3.95314</v>
       </c>
       <c r="D91" t="n">
-        <v>3.64807</v>
+        <v>3.80814</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.56644</v>
+        <v>2.79174</v>
       </c>
       <c r="C92" t="n">
-        <v>4.07997</v>
+        <v>4.16856</v>
       </c>
       <c r="D92" t="n">
-        <v>3.83515</v>
+        <v>3.97459</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.55977</v>
+        <v>2.79558</v>
       </c>
       <c r="C93" t="n">
-        <v>4.10028</v>
+        <v>4.23727</v>
       </c>
       <c r="D93" t="n">
-        <v>3.84919</v>
+        <v>3.93511</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.64253</v>
+        <v>2.80457</v>
       </c>
       <c r="C94" t="n">
-        <v>4.31729</v>
+        <v>4.29986</v>
       </c>
       <c r="D94" t="n">
-        <v>3.89529</v>
+        <v>4.1044</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.67348</v>
+        <v>2.82092</v>
       </c>
       <c r="C95" t="n">
-        <v>4.23076</v>
+        <v>4.31595</v>
       </c>
       <c r="D95" t="n">
-        <v>3.91714</v>
+        <v>4.05577</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.60949</v>
+        <v>2.88513</v>
       </c>
       <c r="C96" t="n">
-        <v>4.20955</v>
+        <v>4.33904</v>
       </c>
       <c r="D96" t="n">
-        <v>3.9884</v>
+        <v>4.17025</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.69154</v>
+        <v>2.97345</v>
       </c>
       <c r="C97" t="n">
-        <v>4.34132</v>
+        <v>4.38548</v>
       </c>
       <c r="D97" t="n">
-        <v>4.00554</v>
+        <v>4.16313</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.78999</v>
+        <v>3.10213</v>
       </c>
       <c r="C98" t="n">
-        <v>4.41403</v>
+        <v>4.43205</v>
       </c>
       <c r="D98" t="n">
-        <v>3.99841</v>
+        <v>4.18189</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.8949</v>
+        <v>3.20972</v>
       </c>
       <c r="C99" t="n">
-        <v>4.37596</v>
+        <v>4.4655</v>
       </c>
       <c r="D99" t="n">
-        <v>4.01831</v>
+        <v>4.25749</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.90901</v>
+        <v>3.10231</v>
       </c>
       <c r="C100" t="n">
-        <v>4.39473</v>
+        <v>4.47713</v>
       </c>
       <c r="D100" t="n">
-        <v>4.12732</v>
+        <v>4.26962</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.87249</v>
+        <v>3.12202</v>
       </c>
       <c r="C101" t="n">
-        <v>4.41646</v>
+        <v>4.52797</v>
       </c>
       <c r="D101" t="n">
-        <v>4.10645</v>
+        <v>4.31415</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.90267</v>
+        <v>3.16688</v>
       </c>
       <c r="C102" t="n">
-        <v>4.62692</v>
+        <v>4.5887</v>
       </c>
       <c r="D102" t="n">
-        <v>4.19082</v>
+        <v>4.26247</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.94431</v>
+        <v>3.18511</v>
       </c>
       <c r="C103" t="n">
-        <v>4.5613</v>
+        <v>4.60788</v>
       </c>
       <c r="D103" t="n">
-        <v>4.23579</v>
+        <v>4.41372</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.10262</v>
+        <v>3.17201</v>
       </c>
       <c r="C104" t="n">
-        <v>4.83301</v>
+        <v>4.65396</v>
       </c>
       <c r="D104" t="n">
-        <v>4.25259</v>
+        <v>4.45092</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.02956</v>
+        <v>3.27273</v>
       </c>
       <c r="C105" t="n">
-        <v>4.64114</v>
+        <v>4.70557</v>
       </c>
       <c r="D105" t="n">
-        <v>4.27222</v>
+        <v>4.43778</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.03323</v>
+        <v>3.2652</v>
       </c>
       <c r="C106" t="n">
-        <v>4.68431</v>
+        <v>4.75396</v>
       </c>
       <c r="D106" t="n">
-        <v>4.29403</v>
+        <v>4.48429</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.99017</v>
+        <v>3.29114</v>
       </c>
       <c r="C107" t="n">
-        <v>4.97071</v>
+        <v>4.95089</v>
       </c>
       <c r="D107" t="n">
-        <v>4.51233</v>
+        <v>4.59644</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.01015</v>
+        <v>3.36905</v>
       </c>
       <c r="C108" t="n">
-        <v>4.90289</v>
+        <v>4.99095</v>
       </c>
       <c r="D108" t="n">
-        <v>4.50307</v>
+        <v>4.71727</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.03461</v>
+        <v>3.42749</v>
       </c>
       <c r="C109" t="n">
-        <v>4.94856</v>
+        <v>4.9986</v>
       </c>
       <c r="D109" t="n">
-        <v>4.53405</v>
+        <v>4.66544</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.0762</v>
+        <v>3.40813</v>
       </c>
       <c r="C110" t="n">
-        <v>5.03315</v>
+        <v>5.04639</v>
       </c>
       <c r="D110" t="n">
-        <v>4.57723</v>
+        <v>4.73189</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.08263</v>
+        <v>3.38295</v>
       </c>
       <c r="C111" t="n">
-        <v>4.98892</v>
+        <v>5.02184</v>
       </c>
       <c r="D111" t="n">
-        <v>4.61752</v>
+        <v>4.83955</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.30989</v>
+        <v>3.55973</v>
       </c>
       <c r="C112" t="n">
-        <v>5.05229</v>
+        <v>5.09749</v>
       </c>
       <c r="D112" t="n">
-        <v>4.65103</v>
+        <v>4.84115</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.34202</v>
+        <v>3.70167</v>
       </c>
       <c r="C113" t="n">
-        <v>5.16007</v>
+        <v>5.18457</v>
       </c>
       <c r="D113" t="n">
-        <v>4.68377</v>
+        <v>4.83658</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.30757</v>
+        <v>3.70982</v>
       </c>
       <c r="C114" t="n">
-        <v>5.1039</v>
+        <v>5.20349</v>
       </c>
       <c r="D114" t="n">
-        <v>4.73165</v>
+        <v>4.99705</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.40993</v>
+        <v>3.77723</v>
       </c>
       <c r="C115" t="n">
-        <v>5.19808</v>
+        <v>5.25937</v>
       </c>
       <c r="D115" t="n">
-        <v>4.77908</v>
+        <v>4.95302</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.42224</v>
+        <v>3.81024</v>
       </c>
       <c r="C116" t="n">
-        <v>5.27503</v>
+        <v>5.2629</v>
       </c>
       <c r="D116" t="n">
-        <v>4.84899</v>
+        <v>5.05332</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.50659</v>
+        <v>3.81869</v>
       </c>
       <c r="C117" t="n">
-        <v>5.26749</v>
+        <v>5.3259</v>
       </c>
       <c r="D117" t="n">
-        <v>4.90141</v>
+        <v>5.11607</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.51874</v>
+        <v>3.7991</v>
       </c>
       <c r="C118" t="n">
-        <v>5.51335</v>
+        <v>5.4279</v>
       </c>
       <c r="D118" t="n">
-        <v>5.13088</v>
+        <v>5.13272</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.62715</v>
+        <v>3.89013</v>
       </c>
       <c r="C119" t="n">
-        <v>5.52839</v>
+        <v>5.49504</v>
       </c>
       <c r="D119" t="n">
-        <v>5.02938</v>
+        <v>5.19697</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.394718</v>
+        <v>0.391676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.770913</v>
+        <v>0.7693</v>
       </c>
       <c r="D2" t="n">
-        <v>0.51645</v>
+        <v>0.515056</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.411054</v>
+        <v>0.422282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.774234</v>
+        <v>0.776569</v>
       </c>
       <c r="D3" t="n">
-        <v>0.510835</v>
+        <v>0.515695</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.422287</v>
+        <v>0.423461</v>
       </c>
       <c r="C4" t="n">
-        <v>0.779125</v>
+        <v>0.793916</v>
       </c>
       <c r="D4" t="n">
-        <v>0.520778</v>
+        <v>0.533219</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.419032</v>
+        <v>0.42342</v>
       </c>
       <c r="C5" t="n">
-        <v>0.782323</v>
+        <v>0.783303</v>
       </c>
       <c r="D5" t="n">
-        <v>0.524317</v>
+        <v>0.533089</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.416115</v>
+        <v>0.429097</v>
       </c>
       <c r="C6" t="n">
-        <v>0.772952</v>
+        <v>0.792704</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530923</v>
+        <v>0.531457</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.430224</v>
+        <v>0.425315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.805607</v>
+        <v>0.799969</v>
       </c>
       <c r="D7" t="n">
-        <v>0.532598</v>
+        <v>0.549898</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.430335</v>
+        <v>0.431308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.817893</v>
+        <v>0.791835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.534033</v>
+        <v>0.545226</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.430224</v>
+        <v>0.425992</v>
       </c>
       <c r="C9" t="n">
-        <v>0.816591</v>
+        <v>0.821041</v>
       </c>
       <c r="D9" t="n">
-        <v>0.551399</v>
+        <v>0.548556</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.438274</v>
+        <v>0.433928</v>
       </c>
       <c r="C10" t="n">
-        <v>0.829117</v>
+        <v>0.839422</v>
       </c>
       <c r="D10" t="n">
-        <v>0.553653</v>
+        <v>0.562084</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.425743</v>
+        <v>0.448899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.826514</v>
+        <v>0.800695</v>
       </c>
       <c r="D11" t="n">
-        <v>0.559941</v>
+        <v>0.568205</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.431127</v>
+        <v>0.43394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.848869</v>
+        <v>0.819573</v>
       </c>
       <c r="D12" t="n">
-        <v>0.565864</v>
+        <v>0.575303</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.439628</v>
+        <v>0.442018</v>
       </c>
       <c r="C13" t="n">
-        <v>0.818964</v>
+        <v>0.820943</v>
       </c>
       <c r="D13" t="n">
-        <v>0.563874</v>
+        <v>0.5746329999999999</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.443566</v>
+        <v>0.444641</v>
       </c>
       <c r="C14" t="n">
-        <v>0.82486</v>
+        <v>0.8411380000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.565213</v>
+        <v>0.572115</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.432356</v>
+        <v>0.439467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.833822</v>
+        <v>0.849083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.58746</v>
+        <v>0.581669</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.430048</v>
+        <v>0.439438</v>
       </c>
       <c r="C16" t="n">
-        <v>0.862096</v>
+        <v>0.843669</v>
       </c>
       <c r="D16" t="n">
-        <v>0.575912</v>
+        <v>0.588998</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.471685</v>
+        <v>0.460088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.848886</v>
+        <v>0.860479</v>
       </c>
       <c r="D17" t="n">
-        <v>0.586773</v>
+        <v>0.596836</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.487832</v>
+        <v>0.487988</v>
       </c>
       <c r="C18" t="n">
-        <v>0.852975</v>
+        <v>0.888</v>
       </c>
       <c r="D18" t="n">
-        <v>0.58829</v>
+        <v>0.599424</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.470114</v>
+        <v>0.478994</v>
       </c>
       <c r="C19" t="n">
-        <v>0.855104</v>
+        <v>0.896354</v>
       </c>
       <c r="D19" t="n">
-        <v>0.593457</v>
+        <v>0.58467</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.475874</v>
+        <v>0.482175</v>
       </c>
       <c r="C20" t="n">
-        <v>0.87407</v>
+        <v>0.876853</v>
       </c>
       <c r="D20" t="n">
-        <v>0.610912</v>
+        <v>0.613561</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.46857</v>
+        <v>0.47022</v>
       </c>
       <c r="C21" t="n">
-        <v>0.868039</v>
+        <v>0.896729</v>
       </c>
       <c r="D21" t="n">
-        <v>0.609405</v>
+        <v>0.602293</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.468438</v>
+        <v>0.475709</v>
       </c>
       <c r="C22" t="n">
-        <v>0.915194</v>
+        <v>0.884596</v>
       </c>
       <c r="D22" t="n">
-        <v>0.599586</v>
+        <v>0.608237</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.47251</v>
+        <v>0.476013</v>
       </c>
       <c r="C23" t="n">
-        <v>0.913597</v>
+        <v>0.9020860000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.614492</v>
+        <v>0.611596</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.483258</v>
+        <v>0.479384</v>
       </c>
       <c r="C24" t="n">
-        <v>0.902109</v>
+        <v>0.911756</v>
       </c>
       <c r="D24" t="n">
-        <v>0.655513</v>
+        <v>0.627115</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.492848</v>
+        <v>0.489851</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9302859999999999</v>
+        <v>0.933059</v>
       </c>
       <c r="D25" t="n">
-        <v>0.652249</v>
+        <v>0.6235039999999999</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.483683</v>
+        <v>0.526182</v>
       </c>
       <c r="C26" t="n">
-        <v>0.874938</v>
+        <v>0.9053949999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.636885</v>
+        <v>0.6273069999999999</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.478948</v>
+        <v>0.518218</v>
       </c>
       <c r="C27" t="n">
-        <v>0.910507</v>
+        <v>0.908655</v>
       </c>
       <c r="D27" t="n">
-        <v>0.651677</v>
+        <v>0.641651</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.50783</v>
+        <v>0.495314</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9083909999999999</v>
+        <v>0.910232</v>
       </c>
       <c r="D28" t="n">
-        <v>0.645581</v>
+        <v>0.666624</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.516548</v>
+        <v>0.47994</v>
       </c>
       <c r="C29" t="n">
-        <v>0.910994</v>
+        <v>0.917361</v>
       </c>
       <c r="D29" t="n">
-        <v>0.663196</v>
+        <v>0.67827</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.508763</v>
+        <v>0.513478</v>
       </c>
       <c r="C30" t="n">
-        <v>0.938706</v>
+        <v>0.940376</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6617690000000001</v>
+        <v>0.681123</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.506823</v>
+        <v>0.51044</v>
       </c>
       <c r="C31" t="n">
-        <v>0.94944</v>
+        <v>0.950255</v>
       </c>
       <c r="D31" t="n">
-        <v>0.672152</v>
+        <v>0.711909</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.528458</v>
+        <v>0.5694900000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.957112</v>
+        <v>0.970898</v>
       </c>
       <c r="D32" t="n">
-        <v>0.714913</v>
+        <v>0.6931659999999999</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.553341</v>
+        <v>0.575545</v>
       </c>
       <c r="C33" t="n">
-        <v>0.978114</v>
+        <v>0.975311</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6973780000000001</v>
+        <v>0.695495</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.548528</v>
+        <v>0.576644</v>
       </c>
       <c r="C34" t="n">
-        <v>1.01228</v>
+        <v>1.0125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.715464</v>
+        <v>0.742224</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.556366</v>
+        <v>0.611939</v>
       </c>
       <c r="C35" t="n">
-        <v>1.03525</v>
+        <v>1.02159</v>
       </c>
       <c r="D35" t="n">
-        <v>0.751376</v>
+        <v>0.7629320000000001</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.569924</v>
+        <v>0.619902</v>
       </c>
       <c r="C36" t="n">
-        <v>1.03081</v>
+        <v>1.04399</v>
       </c>
       <c r="D36" t="n">
-        <v>0.758839</v>
+        <v>0.777688</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.587303</v>
+        <v>0.6320480000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>1.06881</v>
+        <v>1.06009</v>
       </c>
       <c r="D37" t="n">
-        <v>0.757439</v>
+        <v>0.777984</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5968</v>
+        <v>0.637961</v>
       </c>
       <c r="C38" t="n">
-        <v>1.0993</v>
+        <v>1.11801</v>
       </c>
       <c r="D38" t="n">
-        <v>0.810816</v>
+        <v>0.802473</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.616169</v>
+        <v>0.648052</v>
       </c>
       <c r="C39" t="n">
-        <v>1.12655</v>
+        <v>1.13472</v>
       </c>
       <c r="D39" t="n">
-        <v>0.806376</v>
+        <v>0.840069</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.607279</v>
+        <v>0.678651</v>
       </c>
       <c r="C40" t="n">
-        <v>1.10651</v>
+        <v>1.1281</v>
       </c>
       <c r="D40" t="n">
-        <v>0.844371</v>
+        <v>0.915063</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.64053</v>
+        <v>0.701476</v>
       </c>
       <c r="C41" t="n">
-        <v>1.11194</v>
+        <v>1.16966</v>
       </c>
       <c r="D41" t="n">
-        <v>0.868055</v>
+        <v>0.8880670000000001</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.661948</v>
+        <v>0.7041849999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>1.17307</v>
+        <v>1.19805</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9161550000000001</v>
+        <v>0.954098</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6934090000000001</v>
+        <v>0.722938</v>
       </c>
       <c r="C43" t="n">
-        <v>1.22008</v>
+        <v>1.21029</v>
       </c>
       <c r="D43" t="n">
-        <v>0.946802</v>
+        <v>0.9570419999999999</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.708519</v>
+        <v>0.722949</v>
       </c>
       <c r="C44" t="n">
-        <v>1.2603</v>
+        <v>1.25766</v>
       </c>
       <c r="D44" t="n">
-        <v>0.968221</v>
+        <v>0.990576</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.716313</v>
+        <v>0.743459</v>
       </c>
       <c r="C45" t="n">
-        <v>1.27158</v>
+        <v>1.29131</v>
       </c>
       <c r="D45" t="n">
-        <v>1.01044</v>
+        <v>1.01622</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.793329</v>
+        <v>0.828332</v>
       </c>
       <c r="C46" t="n">
-        <v>1.31521</v>
+        <v>1.32619</v>
       </c>
       <c r="D46" t="n">
-        <v>1.02308</v>
+        <v>1.06882</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8297020000000001</v>
+        <v>0.864518</v>
       </c>
       <c r="C47" t="n">
-        <v>1.40384</v>
+        <v>1.42444</v>
       </c>
       <c r="D47" t="n">
-        <v>1.06043</v>
+        <v>1.1305</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.848021</v>
+        <v>0.8919859999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>1.44455</v>
+        <v>1.42025</v>
       </c>
       <c r="D48" t="n">
-        <v>1.12128</v>
+        <v>1.14956</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.872539</v>
+        <v>0.919211</v>
       </c>
       <c r="C49" t="n">
-        <v>1.49128</v>
+        <v>1.51866</v>
       </c>
       <c r="D49" t="n">
-        <v>1.10119</v>
+        <v>1.17302</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.887453</v>
+        <v>0.921895</v>
       </c>
       <c r="C50" t="n">
-        <v>1.52512</v>
+        <v>1.57138</v>
       </c>
       <c r="D50" t="n">
-        <v>1.17351</v>
+        <v>1.21571</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.923956</v>
+        <v>0.982553</v>
       </c>
       <c r="C51" t="n">
-        <v>1.60651</v>
+        <v>1.60851</v>
       </c>
       <c r="D51" t="n">
-        <v>1.18338</v>
+        <v>1.25688</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.947074</v>
+        <v>0.989986</v>
       </c>
       <c r="C52" t="n">
-        <v>1.67534</v>
+        <v>1.64371</v>
       </c>
       <c r="D52" t="n">
-        <v>1.21802</v>
+        <v>1.30064</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.974292</v>
+        <v>1.01742</v>
       </c>
       <c r="C53" t="n">
-        <v>1.78664</v>
+        <v>1.75019</v>
       </c>
       <c r="D53" t="n">
-        <v>1.27516</v>
+        <v>1.31305</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.99733</v>
+        <v>1.03645</v>
       </c>
       <c r="C54" t="n">
-        <v>1.70843</v>
+        <v>1.75618</v>
       </c>
       <c r="D54" t="n">
-        <v>1.37521</v>
+        <v>1.41647</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.01676</v>
+        <v>1.06739</v>
       </c>
       <c r="C55" t="n">
-        <v>1.91359</v>
+        <v>1.79223</v>
       </c>
       <c r="D55" t="n">
-        <v>1.43246</v>
+        <v>1.45317</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.04317</v>
+        <v>1.09978</v>
       </c>
       <c r="C56" t="n">
-        <v>1.9107</v>
+        <v>1.89137</v>
       </c>
       <c r="D56" t="n">
-        <v>1.50492</v>
+        <v>1.53334</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.09541</v>
+        <v>1.1525</v>
       </c>
       <c r="C57" t="n">
-        <v>2.03416</v>
+        <v>1.96128</v>
       </c>
       <c r="D57" t="n">
-        <v>1.51283</v>
+        <v>1.5557</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.10694</v>
+        <v>1.16412</v>
       </c>
       <c r="C58" t="n">
-        <v>2.15524</v>
+        <v>2.01111</v>
       </c>
       <c r="D58" t="n">
-        <v>1.62646</v>
+        <v>1.64927</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.15699</v>
+        <v>1.24074</v>
       </c>
       <c r="C59" t="n">
-        <v>2.25047</v>
+        <v>2.10646</v>
       </c>
       <c r="D59" t="n">
-        <v>1.69386</v>
+        <v>1.69825</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.38416</v>
+        <v>1.47728</v>
       </c>
       <c r="C60" t="n">
-        <v>2.28968</v>
+        <v>2.33823</v>
       </c>
       <c r="D60" t="n">
-        <v>1.73302</v>
+        <v>1.77511</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.38978</v>
+        <v>1.45123</v>
       </c>
       <c r="C61" t="n">
-        <v>2.42459</v>
+        <v>2.23394</v>
       </c>
       <c r="D61" t="n">
-        <v>1.80208</v>
+        <v>1.81231</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.41449</v>
+        <v>1.48599</v>
       </c>
       <c r="C62" t="n">
-        <v>2.29385</v>
+        <v>2.33442</v>
       </c>
       <c r="D62" t="n">
-        <v>1.86535</v>
+        <v>1.89816</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.42565</v>
+        <v>1.52912</v>
       </c>
       <c r="C63" t="n">
-        <v>2.34756</v>
+        <v>2.40063</v>
       </c>
       <c r="D63" t="n">
-        <v>1.82774</v>
+        <v>2.02262</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.48348</v>
+        <v>1.58231</v>
       </c>
       <c r="C64" t="n">
-        <v>2.56703</v>
+        <v>2.64732</v>
       </c>
       <c r="D64" t="n">
-        <v>1.97832</v>
+        <v>2.04062</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.50245</v>
+        <v>1.61625</v>
       </c>
       <c r="C65" t="n">
-        <v>2.72135</v>
+        <v>2.6307</v>
       </c>
       <c r="D65" t="n">
-        <v>1.98376</v>
+        <v>2.10352</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.55504</v>
+        <v>1.64404</v>
       </c>
       <c r="C66" t="n">
-        <v>2.90634</v>
+        <v>2.65224</v>
       </c>
       <c r="D66" t="n">
-        <v>2.17277</v>
+        <v>2.14824</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.63213</v>
+        <v>1.73053</v>
       </c>
       <c r="C67" t="n">
-        <v>2.92117</v>
+        <v>2.71944</v>
       </c>
       <c r="D67" t="n">
-        <v>2.13463</v>
+        <v>2.2928</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.60235</v>
+        <v>1.78972</v>
       </c>
       <c r="C68" t="n">
-        <v>2.63613</v>
+        <v>2.70991</v>
       </c>
       <c r="D68" t="n">
-        <v>2.36488</v>
+        <v>2.39205</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.66944</v>
+        <v>1.75674</v>
       </c>
       <c r="C69" t="n">
-        <v>2.68815</v>
+        <v>2.76613</v>
       </c>
       <c r="D69" t="n">
-        <v>2.37683</v>
+        <v>2.40277</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.64908</v>
+        <v>1.80367</v>
       </c>
       <c r="C70" t="n">
-        <v>2.72972</v>
+        <v>2.80111</v>
       </c>
       <c r="D70" t="n">
-        <v>2.5508</v>
+        <v>2.51559</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.76981</v>
+        <v>1.8126</v>
       </c>
       <c r="C71" t="n">
-        <v>2.84413</v>
+        <v>2.86847</v>
       </c>
       <c r="D71" t="n">
-        <v>2.53626</v>
+        <v>2.76697</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.80045</v>
+        <v>1.93052</v>
       </c>
       <c r="C72" t="n">
-        <v>2.92046</v>
+        <v>2.98275</v>
       </c>
       <c r="D72" t="n">
-        <v>2.54647</v>
+        <v>2.65072</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.75117</v>
+        <v>1.86173</v>
       </c>
       <c r="C73" t="n">
-        <v>2.93233</v>
+        <v>3.02159</v>
       </c>
       <c r="D73" t="n">
-        <v>2.77652</v>
+        <v>2.71482</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.04849</v>
+        <v>2.06711</v>
       </c>
       <c r="C74" t="n">
-        <v>3.19929</v>
+        <v>3.05745</v>
       </c>
       <c r="D74" t="n">
-        <v>2.67571</v>
+        <v>2.74013</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.9725</v>
+        <v>2.19759</v>
       </c>
       <c r="C75" t="n">
-        <v>3.10684</v>
+        <v>3.18134</v>
       </c>
       <c r="D75" t="n">
-        <v>2.67941</v>
+        <v>2.83952</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.03074</v>
+        <v>2.18752</v>
       </c>
       <c r="C76" t="n">
-        <v>3.15067</v>
+        <v>3.24674</v>
       </c>
       <c r="D76" t="n">
-        <v>2.78872</v>
+        <v>2.84957</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.04251</v>
+        <v>2.22187</v>
       </c>
       <c r="C77" t="n">
-        <v>3.22579</v>
+        <v>3.34055</v>
       </c>
       <c r="D77" t="n">
-        <v>2.93957</v>
+        <v>2.96644</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.08897</v>
+        <v>2.2057</v>
       </c>
       <c r="C78" t="n">
-        <v>3.45718</v>
+        <v>3.44311</v>
       </c>
       <c r="D78" t="n">
-        <v>2.90226</v>
+        <v>3.11018</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.11751</v>
+        <v>2.26651</v>
       </c>
       <c r="C79" t="n">
-        <v>3.47653</v>
+        <v>3.5291</v>
       </c>
       <c r="D79" t="n">
-        <v>3.03369</v>
+        <v>3.07109</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.14519</v>
+        <v>2.30396</v>
       </c>
       <c r="C80" t="n">
-        <v>3.5151</v>
+        <v>3.85501</v>
       </c>
       <c r="D80" t="n">
-        <v>2.99133</v>
+        <v>3.19136</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.12919</v>
+        <v>2.32782</v>
       </c>
       <c r="C81" t="n">
-        <v>3.62501</v>
+        <v>3.83481</v>
       </c>
       <c r="D81" t="n">
-        <v>3.12255</v>
+        <v>3.68614</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.17054</v>
+        <v>2.61388</v>
       </c>
       <c r="C82" t="n">
-        <v>3.66972</v>
+        <v>3.79242</v>
       </c>
       <c r="D82" t="n">
-        <v>3.09784</v>
+        <v>3.40597</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.26136</v>
+        <v>2.36408</v>
       </c>
       <c r="C83" t="n">
-        <v>3.62394</v>
+        <v>3.73378</v>
       </c>
       <c r="D83" t="n">
-        <v>3.30888</v>
+        <v>3.51755</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.20589</v>
+        <v>2.43646</v>
       </c>
       <c r="C84" t="n">
-        <v>3.80647</v>
+        <v>3.98012</v>
       </c>
       <c r="D84" t="n">
-        <v>3.35691</v>
+        <v>3.63109</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.24298</v>
+        <v>2.51224</v>
       </c>
       <c r="C85" t="n">
-        <v>3.81355</v>
+        <v>3.91331</v>
       </c>
       <c r="D85" t="n">
-        <v>3.36302</v>
+        <v>3.67273</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.26616</v>
+        <v>2.53206</v>
       </c>
       <c r="C86" t="n">
-        <v>3.82712</v>
+        <v>3.98589</v>
       </c>
       <c r="D86" t="n">
-        <v>3.48917</v>
+        <v>3.69959</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.33887</v>
+        <v>2.57915</v>
       </c>
       <c r="C87" t="n">
-        <v>3.85903</v>
+        <v>4.06669</v>
       </c>
       <c r="D87" t="n">
-        <v>3.48557</v>
+        <v>3.63268</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.34694</v>
+        <v>2.6066</v>
       </c>
       <c r="C88" t="n">
-        <v>3.89193</v>
+        <v>4.10743</v>
       </c>
       <c r="D88" t="n">
-        <v>3.46181</v>
+        <v>3.73014</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.54963</v>
+        <v>2.84563</v>
       </c>
       <c r="C89" t="n">
-        <v>4.11084</v>
+        <v>4.34194</v>
       </c>
       <c r="D89" t="n">
-        <v>3.55486</v>
+        <v>3.81876</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.54586</v>
+        <v>2.78206</v>
       </c>
       <c r="C90" t="n">
-        <v>4.22851</v>
+        <v>4.28793</v>
       </c>
       <c r="D90" t="n">
-        <v>3.52481</v>
+        <v>3.94157</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.52701</v>
+        <v>2.74789</v>
       </c>
       <c r="C91" t="n">
-        <v>4.25448</v>
+        <v>4.51459</v>
       </c>
       <c r="D91" t="n">
-        <v>3.59737</v>
+        <v>3.92082</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.5703</v>
+        <v>2.81433</v>
       </c>
       <c r="C92" t="n">
-        <v>4.29706</v>
+        <v>4.57261</v>
       </c>
       <c r="D92" t="n">
-        <v>3.6833</v>
+        <v>3.99117</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.64766</v>
+        <v>2.86713</v>
       </c>
       <c r="C93" t="n">
-        <v>4.5039</v>
+        <v>4.58039</v>
       </c>
       <c r="D93" t="n">
-        <v>3.85805</v>
+        <v>3.9809</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.63729</v>
+        <v>2.83536</v>
       </c>
       <c r="C94" t="n">
-        <v>4.52338</v>
+        <v>4.84282</v>
       </c>
       <c r="D94" t="n">
-        <v>3.76555</v>
+        <v>4.02273</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.64776</v>
+        <v>2.93169</v>
       </c>
       <c r="C95" t="n">
-        <v>4.62504</v>
+        <v>4.84263</v>
       </c>
       <c r="D95" t="n">
-        <v>3.7845</v>
+        <v>4.09991</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.64444</v>
+        <v>2.91354</v>
       </c>
       <c r="C96" t="n">
-        <v>4.71093</v>
+        <v>4.8597</v>
       </c>
       <c r="D96" t="n">
-        <v>3.85657</v>
+        <v>4.17031</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.71405</v>
+        <v>2.95279</v>
       </c>
       <c r="C97" t="n">
-        <v>4.48502</v>
+        <v>4.49803</v>
       </c>
       <c r="D97" t="n">
-        <v>4.05443</v>
+        <v>4.23965</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.67674</v>
+        <v>2.94261</v>
       </c>
       <c r="C98" t="n">
-        <v>4.46457</v>
+        <v>4.59564</v>
       </c>
       <c r="D98" t="n">
-        <v>4.00175</v>
+        <v>4.22154</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.70986</v>
+        <v>2.94919</v>
       </c>
       <c r="C99" t="n">
-        <v>4.49504</v>
+        <v>4.61389</v>
       </c>
       <c r="D99" t="n">
-        <v>4.0524</v>
+        <v>4.22265</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.74498</v>
+        <v>2.98634</v>
       </c>
       <c r="C100" t="n">
-        <v>4.60591</v>
+        <v>4.69011</v>
       </c>
       <c r="D100" t="n">
-        <v>4.08226</v>
+        <v>4.24738</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.72814</v>
+        <v>2.97013</v>
       </c>
       <c r="C101" t="n">
-        <v>4.68574</v>
+        <v>4.76256</v>
       </c>
       <c r="D101" t="n">
-        <v>4.18088</v>
+        <v>4.30572</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.75405</v>
+        <v>3.04458</v>
       </c>
       <c r="C102" t="n">
-        <v>4.74949</v>
+        <v>4.78307</v>
       </c>
       <c r="D102" t="n">
-        <v>4.1098</v>
+        <v>4.33883</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.88589</v>
+        <v>3.17972</v>
       </c>
       <c r="C103" t="n">
-        <v>4.78584</v>
+        <v>4.87556</v>
       </c>
       <c r="D103" t="n">
-        <v>4.14611</v>
+        <v>4.30972</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.86823</v>
+        <v>3.20011</v>
       </c>
       <c r="C104" t="n">
-        <v>4.97616</v>
+        <v>4.98772</v>
       </c>
       <c r="D104" t="n">
-        <v>4.17218</v>
+        <v>4.32342</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.96354</v>
+        <v>3.16951</v>
       </c>
       <c r="C105" t="n">
-        <v>4.97565</v>
+        <v>5.07225</v>
       </c>
       <c r="D105" t="n">
-        <v>4.2488</v>
+        <v>4.37689</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.9324</v>
+        <v>3.20552</v>
       </c>
       <c r="C106" t="n">
-        <v>5.03885</v>
+        <v>5.13817</v>
       </c>
       <c r="D106" t="n">
-        <v>4.25105</v>
+        <v>4.49193</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.95185</v>
+        <v>3.2392</v>
       </c>
       <c r="C107" t="n">
-        <v>5.15452</v>
+        <v>5.1148</v>
       </c>
       <c r="D107" t="n">
-        <v>4.35555</v>
+        <v>4.44545</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.0319</v>
+        <v>3.20463</v>
       </c>
       <c r="C108" t="n">
-        <v>5.21354</v>
+        <v>5.2361</v>
       </c>
       <c r="D108" t="n">
-        <v>4.35716</v>
+        <v>4.4898</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.99782</v>
+        <v>3.28196</v>
       </c>
       <c r="C109" t="n">
-        <v>5.33375</v>
+        <v>5.39843</v>
       </c>
       <c r="D109" t="n">
-        <v>4.36797</v>
+        <v>4.49768</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.0554</v>
+        <v>3.22462</v>
       </c>
       <c r="C110" t="n">
-        <v>5.39072</v>
+        <v>5.43479</v>
       </c>
       <c r="D110" t="n">
-        <v>4.37168</v>
+        <v>4.56666</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.02486</v>
+        <v>3.29088</v>
       </c>
       <c r="C111" t="n">
-        <v>4.99986</v>
+        <v>5.04837</v>
       </c>
       <c r="D111" t="n">
-        <v>4.5239</v>
+        <v>4.65248</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.05685</v>
+        <v>3.31954</v>
       </c>
       <c r="C112" t="n">
-        <v>5.1034</v>
+        <v>5.14128</v>
       </c>
       <c r="D112" t="n">
-        <v>4.50931</v>
+        <v>4.67398</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.10315</v>
+        <v>3.28581</v>
       </c>
       <c r="C113" t="n">
-        <v>5.1735</v>
+        <v>5.1727</v>
       </c>
       <c r="D113" t="n">
-        <v>4.63522</v>
+        <v>4.75392</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.11218</v>
+        <v>3.35171</v>
       </c>
       <c r="C114" t="n">
-        <v>5.25775</v>
+        <v>5.34061</v>
       </c>
       <c r="D114" t="n">
-        <v>4.57449</v>
+        <v>4.7233</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.09114</v>
+        <v>3.42611</v>
       </c>
       <c r="C115" t="n">
-        <v>5.31789</v>
+        <v>5.40004</v>
       </c>
       <c r="D115" t="n">
-        <v>4.61436</v>
+        <v>4.84862</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.09669</v>
+        <v>3.40415</v>
       </c>
       <c r="C116" t="n">
-        <v>5.41115</v>
+        <v>5.46082</v>
       </c>
       <c r="D116" t="n">
-        <v>4.67184</v>
+        <v>4.87322</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.22238</v>
+        <v>3.56068</v>
       </c>
       <c r="C117" t="n">
-        <v>5.46866</v>
+        <v>5.49647</v>
       </c>
       <c r="D117" t="n">
-        <v>4.71147</v>
+        <v>4.88986</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.35677</v>
+        <v>3.5814</v>
       </c>
       <c r="C118" t="n">
-        <v>5.56677</v>
+        <v>5.6452</v>
       </c>
       <c r="D118" t="n">
-        <v>4.87955</v>
+        <v>4.99788</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.36354</v>
+        <v>3.64449</v>
       </c>
       <c r="C119" t="n">
-        <v>5.73557</v>
+        <v>5.71751</v>
       </c>
       <c r="D119" t="n">
-        <v>4.83881</v>
+        <v>4.99862</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.409751</v>
+        <v>0.398895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5990490000000001</v>
+        <v>0.599346</v>
       </c>
       <c r="D2" t="n">
-        <v>0.382991</v>
+        <v>0.377292</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.409345</v>
+        <v>0.409732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.598345</v>
+        <v>0.601596</v>
       </c>
       <c r="D3" t="n">
-        <v>0.389676</v>
+        <v>0.382828</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.410658</v>
+        <v>0.411875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.61647</v>
+        <v>0.607982</v>
       </c>
       <c r="D4" t="n">
-        <v>0.378657</v>
+        <v>0.387965</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.413199</v>
+        <v>0.42452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.596073</v>
+        <v>0.596741</v>
       </c>
       <c r="D5" t="n">
-        <v>0.396908</v>
+        <v>0.387496</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.421268</v>
+        <v>0.414525</v>
       </c>
       <c r="C6" t="n">
-        <v>0.602098</v>
+        <v>0.606112</v>
       </c>
       <c r="D6" t="n">
-        <v>0.400444</v>
+        <v>0.39633</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.417733</v>
+        <v>0.425516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.621398</v>
+        <v>0.613483</v>
       </c>
       <c r="D7" t="n">
-        <v>0.39143</v>
+        <v>0.383733</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.430868</v>
+        <v>0.427057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.623578</v>
+        <v>0.620193</v>
       </c>
       <c r="D8" t="n">
-        <v>0.391719</v>
+        <v>0.395036</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.423517</v>
+        <v>0.427093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.623167</v>
+        <v>0.6152300000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.395351</v>
+        <v>0.394772</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.427466</v>
+        <v>0.444031</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6282</v>
+        <v>0.6227200000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.390229</v>
+        <v>0.399151</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.429799</v>
+        <v>0.434522</v>
       </c>
       <c r="C11" t="n">
-        <v>0.625015</v>
+        <v>0.632478</v>
       </c>
       <c r="D11" t="n">
-        <v>0.397578</v>
+        <v>0.403644</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.441353</v>
+        <v>0.44446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.623517</v>
+        <v>0.633999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.406082</v>
+        <v>0.404528</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.417175</v>
+        <v>0.423005</v>
       </c>
       <c r="C13" t="n">
-        <v>0.622282</v>
+        <v>0.635538</v>
       </c>
       <c r="D13" t="n">
-        <v>0.409842</v>
+        <v>0.413192</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.419441</v>
+        <v>0.435966</v>
       </c>
       <c r="C14" t="n">
-        <v>0.62923</v>
+        <v>0.623353</v>
       </c>
       <c r="D14" t="n">
-        <v>0.413488</v>
+        <v>0.410135</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.429507</v>
+        <v>0.42383</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6211719999999999</v>
+        <v>0.625167</v>
       </c>
       <c r="D15" t="n">
-        <v>0.417606</v>
+        <v>0.417803</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.440894</v>
+        <v>0.436384</v>
       </c>
       <c r="C16" t="n">
-        <v>0.646269</v>
+        <v>0.6306659999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4357</v>
+        <v>0.411554</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.433093</v>
+        <v>0.43653</v>
       </c>
       <c r="C17" t="n">
-        <v>0.645357</v>
+        <v>0.629642</v>
       </c>
       <c r="D17" t="n">
-        <v>0.424752</v>
+        <v>0.426191</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.440672</v>
+        <v>0.447898</v>
       </c>
       <c r="C18" t="n">
-        <v>0.642113</v>
+        <v>0.636097</v>
       </c>
       <c r="D18" t="n">
-        <v>0.429862</v>
+        <v>0.432416</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.442569</v>
+        <v>0.445179</v>
       </c>
       <c r="C19" t="n">
-        <v>0.645038</v>
+        <v>0.638633</v>
       </c>
       <c r="D19" t="n">
-        <v>0.433085</v>
+        <v>0.442196</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.442628</v>
+        <v>0.44734</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6639</v>
+        <v>0.639783</v>
       </c>
       <c r="D20" t="n">
-        <v>0.448235</v>
+        <v>0.446718</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.457599</v>
+        <v>0.455956</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6553639999999999</v>
+        <v>0.6563909999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.419955</v>
+        <v>0.446293</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.457978</v>
+        <v>0.459516</v>
       </c>
       <c r="C22" t="n">
-        <v>0.688604</v>
+        <v>0.658714</v>
       </c>
       <c r="D22" t="n">
-        <v>0.439859</v>
+        <v>0.428845</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.467095</v>
+        <v>0.469821</v>
       </c>
       <c r="C23" t="n">
-        <v>0.665825</v>
+        <v>0.664452</v>
       </c>
       <c r="D23" t="n">
-        <v>0.441154</v>
+        <v>0.439311</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.48067</v>
+        <v>0.499519</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6812550000000001</v>
+        <v>0.66151</v>
       </c>
       <c r="D24" t="n">
-        <v>0.449361</v>
+        <v>0.438076</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.470023</v>
+        <v>0.479291</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6709000000000001</v>
+        <v>0.679207</v>
       </c>
       <c r="D25" t="n">
-        <v>0.440341</v>
+        <v>0.484316</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.486787</v>
+        <v>0.523663</v>
       </c>
       <c r="C26" t="n">
-        <v>0.660731</v>
+        <v>0.677956</v>
       </c>
       <c r="D26" t="n">
-        <v>0.435959</v>
+        <v>0.467267</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.519819</v>
+        <v>0.522742</v>
       </c>
       <c r="C27" t="n">
-        <v>0.674166</v>
+        <v>0.689998</v>
       </c>
       <c r="D27" t="n">
-        <v>0.444101</v>
+        <v>0.476587</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.529939</v>
+        <v>0.550548</v>
       </c>
       <c r="C28" t="n">
-        <v>0.679538</v>
+        <v>0.6742899999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.473199</v>
+        <v>0.466892</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5680500000000001</v>
+        <v>0.539363</v>
       </c>
       <c r="C29" t="n">
-        <v>0.683599</v>
+        <v>0.681326</v>
       </c>
       <c r="D29" t="n">
-        <v>0.499822</v>
+        <v>0.480002</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.582624</v>
+        <v>0.579033</v>
       </c>
       <c r="C30" t="n">
-        <v>0.696265</v>
+        <v>0.704117</v>
       </c>
       <c r="D30" t="n">
-        <v>0.491239</v>
+        <v>0.498932</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5807870000000001</v>
+        <v>0.5911380000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.707018</v>
+        <v>0.69381</v>
       </c>
       <c r="D31" t="n">
-        <v>0.488021</v>
+        <v>0.516813</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.580155</v>
+        <v>0.609177</v>
       </c>
       <c r="C32" t="n">
-        <v>0.695562</v>
+        <v>0.704661</v>
       </c>
       <c r="D32" t="n">
-        <v>0.498559</v>
+        <v>0.53412</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.593154</v>
+        <v>0.618626</v>
       </c>
       <c r="C33" t="n">
-        <v>0.727015</v>
+        <v>0.705852</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5111790000000001</v>
+        <v>0.573998</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.622758</v>
+        <v>0.609632</v>
       </c>
       <c r="C34" t="n">
-        <v>0.722135</v>
+        <v>0.742457</v>
       </c>
       <c r="D34" t="n">
-        <v>0.520605</v>
+        <v>0.5551779999999999</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.637471</v>
+        <v>0.63774</v>
       </c>
       <c r="C35" t="n">
-        <v>0.793938</v>
+        <v>0.790445</v>
       </c>
       <c r="D35" t="n">
-        <v>0.634691</v>
+        <v>0.63934</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.673113</v>
+        <v>0.662187</v>
       </c>
       <c r="C36" t="n">
-        <v>0.809285</v>
+        <v>0.810003</v>
       </c>
       <c r="D36" t="n">
-        <v>0.632571</v>
+        <v>0.665752</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.665</v>
+        <v>0.672445</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8129150000000001</v>
+        <v>0.815688</v>
       </c>
       <c r="D37" t="n">
-        <v>0.657492</v>
+        <v>0.6603599999999999</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.69138</v>
+        <v>0.69303</v>
       </c>
       <c r="C38" t="n">
-        <v>0.819263</v>
+        <v>0.818624</v>
       </c>
       <c r="D38" t="n">
-        <v>0.679091</v>
+        <v>0.683001</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.702089</v>
+        <v>0.707306</v>
       </c>
       <c r="C39" t="n">
-        <v>0.824218</v>
+        <v>0.822763</v>
       </c>
       <c r="D39" t="n">
-        <v>0.700023</v>
+        <v>0.722467</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.721619</v>
+        <v>0.727123</v>
       </c>
       <c r="C40" t="n">
-        <v>0.840604</v>
+        <v>0.838543</v>
       </c>
       <c r="D40" t="n">
-        <v>0.713805</v>
+        <v>0.719736</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.837075</v>
+        <v>0.835047</v>
       </c>
       <c r="C41" t="n">
-        <v>0.874377</v>
+        <v>0.85893</v>
       </c>
       <c r="D41" t="n">
-        <v>0.743801</v>
+        <v>0.749023</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.862833</v>
+        <v>0.859535</v>
       </c>
       <c r="C42" t="n">
-        <v>0.899621</v>
+        <v>0.863081</v>
       </c>
       <c r="D42" t="n">
-        <v>0.756015</v>
+        <v>0.756281</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8986769999999999</v>
+        <v>0.879118</v>
       </c>
       <c r="C43" t="n">
-        <v>0.890052</v>
+        <v>0.893265</v>
       </c>
       <c r="D43" t="n">
-        <v>0.788972</v>
+        <v>0.792248</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.895115</v>
+        <v>0.905039</v>
       </c>
       <c r="C44" t="n">
-        <v>0.914602</v>
+        <v>0.917509</v>
       </c>
       <c r="D44" t="n">
-        <v>0.801742</v>
+        <v>0.80979</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.915066</v>
+        <v>0.934788</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9463510000000001</v>
+        <v>0.930974</v>
       </c>
       <c r="D45" t="n">
-        <v>0.838569</v>
+        <v>0.82792</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.960924</v>
+        <v>0.957999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.996985</v>
+        <v>0.942481</v>
       </c>
       <c r="D46" t="n">
-        <v>0.846482</v>
+        <v>0.851583</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.993483</v>
+        <v>1.00201</v>
       </c>
       <c r="C47" t="n">
-        <v>0.99839</v>
+        <v>0.992519</v>
       </c>
       <c r="D47" t="n">
-        <v>0.897477</v>
+        <v>0.8741139999999999</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.01078</v>
+        <v>1.03794</v>
       </c>
       <c r="C48" t="n">
-        <v>1.01423</v>
+        <v>1.03932</v>
       </c>
       <c r="D48" t="n">
-        <v>0.884953</v>
+        <v>0.912208</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.03075</v>
+        <v>1.04203</v>
       </c>
       <c r="C49" t="n">
-        <v>1.03281</v>
+        <v>1.04592</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9095259999999999</v>
+        <v>0.936845</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.09632</v>
+        <v>1.06972</v>
       </c>
       <c r="C50" t="n">
-        <v>1.23061</v>
+        <v>1.26954</v>
       </c>
       <c r="D50" t="n">
-        <v>1.13085</v>
+        <v>1.14804</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.09677</v>
+        <v>1.11332</v>
       </c>
       <c r="C51" t="n">
-        <v>1.32373</v>
+        <v>1.28795</v>
       </c>
       <c r="D51" t="n">
-        <v>1.16215</v>
+        <v>1.16408</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.15676</v>
+        <v>1.14816</v>
       </c>
       <c r="C52" t="n">
-        <v>1.32348</v>
+        <v>1.30083</v>
       </c>
       <c r="D52" t="n">
-        <v>1.19842</v>
+        <v>1.20534</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.18795</v>
+        <v>1.21925</v>
       </c>
       <c r="C53" t="n">
-        <v>1.32598</v>
+        <v>1.31896</v>
       </c>
       <c r="D53" t="n">
-        <v>1.22494</v>
+        <v>1.20316</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.20622</v>
+        <v>1.24222</v>
       </c>
       <c r="C54" t="n">
-        <v>1.37338</v>
+        <v>1.36757</v>
       </c>
       <c r="D54" t="n">
-        <v>1.2345</v>
+        <v>1.25046</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.23743</v>
+        <v>1.2777</v>
       </c>
       <c r="C55" t="n">
-        <v>1.41384</v>
+        <v>1.41134</v>
       </c>
       <c r="D55" t="n">
-        <v>1.27076</v>
+        <v>1.27519</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.43536</v>
+        <v>1.43487</v>
       </c>
       <c r="C56" t="n">
-        <v>1.43149</v>
+        <v>1.43156</v>
       </c>
       <c r="D56" t="n">
-        <v>1.31088</v>
+        <v>1.31372</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.53012</v>
+        <v>1.53593</v>
       </c>
       <c r="C57" t="n">
-        <v>1.49449</v>
+        <v>1.44324</v>
       </c>
       <c r="D57" t="n">
-        <v>1.37406</v>
+        <v>1.33686</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.52566</v>
+        <v>1.53463</v>
       </c>
       <c r="C58" t="n">
-        <v>1.46813</v>
+        <v>1.51717</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43255</v>
+        <v>1.41251</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.60553</v>
+        <v>1.65097</v>
       </c>
       <c r="C59" t="n">
-        <v>1.53136</v>
+        <v>1.57882</v>
       </c>
       <c r="D59" t="n">
-        <v>1.42449</v>
+        <v>1.42363</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.59546</v>
+        <v>1.6475</v>
       </c>
       <c r="C60" t="n">
-        <v>1.55245</v>
+        <v>1.61582</v>
       </c>
       <c r="D60" t="n">
-        <v>1.47809</v>
+        <v>1.52566</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.65294</v>
+        <v>1.72162</v>
       </c>
       <c r="C61" t="n">
-        <v>1.58698</v>
+        <v>1.65717</v>
       </c>
       <c r="D61" t="n">
-        <v>1.5788</v>
+        <v>1.60329</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.64673</v>
+        <v>1.76952</v>
       </c>
       <c r="C62" t="n">
-        <v>1.60765</v>
+        <v>1.62011</v>
       </c>
       <c r="D62" t="n">
-        <v>1.5588</v>
+        <v>1.64445</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.69049</v>
+        <v>1.70694</v>
       </c>
       <c r="C63" t="n">
-        <v>1.63045</v>
+        <v>1.601</v>
       </c>
       <c r="D63" t="n">
-        <v>1.71158</v>
+        <v>1.61707</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.8086</v>
+        <v>1.72655</v>
       </c>
       <c r="C64" t="n">
-        <v>1.86029</v>
+        <v>1.81141</v>
       </c>
       <c r="D64" t="n">
-        <v>1.89838</v>
+        <v>1.88152</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.7792</v>
+        <v>1.76423</v>
       </c>
       <c r="C65" t="n">
-        <v>1.86472</v>
+        <v>1.80252</v>
       </c>
       <c r="D65" t="n">
-        <v>1.93508</v>
+        <v>1.91983</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.79376</v>
+        <v>1.80498</v>
       </c>
       <c r="C66" t="n">
-        <v>1.85946</v>
+        <v>1.83384</v>
       </c>
       <c r="D66" t="n">
-        <v>2.03136</v>
+        <v>1.99254</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.87075</v>
+        <v>1.81899</v>
       </c>
       <c r="C67" t="n">
-        <v>1.96324</v>
+        <v>1.86273</v>
       </c>
       <c r="D67" t="n">
-        <v>2.08337</v>
+        <v>1.99173</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.8704</v>
+        <v>1.89529</v>
       </c>
       <c r="C68" t="n">
-        <v>1.89973</v>
+        <v>1.89601</v>
       </c>
       <c r="D68" t="n">
-        <v>2.075</v>
+        <v>2.04927</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.87655</v>
+        <v>1.89876</v>
       </c>
       <c r="C69" t="n">
-        <v>1.92198</v>
+        <v>1.94968</v>
       </c>
       <c r="D69" t="n">
-        <v>2.0854</v>
+        <v>2.1217</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>1.99825</v>
+        <v>2.01303</v>
       </c>
       <c r="C70" t="n">
-        <v>2.05867</v>
+        <v>1.92449</v>
       </c>
       <c r="D70" t="n">
-        <v>2.15211</v>
+        <v>2.168</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.09447</v>
+        <v>2.05186</v>
       </c>
       <c r="C71" t="n">
-        <v>2.00366</v>
+        <v>1.90617</v>
       </c>
       <c r="D71" t="n">
-        <v>2.13671</v>
+        <v>2.15957</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.04205</v>
+        <v>2.05383</v>
       </c>
       <c r="C72" t="n">
-        <v>1.98072</v>
+        <v>1.95396</v>
       </c>
       <c r="D72" t="n">
-        <v>2.35373</v>
+        <v>2.18274</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.11347</v>
+        <v>2.2022</v>
       </c>
       <c r="C73" t="n">
-        <v>2.00395</v>
+        <v>2.10078</v>
       </c>
       <c r="D73" t="n">
-        <v>2.22304</v>
+        <v>2.37364</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.10978</v>
+        <v>2.10876</v>
       </c>
       <c r="C74" t="n">
-        <v>2.06582</v>
+        <v>2.0311</v>
       </c>
       <c r="D74" t="n">
-        <v>2.26219</v>
+        <v>2.27173</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.16168</v>
+        <v>2.1827</v>
       </c>
       <c r="C75" t="n">
-        <v>2.04485</v>
+        <v>2.05861</v>
       </c>
       <c r="D75" t="n">
-        <v>2.33953</v>
+        <v>2.34619</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.16377</v>
+        <v>2.26012</v>
       </c>
       <c r="C76" t="n">
-        <v>2.06208</v>
+        <v>2.06569</v>
       </c>
       <c r="D76" t="n">
-        <v>2.37654</v>
+        <v>2.36767</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.1649</v>
+        <v>2.1822</v>
       </c>
       <c r="C77" t="n">
-        <v>2.07383</v>
+        <v>2.19102</v>
       </c>
       <c r="D77" t="n">
-        <v>2.39531</v>
+        <v>2.50538</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.19803</v>
+        <v>2.21715</v>
       </c>
       <c r="C78" t="n">
-        <v>2.25593</v>
+        <v>2.26163</v>
       </c>
       <c r="D78" t="n">
-        <v>2.59158</v>
+        <v>2.67603</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.226</v>
+        <v>2.26049</v>
       </c>
       <c r="C79" t="n">
-        <v>2.28746</v>
+        <v>2.26586</v>
       </c>
       <c r="D79" t="n">
-        <v>2.62682</v>
+        <v>2.63294</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.23066</v>
+        <v>2.34226</v>
       </c>
       <c r="C80" t="n">
-        <v>2.29048</v>
+        <v>2.30304</v>
       </c>
       <c r="D80" t="n">
-        <v>2.6525</v>
+        <v>2.7121</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.28493</v>
+        <v>2.36609</v>
       </c>
       <c r="C81" t="n">
-        <v>2.31753</v>
+        <v>2.27859</v>
       </c>
       <c r="D81" t="n">
-        <v>2.79655</v>
+        <v>2.78071</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.33741</v>
+        <v>2.34906</v>
       </c>
       <c r="C82" t="n">
-        <v>2.33827</v>
+        <v>2.31516</v>
       </c>
       <c r="D82" t="n">
-        <v>2.78532</v>
+        <v>2.71506</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.38667</v>
+        <v>2.36061</v>
       </c>
       <c r="C83" t="n">
-        <v>2.38437</v>
+        <v>2.31957</v>
       </c>
       <c r="D83" t="n">
-        <v>2.84557</v>
+        <v>2.74618</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.43763</v>
+        <v>2.43506</v>
       </c>
       <c r="C84" t="n">
-        <v>2.3761</v>
+        <v>2.32137</v>
       </c>
       <c r="D84" t="n">
-        <v>2.87443</v>
+        <v>2.80853</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.46473</v>
+        <v>2.44554</v>
       </c>
       <c r="C85" t="n">
-        <v>2.39422</v>
+        <v>2.36585</v>
       </c>
       <c r="D85" t="n">
-        <v>2.85366</v>
+        <v>2.86163</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.40007</v>
+        <v>2.44198</v>
       </c>
       <c r="C86" t="n">
-        <v>2.43988</v>
+        <v>2.37517</v>
       </c>
       <c r="D86" t="n">
-        <v>2.84216</v>
+        <v>2.88963</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.4759</v>
+        <v>2.51331</v>
       </c>
       <c r="C87" t="n">
-        <v>2.40183</v>
+        <v>2.45756</v>
       </c>
       <c r="D87" t="n">
-        <v>2.90523</v>
+        <v>2.91145</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.47951</v>
+        <v>2.48298</v>
       </c>
       <c r="C88" t="n">
-        <v>2.45754</v>
+        <v>2.44424</v>
       </c>
       <c r="D88" t="n">
-        <v>2.83838</v>
+        <v>2.98775</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.48051</v>
+        <v>2.55535</v>
       </c>
       <c r="C89" t="n">
-        <v>2.42787</v>
+        <v>2.46887</v>
       </c>
       <c r="D89" t="n">
-        <v>2.95202</v>
+        <v>2.96123</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.52227</v>
+        <v>2.5663</v>
       </c>
       <c r="C90" t="n">
-        <v>2.42053</v>
+        <v>2.48511</v>
       </c>
       <c r="D90" t="n">
-        <v>2.92751</v>
+        <v>2.99274</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.55729</v>
+        <v>2.59104</v>
       </c>
       <c r="C91" t="n">
-        <v>2.48967</v>
+        <v>2.50973</v>
       </c>
       <c r="D91" t="n">
-        <v>3.04805</v>
+        <v>3.01383</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.64083</v>
+        <v>2.63589</v>
       </c>
       <c r="C92" t="n">
-        <v>2.75163</v>
+        <v>2.74235</v>
       </c>
       <c r="D92" t="n">
-        <v>3.16164</v>
+        <v>3.20386</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.59008</v>
+        <v>2.58788</v>
       </c>
       <c r="C93" t="n">
-        <v>2.77946</v>
+        <v>2.69046</v>
       </c>
       <c r="D93" t="n">
-        <v>3.16024</v>
+        <v>3.24244</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.63569</v>
+        <v>2.64732</v>
       </c>
       <c r="C94" t="n">
-        <v>2.72842</v>
+        <v>2.76895</v>
       </c>
       <c r="D94" t="n">
-        <v>3.25417</v>
+        <v>3.23776</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.5913</v>
+        <v>2.60965</v>
       </c>
       <c r="C95" t="n">
-        <v>2.87186</v>
+        <v>2.76875</v>
       </c>
       <c r="D95" t="n">
-        <v>3.29387</v>
+        <v>3.24582</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.67829</v>
+        <v>2.64668</v>
       </c>
       <c r="C96" t="n">
-        <v>2.7861</v>
+        <v>2.75736</v>
       </c>
       <c r="D96" t="n">
-        <v>3.31396</v>
+        <v>3.28161</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.61592</v>
+        <v>2.64839</v>
       </c>
       <c r="C97" t="n">
-        <v>2.7646</v>
+        <v>2.76053</v>
       </c>
       <c r="D97" t="n">
-        <v>3.33743</v>
+        <v>3.27288</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.74164</v>
+        <v>2.86794</v>
       </c>
       <c r="C98" t="n">
-        <v>2.82316</v>
+        <v>2.90342</v>
       </c>
       <c r="D98" t="n">
-        <v>3.1582</v>
+        <v>3.3324</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.84339</v>
+        <v>2.86582</v>
       </c>
       <c r="C99" t="n">
-        <v>2.87154</v>
+        <v>2.82437</v>
       </c>
       <c r="D99" t="n">
-        <v>3.25647</v>
+        <v>3.3594</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.85346</v>
+        <v>2.88629</v>
       </c>
       <c r="C100" t="n">
-        <v>2.91807</v>
+        <v>2.84911</v>
       </c>
       <c r="D100" t="n">
-        <v>3.35673</v>
+        <v>3.3643</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.83542</v>
+        <v>2.93469</v>
       </c>
       <c r="C101" t="n">
-        <v>2.91163</v>
+        <v>2.92278</v>
       </c>
       <c r="D101" t="n">
-        <v>3.29879</v>
+        <v>3.3798</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.85942</v>
+        <v>2.92656</v>
       </c>
       <c r="C102" t="n">
-        <v>2.90935</v>
+        <v>2.94667</v>
       </c>
       <c r="D102" t="n">
-        <v>3.34766</v>
+        <v>3.45354</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.94168</v>
+        <v>2.999</v>
       </c>
       <c r="C103" t="n">
-        <v>2.94114</v>
+        <v>2.98574</v>
       </c>
       <c r="D103" t="n">
-        <v>3.38376</v>
+        <v>3.4144</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.95934</v>
+        <v>2.95428</v>
       </c>
       <c r="C104" t="n">
-        <v>3.05077</v>
+        <v>2.96414</v>
       </c>
       <c r="D104" t="n">
-        <v>3.48856</v>
+        <v>3.49035</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.98223</v>
+        <v>2.94335</v>
       </c>
       <c r="C105" t="n">
-        <v>3.08995</v>
+        <v>3.02332</v>
       </c>
       <c r="D105" t="n">
-        <v>3.45822</v>
+        <v>3.46746</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.98819</v>
+        <v>2.98288</v>
       </c>
       <c r="C106" t="n">
-        <v>3.11559</v>
+        <v>3.04561</v>
       </c>
       <c r="D106" t="n">
-        <v>3.47387</v>
+        <v>3.5045</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>3.01716</v>
+        <v>2.99512</v>
       </c>
       <c r="C107" t="n">
-        <v>3.33909</v>
+        <v>3.3409</v>
       </c>
       <c r="D107" t="n">
-        <v>3.76001</v>
+        <v>3.93164</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>3.02844</v>
+        <v>3.17093</v>
       </c>
       <c r="C108" t="n">
-        <v>3.41042</v>
+        <v>3.47243</v>
       </c>
       <c r="D108" t="n">
-        <v>3.78712</v>
+        <v>3.82434</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.0767</v>
+        <v>3.10032</v>
       </c>
       <c r="C109" t="n">
-        <v>3.37925</v>
+        <v>3.45372</v>
       </c>
       <c r="D109" t="n">
-        <v>3.80426</v>
+        <v>3.90536</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.15027</v>
+        <v>3.20044</v>
       </c>
       <c r="C110" t="n">
-        <v>3.43147</v>
+        <v>3.53969</v>
       </c>
       <c r="D110" t="n">
-        <v>3.87977</v>
+        <v>3.91883</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.18366</v>
+        <v>3.18678</v>
       </c>
       <c r="C111" t="n">
-        <v>3.41736</v>
+        <v>3.5223</v>
       </c>
       <c r="D111" t="n">
-        <v>3.87151</v>
+        <v>3.9165</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.27709</v>
+        <v>3.34761</v>
       </c>
       <c r="C112" t="n">
-        <v>3.4751</v>
+        <v>3.51691</v>
       </c>
       <c r="D112" t="n">
-        <v>3.93759</v>
+        <v>3.94659</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.30468</v>
+        <v>3.32959</v>
       </c>
       <c r="C113" t="n">
-        <v>3.47353</v>
+        <v>3.4877</v>
       </c>
       <c r="D113" t="n">
-        <v>3.87073</v>
+        <v>4.03204</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.40517</v>
+        <v>3.36524</v>
       </c>
       <c r="C114" t="n">
-        <v>3.57262</v>
+        <v>3.47903</v>
       </c>
       <c r="D114" t="n">
-        <v>4.05897</v>
+        <v>4.01558</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.42088</v>
+        <v>3.43149</v>
       </c>
       <c r="C115" t="n">
-        <v>3.55958</v>
+        <v>3.57603</v>
       </c>
       <c r="D115" t="n">
-        <v>4.15367</v>
+        <v>4.0272</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.48188</v>
+        <v>3.44775</v>
       </c>
       <c r="C116" t="n">
-        <v>3.6125</v>
+        <v>3.58496</v>
       </c>
       <c r="D116" t="n">
-        <v>4.13062</v>
+        <v>4.04272</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.39002</v>
+        <v>3.52117</v>
       </c>
       <c r="C117" t="n">
-        <v>3.60764</v>
+        <v>3.63775</v>
       </c>
       <c r="D117" t="n">
-        <v>4.13995</v>
+        <v>4.18041</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.41723</v>
+        <v>3.58201</v>
       </c>
       <c r="C118" t="n">
-        <v>3.70651</v>
+        <v>3.69282</v>
       </c>
       <c r="D118" t="n">
-        <v>4.06021</v>
+        <v>4.19146</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.48379</v>
+        <v>3.55002</v>
       </c>
       <c r="C119" t="n">
-        <v>3.69792</v>
+        <v>3.69686</v>
       </c>
       <c r="D119" t="n">
-        <v>4.14357</v>
+        <v>4.2102</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.469696</v>
+        <v>0.460438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.778193</v>
+        <v>0.784043</v>
       </c>
       <c r="D2" t="n">
-        <v>0.539289</v>
+        <v>0.533168</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.459712</v>
+        <v>0.463641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7787809999999999</v>
+        <v>0.788613</v>
       </c>
       <c r="D3" t="n">
-        <v>0.538254</v>
+        <v>0.544925</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.465427</v>
+        <v>0.45977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.792744</v>
+        <v>0.796349</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5377999999999999</v>
+        <v>0.542749</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.464243</v>
+        <v>0.462601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.79186</v>
+        <v>0.781477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.538922</v>
+        <v>0.542753</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.451522</v>
+        <v>0.456694</v>
       </c>
       <c r="C6" t="n">
-        <v>0.783331</v>
+        <v>0.7945410000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.545735</v>
+        <v>0.536979</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.456656</v>
+        <v>0.452387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.792485</v>
+        <v>0.792083</v>
       </c>
       <c r="D7" t="n">
-        <v>0.545894</v>
+        <v>0.542022</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.46708</v>
+        <v>0.451549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.793547</v>
+        <v>0.796284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.542919</v>
+        <v>0.5549460000000001</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.461256</v>
+        <v>0.461001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.807742</v>
+        <v>0.817338</v>
       </c>
       <c r="D9" t="n">
-        <v>0.553688</v>
+        <v>0.5515370000000001</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.460497</v>
+        <v>0.464237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.809624</v>
+        <v>0.822793</v>
       </c>
       <c r="D10" t="n">
-        <v>0.555718</v>
+        <v>0.555531</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.464964</v>
+        <v>0.461847</v>
       </c>
       <c r="C11" t="n">
-        <v>0.807877</v>
+        <v>0.80692</v>
       </c>
       <c r="D11" t="n">
-        <v>0.557593</v>
+        <v>0.559903</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.46945</v>
+        <v>0.466132</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8288</v>
+        <v>0.820958</v>
       </c>
       <c r="D12" t="n">
-        <v>0.562622</v>
+        <v>0.559745</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.478768</v>
+        <v>0.476725</v>
       </c>
       <c r="C13" t="n">
-        <v>0.792226</v>
+        <v>0.806084</v>
       </c>
       <c r="D13" t="n">
-        <v>0.576125</v>
+        <v>0.5772389999999999</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.478079</v>
+        <v>0.478589</v>
       </c>
       <c r="C14" t="n">
-        <v>0.83036</v>
+        <v>0.820547</v>
       </c>
       <c r="D14" t="n">
-        <v>0.579993</v>
+        <v>0.569402</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.487686</v>
+        <v>0.478182</v>
       </c>
       <c r="C15" t="n">
-        <v>0.819841</v>
+        <v>0.815029</v>
       </c>
       <c r="D15" t="n">
-        <v>0.576813</v>
+        <v>0.573423</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.493739</v>
+        <v>0.482984</v>
       </c>
       <c r="C16" t="n">
-        <v>0.836045</v>
+        <v>0.816767</v>
       </c>
       <c r="D16" t="n">
-        <v>0.577921</v>
+        <v>0.577464</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.484312</v>
+        <v>0.47972</v>
       </c>
       <c r="C17" t="n">
-        <v>0.826916</v>
+        <v>0.808574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.577608</v>
+        <v>0.579435</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.488355</v>
+        <v>0.485677</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8389219999999999</v>
+        <v>0.833466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.588703</v>
+        <v>0.5844780000000001</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.490103</v>
+        <v>0.488352</v>
       </c>
       <c r="C19" t="n">
-        <v>0.843271</v>
+        <v>0.815632</v>
       </c>
       <c r="D19" t="n">
-        <v>0.58399</v>
+        <v>0.594414</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.493936</v>
+        <v>0.5026969999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.837379</v>
+        <v>0.8336479999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5858719999999999</v>
+        <v>0.58566</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.484501</v>
+        <v>0.490049</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8447480000000001</v>
+        <v>0.867404</v>
       </c>
       <c r="D21" t="n">
-        <v>0.610251</v>
+        <v>0.6035740000000001</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.494441</v>
+        <v>0.499224</v>
       </c>
       <c r="C22" t="n">
-        <v>0.878215</v>
+        <v>0.859729</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6093150000000001</v>
+        <v>0.611908</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.51037</v>
+        <v>0.507273</v>
       </c>
       <c r="C23" t="n">
-        <v>0.869097</v>
+        <v>0.865294</v>
       </c>
       <c r="D23" t="n">
-        <v>0.604573</v>
+        <v>0.614686</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.501825</v>
+        <v>0.48992</v>
       </c>
       <c r="C24" t="n">
-        <v>0.882605</v>
+        <v>0.8740560000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.613219</v>
+        <v>0.604055</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.50988</v>
+        <v>0.500335</v>
       </c>
       <c r="C25" t="n">
-        <v>0.88846</v>
+        <v>0.875514</v>
       </c>
       <c r="D25" t="n">
-        <v>0.629313</v>
+        <v>0.601503</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.520833</v>
+        <v>0.499621</v>
       </c>
       <c r="C26" t="n">
-        <v>0.897468</v>
+        <v>0.860666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6308280000000001</v>
+        <v>0.609751</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.577731</v>
+        <v>0.569076</v>
       </c>
       <c r="C27" t="n">
-        <v>0.912552</v>
+        <v>0.885661</v>
       </c>
       <c r="D27" t="n">
-        <v>0.634101</v>
+        <v>0.646273</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.610711</v>
+        <v>0.5684669999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.910761</v>
+        <v>0.8925</v>
       </c>
       <c r="D28" t="n">
-        <v>0.654423</v>
+        <v>0.618833</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.608612</v>
+        <v>0.587944</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9238690000000001</v>
+        <v>0.89269</v>
       </c>
       <c r="D29" t="n">
-        <v>0.690897</v>
+        <v>0.654146</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.612823</v>
+        <v>0.596946</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9113</v>
+        <v>0.912049</v>
       </c>
       <c r="D30" t="n">
-        <v>0.680198</v>
+        <v>0.6599969999999999</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.621221</v>
+        <v>0.603392</v>
       </c>
       <c r="C31" t="n">
-        <v>0.914402</v>
+        <v>0.9116</v>
       </c>
       <c r="D31" t="n">
-        <v>0.662428</v>
+        <v>0.64706</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.625752</v>
+        <v>0.613522</v>
       </c>
       <c r="C32" t="n">
-        <v>0.957669</v>
+        <v>0.921794</v>
       </c>
       <c r="D32" t="n">
-        <v>0.681935</v>
+        <v>0.655967</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.632161</v>
+        <v>0.632576</v>
       </c>
       <c r="C33" t="n">
-        <v>0.940095</v>
+        <v>0.934165</v>
       </c>
       <c r="D33" t="n">
-        <v>0.708264</v>
+        <v>0.6778110000000001</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.649421</v>
+        <v>0.648296</v>
       </c>
       <c r="C34" t="n">
-        <v>0.961634</v>
+        <v>0.9471540000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6973240000000001</v>
+        <v>0.6905019999999999</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.67905</v>
+        <v>0.6549779999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>1.03992</v>
+        <v>1.04932</v>
       </c>
       <c r="D35" t="n">
-        <v>0.803163</v>
+        <v>0.788281</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.684103</v>
+        <v>0.675357</v>
       </c>
       <c r="C36" t="n">
-        <v>1.06957</v>
+        <v>1.05777</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8169650000000001</v>
+        <v>0.80801</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.708463</v>
+        <v>0.685149</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0969</v>
+        <v>1.07564</v>
       </c>
       <c r="D37" t="n">
-        <v>0.851434</v>
+        <v>0.826222</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.720503</v>
+        <v>0.733816</v>
       </c>
       <c r="C38" t="n">
-        <v>1.113</v>
+        <v>1.11609</v>
       </c>
       <c r="D38" t="n">
-        <v>0.843875</v>
+        <v>0.857884</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.754986</v>
+        <v>0.727695</v>
       </c>
       <c r="C39" t="n">
-        <v>1.15741</v>
+        <v>1.11807</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8843529999999999</v>
+        <v>0.910152</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.789034</v>
+        <v>0.755945</v>
       </c>
       <c r="C40" t="n">
-        <v>1.17171</v>
+        <v>1.139</v>
       </c>
       <c r="D40" t="n">
-        <v>0.90783</v>
+        <v>0.921906</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.89169</v>
+        <v>0.861127</v>
       </c>
       <c r="C41" t="n">
-        <v>1.17813</v>
+        <v>1.16125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.949726</v>
+        <v>0.91555</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.913901</v>
+        <v>0.864034</v>
       </c>
       <c r="C42" t="n">
-        <v>1.20729</v>
+        <v>1.17509</v>
       </c>
       <c r="D42" t="n">
-        <v>0.958121</v>
+        <v>0.951302</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.920683</v>
+        <v>0.900419</v>
       </c>
       <c r="C43" t="n">
-        <v>1.24955</v>
+        <v>1.21192</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0093</v>
+        <v>0.987878</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.924318</v>
+        <v>0.92667</v>
       </c>
       <c r="C44" t="n">
-        <v>1.2311</v>
+        <v>1.28377</v>
       </c>
       <c r="D44" t="n">
-        <v>1.03529</v>
+        <v>1.02503</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.936965</v>
+        <v>0.937261</v>
       </c>
       <c r="C45" t="n">
-        <v>1.28815</v>
+        <v>1.29435</v>
       </c>
       <c r="D45" t="n">
-        <v>1.04007</v>
+        <v>1.04358</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.993046</v>
+        <v>0.972824</v>
       </c>
       <c r="C46" t="n">
-        <v>1.32929</v>
+        <v>1.33615</v>
       </c>
       <c r="D46" t="n">
-        <v>1.0675</v>
+        <v>1.07845</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.988656</v>
+        <v>0.977461</v>
       </c>
       <c r="C47" t="n">
-        <v>1.33741</v>
+        <v>1.34155</v>
       </c>
       <c r="D47" t="n">
-        <v>1.12148</v>
+        <v>1.09532</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.04095</v>
+        <v>0.995306</v>
       </c>
       <c r="C48" t="n">
-        <v>1.39746</v>
+        <v>1.40027</v>
       </c>
       <c r="D48" t="n">
-        <v>1.14798</v>
+        <v>1.13988</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.05439</v>
+        <v>1.04456</v>
       </c>
       <c r="C49" t="n">
-        <v>1.49262</v>
+        <v>1.46003</v>
       </c>
       <c r="D49" t="n">
-        <v>1.19332</v>
+        <v>1.157</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.07017</v>
+        <v>1.06048</v>
       </c>
       <c r="C50" t="n">
-        <v>1.65789</v>
+        <v>1.66059</v>
       </c>
       <c r="D50" t="n">
-        <v>1.33577</v>
+        <v>1.29084</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.10158</v>
+        <v>1.07369</v>
       </c>
       <c r="C51" t="n">
-        <v>1.6768</v>
+        <v>1.66628</v>
       </c>
       <c r="D51" t="n">
-        <v>1.35334</v>
+        <v>1.3167</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.10908</v>
+        <v>1.10597</v>
       </c>
       <c r="C52" t="n">
-        <v>1.82354</v>
+        <v>1.75357</v>
       </c>
       <c r="D52" t="n">
-        <v>1.42259</v>
+        <v>1.35417</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.18922</v>
+        <v>1.12764</v>
       </c>
       <c r="C53" t="n">
-        <v>1.86847</v>
+        <v>1.784</v>
       </c>
       <c r="D53" t="n">
-        <v>1.49059</v>
+        <v>1.40162</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.22512</v>
+        <v>1.13479</v>
       </c>
       <c r="C54" t="n">
-        <v>1.95478</v>
+        <v>1.82134</v>
       </c>
       <c r="D54" t="n">
-        <v>1.5188</v>
+        <v>1.47823</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.26601</v>
+        <v>1.22363</v>
       </c>
       <c r="C55" t="n">
-        <v>2.01956</v>
+        <v>1.85905</v>
       </c>
       <c r="D55" t="n">
-        <v>1.53473</v>
+        <v>1.48744</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.46234</v>
+        <v>1.28527</v>
       </c>
       <c r="C56" t="n">
-        <v>2.21614</v>
+        <v>1.92887</v>
       </c>
       <c r="D56" t="n">
-        <v>1.59807</v>
+        <v>1.58869</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.45891</v>
+        <v>1.32657</v>
       </c>
       <c r="C57" t="n">
-        <v>2.23602</v>
+        <v>2.17802</v>
       </c>
       <c r="D57" t="n">
-        <v>1.58386</v>
+        <v>1.66426</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.44788</v>
+        <v>1.45781</v>
       </c>
       <c r="C58" t="n">
-        <v>2.30724</v>
+        <v>2.27321</v>
       </c>
       <c r="D58" t="n">
-        <v>1.69809</v>
+        <v>1.68625</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.52205</v>
+        <v>1.47214</v>
       </c>
       <c r="C59" t="n">
-        <v>2.29325</v>
+        <v>2.26422</v>
       </c>
       <c r="D59" t="n">
-        <v>1.74856</v>
+        <v>1.70988</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.51258</v>
+        <v>1.51318</v>
       </c>
       <c r="C60" t="n">
-        <v>2.28129</v>
+        <v>2.26005</v>
       </c>
       <c r="D60" t="n">
-        <v>1.83234</v>
+        <v>1.81527</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.62361</v>
+        <v>1.6055</v>
       </c>
       <c r="C61" t="n">
-        <v>2.51372</v>
+        <v>2.4513</v>
       </c>
       <c r="D61" t="n">
-        <v>1.9035</v>
+        <v>1.90063</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.67781</v>
+        <v>1.53003</v>
       </c>
       <c r="C62" t="n">
-        <v>2.51868</v>
+        <v>2.3195</v>
       </c>
       <c r="D62" t="n">
-        <v>1.96314</v>
+        <v>1.87432</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.65732</v>
+        <v>1.67407</v>
       </c>
       <c r="C63" t="n">
-        <v>2.61122</v>
+        <v>2.33908</v>
       </c>
       <c r="D63" t="n">
-        <v>2.03448</v>
+        <v>1.92281</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.69783</v>
+        <v>1.60545</v>
       </c>
       <c r="C64" t="n">
-        <v>2.92116</v>
+        <v>2.91357</v>
       </c>
       <c r="D64" t="n">
-        <v>2.23407</v>
+        <v>2.20621</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.74418</v>
+        <v>1.67521</v>
       </c>
       <c r="C65" t="n">
-        <v>2.59505</v>
+        <v>2.63249</v>
       </c>
       <c r="D65" t="n">
-        <v>2.21207</v>
+        <v>2.20094</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.77228</v>
+        <v>1.66773</v>
       </c>
       <c r="C66" t="n">
-        <v>2.6392</v>
+        <v>2.66986</v>
       </c>
       <c r="D66" t="n">
-        <v>2.30976</v>
+        <v>2.31603</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.84461</v>
+        <v>1.72231</v>
       </c>
       <c r="C67" t="n">
-        <v>2.86639</v>
+        <v>2.78602</v>
       </c>
       <c r="D67" t="n">
-        <v>2.52837</v>
+        <v>2.2905</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.94673</v>
+        <v>1.74025</v>
       </c>
       <c r="C68" t="n">
-        <v>3.11763</v>
+        <v>2.80931</v>
       </c>
       <c r="D68" t="n">
-        <v>2.5318</v>
+        <v>2.38211</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.04437</v>
+        <v>1.79859</v>
       </c>
       <c r="C69" t="n">
-        <v>2.87502</v>
+        <v>2.81504</v>
       </c>
       <c r="D69" t="n">
-        <v>2.59882</v>
+        <v>2.41391</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.03035</v>
+        <v>1.93127</v>
       </c>
       <c r="C70" t="n">
-        <v>3.00092</v>
+        <v>2.79776</v>
       </c>
       <c r="D70" t="n">
-        <v>2.65729</v>
+        <v>2.502</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.1776</v>
+        <v>1.94841</v>
       </c>
       <c r="C71" t="n">
-        <v>3.24567</v>
+        <v>2.8956</v>
       </c>
       <c r="D71" t="n">
-        <v>2.7692</v>
+        <v>2.55901</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.1534</v>
+        <v>1.99055</v>
       </c>
       <c r="C72" t="n">
-        <v>3.37595</v>
+        <v>2.94698</v>
       </c>
       <c r="D72" t="n">
-        <v>2.80219</v>
+        <v>2.57616</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.23565</v>
+        <v>1.99928</v>
       </c>
       <c r="C73" t="n">
-        <v>3.30794</v>
+        <v>3.01223</v>
       </c>
       <c r="D73" t="n">
-        <v>2.8691</v>
+        <v>2.68098</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.27031</v>
+        <v>2.04491</v>
       </c>
       <c r="C74" t="n">
-        <v>3.38513</v>
+        <v>3.087</v>
       </c>
       <c r="D74" t="n">
-        <v>2.95218</v>
+        <v>2.77682</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.23242</v>
+        <v>2.09432</v>
       </c>
       <c r="C75" t="n">
-        <v>3.41777</v>
+        <v>3.09455</v>
       </c>
       <c r="D75" t="n">
-        <v>2.89249</v>
+        <v>2.82408</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.25857</v>
+        <v>2.09024</v>
       </c>
       <c r="C76" t="n">
-        <v>3.22799</v>
+        <v>3.16257</v>
       </c>
       <c r="D76" t="n">
-        <v>3.02388</v>
+        <v>2.83288</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.33774</v>
+        <v>2.15241</v>
       </c>
       <c r="C77" t="n">
-        <v>3.30259</v>
+        <v>3.23272</v>
       </c>
       <c r="D77" t="n">
-        <v>3.06333</v>
+        <v>2.89739</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.29084</v>
+        <v>2.17764</v>
       </c>
       <c r="C78" t="n">
-        <v>3.53002</v>
+        <v>3.37375</v>
       </c>
       <c r="D78" t="n">
-        <v>3.18354</v>
+        <v>3.0647</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.31415</v>
+        <v>2.20858</v>
       </c>
       <c r="C79" t="n">
-        <v>3.66573</v>
+        <v>3.51756</v>
       </c>
       <c r="D79" t="n">
-        <v>3.3713</v>
+        <v>3.14596</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.35057</v>
+        <v>2.20122</v>
       </c>
       <c r="C80" t="n">
-        <v>3.74088</v>
+        <v>3.54902</v>
       </c>
       <c r="D80" t="n">
-        <v>3.23918</v>
+        <v>3.22763</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.39831</v>
+        <v>2.23372</v>
       </c>
       <c r="C81" t="n">
-        <v>3.66118</v>
+        <v>3.52862</v>
       </c>
       <c r="D81" t="n">
-        <v>3.26247</v>
+        <v>3.30361</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.36755</v>
+        <v>2.28533</v>
       </c>
       <c r="C82" t="n">
-        <v>3.62908</v>
+        <v>3.64935</v>
       </c>
       <c r="D82" t="n">
-        <v>3.47916</v>
+        <v>3.28911</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.50405</v>
+        <v>2.24266</v>
       </c>
       <c r="C83" t="n">
-        <v>3.64445</v>
+        <v>3.64442</v>
       </c>
       <c r="D83" t="n">
-        <v>3.42455</v>
+        <v>3.28267</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.5565</v>
+        <v>2.3886</v>
       </c>
       <c r="C84" t="n">
-        <v>3.8264</v>
+        <v>3.72272</v>
       </c>
       <c r="D84" t="n">
-        <v>3.47416</v>
+        <v>3.28411</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.56243</v>
+        <v>2.39255</v>
       </c>
       <c r="C85" t="n">
-        <v>3.66984</v>
+        <v>3.64921</v>
       </c>
       <c r="D85" t="n">
-        <v>3.53602</v>
+        <v>3.33934</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.58052</v>
+        <v>2.42716</v>
       </c>
       <c r="C86" t="n">
-        <v>3.73638</v>
+        <v>3.70453</v>
       </c>
       <c r="D86" t="n">
-        <v>3.54766</v>
+        <v>3.42673</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.63969</v>
+        <v>2.45041</v>
       </c>
       <c r="C87" t="n">
-        <v>3.84048</v>
+        <v>3.72046</v>
       </c>
       <c r="D87" t="n">
-        <v>3.66907</v>
+        <v>3.44073</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.76878</v>
+        <v>2.49183</v>
       </c>
       <c r="C88" t="n">
-        <v>3.84029</v>
+        <v>3.87621</v>
       </c>
       <c r="D88" t="n">
-        <v>3.67765</v>
+        <v>3.47282</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.65277</v>
+        <v>2.49803</v>
       </c>
       <c r="C89" t="n">
-        <v>3.85056</v>
+        <v>3.78908</v>
       </c>
       <c r="D89" t="n">
-        <v>3.65644</v>
+        <v>3.47729</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.77225</v>
+        <v>2.53781</v>
       </c>
       <c r="C90" t="n">
-        <v>3.86027</v>
+        <v>3.83874</v>
       </c>
       <c r="D90" t="n">
-        <v>3.75785</v>
+        <v>3.57307</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.75956</v>
+        <v>2.54258</v>
       </c>
       <c r="C91" t="n">
-        <v>3.95314</v>
+        <v>3.95008</v>
       </c>
       <c r="D91" t="n">
-        <v>3.80814</v>
+        <v>3.60655</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.79174</v>
+        <v>2.56348</v>
       </c>
       <c r="C92" t="n">
-        <v>4.16856</v>
+        <v>4.12039</v>
       </c>
       <c r="D92" t="n">
-        <v>3.97459</v>
+        <v>3.72808</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.79558</v>
+        <v>2.55808</v>
       </c>
       <c r="C93" t="n">
-        <v>4.23727</v>
+        <v>4.13511</v>
       </c>
       <c r="D93" t="n">
-        <v>3.93511</v>
+        <v>3.8541</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.80457</v>
+        <v>2.59966</v>
       </c>
       <c r="C94" t="n">
-        <v>4.29986</v>
+        <v>4.16125</v>
       </c>
       <c r="D94" t="n">
-        <v>4.1044</v>
+        <v>3.92121</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.82092</v>
+        <v>2.63223</v>
       </c>
       <c r="C95" t="n">
-        <v>4.31595</v>
+        <v>4.25143</v>
       </c>
       <c r="D95" t="n">
-        <v>4.05577</v>
+        <v>3.94803</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.88513</v>
+        <v>2.64886</v>
       </c>
       <c r="C96" t="n">
-        <v>4.33904</v>
+        <v>4.26118</v>
       </c>
       <c r="D96" t="n">
-        <v>4.17025</v>
+        <v>3.87749</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.97345</v>
+        <v>2.66026</v>
       </c>
       <c r="C97" t="n">
-        <v>4.38548</v>
+        <v>4.26561</v>
       </c>
       <c r="D97" t="n">
-        <v>4.16313</v>
+        <v>3.94952</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.10213</v>
+        <v>2.81027</v>
       </c>
       <c r="C98" t="n">
-        <v>4.43205</v>
+        <v>4.25938</v>
       </c>
       <c r="D98" t="n">
-        <v>4.18189</v>
+        <v>3.94839</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.20972</v>
+        <v>2.83462</v>
       </c>
       <c r="C99" t="n">
-        <v>4.4655</v>
+        <v>4.36266</v>
       </c>
       <c r="D99" t="n">
-        <v>4.25749</v>
+        <v>4.02433</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.10231</v>
+        <v>2.89277</v>
       </c>
       <c r="C100" t="n">
-        <v>4.47713</v>
+        <v>4.39711</v>
       </c>
       <c r="D100" t="n">
-        <v>4.26962</v>
+        <v>4.09111</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.12202</v>
+        <v>2.879</v>
       </c>
       <c r="C101" t="n">
-        <v>4.52797</v>
+        <v>4.40606</v>
       </c>
       <c r="D101" t="n">
-        <v>4.31415</v>
+        <v>4.12613</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.16688</v>
+        <v>2.9234</v>
       </c>
       <c r="C102" t="n">
-        <v>4.5887</v>
+        <v>4.49306</v>
       </c>
       <c r="D102" t="n">
-        <v>4.26247</v>
+        <v>4.17418</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.18511</v>
+        <v>2.9559</v>
       </c>
       <c r="C103" t="n">
-        <v>4.60788</v>
+        <v>4.54592</v>
       </c>
       <c r="D103" t="n">
-        <v>4.41372</v>
+        <v>4.22752</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.17201</v>
+        <v>2.99949</v>
       </c>
       <c r="C104" t="n">
-        <v>4.65396</v>
+        <v>4.56631</v>
       </c>
       <c r="D104" t="n">
-        <v>4.45092</v>
+        <v>4.20187</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.27273</v>
+        <v>3.02344</v>
       </c>
       <c r="C105" t="n">
-        <v>4.70557</v>
+        <v>4.63395</v>
       </c>
       <c r="D105" t="n">
-        <v>4.43778</v>
+        <v>4.29168</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.2652</v>
+        <v>3.00976</v>
       </c>
       <c r="C106" t="n">
-        <v>4.75396</v>
+        <v>4.68488</v>
       </c>
       <c r="D106" t="n">
-        <v>4.48429</v>
+        <v>4.3676</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.29114</v>
+        <v>3.03611</v>
       </c>
       <c r="C107" t="n">
-        <v>4.95089</v>
+        <v>4.8712</v>
       </c>
       <c r="D107" t="n">
-        <v>4.59644</v>
+        <v>4.45071</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.36905</v>
+        <v>3.05862</v>
       </c>
       <c r="C108" t="n">
-        <v>4.99095</v>
+        <v>4.88311</v>
       </c>
       <c r="D108" t="n">
-        <v>4.71727</v>
+        <v>4.51251</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.42749</v>
+        <v>3.17829</v>
       </c>
       <c r="C109" t="n">
-        <v>4.9986</v>
+        <v>5.04913</v>
       </c>
       <c r="D109" t="n">
-        <v>4.66544</v>
+        <v>4.59643</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.40813</v>
+        <v>3.13887</v>
       </c>
       <c r="C110" t="n">
-        <v>5.04639</v>
+        <v>5.00175</v>
       </c>
       <c r="D110" t="n">
-        <v>4.73189</v>
+        <v>4.60615</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.38295</v>
+        <v>3.15079</v>
       </c>
       <c r="C111" t="n">
-        <v>5.02184</v>
+        <v>5.08881</v>
       </c>
       <c r="D111" t="n">
-        <v>4.83955</v>
+        <v>4.65026</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.55973</v>
+        <v>3.42543</v>
       </c>
       <c r="C112" t="n">
-        <v>5.09749</v>
+        <v>5.15042</v>
       </c>
       <c r="D112" t="n">
-        <v>4.84115</v>
+        <v>4.69245</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.70167</v>
+        <v>3.31947</v>
       </c>
       <c r="C113" t="n">
-        <v>5.18457</v>
+        <v>5.14185</v>
       </c>
       <c r="D113" t="n">
-        <v>4.83658</v>
+        <v>4.72153</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.70982</v>
+        <v>3.39998</v>
       </c>
       <c r="C114" t="n">
-        <v>5.20349</v>
+        <v>5.19485</v>
       </c>
       <c r="D114" t="n">
-        <v>4.99705</v>
+        <v>4.78939</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.77723</v>
+        <v>3.43792</v>
       </c>
       <c r="C115" t="n">
-        <v>5.25937</v>
+        <v>5.23139</v>
       </c>
       <c r="D115" t="n">
-        <v>4.95302</v>
+        <v>4.83782</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.81024</v>
+        <v>3.44419</v>
       </c>
       <c r="C116" t="n">
-        <v>5.2629</v>
+        <v>5.29589</v>
       </c>
       <c r="D116" t="n">
-        <v>5.05332</v>
+        <v>4.89008</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.81869</v>
+        <v>3.51084</v>
       </c>
       <c r="C117" t="n">
-        <v>5.3259</v>
+        <v>5.34943</v>
       </c>
       <c r="D117" t="n">
-        <v>5.11607</v>
+        <v>4.92191</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.7991</v>
+        <v>3.58455</v>
       </c>
       <c r="C118" t="n">
-        <v>5.4279</v>
+        <v>5.43885</v>
       </c>
       <c r="D118" t="n">
-        <v>5.13272</v>
+        <v>5.01388</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.89013</v>
+        <v>3.56666</v>
       </c>
       <c r="C119" t="n">
-        <v>5.49504</v>
+        <v>5.45568</v>
       </c>
       <c r="D119" t="n">
-        <v>5.19697</v>
+        <v>5.10191</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.391676</v>
+        <v>0.391441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7693</v>
+        <v>0.754851</v>
       </c>
       <c r="D2" t="n">
-        <v>0.515056</v>
+        <v>0.514486</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.422282</v>
+        <v>0.40707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.776569</v>
+        <v>0.767456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.515695</v>
+        <v>0.517033</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.423461</v>
+        <v>0.430387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.793916</v>
+        <v>0.783791</v>
       </c>
       <c r="D4" t="n">
-        <v>0.533219</v>
+        <v>0.5162949999999999</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.42342</v>
+        <v>0.421207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.783303</v>
+        <v>0.778409</v>
       </c>
       <c r="D5" t="n">
-        <v>0.533089</v>
+        <v>0.537373</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.429097</v>
+        <v>0.423086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.792704</v>
+        <v>0.7771670000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.531457</v>
+        <v>0.52152</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425315</v>
+        <v>0.425756</v>
       </c>
       <c r="C7" t="n">
-        <v>0.799969</v>
+        <v>0.7975680000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.549898</v>
+        <v>0.543876</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.431308</v>
+        <v>0.429308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.791835</v>
+        <v>0.821007</v>
       </c>
       <c r="D8" t="n">
-        <v>0.545226</v>
+        <v>0.534459</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.425992</v>
+        <v>0.423377</v>
       </c>
       <c r="C9" t="n">
-        <v>0.821041</v>
+        <v>0.825526</v>
       </c>
       <c r="D9" t="n">
-        <v>0.548556</v>
+        <v>0.538458</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.433928</v>
+        <v>0.425692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.839422</v>
+        <v>0.824546</v>
       </c>
       <c r="D10" t="n">
-        <v>0.562084</v>
+        <v>0.541405</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.448899</v>
+        <v>0.430838</v>
       </c>
       <c r="C11" t="n">
-        <v>0.800695</v>
+        <v>0.812244</v>
       </c>
       <c r="D11" t="n">
-        <v>0.568205</v>
+        <v>0.558997</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.43394</v>
+        <v>0.42781</v>
       </c>
       <c r="C12" t="n">
-        <v>0.819573</v>
+        <v>0.820346</v>
       </c>
       <c r="D12" t="n">
-        <v>0.575303</v>
+        <v>0.5703819999999999</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.442018</v>
+        <v>0.434163</v>
       </c>
       <c r="C13" t="n">
-        <v>0.820943</v>
+        <v>0.820569</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5746329999999999</v>
+        <v>0.555646</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.444641</v>
+        <v>0.430959</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8411380000000001</v>
+        <v>0.826232</v>
       </c>
       <c r="D14" t="n">
-        <v>0.572115</v>
+        <v>0.5689610000000001</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.439467</v>
+        <v>0.429476</v>
       </c>
       <c r="C15" t="n">
-        <v>0.849083</v>
+        <v>0.838372</v>
       </c>
       <c r="D15" t="n">
-        <v>0.581669</v>
+        <v>0.572469</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.439438</v>
+        <v>0.437494</v>
       </c>
       <c r="C16" t="n">
-        <v>0.843669</v>
+        <v>0.852454</v>
       </c>
       <c r="D16" t="n">
-        <v>0.588998</v>
+        <v>0.56991</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.460088</v>
+        <v>0.455674</v>
       </c>
       <c r="C17" t="n">
-        <v>0.860479</v>
+        <v>0.85353</v>
       </c>
       <c r="D17" t="n">
-        <v>0.596836</v>
+        <v>0.5802580000000001</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.487988</v>
+        <v>0.457381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.888</v>
+        <v>0.865926</v>
       </c>
       <c r="D18" t="n">
-        <v>0.599424</v>
+        <v>0.585044</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.478994</v>
+        <v>0.46371</v>
       </c>
       <c r="C19" t="n">
-        <v>0.896354</v>
+        <v>0.867368</v>
       </c>
       <c r="D19" t="n">
-        <v>0.58467</v>
+        <v>0.596796</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.482175</v>
+        <v>0.472244</v>
       </c>
       <c r="C20" t="n">
-        <v>0.876853</v>
+        <v>0.867706</v>
       </c>
       <c r="D20" t="n">
-        <v>0.613561</v>
+        <v>0.587974</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.47022</v>
+        <v>0.461932</v>
       </c>
       <c r="C21" t="n">
-        <v>0.896729</v>
+        <v>0.910986</v>
       </c>
       <c r="D21" t="n">
-        <v>0.602293</v>
+        <v>0.6051840000000001</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.475709</v>
+        <v>0.47746</v>
       </c>
       <c r="C22" t="n">
-        <v>0.884596</v>
+        <v>0.889029</v>
       </c>
       <c r="D22" t="n">
-        <v>0.608237</v>
+        <v>0.597799</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.476013</v>
+        <v>0.47709</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9020860000000001</v>
+        <v>0.905108</v>
       </c>
       <c r="D23" t="n">
-        <v>0.611596</v>
+        <v>0.612272</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.479384</v>
+        <v>0.481269</v>
       </c>
       <c r="C24" t="n">
-        <v>0.911756</v>
+        <v>0.91467</v>
       </c>
       <c r="D24" t="n">
-        <v>0.627115</v>
+        <v>0.610079</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.489851</v>
+        <v>0.482587</v>
       </c>
       <c r="C25" t="n">
-        <v>0.933059</v>
+        <v>0.941132</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6235039999999999</v>
+        <v>0.617669</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.526182</v>
+        <v>0.478544</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9053949999999999</v>
+        <v>0.88514</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6273069999999999</v>
+        <v>0.615343</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.518218</v>
+        <v>0.476391</v>
       </c>
       <c r="C27" t="n">
-        <v>0.908655</v>
+        <v>0.902617</v>
       </c>
       <c r="D27" t="n">
-        <v>0.641651</v>
+        <v>0.623308</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.495314</v>
+        <v>0.480817</v>
       </c>
       <c r="C28" t="n">
-        <v>0.910232</v>
+        <v>0.912068</v>
       </c>
       <c r="D28" t="n">
-        <v>0.666624</v>
+        <v>0.653753</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.47994</v>
+        <v>0.5021679999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.917361</v>
+        <v>0.923257</v>
       </c>
       <c r="D29" t="n">
-        <v>0.67827</v>
+        <v>0.634773</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.513478</v>
+        <v>0.488081</v>
       </c>
       <c r="C30" t="n">
-        <v>0.940376</v>
+        <v>0.9093560000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.681123</v>
+        <v>0.661071</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.51044</v>
+        <v>0.504817</v>
       </c>
       <c r="C31" t="n">
-        <v>0.950255</v>
+        <v>0.9096340000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.711909</v>
+        <v>0.664423</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5694900000000001</v>
+        <v>0.526907</v>
       </c>
       <c r="C32" t="n">
-        <v>0.970898</v>
+        <v>0.944618</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6931659999999999</v>
+        <v>0.668072</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.575545</v>
+        <v>0.5544210000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.975311</v>
+        <v>0.964411</v>
       </c>
       <c r="D33" t="n">
-        <v>0.695495</v>
+        <v>0.676021</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.576644</v>
+        <v>0.555068</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0125</v>
+        <v>0.999227</v>
       </c>
       <c r="D34" t="n">
-        <v>0.742224</v>
+        <v>0.716658</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.611939</v>
+        <v>0.544836</v>
       </c>
       <c r="C35" t="n">
-        <v>1.02159</v>
+        <v>1.01249</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7629320000000001</v>
+        <v>0.722908</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.619902</v>
+        <v>0.573419</v>
       </c>
       <c r="C36" t="n">
-        <v>1.04399</v>
+        <v>1.0366</v>
       </c>
       <c r="D36" t="n">
-        <v>0.777688</v>
+        <v>0.720734</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6320480000000001</v>
+        <v>0.58725</v>
       </c>
       <c r="C37" t="n">
-        <v>1.06009</v>
+        <v>1.05086</v>
       </c>
       <c r="D37" t="n">
-        <v>0.777984</v>
+        <v>0.746189</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.637961</v>
+        <v>0.602542</v>
       </c>
       <c r="C38" t="n">
-        <v>1.11801</v>
+        <v>1.07539</v>
       </c>
       <c r="D38" t="n">
-        <v>0.802473</v>
+        <v>0.768832</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.648052</v>
+        <v>0.611958</v>
       </c>
       <c r="C39" t="n">
-        <v>1.13472</v>
+        <v>1.11839</v>
       </c>
       <c r="D39" t="n">
-        <v>0.840069</v>
+        <v>0.794945</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.678651</v>
+        <v>0.651058</v>
       </c>
       <c r="C40" t="n">
-        <v>1.1281</v>
+        <v>1.12832</v>
       </c>
       <c r="D40" t="n">
-        <v>0.915063</v>
+        <v>0.840407</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.701476</v>
+        <v>0.634443</v>
       </c>
       <c r="C41" t="n">
-        <v>1.16966</v>
+        <v>1.11022</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8880670000000001</v>
+        <v>0.867355</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7041849999999999</v>
+        <v>0.655935</v>
       </c>
       <c r="C42" t="n">
-        <v>1.19805</v>
+        <v>1.16808</v>
       </c>
       <c r="D42" t="n">
-        <v>0.954098</v>
+        <v>0.884209</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.722938</v>
+        <v>0.665544</v>
       </c>
       <c r="C43" t="n">
-        <v>1.21029</v>
+        <v>1.1887</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9570419999999999</v>
+        <v>0.910071</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.722949</v>
+        <v>0.685366</v>
       </c>
       <c r="C44" t="n">
-        <v>1.25766</v>
+        <v>1.22413</v>
       </c>
       <c r="D44" t="n">
-        <v>0.990576</v>
+        <v>0.952496</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.743459</v>
+        <v>0.6898570000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>1.29131</v>
+        <v>1.23309</v>
       </c>
       <c r="D45" t="n">
-        <v>1.01622</v>
+        <v>0.964524</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.828332</v>
+        <v>0.803159</v>
       </c>
       <c r="C46" t="n">
-        <v>1.32619</v>
+        <v>1.3029</v>
       </c>
       <c r="D46" t="n">
-        <v>1.06882</v>
+        <v>1.00568</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.864518</v>
+        <v>0.836161</v>
       </c>
       <c r="C47" t="n">
-        <v>1.42444</v>
+        <v>1.34092</v>
       </c>
       <c r="D47" t="n">
-        <v>1.1305</v>
+        <v>1.01214</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8919859999999999</v>
+        <v>0.851407</v>
       </c>
       <c r="C48" t="n">
-        <v>1.42025</v>
+        <v>1.39658</v>
       </c>
       <c r="D48" t="n">
-        <v>1.14956</v>
+        <v>1.08459</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.919211</v>
+        <v>0.866134</v>
       </c>
       <c r="C49" t="n">
-        <v>1.51866</v>
+        <v>1.44758</v>
       </c>
       <c r="D49" t="n">
-        <v>1.17302</v>
+        <v>1.10659</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.921895</v>
+        <v>0.904273</v>
       </c>
       <c r="C50" t="n">
-        <v>1.57138</v>
+        <v>1.4982</v>
       </c>
       <c r="D50" t="n">
-        <v>1.21571</v>
+        <v>1.17395</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.982553</v>
+        <v>0.899637</v>
       </c>
       <c r="C51" t="n">
-        <v>1.60851</v>
+        <v>1.59674</v>
       </c>
       <c r="D51" t="n">
-        <v>1.25688</v>
+        <v>1.19897</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.989986</v>
+        <v>0.948921</v>
       </c>
       <c r="C52" t="n">
-        <v>1.64371</v>
+        <v>1.63322</v>
       </c>
       <c r="D52" t="n">
-        <v>1.30064</v>
+        <v>1.22705</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.01742</v>
+        <v>0.960741</v>
       </c>
       <c r="C53" t="n">
-        <v>1.75019</v>
+        <v>1.69429</v>
       </c>
       <c r="D53" t="n">
-        <v>1.31305</v>
+        <v>1.27872</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.03645</v>
+        <v>1.01918</v>
       </c>
       <c r="C54" t="n">
-        <v>1.75618</v>
+        <v>1.7069</v>
       </c>
       <c r="D54" t="n">
-        <v>1.41647</v>
+        <v>1.37705</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.06739</v>
+        <v>1.04675</v>
       </c>
       <c r="C55" t="n">
-        <v>1.79223</v>
+        <v>1.79421</v>
       </c>
       <c r="D55" t="n">
-        <v>1.45317</v>
+        <v>1.4011</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.09978</v>
+        <v>1.05571</v>
       </c>
       <c r="C56" t="n">
-        <v>1.89137</v>
+        <v>1.85602</v>
       </c>
       <c r="D56" t="n">
-        <v>1.53334</v>
+        <v>1.46487</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.1525</v>
+        <v>1.07435</v>
       </c>
       <c r="C57" t="n">
-        <v>1.96128</v>
+        <v>1.92603</v>
       </c>
       <c r="D57" t="n">
-        <v>1.5557</v>
+        <v>1.50878</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.16412</v>
+        <v>1.11991</v>
       </c>
       <c r="C58" t="n">
-        <v>2.01111</v>
+        <v>2.04122</v>
       </c>
       <c r="D58" t="n">
-        <v>1.64927</v>
+        <v>1.57299</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.24074</v>
+        <v>1.15733</v>
       </c>
       <c r="C59" t="n">
-        <v>2.10646</v>
+        <v>2.03945</v>
       </c>
       <c r="D59" t="n">
-        <v>1.69825</v>
+        <v>1.62673</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.47728</v>
+        <v>1.36597</v>
       </c>
       <c r="C60" t="n">
-        <v>2.33823</v>
+        <v>2.16194</v>
       </c>
       <c r="D60" t="n">
-        <v>1.77511</v>
+        <v>1.68899</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.45123</v>
+        <v>1.39518</v>
       </c>
       <c r="C61" t="n">
-        <v>2.23394</v>
+        <v>2.18576</v>
       </c>
       <c r="D61" t="n">
-        <v>1.81231</v>
+        <v>1.73168</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.48599</v>
+        <v>1.43461</v>
       </c>
       <c r="C62" t="n">
-        <v>2.33442</v>
+        <v>2.34165</v>
       </c>
       <c r="D62" t="n">
-        <v>1.89816</v>
+        <v>1.79083</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.52912</v>
+        <v>1.44684</v>
       </c>
       <c r="C63" t="n">
-        <v>2.40063</v>
+        <v>2.34942</v>
       </c>
       <c r="D63" t="n">
-        <v>2.02262</v>
+        <v>1.88726</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.58231</v>
+        <v>1.48785</v>
       </c>
       <c r="C64" t="n">
-        <v>2.64732</v>
+        <v>2.42956</v>
       </c>
       <c r="D64" t="n">
-        <v>2.04062</v>
+        <v>1.90602</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.61625</v>
+        <v>1.51023</v>
       </c>
       <c r="C65" t="n">
-        <v>2.6307</v>
+        <v>2.45682</v>
       </c>
       <c r="D65" t="n">
-        <v>2.10352</v>
+        <v>2.06173</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.64404</v>
+        <v>1.55413</v>
       </c>
       <c r="C66" t="n">
-        <v>2.65224</v>
+        <v>2.61152</v>
       </c>
       <c r="D66" t="n">
-        <v>2.14824</v>
+        <v>2.04725</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.73053</v>
+        <v>1.62308</v>
       </c>
       <c r="C67" t="n">
-        <v>2.71944</v>
+        <v>2.64209</v>
       </c>
       <c r="D67" t="n">
-        <v>2.2928</v>
+        <v>2.11837</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.78972</v>
+        <v>1.61837</v>
       </c>
       <c r="C68" t="n">
-        <v>2.70991</v>
+        <v>2.63063</v>
       </c>
       <c r="D68" t="n">
-        <v>2.39205</v>
+        <v>2.28782</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.75674</v>
+        <v>1.67867</v>
       </c>
       <c r="C69" t="n">
-        <v>2.76613</v>
+        <v>2.73469</v>
       </c>
       <c r="D69" t="n">
-        <v>2.40277</v>
+        <v>2.37693</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.80367</v>
+        <v>1.70132</v>
       </c>
       <c r="C70" t="n">
-        <v>2.80111</v>
+        <v>2.74814</v>
       </c>
       <c r="D70" t="n">
-        <v>2.51559</v>
+        <v>2.57592</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.8126</v>
+        <v>1.80961</v>
       </c>
       <c r="C71" t="n">
-        <v>2.86847</v>
+        <v>2.84804</v>
       </c>
       <c r="D71" t="n">
-        <v>2.76697</v>
+        <v>2.57899</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.93052</v>
+        <v>1.84528</v>
       </c>
       <c r="C72" t="n">
-        <v>2.98275</v>
+        <v>2.99115</v>
       </c>
       <c r="D72" t="n">
-        <v>2.65072</v>
+        <v>2.73511</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.86173</v>
+        <v>1.81988</v>
       </c>
       <c r="C73" t="n">
-        <v>3.02159</v>
+        <v>3.08354</v>
       </c>
       <c r="D73" t="n">
-        <v>2.71482</v>
+        <v>2.68646</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.06711</v>
+        <v>1.9775</v>
       </c>
       <c r="C74" t="n">
-        <v>3.05745</v>
+        <v>3.15396</v>
       </c>
       <c r="D74" t="n">
-        <v>2.74013</v>
+        <v>2.7155</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.19759</v>
+        <v>2.04555</v>
       </c>
       <c r="C75" t="n">
-        <v>3.18134</v>
+        <v>3.16353</v>
       </c>
       <c r="D75" t="n">
-        <v>2.83952</v>
+        <v>2.79681</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.18752</v>
+        <v>2.07243</v>
       </c>
       <c r="C76" t="n">
-        <v>3.24674</v>
+        <v>3.2982</v>
       </c>
       <c r="D76" t="n">
-        <v>2.84957</v>
+        <v>2.8889</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.22187</v>
+        <v>2.08165</v>
       </c>
       <c r="C77" t="n">
-        <v>3.34055</v>
+        <v>3.31709</v>
       </c>
       <c r="D77" t="n">
-        <v>2.96644</v>
+        <v>2.95162</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.2057</v>
+        <v>2.19791</v>
       </c>
       <c r="C78" t="n">
-        <v>3.44311</v>
+        <v>3.36287</v>
       </c>
       <c r="D78" t="n">
-        <v>3.11018</v>
+        <v>2.90976</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.26651</v>
+        <v>2.19494</v>
       </c>
       <c r="C79" t="n">
-        <v>3.5291</v>
+        <v>3.58771</v>
       </c>
       <c r="D79" t="n">
-        <v>3.07109</v>
+        <v>3.03531</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.30396</v>
+        <v>2.19839</v>
       </c>
       <c r="C80" t="n">
-        <v>3.85501</v>
+        <v>3.63377</v>
       </c>
       <c r="D80" t="n">
-        <v>3.19136</v>
+        <v>3.0712</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.32782</v>
+        <v>2.22497</v>
       </c>
       <c r="C81" t="n">
-        <v>3.83481</v>
+        <v>3.70637</v>
       </c>
       <c r="D81" t="n">
-        <v>3.68614</v>
+        <v>3.12421</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.61388</v>
+        <v>2.24804</v>
       </c>
       <c r="C82" t="n">
-        <v>3.79242</v>
+        <v>3.78419</v>
       </c>
       <c r="D82" t="n">
-        <v>3.40597</v>
+        <v>3.22468</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.36408</v>
+        <v>2.27612</v>
       </c>
       <c r="C83" t="n">
-        <v>3.73378</v>
+        <v>3.89206</v>
       </c>
       <c r="D83" t="n">
-        <v>3.51755</v>
+        <v>3.37431</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.43646</v>
+        <v>2.28237</v>
       </c>
       <c r="C84" t="n">
-        <v>3.98012</v>
+        <v>3.83068</v>
       </c>
       <c r="D84" t="n">
-        <v>3.63109</v>
+        <v>3.41694</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.51224</v>
+        <v>2.34426</v>
       </c>
       <c r="C85" t="n">
-        <v>3.91331</v>
+        <v>3.86737</v>
       </c>
       <c r="D85" t="n">
-        <v>3.67273</v>
+        <v>3.59072</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.53206</v>
+        <v>2.3733</v>
       </c>
       <c r="C86" t="n">
-        <v>3.98589</v>
+        <v>4.05589</v>
       </c>
       <c r="D86" t="n">
-        <v>3.69959</v>
+        <v>3.48451</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.57915</v>
+        <v>2.36311</v>
       </c>
       <c r="C87" t="n">
-        <v>4.06669</v>
+        <v>4.07787</v>
       </c>
       <c r="D87" t="n">
-        <v>3.63268</v>
+        <v>3.4801</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.6066</v>
+        <v>2.41718</v>
       </c>
       <c r="C88" t="n">
-        <v>4.10743</v>
+        <v>4.03261</v>
       </c>
       <c r="D88" t="n">
-        <v>3.73014</v>
+        <v>3.65573</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.84563</v>
+        <v>2.5412</v>
       </c>
       <c r="C89" t="n">
-        <v>4.34194</v>
+        <v>4.1207</v>
       </c>
       <c r="D89" t="n">
-        <v>3.81876</v>
+        <v>3.58921</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.78206</v>
+        <v>2.5807</v>
       </c>
       <c r="C90" t="n">
-        <v>4.28793</v>
+        <v>4.27085</v>
       </c>
       <c r="D90" t="n">
-        <v>3.94157</v>
+        <v>3.69492</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.74789</v>
+        <v>2.61741</v>
       </c>
       <c r="C91" t="n">
-        <v>4.51459</v>
+        <v>4.29135</v>
       </c>
       <c r="D91" t="n">
-        <v>3.92082</v>
+        <v>3.77765</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.81433</v>
+        <v>2.65155</v>
       </c>
       <c r="C92" t="n">
-        <v>4.57261</v>
+        <v>4.44847</v>
       </c>
       <c r="D92" t="n">
-        <v>3.99117</v>
+        <v>3.84785</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.86713</v>
+        <v>2.64588</v>
       </c>
       <c r="C93" t="n">
-        <v>4.58039</v>
+        <v>4.4424</v>
       </c>
       <c r="D93" t="n">
-        <v>3.9809</v>
+        <v>3.8184</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.83536</v>
+        <v>2.67672</v>
       </c>
       <c r="C94" t="n">
-        <v>4.84282</v>
+        <v>4.46391</v>
       </c>
       <c r="D94" t="n">
-        <v>4.02273</v>
+        <v>3.83196</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.93169</v>
+        <v>2.67639</v>
       </c>
       <c r="C95" t="n">
-        <v>4.84263</v>
+        <v>4.61753</v>
       </c>
       <c r="D95" t="n">
-        <v>4.09991</v>
+        <v>3.8553</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.91354</v>
+        <v>2.62209</v>
       </c>
       <c r="C96" t="n">
-        <v>4.8597</v>
+        <v>4.73149</v>
       </c>
       <c r="D96" t="n">
-        <v>4.17031</v>
+        <v>3.84003</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.95279</v>
+        <v>2.67764</v>
       </c>
       <c r="C97" t="n">
-        <v>4.49803</v>
+        <v>4.4603</v>
       </c>
       <c r="D97" t="n">
-        <v>4.23965</v>
+        <v>4.09108</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.94261</v>
+        <v>2.68457</v>
       </c>
       <c r="C98" t="n">
-        <v>4.59564</v>
+        <v>4.4987</v>
       </c>
       <c r="D98" t="n">
-        <v>4.22154</v>
+        <v>3.97716</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.94919</v>
+        <v>2.78319</v>
       </c>
       <c r="C99" t="n">
-        <v>4.61389</v>
+        <v>4.51845</v>
       </c>
       <c r="D99" t="n">
-        <v>4.22265</v>
+        <v>4.01792</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.98634</v>
+        <v>2.73973</v>
       </c>
       <c r="C100" t="n">
-        <v>4.69011</v>
+        <v>4.58222</v>
       </c>
       <c r="D100" t="n">
-        <v>4.24738</v>
+        <v>4.07059</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.97013</v>
+        <v>2.73842</v>
       </c>
       <c r="C101" t="n">
-        <v>4.76256</v>
+        <v>4.7261</v>
       </c>
       <c r="D101" t="n">
-        <v>4.30572</v>
+        <v>4.1237</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.04458</v>
+        <v>2.79045</v>
       </c>
       <c r="C102" t="n">
-        <v>4.78307</v>
+        <v>4.72895</v>
       </c>
       <c r="D102" t="n">
-        <v>4.33883</v>
+        <v>4.18523</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.17972</v>
+        <v>2.90996</v>
       </c>
       <c r="C103" t="n">
-        <v>4.87556</v>
+        <v>4.78941</v>
       </c>
       <c r="D103" t="n">
-        <v>4.30972</v>
+        <v>4.24789</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.20011</v>
+        <v>2.89189</v>
       </c>
       <c r="C104" t="n">
-        <v>4.98772</v>
+        <v>4.90024</v>
       </c>
       <c r="D104" t="n">
-        <v>4.32342</v>
+        <v>4.17761</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.16951</v>
+        <v>2.87919</v>
       </c>
       <c r="C105" t="n">
-        <v>5.07225</v>
+        <v>5.00602</v>
       </c>
       <c r="D105" t="n">
-        <v>4.37689</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.20552</v>
+        <v>2.96068</v>
       </c>
       <c r="C106" t="n">
-        <v>5.13817</v>
+        <v>5.12395</v>
       </c>
       <c r="D106" t="n">
-        <v>4.49193</v>
+        <v>4.24506</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.2392</v>
+        <v>2.96154</v>
       </c>
       <c r="C107" t="n">
-        <v>5.1148</v>
+        <v>5.15579</v>
       </c>
       <c r="D107" t="n">
-        <v>4.44545</v>
+        <v>4.28677</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.20463</v>
+        <v>2.99214</v>
       </c>
       <c r="C108" t="n">
-        <v>5.2361</v>
+        <v>5.23731</v>
       </c>
       <c r="D108" t="n">
-        <v>4.4898</v>
+        <v>4.32702</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.28196</v>
+        <v>3.04572</v>
       </c>
       <c r="C109" t="n">
-        <v>5.39843</v>
+        <v>5.28434</v>
       </c>
       <c r="D109" t="n">
-        <v>4.49768</v>
+        <v>4.35849</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.22462</v>
+        <v>3.04703</v>
       </c>
       <c r="C110" t="n">
-        <v>5.43479</v>
+        <v>5.45164</v>
       </c>
       <c r="D110" t="n">
-        <v>4.56666</v>
+        <v>4.39776</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.29088</v>
+        <v>3.01146</v>
       </c>
       <c r="C111" t="n">
-        <v>5.04837</v>
+        <v>5.04472</v>
       </c>
       <c r="D111" t="n">
-        <v>4.65248</v>
+        <v>4.50966</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.31954</v>
+        <v>3.04707</v>
       </c>
       <c r="C112" t="n">
-        <v>5.14128</v>
+        <v>5.13833</v>
       </c>
       <c r="D112" t="n">
-        <v>4.67398</v>
+        <v>4.59348</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.28581</v>
+        <v>3.12283</v>
       </c>
       <c r="C113" t="n">
-        <v>5.1727</v>
+        <v>5.20545</v>
       </c>
       <c r="D113" t="n">
-        <v>4.75392</v>
+        <v>4.64478</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.35171</v>
+        <v>3.11559</v>
       </c>
       <c r="C114" t="n">
-        <v>5.34061</v>
+        <v>5.22257</v>
       </c>
       <c r="D114" t="n">
-        <v>4.7233</v>
+        <v>4.64651</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.42611</v>
+        <v>3.12313</v>
       </c>
       <c r="C115" t="n">
-        <v>5.40004</v>
+        <v>5.34687</v>
       </c>
       <c r="D115" t="n">
-        <v>4.84862</v>
+        <v>4.63788</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.40415</v>
+        <v>3.15583</v>
       </c>
       <c r="C116" t="n">
-        <v>5.46082</v>
+        <v>5.37737</v>
       </c>
       <c r="D116" t="n">
-        <v>4.87322</v>
+        <v>4.70258</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.56068</v>
+        <v>3.30584</v>
       </c>
       <c r="C117" t="n">
-        <v>5.49647</v>
+        <v>5.53776</v>
       </c>
       <c r="D117" t="n">
-        <v>4.88986</v>
+        <v>4.71148</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.5814</v>
+        <v>3.3335</v>
       </c>
       <c r="C118" t="n">
-        <v>5.6452</v>
+        <v>5.60318</v>
       </c>
       <c r="D118" t="n">
-        <v>4.99788</v>
+        <v>4.73863</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.64449</v>
+        <v>3.36511</v>
       </c>
       <c r="C119" t="n">
-        <v>5.71751</v>
+        <v>5.73916</v>
       </c>
       <c r="D119" t="n">
-        <v>4.99862</v>
+        <v>4.83751</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.398895</v>
+        <v>0.434176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.599346</v>
+        <v>0.622761</v>
       </c>
       <c r="D2" t="n">
-        <v>0.377292</v>
+        <v>0.394344</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.409732</v>
+        <v>0.419743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.601596</v>
+        <v>0.619372</v>
       </c>
       <c r="D3" t="n">
-        <v>0.382828</v>
+        <v>0.389621</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.411875</v>
+        <v>0.410878</v>
       </c>
       <c r="C4" t="n">
-        <v>0.607982</v>
+        <v>0.615546</v>
       </c>
       <c r="D4" t="n">
-        <v>0.387965</v>
+        <v>0.39493</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.42452</v>
+        <v>0.421152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.596741</v>
+        <v>0.6194229999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.387496</v>
+        <v>0.404315</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.414525</v>
+        <v>0.424695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.606112</v>
+        <v>0.60912</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39633</v>
+        <v>0.396832</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425516</v>
+        <v>0.414128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.613483</v>
+        <v>0.621887</v>
       </c>
       <c r="D7" t="n">
-        <v>0.383733</v>
+        <v>0.387934</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.427057</v>
+        <v>0.428744</v>
       </c>
       <c r="C8" t="n">
-        <v>0.620193</v>
+        <v>0.630153</v>
       </c>
       <c r="D8" t="n">
-        <v>0.395036</v>
+        <v>0.391158</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.427093</v>
+        <v>0.429603</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6152300000000001</v>
+        <v>0.629311</v>
       </c>
       <c r="D9" t="n">
-        <v>0.394772</v>
+        <v>0.397756</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.444031</v>
+        <v>0.428669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6227200000000001</v>
+        <v>0.618783</v>
       </c>
       <c r="D10" t="n">
-        <v>0.399151</v>
+        <v>0.399582</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.434522</v>
+        <v>0.446831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.632478</v>
+        <v>0.638734</v>
       </c>
       <c r="D11" t="n">
-        <v>0.403644</v>
+        <v>0.399159</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.44446</v>
+        <v>0.440739</v>
       </c>
       <c r="C12" t="n">
-        <v>0.633999</v>
+        <v>0.6468739999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.404528</v>
+        <v>0.409328</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.423005</v>
+        <v>0.41856</v>
       </c>
       <c r="C13" t="n">
-        <v>0.635538</v>
+        <v>0.642198</v>
       </c>
       <c r="D13" t="n">
-        <v>0.413192</v>
+        <v>0.408402</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.435966</v>
+        <v>0.424624</v>
       </c>
       <c r="C14" t="n">
-        <v>0.623353</v>
+        <v>0.637395</v>
       </c>
       <c r="D14" t="n">
-        <v>0.410135</v>
+        <v>0.412955</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.42383</v>
+        <v>0.429867</v>
       </c>
       <c r="C15" t="n">
-        <v>0.625167</v>
+        <v>0.640469</v>
       </c>
       <c r="D15" t="n">
-        <v>0.417803</v>
+        <v>0.418167</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.436384</v>
+        <v>0.430914</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6306659999999999</v>
+        <v>0.65195</v>
       </c>
       <c r="D16" t="n">
-        <v>0.411554</v>
+        <v>0.428558</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.43653</v>
+        <v>0.441843</v>
       </c>
       <c r="C17" t="n">
-        <v>0.629642</v>
+        <v>0.6343800000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.426191</v>
+        <v>0.416243</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.447898</v>
+        <v>0.447915</v>
       </c>
       <c r="C18" t="n">
-        <v>0.636097</v>
+        <v>0.652022</v>
       </c>
       <c r="D18" t="n">
-        <v>0.432416</v>
+        <v>0.431414</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.445179</v>
+        <v>0.435597</v>
       </c>
       <c r="C19" t="n">
-        <v>0.638633</v>
+        <v>0.644983</v>
       </c>
       <c r="D19" t="n">
-        <v>0.442196</v>
+        <v>0.422699</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.44734</v>
+        <v>0.462119</v>
       </c>
       <c r="C20" t="n">
-        <v>0.639783</v>
+        <v>0.64275</v>
       </c>
       <c r="D20" t="n">
-        <v>0.446718</v>
+        <v>0.438354</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.455956</v>
+        <v>0.46727</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6563909999999999</v>
+        <v>0.671543</v>
       </c>
       <c r="D21" t="n">
-        <v>0.446293</v>
+        <v>0.444711</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.459516</v>
+        <v>0.476132</v>
       </c>
       <c r="C22" t="n">
-        <v>0.658714</v>
+        <v>0.693715</v>
       </c>
       <c r="D22" t="n">
-        <v>0.428845</v>
+        <v>0.433415</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.469821</v>
+        <v>0.477166</v>
       </c>
       <c r="C23" t="n">
-        <v>0.664452</v>
+        <v>0.673893</v>
       </c>
       <c r="D23" t="n">
-        <v>0.439311</v>
+        <v>0.438066</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.499519</v>
+        <v>0.460873</v>
       </c>
       <c r="C24" t="n">
-        <v>0.66151</v>
+        <v>0.680925</v>
       </c>
       <c r="D24" t="n">
-        <v>0.438076</v>
+        <v>0.445065</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.479291</v>
+        <v>0.464728</v>
       </c>
       <c r="C25" t="n">
-        <v>0.679207</v>
+        <v>0.672786</v>
       </c>
       <c r="D25" t="n">
-        <v>0.484316</v>
+        <v>0.443754</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.523663</v>
+        <v>0.529898</v>
       </c>
       <c r="C26" t="n">
-        <v>0.677956</v>
+        <v>0.688652</v>
       </c>
       <c r="D26" t="n">
-        <v>0.467267</v>
+        <v>0.465342</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.522742</v>
+        <v>0.540371</v>
       </c>
       <c r="C27" t="n">
-        <v>0.689998</v>
+        <v>0.692484</v>
       </c>
       <c r="D27" t="n">
-        <v>0.476587</v>
+        <v>0.463144</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.550548</v>
+        <v>0.562462</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6742899999999999</v>
+        <v>0.696964</v>
       </c>
       <c r="D28" t="n">
-        <v>0.466892</v>
+        <v>0.485237</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.539363</v>
+        <v>0.571891</v>
       </c>
       <c r="C29" t="n">
-        <v>0.681326</v>
+        <v>0.714449</v>
       </c>
       <c r="D29" t="n">
-        <v>0.480002</v>
+        <v>0.504439</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.579033</v>
+        <v>0.5726290000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.704117</v>
+        <v>0.707138</v>
       </c>
       <c r="D30" t="n">
-        <v>0.498932</v>
+        <v>0.495945</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5911380000000001</v>
+        <v>0.588414</v>
       </c>
       <c r="C31" t="n">
-        <v>0.69381</v>
+        <v>0.72127</v>
       </c>
       <c r="D31" t="n">
-        <v>0.516813</v>
+        <v>0.528014</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.609177</v>
+        <v>0.5938560000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.704661</v>
+        <v>0.708649</v>
       </c>
       <c r="D32" t="n">
-        <v>0.53412</v>
+        <v>0.514303</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.618626</v>
+        <v>0.628952</v>
       </c>
       <c r="C33" t="n">
-        <v>0.705852</v>
+        <v>0.722781</v>
       </c>
       <c r="D33" t="n">
-        <v>0.573998</v>
+        <v>0.532907</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.609632</v>
+        <v>0.623708</v>
       </c>
       <c r="C34" t="n">
-        <v>0.742457</v>
+        <v>0.725864</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5551779999999999</v>
+        <v>0.53649</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.63774</v>
+        <v>0.636303</v>
       </c>
       <c r="C35" t="n">
-        <v>0.790445</v>
+        <v>0.800751</v>
       </c>
       <c r="D35" t="n">
-        <v>0.63934</v>
+        <v>0.633599</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.662187</v>
+        <v>0.658606</v>
       </c>
       <c r="C36" t="n">
-        <v>0.810003</v>
+        <v>0.8062589999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.665752</v>
+        <v>0.658382</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.672445</v>
+        <v>0.691389</v>
       </c>
       <c r="C37" t="n">
-        <v>0.815688</v>
+        <v>0.81455</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6603599999999999</v>
+        <v>0.681686</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.69303</v>
+        <v>0.694789</v>
       </c>
       <c r="C38" t="n">
-        <v>0.818624</v>
+        <v>0.832553</v>
       </c>
       <c r="D38" t="n">
-        <v>0.683001</v>
+        <v>0.705168</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.707306</v>
+        <v>0.709223</v>
       </c>
       <c r="C39" t="n">
-        <v>0.822763</v>
+        <v>0.858047</v>
       </c>
       <c r="D39" t="n">
-        <v>0.722467</v>
+        <v>0.687708</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.727123</v>
+        <v>0.729725</v>
       </c>
       <c r="C40" t="n">
-        <v>0.838543</v>
+        <v>0.861629</v>
       </c>
       <c r="D40" t="n">
-        <v>0.719736</v>
+        <v>0.704619</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.835047</v>
+        <v>0.868637</v>
       </c>
       <c r="C41" t="n">
-        <v>0.85893</v>
+        <v>0.863012</v>
       </c>
       <c r="D41" t="n">
-        <v>0.749023</v>
+        <v>0.7473</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.859535</v>
+        <v>0.878857</v>
       </c>
       <c r="C42" t="n">
-        <v>0.863081</v>
+        <v>0.883742</v>
       </c>
       <c r="D42" t="n">
-        <v>0.756281</v>
+        <v>0.767106</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.879118</v>
+        <v>0.896389</v>
       </c>
       <c r="C43" t="n">
-        <v>0.893265</v>
+        <v>0.883558</v>
       </c>
       <c r="D43" t="n">
-        <v>0.792248</v>
+        <v>0.783142</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.905039</v>
+        <v>0.932496</v>
       </c>
       <c r="C44" t="n">
-        <v>0.917509</v>
+        <v>0.921154</v>
       </c>
       <c r="D44" t="n">
-        <v>0.80979</v>
+        <v>0.806694</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.934788</v>
+        <v>0.935676</v>
       </c>
       <c r="C45" t="n">
-        <v>0.930974</v>
+        <v>0.938572</v>
       </c>
       <c r="D45" t="n">
-        <v>0.82792</v>
+        <v>0.820684</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.957999</v>
+        <v>0.9632579999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.942481</v>
+        <v>0.957039</v>
       </c>
       <c r="D46" t="n">
-        <v>0.851583</v>
+        <v>0.8455859999999999</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>1.00201</v>
+        <v>0.9910060000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.992519</v>
+        <v>0.999728</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8741139999999999</v>
+        <v>0.883501</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.03794</v>
+        <v>1.01532</v>
       </c>
       <c r="C48" t="n">
-        <v>1.03932</v>
+        <v>1.03781</v>
       </c>
       <c r="D48" t="n">
-        <v>0.912208</v>
+        <v>0.908338</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.04203</v>
+        <v>1.02368</v>
       </c>
       <c r="C49" t="n">
-        <v>1.04592</v>
+        <v>1.05196</v>
       </c>
       <c r="D49" t="n">
-        <v>0.936845</v>
+        <v>0.92379</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.06972</v>
+        <v>1.07884</v>
       </c>
       <c r="C50" t="n">
-        <v>1.26954</v>
+        <v>1.25394</v>
       </c>
       <c r="D50" t="n">
-        <v>1.14804</v>
+        <v>1.14144</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.11332</v>
+        <v>1.10789</v>
       </c>
       <c r="C51" t="n">
-        <v>1.28795</v>
+        <v>1.27369</v>
       </c>
       <c r="D51" t="n">
-        <v>1.16408</v>
+        <v>1.13917</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.14816</v>
+        <v>1.10544</v>
       </c>
       <c r="C52" t="n">
-        <v>1.30083</v>
+        <v>1.29441</v>
       </c>
       <c r="D52" t="n">
-        <v>1.20534</v>
+        <v>1.19062</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.21925</v>
+        <v>1.16292</v>
       </c>
       <c r="C53" t="n">
-        <v>1.31896</v>
+        <v>1.31869</v>
       </c>
       <c r="D53" t="n">
-        <v>1.20316</v>
+        <v>1.19644</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.24222</v>
+        <v>1.20813</v>
       </c>
       <c r="C54" t="n">
-        <v>1.36757</v>
+        <v>1.37374</v>
       </c>
       <c r="D54" t="n">
-        <v>1.25046</v>
+        <v>1.25843</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2777</v>
+        <v>1.2477</v>
       </c>
       <c r="C55" t="n">
-        <v>1.41134</v>
+        <v>1.39926</v>
       </c>
       <c r="D55" t="n">
-        <v>1.27519</v>
+        <v>1.26912</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.43487</v>
+        <v>1.41811</v>
       </c>
       <c r="C56" t="n">
-        <v>1.43156</v>
+        <v>1.42605</v>
       </c>
       <c r="D56" t="n">
-        <v>1.31372</v>
+        <v>1.32369</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.53593</v>
+        <v>1.48183</v>
       </c>
       <c r="C57" t="n">
-        <v>1.44324</v>
+        <v>1.47284</v>
       </c>
       <c r="D57" t="n">
-        <v>1.33686</v>
+        <v>1.33579</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.53463</v>
+        <v>1.5325</v>
       </c>
       <c r="C58" t="n">
-        <v>1.51717</v>
+        <v>1.5248</v>
       </c>
       <c r="D58" t="n">
-        <v>1.41251</v>
+        <v>1.40545</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.65097</v>
+        <v>1.5615</v>
       </c>
       <c r="C59" t="n">
-        <v>1.57882</v>
+        <v>1.53898</v>
       </c>
       <c r="D59" t="n">
-        <v>1.42363</v>
+        <v>1.44363</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.6475</v>
+        <v>1.60079</v>
       </c>
       <c r="C60" t="n">
-        <v>1.61582</v>
+        <v>1.61265</v>
       </c>
       <c r="D60" t="n">
-        <v>1.52566</v>
+        <v>1.48855</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.72162</v>
+        <v>1.66752</v>
       </c>
       <c r="C61" t="n">
-        <v>1.65717</v>
+        <v>1.63937</v>
       </c>
       <c r="D61" t="n">
-        <v>1.60329</v>
+        <v>1.53414</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.76952</v>
+        <v>1.70052</v>
       </c>
       <c r="C62" t="n">
-        <v>1.62011</v>
+        <v>1.60123</v>
       </c>
       <c r="D62" t="n">
-        <v>1.64445</v>
+        <v>1.64217</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.70694</v>
+        <v>1.75102</v>
       </c>
       <c r="C63" t="n">
-        <v>1.601</v>
+        <v>1.77663</v>
       </c>
       <c r="D63" t="n">
-        <v>1.61707</v>
+        <v>1.67936</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.72655</v>
+        <v>1.72986</v>
       </c>
       <c r="C64" t="n">
-        <v>1.81141</v>
+        <v>1.88827</v>
       </c>
       <c r="D64" t="n">
-        <v>1.88152</v>
+        <v>1.92975</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.76423</v>
+        <v>1.7778</v>
       </c>
       <c r="C65" t="n">
-        <v>1.80252</v>
+        <v>1.82251</v>
       </c>
       <c r="D65" t="n">
-        <v>1.91983</v>
+        <v>1.97999</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.80498</v>
+        <v>1.78155</v>
       </c>
       <c r="C66" t="n">
-        <v>1.83384</v>
+        <v>1.9379</v>
       </c>
       <c r="D66" t="n">
-        <v>1.99254</v>
+        <v>1.99479</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.81899</v>
+        <v>1.85189</v>
       </c>
       <c r="C67" t="n">
-        <v>1.86273</v>
+        <v>1.8999</v>
       </c>
       <c r="D67" t="n">
-        <v>1.99173</v>
+        <v>2.03631</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.89529</v>
+        <v>1.96404</v>
       </c>
       <c r="C68" t="n">
-        <v>1.89601</v>
+        <v>1.89267</v>
       </c>
       <c r="D68" t="n">
-        <v>2.04927</v>
+        <v>2.09413</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.89876</v>
+        <v>1.99828</v>
       </c>
       <c r="C69" t="n">
-        <v>1.94968</v>
+        <v>2.06073</v>
       </c>
       <c r="D69" t="n">
-        <v>2.1217</v>
+        <v>2.24091</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.01303</v>
+        <v>2.08569</v>
       </c>
       <c r="C70" t="n">
-        <v>1.92449</v>
+        <v>2.05662</v>
       </c>
       <c r="D70" t="n">
-        <v>2.168</v>
+        <v>2.15471</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.05186</v>
+        <v>2.06142</v>
       </c>
       <c r="C71" t="n">
-        <v>1.90617</v>
+        <v>1.93417</v>
       </c>
       <c r="D71" t="n">
-        <v>2.15957</v>
+        <v>2.16357</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.05383</v>
+        <v>2.05189</v>
       </c>
       <c r="C72" t="n">
-        <v>1.95396</v>
+        <v>1.97476</v>
       </c>
       <c r="D72" t="n">
-        <v>2.18274</v>
+        <v>2.22542</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.2022</v>
+        <v>2.09419</v>
       </c>
       <c r="C73" t="n">
-        <v>2.10078</v>
+        <v>1.98103</v>
       </c>
       <c r="D73" t="n">
-        <v>2.37364</v>
+        <v>2.31347</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.10876</v>
+        <v>2.16686</v>
       </c>
       <c r="C74" t="n">
-        <v>2.0311</v>
+        <v>2.10675</v>
       </c>
       <c r="D74" t="n">
-        <v>2.27173</v>
+        <v>2.33183</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.1827</v>
+        <v>2.14825</v>
       </c>
       <c r="C75" t="n">
-        <v>2.05861</v>
+        <v>2.07492</v>
       </c>
       <c r="D75" t="n">
-        <v>2.34619</v>
+        <v>2.31075</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.26012</v>
+        <v>2.17041</v>
       </c>
       <c r="C76" t="n">
-        <v>2.06569</v>
+        <v>2.06022</v>
       </c>
       <c r="D76" t="n">
-        <v>2.36767</v>
+        <v>2.38274</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.1822</v>
+        <v>2.28528</v>
       </c>
       <c r="C77" t="n">
-        <v>2.19102</v>
+        <v>2.15016</v>
       </c>
       <c r="D77" t="n">
-        <v>2.50538</v>
+        <v>2.4346</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.21715</v>
+        <v>2.28923</v>
       </c>
       <c r="C78" t="n">
-        <v>2.26163</v>
+        <v>2.38167</v>
       </c>
       <c r="D78" t="n">
-        <v>2.67603</v>
+        <v>2.71468</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.26049</v>
+        <v>2.34696</v>
       </c>
       <c r="C79" t="n">
-        <v>2.26586</v>
+        <v>2.40252</v>
       </c>
       <c r="D79" t="n">
-        <v>2.63294</v>
+        <v>2.59762</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.34226</v>
+        <v>2.26594</v>
       </c>
       <c r="C80" t="n">
-        <v>2.30304</v>
+        <v>2.34285</v>
       </c>
       <c r="D80" t="n">
-        <v>2.7121</v>
+        <v>2.70631</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.36609</v>
+        <v>2.30924</v>
       </c>
       <c r="C81" t="n">
-        <v>2.27859</v>
+        <v>2.35215</v>
       </c>
       <c r="D81" t="n">
-        <v>2.78071</v>
+        <v>2.72509</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.34906</v>
+        <v>2.28461</v>
       </c>
       <c r="C82" t="n">
-        <v>2.31516</v>
+        <v>2.31138</v>
       </c>
       <c r="D82" t="n">
-        <v>2.71506</v>
+        <v>2.81613</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.36061</v>
+        <v>2.3575</v>
       </c>
       <c r="C83" t="n">
-        <v>2.31957</v>
+        <v>2.32336</v>
       </c>
       <c r="D83" t="n">
-        <v>2.74618</v>
+        <v>2.83808</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.43506</v>
+        <v>2.41651</v>
       </c>
       <c r="C84" t="n">
-        <v>2.32137</v>
+        <v>2.39456</v>
       </c>
       <c r="D84" t="n">
-        <v>2.80853</v>
+        <v>2.84231</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.44554</v>
+        <v>2.47713</v>
       </c>
       <c r="C85" t="n">
-        <v>2.36585</v>
+        <v>2.35052</v>
       </c>
       <c r="D85" t="n">
-        <v>2.86163</v>
+        <v>2.86423</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.44198</v>
+        <v>2.5021</v>
       </c>
       <c r="C86" t="n">
-        <v>2.37517</v>
+        <v>2.40408</v>
       </c>
       <c r="D86" t="n">
-        <v>2.88963</v>
+        <v>2.94032</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.51331</v>
+        <v>2.4591</v>
       </c>
       <c r="C87" t="n">
-        <v>2.45756</v>
+        <v>2.40921</v>
       </c>
       <c r="D87" t="n">
-        <v>2.91145</v>
+        <v>2.92555</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48298</v>
+        <v>2.4899</v>
       </c>
       <c r="C88" t="n">
-        <v>2.44424</v>
+        <v>2.51802</v>
       </c>
       <c r="D88" t="n">
-        <v>2.98775</v>
+        <v>2.89336</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.55535</v>
+        <v>2.4877</v>
       </c>
       <c r="C89" t="n">
-        <v>2.46887</v>
+        <v>2.50311</v>
       </c>
       <c r="D89" t="n">
-        <v>2.96123</v>
+        <v>3.01146</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.5663</v>
+        <v>2.47637</v>
       </c>
       <c r="C90" t="n">
-        <v>2.48511</v>
+        <v>2.46896</v>
       </c>
       <c r="D90" t="n">
-        <v>2.99274</v>
+        <v>2.95838</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.59104</v>
+        <v>2.59</v>
       </c>
       <c r="C91" t="n">
-        <v>2.50973</v>
+        <v>2.51125</v>
       </c>
       <c r="D91" t="n">
-        <v>3.01383</v>
+        <v>2.92689</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.63589</v>
+        <v>2.53636</v>
       </c>
       <c r="C92" t="n">
-        <v>2.74235</v>
+        <v>2.71613</v>
       </c>
       <c r="D92" t="n">
-        <v>3.20386</v>
+        <v>3.17169</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.58788</v>
+        <v>2.53098</v>
       </c>
       <c r="C93" t="n">
-        <v>2.69046</v>
+        <v>2.73077</v>
       </c>
       <c r="D93" t="n">
-        <v>3.24244</v>
+        <v>3.20437</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.64732</v>
+        <v>2.57086</v>
       </c>
       <c r="C94" t="n">
-        <v>2.76895</v>
+        <v>2.75316</v>
       </c>
       <c r="D94" t="n">
-        <v>3.23776</v>
+        <v>3.32704</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.60965</v>
+        <v>2.58192</v>
       </c>
       <c r="C95" t="n">
-        <v>2.76875</v>
+        <v>2.7782</v>
       </c>
       <c r="D95" t="n">
-        <v>3.24582</v>
+        <v>3.29204</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.64668</v>
+        <v>2.61307</v>
       </c>
       <c r="C96" t="n">
-        <v>2.75736</v>
+        <v>2.88227</v>
       </c>
       <c r="D96" t="n">
-        <v>3.28161</v>
+        <v>3.29868</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.64839</v>
+        <v>2.63724</v>
       </c>
       <c r="C97" t="n">
-        <v>2.76053</v>
+        <v>2.7729</v>
       </c>
       <c r="D97" t="n">
-        <v>3.27288</v>
+        <v>3.33517</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.86794</v>
+        <v>2.72366</v>
       </c>
       <c r="C98" t="n">
-        <v>2.90342</v>
+        <v>2.88026</v>
       </c>
       <c r="D98" t="n">
-        <v>3.3324</v>
+        <v>3.25278</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.86582</v>
+        <v>2.80823</v>
       </c>
       <c r="C99" t="n">
-        <v>2.82437</v>
+        <v>2.85799</v>
       </c>
       <c r="D99" t="n">
-        <v>3.3594</v>
+        <v>3.28716</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.88629</v>
+        <v>2.80931</v>
       </c>
       <c r="C100" t="n">
-        <v>2.84911</v>
+        <v>2.92617</v>
       </c>
       <c r="D100" t="n">
-        <v>3.3643</v>
+        <v>3.32445</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.93469</v>
+        <v>2.8213</v>
       </c>
       <c r="C101" t="n">
-        <v>2.92278</v>
+        <v>2.8808</v>
       </c>
       <c r="D101" t="n">
-        <v>3.3798</v>
+        <v>3.32262</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.92656</v>
+        <v>2.89747</v>
       </c>
       <c r="C102" t="n">
-        <v>2.94667</v>
+        <v>2.97461</v>
       </c>
       <c r="D102" t="n">
-        <v>3.45354</v>
+        <v>3.37499</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.999</v>
+        <v>2.84736</v>
       </c>
       <c r="C103" t="n">
-        <v>2.98574</v>
+        <v>2.96577</v>
       </c>
       <c r="D103" t="n">
-        <v>3.4144</v>
+        <v>3.37922</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.95428</v>
+        <v>2.83246</v>
       </c>
       <c r="C104" t="n">
-        <v>2.96414</v>
+        <v>2.96616</v>
       </c>
       <c r="D104" t="n">
-        <v>3.49035</v>
+        <v>3.47735</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.94335</v>
+        <v>2.89298</v>
       </c>
       <c r="C105" t="n">
-        <v>3.02332</v>
+        <v>3.05613</v>
       </c>
       <c r="D105" t="n">
-        <v>3.46746</v>
+        <v>3.47027</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.98288</v>
+        <v>2.94324</v>
       </c>
       <c r="C106" t="n">
-        <v>3.04561</v>
+        <v>3.07765</v>
       </c>
       <c r="D106" t="n">
-        <v>3.5045</v>
+        <v>3.46932</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.99512</v>
+        <v>2.93299</v>
       </c>
       <c r="C107" t="n">
-        <v>3.3409</v>
+        <v>3.32963</v>
       </c>
       <c r="D107" t="n">
-        <v>3.93164</v>
+        <v>3.73979</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>3.17093</v>
+        <v>2.96427</v>
       </c>
       <c r="C108" t="n">
-        <v>3.47243</v>
+        <v>3.31148</v>
       </c>
       <c r="D108" t="n">
-        <v>3.82434</v>
+        <v>3.75238</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.10032</v>
+        <v>2.9673</v>
       </c>
       <c r="C109" t="n">
-        <v>3.45372</v>
+        <v>3.37426</v>
       </c>
       <c r="D109" t="n">
-        <v>3.90536</v>
+        <v>3.75639</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.20044</v>
+        <v>3.06938</v>
       </c>
       <c r="C110" t="n">
-        <v>3.53969</v>
+        <v>3.43789</v>
       </c>
       <c r="D110" t="n">
-        <v>3.91883</v>
+        <v>3.86862</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.18678</v>
+        <v>3.04175</v>
       </c>
       <c r="C111" t="n">
-        <v>3.5223</v>
+        <v>3.42664</v>
       </c>
       <c r="D111" t="n">
-        <v>3.9165</v>
+        <v>3.76318</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.34761</v>
+        <v>3.21652</v>
       </c>
       <c r="C112" t="n">
-        <v>3.51691</v>
+        <v>3.4047</v>
       </c>
       <c r="D112" t="n">
-        <v>3.94659</v>
+        <v>3.84919</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.32959</v>
+        <v>3.22358</v>
       </c>
       <c r="C113" t="n">
-        <v>3.4877</v>
+        <v>3.4446</v>
       </c>
       <c r="D113" t="n">
-        <v>4.03204</v>
+        <v>3.83835</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.36524</v>
+        <v>3.24684</v>
       </c>
       <c r="C114" t="n">
-        <v>3.47903</v>
+        <v>3.46097</v>
       </c>
       <c r="D114" t="n">
-        <v>4.01558</v>
+        <v>3.88184</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.43149</v>
+        <v>3.34867</v>
       </c>
       <c r="C115" t="n">
-        <v>3.57603</v>
+        <v>3.52865</v>
       </c>
       <c r="D115" t="n">
-        <v>4.0272</v>
+        <v>3.89721</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.44775</v>
+        <v>3.26992</v>
       </c>
       <c r="C116" t="n">
-        <v>3.58496</v>
+        <v>3.55165</v>
       </c>
       <c r="D116" t="n">
-        <v>4.04272</v>
+        <v>3.92775</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.52117</v>
+        <v>3.32751</v>
       </c>
       <c r="C117" t="n">
-        <v>3.63775</v>
+        <v>3.60219</v>
       </c>
       <c r="D117" t="n">
-        <v>4.18041</v>
+        <v>3.94765</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.58201</v>
+        <v>3.3744</v>
       </c>
       <c r="C118" t="n">
-        <v>3.69282</v>
+        <v>3.6136</v>
       </c>
       <c r="D118" t="n">
-        <v>4.19146</v>
+        <v>4.09054</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.55002</v>
+        <v>3.463</v>
       </c>
       <c r="C119" t="n">
-        <v>3.69686</v>
+        <v>3.68891</v>
       </c>
       <c r="D119" t="n">
-        <v>4.2102</v>
+        <v>4.18297</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.460438</v>
+        <v>0.456717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.784043</v>
+        <v>0.7806999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.533168</v>
+        <v>0.5525409999999999</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.463641</v>
+        <v>0.472582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.788613</v>
+        <v>0.810267</v>
       </c>
       <c r="D3" t="n">
-        <v>0.544925</v>
+        <v>0.547353</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.45977</v>
+        <v>0.468436</v>
       </c>
       <c r="C4" t="n">
-        <v>0.796349</v>
+        <v>0.821258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.542749</v>
+        <v>0.529851</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.462601</v>
+        <v>0.466353</v>
       </c>
       <c r="C5" t="n">
-        <v>0.781477</v>
+        <v>0.83192</v>
       </c>
       <c r="D5" t="n">
-        <v>0.542753</v>
+        <v>0.541988</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.456694</v>
+        <v>0.459106</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7945410000000001</v>
+        <v>0.806362</v>
       </c>
       <c r="D6" t="n">
-        <v>0.536979</v>
+        <v>0.535093</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.452387</v>
+        <v>0.460258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.792083</v>
+        <v>0.8097259999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.542022</v>
+        <v>0.543261</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.451549</v>
+        <v>0.457702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.796284</v>
+        <v>0.829528</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5549460000000001</v>
+        <v>0.549501</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.461001</v>
+        <v>0.463931</v>
       </c>
       <c r="C9" t="n">
-        <v>0.817338</v>
+        <v>0.821735</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5515370000000001</v>
+        <v>0.549749</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.464237</v>
+        <v>0.457164</v>
       </c>
       <c r="C10" t="n">
-        <v>0.822793</v>
+        <v>0.828449</v>
       </c>
       <c r="D10" t="n">
-        <v>0.555531</v>
+        <v>0.554002</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.461847</v>
+        <v>0.467824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.80692</v>
+        <v>0.821368</v>
       </c>
       <c r="D11" t="n">
-        <v>0.559903</v>
+        <v>0.5633899999999999</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.466132</v>
+        <v>0.466808</v>
       </c>
       <c r="C12" t="n">
-        <v>0.820958</v>
+        <v>0.8450260000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.559745</v>
+        <v>0.560635</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.476725</v>
+        <v>0.474023</v>
       </c>
       <c r="C13" t="n">
-        <v>0.806084</v>
+        <v>0.816952</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5772389999999999</v>
+        <v>0.567684</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.478589</v>
+        <v>0.481358</v>
       </c>
       <c r="C14" t="n">
-        <v>0.820547</v>
+        <v>0.844951</v>
       </c>
       <c r="D14" t="n">
-        <v>0.569402</v>
+        <v>0.580292</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.478182</v>
+        <v>0.48056</v>
       </c>
       <c r="C15" t="n">
-        <v>0.815029</v>
+        <v>0.827045</v>
       </c>
       <c r="D15" t="n">
-        <v>0.573423</v>
+        <v>0.562658</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.482984</v>
+        <v>0.482752</v>
       </c>
       <c r="C16" t="n">
-        <v>0.816767</v>
+        <v>0.837358</v>
       </c>
       <c r="D16" t="n">
-        <v>0.577464</v>
+        <v>0.565134</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.47972</v>
+        <v>0.48369</v>
       </c>
       <c r="C17" t="n">
-        <v>0.808574</v>
+        <v>0.852609</v>
       </c>
       <c r="D17" t="n">
-        <v>0.579435</v>
+        <v>0.580382</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.485677</v>
+        <v>0.482563</v>
       </c>
       <c r="C18" t="n">
-        <v>0.833466</v>
+        <v>0.841294</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5844780000000001</v>
+        <v>0.584132</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.488352</v>
+        <v>0.482585</v>
       </c>
       <c r="C19" t="n">
-        <v>0.815632</v>
+        <v>0.848475</v>
       </c>
       <c r="D19" t="n">
-        <v>0.594414</v>
+        <v>0.56957</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5026969999999999</v>
+        <v>0.466281</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8336479999999999</v>
+        <v>0.8284319999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.58566</v>
+        <v>0.585116</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.490049</v>
+        <v>0.487136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.867404</v>
+        <v>0.8810210000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6035740000000001</v>
+        <v>0.6028019999999999</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.499224</v>
+        <v>0.492441</v>
       </c>
       <c r="C22" t="n">
-        <v>0.859729</v>
+        <v>0.892943</v>
       </c>
       <c r="D22" t="n">
-        <v>0.611908</v>
+        <v>0.606579</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.507273</v>
+        <v>0.495458</v>
       </c>
       <c r="C23" t="n">
-        <v>0.865294</v>
+        <v>0.8714730000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.614686</v>
+        <v>0.601624</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.48992</v>
+        <v>0.491356</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8740560000000001</v>
+        <v>0.902708</v>
       </c>
       <c r="D24" t="n">
-        <v>0.604055</v>
+        <v>0.605324</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.500335</v>
+        <v>0.503294</v>
       </c>
       <c r="C25" t="n">
-        <v>0.875514</v>
+        <v>0.908842</v>
       </c>
       <c r="D25" t="n">
-        <v>0.601503</v>
+        <v>0.611557</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.499621</v>
+        <v>0.5122640000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.860666</v>
+        <v>0.873341</v>
       </c>
       <c r="D26" t="n">
-        <v>0.609751</v>
+        <v>0.619974</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.569076</v>
+        <v>0.559483</v>
       </c>
       <c r="C27" t="n">
-        <v>0.885661</v>
+        <v>0.907618</v>
       </c>
       <c r="D27" t="n">
-        <v>0.646273</v>
+        <v>0.626857</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5684669999999999</v>
+        <v>0.57584</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8925</v>
+        <v>0.9068929999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.618833</v>
+        <v>0.645429</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.587944</v>
+        <v>0.577383</v>
       </c>
       <c r="C29" t="n">
-        <v>0.89269</v>
+        <v>0.928044</v>
       </c>
       <c r="D29" t="n">
-        <v>0.654146</v>
+        <v>0.660054</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.596946</v>
+        <v>0.605897</v>
       </c>
       <c r="C30" t="n">
-        <v>0.912049</v>
+        <v>0.93938</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6599969999999999</v>
+        <v>0.681787</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.603392</v>
+        <v>0.602104</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9116</v>
+        <v>0.94882</v>
       </c>
       <c r="D31" t="n">
-        <v>0.64706</v>
+        <v>0.67209</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.613522</v>
+        <v>0.623135</v>
       </c>
       <c r="C32" t="n">
-        <v>0.921794</v>
+        <v>0.954145</v>
       </c>
       <c r="D32" t="n">
-        <v>0.655967</v>
+        <v>0.679264</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.632576</v>
+        <v>0.630491</v>
       </c>
       <c r="C33" t="n">
-        <v>0.934165</v>
+        <v>0.950474</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6778110000000001</v>
+        <v>0.6952430000000001</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.648296</v>
+        <v>0.663586</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9471540000000001</v>
+        <v>0.970947</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6905019999999999</v>
+        <v>0.715541</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6549779999999999</v>
+        <v>0.666272</v>
       </c>
       <c r="C35" t="n">
-        <v>1.04932</v>
+        <v>1.07538</v>
       </c>
       <c r="D35" t="n">
-        <v>0.788281</v>
+        <v>0.812569</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.675357</v>
+        <v>0.683118</v>
       </c>
       <c r="C36" t="n">
-        <v>1.05777</v>
+        <v>1.07967</v>
       </c>
       <c r="D36" t="n">
-        <v>0.80801</v>
+        <v>0.829949</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.685149</v>
+        <v>0.698722</v>
       </c>
       <c r="C37" t="n">
-        <v>1.07564</v>
+        <v>1.11054</v>
       </c>
       <c r="D37" t="n">
-        <v>0.826222</v>
+        <v>0.8489719999999999</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.733816</v>
+        <v>0.714921</v>
       </c>
       <c r="C38" t="n">
-        <v>1.11609</v>
+        <v>1.12978</v>
       </c>
       <c r="D38" t="n">
-        <v>0.857884</v>
+        <v>0.880484</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.727695</v>
+        <v>0.732231</v>
       </c>
       <c r="C39" t="n">
-        <v>1.11807</v>
+        <v>1.13805</v>
       </c>
       <c r="D39" t="n">
-        <v>0.910152</v>
+        <v>0.885527</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.755945</v>
+        <v>0.755403</v>
       </c>
       <c r="C40" t="n">
-        <v>1.139</v>
+        <v>1.17244</v>
       </c>
       <c r="D40" t="n">
-        <v>0.921906</v>
+        <v>0.9327299999999999</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.861127</v>
+        <v>0.863778</v>
       </c>
       <c r="C41" t="n">
-        <v>1.16125</v>
+        <v>1.20019</v>
       </c>
       <c r="D41" t="n">
-        <v>0.91555</v>
+        <v>0.949512</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.864034</v>
+        <v>0.900236</v>
       </c>
       <c r="C42" t="n">
-        <v>1.17509</v>
+        <v>1.22177</v>
       </c>
       <c r="D42" t="n">
-        <v>0.951302</v>
+        <v>0.9820759999999999</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.900419</v>
+        <v>0.89489</v>
       </c>
       <c r="C43" t="n">
-        <v>1.21192</v>
+        <v>1.23695</v>
       </c>
       <c r="D43" t="n">
-        <v>0.987878</v>
+        <v>0.988973</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.92667</v>
+        <v>0.919386</v>
       </c>
       <c r="C44" t="n">
-        <v>1.28377</v>
+        <v>1.25417</v>
       </c>
       <c r="D44" t="n">
-        <v>1.02503</v>
+        <v>1.00724</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.937261</v>
+        <v>0.927539</v>
       </c>
       <c r="C45" t="n">
-        <v>1.29435</v>
+        <v>1.31014</v>
       </c>
       <c r="D45" t="n">
-        <v>1.04358</v>
+        <v>1.03991</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.972824</v>
+        <v>0.956026</v>
       </c>
       <c r="C46" t="n">
-        <v>1.33615</v>
+        <v>1.31443</v>
       </c>
       <c r="D46" t="n">
-        <v>1.07845</v>
+        <v>1.07159</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.977461</v>
+        <v>0.994103</v>
       </c>
       <c r="C47" t="n">
-        <v>1.34155</v>
+        <v>1.35018</v>
       </c>
       <c r="D47" t="n">
-        <v>1.09532</v>
+        <v>1.12331</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.995306</v>
+        <v>1.01207</v>
       </c>
       <c r="C48" t="n">
-        <v>1.40027</v>
+        <v>1.38681</v>
       </c>
       <c r="D48" t="n">
-        <v>1.13988</v>
+        <v>1.12545</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.04456</v>
+        <v>1.02935</v>
       </c>
       <c r="C49" t="n">
-        <v>1.46003</v>
+        <v>1.4548</v>
       </c>
       <c r="D49" t="n">
-        <v>1.157</v>
+        <v>1.16954</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.06048</v>
+        <v>1.0571</v>
       </c>
       <c r="C50" t="n">
-        <v>1.66059</v>
+        <v>1.64983</v>
       </c>
       <c r="D50" t="n">
-        <v>1.29084</v>
+        <v>1.29646</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.07369</v>
+        <v>1.07288</v>
       </c>
       <c r="C51" t="n">
-        <v>1.66628</v>
+        <v>1.69752</v>
       </c>
       <c r="D51" t="n">
-        <v>1.3167</v>
+        <v>1.3481</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.10597</v>
+        <v>1.09438</v>
       </c>
       <c r="C52" t="n">
-        <v>1.75357</v>
+        <v>1.80974</v>
       </c>
       <c r="D52" t="n">
-        <v>1.35417</v>
+        <v>1.46239</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.12764</v>
+        <v>1.12484</v>
       </c>
       <c r="C53" t="n">
-        <v>1.784</v>
+        <v>1.92774</v>
       </c>
       <c r="D53" t="n">
-        <v>1.40162</v>
+        <v>1.41061</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.13479</v>
+        <v>1.15941</v>
       </c>
       <c r="C54" t="n">
-        <v>1.82134</v>
+        <v>1.87168</v>
       </c>
       <c r="D54" t="n">
-        <v>1.47823</v>
+        <v>1.49409</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.22363</v>
+        <v>1.20632</v>
       </c>
       <c r="C55" t="n">
-        <v>1.85905</v>
+        <v>1.93498</v>
       </c>
       <c r="D55" t="n">
-        <v>1.48744</v>
+        <v>1.50498</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.28527</v>
+        <v>1.35034</v>
       </c>
       <c r="C56" t="n">
-        <v>1.92887</v>
+        <v>2.13263</v>
       </c>
       <c r="D56" t="n">
-        <v>1.58869</v>
+        <v>1.63729</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.32657</v>
+        <v>1.4359</v>
       </c>
       <c r="C57" t="n">
-        <v>2.17802</v>
+        <v>2.16968</v>
       </c>
       <c r="D57" t="n">
-        <v>1.66426</v>
+        <v>1.65755</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.45781</v>
+        <v>1.4662</v>
       </c>
       <c r="C58" t="n">
-        <v>2.27321</v>
+        <v>2.29976</v>
       </c>
       <c r="D58" t="n">
-        <v>1.68625</v>
+        <v>1.6888</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.47214</v>
+        <v>1.45303</v>
       </c>
       <c r="C59" t="n">
-        <v>2.26422</v>
+        <v>2.11375</v>
       </c>
       <c r="D59" t="n">
-        <v>1.70988</v>
+        <v>1.71391</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.51318</v>
+        <v>1.48079</v>
       </c>
       <c r="C60" t="n">
-        <v>2.26005</v>
+        <v>2.22568</v>
       </c>
       <c r="D60" t="n">
-        <v>1.81527</v>
+        <v>1.79196</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.6055</v>
+        <v>1.49613</v>
       </c>
       <c r="C61" t="n">
-        <v>2.4513</v>
+        <v>2.26186</v>
       </c>
       <c r="D61" t="n">
-        <v>1.90063</v>
+        <v>1.79341</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.53003</v>
+        <v>1.54976</v>
       </c>
       <c r="C62" t="n">
-        <v>2.3195</v>
+        <v>2.49258</v>
       </c>
       <c r="D62" t="n">
-        <v>1.87432</v>
+        <v>1.94415</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.67407</v>
+        <v>1.62278</v>
       </c>
       <c r="C63" t="n">
-        <v>2.33908</v>
+        <v>2.36991</v>
       </c>
       <c r="D63" t="n">
-        <v>1.92281</v>
+        <v>1.98731</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.60545</v>
+        <v>1.6133</v>
       </c>
       <c r="C64" t="n">
-        <v>2.91357</v>
+        <v>2.81814</v>
       </c>
       <c r="D64" t="n">
-        <v>2.20621</v>
+        <v>2.17782</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.67521</v>
+        <v>1.69213</v>
       </c>
       <c r="C65" t="n">
-        <v>2.63249</v>
+        <v>2.68669</v>
       </c>
       <c r="D65" t="n">
-        <v>2.20094</v>
+        <v>2.19737</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.66773</v>
+        <v>1.67649</v>
       </c>
       <c r="C66" t="n">
-        <v>2.66986</v>
+        <v>2.68159</v>
       </c>
       <c r="D66" t="n">
-        <v>2.31603</v>
+        <v>2.2836</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.72231</v>
+        <v>1.86768</v>
       </c>
       <c r="C67" t="n">
-        <v>2.78602</v>
+        <v>3.03776</v>
       </c>
       <c r="D67" t="n">
-        <v>2.2905</v>
+        <v>2.30484</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.74025</v>
+        <v>1.86211</v>
       </c>
       <c r="C68" t="n">
-        <v>2.80931</v>
+        <v>3.1633</v>
       </c>
       <c r="D68" t="n">
-        <v>2.38211</v>
+        <v>2.5067</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.79859</v>
+        <v>1.93104</v>
       </c>
       <c r="C69" t="n">
-        <v>2.81504</v>
+        <v>3.28607</v>
       </c>
       <c r="D69" t="n">
-        <v>2.41391</v>
+        <v>2.59066</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.93127</v>
+        <v>1.9456</v>
       </c>
       <c r="C70" t="n">
-        <v>2.79776</v>
+        <v>3.23787</v>
       </c>
       <c r="D70" t="n">
-        <v>2.502</v>
+        <v>2.54893</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.94841</v>
+        <v>1.95285</v>
       </c>
       <c r="C71" t="n">
-        <v>2.8956</v>
+        <v>3.32103</v>
       </c>
       <c r="D71" t="n">
-        <v>2.55901</v>
+        <v>2.70039</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.99055</v>
+        <v>2.02733</v>
       </c>
       <c r="C72" t="n">
-        <v>2.94698</v>
+        <v>3.33853</v>
       </c>
       <c r="D72" t="n">
-        <v>2.57616</v>
+        <v>2.7549</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.99928</v>
+        <v>2.09573</v>
       </c>
       <c r="C73" t="n">
-        <v>3.01223</v>
+        <v>3.41892</v>
       </c>
       <c r="D73" t="n">
-        <v>2.68098</v>
+        <v>2.8233</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.04491</v>
+        <v>2.13236</v>
       </c>
       <c r="C74" t="n">
-        <v>3.087</v>
+        <v>3.35604</v>
       </c>
       <c r="D74" t="n">
-        <v>2.77682</v>
+        <v>2.95896</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.09432</v>
+        <v>2.17817</v>
       </c>
       <c r="C75" t="n">
-        <v>3.09455</v>
+        <v>3.39675</v>
       </c>
       <c r="D75" t="n">
-        <v>2.82408</v>
+        <v>2.91903</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.09024</v>
+        <v>2.15385</v>
       </c>
       <c r="C76" t="n">
-        <v>3.16257</v>
+        <v>3.16848</v>
       </c>
       <c r="D76" t="n">
-        <v>2.83288</v>
+        <v>2.81557</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.15241</v>
+        <v>2.1107</v>
       </c>
       <c r="C77" t="n">
-        <v>3.23272</v>
+        <v>3.16126</v>
       </c>
       <c r="D77" t="n">
-        <v>2.89739</v>
+        <v>2.85246</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.17764</v>
+        <v>2.1409</v>
       </c>
       <c r="C78" t="n">
-        <v>3.37375</v>
+        <v>3.43647</v>
       </c>
       <c r="D78" t="n">
-        <v>3.0647</v>
+        <v>2.99432</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.20858</v>
+        <v>2.18085</v>
       </c>
       <c r="C79" t="n">
-        <v>3.51756</v>
+        <v>3.55887</v>
       </c>
       <c r="D79" t="n">
-        <v>3.14596</v>
+        <v>3.0777</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.20122</v>
+        <v>2.23572</v>
       </c>
       <c r="C80" t="n">
-        <v>3.54902</v>
+        <v>3.5512</v>
       </c>
       <c r="D80" t="n">
-        <v>3.22763</v>
+        <v>3.10317</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.23372</v>
+        <v>2.23459</v>
       </c>
       <c r="C81" t="n">
-        <v>3.52862</v>
+        <v>3.62015</v>
       </c>
       <c r="D81" t="n">
-        <v>3.30361</v>
+        <v>3.15782</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.28533</v>
+        <v>2.23269</v>
       </c>
       <c r="C82" t="n">
-        <v>3.64935</v>
+        <v>3.66376</v>
       </c>
       <c r="D82" t="n">
-        <v>3.28911</v>
+        <v>3.24951</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.24266</v>
+        <v>2.3203</v>
       </c>
       <c r="C83" t="n">
-        <v>3.64442</v>
+        <v>3.68793</v>
       </c>
       <c r="D83" t="n">
-        <v>3.28267</v>
+        <v>3.32058</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.3886</v>
+        <v>2.35871</v>
       </c>
       <c r="C84" t="n">
-        <v>3.72272</v>
+        <v>3.76454</v>
       </c>
       <c r="D84" t="n">
-        <v>3.28411</v>
+        <v>3.2944</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.39255</v>
+        <v>2.40402</v>
       </c>
       <c r="C85" t="n">
-        <v>3.64921</v>
+        <v>3.66838</v>
       </c>
       <c r="D85" t="n">
-        <v>3.33934</v>
+        <v>3.41506</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.42716</v>
+        <v>2.52295</v>
       </c>
       <c r="C86" t="n">
-        <v>3.70453</v>
+        <v>3.79287</v>
       </c>
       <c r="D86" t="n">
-        <v>3.42673</v>
+        <v>3.41817</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.45041</v>
+        <v>2.45491</v>
       </c>
       <c r="C87" t="n">
-        <v>3.72046</v>
+        <v>3.78698</v>
       </c>
       <c r="D87" t="n">
-        <v>3.44073</v>
+        <v>3.63962</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.49183</v>
+        <v>2.49629</v>
       </c>
       <c r="C88" t="n">
-        <v>3.87621</v>
+        <v>3.89038</v>
       </c>
       <c r="D88" t="n">
-        <v>3.47282</v>
+        <v>3.55707</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.49803</v>
+        <v>2.4491</v>
       </c>
       <c r="C89" t="n">
-        <v>3.78908</v>
+        <v>3.85734</v>
       </c>
       <c r="D89" t="n">
-        <v>3.47729</v>
+        <v>3.6113</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.53781</v>
+        <v>2.46569</v>
       </c>
       <c r="C90" t="n">
-        <v>3.83874</v>
+        <v>3.88489</v>
       </c>
       <c r="D90" t="n">
-        <v>3.57307</v>
+        <v>3.67097</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.54258</v>
+        <v>2.52565</v>
       </c>
       <c r="C91" t="n">
-        <v>3.95008</v>
+        <v>3.93756</v>
       </c>
       <c r="D91" t="n">
-        <v>3.60655</v>
+        <v>3.62012</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.56348</v>
+        <v>2.532</v>
       </c>
       <c r="C92" t="n">
-        <v>4.12039</v>
+        <v>4.1752</v>
       </c>
       <c r="D92" t="n">
-        <v>3.72808</v>
+        <v>3.79494</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.55808</v>
+        <v>2.53705</v>
       </c>
       <c r="C93" t="n">
-        <v>4.13511</v>
+        <v>4.20008</v>
       </c>
       <c r="D93" t="n">
-        <v>3.8541</v>
+        <v>3.79265</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.59966</v>
+        <v>2.63884</v>
       </c>
       <c r="C94" t="n">
-        <v>4.16125</v>
+        <v>4.19746</v>
       </c>
       <c r="D94" t="n">
-        <v>3.92121</v>
+        <v>3.80009</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.63223</v>
+        <v>2.59332</v>
       </c>
       <c r="C95" t="n">
-        <v>4.25143</v>
+        <v>4.37446</v>
       </c>
       <c r="D95" t="n">
-        <v>3.94803</v>
+        <v>3.82446</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.64886</v>
+        <v>2.69002</v>
       </c>
       <c r="C96" t="n">
-        <v>4.26118</v>
+        <v>4.23495</v>
       </c>
       <c r="D96" t="n">
-        <v>3.87749</v>
+        <v>3.97398</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.66026</v>
+        <v>2.65658</v>
       </c>
       <c r="C97" t="n">
-        <v>4.26561</v>
+        <v>4.2483</v>
       </c>
       <c r="D97" t="n">
-        <v>3.94952</v>
+        <v>3.98684</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.81027</v>
+        <v>2.86952</v>
       </c>
       <c r="C98" t="n">
-        <v>4.25938</v>
+        <v>4.40235</v>
       </c>
       <c r="D98" t="n">
-        <v>3.94839</v>
+        <v>3.97571</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.83462</v>
+        <v>2.90038</v>
       </c>
       <c r="C99" t="n">
-        <v>4.36266</v>
+        <v>4.4924</v>
       </c>
       <c r="D99" t="n">
-        <v>4.02433</v>
+        <v>4.12006</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.89277</v>
+        <v>2.88625</v>
       </c>
       <c r="C100" t="n">
-        <v>4.39711</v>
+        <v>4.44907</v>
       </c>
       <c r="D100" t="n">
-        <v>4.09111</v>
+        <v>4.0786</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.879</v>
+        <v>2.90821</v>
       </c>
       <c r="C101" t="n">
-        <v>4.40606</v>
+        <v>4.47859</v>
       </c>
       <c r="D101" t="n">
-        <v>4.12613</v>
+        <v>4.12691</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.9234</v>
+        <v>2.94276</v>
       </c>
       <c r="C102" t="n">
-        <v>4.49306</v>
+        <v>4.52982</v>
       </c>
       <c r="D102" t="n">
-        <v>4.17418</v>
+        <v>4.19404</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.9559</v>
+        <v>3.00665</v>
       </c>
       <c r="C103" t="n">
-        <v>4.54592</v>
+        <v>4.60893</v>
       </c>
       <c r="D103" t="n">
-        <v>4.22752</v>
+        <v>4.19417</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.99949</v>
+        <v>2.99657</v>
       </c>
       <c r="C104" t="n">
-        <v>4.56631</v>
+        <v>4.57287</v>
       </c>
       <c r="D104" t="n">
-        <v>4.20187</v>
+        <v>4.23848</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.02344</v>
+        <v>3.0208</v>
       </c>
       <c r="C105" t="n">
-        <v>4.63395</v>
+        <v>4.65723</v>
       </c>
       <c r="D105" t="n">
-        <v>4.29168</v>
+        <v>4.27655</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.00976</v>
+        <v>3.01674</v>
       </c>
       <c r="C106" t="n">
-        <v>4.68488</v>
+        <v>4.73883</v>
       </c>
       <c r="D106" t="n">
-        <v>4.3676</v>
+        <v>4.30323</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.03611</v>
+        <v>3.03852</v>
       </c>
       <c r="C107" t="n">
-        <v>4.8712</v>
+        <v>4.90507</v>
       </c>
       <c r="D107" t="n">
-        <v>4.45071</v>
+        <v>4.44234</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.05862</v>
+        <v>3.06201</v>
       </c>
       <c r="C108" t="n">
-        <v>4.88311</v>
+        <v>4.85157</v>
       </c>
       <c r="D108" t="n">
-        <v>4.51251</v>
+        <v>4.48432</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.17829</v>
+        <v>3.06963</v>
       </c>
       <c r="C109" t="n">
-        <v>5.04913</v>
+        <v>4.96949</v>
       </c>
       <c r="D109" t="n">
-        <v>4.59643</v>
+        <v>4.48077</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.13887</v>
+        <v>3.06257</v>
       </c>
       <c r="C110" t="n">
-        <v>5.00175</v>
+        <v>5.0288</v>
       </c>
       <c r="D110" t="n">
-        <v>4.60615</v>
+        <v>4.56099</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.15079</v>
+        <v>3.16834</v>
       </c>
       <c r="C111" t="n">
-        <v>5.08881</v>
+        <v>5.10658</v>
       </c>
       <c r="D111" t="n">
-        <v>4.65026</v>
+        <v>4.58104</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.42543</v>
+        <v>3.28153</v>
       </c>
       <c r="C112" t="n">
-        <v>5.15042</v>
+        <v>5.06564</v>
       </c>
       <c r="D112" t="n">
-        <v>4.69245</v>
+        <v>4.64256</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.31947</v>
+        <v>3.33937</v>
       </c>
       <c r="C113" t="n">
-        <v>5.14185</v>
+        <v>5.18482</v>
       </c>
       <c r="D113" t="n">
-        <v>4.72153</v>
+        <v>4.67744</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.39998</v>
+        <v>3.34566</v>
       </c>
       <c r="C114" t="n">
-        <v>5.19485</v>
+        <v>5.16572</v>
       </c>
       <c r="D114" t="n">
-        <v>4.78939</v>
+        <v>4.77344</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.43792</v>
+        <v>3.46245</v>
       </c>
       <c r="C115" t="n">
-        <v>5.23139</v>
+        <v>5.27289</v>
       </c>
       <c r="D115" t="n">
-        <v>4.83782</v>
+        <v>4.79567</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.44419</v>
+        <v>3.45438</v>
       </c>
       <c r="C116" t="n">
-        <v>5.29589</v>
+        <v>5.26748</v>
       </c>
       <c r="D116" t="n">
-        <v>4.89008</v>
+        <v>4.8172</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.51084</v>
+        <v>3.4961</v>
       </c>
       <c r="C117" t="n">
-        <v>5.34943</v>
+        <v>5.36472</v>
       </c>
       <c r="D117" t="n">
-        <v>4.92191</v>
+        <v>4.98868</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.58455</v>
+        <v>3.57252</v>
       </c>
       <c r="C118" t="n">
-        <v>5.43885</v>
+        <v>5.38508</v>
       </c>
       <c r="D118" t="n">
-        <v>5.01388</v>
+        <v>4.97431</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.56666</v>
+        <v>3.56777</v>
       </c>
       <c r="C119" t="n">
-        <v>5.45568</v>
+        <v>5.52301</v>
       </c>
       <c r="D119" t="n">
-        <v>5.10191</v>
+        <v>5.00368</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.391441</v>
+        <v>0.390979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.754851</v>
+        <v>0.802901</v>
       </c>
       <c r="D2" t="n">
-        <v>0.514486</v>
+        <v>0.510344</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.40707</v>
+        <v>0.414755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.767456</v>
+        <v>0.78604</v>
       </c>
       <c r="D3" t="n">
-        <v>0.517033</v>
+        <v>0.528401</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.430387</v>
+        <v>0.420019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.783791</v>
+        <v>0.799061</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5162949999999999</v>
+        <v>0.520649</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.421207</v>
+        <v>0.417687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.778409</v>
+        <v>0.814034</v>
       </c>
       <c r="D5" t="n">
-        <v>0.537373</v>
+        <v>0.540412</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.423086</v>
+        <v>0.42071</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7771670000000001</v>
+        <v>0.825762</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52152</v>
+        <v>0.5334179999999999</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425756</v>
+        <v>0.414508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7975680000000001</v>
+        <v>0.8104789999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.543876</v>
+        <v>0.529539</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.429308</v>
+        <v>0.420691</v>
       </c>
       <c r="C8" t="n">
-        <v>0.821007</v>
+        <v>0.816882</v>
       </c>
       <c r="D8" t="n">
-        <v>0.534459</v>
+        <v>0.528278</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.423377</v>
+        <v>0.43151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.825526</v>
+        <v>0.831287</v>
       </c>
       <c r="D9" t="n">
-        <v>0.538458</v>
+        <v>0.541714</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.425692</v>
+        <v>0.428394</v>
       </c>
       <c r="C10" t="n">
-        <v>0.824546</v>
+        <v>0.838758</v>
       </c>
       <c r="D10" t="n">
-        <v>0.541405</v>
+        <v>0.550602</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.430838</v>
+        <v>0.434858</v>
       </c>
       <c r="C11" t="n">
-        <v>0.812244</v>
+        <v>0.826503</v>
       </c>
       <c r="D11" t="n">
-        <v>0.558997</v>
+        <v>0.558514</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.42781</v>
+        <v>0.434744</v>
       </c>
       <c r="C12" t="n">
-        <v>0.820346</v>
+        <v>0.820473</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5703819999999999</v>
+        <v>0.570699</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.434163</v>
+        <v>0.438933</v>
       </c>
       <c r="C13" t="n">
-        <v>0.820569</v>
+        <v>0.848575</v>
       </c>
       <c r="D13" t="n">
-        <v>0.555646</v>
+        <v>0.568782</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.430959</v>
+        <v>0.43567</v>
       </c>
       <c r="C14" t="n">
-        <v>0.826232</v>
+        <v>0.859393</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5689610000000001</v>
+        <v>0.585194</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.429476</v>
+        <v>0.442194</v>
       </c>
       <c r="C15" t="n">
-        <v>0.838372</v>
+        <v>0.850579</v>
       </c>
       <c r="D15" t="n">
-        <v>0.572469</v>
+        <v>0.575908</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.437494</v>
+        <v>0.432507</v>
       </c>
       <c r="C16" t="n">
-        <v>0.852454</v>
+        <v>0.886346</v>
       </c>
       <c r="D16" t="n">
-        <v>0.56991</v>
+        <v>0.58078</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.455674</v>
+        <v>0.464267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.85353</v>
+        <v>0.8858740000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5802580000000001</v>
+        <v>0.592596</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.457381</v>
+        <v>0.465131</v>
       </c>
       <c r="C18" t="n">
-        <v>0.865926</v>
+        <v>0.884263</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585044</v>
+        <v>0.585794</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.46371</v>
+        <v>0.468526</v>
       </c>
       <c r="C19" t="n">
-        <v>0.867368</v>
+        <v>0.901332</v>
       </c>
       <c r="D19" t="n">
-        <v>0.596796</v>
+        <v>0.597392</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.472244</v>
+        <v>0.473941</v>
       </c>
       <c r="C20" t="n">
-        <v>0.867706</v>
+        <v>0.904408</v>
       </c>
       <c r="D20" t="n">
-        <v>0.587974</v>
+        <v>0.599944</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.461932</v>
+        <v>0.477706</v>
       </c>
       <c r="C21" t="n">
-        <v>0.910986</v>
+        <v>0.907545</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6051840000000001</v>
+        <v>0.5948600000000001</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.47746</v>
+        <v>0.481512</v>
       </c>
       <c r="C22" t="n">
-        <v>0.889029</v>
+        <v>0.9356449999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.597799</v>
+        <v>0.611702</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.47709</v>
+        <v>0.489338</v>
       </c>
       <c r="C23" t="n">
-        <v>0.905108</v>
+        <v>0.935476</v>
       </c>
       <c r="D23" t="n">
-        <v>0.612272</v>
+        <v>0.609891</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481269</v>
+        <v>0.487127</v>
       </c>
       <c r="C24" t="n">
-        <v>0.91467</v>
+        <v>0.997213</v>
       </c>
       <c r="D24" t="n">
-        <v>0.610079</v>
+        <v>0.654647</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.482587</v>
+        <v>0.48148</v>
       </c>
       <c r="C25" t="n">
-        <v>0.941132</v>
+        <v>0.949669</v>
       </c>
       <c r="D25" t="n">
-        <v>0.617669</v>
+        <v>0.630622</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.478544</v>
+        <v>0.476639</v>
       </c>
       <c r="C26" t="n">
-        <v>0.88514</v>
+        <v>0.9279849999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.615343</v>
+        <v>0.636771</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.476391</v>
+        <v>0.49548</v>
       </c>
       <c r="C27" t="n">
-        <v>0.902617</v>
+        <v>0.919547</v>
       </c>
       <c r="D27" t="n">
-        <v>0.623308</v>
+        <v>0.635576</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.480817</v>
+        <v>0.490554</v>
       </c>
       <c r="C28" t="n">
-        <v>0.912068</v>
+        <v>0.922579</v>
       </c>
       <c r="D28" t="n">
-        <v>0.653753</v>
+        <v>0.640796</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5021679999999999</v>
+        <v>0.491018</v>
       </c>
       <c r="C29" t="n">
-        <v>0.923257</v>
+        <v>0.941302</v>
       </c>
       <c r="D29" t="n">
-        <v>0.634773</v>
+        <v>0.667957</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.488081</v>
+        <v>0.523792</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9093560000000001</v>
+        <v>0.9630030000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.661071</v>
+        <v>0.6833</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.504817</v>
+        <v>0.486734</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9096340000000001</v>
+        <v>0.964054</v>
       </c>
       <c r="D31" t="n">
-        <v>0.664423</v>
+        <v>0.691566</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.526907</v>
+        <v>0.546373</v>
       </c>
       <c r="C32" t="n">
-        <v>0.944618</v>
+        <v>0.975399</v>
       </c>
       <c r="D32" t="n">
-        <v>0.668072</v>
+        <v>0.698317</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5544210000000001</v>
+        <v>0.566442</v>
       </c>
       <c r="C33" t="n">
-        <v>0.964411</v>
+        <v>1.0102</v>
       </c>
       <c r="D33" t="n">
-        <v>0.676021</v>
+        <v>0.695635</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.555068</v>
+        <v>0.552198</v>
       </c>
       <c r="C34" t="n">
-        <v>0.999227</v>
+        <v>1.01439</v>
       </c>
       <c r="D34" t="n">
-        <v>0.716658</v>
+        <v>0.7242769999999999</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.544836</v>
+        <v>0.590732</v>
       </c>
       <c r="C35" t="n">
-        <v>1.01249</v>
+        <v>1.0348</v>
       </c>
       <c r="D35" t="n">
-        <v>0.722908</v>
+        <v>0.754031</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.573419</v>
+        <v>0.592387</v>
       </c>
       <c r="C36" t="n">
-        <v>1.0366</v>
+        <v>1.06339</v>
       </c>
       <c r="D36" t="n">
-        <v>0.720734</v>
+        <v>0.767603</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.58725</v>
+        <v>0.613049</v>
       </c>
       <c r="C37" t="n">
-        <v>1.05086</v>
+        <v>1.12079</v>
       </c>
       <c r="D37" t="n">
-        <v>0.746189</v>
+        <v>0.798335</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.602542</v>
+        <v>0.6312410000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>1.07539</v>
+        <v>1.11393</v>
       </c>
       <c r="D38" t="n">
-        <v>0.768832</v>
+        <v>0.789732</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.611958</v>
+        <v>0.624657</v>
       </c>
       <c r="C39" t="n">
-        <v>1.11839</v>
+        <v>1.14852</v>
       </c>
       <c r="D39" t="n">
-        <v>0.794945</v>
+        <v>0.82701</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.651058</v>
+        <v>0.645629</v>
       </c>
       <c r="C40" t="n">
-        <v>1.12832</v>
+        <v>1.13701</v>
       </c>
       <c r="D40" t="n">
-        <v>0.840407</v>
+        <v>0.872417</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.634443</v>
+        <v>0.650262</v>
       </c>
       <c r="C41" t="n">
-        <v>1.11022</v>
+        <v>1.14509</v>
       </c>
       <c r="D41" t="n">
-        <v>0.867355</v>
+        <v>0.903456</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.655935</v>
+        <v>0.666563</v>
       </c>
       <c r="C42" t="n">
-        <v>1.16808</v>
+        <v>1.19809</v>
       </c>
       <c r="D42" t="n">
-        <v>0.884209</v>
+        <v>0.928736</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.665544</v>
+        <v>0.686128</v>
       </c>
       <c r="C43" t="n">
-        <v>1.1887</v>
+        <v>1.26369</v>
       </c>
       <c r="D43" t="n">
-        <v>0.910071</v>
+        <v>0.977955</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.685366</v>
+        <v>0.724485</v>
       </c>
       <c r="C44" t="n">
-        <v>1.22413</v>
+        <v>1.30083</v>
       </c>
       <c r="D44" t="n">
-        <v>0.952496</v>
+        <v>1.01545</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6898570000000001</v>
+        <v>0.725375</v>
       </c>
       <c r="C45" t="n">
-        <v>1.23309</v>
+        <v>1.2969</v>
       </c>
       <c r="D45" t="n">
-        <v>0.964524</v>
+        <v>1.02882</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.803159</v>
+        <v>0.823138</v>
       </c>
       <c r="C46" t="n">
-        <v>1.3029</v>
+        <v>1.3677</v>
       </c>
       <c r="D46" t="n">
-        <v>1.00568</v>
+        <v>1.06924</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.836161</v>
+        <v>0.843584</v>
       </c>
       <c r="C47" t="n">
-        <v>1.34092</v>
+        <v>1.4087</v>
       </c>
       <c r="D47" t="n">
-        <v>1.01214</v>
+        <v>1.09968</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.851407</v>
+        <v>0.868536</v>
       </c>
       <c r="C48" t="n">
-        <v>1.39658</v>
+        <v>1.47076</v>
       </c>
       <c r="D48" t="n">
-        <v>1.08459</v>
+        <v>1.13071</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.866134</v>
+        <v>0.889563</v>
       </c>
       <c r="C49" t="n">
-        <v>1.44758</v>
+        <v>1.51258</v>
       </c>
       <c r="D49" t="n">
-        <v>1.10659</v>
+        <v>1.16749</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.904273</v>
+        <v>0.913924</v>
       </c>
       <c r="C50" t="n">
-        <v>1.4982</v>
+        <v>1.59987</v>
       </c>
       <c r="D50" t="n">
-        <v>1.17395</v>
+        <v>1.19808</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.899637</v>
+        <v>0.937757</v>
       </c>
       <c r="C51" t="n">
-        <v>1.59674</v>
+        <v>1.62054</v>
       </c>
       <c r="D51" t="n">
-        <v>1.19897</v>
+        <v>1.25026</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.948921</v>
+        <v>0.966717</v>
       </c>
       <c r="C52" t="n">
-        <v>1.63322</v>
+        <v>1.71167</v>
       </c>
       <c r="D52" t="n">
-        <v>1.22705</v>
+        <v>1.26339</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.960741</v>
+        <v>0.968608</v>
       </c>
       <c r="C53" t="n">
-        <v>1.69429</v>
+        <v>1.83672</v>
       </c>
       <c r="D53" t="n">
-        <v>1.27872</v>
+        <v>1.28128</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.01918</v>
+        <v>1.02464</v>
       </c>
       <c r="C54" t="n">
-        <v>1.7069</v>
+        <v>1.7455</v>
       </c>
       <c r="D54" t="n">
-        <v>1.37705</v>
+        <v>1.38385</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.04675</v>
+        <v>1.03284</v>
       </c>
       <c r="C55" t="n">
-        <v>1.79421</v>
+        <v>1.82826</v>
       </c>
       <c r="D55" t="n">
-        <v>1.4011</v>
+        <v>1.46456</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.05571</v>
+        <v>1.05789</v>
       </c>
       <c r="C56" t="n">
-        <v>1.85602</v>
+        <v>1.90622</v>
       </c>
       <c r="D56" t="n">
-        <v>1.46487</v>
+        <v>1.46944</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.07435</v>
+        <v>1.08992</v>
       </c>
       <c r="C57" t="n">
-        <v>1.92603</v>
+        <v>1.94632</v>
       </c>
       <c r="D57" t="n">
-        <v>1.50878</v>
+        <v>1.51293</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.11991</v>
+        <v>1.1207</v>
       </c>
       <c r="C58" t="n">
-        <v>2.04122</v>
+        <v>2.00115</v>
       </c>
       <c r="D58" t="n">
-        <v>1.57299</v>
+        <v>1.54539</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.15733</v>
+        <v>1.15745</v>
       </c>
       <c r="C59" t="n">
-        <v>2.03945</v>
+        <v>2.09435</v>
       </c>
       <c r="D59" t="n">
-        <v>1.62673</v>
+        <v>1.62676</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.36597</v>
+        <v>1.32786</v>
       </c>
       <c r="C60" t="n">
-        <v>2.16194</v>
+        <v>2.17446</v>
       </c>
       <c r="D60" t="n">
-        <v>1.68899</v>
+        <v>1.64424</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.39518</v>
+        <v>1.38592</v>
       </c>
       <c r="C61" t="n">
-        <v>2.18576</v>
+        <v>2.23032</v>
       </c>
       <c r="D61" t="n">
-        <v>1.73168</v>
+        <v>1.83123</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.43461</v>
+        <v>1.41853</v>
       </c>
       <c r="C62" t="n">
-        <v>2.34165</v>
+        <v>2.53756</v>
       </c>
       <c r="D62" t="n">
-        <v>1.79083</v>
+        <v>1.85722</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.44684</v>
+        <v>1.45982</v>
       </c>
       <c r="C63" t="n">
-        <v>2.34942</v>
+        <v>2.38022</v>
       </c>
       <c r="D63" t="n">
-        <v>1.88726</v>
+        <v>1.83705</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.48785</v>
+        <v>1.45799</v>
       </c>
       <c r="C64" t="n">
-        <v>2.42956</v>
+        <v>2.4646</v>
       </c>
       <c r="D64" t="n">
-        <v>1.90602</v>
+        <v>2.05108</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.51023</v>
+        <v>1.53125</v>
       </c>
       <c r="C65" t="n">
-        <v>2.45682</v>
+        <v>2.58791</v>
       </c>
       <c r="D65" t="n">
-        <v>2.06173</v>
+        <v>2.04499</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.55413</v>
+        <v>1.55032</v>
       </c>
       <c r="C66" t="n">
-        <v>2.61152</v>
+        <v>2.81656</v>
       </c>
       <c r="D66" t="n">
-        <v>2.04725</v>
+        <v>2.16057</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.62308</v>
+        <v>1.55526</v>
       </c>
       <c r="C67" t="n">
-        <v>2.64209</v>
+        <v>3.04144</v>
       </c>
       <c r="D67" t="n">
-        <v>2.11837</v>
+        <v>2.20972</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.61837</v>
+        <v>1.69917</v>
       </c>
       <c r="C68" t="n">
-        <v>2.63063</v>
+        <v>3.06371</v>
       </c>
       <c r="D68" t="n">
-        <v>2.28782</v>
+        <v>2.45852</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.67867</v>
+        <v>1.71955</v>
       </c>
       <c r="C69" t="n">
-        <v>2.73469</v>
+        <v>3.16146</v>
       </c>
       <c r="D69" t="n">
-        <v>2.37693</v>
+        <v>2.38558</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.70132</v>
+        <v>1.67316</v>
       </c>
       <c r="C70" t="n">
-        <v>2.74814</v>
+        <v>2.81123</v>
       </c>
       <c r="D70" t="n">
-        <v>2.57592</v>
+        <v>2.40161</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.80961</v>
+        <v>1.69225</v>
       </c>
       <c r="C71" t="n">
-        <v>2.84804</v>
+        <v>2.88046</v>
       </c>
       <c r="D71" t="n">
-        <v>2.57899</v>
+        <v>2.47029</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.84528</v>
+        <v>1.74181</v>
       </c>
       <c r="C72" t="n">
-        <v>2.99115</v>
+        <v>2.92973</v>
       </c>
       <c r="D72" t="n">
-        <v>2.73511</v>
+        <v>2.55327</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.81988</v>
+        <v>1.79246</v>
       </c>
       <c r="C73" t="n">
-        <v>3.08354</v>
+        <v>3.0523</v>
       </c>
       <c r="D73" t="n">
-        <v>2.68646</v>
+        <v>2.60701</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.9775</v>
+        <v>1.95892</v>
       </c>
       <c r="C74" t="n">
-        <v>3.15396</v>
+        <v>3.1261</v>
       </c>
       <c r="D74" t="n">
-        <v>2.7155</v>
+        <v>2.67819</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.04555</v>
+        <v>1.99981</v>
       </c>
       <c r="C75" t="n">
-        <v>3.16353</v>
+        <v>3.08855</v>
       </c>
       <c r="D75" t="n">
-        <v>2.79681</v>
+        <v>2.78129</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.07243</v>
+        <v>2.05531</v>
       </c>
       <c r="C76" t="n">
-        <v>3.2982</v>
+        <v>3.2815</v>
       </c>
       <c r="D76" t="n">
-        <v>2.8889</v>
+        <v>2.81886</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.08165</v>
+        <v>2.05462</v>
       </c>
       <c r="C77" t="n">
-        <v>3.31709</v>
+        <v>3.38849</v>
       </c>
       <c r="D77" t="n">
-        <v>2.95162</v>
+        <v>2.85231</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.19791</v>
+        <v>2.10721</v>
       </c>
       <c r="C78" t="n">
-        <v>3.36287</v>
+        <v>3.66135</v>
       </c>
       <c r="D78" t="n">
-        <v>2.90976</v>
+        <v>3.0638</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.19494</v>
+        <v>2.2156</v>
       </c>
       <c r="C79" t="n">
-        <v>3.58771</v>
+        <v>3.61199</v>
       </c>
       <c r="D79" t="n">
-        <v>3.03531</v>
+        <v>3.11627</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.19839</v>
+        <v>2.15147</v>
       </c>
       <c r="C80" t="n">
-        <v>3.63377</v>
+        <v>3.75968</v>
       </c>
       <c r="D80" t="n">
-        <v>3.0712</v>
+        <v>3.18438</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.22497</v>
+        <v>2.25455</v>
       </c>
       <c r="C81" t="n">
-        <v>3.70637</v>
+        <v>3.98089</v>
       </c>
       <c r="D81" t="n">
-        <v>3.12421</v>
+        <v>3.23294</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.24804</v>
+        <v>2.16098</v>
       </c>
       <c r="C82" t="n">
-        <v>3.78419</v>
+        <v>4.11631</v>
       </c>
       <c r="D82" t="n">
-        <v>3.22468</v>
+        <v>3.24504</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.27612</v>
+        <v>2.30549</v>
       </c>
       <c r="C83" t="n">
-        <v>3.89206</v>
+        <v>3.93248</v>
       </c>
       <c r="D83" t="n">
-        <v>3.37431</v>
+        <v>3.44585</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.28237</v>
+        <v>2.27132</v>
       </c>
       <c r="C84" t="n">
-        <v>3.83068</v>
+        <v>3.81736</v>
       </c>
       <c r="D84" t="n">
-        <v>3.41694</v>
+        <v>3.35079</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.34426</v>
+        <v>2.32646</v>
       </c>
       <c r="C85" t="n">
-        <v>3.86737</v>
+        <v>3.99834</v>
       </c>
       <c r="D85" t="n">
-        <v>3.59072</v>
+        <v>3.60089</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.3733</v>
+        <v>2.34859</v>
       </c>
       <c r="C86" t="n">
-        <v>4.05589</v>
+        <v>4.05245</v>
       </c>
       <c r="D86" t="n">
-        <v>3.48451</v>
+        <v>3.59248</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.36311</v>
+        <v>2.34996</v>
       </c>
       <c r="C87" t="n">
-        <v>4.07787</v>
+        <v>4.16493</v>
       </c>
       <c r="D87" t="n">
-        <v>3.4801</v>
+        <v>3.55585</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.41718</v>
+        <v>2.38802</v>
       </c>
       <c r="C88" t="n">
-        <v>4.03261</v>
+        <v>4.25039</v>
       </c>
       <c r="D88" t="n">
-        <v>3.65573</v>
+        <v>3.62199</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.5412</v>
+        <v>2.55419</v>
       </c>
       <c r="C89" t="n">
-        <v>4.1207</v>
+        <v>4.212</v>
       </c>
       <c r="D89" t="n">
-        <v>3.58921</v>
+        <v>3.65221</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.5807</v>
+        <v>2.53893</v>
       </c>
       <c r="C90" t="n">
-        <v>4.27085</v>
+        <v>4.50919</v>
       </c>
       <c r="D90" t="n">
-        <v>3.69492</v>
+        <v>3.80548</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.61741</v>
+        <v>2.61191</v>
       </c>
       <c r="C91" t="n">
-        <v>4.29135</v>
+        <v>4.49175</v>
       </c>
       <c r="D91" t="n">
-        <v>3.77765</v>
+        <v>3.79461</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.65155</v>
+        <v>2.65313</v>
       </c>
       <c r="C92" t="n">
-        <v>4.44847</v>
+        <v>4.43631</v>
       </c>
       <c r="D92" t="n">
-        <v>3.84785</v>
+        <v>3.81701</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.64588</v>
+        <v>2.5892</v>
       </c>
       <c r="C93" t="n">
-        <v>4.4424</v>
+        <v>4.51756</v>
       </c>
       <c r="D93" t="n">
-        <v>3.8184</v>
+        <v>3.86287</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.67672</v>
+        <v>2.66827</v>
       </c>
       <c r="C94" t="n">
-        <v>4.46391</v>
+        <v>4.64792</v>
       </c>
       <c r="D94" t="n">
-        <v>3.83196</v>
+        <v>3.84912</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.67639</v>
+        <v>2.67628</v>
       </c>
       <c r="C95" t="n">
-        <v>4.61753</v>
+        <v>4.76777</v>
       </c>
       <c r="D95" t="n">
-        <v>3.8553</v>
+        <v>3.88105</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.62209</v>
+        <v>2.66261</v>
       </c>
       <c r="C96" t="n">
-        <v>4.73149</v>
+        <v>4.88345</v>
       </c>
       <c r="D96" t="n">
-        <v>3.84003</v>
+        <v>3.89541</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.67764</v>
+        <v>2.69665</v>
       </c>
       <c r="C97" t="n">
-        <v>4.4603</v>
+        <v>4.51535</v>
       </c>
       <c r="D97" t="n">
-        <v>4.09108</v>
+        <v>4.07594</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.68457</v>
+        <v>2.70865</v>
       </c>
       <c r="C98" t="n">
-        <v>4.4987</v>
+        <v>4.53049</v>
       </c>
       <c r="D98" t="n">
-        <v>3.97716</v>
+        <v>4.05699</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.78319</v>
+        <v>2.73099</v>
       </c>
       <c r="C99" t="n">
-        <v>4.51845</v>
+        <v>4.72552</v>
       </c>
       <c r="D99" t="n">
-        <v>4.01792</v>
+        <v>3.97937</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.73973</v>
+        <v>2.68379</v>
       </c>
       <c r="C100" t="n">
-        <v>4.58222</v>
+        <v>4.62285</v>
       </c>
       <c r="D100" t="n">
-        <v>4.07059</v>
+        <v>4.12537</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.73842</v>
+        <v>2.69571</v>
       </c>
       <c r="C101" t="n">
-        <v>4.7261</v>
+        <v>4.73763</v>
       </c>
       <c r="D101" t="n">
-        <v>4.1237</v>
+        <v>4.15244</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.79045</v>
+        <v>2.82258</v>
       </c>
       <c r="C102" t="n">
-        <v>4.72895</v>
+        <v>4.72475</v>
       </c>
       <c r="D102" t="n">
-        <v>4.18523</v>
+        <v>4.21218</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.90996</v>
+        <v>2.85381</v>
       </c>
       <c r="C103" t="n">
-        <v>4.78941</v>
+        <v>4.84747</v>
       </c>
       <c r="D103" t="n">
-        <v>4.24789</v>
+        <v>4.13846</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.89189</v>
+        <v>2.87717</v>
       </c>
       <c r="C104" t="n">
-        <v>4.90024</v>
+        <v>4.91999</v>
       </c>
       <c r="D104" t="n">
-        <v>4.17761</v>
+        <v>4.1843</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.87919</v>
+        <v>2.90334</v>
       </c>
       <c r="C105" t="n">
-        <v>5.00602</v>
+        <v>4.99071</v>
       </c>
       <c r="D105" t="n">
-        <v>4.26</v>
+        <v>4.13014</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.96068</v>
+        <v>2.93473</v>
       </c>
       <c r="C106" t="n">
-        <v>5.12395</v>
+        <v>5.17192</v>
       </c>
       <c r="D106" t="n">
-        <v>4.24506</v>
+        <v>4.25382</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.96154</v>
+        <v>2.9169</v>
       </c>
       <c r="C107" t="n">
-        <v>5.15579</v>
+        <v>5.15527</v>
       </c>
       <c r="D107" t="n">
-        <v>4.28677</v>
+        <v>4.26533</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.99214</v>
+        <v>2.95659</v>
       </c>
       <c r="C108" t="n">
-        <v>5.23731</v>
+        <v>5.23038</v>
       </c>
       <c r="D108" t="n">
-        <v>4.32702</v>
+        <v>4.3401</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.04572</v>
+        <v>2.98734</v>
       </c>
       <c r="C109" t="n">
-        <v>5.28434</v>
+        <v>5.36027</v>
       </c>
       <c r="D109" t="n">
-        <v>4.35849</v>
+        <v>4.32873</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.04703</v>
+        <v>3.07746</v>
       </c>
       <c r="C110" t="n">
-        <v>5.45164</v>
+        <v>5.38839</v>
       </c>
       <c r="D110" t="n">
-        <v>4.39776</v>
+        <v>4.3408</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.01146</v>
+        <v>3.00503</v>
       </c>
       <c r="C111" t="n">
-        <v>5.04472</v>
+        <v>4.99893</v>
       </c>
       <c r="D111" t="n">
-        <v>4.50966</v>
+        <v>4.45402</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.04707</v>
+        <v>3.04874</v>
       </c>
       <c r="C112" t="n">
-        <v>5.13833</v>
+        <v>5.17144</v>
       </c>
       <c r="D112" t="n">
-        <v>4.59348</v>
+        <v>4.53657</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.12283</v>
+        <v>3.09117</v>
       </c>
       <c r="C113" t="n">
-        <v>5.20545</v>
+        <v>5.16547</v>
       </c>
       <c r="D113" t="n">
-        <v>4.64478</v>
+        <v>4.56825</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.11559</v>
+        <v>3.06954</v>
       </c>
       <c r="C114" t="n">
-        <v>5.22257</v>
+        <v>5.26671</v>
       </c>
       <c r="D114" t="n">
-        <v>4.64651</v>
+        <v>4.58791</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.12313</v>
+        <v>3.13522</v>
       </c>
       <c r="C115" t="n">
-        <v>5.34687</v>
+        <v>5.34099</v>
       </c>
       <c r="D115" t="n">
-        <v>4.63788</v>
+        <v>4.6731</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.15583</v>
+        <v>3.10477</v>
       </c>
       <c r="C116" t="n">
-        <v>5.37737</v>
+        <v>5.42881</v>
       </c>
       <c r="D116" t="n">
-        <v>4.70258</v>
+        <v>4.68029</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.30584</v>
+        <v>3.26618</v>
       </c>
       <c r="C117" t="n">
-        <v>5.53776</v>
+        <v>5.53266</v>
       </c>
       <c r="D117" t="n">
-        <v>4.71148</v>
+        <v>4.68744</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.3335</v>
+        <v>3.29997</v>
       </c>
       <c r="C118" t="n">
-        <v>5.60318</v>
+        <v>5.61872</v>
       </c>
       <c r="D118" t="n">
-        <v>4.73863</v>
+        <v>4.77144</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.36511</v>
+        <v>3.31834</v>
       </c>
       <c r="C119" t="n">
-        <v>5.73916</v>
+        <v>5.70137</v>
       </c>
       <c r="D119" t="n">
-        <v>4.83751</v>
+        <v>4.79757</v>
       </c>
     </row>
   </sheetData>
